--- a/Booyco HMI Utility/Resources/Documents/CommanderParametersFile.xlsx
+++ b/Booyco HMI Utility/Resources/Documents/CommanderParametersFile.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Neil\Dropbox (Mernok Elektronik)\Software\Booyco HMI Utility\Booyco HMI Utility\Resources\Documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{D5116A9C-131A-458D-9EC9-EF454E351A7D}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{254F9DA3-6C9B-4887-AD8E-644631C04EDD}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{4442C273-631E-40E6-88D2-7449766A5078}"/>
+    <workbookView xWindow="630" yWindow="2475" windowWidth="24840" windowHeight="11385" xr2:uid="{4442C273-631E-40E6-88D2-7449766A5078}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -1676,8 +1676,8 @@
   <dimension ref="A1:N317"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="K292" sqref="K292"/>
+      <pane ySplit="1" topLeftCell="A287" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F290" sqref="F290"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9095,10 +9095,10 @@
         <v>0</v>
       </c>
       <c r="F289" s="3">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G289" s="3">
-        <v>0</v>
+        <v>11</v>
       </c>
     </row>
     <row r="290" spans="1:7" x14ac:dyDescent="0.25">
@@ -9119,10 +9119,10 @@
         <v>0</v>
       </c>
       <c r="F290" s="3">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G290" s="3">
-        <v>0</v>
+        <v>11</v>
       </c>
     </row>
     <row r="291" spans="1:7" x14ac:dyDescent="0.25">
@@ -9143,10 +9143,10 @@
         <v>3</v>
       </c>
       <c r="F291" s="3">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G291" s="3">
-        <v>0</v>
+        <v>11</v>
       </c>
     </row>
     <row r="292" spans="1:7" x14ac:dyDescent="0.25">

--- a/Booyco HMI Utility/Resources/Documents/CommanderParametersFile.xlsx
+++ b/Booyco HMI Utility/Resources/Documents/CommanderParametersFile.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Neil\Dropbox (Mernok Elektronik)\Software\Booyco HMI Utility\Booyco HMI Utility\Resources\Documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{254F9DA3-6C9B-4887-AD8E-644631C04EDD}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A5ED9A80-4D52-4713-B4F3-96D12BA1D7B7}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="630" yWindow="2475" windowWidth="24840" windowHeight="11385" xr2:uid="{4442C273-631E-40E6-88D2-7449766A5078}"/>
+    <workbookView xWindow="31305" yWindow="870" windowWidth="24840" windowHeight="11385" xr2:uid="{4442C273-631E-40E6-88D2-7449766A5078}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="404" uniqueCount="401">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="406" uniqueCount="403">
   <si>
     <t>Name</t>
   </si>
@@ -1234,6 +1234,12 @@
   </si>
   <si>
     <t>Force Stop OVR</t>
+  </si>
+  <si>
+    <t>External button 5</t>
+  </si>
+  <si>
+    <t>External button 6</t>
   </si>
 </sst>
 </file>
@@ -1676,8 +1682,8 @@
   <dimension ref="A1:N317"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A287" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F290" sqref="F290"/>
+      <pane ySplit="1" topLeftCell="A14" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="N26" sqref="N26:N28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1844,7 +1850,7 @@
         <v>1</v>
       </c>
       <c r="C5" s="3">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D5" s="3">
         <v>0</v>
@@ -2525,10 +2531,10 @@
         <v>0</v>
       </c>
       <c r="M27" s="1">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="N27" s="1" t="s">
-        <v>34</v>
+        <v>401</v>
       </c>
     </row>
     <row r="28" spans="1:14" x14ac:dyDescent="0.25">
@@ -2555,10 +2561,10 @@
         <v>0</v>
       </c>
       <c r="M28" s="1">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="N28" s="1" t="s">
-        <v>35</v>
+        <v>402</v>
       </c>
     </row>
     <row r="29" spans="1:14" x14ac:dyDescent="0.25">
@@ -2588,7 +2594,7 @@
         <v>7</v>
       </c>
       <c r="N29" s="1" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
     </row>
     <row r="30" spans="1:14" x14ac:dyDescent="0.25">
@@ -2618,7 +2624,7 @@
         <v>7</v>
       </c>
       <c r="N30" s="1" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
     </row>
     <row r="31" spans="1:14" x14ac:dyDescent="0.25">
@@ -2648,7 +2654,7 @@
         <v>7</v>
       </c>
       <c r="N31" s="1" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
     </row>
     <row r="32" spans="1:14" x14ac:dyDescent="0.25">
@@ -2678,7 +2684,7 @@
         <v>7</v>
       </c>
       <c r="N32" s="1" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
     </row>
     <row r="33" spans="1:14" x14ac:dyDescent="0.25">
@@ -2708,7 +2714,7 @@
         <v>7</v>
       </c>
       <c r="N33" s="1" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
     </row>
     <row r="34" spans="1:14" x14ac:dyDescent="0.25">
@@ -2738,7 +2744,7 @@
         <v>7</v>
       </c>
       <c r="N34" s="1" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
     </row>
     <row r="35" spans="1:14" x14ac:dyDescent="0.25">
@@ -2768,7 +2774,7 @@
         <v>7</v>
       </c>
       <c r="N35" s="1" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
     </row>
     <row r="36" spans="1:14" x14ac:dyDescent="0.25">
@@ -2798,7 +2804,7 @@
         <v>7</v>
       </c>
       <c r="N36" s="1" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
     </row>
     <row r="37" spans="1:14" x14ac:dyDescent="0.25">
@@ -2828,7 +2834,7 @@
         <v>7</v>
       </c>
       <c r="N37" s="1" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
     </row>
     <row r="38" spans="1:14" x14ac:dyDescent="0.25">
@@ -2858,7 +2864,7 @@
         <v>7</v>
       </c>
       <c r="N38" s="1" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
     </row>
     <row r="39" spans="1:14" x14ac:dyDescent="0.25">
@@ -2885,10 +2891,10 @@
         <v>0</v>
       </c>
       <c r="M39" s="1">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="N39" s="1" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
     </row>
     <row r="40" spans="1:14" x14ac:dyDescent="0.25">
@@ -2915,10 +2921,10 @@
         <v>0</v>
       </c>
       <c r="M40" s="1">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="N40" s="1" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
     </row>
     <row r="41" spans="1:14" x14ac:dyDescent="0.25">
@@ -2948,7 +2954,7 @@
         <v>8</v>
       </c>
       <c r="N41" s="1" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
     </row>
     <row r="42" spans="1:14" x14ac:dyDescent="0.25">
@@ -2978,7 +2984,7 @@
         <v>8</v>
       </c>
       <c r="N42" s="1" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
     </row>
     <row r="43" spans="1:14" x14ac:dyDescent="0.25">
@@ -3008,7 +3014,7 @@
         <v>8</v>
       </c>
       <c r="N43" s="1" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
     </row>
     <row r="44" spans="1:14" x14ac:dyDescent="0.25">
@@ -3038,7 +3044,7 @@
         <v>8</v>
       </c>
       <c r="N44" s="1" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
     </row>
     <row r="45" spans="1:14" x14ac:dyDescent="0.25">
@@ -3068,7 +3074,7 @@
         <v>8</v>
       </c>
       <c r="N45" s="1" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
     </row>
     <row r="46" spans="1:14" x14ac:dyDescent="0.25">
@@ -3098,7 +3104,7 @@
         <v>8</v>
       </c>
       <c r="N46" s="1" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
     </row>
     <row r="47" spans="1:14" x14ac:dyDescent="0.25">
@@ -3128,7 +3134,7 @@
         <v>8</v>
       </c>
       <c r="N47" s="1" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
     </row>
     <row r="48" spans="1:14" x14ac:dyDescent="0.25">
@@ -3158,7 +3164,7 @@
         <v>8</v>
       </c>
       <c r="N48" s="1" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
     </row>
     <row r="49" spans="1:14" x14ac:dyDescent="0.25">
@@ -3188,7 +3194,7 @@
         <v>8</v>
       </c>
       <c r="N49" s="1" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
     </row>
     <row r="50" spans="1:14" x14ac:dyDescent="0.25">
@@ -3218,7 +3224,7 @@
         <v>8</v>
       </c>
       <c r="N50" s="1" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
     </row>
     <row r="51" spans="1:14" x14ac:dyDescent="0.25">
@@ -3248,7 +3254,7 @@
         <v>8</v>
       </c>
       <c r="N51" s="1" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
     </row>
     <row r="52" spans="1:14" x14ac:dyDescent="0.25">
@@ -3278,7 +3284,7 @@
         <v>8</v>
       </c>
       <c r="N52" s="1" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
     </row>
     <row r="53" spans="1:14" x14ac:dyDescent="0.25">
@@ -3308,7 +3314,7 @@
         <v>8</v>
       </c>
       <c r="N53" s="1" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
     </row>
     <row r="54" spans="1:14" x14ac:dyDescent="0.25">
@@ -3338,7 +3344,7 @@
         <v>8</v>
       </c>
       <c r="N54" s="1" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
     </row>
     <row r="55" spans="1:14" x14ac:dyDescent="0.25">
@@ -3365,10 +3371,10 @@
         <v>0</v>
       </c>
       <c r="M55" s="1">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="N55" s="1" t="s">
-        <v>32</v>
+        <v>60</v>
       </c>
     </row>
     <row r="56" spans="1:14" x14ac:dyDescent="0.25">
@@ -3395,10 +3401,10 @@
         <v>0</v>
       </c>
       <c r="M56" s="1">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="N56" s="1" t="s">
-        <v>33</v>
+        <v>61</v>
       </c>
     </row>
     <row r="57" spans="1:14" x14ac:dyDescent="0.25">
@@ -3425,10 +3431,10 @@
         <v>0</v>
       </c>
       <c r="M57" s="1">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="N57" s="1" t="s">
-        <v>380</v>
+        <v>32</v>
       </c>
     </row>
     <row r="58" spans="1:14" x14ac:dyDescent="0.25">
@@ -3455,10 +3461,10 @@
         <v>0</v>
       </c>
       <c r="M58" s="1">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="N58" s="1" t="s">
-        <v>381</v>
+        <v>33</v>
       </c>
     </row>
     <row r="59" spans="1:14" x14ac:dyDescent="0.25">
@@ -3488,7 +3494,7 @@
         <v>10</v>
       </c>
       <c r="N59" s="1" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
     </row>
     <row r="60" spans="1:14" x14ac:dyDescent="0.25">
@@ -3518,7 +3524,7 @@
         <v>10</v>
       </c>
       <c r="N60" s="1" t="s">
-        <v>383</v>
+        <v>381</v>
       </c>
     </row>
     <row r="61" spans="1:14" x14ac:dyDescent="0.25">
@@ -3545,10 +3551,10 @@
         <v>0</v>
       </c>
       <c r="M61" s="1">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="N61" s="1" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
     </row>
     <row r="62" spans="1:14" x14ac:dyDescent="0.25">
@@ -3575,10 +3581,10 @@
         <v>0</v>
       </c>
       <c r="M62" s="1">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="N62" s="1" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
     </row>
     <row r="63" spans="1:14" x14ac:dyDescent="0.25">
@@ -3608,7 +3614,7 @@
         <v>11</v>
       </c>
       <c r="N63" s="1" t="s">
-        <v>388</v>
+        <v>384</v>
       </c>
     </row>
     <row r="64" spans="1:14" x14ac:dyDescent="0.25">
@@ -3638,7 +3644,7 @@
         <v>11</v>
       </c>
       <c r="N64" s="1" t="s">
-        <v>387</v>
+        <v>385</v>
       </c>
     </row>
     <row r="65" spans="1:14" x14ac:dyDescent="0.25">
@@ -3668,7 +3674,7 @@
         <v>11</v>
       </c>
       <c r="N65" s="1" t="s">
-        <v>386</v>
+        <v>388</v>
       </c>
     </row>
     <row r="66" spans="1:14" x14ac:dyDescent="0.25">
@@ -3698,7 +3704,7 @@
         <v>11</v>
       </c>
       <c r="N66" s="1" t="s">
-        <v>392</v>
+        <v>387</v>
       </c>
     </row>
     <row r="67" spans="1:14" x14ac:dyDescent="0.25">
@@ -3728,7 +3734,7 @@
         <v>11</v>
       </c>
       <c r="N67" s="1" t="s">
-        <v>393</v>
+        <v>386</v>
       </c>
     </row>
     <row r="68" spans="1:14" x14ac:dyDescent="0.25">
@@ -3758,7 +3764,7 @@
         <v>11</v>
       </c>
       <c r="N68" s="1" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
     </row>
     <row r="69" spans="1:14" x14ac:dyDescent="0.25">
@@ -3788,7 +3794,7 @@
         <v>11</v>
       </c>
       <c r="N69" s="1" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
     </row>
     <row r="70" spans="1:14" x14ac:dyDescent="0.25">
@@ -3818,7 +3824,7 @@
         <v>11</v>
       </c>
       <c r="N70" s="1" t="s">
-        <v>396</v>
+        <v>394</v>
       </c>
     </row>
     <row r="71" spans="1:14" x14ac:dyDescent="0.25">
@@ -3848,7 +3854,7 @@
         <v>11</v>
       </c>
       <c r="N71" s="1" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
     </row>
     <row r="72" spans="1:14" x14ac:dyDescent="0.25">
@@ -3878,7 +3884,7 @@
         <v>11</v>
       </c>
       <c r="N72" s="1" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
     </row>
     <row r="73" spans="1:14" x14ac:dyDescent="0.25">
@@ -3908,7 +3914,7 @@
         <v>11</v>
       </c>
       <c r="N73" s="1" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
     </row>
     <row r="74" spans="1:14" x14ac:dyDescent="0.25">
@@ -3938,7 +3944,7 @@
         <v>11</v>
       </c>
       <c r="N74" s="1" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
     </row>
     <row r="75" spans="1:14" x14ac:dyDescent="0.25">
@@ -3964,6 +3970,12 @@
       <c r="G75" s="3">
         <v>0</v>
       </c>
+      <c r="M75" s="1">
+        <v>11</v>
+      </c>
+      <c r="N75" s="1" t="s">
+        <v>399</v>
+      </c>
     </row>
     <row r="76" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A76" s="3" t="s">
@@ -3987,6 +3999,12 @@
       </c>
       <c r="G76" s="3">
         <v>0</v>
+      </c>
+      <c r="M76" s="1">
+        <v>11</v>
+      </c>
+      <c r="N76" s="1" t="s">
+        <v>400</v>
       </c>
     </row>
     <row r="77" spans="1:14" x14ac:dyDescent="0.25">

--- a/Booyco HMI Utility/Resources/Documents/CommanderParametersFile.xlsx
+++ b/Booyco HMI Utility/Resources/Documents/CommanderParametersFile.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Neil\Dropbox (Mernok Elektronik)\Software\Booyco HMI Utility\Booyco HMI Utility\Resources\Documents\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Werk\Booyco-HMI-Utility\Booyco HMI Utility\Resources\Documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A5ED9A80-4D52-4713-B4F3-96D12BA1D7B7}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{366F10EF-1994-4580-A76D-33FDE3F739BF}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="31305" yWindow="870" windowWidth="24840" windowHeight="11385" xr2:uid="{4442C273-631E-40E6-88D2-7449766A5078}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{4442C273-631E-40E6-88D2-7449766A5078}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="406" uniqueCount="403">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1040" uniqueCount="418">
   <si>
     <t>Name</t>
   </si>
@@ -1240,6 +1240,51 @@
   </si>
   <si>
     <t>External button 6</t>
+  </si>
+  <si>
+    <t>Group</t>
+  </si>
+  <si>
+    <t>System</t>
+  </si>
+  <si>
+    <t>License</t>
+  </si>
+  <si>
+    <t>Pulse300</t>
+  </si>
+  <si>
+    <t>Pulse400</t>
+  </si>
+  <si>
+    <t>Pulse500</t>
+  </si>
+  <si>
+    <t>Global</t>
+  </si>
+  <si>
+    <t>Tags</t>
+  </si>
+  <si>
+    <t>GPS</t>
+  </si>
+  <si>
+    <t>SubGroup</t>
+  </si>
+  <si>
+    <t>Primary</t>
+  </si>
+  <si>
+    <t>LF</t>
+  </si>
+  <si>
+    <t>Pre-OP</t>
+  </si>
+  <si>
+    <t>Detection</t>
+  </si>
+  <si>
+    <t>Periferals</t>
   </si>
 </sst>
 </file>
@@ -1356,12 +1401,14 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="3"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="2" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="2" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="Calculation" xfId="3" builtinId="22"/>
@@ -1682,8 +1729,8 @@
   <dimension ref="A1:N317"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A14" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="N26" sqref="N26:N28"/>
+      <pane ySplit="1" topLeftCell="A269" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="I1" sqref="I1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1692,6 +1739,7 @@
     <col min="3" max="3" width="9.5703125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="9.28515625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="17.5703125" customWidth="1"/>
     <col min="11" max="11" width="12.140625" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="12.140625" customWidth="1"/>
     <col min="13" max="13" width="6.140625" bestFit="1" customWidth="1"/>
@@ -1720,6 +1768,12 @@
       <c r="G1" s="3" t="s">
         <v>9</v>
       </c>
+      <c r="H1" s="6" t="s">
+        <v>403</v>
+      </c>
+      <c r="I1" s="6" t="s">
+        <v>412</v>
+      </c>
       <c r="J1" s="2" t="s">
         <v>8</v>
       </c>
@@ -1756,6 +1810,12 @@
       <c r="G2" s="3">
         <v>0</v>
       </c>
+      <c r="H2" s="5" t="s">
+        <v>404</v>
+      </c>
+      <c r="I2" t="s">
+        <v>413</v>
+      </c>
       <c r="J2" s="2">
         <v>0</v>
       </c>
@@ -1792,6 +1852,12 @@
       <c r="G3" s="3">
         <v>0</v>
       </c>
+      <c r="H3" s="5" t="s">
+        <v>404</v>
+      </c>
+      <c r="I3" t="s">
+        <v>413</v>
+      </c>
       <c r="J3" s="2">
         <v>1</v>
       </c>
@@ -1828,6 +1894,12 @@
       <c r="G4" s="3">
         <v>0</v>
       </c>
+      <c r="H4" s="5" t="s">
+        <v>404</v>
+      </c>
+      <c r="I4" t="s">
+        <v>413</v>
+      </c>
       <c r="J4" s="2">
         <v>2</v>
       </c>
@@ -1864,6 +1936,12 @@
       <c r="G5" s="3">
         <v>1</v>
       </c>
+      <c r="H5" s="5" t="s">
+        <v>404</v>
+      </c>
+      <c r="I5" t="s">
+        <v>413</v>
+      </c>
       <c r="J5" s="4">
         <v>4</v>
       </c>
@@ -1900,6 +1978,12 @@
       <c r="G6" s="3">
         <v>2</v>
       </c>
+      <c r="H6" s="5" t="s">
+        <v>404</v>
+      </c>
+      <c r="I6" t="s">
+        <v>413</v>
+      </c>
       <c r="M6" s="1">
         <v>2</v>
       </c>
@@ -1930,6 +2014,12 @@
       <c r="G7" s="3">
         <v>3</v>
       </c>
+      <c r="H7" s="5" t="s">
+        <v>404</v>
+      </c>
+      <c r="I7" t="s">
+        <v>413</v>
+      </c>
       <c r="M7" s="1">
         <v>2</v>
       </c>
@@ -1960,6 +2050,12 @@
       <c r="G8" s="3">
         <v>0</v>
       </c>
+      <c r="H8" s="5" t="s">
+        <v>404</v>
+      </c>
+      <c r="I8" t="s">
+        <v>413</v>
+      </c>
       <c r="M8" s="1">
         <v>3</v>
       </c>
@@ -1990,6 +2086,12 @@
       <c r="G9" s="3">
         <v>0</v>
       </c>
+      <c r="H9" s="5" t="s">
+        <v>404</v>
+      </c>
+      <c r="I9" t="s">
+        <v>413</v>
+      </c>
       <c r="M9" s="1">
         <v>4</v>
       </c>
@@ -2020,6 +2122,12 @@
       <c r="G10" s="3">
         <v>0</v>
       </c>
+      <c r="H10" s="5" t="s">
+        <v>404</v>
+      </c>
+      <c r="I10" t="s">
+        <v>413</v>
+      </c>
       <c r="M10" s="1">
         <v>4</v>
       </c>
@@ -2050,6 +2158,12 @@
       <c r="G11" s="3">
         <v>0</v>
       </c>
+      <c r="H11" s="5" t="s">
+        <v>404</v>
+      </c>
+      <c r="I11" t="s">
+        <v>413</v>
+      </c>
       <c r="M11" s="1">
         <v>4</v>
       </c>
@@ -2080,6 +2194,12 @@
       <c r="G12" s="3">
         <v>0</v>
       </c>
+      <c r="H12" s="5" t="s">
+        <v>404</v>
+      </c>
+      <c r="I12" t="s">
+        <v>413</v>
+      </c>
       <c r="M12" s="1">
         <v>4</v>
       </c>
@@ -2110,6 +2230,12 @@
       <c r="G13" s="3">
         <v>0</v>
       </c>
+      <c r="H13" s="5" t="s">
+        <v>404</v>
+      </c>
+      <c r="I13" t="s">
+        <v>413</v>
+      </c>
       <c r="M13" s="1">
         <v>4</v>
       </c>
@@ -2140,6 +2266,12 @@
       <c r="G14" s="3">
         <v>0</v>
       </c>
+      <c r="H14" s="5" t="s">
+        <v>404</v>
+      </c>
+      <c r="I14" t="s">
+        <v>413</v>
+      </c>
       <c r="M14" s="1">
         <v>5</v>
       </c>
@@ -2170,6 +2302,12 @@
       <c r="G15" s="3">
         <v>0</v>
       </c>
+      <c r="H15" s="5" t="s">
+        <v>404</v>
+      </c>
+      <c r="I15" t="s">
+        <v>413</v>
+      </c>
       <c r="M15" s="1">
         <v>5</v>
       </c>
@@ -2200,6 +2338,12 @@
       <c r="G16" s="3">
         <v>0</v>
       </c>
+      <c r="H16" s="5" t="s">
+        <v>404</v>
+      </c>
+      <c r="I16" t="s">
+        <v>413</v>
+      </c>
       <c r="M16" s="1">
         <v>5</v>
       </c>
@@ -2230,6 +2374,12 @@
       <c r="G17" s="3">
         <v>0</v>
       </c>
+      <c r="H17" s="5" t="s">
+        <v>404</v>
+      </c>
+      <c r="I17" t="s">
+        <v>413</v>
+      </c>
       <c r="M17" s="1">
         <v>5</v>
       </c>
@@ -2260,6 +2410,12 @@
       <c r="G18" s="3">
         <v>0</v>
       </c>
+      <c r="H18" s="5" t="s">
+        <v>404</v>
+      </c>
+      <c r="I18" t="s">
+        <v>413</v>
+      </c>
       <c r="M18" s="1">
         <v>5</v>
       </c>
@@ -2290,6 +2446,12 @@
       <c r="G19" s="3">
         <v>0</v>
       </c>
+      <c r="H19" s="5" t="s">
+        <v>404</v>
+      </c>
+      <c r="I19" t="s">
+        <v>413</v>
+      </c>
       <c r="M19" s="1">
         <v>6</v>
       </c>
@@ -2320,6 +2482,12 @@
       <c r="G20" s="3">
         <v>0</v>
       </c>
+      <c r="H20" s="5" t="s">
+        <v>404</v>
+      </c>
+      <c r="I20" t="s">
+        <v>413</v>
+      </c>
       <c r="M20" s="1">
         <v>6</v>
       </c>
@@ -2350,6 +2518,12 @@
       <c r="G21" s="3">
         <v>0</v>
       </c>
+      <c r="H21" s="5" t="s">
+        <v>404</v>
+      </c>
+      <c r="I21" t="s">
+        <v>413</v>
+      </c>
       <c r="M21" s="1">
         <v>6</v>
       </c>
@@ -2380,6 +2554,12 @@
       <c r="G22" s="3">
         <v>0</v>
       </c>
+      <c r="H22" s="5" t="s">
+        <v>404</v>
+      </c>
+      <c r="I22" t="s">
+        <v>413</v>
+      </c>
       <c r="M22" s="1">
         <v>6</v>
       </c>
@@ -2410,6 +2590,12 @@
       <c r="G23" s="3">
         <v>0</v>
       </c>
+      <c r="H23" s="5" t="s">
+        <v>404</v>
+      </c>
+      <c r="I23" t="s">
+        <v>413</v>
+      </c>
       <c r="M23" s="1">
         <v>6</v>
       </c>
@@ -2440,6 +2626,12 @@
       <c r="G24" s="3">
         <v>0</v>
       </c>
+      <c r="H24" s="5" t="s">
+        <v>404</v>
+      </c>
+      <c r="I24" t="s">
+        <v>413</v>
+      </c>
       <c r="M24" s="1">
         <v>6</v>
       </c>
@@ -2470,6 +2662,12 @@
       <c r="G25" s="3">
         <v>0</v>
       </c>
+      <c r="H25" s="5" t="s">
+        <v>404</v>
+      </c>
+      <c r="I25" t="s">
+        <v>413</v>
+      </c>
       <c r="M25" s="1">
         <v>6</v>
       </c>
@@ -2500,6 +2698,12 @@
       <c r="G26" s="3">
         <v>0</v>
       </c>
+      <c r="H26" s="5" t="s">
+        <v>404</v>
+      </c>
+      <c r="I26" t="s">
+        <v>413</v>
+      </c>
       <c r="M26" s="1">
         <v>6</v>
       </c>
@@ -2530,6 +2734,12 @@
       <c r="G27" s="3">
         <v>0</v>
       </c>
+      <c r="H27" s="5" t="s">
+        <v>404</v>
+      </c>
+      <c r="I27" t="s">
+        <v>413</v>
+      </c>
       <c r="M27" s="1">
         <v>6</v>
       </c>
@@ -2560,6 +2770,12 @@
       <c r="G28" s="3">
         <v>0</v>
       </c>
+      <c r="H28" s="5" t="s">
+        <v>404</v>
+      </c>
+      <c r="I28" t="s">
+        <v>414</v>
+      </c>
       <c r="M28" s="1">
         <v>6</v>
       </c>
@@ -2590,6 +2806,12 @@
       <c r="G29" s="3">
         <v>0</v>
       </c>
+      <c r="H29" s="5" t="s">
+        <v>404</v>
+      </c>
+      <c r="I29" t="s">
+        <v>414</v>
+      </c>
       <c r="M29" s="1">
         <v>7</v>
       </c>
@@ -2620,6 +2842,12 @@
       <c r="G30" s="3">
         <v>0</v>
       </c>
+      <c r="H30" s="5" t="s">
+        <v>404</v>
+      </c>
+      <c r="I30" t="s">
+        <v>414</v>
+      </c>
       <c r="M30" s="1">
         <v>7</v>
       </c>
@@ -2650,6 +2878,12 @@
       <c r="G31" s="3">
         <v>0</v>
       </c>
+      <c r="H31" s="5" t="s">
+        <v>404</v>
+      </c>
+      <c r="I31" t="s">
+        <v>414</v>
+      </c>
       <c r="M31" s="1">
         <v>7</v>
       </c>
@@ -2680,6 +2914,12 @@
       <c r="G32" s="3">
         <v>0</v>
       </c>
+      <c r="H32" s="5" t="s">
+        <v>404</v>
+      </c>
+      <c r="I32" t="s">
+        <v>413</v>
+      </c>
       <c r="M32" s="1">
         <v>7</v>
       </c>
@@ -2710,6 +2950,12 @@
       <c r="G33" s="3">
         <v>0</v>
       </c>
+      <c r="H33" s="5" t="s">
+        <v>404</v>
+      </c>
+      <c r="I33" t="s">
+        <v>413</v>
+      </c>
       <c r="M33" s="1">
         <v>7</v>
       </c>
@@ -2740,6 +2986,12 @@
       <c r="G34" s="3">
         <v>0</v>
       </c>
+      <c r="H34" s="5" t="s">
+        <v>404</v>
+      </c>
+      <c r="I34" t="s">
+        <v>413</v>
+      </c>
       <c r="M34" s="1">
         <v>7</v>
       </c>
@@ -2770,6 +3022,12 @@
       <c r="G35" s="3">
         <v>0</v>
       </c>
+      <c r="H35" s="5" t="s">
+        <v>404</v>
+      </c>
+      <c r="I35" t="s">
+        <v>413</v>
+      </c>
       <c r="M35" s="1">
         <v>7</v>
       </c>
@@ -2800,6 +3058,12 @@
       <c r="G36" s="3">
         <v>0</v>
       </c>
+      <c r="H36" s="5" t="s">
+        <v>404</v>
+      </c>
+      <c r="I36" t="s">
+        <v>413</v>
+      </c>
       <c r="M36" s="1">
         <v>7</v>
       </c>
@@ -2830,6 +3094,12 @@
       <c r="G37" s="3">
         <v>0</v>
       </c>
+      <c r="H37" s="5" t="s">
+        <v>404</v>
+      </c>
+      <c r="I37" t="s">
+        <v>415</v>
+      </c>
       <c r="M37" s="1">
         <v>7</v>
       </c>
@@ -2860,6 +3130,12 @@
       <c r="G38" s="3">
         <v>0</v>
       </c>
+      <c r="H38" s="5" t="s">
+        <v>404</v>
+      </c>
+      <c r="I38" t="s">
+        <v>415</v>
+      </c>
       <c r="M38" s="1">
         <v>7</v>
       </c>
@@ -2890,6 +3166,12 @@
       <c r="G39" s="3">
         <v>0</v>
       </c>
+      <c r="H39" s="5" t="s">
+        <v>404</v>
+      </c>
+      <c r="I39" t="s">
+        <v>415</v>
+      </c>
       <c r="M39" s="1">
         <v>7</v>
       </c>
@@ -2920,6 +3202,12 @@
       <c r="G40" s="3">
         <v>0</v>
       </c>
+      <c r="H40" s="5" t="s">
+        <v>404</v>
+      </c>
+      <c r="I40" t="s">
+        <v>415</v>
+      </c>
       <c r="M40" s="1">
         <v>7</v>
       </c>
@@ -2950,6 +3238,12 @@
       <c r="G41" s="3">
         <v>0</v>
       </c>
+      <c r="H41" s="5" t="s">
+        <v>404</v>
+      </c>
+      <c r="I41" t="s">
+        <v>416</v>
+      </c>
       <c r="M41" s="1">
         <v>8</v>
       </c>
@@ -2980,6 +3274,12 @@
       <c r="G42" s="3">
         <v>0</v>
       </c>
+      <c r="H42" s="5" t="s">
+        <v>404</v>
+      </c>
+      <c r="I42" t="s">
+        <v>416</v>
+      </c>
       <c r="M42" s="1">
         <v>8</v>
       </c>
@@ -3010,6 +3310,12 @@
       <c r="G43" s="3">
         <v>0</v>
       </c>
+      <c r="H43" s="5" t="s">
+        <v>404</v>
+      </c>
+      <c r="I43" t="s">
+        <v>416</v>
+      </c>
       <c r="M43" s="1">
         <v>8</v>
       </c>
@@ -3040,6 +3346,12 @@
       <c r="G44" s="3">
         <v>0</v>
       </c>
+      <c r="H44" s="5" t="s">
+        <v>404</v>
+      </c>
+      <c r="I44" t="s">
+        <v>416</v>
+      </c>
       <c r="M44" s="1">
         <v>8</v>
       </c>
@@ -3070,6 +3382,12 @@
       <c r="G45" s="3">
         <v>0</v>
       </c>
+      <c r="H45" s="5" t="s">
+        <v>404</v>
+      </c>
+      <c r="I45" t="s">
+        <v>416</v>
+      </c>
       <c r="M45" s="1">
         <v>8</v>
       </c>
@@ -3100,6 +3418,12 @@
       <c r="G46" s="3">
         <v>4</v>
       </c>
+      <c r="H46" s="5" t="s">
+        <v>405</v>
+      </c>
+      <c r="I46" s="5" t="s">
+        <v>405</v>
+      </c>
       <c r="M46" s="1">
         <v>8</v>
       </c>
@@ -3130,6 +3454,12 @@
       <c r="G47" s="3">
         <v>5</v>
       </c>
+      <c r="H47" s="5" t="s">
+        <v>405</v>
+      </c>
+      <c r="I47" s="5" t="s">
+        <v>405</v>
+      </c>
       <c r="M47" s="1">
         <v>8</v>
       </c>
@@ -3160,6 +3490,12 @@
       <c r="G48" s="3">
         <v>0</v>
       </c>
+      <c r="H48" s="5" t="s">
+        <v>405</v>
+      </c>
+      <c r="I48" s="5" t="s">
+        <v>405</v>
+      </c>
       <c r="M48" s="1">
         <v>8</v>
       </c>
@@ -3190,6 +3526,12 @@
       <c r="G49" s="3">
         <v>0</v>
       </c>
+      <c r="H49" s="5" t="s">
+        <v>405</v>
+      </c>
+      <c r="I49" s="5" t="s">
+        <v>405</v>
+      </c>
       <c r="M49" s="1">
         <v>8</v>
       </c>
@@ -3220,6 +3562,12 @@
       <c r="G50" s="3">
         <v>0</v>
       </c>
+      <c r="H50" s="5" t="s">
+        <v>405</v>
+      </c>
+      <c r="I50" s="5" t="s">
+        <v>405</v>
+      </c>
       <c r="M50" s="1">
         <v>8</v>
       </c>
@@ -3250,6 +3598,12 @@
       <c r="G51" s="3">
         <v>0</v>
       </c>
+      <c r="H51" s="5" t="s">
+        <v>417</v>
+      </c>
+      <c r="I51" s="5" t="s">
+        <v>406</v>
+      </c>
       <c r="M51" s="1">
         <v>8</v>
       </c>
@@ -3280,6 +3634,12 @@
       <c r="G52" s="3">
         <v>0</v>
       </c>
+      <c r="H52" s="5" t="s">
+        <v>417</v>
+      </c>
+      <c r="I52" s="5" t="s">
+        <v>406</v>
+      </c>
       <c r="M52" s="1">
         <v>8</v>
       </c>
@@ -3310,6 +3670,12 @@
       <c r="G53" s="3">
         <v>0</v>
       </c>
+      <c r="H53" s="5" t="s">
+        <v>417</v>
+      </c>
+      <c r="I53" s="5" t="s">
+        <v>406</v>
+      </c>
       <c r="M53" s="1">
         <v>8</v>
       </c>
@@ -3340,6 +3706,12 @@
       <c r="G54" s="3">
         <v>0</v>
       </c>
+      <c r="H54" s="5" t="s">
+        <v>417</v>
+      </c>
+      <c r="I54" s="5" t="s">
+        <v>406</v>
+      </c>
       <c r="M54" s="1">
         <v>8</v>
       </c>
@@ -3370,6 +3742,12 @@
       <c r="G55" s="3">
         <v>0</v>
       </c>
+      <c r="H55" s="5" t="s">
+        <v>417</v>
+      </c>
+      <c r="I55" s="5" t="s">
+        <v>406</v>
+      </c>
       <c r="M55" s="1">
         <v>8</v>
       </c>
@@ -3400,6 +3778,12 @@
       <c r="G56" s="3">
         <v>0</v>
       </c>
+      <c r="H56" s="5" t="s">
+        <v>417</v>
+      </c>
+      <c r="I56" s="5" t="s">
+        <v>406</v>
+      </c>
       <c r="M56" s="1">
         <v>8</v>
       </c>
@@ -3430,6 +3814,12 @@
       <c r="G57" s="3">
         <v>0</v>
       </c>
+      <c r="H57" s="5" t="s">
+        <v>417</v>
+      </c>
+      <c r="I57" s="5" t="s">
+        <v>406</v>
+      </c>
       <c r="M57" s="1">
         <v>9</v>
       </c>
@@ -3460,6 +3850,12 @@
       <c r="G58" s="3">
         <v>0</v>
       </c>
+      <c r="H58" s="5" t="s">
+        <v>417</v>
+      </c>
+      <c r="I58" s="5" t="s">
+        <v>406</v>
+      </c>
       <c r="M58" s="1">
         <v>9</v>
       </c>
@@ -3490,6 +3886,12 @@
       <c r="G59" s="3">
         <v>0</v>
       </c>
+      <c r="H59" s="5" t="s">
+        <v>417</v>
+      </c>
+      <c r="I59" s="5" t="s">
+        <v>406</v>
+      </c>
       <c r="M59" s="1">
         <v>10</v>
       </c>
@@ -3520,6 +3922,12 @@
       <c r="G60" s="3">
         <v>0</v>
       </c>
+      <c r="H60" s="5" t="s">
+        <v>417</v>
+      </c>
+      <c r="I60" s="5" t="s">
+        <v>406</v>
+      </c>
       <c r="M60" s="1">
         <v>10</v>
       </c>
@@ -3550,6 +3958,12 @@
       <c r="G61" s="3">
         <v>0</v>
       </c>
+      <c r="H61" s="5" t="s">
+        <v>417</v>
+      </c>
+      <c r="I61" s="5" t="s">
+        <v>406</v>
+      </c>
       <c r="M61" s="1">
         <v>10</v>
       </c>
@@ -3580,6 +3994,12 @@
       <c r="G62" s="3">
         <v>0</v>
       </c>
+      <c r="H62" s="5" t="s">
+        <v>417</v>
+      </c>
+      <c r="I62" s="5" t="s">
+        <v>406</v>
+      </c>
       <c r="M62" s="1">
         <v>10</v>
       </c>
@@ -3610,6 +4030,12 @@
       <c r="G63" s="3">
         <v>0</v>
       </c>
+      <c r="H63" s="5" t="s">
+        <v>417</v>
+      </c>
+      <c r="I63" s="5" t="s">
+        <v>406</v>
+      </c>
       <c r="M63" s="1">
         <v>11</v>
       </c>
@@ -3640,6 +4066,12 @@
       <c r="G64" s="3">
         <v>0</v>
       </c>
+      <c r="H64" s="5" t="s">
+        <v>417</v>
+      </c>
+      <c r="I64" s="5" t="s">
+        <v>406</v>
+      </c>
       <c r="M64" s="1">
         <v>11</v>
       </c>
@@ -3670,6 +4102,12 @@
       <c r="G65" s="3">
         <v>0</v>
       </c>
+      <c r="H65" s="5" t="s">
+        <v>417</v>
+      </c>
+      <c r="I65" s="5" t="s">
+        <v>406</v>
+      </c>
       <c r="M65" s="1">
         <v>11</v>
       </c>
@@ -3700,6 +4138,12 @@
       <c r="G66" s="3">
         <v>0</v>
       </c>
+      <c r="H66" s="5" t="s">
+        <v>417</v>
+      </c>
+      <c r="I66" s="5" t="s">
+        <v>406</v>
+      </c>
       <c r="M66" s="1">
         <v>11</v>
       </c>
@@ -3730,6 +4174,12 @@
       <c r="G67" s="3">
         <v>0</v>
       </c>
+      <c r="H67" s="5" t="s">
+        <v>417</v>
+      </c>
+      <c r="I67" s="5" t="s">
+        <v>406</v>
+      </c>
       <c r="M67" s="1">
         <v>11</v>
       </c>
@@ -3760,6 +4210,12 @@
       <c r="G68" s="3">
         <v>0</v>
       </c>
+      <c r="H68" s="5" t="s">
+        <v>417</v>
+      </c>
+      <c r="I68" s="5" t="s">
+        <v>406</v>
+      </c>
       <c r="M68" s="1">
         <v>11</v>
       </c>
@@ -3790,6 +4246,12 @@
       <c r="G69" s="3">
         <v>0</v>
       </c>
+      <c r="H69" s="5" t="s">
+        <v>417</v>
+      </c>
+      <c r="I69" s="5" t="s">
+        <v>406</v>
+      </c>
       <c r="M69" s="1">
         <v>11</v>
       </c>
@@ -3820,6 +4282,12 @@
       <c r="G70" s="3">
         <v>0</v>
       </c>
+      <c r="H70" s="5" t="s">
+        <v>417</v>
+      </c>
+      <c r="I70" s="5" t="s">
+        <v>406</v>
+      </c>
       <c r="M70" s="1">
         <v>11</v>
       </c>
@@ -3850,6 +4318,12 @@
       <c r="G71" s="3">
         <v>0</v>
       </c>
+      <c r="H71" s="5" t="s">
+        <v>417</v>
+      </c>
+      <c r="I71" s="5" t="s">
+        <v>406</v>
+      </c>
       <c r="M71" s="1">
         <v>11</v>
       </c>
@@ -3880,6 +4354,12 @@
       <c r="G72" s="3">
         <v>0</v>
       </c>
+      <c r="H72" s="5" t="s">
+        <v>417</v>
+      </c>
+      <c r="I72" s="5" t="s">
+        <v>406</v>
+      </c>
       <c r="M72" s="1">
         <v>11</v>
       </c>
@@ -3910,6 +4390,12 @@
       <c r="G73" s="3">
         <v>0</v>
       </c>
+      <c r="H73" s="5" t="s">
+        <v>417</v>
+      </c>
+      <c r="I73" s="5" t="s">
+        <v>406</v>
+      </c>
       <c r="M73" s="1">
         <v>11</v>
       </c>
@@ -3940,6 +4426,12 @@
       <c r="G74" s="3">
         <v>0</v>
       </c>
+      <c r="H74" s="5" t="s">
+        <v>417</v>
+      </c>
+      <c r="I74" s="5" t="s">
+        <v>406</v>
+      </c>
       <c r="M74" s="1">
         <v>11</v>
       </c>
@@ -3970,6 +4462,12 @@
       <c r="G75" s="3">
         <v>0</v>
       </c>
+      <c r="H75" s="5" t="s">
+        <v>417</v>
+      </c>
+      <c r="I75" s="5" t="s">
+        <v>406</v>
+      </c>
       <c r="M75" s="1">
         <v>11</v>
       </c>
@@ -4000,6 +4498,12 @@
       <c r="G76" s="3">
         <v>0</v>
       </c>
+      <c r="H76" s="5" t="s">
+        <v>417</v>
+      </c>
+      <c r="I76" s="5" t="s">
+        <v>406</v>
+      </c>
       <c r="M76" s="1">
         <v>11</v>
       </c>
@@ -4030,6 +4534,12 @@
       <c r="G77" s="3">
         <v>0</v>
       </c>
+      <c r="H77" s="5" t="s">
+        <v>417</v>
+      </c>
+      <c r="I77" s="5" t="s">
+        <v>406</v>
+      </c>
     </row>
     <row r="78" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A78" s="3" t="s">
@@ -4054,6 +4564,12 @@
       <c r="G78" s="3">
         <v>0</v>
       </c>
+      <c r="H78" s="5" t="s">
+        <v>417</v>
+      </c>
+      <c r="I78" s="5" t="s">
+        <v>406</v>
+      </c>
     </row>
     <row r="79" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A79" s="3" t="s">
@@ -4078,6 +4594,12 @@
       <c r="G79" s="3">
         <v>0</v>
       </c>
+      <c r="H79" s="5" t="s">
+        <v>417</v>
+      </c>
+      <c r="I79" s="5" t="s">
+        <v>406</v>
+      </c>
     </row>
     <row r="80" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A80" s="3" t="s">
@@ -4102,8 +4624,14 @@
       <c r="G80" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="81" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H80" s="5" t="s">
+        <v>417</v>
+      </c>
+      <c r="I80" s="5" t="s">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="81" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A81" s="3" t="s">
         <v>142</v>
       </c>
@@ -4126,8 +4654,14 @@
       <c r="G81" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="82" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H81" s="5" t="s">
+        <v>417</v>
+      </c>
+      <c r="I81" s="5" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="82" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A82" s="3" t="s">
         <v>143</v>
       </c>
@@ -4150,8 +4684,14 @@
       <c r="G82" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="83" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H82" s="5" t="s">
+        <v>417</v>
+      </c>
+      <c r="I82" s="5" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="83" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A83" s="3" t="s">
         <v>144</v>
       </c>
@@ -4174,8 +4714,14 @@
       <c r="G83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H83" s="5" t="s">
+        <v>417</v>
+      </c>
+      <c r="I83" s="5" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="84" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A84" s="3" t="s">
         <v>145</v>
       </c>
@@ -4198,8 +4744,14 @@
       <c r="G84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H84" s="5" t="s">
+        <v>417</v>
+      </c>
+      <c r="I84" s="5" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="85" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A85" s="3" t="s">
         <v>146</v>
       </c>
@@ -4222,8 +4774,14 @@
       <c r="G85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H85" s="5" t="s">
+        <v>417</v>
+      </c>
+      <c r="I85" s="5" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="86" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A86" s="3" t="s">
         <v>147</v>
       </c>
@@ -4246,8 +4804,14 @@
       <c r="G86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H86" s="5" t="s">
+        <v>417</v>
+      </c>
+      <c r="I86" s="5" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="87" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A87" s="3" t="s">
         <v>148</v>
       </c>
@@ -4270,8 +4834,14 @@
       <c r="G87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H87" s="5" t="s">
+        <v>417</v>
+      </c>
+      <c r="I87" s="5" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="88" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A88" s="3" t="s">
         <v>149</v>
       </c>
@@ -4294,8 +4864,14 @@
       <c r="G88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H88" s="5" t="s">
+        <v>417</v>
+      </c>
+      <c r="I88" s="5" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="89" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A89" s="3" t="s">
         <v>150</v>
       </c>
@@ -4318,8 +4894,14 @@
       <c r="G89" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="90" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H89" s="5" t="s">
+        <v>417</v>
+      </c>
+      <c r="I89" s="5" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="90" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A90" s="3" t="s">
         <v>151</v>
       </c>
@@ -4342,8 +4924,14 @@
       <c r="G90" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="91" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H90" s="5" t="s">
+        <v>417</v>
+      </c>
+      <c r="I90" s="5" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="91" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A91" s="3" t="s">
         <v>152</v>
       </c>
@@ -4366,8 +4954,14 @@
       <c r="G91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H91" s="5" t="s">
+        <v>417</v>
+      </c>
+      <c r="I91" s="5" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="92" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A92" s="3" t="s">
         <v>153</v>
       </c>
@@ -4390,8 +4984,14 @@
       <c r="G92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H92" s="5" t="s">
+        <v>417</v>
+      </c>
+      <c r="I92" s="5" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="93" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A93" s="3" t="s">
         <v>154</v>
       </c>
@@ -4414,8 +5014,14 @@
       <c r="G93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H93" s="5" t="s">
+        <v>417</v>
+      </c>
+      <c r="I93" s="5" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="94" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A94" s="3" t="s">
         <v>155</v>
       </c>
@@ -4438,8 +5044,14 @@
       <c r="G94" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H94" s="5" t="s">
+        <v>417</v>
+      </c>
+      <c r="I94" s="5" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="95" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A95" s="3" t="s">
         <v>156</v>
       </c>
@@ -4462,8 +5074,14 @@
       <c r="G95" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="96" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H95" s="5" t="s">
+        <v>417</v>
+      </c>
+      <c r="I95" s="5" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="96" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A96" s="3" t="s">
         <v>157</v>
       </c>
@@ -4486,8 +5104,14 @@
       <c r="G96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H96" s="5" t="s">
+        <v>417</v>
+      </c>
+      <c r="I96" s="5" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="97" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A97" s="3" t="s">
         <v>158</v>
       </c>
@@ -4510,8 +5134,14 @@
       <c r="G97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H97" s="5" t="s">
+        <v>417</v>
+      </c>
+      <c r="I97" s="5" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="98" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A98" s="3" t="s">
         <v>159</v>
       </c>
@@ -4534,8 +5164,14 @@
       <c r="G98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H98" s="5" t="s">
+        <v>417</v>
+      </c>
+      <c r="I98" s="5" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="99" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A99" s="3" t="s">
         <v>160</v>
       </c>
@@ -4558,8 +5194,14 @@
       <c r="G99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H99" s="5" t="s">
+        <v>417</v>
+      </c>
+      <c r="I99" s="5" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="100" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A100" s="3" t="s">
         <v>161</v>
       </c>
@@ -4582,8 +5224,14 @@
       <c r="G100" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H100" s="5" t="s">
+        <v>417</v>
+      </c>
+      <c r="I100" s="5" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="101" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A101" s="3" t="s">
         <v>162</v>
       </c>
@@ -4606,8 +5254,14 @@
       <c r="G101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H101" s="5" t="s">
+        <v>417</v>
+      </c>
+      <c r="I101" s="5" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="102" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A102" s="3" t="s">
         <v>163</v>
       </c>
@@ -4630,8 +5284,14 @@
       <c r="G102" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="103" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H102" s="5" t="s">
+        <v>417</v>
+      </c>
+      <c r="I102" s="5" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="103" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A103" s="3" t="s">
         <v>164</v>
       </c>
@@ -4654,8 +5314,14 @@
       <c r="G103" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="104" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H103" s="5" t="s">
+        <v>417</v>
+      </c>
+      <c r="I103" s="5" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="104" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A104" s="3" t="s">
         <v>165</v>
       </c>
@@ -4678,8 +5344,14 @@
       <c r="G104" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="105" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H104" s="5" t="s">
+        <v>417</v>
+      </c>
+      <c r="I104" s="5" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="105" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A105" s="3" t="s">
         <v>166</v>
       </c>
@@ -4702,8 +5374,14 @@
       <c r="G105" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="106" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H105" s="5" t="s">
+        <v>417</v>
+      </c>
+      <c r="I105" s="5" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="106" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A106" s="3" t="s">
         <v>167</v>
       </c>
@@ -4726,8 +5404,14 @@
       <c r="G106" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="107" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H106" s="5" t="s">
+        <v>417</v>
+      </c>
+      <c r="I106" s="5" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="107" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A107" s="3" t="s">
         <v>168</v>
       </c>
@@ -4750,8 +5434,14 @@
       <c r="G107" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="108" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H107" s="5" t="s">
+        <v>417</v>
+      </c>
+      <c r="I107" s="5" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="108" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A108" s="3" t="s">
         <v>169</v>
       </c>
@@ -4774,8 +5464,14 @@
       <c r="G108" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="109" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H108" s="5" t="s">
+        <v>417</v>
+      </c>
+      <c r="I108" s="5" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="109" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A109" s="3" t="s">
         <v>170</v>
       </c>
@@ -4798,8 +5494,14 @@
       <c r="G109" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="110" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H109" s="5" t="s">
+        <v>417</v>
+      </c>
+      <c r="I109" s="5" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="110" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A110" s="3" t="s">
         <v>171</v>
       </c>
@@ -4822,8 +5524,14 @@
       <c r="G110" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="111" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H110" s="5" t="s">
+        <v>417</v>
+      </c>
+      <c r="I110" s="5" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="111" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A111" s="3" t="s">
         <v>172</v>
       </c>
@@ -4846,8 +5554,14 @@
       <c r="G111" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="112" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H111" s="5" t="s">
+        <v>417</v>
+      </c>
+      <c r="I111" s="5" t="s">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="112" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A112" s="3" t="s">
         <v>173</v>
       </c>
@@ -4870,8 +5584,14 @@
       <c r="G112" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="113" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H112" s="5" t="s">
+        <v>417</v>
+      </c>
+      <c r="I112" s="5" t="s">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="113" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A113" s="3" t="s">
         <v>174</v>
       </c>
@@ -4894,8 +5614,14 @@
       <c r="G113" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="114" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H113" s="5" t="s">
+        <v>417</v>
+      </c>
+      <c r="I113" s="5" t="s">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="114" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A114" s="3" t="s">
         <v>175</v>
       </c>
@@ -4918,8 +5644,14 @@
       <c r="G114" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="115" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H114" s="5" t="s">
+        <v>417</v>
+      </c>
+      <c r="I114" s="5" t="s">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="115" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A115" s="3" t="s">
         <v>176</v>
       </c>
@@ -4942,8 +5674,14 @@
       <c r="G115" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="116" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H115" s="5" t="s">
+        <v>417</v>
+      </c>
+      <c r="I115" s="5" t="s">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="116" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A116" s="3" t="s">
         <v>177</v>
       </c>
@@ -4966,8 +5704,14 @@
       <c r="G116" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="117" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H116" s="5" t="s">
+        <v>417</v>
+      </c>
+      <c r="I116" s="5" t="s">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="117" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A117" s="3" t="s">
         <v>178</v>
       </c>
@@ -4990,8 +5734,14 @@
       <c r="G117" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="118" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H117" s="5" t="s">
+        <v>417</v>
+      </c>
+      <c r="I117" s="5" t="s">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="118" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A118" s="3" t="s">
         <v>179</v>
       </c>
@@ -5014,8 +5764,14 @@
       <c r="G118" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="119" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H118" s="5" t="s">
+        <v>417</v>
+      </c>
+      <c r="I118" s="5" t="s">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="119" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A119" s="3" t="s">
         <v>180</v>
       </c>
@@ -5038,8 +5794,14 @@
       <c r="G119" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="120" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H119" s="5" t="s">
+        <v>417</v>
+      </c>
+      <c r="I119" s="5" t="s">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="120" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A120" s="3" t="s">
         <v>181</v>
       </c>
@@ -5062,8 +5824,14 @@
       <c r="G120" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="121" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H120" s="5" t="s">
+        <v>417</v>
+      </c>
+      <c r="I120" s="5" t="s">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="121" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A121" s="3" t="s">
         <v>182</v>
       </c>
@@ -5086,8 +5854,14 @@
       <c r="G121" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="122" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H121" s="5" t="s">
+        <v>417</v>
+      </c>
+      <c r="I121" s="5" t="s">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="122" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A122" s="3" t="s">
         <v>183</v>
       </c>
@@ -5110,8 +5884,14 @@
       <c r="G122" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="123" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H122" s="5" t="s">
+        <v>417</v>
+      </c>
+      <c r="I122" s="5" t="s">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="123" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A123" s="3" t="s">
         <v>184</v>
       </c>
@@ -5134,8 +5914,14 @@
       <c r="G123" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="124" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H123" s="5" t="s">
+        <v>417</v>
+      </c>
+      <c r="I123" s="5" t="s">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="124" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A124" s="3" t="s">
         <v>185</v>
       </c>
@@ -5158,8 +5944,14 @@
       <c r="G124" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="125" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H124" s="5" t="s">
+        <v>417</v>
+      </c>
+      <c r="I124" s="5" t="s">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="125" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A125" s="3" t="s">
         <v>186</v>
       </c>
@@ -5182,8 +5974,14 @@
       <c r="G125" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="126" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H125" s="5" t="s">
+        <v>417</v>
+      </c>
+      <c r="I125" s="5" t="s">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="126" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A126" s="3" t="s">
         <v>187</v>
       </c>
@@ -5206,8 +6004,14 @@
       <c r="G126" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="127" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H126" s="5" t="s">
+        <v>417</v>
+      </c>
+      <c r="I126" s="5" t="s">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="127" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A127" s="3" t="s">
         <v>188</v>
       </c>
@@ -5230,8 +6034,14 @@
       <c r="G127" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="128" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H127" s="5" t="s">
+        <v>417</v>
+      </c>
+      <c r="I127" s="5" t="s">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="128" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A128" s="3" t="s">
         <v>189</v>
       </c>
@@ -5254,8 +6064,14 @@
       <c r="G128" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="129" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H128" s="5" t="s">
+        <v>417</v>
+      </c>
+      <c r="I128" s="5" t="s">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="129" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A129" s="3" t="s">
         <v>190</v>
       </c>
@@ -5278,8 +6094,14 @@
       <c r="G129" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="130" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H129" s="5" t="s">
+        <v>417</v>
+      </c>
+      <c r="I129" s="5" t="s">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="130" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A130" s="3" t="s">
         <v>191</v>
       </c>
@@ -5302,8 +6124,14 @@
       <c r="G130" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="131" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H130" s="5" t="s">
+        <v>417</v>
+      </c>
+      <c r="I130" s="5" t="s">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="131" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A131" s="3" t="s">
         <v>192</v>
       </c>
@@ -5326,8 +6154,14 @@
       <c r="G131" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="132" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H131" s="5" t="s">
+        <v>417</v>
+      </c>
+      <c r="I131" s="5" t="s">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="132" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A132" s="3" t="s">
         <v>193</v>
       </c>
@@ -5350,8 +6184,14 @@
       <c r="G132" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="133" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H132" s="5" t="s">
+        <v>417</v>
+      </c>
+      <c r="I132" s="5" t="s">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="133" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A133" s="3" t="s">
         <v>194</v>
       </c>
@@ -5374,8 +6214,14 @@
       <c r="G133" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="134" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H133" s="5" t="s">
+        <v>417</v>
+      </c>
+      <c r="I133" s="5" t="s">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="134" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A134" s="3" t="s">
         <v>195</v>
       </c>
@@ -5398,8 +6244,14 @@
       <c r="G134" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="135" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H134" s="5" t="s">
+        <v>417</v>
+      </c>
+      <c r="I134" s="5" t="s">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="135" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A135" s="3" t="s">
         <v>196</v>
       </c>
@@ -5422,8 +6274,14 @@
       <c r="G135" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="136" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H135" s="5" t="s">
+        <v>417</v>
+      </c>
+      <c r="I135" s="5" t="s">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="136" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A136" s="3" t="s">
         <v>197</v>
       </c>
@@ -5446,8 +6304,14 @@
       <c r="G136" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="137" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H136" s="5" t="s">
+        <v>417</v>
+      </c>
+      <c r="I136" s="5" t="s">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="137" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A137" s="3" t="s">
         <v>198</v>
       </c>
@@ -5470,8 +6334,14 @@
       <c r="G137" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="138" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H137" s="5" t="s">
+        <v>417</v>
+      </c>
+      <c r="I137" s="5" t="s">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="138" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A138" s="3" t="s">
         <v>199</v>
       </c>
@@ -5494,8 +6364,14 @@
       <c r="G138" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="139" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H138" s="5" t="s">
+        <v>417</v>
+      </c>
+      <c r="I138" s="5" t="s">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="139" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A139" s="3" t="s">
         <v>200</v>
       </c>
@@ -5518,8 +6394,14 @@
       <c r="G139" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="140" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H139" s="5" t="s">
+        <v>417</v>
+      </c>
+      <c r="I139" s="5" t="s">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="140" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A140" s="3" t="s">
         <v>201</v>
       </c>
@@ -5542,8 +6424,14 @@
       <c r="G140" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="141" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H140" s="5" t="s">
+        <v>417</v>
+      </c>
+      <c r="I140" s="5" t="s">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="141" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A141" s="3" t="s">
         <v>202</v>
       </c>
@@ -5566,8 +6454,14 @@
       <c r="G141" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="142" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H141" s="5" t="s">
+        <v>409</v>
+      </c>
+      <c r="I141" s="5" t="s">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="142" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A142" s="3" t="s">
         <v>203</v>
       </c>
@@ -5590,8 +6484,14 @@
       <c r="G142" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="143" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H142" s="5" t="s">
+        <v>409</v>
+      </c>
+      <c r="I142" s="5" t="s">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="143" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A143" s="3" t="s">
         <v>204</v>
       </c>
@@ -5614,8 +6514,14 @@
       <c r="G143" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="144" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H143" s="5" t="s">
+        <v>409</v>
+      </c>
+      <c r="I143" s="5" t="s">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="144" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A144" s="3" t="s">
         <v>205</v>
       </c>
@@ -5638,8 +6544,14 @@
       <c r="G144" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="145" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H144" s="5" t="s">
+        <v>409</v>
+      </c>
+      <c r="I144" s="5" t="s">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="145" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A145" s="3" t="s">
         <v>206</v>
       </c>
@@ -5662,8 +6574,14 @@
       <c r="G145" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="146" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H145" s="5" t="s">
+        <v>409</v>
+      </c>
+      <c r="I145" s="5" t="s">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="146" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A146" s="3" t="s">
         <v>207</v>
       </c>
@@ -5686,8 +6604,14 @@
       <c r="G146" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="147" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H146" s="5" t="s">
+        <v>409</v>
+      </c>
+      <c r="I146" s="5" t="s">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="147" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A147" s="3" t="s">
         <v>208</v>
       </c>
@@ -5710,8 +6634,14 @@
       <c r="G147" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="148" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H147" s="5" t="s">
+        <v>409</v>
+      </c>
+      <c r="I147" s="5" t="s">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="148" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A148" s="3" t="s">
         <v>209</v>
       </c>
@@ -5734,8 +6664,14 @@
       <c r="G148" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="149" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H148" s="5" t="s">
+        <v>409</v>
+      </c>
+      <c r="I148" s="5" t="s">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="149" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A149" s="3" t="s">
         <v>210</v>
       </c>
@@ -5758,8 +6694,14 @@
       <c r="G149" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="150" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H149" s="5" t="s">
+        <v>410</v>
+      </c>
+      <c r="I149" s="5" t="s">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="150" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A150" s="3" t="s">
         <v>211</v>
       </c>
@@ -5782,8 +6724,14 @@
       <c r="G150" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="151" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H150" s="5" t="s">
+        <v>410</v>
+      </c>
+      <c r="I150" s="5" t="s">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="151" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A151" s="3" t="s">
         <v>212</v>
       </c>
@@ -5806,8 +6754,14 @@
       <c r="G151" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="152" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H151" s="5" t="s">
+        <v>410</v>
+      </c>
+      <c r="I151" s="5" t="s">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="152" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A152" s="3" t="s">
         <v>213</v>
       </c>
@@ -5830,8 +6784,14 @@
       <c r="G152" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="153" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H152" s="5" t="s">
+        <v>410</v>
+      </c>
+      <c r="I152" s="5" t="s">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="153" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A153" s="3" t="s">
         <v>214</v>
       </c>
@@ -5854,8 +6814,14 @@
       <c r="G153" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="154" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H153" s="5" t="s">
+        <v>410</v>
+      </c>
+      <c r="I153" s="5" t="s">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="154" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A154" s="3" t="s">
         <v>215</v>
       </c>
@@ -5878,8 +6844,14 @@
       <c r="G154" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="155" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H154" s="5" t="s">
+        <v>404</v>
+      </c>
+      <c r="I154" t="s">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="155" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A155" s="3" t="s">
         <v>216</v>
       </c>
@@ -5902,8 +6874,14 @@
       <c r="G155" s="3">
         <v>4</v>
       </c>
-    </row>
-    <row r="156" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H155" s="5" t="s">
+        <v>404</v>
+      </c>
+      <c r="I155" t="s">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="156" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A156" s="3" t="s">
         <v>217</v>
       </c>
@@ -5926,8 +6904,14 @@
       <c r="G156" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="157" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H156" s="5" t="s">
+        <v>404</v>
+      </c>
+      <c r="I156" t="s">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="157" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A157" s="3" t="s">
         <v>218</v>
       </c>
@@ -5950,8 +6934,14 @@
       <c r="G157" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="158" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H157" s="5" t="s">
+        <v>404</v>
+      </c>
+      <c r="I157" t="s">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="158" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A158" s="3" t="s">
         <v>219</v>
       </c>
@@ -5974,8 +6964,14 @@
       <c r="G158" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="159" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H158" s="5" t="s">
+        <v>404</v>
+      </c>
+      <c r="I158" t="s">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="159" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A159" s="3" t="s">
         <v>220</v>
       </c>
@@ -5998,8 +6994,14 @@
       <c r="G159" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="160" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H159" s="5" t="s">
+        <v>404</v>
+      </c>
+      <c r="I159" t="s">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="160" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A160" s="3" t="s">
         <v>221</v>
       </c>
@@ -6022,8 +7024,14 @@
       <c r="G160" s="3">
         <v>5</v>
       </c>
-    </row>
-    <row r="161" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H160" s="5" t="s">
+        <v>404</v>
+      </c>
+      <c r="I160" t="s">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="161" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A161" s="3" t="s">
         <v>222</v>
       </c>
@@ -6046,8 +7054,14 @@
       <c r="G161" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="162" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H161" s="5" t="s">
+        <v>404</v>
+      </c>
+      <c r="I161" t="s">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="162" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A162" s="3" t="s">
         <v>223</v>
       </c>
@@ -6070,8 +7084,14 @@
       <c r="G162" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="163" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H162" s="5" t="s">
+        <v>404</v>
+      </c>
+      <c r="I162" t="s">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="163" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A163" s="3" t="s">
         <v>224</v>
       </c>
@@ -6094,8 +7114,14 @@
       <c r="G163" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="164" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H163" s="5" t="s">
+        <v>404</v>
+      </c>
+      <c r="I163" t="s">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="164" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A164" s="3" t="s">
         <v>225</v>
       </c>
@@ -6118,8 +7144,14 @@
       <c r="G164" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="165" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H164" s="5" t="s">
+        <v>404</v>
+      </c>
+      <c r="I164" t="s">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="165" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A165" s="3" t="s">
         <v>226</v>
       </c>
@@ -6142,8 +7174,14 @@
       <c r="G165" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="166" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H165" s="5" t="s">
+        <v>404</v>
+      </c>
+      <c r="I165" t="s">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="166" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A166" s="3" t="s">
         <v>227</v>
       </c>
@@ -6166,8 +7204,14 @@
       <c r="G166" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="167" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H166" s="5" t="s">
+        <v>404</v>
+      </c>
+      <c r="I166" t="s">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="167" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A167" s="3" t="s">
         <v>228</v>
       </c>
@@ -6190,8 +7234,14 @@
       <c r="G167" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="168" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H167" s="5" t="s">
+        <v>417</v>
+      </c>
+      <c r="I167" s="5" t="s">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="168" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A168" s="3" t="s">
         <v>229</v>
       </c>
@@ -6214,8 +7264,14 @@
       <c r="G168" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="169" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H168" s="5" t="s">
+        <v>417</v>
+      </c>
+      <c r="I168" s="5" t="s">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="169" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A169" s="3" t="s">
         <v>230</v>
       </c>
@@ -6238,8 +7294,14 @@
       <c r="G169" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="170" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H169" s="5" t="s">
+        <v>417</v>
+      </c>
+      <c r="I169" s="5" t="s">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="170" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A170" s="3" t="s">
         <v>231</v>
       </c>
@@ -6262,8 +7324,14 @@
       <c r="G170" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="171" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H170" s="5" t="s">
+        <v>417</v>
+      </c>
+      <c r="I170" s="5" t="s">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="171" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A171" s="3" t="s">
         <v>232</v>
       </c>
@@ -6286,8 +7354,14 @@
       <c r="G171" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="172" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H171" s="5" t="s">
+        <v>417</v>
+      </c>
+      <c r="I171" s="5" t="s">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="172" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A172" s="3" t="s">
         <v>233</v>
       </c>
@@ -6310,8 +7384,14 @@
       <c r="G172" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="173" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H172" s="5" t="s">
+        <v>417</v>
+      </c>
+      <c r="I172" s="5" t="s">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="173" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A173" s="3" t="s">
         <v>234</v>
       </c>
@@ -6334,8 +7414,14 @@
       <c r="G173" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="174" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H173" s="5" t="s">
+        <v>417</v>
+      </c>
+      <c r="I173" s="5" t="s">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="174" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A174" s="3" t="s">
         <v>235</v>
       </c>
@@ -6358,8 +7444,14 @@
       <c r="G174" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="175" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H174" s="5" t="s">
+        <v>417</v>
+      </c>
+      <c r="I174" s="5" t="s">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="175" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A175" s="3" t="s">
         <v>236</v>
       </c>
@@ -6382,8 +7474,14 @@
       <c r="G175" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="176" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H175" s="5" t="s">
+        <v>417</v>
+      </c>
+      <c r="I175" s="5" t="s">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="176" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A176" s="3" t="s">
         <v>237</v>
       </c>
@@ -6406,8 +7504,14 @@
       <c r="G176" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="177" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H176" s="5" t="s">
+        <v>417</v>
+      </c>
+      <c r="I176" s="5" t="s">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="177" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A177" s="3" t="s">
         <v>238</v>
       </c>
@@ -6430,8 +7534,14 @@
       <c r="G177" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="178" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H177" s="5" t="s">
+        <v>417</v>
+      </c>
+      <c r="I177" s="5" t="s">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="178" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A178" s="3" t="s">
         <v>239</v>
       </c>
@@ -6454,8 +7564,14 @@
       <c r="G178" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="179" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H178" s="5" t="s">
+        <v>417</v>
+      </c>
+      <c r="I178" s="5" t="s">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="179" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A179" s="3" t="s">
         <v>240</v>
       </c>
@@ -6478,8 +7594,14 @@
       <c r="G179" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="180" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H179" s="5" t="s">
+        <v>417</v>
+      </c>
+      <c r="I179" s="5" t="s">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="180" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A180" s="3" t="s">
         <v>241</v>
       </c>
@@ -6502,8 +7624,14 @@
       <c r="G180" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="181" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H180" s="5" t="s">
+        <v>417</v>
+      </c>
+      <c r="I180" s="5" t="s">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="181" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A181" s="3" t="s">
         <v>242</v>
       </c>
@@ -6526,8 +7654,14 @@
       <c r="G181" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="182" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H181" s="5" t="s">
+        <v>417</v>
+      </c>
+      <c r="I181" s="5" t="s">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="182" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A182" s="3" t="s">
         <v>243</v>
       </c>
@@ -6550,8 +7684,14 @@
       <c r="G182" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="183" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H182" s="5" t="s">
+        <v>417</v>
+      </c>
+      <c r="I182" s="5" t="s">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="183" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A183" s="3" t="s">
         <v>244</v>
       </c>
@@ -6574,8 +7714,14 @@
       <c r="G183" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="184" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H183" s="5" t="s">
+        <v>417</v>
+      </c>
+      <c r="I183" s="5" t="s">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="184" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A184" s="3" t="s">
         <v>245</v>
       </c>
@@ -6598,8 +7744,14 @@
       <c r="G184" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="185" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H184" s="5" t="s">
+        <v>417</v>
+      </c>
+      <c r="I184" s="5" t="s">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="185" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A185" s="3" t="s">
         <v>246</v>
       </c>
@@ -6622,8 +7774,14 @@
       <c r="G185" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="186" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H185" s="5" t="s">
+        <v>417</v>
+      </c>
+      <c r="I185" s="5" t="s">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="186" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A186" s="3" t="s">
         <v>247</v>
       </c>
@@ -6646,8 +7804,14 @@
       <c r="G186" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="187" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H186" s="5" t="s">
+        <v>417</v>
+      </c>
+      <c r="I186" s="5" t="s">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="187" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A187" s="3" t="s">
         <v>248</v>
       </c>
@@ -6670,8 +7834,14 @@
       <c r="G187" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="188" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H187" s="5" t="s">
+        <v>417</v>
+      </c>
+      <c r="I187" s="5" t="s">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="188" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A188" s="3" t="s">
         <v>249</v>
       </c>
@@ -6694,8 +7864,14 @@
       <c r="G188" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="189" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H188" s="5" t="s">
+        <v>417</v>
+      </c>
+      <c r="I188" s="5" t="s">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="189" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A189" s="3" t="s">
         <v>250</v>
       </c>
@@ -6718,8 +7894,14 @@
       <c r="G189" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="190" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H189" s="5" t="s">
+        <v>417</v>
+      </c>
+      <c r="I189" s="5" t="s">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="190" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A190" s="3" t="s">
         <v>251</v>
       </c>
@@ -6742,8 +7924,14 @@
       <c r="G190" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="191" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H190" s="5" t="s">
+        <v>417</v>
+      </c>
+      <c r="I190" s="5" t="s">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="191" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A191" s="3" t="s">
         <v>252</v>
       </c>
@@ -6766,8 +7954,14 @@
       <c r="G191" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="192" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H191" s="5" t="s">
+        <v>417</v>
+      </c>
+      <c r="I191" s="5" t="s">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="192" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A192" s="3" t="s">
         <v>253</v>
       </c>
@@ -6790,8 +7984,14 @@
       <c r="G192" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="193" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H192" s="5" t="s">
+        <v>417</v>
+      </c>
+      <c r="I192" s="5" t="s">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="193" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A193" s="3" t="s">
         <v>254</v>
       </c>
@@ -6814,8 +8014,14 @@
       <c r="G193" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="194" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H193" s="5" t="s">
+        <v>417</v>
+      </c>
+      <c r="I193" s="5" t="s">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="194" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A194" s="3" t="s">
         <v>255</v>
       </c>
@@ -6838,8 +8044,14 @@
       <c r="G194" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="195" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H194" s="5" t="s">
+        <v>417</v>
+      </c>
+      <c r="I194" s="5" t="s">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="195" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A195" s="3" t="s">
         <v>256</v>
       </c>
@@ -6862,8 +8074,14 @@
       <c r="G195" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="196" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H195" s="5" t="s">
+        <v>417</v>
+      </c>
+      <c r="I195" s="5" t="s">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="196" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A196" s="3" t="s">
         <v>257</v>
       </c>
@@ -6886,8 +8104,14 @@
       <c r="G196" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="197" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H196" s="5" t="s">
+        <v>417</v>
+      </c>
+      <c r="I196" s="5" t="s">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="197" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A197" s="3" t="s">
         <v>258</v>
       </c>
@@ -6910,8 +8134,14 @@
       <c r="G197" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="198" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H197" s="5" t="s">
+        <v>404</v>
+      </c>
+      <c r="I197" s="5" t="s">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="198" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A198" s="3" t="s">
         <v>259</v>
       </c>
@@ -6934,8 +8164,14 @@
       <c r="G198" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="199" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H198" s="5" t="s">
+        <v>404</v>
+      </c>
+      <c r="I198" s="5" t="s">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="199" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A199" s="3" t="s">
         <v>260</v>
       </c>
@@ -6958,8 +8194,14 @@
       <c r="G199" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="200" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H199" s="5" t="s">
+        <v>404</v>
+      </c>
+      <c r="I199" s="5" t="s">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="200" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A200" s="3" t="s">
         <v>261</v>
       </c>
@@ -6982,8 +8224,14 @@
       <c r="G200" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="201" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H200" s="5" t="s">
+        <v>404</v>
+      </c>
+      <c r="I200" s="5" t="s">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="201" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A201" s="3" t="s">
         <v>262</v>
       </c>
@@ -7006,8 +8254,14 @@
       <c r="G201" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="202" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H201" s="5" t="s">
+        <v>404</v>
+      </c>
+      <c r="I201" s="5" t="s">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="202" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A202" s="3" t="s">
         <v>263</v>
       </c>
@@ -7030,8 +8284,14 @@
       <c r="G202" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="203" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H202" s="5" t="s">
+        <v>404</v>
+      </c>
+      <c r="I202" s="5" t="s">
+        <v>416</v>
+      </c>
+    </row>
+    <row r="203" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A203" s="3" t="s">
         <v>67</v>
       </c>
@@ -7054,8 +8314,14 @@
       <c r="G203" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="204" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H203" s="5" t="s">
+        <v>404</v>
+      </c>
+      <c r="I203" s="5" t="s">
+        <v>416</v>
+      </c>
+    </row>
+    <row r="204" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A204" s="3" t="s">
         <v>264</v>
       </c>
@@ -7078,8 +8344,14 @@
       <c r="G204" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="205" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H204" s="5" t="s">
+        <v>404</v>
+      </c>
+      <c r="I204" s="5" t="s">
+        <v>416</v>
+      </c>
+    </row>
+    <row r="205" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A205" s="3" t="s">
         <v>265</v>
       </c>
@@ -7102,8 +8374,14 @@
       <c r="G205" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="206" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H205" s="5" t="s">
+        <v>404</v>
+      </c>
+      <c r="I205" s="5" t="s">
+        <v>416</v>
+      </c>
+    </row>
+    <row r="206" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A206" s="3" t="s">
         <v>266</v>
       </c>
@@ -7126,8 +8404,14 @@
       <c r="G206" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="207" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H206" s="5" t="s">
+        <v>404</v>
+      </c>
+      <c r="I206" s="5" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="207" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A207" s="3" t="s">
         <v>267</v>
       </c>
@@ -7150,8 +8434,14 @@
       <c r="G207" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="208" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H207" s="5" t="s">
+        <v>404</v>
+      </c>
+      <c r="I207" s="5" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="208" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A208" s="3" t="s">
         <v>268</v>
       </c>
@@ -7174,8 +8464,14 @@
       <c r="G208" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="209" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H208" s="5" t="s">
+        <v>404</v>
+      </c>
+      <c r="I208" s="5" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="209" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A209" s="3" t="s">
         <v>269</v>
       </c>
@@ -7198,8 +8494,14 @@
       <c r="G209" s="3">
         <v>6</v>
       </c>
-    </row>
-    <row r="210" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H209" s="5" t="s">
+        <v>404</v>
+      </c>
+      <c r="I209" s="5" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="210" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A210" s="3" t="s">
         <v>270</v>
       </c>
@@ -7222,8 +8524,14 @@
       <c r="G210" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="211" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H210" s="5" t="s">
+        <v>404</v>
+      </c>
+      <c r="I210" s="5" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="211" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A211" s="3" t="s">
         <v>271</v>
       </c>
@@ -7246,8 +8554,14 @@
       <c r="G211" s="3">
         <v>6</v>
       </c>
-    </row>
-    <row r="212" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H211" s="5" t="s">
+        <v>404</v>
+      </c>
+      <c r="I211" s="5" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="212" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A212" s="3" t="s">
         <v>272</v>
       </c>
@@ -7270,8 +8584,14 @@
       <c r="G212" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="213" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H212" s="5" t="s">
+        <v>404</v>
+      </c>
+      <c r="I212" s="5" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="213" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A213" s="3" t="s">
         <v>273</v>
       </c>
@@ -7294,8 +8614,14 @@
       <c r="G213" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="214" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H213" s="5" t="s">
+        <v>404</v>
+      </c>
+      <c r="I213" s="5" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="214" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A214" s="3" t="s">
         <v>274</v>
       </c>
@@ -7318,8 +8644,14 @@
       <c r="G214" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="215" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H214" s="5" t="s">
+        <v>404</v>
+      </c>
+      <c r="I214" s="5" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="215" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A215" s="3" t="s">
         <v>275</v>
       </c>
@@ -7342,8 +8674,14 @@
       <c r="G215" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="216" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H215" s="5" t="s">
+        <v>404</v>
+      </c>
+      <c r="I215" s="5" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="216" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A216" s="3" t="s">
         <v>276</v>
       </c>
@@ -7366,8 +8704,14 @@
       <c r="G216" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="217" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H216" s="5" t="s">
+        <v>404</v>
+      </c>
+      <c r="I216" s="5" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="217" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A217" s="3" t="s">
         <v>277</v>
       </c>
@@ -7390,8 +8734,14 @@
       <c r="G217" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="218" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H217" s="5" t="s">
+        <v>404</v>
+      </c>
+      <c r="I217" s="5" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="218" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A218" s="3" t="s">
         <v>278</v>
       </c>
@@ -7414,8 +8764,14 @@
       <c r="G218" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="219" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H218" s="5" t="s">
+        <v>404</v>
+      </c>
+      <c r="I218" s="5" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="219" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A219" s="3" t="s">
         <v>279</v>
       </c>
@@ -7438,8 +8794,14 @@
       <c r="G219" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="220" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H219" s="5" t="s">
+        <v>404</v>
+      </c>
+      <c r="I219" s="5" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="220" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A220" s="3" t="s">
         <v>280</v>
       </c>
@@ -7462,8 +8824,14 @@
       <c r="G220" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="221" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H220" s="5" t="s">
+        <v>404</v>
+      </c>
+      <c r="I220" s="5" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="221" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A221" s="3" t="s">
         <v>281</v>
       </c>
@@ -7486,8 +8854,14 @@
       <c r="G221" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="222" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H221" s="5" t="s">
+        <v>404</v>
+      </c>
+      <c r="I221" s="5" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="222" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A222" s="3" t="s">
         <v>282</v>
       </c>
@@ -7510,8 +8884,14 @@
       <c r="G222" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="223" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H222" s="5" t="s">
+        <v>404</v>
+      </c>
+      <c r="I222" s="5" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="223" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A223" s="3" t="s">
         <v>283</v>
       </c>
@@ -7534,8 +8914,14 @@
       <c r="G223" s="3">
         <v>7</v>
       </c>
-    </row>
-    <row r="224" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H223" s="5" t="s">
+        <v>404</v>
+      </c>
+      <c r="I223" s="5" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="224" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A224" s="3" t="s">
         <v>284</v>
       </c>
@@ -7558,8 +8944,14 @@
       <c r="G224" s="3">
         <v>8</v>
       </c>
-    </row>
-    <row r="225" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H224" s="5" t="s">
+        <v>404</v>
+      </c>
+      <c r="I224" s="5" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="225" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A225" s="3" t="s">
         <v>285</v>
       </c>
@@ -7582,8 +8974,14 @@
       <c r="G225" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="226" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H225" s="5" t="s">
+        <v>404</v>
+      </c>
+      <c r="I225" s="5" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="226" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A226" s="3" t="s">
         <v>286</v>
       </c>
@@ -7606,8 +9004,14 @@
       <c r="G226" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="227" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H226" s="5" t="s">
+        <v>404</v>
+      </c>
+      <c r="I226" s="5" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="227" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A227" s="3" t="s">
         <v>287</v>
       </c>
@@ -7630,8 +9034,14 @@
       <c r="G227" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="228" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H227" s="5" t="s">
+        <v>404</v>
+      </c>
+      <c r="I227" s="5" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="228" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A228" s="3" t="s">
         <v>288</v>
       </c>
@@ -7654,8 +9064,14 @@
       <c r="G228" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="229" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H228" s="5" t="s">
+        <v>404</v>
+      </c>
+      <c r="I228" s="5" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="229" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A229" s="3" t="s">
         <v>289</v>
       </c>
@@ -7678,8 +9094,14 @@
       <c r="G229" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="230" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H229" s="5" t="s">
+        <v>404</v>
+      </c>
+      <c r="I229" s="5" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="230" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A230" s="3" t="s">
         <v>290</v>
       </c>
@@ -7702,8 +9124,14 @@
       <c r="G230" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="231" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H230" s="5" t="s">
+        <v>404</v>
+      </c>
+      <c r="I230" s="5" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="231" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A231" s="3" t="s">
         <v>291</v>
       </c>
@@ -7726,8 +9154,14 @@
       <c r="G231" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="232" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H231" s="5" t="s">
+        <v>404</v>
+      </c>
+      <c r="I231" s="5" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="232" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A232" s="3" t="s">
         <v>292</v>
       </c>
@@ -7750,8 +9184,14 @@
       <c r="G232" s="3">
         <v>10</v>
       </c>
-    </row>
-    <row r="233" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H232" s="5" t="s">
+        <v>404</v>
+      </c>
+      <c r="I232" s="5" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="233" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A233" s="3" t="s">
         <v>293</v>
       </c>
@@ -7774,8 +9214,14 @@
       <c r="G233" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="234" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H233" s="5" t="s">
+        <v>404</v>
+      </c>
+      <c r="I233" s="5" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="234" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A234" s="3" t="s">
         <v>294</v>
       </c>
@@ -7798,8 +9244,14 @@
       <c r="G234" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="235" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H234" s="5" t="s">
+        <v>404</v>
+      </c>
+      <c r="I234" s="5" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="235" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A235" s="3" t="s">
         <v>295</v>
       </c>
@@ -7822,8 +9274,14 @@
       <c r="G235" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="236" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H235" s="5" t="s">
+        <v>404</v>
+      </c>
+      <c r="I235" s="5" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="236" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A236" s="3" t="s">
         <v>296</v>
       </c>
@@ -7846,8 +9304,14 @@
       <c r="G236" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="237" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H236" s="5" t="s">
+        <v>404</v>
+      </c>
+      <c r="I236" s="5" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="237" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A237" s="3" t="s">
         <v>68</v>
       </c>
@@ -7870,8 +9334,14 @@
       <c r="G237" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="238" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H237" s="5" t="s">
+        <v>404</v>
+      </c>
+      <c r="I237" s="5" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="238" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A238" s="3" t="s">
         <v>69</v>
       </c>
@@ -7894,8 +9364,14 @@
       <c r="G238" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="239" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H238" s="5" t="s">
+        <v>404</v>
+      </c>
+      <c r="I238" s="5" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="239" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A239" s="3" t="s">
         <v>297</v>
       </c>
@@ -7918,8 +9394,14 @@
       <c r="G239" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="240" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H239" s="5" t="s">
+        <v>404</v>
+      </c>
+      <c r="I239" s="5" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="240" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A240" s="3" t="s">
         <v>298</v>
       </c>
@@ -7942,8 +9424,14 @@
       <c r="G240" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="241" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H240" s="5" t="s">
+        <v>404</v>
+      </c>
+      <c r="I240" s="5" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="241" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A241" s="3" t="s">
         <v>299</v>
       </c>
@@ -7966,8 +9454,14 @@
       <c r="G241" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="242" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H241" s="5" t="s">
+        <v>404</v>
+      </c>
+      <c r="I241" s="5" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="242" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A242" s="3" t="s">
         <v>300</v>
       </c>
@@ -7990,8 +9484,14 @@
       <c r="G242" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="243" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H242" s="5" t="s">
+        <v>404</v>
+      </c>
+      <c r="I242" s="5" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="243" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A243" s="3" t="s">
         <v>301</v>
       </c>
@@ -8014,8 +9514,14 @@
       <c r="G243" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="244" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H243" s="5" t="s">
+        <v>404</v>
+      </c>
+      <c r="I243" s="5" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="244" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A244" s="3" t="s">
         <v>302</v>
       </c>
@@ -8038,8 +9544,14 @@
       <c r="G244" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="245" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H244" s="5" t="s">
+        <v>404</v>
+      </c>
+      <c r="I244" s="5" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="245" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A245" s="3" t="s">
         <v>303</v>
       </c>
@@ -8062,8 +9574,14 @@
       <c r="G245" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="246" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H245" s="5" t="s">
+        <v>404</v>
+      </c>
+      <c r="I245" s="5" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="246" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A246" s="3" t="s">
         <v>304</v>
       </c>
@@ -8086,8 +9604,14 @@
       <c r="G246" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="247" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H246" s="5" t="s">
+        <v>404</v>
+      </c>
+      <c r="I246" s="5" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="247" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A247" s="3" t="s">
         <v>305</v>
       </c>
@@ -8110,8 +9634,14 @@
       <c r="G247" s="3">
         <v>9</v>
       </c>
-    </row>
-    <row r="248" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H247" s="5" t="s">
+        <v>404</v>
+      </c>
+      <c r="I247" s="5" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="248" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A248" s="3" t="s">
         <v>306</v>
       </c>
@@ -8134,8 +9664,14 @@
       <c r="G248" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="249" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H248" s="5" t="s">
+        <v>404</v>
+      </c>
+      <c r="I248" s="5" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="249" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A249" s="3" t="s">
         <v>307</v>
       </c>
@@ -8158,8 +9694,14 @@
       <c r="G249" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="250" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H249" s="5" t="s">
+        <v>404</v>
+      </c>
+      <c r="I249" s="5" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="250" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A250" s="3" t="s">
         <v>308</v>
       </c>
@@ -8182,8 +9724,14 @@
       <c r="G250" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="251" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H250" s="5" t="s">
+        <v>404</v>
+      </c>
+      <c r="I250" s="5" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="251" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A251" s="3" t="s">
         <v>309</v>
       </c>
@@ -8206,8 +9754,14 @@
       <c r="G251" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="252" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H251" s="5" t="s">
+        <v>404</v>
+      </c>
+      <c r="I251" s="5" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="252" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A252" s="3" t="s">
         <v>310</v>
       </c>
@@ -8230,8 +9784,14 @@
       <c r="G252" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="253" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H252" s="5" t="s">
+        <v>404</v>
+      </c>
+      <c r="I252" s="5" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="253" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A253" s="3" t="s">
         <v>311</v>
       </c>
@@ -8254,8 +9814,14 @@
       <c r="G253" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="254" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H253" s="5" t="s">
+        <v>404</v>
+      </c>
+      <c r="I253" s="5" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="254" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A254" s="3" t="s">
         <v>312</v>
       </c>
@@ -8278,8 +9844,14 @@
       <c r="G254" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="255" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H254" s="5" t="s">
+        <v>404</v>
+      </c>
+      <c r="I254" s="5" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="255" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A255" s="3" t="s">
         <v>313</v>
       </c>
@@ -8302,8 +9874,14 @@
       <c r="G255" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="256" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H255" s="5" t="s">
+        <v>404</v>
+      </c>
+      <c r="I255" s="5" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="256" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A256" s="3" t="s">
         <v>314</v>
       </c>
@@ -8326,8 +9904,14 @@
       <c r="G256" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="257" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H256" s="5" t="s">
+        <v>404</v>
+      </c>
+      <c r="I256" s="5" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="257" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A257" s="3" t="s">
         <v>315</v>
       </c>
@@ -8350,8 +9934,14 @@
       <c r="G257" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="258" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H257" s="5" t="s">
+        <v>404</v>
+      </c>
+      <c r="I257" s="5" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="258" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A258" s="3" t="s">
         <v>316</v>
       </c>
@@ -8374,8 +9964,14 @@
       <c r="G258" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="259" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H258" s="5" t="s">
+        <v>404</v>
+      </c>
+      <c r="I258" s="5" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="259" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A259" s="3" t="s">
         <v>317</v>
       </c>
@@ -8398,8 +9994,14 @@
       <c r="G259" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="260" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H259" s="5" t="s">
+        <v>404</v>
+      </c>
+      <c r="I259" s="5" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="260" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A260" s="3" t="s">
         <v>318</v>
       </c>
@@ -8422,8 +10024,14 @@
       <c r="G260" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="261" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H260" s="5" t="s">
+        <v>404</v>
+      </c>
+      <c r="I260" s="5" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="261" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A261" s="3" t="s">
         <v>319</v>
       </c>
@@ -8446,8 +10054,14 @@
       <c r="G261" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="262" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H261" s="5" t="s">
+        <v>404</v>
+      </c>
+      <c r="I261" s="5" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="262" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A262" s="3" t="s">
         <v>320</v>
       </c>
@@ -8470,8 +10084,14 @@
       <c r="G262" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="263" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H262" s="5" t="s">
+        <v>404</v>
+      </c>
+      <c r="I262" s="5" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="263" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A263" s="3" t="s">
         <v>321</v>
       </c>
@@ -8494,8 +10114,14 @@
       <c r="G263" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="264" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H263" s="5" t="s">
+        <v>404</v>
+      </c>
+      <c r="I263" s="5" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="264" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A264" s="3" t="s">
         <v>322</v>
       </c>
@@ -8518,8 +10144,14 @@
       <c r="G264" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="265" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H264" s="5" t="s">
+        <v>404</v>
+      </c>
+      <c r="I264" s="5" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="265" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A265" s="3" t="s">
         <v>323</v>
       </c>
@@ -8542,8 +10174,14 @@
       <c r="G265" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="266" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H265" s="5" t="s">
+        <v>404</v>
+      </c>
+      <c r="I265" s="5" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="266" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A266" s="3" t="s">
         <v>324</v>
       </c>
@@ -8566,8 +10204,14 @@
       <c r="G266" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="267" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H266" s="5" t="s">
+        <v>404</v>
+      </c>
+      <c r="I266" s="5" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="267" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A267" s="3" t="s">
         <v>325</v>
       </c>
@@ -8590,8 +10234,14 @@
       <c r="G267" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="268" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H267" s="5" t="s">
+        <v>404</v>
+      </c>
+      <c r="I267" s="5" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="268" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A268" s="3" t="s">
         <v>326</v>
       </c>
@@ -8614,8 +10264,14 @@
       <c r="G268" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="269" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H268" s="5" t="s">
+        <v>404</v>
+      </c>
+      <c r="I268" s="5" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="269" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A269" s="3" t="s">
         <v>327</v>
       </c>
@@ -8638,8 +10294,14 @@
       <c r="G269" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="270" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H269" s="5" t="s">
+        <v>404</v>
+      </c>
+      <c r="I269" s="5" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="270" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A270" s="3" t="s">
         <v>328</v>
       </c>
@@ -8662,8 +10324,14 @@
       <c r="G270" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="271" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H270" s="5" t="s">
+        <v>404</v>
+      </c>
+      <c r="I270" s="5" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="271" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A271" s="3" t="s">
         <v>329</v>
       </c>
@@ -8686,8 +10354,14 @@
       <c r="G271" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="272" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H271" s="5" t="s">
+        <v>404</v>
+      </c>
+      <c r="I271" s="5" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="272" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A272" s="3" t="s">
         <v>330</v>
       </c>
@@ -8710,8 +10384,14 @@
       <c r="G272" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="273" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H272" s="5" t="s">
+        <v>404</v>
+      </c>
+      <c r="I272" s="5" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="273" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A273" s="3" t="s">
         <v>331</v>
       </c>
@@ -8734,8 +10414,14 @@
       <c r="G273" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="274" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H273" s="5" t="s">
+        <v>404</v>
+      </c>
+      <c r="I273" s="5" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="274" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A274" s="3" t="s">
         <v>332</v>
       </c>
@@ -8758,8 +10444,14 @@
       <c r="G274" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="275" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H274" s="5" t="s">
+        <v>404</v>
+      </c>
+      <c r="I274" s="5" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="275" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A275" s="3" t="s">
         <v>333</v>
       </c>
@@ -8782,8 +10474,14 @@
       <c r="G275" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="276" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H275" s="5" t="s">
+        <v>404</v>
+      </c>
+      <c r="I275" s="5" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="276" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A276" s="3" t="s">
         <v>334</v>
       </c>
@@ -8806,8 +10504,14 @@
       <c r="G276" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="277" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H276" s="5" t="s">
+        <v>404</v>
+      </c>
+      <c r="I276" s="5" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="277" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A277" s="3" t="s">
         <v>335</v>
       </c>
@@ -8830,8 +10534,14 @@
       <c r="G277" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="278" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H277" s="5" t="s">
+        <v>404</v>
+      </c>
+      <c r="I277" s="5" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="278" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A278" s="3" t="s">
         <v>336</v>
       </c>
@@ -8854,8 +10564,14 @@
       <c r="G278" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="279" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H278" s="5" t="s">
+        <v>404</v>
+      </c>
+      <c r="I278" s="5" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="279" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A279" s="3" t="s">
         <v>337</v>
       </c>
@@ -8878,8 +10594,14 @@
       <c r="G279" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="280" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H279" s="5" t="s">
+        <v>404</v>
+      </c>
+      <c r="I279" s="5" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="280" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A280" s="3" t="s">
         <v>338</v>
       </c>
@@ -8902,8 +10624,14 @@
       <c r="G280" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="281" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H280" s="5" t="s">
+        <v>404</v>
+      </c>
+      <c r="I280" s="5" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="281" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A281" s="3" t="s">
         <v>339</v>
       </c>
@@ -8926,8 +10654,14 @@
       <c r="G281" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="282" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H281" s="5" t="s">
+        <v>404</v>
+      </c>
+      <c r="I281" s="5" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="282" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A282" s="3" t="s">
         <v>340</v>
       </c>
@@ -8950,8 +10684,14 @@
       <c r="G282" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="283" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H282" s="5" t="s">
+        <v>404</v>
+      </c>
+      <c r="I282" s="5" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="283" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A283" s="3" t="s">
         <v>341</v>
       </c>
@@ -8974,8 +10714,14 @@
       <c r="G283" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="284" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H283" s="5" t="s">
+        <v>404</v>
+      </c>
+      <c r="I283" s="5" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="284" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A284" s="3" t="s">
         <v>342</v>
       </c>
@@ -8998,8 +10744,14 @@
       <c r="G284" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="285" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H284" s="5" t="s">
+        <v>404</v>
+      </c>
+      <c r="I284" s="5" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="285" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A285" s="3" t="s">
         <v>343</v>
       </c>
@@ -9022,8 +10774,14 @@
       <c r="G285" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="286" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H285" s="5" t="s">
+        <v>404</v>
+      </c>
+      <c r="I285" s="5" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="286" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A286" s="3" t="s">
         <v>344</v>
       </c>
@@ -9046,8 +10804,14 @@
       <c r="G286" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="287" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H286" s="5" t="s">
+        <v>404</v>
+      </c>
+      <c r="I286" s="5" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="287" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A287" s="3" t="s">
         <v>345</v>
       </c>
@@ -9070,8 +10834,14 @@
       <c r="G287" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="288" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H287" s="5" t="s">
+        <v>404</v>
+      </c>
+      <c r="I287" s="5" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="288" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A288" s="3" t="s">
         <v>346</v>
       </c>
@@ -9094,8 +10864,14 @@
       <c r="G288" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="289" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H288" s="5" t="s">
+        <v>404</v>
+      </c>
+      <c r="I288" s="5" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="289" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A289" s="3" t="s">
         <v>347</v>
       </c>
@@ -9118,8 +10894,14 @@
       <c r="G289" s="3">
         <v>11</v>
       </c>
-    </row>
-    <row r="290" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H289" s="5" t="s">
+        <v>404</v>
+      </c>
+      <c r="I289" s="5" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="290" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A290" s="3" t="s">
         <v>348</v>
       </c>
@@ -9142,8 +10924,14 @@
       <c r="G290" s="3">
         <v>11</v>
       </c>
-    </row>
-    <row r="291" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H290" s="5" t="s">
+        <v>404</v>
+      </c>
+      <c r="I290" s="5" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="291" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A291" s="3" t="s">
         <v>349</v>
       </c>
@@ -9166,8 +10954,14 @@
       <c r="G291" s="3">
         <v>11</v>
       </c>
-    </row>
-    <row r="292" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H291" s="5" t="s">
+        <v>404</v>
+      </c>
+      <c r="I291" s="5" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="292" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A292" s="3" t="s">
         <v>350</v>
       </c>
@@ -9190,8 +10984,14 @@
       <c r="G292" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="293" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H292" s="5" t="s">
+        <v>404</v>
+      </c>
+      <c r="I292" s="5" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="293" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A293" s="3" t="s">
         <v>351</v>
       </c>
@@ -9214,8 +11014,14 @@
       <c r="G293" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="294" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H293" s="5" t="s">
+        <v>404</v>
+      </c>
+      <c r="I293" s="5" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="294" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A294" s="3" t="s">
         <v>352</v>
       </c>
@@ -9238,8 +11044,14 @@
       <c r="G294" s="3">
         <v>11</v>
       </c>
-    </row>
-    <row r="295" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H294" s="5" t="s">
+        <v>404</v>
+      </c>
+      <c r="I294" s="5" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="295" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A295" s="3" t="s">
         <v>353</v>
       </c>
@@ -9262,8 +11074,14 @@
       <c r="G295" s="3">
         <v>11</v>
       </c>
-    </row>
-    <row r="296" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H295" s="5" t="s">
+        <v>404</v>
+      </c>
+      <c r="I295" s="5" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="296" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A296" s="3" t="s">
         <v>354</v>
       </c>
@@ -9286,8 +11104,14 @@
       <c r="G296" s="3">
         <v>11</v>
       </c>
-    </row>
-    <row r="297" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H296" s="5" t="s">
+        <v>404</v>
+      </c>
+      <c r="I296" s="5" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="297" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A297" s="3" t="s">
         <v>355</v>
       </c>
@@ -9310,8 +11134,14 @@
       <c r="G297" s="3">
         <v>11</v>
       </c>
-    </row>
-    <row r="298" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H297" s="5" t="s">
+        <v>404</v>
+      </c>
+      <c r="I297" s="5" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="298" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A298" s="3" t="s">
         <v>356</v>
       </c>
@@ -9334,8 +11164,14 @@
       <c r="G298" s="3">
         <v>11</v>
       </c>
-    </row>
-    <row r="299" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H298" s="5" t="s">
+        <v>404</v>
+      </c>
+      <c r="I298" s="5" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="299" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A299" s="3" t="s">
         <v>357</v>
       </c>
@@ -9358,8 +11194,14 @@
       <c r="G299" s="3">
         <v>11</v>
       </c>
-    </row>
-    <row r="300" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H299" s="5" t="s">
+        <v>404</v>
+      </c>
+      <c r="I299" s="5" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="300" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A300" s="3" t="s">
         <v>358</v>
       </c>
@@ -9382,8 +11224,14 @@
       <c r="G300" s="3">
         <v>11</v>
       </c>
-    </row>
-    <row r="301" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H300" s="5" t="s">
+        <v>404</v>
+      </c>
+      <c r="I300" s="5" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="301" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A301" s="3" t="s">
         <v>359</v>
       </c>
@@ -9406,8 +11254,14 @@
       <c r="G301" s="3">
         <v>11</v>
       </c>
-    </row>
-    <row r="302" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H301" s="5" t="s">
+        <v>404</v>
+      </c>
+      <c r="I301" s="5" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="302" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A302" s="3" t="s">
         <v>360</v>
       </c>
@@ -9430,8 +11284,14 @@
       <c r="G302" s="3">
         <v>11</v>
       </c>
-    </row>
-    <row r="303" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H302" s="5" t="s">
+        <v>404</v>
+      </c>
+      <c r="I302" s="5" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="303" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A303" s="3" t="s">
         <v>361</v>
       </c>
@@ -9454,8 +11314,14 @@
       <c r="G303" s="3">
         <v>11</v>
       </c>
-    </row>
-    <row r="304" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H303" s="5" t="s">
+        <v>404</v>
+      </c>
+      <c r="I303" s="5" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="304" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A304" s="3" t="s">
         <v>362</v>
       </c>
@@ -9478,8 +11344,14 @@
       <c r="G304" s="3">
         <v>11</v>
       </c>
-    </row>
-    <row r="305" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H304" s="5" t="s">
+        <v>404</v>
+      </c>
+      <c r="I304" s="5" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="305" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A305" s="3" t="s">
         <v>363</v>
       </c>
@@ -9502,8 +11374,14 @@
       <c r="G305" s="3">
         <v>11</v>
       </c>
-    </row>
-    <row r="306" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H305" s="5" t="s">
+        <v>404</v>
+      </c>
+      <c r="I305" s="5" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="306" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A306" s="3" t="s">
         <v>364</v>
       </c>
@@ -9526,8 +11404,14 @@
       <c r="G306" s="3">
         <v>11</v>
       </c>
-    </row>
-    <row r="307" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H306" s="5" t="s">
+        <v>404</v>
+      </c>
+      <c r="I306" s="5" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="307" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A307" s="3" t="s">
         <v>365</v>
       </c>
@@ -9550,8 +11434,14 @@
       <c r="G307" s="3">
         <v>11</v>
       </c>
-    </row>
-    <row r="308" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H307" s="5" t="s">
+        <v>404</v>
+      </c>
+      <c r="I307" s="5" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="308" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A308" s="3" t="s">
         <v>366</v>
       </c>
@@ -9574,8 +11464,14 @@
       <c r="G308" s="3">
         <v>11</v>
       </c>
-    </row>
-    <row r="309" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H308" s="5" t="s">
+        <v>404</v>
+      </c>
+      <c r="I308" s="5" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="309" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A309" s="3" t="s">
         <v>367</v>
       </c>
@@ -9598,8 +11494,14 @@
       <c r="G309" s="3">
         <v>11</v>
       </c>
-    </row>
-    <row r="310" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H309" s="5" t="s">
+        <v>404</v>
+      </c>
+      <c r="I309" s="5" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="310" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A310" s="3" t="s">
         <v>368</v>
       </c>
@@ -9622,8 +11524,14 @@
       <c r="G310" s="3">
         <v>11</v>
       </c>
-    </row>
-    <row r="311" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H310" s="5" t="s">
+        <v>404</v>
+      </c>
+      <c r="I310" s="5" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="311" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A311" s="3" t="s">
         <v>369</v>
       </c>
@@ -9646,8 +11554,14 @@
       <c r="G311" s="3">
         <v>11</v>
       </c>
-    </row>
-    <row r="312" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H311" s="5" t="s">
+        <v>404</v>
+      </c>
+      <c r="I311" s="5" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="312" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A312" s="3" t="s">
         <v>370</v>
       </c>
@@ -9670,8 +11584,14 @@
       <c r="G312" s="3">
         <v>11</v>
       </c>
-    </row>
-    <row r="313" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H312" s="5" t="s">
+        <v>404</v>
+      </c>
+      <c r="I312" s="5" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="313" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A313" s="3" t="s">
         <v>371</v>
       </c>
@@ -9694,8 +11614,14 @@
       <c r="G313" s="3">
         <v>11</v>
       </c>
-    </row>
-    <row r="314" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H313" s="5" t="s">
+        <v>404</v>
+      </c>
+      <c r="I313" s="5" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="314" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A314" s="3" t="s">
         <v>372</v>
       </c>
@@ -9718,8 +11644,14 @@
       <c r="G314" s="3">
         <v>11</v>
       </c>
-    </row>
-    <row r="315" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H314" s="5" t="s">
+        <v>404</v>
+      </c>
+      <c r="I314" s="5" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="315" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A315" s="3" t="s">
         <v>373</v>
       </c>
@@ -9742,8 +11674,14 @@
       <c r="G315" s="3">
         <v>11</v>
       </c>
-    </row>
-    <row r="316" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H315" s="5" t="s">
+        <v>404</v>
+      </c>
+      <c r="I315" s="5" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="316" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A316" s="3" t="s">
         <v>374</v>
       </c>
@@ -9766,8 +11704,14 @@
       <c r="G316" s="3">
         <v>11</v>
       </c>
-    </row>
-    <row r="317" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H316" s="5" t="s">
+        <v>404</v>
+      </c>
+      <c r="I316" s="5" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="317" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A317" s="3" t="s">
         <v>375</v>
       </c>
@@ -9789,6 +11733,12 @@
       </c>
       <c r="G317" s="3">
         <v>11</v>
+      </c>
+      <c r="H317" s="5" t="s">
+        <v>404</v>
+      </c>
+      <c r="I317" s="5" t="s">
+        <v>20</v>
       </c>
     </row>
   </sheetData>

--- a/Booyco HMI Utility/Resources/Documents/CommanderParametersFile.xlsx
+++ b/Booyco HMI Utility/Resources/Documents/CommanderParametersFile.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Werk\Booyco-HMI-Utility\Booyco HMI Utility\Resources\Documents\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Neil\Dropbox (Mernok Elektronik)\Software\Booyco HMI Utility\Booyco HMI Utility\Resources\Documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{366F10EF-1994-4580-A76D-33FDE3F739BF}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DA909C25-E83B-44E0-9204-7DAD6DEF92E1}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{4442C273-631E-40E6-88D2-7449766A5078}"/>
+    <workbookView xWindow="510" yWindow="840" windowWidth="24840" windowHeight="11385" xr2:uid="{4442C273-631E-40E6-88D2-7449766A5078}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -1729,8 +1729,8 @@
   <dimension ref="A1:N317"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A269" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I1" sqref="I1"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="K10" sqref="K10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/Booyco HMI Utility/Resources/Documents/CommanderParametersFile.xlsx
+++ b/Booyco HMI Utility/Resources/Documents/CommanderParametersFile.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Neil\Dropbox (Mernok Elektronik)\Software\Booyco HMI Utility\Booyco HMI Utility\Resources\Documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DA909C25-E83B-44E0-9204-7DAD6DEF92E1}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A4D01648-B82F-42EE-B595-35C035904350}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="510" yWindow="840" windowWidth="24840" windowHeight="11385" xr2:uid="{4442C273-631E-40E6-88D2-7449766A5078}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{4442C273-631E-40E6-88D2-7449766A5078}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1040" uniqueCount="418">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1357" uniqueCount="422">
   <si>
     <t>Name</t>
   </si>
@@ -1285,6 +1285,18 @@
   </si>
   <si>
     <t>Periferals</t>
+  </si>
+  <si>
+    <t>Description</t>
+  </si>
+  <si>
+    <t>Firmware sub-revision of the device, used to indicate minor updates</t>
+  </si>
+  <si>
+    <t>Firmware revision of the device used to indicate major updates and possible compatibility issues</t>
+  </si>
+  <si>
+    <t>No Info</t>
   </si>
 </sst>
 </file>
@@ -1726,11 +1738,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E4E73DD7-587F-4C4F-B32B-7B78C2644041}">
-  <dimension ref="A1:N317"/>
+  <dimension ref="A1:P317"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="K10" sqref="K10"/>
+      <selection pane="bottomLeft" activeCell="N1" sqref="N1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1740,13 +1752,14 @@
     <col min="4" max="4" width="9.28515625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="12.7109375" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="17.5703125" customWidth="1"/>
-    <col min="11" max="11" width="12.140625" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="12.140625" customWidth="1"/>
+    <col min="10" max="10" width="89" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="12.140625" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="6.140625" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="21.42578125" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="12" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -1774,11 +1787,8 @@
       <c r="I1" s="6" t="s">
         <v>412</v>
       </c>
-      <c r="J1" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="K1" s="2" t="s">
-        <v>378</v>
+      <c r="J1" s="6" t="s">
+        <v>418</v>
       </c>
       <c r="M1" s="1" t="s">
         <v>9</v>
@@ -1786,8 +1796,14 @@
       <c r="N1" s="1" t="s">
         <v>62</v>
       </c>
-    </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O1" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="P1" s="2" t="s">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
         <v>70</v>
       </c>
@@ -1816,11 +1832,8 @@
       <c r="I2" t="s">
         <v>413</v>
       </c>
-      <c r="J2" s="2">
-        <v>0</v>
-      </c>
-      <c r="K2" s="2" t="s">
-        <v>376</v>
+      <c r="J2" t="s">
+        <v>420</v>
       </c>
       <c r="M2" s="1">
         <v>1</v>
@@ -1828,8 +1841,14 @@
       <c r="N2" s="1" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O2" s="2">
+        <v>0</v>
+      </c>
+      <c r="P2" s="2" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
         <v>71</v>
       </c>
@@ -1858,11 +1877,8 @@
       <c r="I3" t="s">
         <v>413</v>
       </c>
-      <c r="J3" s="2">
-        <v>1</v>
-      </c>
-      <c r="K3" s="2" t="s">
-        <v>377</v>
+      <c r="J3" t="s">
+        <v>419</v>
       </c>
       <c r="M3" s="1">
         <v>1</v>
@@ -1870,8 +1886,14 @@
       <c r="N3" s="1" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O3" s="2">
+        <v>1</v>
+      </c>
+      <c r="P3" s="2" t="s">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
         <v>5</v>
       </c>
@@ -1900,11 +1922,8 @@
       <c r="I4" t="s">
         <v>413</v>
       </c>
-      <c r="J4" s="2">
-        <v>2</v>
-      </c>
-      <c r="K4" s="2" t="s">
-        <v>9</v>
+      <c r="J4" t="s">
+        <v>421</v>
       </c>
       <c r="M4" s="1">
         <v>1</v>
@@ -1912,8 +1931,14 @@
       <c r="N4" s="1" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O4" s="2">
+        <v>2</v>
+      </c>
+      <c r="P4" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
         <v>6</v>
       </c>
@@ -1942,11 +1967,8 @@
       <c r="I5" t="s">
         <v>413</v>
       </c>
-      <c r="J5" s="4">
-        <v>4</v>
-      </c>
-      <c r="K5" s="4" t="s">
-        <v>379</v>
+      <c r="J5" t="s">
+        <v>421</v>
       </c>
       <c r="M5" s="1">
         <v>1</v>
@@ -1954,8 +1976,14 @@
       <c r="N5" s="1" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O5" s="4">
+        <v>4</v>
+      </c>
+      <c r="P5" s="4" t="s">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
         <v>7</v>
       </c>
@@ -1984,6 +2012,9 @@
       <c r="I6" t="s">
         <v>413</v>
       </c>
+      <c r="J6" t="s">
+        <v>421</v>
+      </c>
       <c r="M6" s="1">
         <v>2</v>
       </c>
@@ -1991,7 +2022,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
         <v>63</v>
       </c>
@@ -2020,6 +2051,9 @@
       <c r="I7" t="s">
         <v>413</v>
       </c>
+      <c r="J7" t="s">
+        <v>421</v>
+      </c>
       <c r="M7" s="1">
         <v>2</v>
       </c>
@@ -2027,7 +2061,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
         <v>72</v>
       </c>
@@ -2056,6 +2090,9 @@
       <c r="I8" t="s">
         <v>413</v>
       </c>
+      <c r="J8" t="s">
+        <v>421</v>
+      </c>
       <c r="M8" s="1">
         <v>3</v>
       </c>
@@ -2063,7 +2100,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
         <v>73</v>
       </c>
@@ -2092,6 +2129,9 @@
       <c r="I9" t="s">
         <v>413</v>
       </c>
+      <c r="J9" t="s">
+        <v>421</v>
+      </c>
       <c r="M9" s="1">
         <v>4</v>
       </c>
@@ -2099,7 +2139,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
         <v>74</v>
       </c>
@@ -2128,6 +2168,9 @@
       <c r="I10" t="s">
         <v>413</v>
       </c>
+      <c r="J10" t="s">
+        <v>421</v>
+      </c>
       <c r="M10" s="1">
         <v>4</v>
       </c>
@@ -2135,7 +2178,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A11" s="3" t="s">
         <v>75</v>
       </c>
@@ -2164,6 +2207,9 @@
       <c r="I11" t="s">
         <v>413</v>
       </c>
+      <c r="J11" t="s">
+        <v>421</v>
+      </c>
       <c r="M11" s="1">
         <v>4</v>
       </c>
@@ -2171,7 +2217,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A12" s="3" t="s">
         <v>76</v>
       </c>
@@ -2200,6 +2246,9 @@
       <c r="I12" t="s">
         <v>413</v>
       </c>
+      <c r="J12" t="s">
+        <v>421</v>
+      </c>
       <c r="M12" s="1">
         <v>4</v>
       </c>
@@ -2207,7 +2256,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A13" s="3" t="s">
         <v>77</v>
       </c>
@@ -2236,6 +2285,9 @@
       <c r="I13" t="s">
         <v>413</v>
       </c>
+      <c r="J13" t="s">
+        <v>421</v>
+      </c>
       <c r="M13" s="1">
         <v>4</v>
       </c>
@@ -2243,7 +2295,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A14" s="3" t="s">
         <v>78</v>
       </c>
@@ -2272,6 +2324,9 @@
       <c r="I14" t="s">
         <v>413</v>
       </c>
+      <c r="J14" t="s">
+        <v>421</v>
+      </c>
       <c r="M14" s="1">
         <v>5</v>
       </c>
@@ -2279,7 +2334,7 @@
         <v>389</v>
       </c>
     </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A15" s="3" t="s">
         <v>79</v>
       </c>
@@ -2308,6 +2363,9 @@
       <c r="I15" t="s">
         <v>413</v>
       </c>
+      <c r="J15" t="s">
+        <v>421</v>
+      </c>
       <c r="M15" s="1">
         <v>5</v>
       </c>
@@ -2315,7 +2373,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A16" s="3" t="s">
         <v>80</v>
       </c>
@@ -2344,6 +2402,9 @@
       <c r="I16" t="s">
         <v>413</v>
       </c>
+      <c r="J16" t="s">
+        <v>421</v>
+      </c>
       <c r="M16" s="1">
         <v>5</v>
       </c>
@@ -2380,6 +2441,9 @@
       <c r="I17" t="s">
         <v>413</v>
       </c>
+      <c r="J17" t="s">
+        <v>421</v>
+      </c>
       <c r="M17" s="1">
         <v>5</v>
       </c>
@@ -2416,6 +2480,9 @@
       <c r="I18" t="s">
         <v>413</v>
       </c>
+      <c r="J18" t="s">
+        <v>421</v>
+      </c>
       <c r="M18" s="1">
         <v>5</v>
       </c>
@@ -2452,6 +2519,9 @@
       <c r="I19" t="s">
         <v>413</v>
       </c>
+      <c r="J19" t="s">
+        <v>421</v>
+      </c>
       <c r="M19" s="1">
         <v>6</v>
       </c>
@@ -2488,6 +2558,9 @@
       <c r="I20" t="s">
         <v>413</v>
       </c>
+      <c r="J20" t="s">
+        <v>421</v>
+      </c>
       <c r="M20" s="1">
         <v>6</v>
       </c>
@@ -2524,6 +2597,9 @@
       <c r="I21" t="s">
         <v>413</v>
       </c>
+      <c r="J21" t="s">
+        <v>421</v>
+      </c>
       <c r="M21" s="1">
         <v>6</v>
       </c>
@@ -2560,6 +2636,9 @@
       <c r="I22" t="s">
         <v>413</v>
       </c>
+      <c r="J22" t="s">
+        <v>421</v>
+      </c>
       <c r="M22" s="1">
         <v>6</v>
       </c>
@@ -2596,6 +2675,9 @@
       <c r="I23" t="s">
         <v>413</v>
       </c>
+      <c r="J23" t="s">
+        <v>421</v>
+      </c>
       <c r="M23" s="1">
         <v>6</v>
       </c>
@@ -2632,6 +2714,9 @@
       <c r="I24" t="s">
         <v>413</v>
       </c>
+      <c r="J24" t="s">
+        <v>421</v>
+      </c>
       <c r="M24" s="1">
         <v>6</v>
       </c>
@@ -2668,6 +2753,9 @@
       <c r="I25" t="s">
         <v>413</v>
       </c>
+      <c r="J25" t="s">
+        <v>421</v>
+      </c>
       <c r="M25" s="1">
         <v>6</v>
       </c>
@@ -2704,6 +2792,9 @@
       <c r="I26" t="s">
         <v>413</v>
       </c>
+      <c r="J26" t="s">
+        <v>421</v>
+      </c>
       <c r="M26" s="1">
         <v>6</v>
       </c>
@@ -2740,6 +2831,9 @@
       <c r="I27" t="s">
         <v>413</v>
       </c>
+      <c r="J27" t="s">
+        <v>421</v>
+      </c>
       <c r="M27" s="1">
         <v>6</v>
       </c>
@@ -2776,6 +2870,9 @@
       <c r="I28" t="s">
         <v>414</v>
       </c>
+      <c r="J28" t="s">
+        <v>421</v>
+      </c>
       <c r="M28" s="1">
         <v>6</v>
       </c>
@@ -2812,6 +2909,9 @@
       <c r="I29" t="s">
         <v>414</v>
       </c>
+      <c r="J29" t="s">
+        <v>421</v>
+      </c>
       <c r="M29" s="1">
         <v>7</v>
       </c>
@@ -2848,6 +2948,9 @@
       <c r="I30" t="s">
         <v>414</v>
       </c>
+      <c r="J30" t="s">
+        <v>421</v>
+      </c>
       <c r="M30" s="1">
         <v>7</v>
       </c>
@@ -2884,6 +2987,9 @@
       <c r="I31" t="s">
         <v>414</v>
       </c>
+      <c r="J31" t="s">
+        <v>421</v>
+      </c>
       <c r="M31" s="1">
         <v>7</v>
       </c>
@@ -2920,6 +3026,9 @@
       <c r="I32" t="s">
         <v>413</v>
       </c>
+      <c r="J32" t="s">
+        <v>421</v>
+      </c>
       <c r="M32" s="1">
         <v>7</v>
       </c>
@@ -2956,6 +3065,9 @@
       <c r="I33" t="s">
         <v>413</v>
       </c>
+      <c r="J33" t="s">
+        <v>421</v>
+      </c>
       <c r="M33" s="1">
         <v>7</v>
       </c>
@@ -2992,6 +3104,9 @@
       <c r="I34" t="s">
         <v>413</v>
       </c>
+      <c r="J34" t="s">
+        <v>421</v>
+      </c>
       <c r="M34" s="1">
         <v>7</v>
       </c>
@@ -3028,6 +3143,9 @@
       <c r="I35" t="s">
         <v>413</v>
       </c>
+      <c r="J35" t="s">
+        <v>421</v>
+      </c>
       <c r="M35" s="1">
         <v>7</v>
       </c>
@@ -3064,6 +3182,9 @@
       <c r="I36" t="s">
         <v>413</v>
       </c>
+      <c r="J36" t="s">
+        <v>421</v>
+      </c>
       <c r="M36" s="1">
         <v>7</v>
       </c>
@@ -3100,6 +3221,9 @@
       <c r="I37" t="s">
         <v>415</v>
       </c>
+      <c r="J37" t="s">
+        <v>421</v>
+      </c>
       <c r="M37" s="1">
         <v>7</v>
       </c>
@@ -3136,6 +3260,9 @@
       <c r="I38" t="s">
         <v>415</v>
       </c>
+      <c r="J38" t="s">
+        <v>421</v>
+      </c>
       <c r="M38" s="1">
         <v>7</v>
       </c>
@@ -3172,6 +3299,9 @@
       <c r="I39" t="s">
         <v>415</v>
       </c>
+      <c r="J39" t="s">
+        <v>421</v>
+      </c>
       <c r="M39" s="1">
         <v>7</v>
       </c>
@@ -3208,6 +3338,9 @@
       <c r="I40" t="s">
         <v>415</v>
       </c>
+      <c r="J40" t="s">
+        <v>421</v>
+      </c>
       <c r="M40" s="1">
         <v>7</v>
       </c>
@@ -3244,6 +3377,9 @@
       <c r="I41" t="s">
         <v>416</v>
       </c>
+      <c r="J41" t="s">
+        <v>421</v>
+      </c>
       <c r="M41" s="1">
         <v>8</v>
       </c>
@@ -3280,6 +3416,9 @@
       <c r="I42" t="s">
         <v>416</v>
       </c>
+      <c r="J42" t="s">
+        <v>421</v>
+      </c>
       <c r="M42" s="1">
         <v>8</v>
       </c>
@@ -3316,6 +3455,9 @@
       <c r="I43" t="s">
         <v>416</v>
       </c>
+      <c r="J43" t="s">
+        <v>421</v>
+      </c>
       <c r="M43" s="1">
         <v>8</v>
       </c>
@@ -3352,6 +3494,9 @@
       <c r="I44" t="s">
         <v>416</v>
       </c>
+      <c r="J44" t="s">
+        <v>421</v>
+      </c>
       <c r="M44" s="1">
         <v>8</v>
       </c>
@@ -3388,6 +3533,9 @@
       <c r="I45" t="s">
         <v>416</v>
       </c>
+      <c r="J45" t="s">
+        <v>421</v>
+      </c>
       <c r="M45" s="1">
         <v>8</v>
       </c>
@@ -3424,6 +3572,9 @@
       <c r="I46" s="5" t="s">
         <v>405</v>
       </c>
+      <c r="J46" t="s">
+        <v>421</v>
+      </c>
       <c r="M46" s="1">
         <v>8</v>
       </c>
@@ -3460,6 +3611,9 @@
       <c r="I47" s="5" t="s">
         <v>405</v>
       </c>
+      <c r="J47" t="s">
+        <v>421</v>
+      </c>
       <c r="M47" s="1">
         <v>8</v>
       </c>
@@ -3496,6 +3650,9 @@
       <c r="I48" s="5" t="s">
         <v>405</v>
       </c>
+      <c r="J48" t="s">
+        <v>421</v>
+      </c>
       <c r="M48" s="1">
         <v>8</v>
       </c>
@@ -3532,6 +3689,9 @@
       <c r="I49" s="5" t="s">
         <v>405</v>
       </c>
+      <c r="J49" t="s">
+        <v>421</v>
+      </c>
       <c r="M49" s="1">
         <v>8</v>
       </c>
@@ -3568,6 +3728,9 @@
       <c r="I50" s="5" t="s">
         <v>405</v>
       </c>
+      <c r="J50" t="s">
+        <v>421</v>
+      </c>
       <c r="M50" s="1">
         <v>8</v>
       </c>
@@ -3604,6 +3767,9 @@
       <c r="I51" s="5" t="s">
         <v>406</v>
       </c>
+      <c r="J51" t="s">
+        <v>421</v>
+      </c>
       <c r="M51" s="1">
         <v>8</v>
       </c>
@@ -3640,6 +3806,9 @@
       <c r="I52" s="5" t="s">
         <v>406</v>
       </c>
+      <c r="J52" t="s">
+        <v>421</v>
+      </c>
       <c r="M52" s="1">
         <v>8</v>
       </c>
@@ -3676,6 +3845,9 @@
       <c r="I53" s="5" t="s">
         <v>406</v>
       </c>
+      <c r="J53" t="s">
+        <v>421</v>
+      </c>
       <c r="M53" s="1">
         <v>8</v>
       </c>
@@ -3712,6 +3884,9 @@
       <c r="I54" s="5" t="s">
         <v>406</v>
       </c>
+      <c r="J54" t="s">
+        <v>421</v>
+      </c>
       <c r="M54" s="1">
         <v>8</v>
       </c>
@@ -3748,6 +3923,9 @@
       <c r="I55" s="5" t="s">
         <v>406</v>
       </c>
+      <c r="J55" t="s">
+        <v>421</v>
+      </c>
       <c r="M55" s="1">
         <v>8</v>
       </c>
@@ -3784,6 +3962,9 @@
       <c r="I56" s="5" t="s">
         <v>406</v>
       </c>
+      <c r="J56" t="s">
+        <v>421</v>
+      </c>
       <c r="M56" s="1">
         <v>8</v>
       </c>
@@ -3820,6 +4001,9 @@
       <c r="I57" s="5" t="s">
         <v>406</v>
       </c>
+      <c r="J57" t="s">
+        <v>421</v>
+      </c>
       <c r="M57" s="1">
         <v>9</v>
       </c>
@@ -3856,6 +4040,9 @@
       <c r="I58" s="5" t="s">
         <v>406</v>
       </c>
+      <c r="J58" t="s">
+        <v>421</v>
+      </c>
       <c r="M58" s="1">
         <v>9</v>
       </c>
@@ -3892,6 +4079,9 @@
       <c r="I59" s="5" t="s">
         <v>406</v>
       </c>
+      <c r="J59" t="s">
+        <v>421</v>
+      </c>
       <c r="M59" s="1">
         <v>10</v>
       </c>
@@ -3928,6 +4118,9 @@
       <c r="I60" s="5" t="s">
         <v>406</v>
       </c>
+      <c r="J60" t="s">
+        <v>421</v>
+      </c>
       <c r="M60" s="1">
         <v>10</v>
       </c>
@@ -3964,6 +4157,9 @@
       <c r="I61" s="5" t="s">
         <v>406</v>
       </c>
+      <c r="J61" t="s">
+        <v>421</v>
+      </c>
       <c r="M61" s="1">
         <v>10</v>
       </c>
@@ -4000,6 +4196,9 @@
       <c r="I62" s="5" t="s">
         <v>406</v>
       </c>
+      <c r="J62" t="s">
+        <v>421</v>
+      </c>
       <c r="M62" s="1">
         <v>10</v>
       </c>
@@ -4036,6 +4235,9 @@
       <c r="I63" s="5" t="s">
         <v>406</v>
       </c>
+      <c r="J63" t="s">
+        <v>421</v>
+      </c>
       <c r="M63" s="1">
         <v>11</v>
       </c>
@@ -4072,6 +4274,9 @@
       <c r="I64" s="5" t="s">
         <v>406</v>
       </c>
+      <c r="J64" t="s">
+        <v>421</v>
+      </c>
       <c r="M64" s="1">
         <v>11</v>
       </c>
@@ -4108,6 +4313,9 @@
       <c r="I65" s="5" t="s">
         <v>406</v>
       </c>
+      <c r="J65" t="s">
+        <v>421</v>
+      </c>
       <c r="M65" s="1">
         <v>11</v>
       </c>
@@ -4144,6 +4352,9 @@
       <c r="I66" s="5" t="s">
         <v>406</v>
       </c>
+      <c r="J66" t="s">
+        <v>421</v>
+      </c>
       <c r="M66" s="1">
         <v>11</v>
       </c>
@@ -4180,6 +4391,9 @@
       <c r="I67" s="5" t="s">
         <v>406</v>
       </c>
+      <c r="J67" t="s">
+        <v>421</v>
+      </c>
       <c r="M67" s="1">
         <v>11</v>
       </c>
@@ -4216,6 +4430,9 @@
       <c r="I68" s="5" t="s">
         <v>406</v>
       </c>
+      <c r="J68" t="s">
+        <v>421</v>
+      </c>
       <c r="M68" s="1">
         <v>11</v>
       </c>
@@ -4252,6 +4469,9 @@
       <c r="I69" s="5" t="s">
         <v>406</v>
       </c>
+      <c r="J69" t="s">
+        <v>421</v>
+      </c>
       <c r="M69" s="1">
         <v>11</v>
       </c>
@@ -4288,6 +4508,9 @@
       <c r="I70" s="5" t="s">
         <v>406</v>
       </c>
+      <c r="J70" t="s">
+        <v>421</v>
+      </c>
       <c r="M70" s="1">
         <v>11</v>
       </c>
@@ -4324,6 +4547,9 @@
       <c r="I71" s="5" t="s">
         <v>406</v>
       </c>
+      <c r="J71" t="s">
+        <v>421</v>
+      </c>
       <c r="M71" s="1">
         <v>11</v>
       </c>
@@ -4360,6 +4586,9 @@
       <c r="I72" s="5" t="s">
         <v>406</v>
       </c>
+      <c r="J72" t="s">
+        <v>421</v>
+      </c>
       <c r="M72" s="1">
         <v>11</v>
       </c>
@@ -4396,6 +4625,9 @@
       <c r="I73" s="5" t="s">
         <v>406</v>
       </c>
+      <c r="J73" t="s">
+        <v>421</v>
+      </c>
       <c r="M73" s="1">
         <v>11</v>
       </c>
@@ -4432,6 +4664,9 @@
       <c r="I74" s="5" t="s">
         <v>406</v>
       </c>
+      <c r="J74" t="s">
+        <v>421</v>
+      </c>
       <c r="M74" s="1">
         <v>11</v>
       </c>
@@ -4468,6 +4703,9 @@
       <c r="I75" s="5" t="s">
         <v>406</v>
       </c>
+      <c r="J75" t="s">
+        <v>421</v>
+      </c>
       <c r="M75" s="1">
         <v>11</v>
       </c>
@@ -4504,6 +4742,9 @@
       <c r="I76" s="5" t="s">
         <v>406</v>
       </c>
+      <c r="J76" t="s">
+        <v>421</v>
+      </c>
       <c r="M76" s="1">
         <v>11</v>
       </c>
@@ -4540,6 +4781,9 @@
       <c r="I77" s="5" t="s">
         <v>406</v>
       </c>
+      <c r="J77" t="s">
+        <v>421</v>
+      </c>
     </row>
     <row r="78" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A78" s="3" t="s">
@@ -4570,6 +4814,9 @@
       <c r="I78" s="5" t="s">
         <v>406</v>
       </c>
+      <c r="J78" t="s">
+        <v>421</v>
+      </c>
     </row>
     <row r="79" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A79" s="3" t="s">
@@ -4600,6 +4847,9 @@
       <c r="I79" s="5" t="s">
         <v>406</v>
       </c>
+      <c r="J79" t="s">
+        <v>421</v>
+      </c>
     </row>
     <row r="80" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A80" s="3" t="s">
@@ -4630,8 +4880,11 @@
       <c r="I80" s="5" t="s">
         <v>406</v>
       </c>
-    </row>
-    <row r="81" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J80" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="81" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A81" s="3" t="s">
         <v>142</v>
       </c>
@@ -4660,8 +4913,11 @@
       <c r="I81" s="5" t="s">
         <v>407</v>
       </c>
-    </row>
-    <row r="82" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J81" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="82" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A82" s="3" t="s">
         <v>143</v>
       </c>
@@ -4690,8 +4946,11 @@
       <c r="I82" s="5" t="s">
         <v>407</v>
       </c>
-    </row>
-    <row r="83" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J82" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="83" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A83" s="3" t="s">
         <v>144</v>
       </c>
@@ -4720,8 +4979,11 @@
       <c r="I83" s="5" t="s">
         <v>407</v>
       </c>
-    </row>
-    <row r="84" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J83" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="84" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A84" s="3" t="s">
         <v>145</v>
       </c>
@@ -4750,8 +5012,11 @@
       <c r="I84" s="5" t="s">
         <v>407</v>
       </c>
-    </row>
-    <row r="85" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J84" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="85" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A85" s="3" t="s">
         <v>146</v>
       </c>
@@ -4780,8 +5045,11 @@
       <c r="I85" s="5" t="s">
         <v>407</v>
       </c>
-    </row>
-    <row r="86" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J85" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="86" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A86" s="3" t="s">
         <v>147</v>
       </c>
@@ -4810,8 +5078,11 @@
       <c r="I86" s="5" t="s">
         <v>407</v>
       </c>
-    </row>
-    <row r="87" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J86" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="87" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A87" s="3" t="s">
         <v>148</v>
       </c>
@@ -4840,8 +5111,11 @@
       <c r="I87" s="5" t="s">
         <v>407</v>
       </c>
-    </row>
-    <row r="88" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J87" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="88" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A88" s="3" t="s">
         <v>149</v>
       </c>
@@ -4870,8 +5144,11 @@
       <c r="I88" s="5" t="s">
         <v>407</v>
       </c>
-    </row>
-    <row r="89" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J88" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="89" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A89" s="3" t="s">
         <v>150</v>
       </c>
@@ -4900,8 +5177,11 @@
       <c r="I89" s="5" t="s">
         <v>407</v>
       </c>
-    </row>
-    <row r="90" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J89" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="90" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A90" s="3" t="s">
         <v>151</v>
       </c>
@@ -4930,8 +5210,11 @@
       <c r="I90" s="5" t="s">
         <v>407</v>
       </c>
-    </row>
-    <row r="91" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J90" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="91" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A91" s="3" t="s">
         <v>152</v>
       </c>
@@ -4960,8 +5243,11 @@
       <c r="I91" s="5" t="s">
         <v>407</v>
       </c>
-    </row>
-    <row r="92" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J91" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="92" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A92" s="3" t="s">
         <v>153</v>
       </c>
@@ -4990,8 +5276,11 @@
       <c r="I92" s="5" t="s">
         <v>407</v>
       </c>
-    </row>
-    <row r="93" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J92" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="93" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A93" s="3" t="s">
         <v>154</v>
       </c>
@@ -5020,8 +5309,11 @@
       <c r="I93" s="5" t="s">
         <v>407</v>
       </c>
-    </row>
-    <row r="94" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J93" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="94" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A94" s="3" t="s">
         <v>155</v>
       </c>
@@ -5050,8 +5342,11 @@
       <c r="I94" s="5" t="s">
         <v>407</v>
       </c>
-    </row>
-    <row r="95" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J94" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="95" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A95" s="3" t="s">
         <v>156</v>
       </c>
@@ -5080,8 +5375,11 @@
       <c r="I95" s="5" t="s">
         <v>407</v>
       </c>
-    </row>
-    <row r="96" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J95" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="96" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A96" s="3" t="s">
         <v>157</v>
       </c>
@@ -5110,8 +5408,11 @@
       <c r="I96" s="5" t="s">
         <v>407</v>
       </c>
-    </row>
-    <row r="97" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J96" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="97" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A97" s="3" t="s">
         <v>158</v>
       </c>
@@ -5140,8 +5441,11 @@
       <c r="I97" s="5" t="s">
         <v>407</v>
       </c>
-    </row>
-    <row r="98" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J97" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="98" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A98" s="3" t="s">
         <v>159</v>
       </c>
@@ -5170,8 +5474,11 @@
       <c r="I98" s="5" t="s">
         <v>407</v>
       </c>
-    </row>
-    <row r="99" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J98" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="99" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A99" s="3" t="s">
         <v>160</v>
       </c>
@@ -5200,8 +5507,11 @@
       <c r="I99" s="5" t="s">
         <v>407</v>
       </c>
-    </row>
-    <row r="100" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J99" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="100" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A100" s="3" t="s">
         <v>161</v>
       </c>
@@ -5230,8 +5540,11 @@
       <c r="I100" s="5" t="s">
         <v>407</v>
       </c>
-    </row>
-    <row r="101" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J100" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="101" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A101" s="3" t="s">
         <v>162</v>
       </c>
@@ -5260,8 +5573,11 @@
       <c r="I101" s="5" t="s">
         <v>407</v>
       </c>
-    </row>
-    <row r="102" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J101" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="102" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A102" s="3" t="s">
         <v>163</v>
       </c>
@@ -5290,8 +5606,11 @@
       <c r="I102" s="5" t="s">
         <v>407</v>
       </c>
-    </row>
-    <row r="103" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J102" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="103" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A103" s="3" t="s">
         <v>164</v>
       </c>
@@ -5320,8 +5639,11 @@
       <c r="I103" s="5" t="s">
         <v>407</v>
       </c>
-    </row>
-    <row r="104" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J103" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="104" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A104" s="3" t="s">
         <v>165</v>
       </c>
@@ -5350,8 +5672,11 @@
       <c r="I104" s="5" t="s">
         <v>407</v>
       </c>
-    </row>
-    <row r="105" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J104" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="105" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A105" s="3" t="s">
         <v>166</v>
       </c>
@@ -5380,8 +5705,11 @@
       <c r="I105" s="5" t="s">
         <v>407</v>
       </c>
-    </row>
-    <row r="106" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J105" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="106" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A106" s="3" t="s">
         <v>167</v>
       </c>
@@ -5410,8 +5738,11 @@
       <c r="I106" s="5" t="s">
         <v>407</v>
       </c>
-    </row>
-    <row r="107" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J106" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="107" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A107" s="3" t="s">
         <v>168</v>
       </c>
@@ -5440,8 +5771,11 @@
       <c r="I107" s="5" t="s">
         <v>407</v>
       </c>
-    </row>
-    <row r="108" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J107" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="108" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A108" s="3" t="s">
         <v>169</v>
       </c>
@@ -5470,8 +5804,11 @@
       <c r="I108" s="5" t="s">
         <v>407</v>
       </c>
-    </row>
-    <row r="109" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J108" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="109" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A109" s="3" t="s">
         <v>170</v>
       </c>
@@ -5500,8 +5837,11 @@
       <c r="I109" s="5" t="s">
         <v>407</v>
       </c>
-    </row>
-    <row r="110" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J109" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="110" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A110" s="3" t="s">
         <v>171</v>
       </c>
@@ -5530,8 +5870,11 @@
       <c r="I110" s="5" t="s">
         <v>407</v>
       </c>
-    </row>
-    <row r="111" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J110" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="111" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A111" s="3" t="s">
         <v>172</v>
       </c>
@@ -5560,8 +5903,11 @@
       <c r="I111" s="5" t="s">
         <v>408</v>
       </c>
-    </row>
-    <row r="112" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J111" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="112" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A112" s="3" t="s">
         <v>173</v>
       </c>
@@ -5590,8 +5936,11 @@
       <c r="I112" s="5" t="s">
         <v>408</v>
       </c>
-    </row>
-    <row r="113" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J112" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="113" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A113" s="3" t="s">
         <v>174</v>
       </c>
@@ -5620,8 +5969,11 @@
       <c r="I113" s="5" t="s">
         <v>408</v>
       </c>
-    </row>
-    <row r="114" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J113" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="114" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A114" s="3" t="s">
         <v>175</v>
       </c>
@@ -5650,8 +6002,11 @@
       <c r="I114" s="5" t="s">
         <v>408</v>
       </c>
-    </row>
-    <row r="115" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J114" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="115" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A115" s="3" t="s">
         <v>176</v>
       </c>
@@ -5680,8 +6035,11 @@
       <c r="I115" s="5" t="s">
         <v>408</v>
       </c>
-    </row>
-    <row r="116" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J115" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="116" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A116" s="3" t="s">
         <v>177</v>
       </c>
@@ -5710,8 +6068,11 @@
       <c r="I116" s="5" t="s">
         <v>408</v>
       </c>
-    </row>
-    <row r="117" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J116" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="117" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A117" s="3" t="s">
         <v>178</v>
       </c>
@@ -5740,8 +6101,11 @@
       <c r="I117" s="5" t="s">
         <v>408</v>
       </c>
-    </row>
-    <row r="118" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J117" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="118" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A118" s="3" t="s">
         <v>179</v>
       </c>
@@ -5770,8 +6134,11 @@
       <c r="I118" s="5" t="s">
         <v>408</v>
       </c>
-    </row>
-    <row r="119" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J118" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="119" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A119" s="3" t="s">
         <v>180</v>
       </c>
@@ -5800,8 +6167,11 @@
       <c r="I119" s="5" t="s">
         <v>408</v>
       </c>
-    </row>
-    <row r="120" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J119" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="120" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A120" s="3" t="s">
         <v>181</v>
       </c>
@@ -5830,8 +6200,11 @@
       <c r="I120" s="5" t="s">
         <v>408</v>
       </c>
-    </row>
-    <row r="121" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J120" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="121" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A121" s="3" t="s">
         <v>182</v>
       </c>
@@ -5860,8 +6233,11 @@
       <c r="I121" s="5" t="s">
         <v>408</v>
       </c>
-    </row>
-    <row r="122" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J121" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="122" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A122" s="3" t="s">
         <v>183</v>
       </c>
@@ -5890,8 +6266,11 @@
       <c r="I122" s="5" t="s">
         <v>408</v>
       </c>
-    </row>
-    <row r="123" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J122" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="123" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A123" s="3" t="s">
         <v>184</v>
       </c>
@@ -5920,8 +6299,11 @@
       <c r="I123" s="5" t="s">
         <v>408</v>
       </c>
-    </row>
-    <row r="124" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J123" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="124" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A124" s="3" t="s">
         <v>185</v>
       </c>
@@ -5950,8 +6332,11 @@
       <c r="I124" s="5" t="s">
         <v>408</v>
       </c>
-    </row>
-    <row r="125" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J124" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="125" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A125" s="3" t="s">
         <v>186</v>
       </c>
@@ -5980,8 +6365,11 @@
       <c r="I125" s="5" t="s">
         <v>408</v>
       </c>
-    </row>
-    <row r="126" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J125" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="126" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A126" s="3" t="s">
         <v>187</v>
       </c>
@@ -6010,8 +6398,11 @@
       <c r="I126" s="5" t="s">
         <v>408</v>
       </c>
-    </row>
-    <row r="127" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J126" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="127" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A127" s="3" t="s">
         <v>188</v>
       </c>
@@ -6040,8 +6431,11 @@
       <c r="I127" s="5" t="s">
         <v>408</v>
       </c>
-    </row>
-    <row r="128" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J127" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="128" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A128" s="3" t="s">
         <v>189</v>
       </c>
@@ -6070,8 +6464,11 @@
       <c r="I128" s="5" t="s">
         <v>408</v>
       </c>
-    </row>
-    <row r="129" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J128" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="129" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A129" s="3" t="s">
         <v>190</v>
       </c>
@@ -6100,8 +6497,11 @@
       <c r="I129" s="5" t="s">
         <v>408</v>
       </c>
-    </row>
-    <row r="130" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J129" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="130" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A130" s="3" t="s">
         <v>191</v>
       </c>
@@ -6130,8 +6530,11 @@
       <c r="I130" s="5" t="s">
         <v>408</v>
       </c>
-    </row>
-    <row r="131" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J130" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="131" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A131" s="3" t="s">
         <v>192</v>
       </c>
@@ -6160,8 +6563,11 @@
       <c r="I131" s="5" t="s">
         <v>408</v>
       </c>
-    </row>
-    <row r="132" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J131" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="132" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A132" s="3" t="s">
         <v>193</v>
       </c>
@@ -6190,8 +6596,11 @@
       <c r="I132" s="5" t="s">
         <v>408</v>
       </c>
-    </row>
-    <row r="133" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J132" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="133" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A133" s="3" t="s">
         <v>194</v>
       </c>
@@ -6220,8 +6629,11 @@
       <c r="I133" s="5" t="s">
         <v>408</v>
       </c>
-    </row>
-    <row r="134" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J133" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="134" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A134" s="3" t="s">
         <v>195</v>
       </c>
@@ -6250,8 +6662,11 @@
       <c r="I134" s="5" t="s">
         <v>408</v>
       </c>
-    </row>
-    <row r="135" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J134" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="135" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A135" s="3" t="s">
         <v>196</v>
       </c>
@@ -6280,8 +6695,11 @@
       <c r="I135" s="5" t="s">
         <v>408</v>
       </c>
-    </row>
-    <row r="136" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J135" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="136" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A136" s="3" t="s">
         <v>197</v>
       </c>
@@ -6310,8 +6728,11 @@
       <c r="I136" s="5" t="s">
         <v>408</v>
       </c>
-    </row>
-    <row r="137" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J136" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="137" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A137" s="3" t="s">
         <v>198</v>
       </c>
@@ -6340,8 +6761,11 @@
       <c r="I137" s="5" t="s">
         <v>408</v>
       </c>
-    </row>
-    <row r="138" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J137" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="138" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A138" s="3" t="s">
         <v>199</v>
       </c>
@@ -6370,8 +6794,11 @@
       <c r="I138" s="5" t="s">
         <v>408</v>
       </c>
-    </row>
-    <row r="139" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J138" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="139" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A139" s="3" t="s">
         <v>200</v>
       </c>
@@ -6400,8 +6827,11 @@
       <c r="I139" s="5" t="s">
         <v>408</v>
       </c>
-    </row>
-    <row r="140" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J139" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="140" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A140" s="3" t="s">
         <v>201</v>
       </c>
@@ -6430,8 +6860,11 @@
       <c r="I140" s="5" t="s">
         <v>408</v>
       </c>
-    </row>
-    <row r="141" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J140" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="141" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A141" s="3" t="s">
         <v>202</v>
       </c>
@@ -6460,8 +6893,11 @@
       <c r="I141" s="5" t="s">
         <v>409</v>
       </c>
-    </row>
-    <row r="142" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J141" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="142" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A142" s="3" t="s">
         <v>203</v>
       </c>
@@ -6490,8 +6926,11 @@
       <c r="I142" s="5" t="s">
         <v>409</v>
       </c>
-    </row>
-    <row r="143" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J142" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="143" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A143" s="3" t="s">
         <v>204</v>
       </c>
@@ -6520,8 +6959,11 @@
       <c r="I143" s="5" t="s">
         <v>409</v>
       </c>
-    </row>
-    <row r="144" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J143" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="144" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A144" s="3" t="s">
         <v>205</v>
       </c>
@@ -6550,8 +6992,11 @@
       <c r="I144" s="5" t="s">
         <v>409</v>
       </c>
-    </row>
-    <row r="145" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J144" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="145" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A145" s="3" t="s">
         <v>206</v>
       </c>
@@ -6580,8 +7025,11 @@
       <c r="I145" s="5" t="s">
         <v>409</v>
       </c>
-    </row>
-    <row r="146" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J145" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="146" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A146" s="3" t="s">
         <v>207</v>
       </c>
@@ -6610,8 +7058,11 @@
       <c r="I146" s="5" t="s">
         <v>409</v>
       </c>
-    </row>
-    <row r="147" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J146" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="147" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A147" s="3" t="s">
         <v>208</v>
       </c>
@@ -6640,8 +7091,11 @@
       <c r="I147" s="5" t="s">
         <v>409</v>
       </c>
-    </row>
-    <row r="148" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J147" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="148" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A148" s="3" t="s">
         <v>209</v>
       </c>
@@ -6670,8 +7124,11 @@
       <c r="I148" s="5" t="s">
         <v>409</v>
       </c>
-    </row>
-    <row r="149" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J148" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="149" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A149" s="3" t="s">
         <v>210</v>
       </c>
@@ -6700,8 +7157,11 @@
       <c r="I149" s="5" t="s">
         <v>410</v>
       </c>
-    </row>
-    <row r="150" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J149" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="150" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A150" s="3" t="s">
         <v>211</v>
       </c>
@@ -6730,8 +7190,11 @@
       <c r="I150" s="5" t="s">
         <v>410</v>
       </c>
-    </row>
-    <row r="151" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J150" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="151" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A151" s="3" t="s">
         <v>212</v>
       </c>
@@ -6760,8 +7223,11 @@
       <c r="I151" s="5" t="s">
         <v>410</v>
       </c>
-    </row>
-    <row r="152" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J151" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="152" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A152" s="3" t="s">
         <v>213</v>
       </c>
@@ -6790,8 +7256,11 @@
       <c r="I152" s="5" t="s">
         <v>410</v>
       </c>
-    </row>
-    <row r="153" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J152" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="153" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A153" s="3" t="s">
         <v>214</v>
       </c>
@@ -6820,8 +7289,11 @@
       <c r="I153" s="5" t="s">
         <v>410</v>
       </c>
-    </row>
-    <row r="154" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J153" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="154" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A154" s="3" t="s">
         <v>215</v>
       </c>
@@ -6850,8 +7322,11 @@
       <c r="I154" t="s">
         <v>413</v>
       </c>
-    </row>
-    <row r="155" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J154" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="155" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A155" s="3" t="s">
         <v>216</v>
       </c>
@@ -6880,8 +7355,11 @@
       <c r="I155" t="s">
         <v>413</v>
       </c>
-    </row>
-    <row r="156" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J155" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="156" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A156" s="3" t="s">
         <v>217</v>
       </c>
@@ -6910,8 +7388,11 @@
       <c r="I156" t="s">
         <v>413</v>
       </c>
-    </row>
-    <row r="157" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J156" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="157" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A157" s="3" t="s">
         <v>218</v>
       </c>
@@ -6940,8 +7421,11 @@
       <c r="I157" t="s">
         <v>413</v>
       </c>
-    </row>
-    <row r="158" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J157" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="158" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A158" s="3" t="s">
         <v>219</v>
       </c>
@@ -6970,8 +7454,11 @@
       <c r="I158" t="s">
         <v>413</v>
       </c>
-    </row>
-    <row r="159" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J158" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="159" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A159" s="3" t="s">
         <v>220</v>
       </c>
@@ -7000,8 +7487,11 @@
       <c r="I159" t="s">
         <v>413</v>
       </c>
-    </row>
-    <row r="160" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J159" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="160" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A160" s="3" t="s">
         <v>221</v>
       </c>
@@ -7030,8 +7520,11 @@
       <c r="I160" t="s">
         <v>413</v>
       </c>
-    </row>
-    <row r="161" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J160" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="161" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A161" s="3" t="s">
         <v>222</v>
       </c>
@@ -7060,8 +7553,11 @@
       <c r="I161" t="s">
         <v>413</v>
       </c>
-    </row>
-    <row r="162" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J161" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="162" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A162" s="3" t="s">
         <v>223</v>
       </c>
@@ -7090,8 +7586,11 @@
       <c r="I162" t="s">
         <v>413</v>
       </c>
-    </row>
-    <row r="163" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J162" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="163" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A163" s="3" t="s">
         <v>224</v>
       </c>
@@ -7120,8 +7619,11 @@
       <c r="I163" t="s">
         <v>413</v>
       </c>
-    </row>
-    <row r="164" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J163" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="164" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A164" s="3" t="s">
         <v>225</v>
       </c>
@@ -7150,8 +7652,11 @@
       <c r="I164" t="s">
         <v>413</v>
       </c>
-    </row>
-    <row r="165" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J164" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="165" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A165" s="3" t="s">
         <v>226</v>
       </c>
@@ -7180,8 +7685,11 @@
       <c r="I165" t="s">
         <v>413</v>
       </c>
-    </row>
-    <row r="166" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J165" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="166" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A166" s="3" t="s">
         <v>227</v>
       </c>
@@ -7210,8 +7718,11 @@
       <c r="I166" t="s">
         <v>413</v>
       </c>
-    </row>
-    <row r="167" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J166" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="167" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A167" s="3" t="s">
         <v>228</v>
       </c>
@@ -7240,8 +7751,11 @@
       <c r="I167" s="5" t="s">
         <v>411</v>
       </c>
-    </row>
-    <row r="168" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J167" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="168" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A168" s="3" t="s">
         <v>229</v>
       </c>
@@ -7270,8 +7784,11 @@
       <c r="I168" s="5" t="s">
         <v>411</v>
       </c>
-    </row>
-    <row r="169" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J168" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="169" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A169" s="3" t="s">
         <v>230</v>
       </c>
@@ -7300,8 +7817,11 @@
       <c r="I169" s="5" t="s">
         <v>411</v>
       </c>
-    </row>
-    <row r="170" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J169" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="170" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A170" s="3" t="s">
         <v>231</v>
       </c>
@@ -7330,8 +7850,11 @@
       <c r="I170" s="5" t="s">
         <v>411</v>
       </c>
-    </row>
-    <row r="171" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J170" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="171" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A171" s="3" t="s">
         <v>232</v>
       </c>
@@ -7360,8 +7883,11 @@
       <c r="I171" s="5" t="s">
         <v>411</v>
       </c>
-    </row>
-    <row r="172" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J171" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="172" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A172" s="3" t="s">
         <v>233</v>
       </c>
@@ -7390,8 +7916,11 @@
       <c r="I172" s="5" t="s">
         <v>411</v>
       </c>
-    </row>
-    <row r="173" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J172" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="173" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A173" s="3" t="s">
         <v>234</v>
       </c>
@@ -7420,8 +7949,11 @@
       <c r="I173" s="5" t="s">
         <v>411</v>
       </c>
-    </row>
-    <row r="174" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J173" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="174" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A174" s="3" t="s">
         <v>235</v>
       </c>
@@ -7450,8 +7982,11 @@
       <c r="I174" s="5" t="s">
         <v>411</v>
       </c>
-    </row>
-    <row r="175" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J174" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="175" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A175" s="3" t="s">
         <v>236</v>
       </c>
@@ -7480,8 +8015,11 @@
       <c r="I175" s="5" t="s">
         <v>411</v>
       </c>
-    </row>
-    <row r="176" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J175" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="176" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A176" s="3" t="s">
         <v>237</v>
       </c>
@@ -7510,8 +8048,11 @@
       <c r="I176" s="5" t="s">
         <v>411</v>
       </c>
-    </row>
-    <row r="177" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J176" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="177" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A177" s="3" t="s">
         <v>238</v>
       </c>
@@ -7540,8 +8081,11 @@
       <c r="I177" s="5" t="s">
         <v>411</v>
       </c>
-    </row>
-    <row r="178" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J177" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="178" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A178" s="3" t="s">
         <v>239</v>
       </c>
@@ -7570,8 +8114,11 @@
       <c r="I178" s="5" t="s">
         <v>411</v>
       </c>
-    </row>
-    <row r="179" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J178" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="179" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A179" s="3" t="s">
         <v>240</v>
       </c>
@@ -7600,8 +8147,11 @@
       <c r="I179" s="5" t="s">
         <v>411</v>
       </c>
-    </row>
-    <row r="180" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J179" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="180" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A180" s="3" t="s">
         <v>241</v>
       </c>
@@ -7630,8 +8180,11 @@
       <c r="I180" s="5" t="s">
         <v>411</v>
       </c>
-    </row>
-    <row r="181" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J180" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="181" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A181" s="3" t="s">
         <v>242</v>
       </c>
@@ -7660,8 +8213,11 @@
       <c r="I181" s="5" t="s">
         <v>411</v>
       </c>
-    </row>
-    <row r="182" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J181" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="182" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A182" s="3" t="s">
         <v>243</v>
       </c>
@@ -7690,8 +8246,11 @@
       <c r="I182" s="5" t="s">
         <v>411</v>
       </c>
-    </row>
-    <row r="183" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J182" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="183" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A183" s="3" t="s">
         <v>244</v>
       </c>
@@ -7720,8 +8279,11 @@
       <c r="I183" s="5" t="s">
         <v>411</v>
       </c>
-    </row>
-    <row r="184" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J183" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="184" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A184" s="3" t="s">
         <v>245</v>
       </c>
@@ -7750,8 +8312,11 @@
       <c r="I184" s="5" t="s">
         <v>411</v>
       </c>
-    </row>
-    <row r="185" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J184" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="185" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A185" s="3" t="s">
         <v>246</v>
       </c>
@@ -7780,8 +8345,11 @@
       <c r="I185" s="5" t="s">
         <v>411</v>
       </c>
-    </row>
-    <row r="186" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J185" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="186" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A186" s="3" t="s">
         <v>247</v>
       </c>
@@ -7810,8 +8378,11 @@
       <c r="I186" s="5" t="s">
         <v>411</v>
       </c>
-    </row>
-    <row r="187" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J186" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="187" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A187" s="3" t="s">
         <v>248</v>
       </c>
@@ -7840,8 +8411,11 @@
       <c r="I187" s="5" t="s">
         <v>411</v>
       </c>
-    </row>
-    <row r="188" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J187" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="188" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A188" s="3" t="s">
         <v>249</v>
       </c>
@@ -7870,8 +8444,11 @@
       <c r="I188" s="5" t="s">
         <v>411</v>
       </c>
-    </row>
-    <row r="189" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J188" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="189" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A189" s="3" t="s">
         <v>250</v>
       </c>
@@ -7900,8 +8477,11 @@
       <c r="I189" s="5" t="s">
         <v>411</v>
       </c>
-    </row>
-    <row r="190" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J189" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="190" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A190" s="3" t="s">
         <v>251</v>
       </c>
@@ -7930,8 +8510,11 @@
       <c r="I190" s="5" t="s">
         <v>411</v>
       </c>
-    </row>
-    <row r="191" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J190" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="191" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A191" s="3" t="s">
         <v>252</v>
       </c>
@@ -7960,8 +8543,11 @@
       <c r="I191" s="5" t="s">
         <v>411</v>
       </c>
-    </row>
-    <row r="192" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J191" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="192" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A192" s="3" t="s">
         <v>253</v>
       </c>
@@ -7990,8 +8576,11 @@
       <c r="I192" s="5" t="s">
         <v>411</v>
       </c>
-    </row>
-    <row r="193" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J192" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="193" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A193" s="3" t="s">
         <v>254</v>
       </c>
@@ -8020,8 +8609,11 @@
       <c r="I193" s="5" t="s">
         <v>411</v>
       </c>
-    </row>
-    <row r="194" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J193" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="194" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A194" s="3" t="s">
         <v>255</v>
       </c>
@@ -8050,8 +8642,11 @@
       <c r="I194" s="5" t="s">
         <v>411</v>
       </c>
-    </row>
-    <row r="195" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J194" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="195" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A195" s="3" t="s">
         <v>256</v>
       </c>
@@ -8080,8 +8675,11 @@
       <c r="I195" s="5" t="s">
         <v>411</v>
       </c>
-    </row>
-    <row r="196" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J195" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="196" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A196" s="3" t="s">
         <v>257</v>
       </c>
@@ -8110,8 +8708,11 @@
       <c r="I196" s="5" t="s">
         <v>411</v>
       </c>
-    </row>
-    <row r="197" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J196" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="197" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A197" s="3" t="s">
         <v>258</v>
       </c>
@@ -8140,8 +8741,11 @@
       <c r="I197" s="5" t="s">
         <v>411</v>
       </c>
-    </row>
-    <row r="198" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J197" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="198" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A198" s="3" t="s">
         <v>259</v>
       </c>
@@ -8170,8 +8774,11 @@
       <c r="I198" s="5" t="s">
         <v>411</v>
       </c>
-    </row>
-    <row r="199" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J198" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="199" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A199" s="3" t="s">
         <v>260</v>
       </c>
@@ -8200,8 +8807,11 @@
       <c r="I199" s="5" t="s">
         <v>411</v>
       </c>
-    </row>
-    <row r="200" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J199" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="200" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A200" s="3" t="s">
         <v>261</v>
       </c>
@@ -8230,8 +8840,11 @@
       <c r="I200" s="5" t="s">
         <v>411</v>
       </c>
-    </row>
-    <row r="201" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J200" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="201" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A201" s="3" t="s">
         <v>262</v>
       </c>
@@ -8260,8 +8873,11 @@
       <c r="I201" s="5" t="s">
         <v>411</v>
       </c>
-    </row>
-    <row r="202" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J201" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="202" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A202" s="3" t="s">
         <v>263</v>
       </c>
@@ -8290,8 +8906,11 @@
       <c r="I202" s="5" t="s">
         <v>416</v>
       </c>
-    </row>
-    <row r="203" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J202" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="203" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A203" s="3" t="s">
         <v>67</v>
       </c>
@@ -8320,8 +8939,11 @@
       <c r="I203" s="5" t="s">
         <v>416</v>
       </c>
-    </row>
-    <row r="204" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J203" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="204" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A204" s="3" t="s">
         <v>264</v>
       </c>
@@ -8350,8 +8972,11 @@
       <c r="I204" s="5" t="s">
         <v>416</v>
       </c>
-    </row>
-    <row r="205" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J204" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="205" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A205" s="3" t="s">
         <v>265</v>
       </c>
@@ -8380,8 +9005,11 @@
       <c r="I205" s="5" t="s">
         <v>416</v>
       </c>
-    </row>
-    <row r="206" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J205" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="206" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A206" s="3" t="s">
         <v>266</v>
       </c>
@@ -8410,8 +9038,11 @@
       <c r="I206" s="5" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="207" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J206" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="207" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A207" s="3" t="s">
         <v>267</v>
       </c>
@@ -8440,8 +9071,11 @@
       <c r="I207" s="5" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="208" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J207" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="208" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A208" s="3" t="s">
         <v>268</v>
       </c>
@@ -8470,8 +9104,11 @@
       <c r="I208" s="5" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="209" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J208" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="209" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A209" s="3" t="s">
         <v>269</v>
       </c>
@@ -8500,8 +9137,11 @@
       <c r="I209" s="5" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="210" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J209" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="210" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A210" s="3" t="s">
         <v>270</v>
       </c>
@@ -8530,8 +9170,11 @@
       <c r="I210" s="5" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="211" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J210" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="211" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A211" s="3" t="s">
         <v>271</v>
       </c>
@@ -8560,8 +9203,11 @@
       <c r="I211" s="5" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="212" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J211" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="212" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A212" s="3" t="s">
         <v>272</v>
       </c>
@@ -8590,8 +9236,11 @@
       <c r="I212" s="5" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="213" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J212" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="213" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A213" s="3" t="s">
         <v>273</v>
       </c>
@@ -8620,8 +9269,11 @@
       <c r="I213" s="5" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="214" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J213" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="214" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A214" s="3" t="s">
         <v>274</v>
       </c>
@@ -8650,8 +9302,11 @@
       <c r="I214" s="5" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="215" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J214" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="215" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A215" s="3" t="s">
         <v>275</v>
       </c>
@@ -8680,8 +9335,11 @@
       <c r="I215" s="5" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="216" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J215" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="216" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A216" s="3" t="s">
         <v>276</v>
       </c>
@@ -8710,8 +9368,11 @@
       <c r="I216" s="5" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="217" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J216" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="217" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A217" s="3" t="s">
         <v>277</v>
       </c>
@@ -8740,8 +9401,11 @@
       <c r="I217" s="5" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="218" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J217" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="218" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A218" s="3" t="s">
         <v>278</v>
       </c>
@@ -8770,8 +9434,11 @@
       <c r="I218" s="5" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="219" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J218" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="219" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A219" s="3" t="s">
         <v>279</v>
       </c>
@@ -8800,8 +9467,11 @@
       <c r="I219" s="5" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="220" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J219" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="220" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A220" s="3" t="s">
         <v>280</v>
       </c>
@@ -8830,8 +9500,11 @@
       <c r="I220" s="5" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="221" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J220" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="221" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A221" s="3" t="s">
         <v>281</v>
       </c>
@@ -8860,8 +9533,11 @@
       <c r="I221" s="5" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="222" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J221" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="222" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A222" s="3" t="s">
         <v>282</v>
       </c>
@@ -8890,8 +9566,11 @@
       <c r="I222" s="5" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="223" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J222" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="223" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A223" s="3" t="s">
         <v>283</v>
       </c>
@@ -8920,8 +9599,11 @@
       <c r="I223" s="5" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="224" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J223" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="224" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A224" s="3" t="s">
         <v>284</v>
       </c>
@@ -8950,8 +9632,11 @@
       <c r="I224" s="5" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="225" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J224" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="225" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A225" s="3" t="s">
         <v>285</v>
       </c>
@@ -8980,8 +9665,11 @@
       <c r="I225" s="5" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="226" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J225" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="226" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A226" s="3" t="s">
         <v>286</v>
       </c>
@@ -9010,8 +9698,11 @@
       <c r="I226" s="5" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="227" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J226" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="227" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A227" s="3" t="s">
         <v>287</v>
       </c>
@@ -9040,8 +9731,11 @@
       <c r="I227" s="5" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="228" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J227" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="228" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A228" s="3" t="s">
         <v>288</v>
       </c>
@@ -9070,8 +9764,11 @@
       <c r="I228" s="5" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="229" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J228" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="229" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A229" s="3" t="s">
         <v>289</v>
       </c>
@@ -9100,8 +9797,11 @@
       <c r="I229" s="5" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="230" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J229" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="230" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A230" s="3" t="s">
         <v>290</v>
       </c>
@@ -9130,8 +9830,11 @@
       <c r="I230" s="5" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="231" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J230" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="231" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A231" s="3" t="s">
         <v>291</v>
       </c>
@@ -9160,8 +9863,11 @@
       <c r="I231" s="5" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="232" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J231" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="232" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A232" s="3" t="s">
         <v>292</v>
       </c>
@@ -9190,8 +9896,11 @@
       <c r="I232" s="5" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="233" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J232" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="233" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A233" s="3" t="s">
         <v>293</v>
       </c>
@@ -9220,8 +9929,11 @@
       <c r="I233" s="5" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="234" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J233" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="234" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A234" s="3" t="s">
         <v>294</v>
       </c>
@@ -9250,8 +9962,11 @@
       <c r="I234" s="5" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="235" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J234" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="235" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A235" s="3" t="s">
         <v>295</v>
       </c>
@@ -9280,8 +9995,11 @@
       <c r="I235" s="5" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="236" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J235" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="236" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A236" s="3" t="s">
         <v>296</v>
       </c>
@@ -9310,8 +10028,11 @@
       <c r="I236" s="5" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="237" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J236" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="237" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A237" s="3" t="s">
         <v>68</v>
       </c>
@@ -9340,8 +10061,11 @@
       <c r="I237" s="5" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="238" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J237" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="238" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A238" s="3" t="s">
         <v>69</v>
       </c>
@@ -9370,8 +10094,11 @@
       <c r="I238" s="5" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="239" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J238" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="239" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A239" s="3" t="s">
         <v>297</v>
       </c>
@@ -9400,8 +10127,11 @@
       <c r="I239" s="5" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="240" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J239" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="240" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A240" s="3" t="s">
         <v>298</v>
       </c>
@@ -9430,8 +10160,11 @@
       <c r="I240" s="5" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="241" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J240" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="241" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A241" s="3" t="s">
         <v>299</v>
       </c>
@@ -9460,8 +10193,11 @@
       <c r="I241" s="5" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="242" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J241" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="242" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A242" s="3" t="s">
         <v>300</v>
       </c>
@@ -9490,8 +10226,11 @@
       <c r="I242" s="5" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="243" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J242" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="243" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A243" s="3" t="s">
         <v>301</v>
       </c>
@@ -9520,8 +10259,11 @@
       <c r="I243" s="5" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="244" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J243" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="244" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A244" s="3" t="s">
         <v>302</v>
       </c>
@@ -9550,8 +10292,11 @@
       <c r="I244" s="5" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="245" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J244" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="245" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A245" s="3" t="s">
         <v>303</v>
       </c>
@@ -9580,8 +10325,11 @@
       <c r="I245" s="5" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="246" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J245" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="246" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A246" s="3" t="s">
         <v>304</v>
       </c>
@@ -9610,8 +10358,11 @@
       <c r="I246" s="5" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="247" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J246" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="247" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A247" s="3" t="s">
         <v>305</v>
       </c>
@@ -9640,8 +10391,11 @@
       <c r="I247" s="5" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="248" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J247" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="248" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A248" s="3" t="s">
         <v>306</v>
       </c>
@@ -9670,8 +10424,11 @@
       <c r="I248" s="5" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="249" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J248" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="249" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A249" s="3" t="s">
         <v>307</v>
       </c>
@@ -9700,8 +10457,11 @@
       <c r="I249" s="5" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="250" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J249" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="250" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A250" s="3" t="s">
         <v>308</v>
       </c>
@@ -9730,8 +10490,11 @@
       <c r="I250" s="5" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="251" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J250" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="251" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A251" s="3" t="s">
         <v>309</v>
       </c>
@@ -9760,8 +10523,11 @@
       <c r="I251" s="5" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="252" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J251" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="252" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A252" s="3" t="s">
         <v>310</v>
       </c>
@@ -9790,8 +10556,11 @@
       <c r="I252" s="5" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="253" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J252" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="253" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A253" s="3" t="s">
         <v>311</v>
       </c>
@@ -9820,8 +10589,11 @@
       <c r="I253" s="5" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="254" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J253" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="254" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A254" s="3" t="s">
         <v>312</v>
       </c>
@@ -9850,8 +10622,11 @@
       <c r="I254" s="5" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="255" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J254" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="255" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A255" s="3" t="s">
         <v>313</v>
       </c>
@@ -9880,8 +10655,11 @@
       <c r="I255" s="5" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="256" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J255" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="256" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A256" s="3" t="s">
         <v>314</v>
       </c>
@@ -9910,8 +10688,11 @@
       <c r="I256" s="5" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="257" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J256" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="257" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A257" s="3" t="s">
         <v>315</v>
       </c>
@@ -9940,8 +10721,11 @@
       <c r="I257" s="5" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="258" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J257" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="258" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A258" s="3" t="s">
         <v>316</v>
       </c>
@@ -9970,8 +10754,11 @@
       <c r="I258" s="5" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="259" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J258" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="259" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A259" s="3" t="s">
         <v>317</v>
       </c>
@@ -10000,8 +10787,11 @@
       <c r="I259" s="5" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="260" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J259" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="260" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A260" s="3" t="s">
         <v>318</v>
       </c>
@@ -10030,8 +10820,11 @@
       <c r="I260" s="5" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="261" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J260" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="261" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A261" s="3" t="s">
         <v>319</v>
       </c>
@@ -10060,8 +10853,11 @@
       <c r="I261" s="5" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="262" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J261" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="262" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A262" s="3" t="s">
         <v>320</v>
       </c>
@@ -10090,8 +10886,11 @@
       <c r="I262" s="5" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="263" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J262" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="263" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A263" s="3" t="s">
         <v>321</v>
       </c>
@@ -10120,8 +10919,11 @@
       <c r="I263" s="5" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="264" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J263" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="264" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A264" s="3" t="s">
         <v>322</v>
       </c>
@@ -10150,8 +10952,11 @@
       <c r="I264" s="5" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="265" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J264" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="265" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A265" s="3" t="s">
         <v>323</v>
       </c>
@@ -10180,8 +10985,11 @@
       <c r="I265" s="5" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="266" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J265" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="266" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A266" s="3" t="s">
         <v>324</v>
       </c>
@@ -10210,8 +11018,11 @@
       <c r="I266" s="5" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="267" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J266" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="267" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A267" s="3" t="s">
         <v>325</v>
       </c>
@@ -10240,8 +11051,11 @@
       <c r="I267" s="5" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="268" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J267" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="268" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A268" s="3" t="s">
         <v>326</v>
       </c>
@@ -10270,8 +11084,11 @@
       <c r="I268" s="5" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="269" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J268" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="269" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A269" s="3" t="s">
         <v>327</v>
       </c>
@@ -10300,8 +11117,11 @@
       <c r="I269" s="5" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="270" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J269" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="270" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A270" s="3" t="s">
         <v>328</v>
       </c>
@@ -10330,8 +11150,11 @@
       <c r="I270" s="5" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="271" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J270" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="271" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A271" s="3" t="s">
         <v>329</v>
       </c>
@@ -10360,8 +11183,11 @@
       <c r="I271" s="5" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="272" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J271" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="272" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A272" s="3" t="s">
         <v>330</v>
       </c>
@@ -10390,8 +11216,11 @@
       <c r="I272" s="5" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="273" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J272" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="273" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A273" s="3" t="s">
         <v>331</v>
       </c>
@@ -10420,8 +11249,11 @@
       <c r="I273" s="5" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="274" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J273" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="274" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A274" s="3" t="s">
         <v>332</v>
       </c>
@@ -10450,8 +11282,11 @@
       <c r="I274" s="5" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="275" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J274" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="275" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A275" s="3" t="s">
         <v>333</v>
       </c>
@@ -10480,8 +11315,11 @@
       <c r="I275" s="5" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="276" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J275" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="276" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A276" s="3" t="s">
         <v>334</v>
       </c>
@@ -10510,8 +11348,11 @@
       <c r="I276" s="5" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="277" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J276" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="277" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A277" s="3" t="s">
         <v>335</v>
       </c>
@@ -10540,8 +11381,11 @@
       <c r="I277" s="5" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="278" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J277" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="278" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A278" s="3" t="s">
         <v>336</v>
       </c>
@@ -10570,8 +11414,11 @@
       <c r="I278" s="5" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="279" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J278" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="279" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A279" s="3" t="s">
         <v>337</v>
       </c>
@@ -10600,8 +11447,11 @@
       <c r="I279" s="5" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="280" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J279" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="280" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A280" s="3" t="s">
         <v>338</v>
       </c>
@@ -10630,8 +11480,11 @@
       <c r="I280" s="5" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="281" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J280" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="281" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A281" s="3" t="s">
         <v>339</v>
       </c>
@@ -10660,8 +11513,11 @@
       <c r="I281" s="5" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="282" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J281" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="282" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A282" s="3" t="s">
         <v>340</v>
       </c>
@@ -10690,8 +11546,11 @@
       <c r="I282" s="5" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="283" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J282" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="283" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A283" s="3" t="s">
         <v>341</v>
       </c>
@@ -10720,8 +11579,11 @@
       <c r="I283" s="5" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="284" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J283" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="284" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A284" s="3" t="s">
         <v>342</v>
       </c>
@@ -10750,8 +11612,11 @@
       <c r="I284" s="5" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="285" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J284" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="285" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A285" s="3" t="s">
         <v>343</v>
       </c>
@@ -10780,8 +11645,11 @@
       <c r="I285" s="5" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="286" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J285" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="286" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A286" s="3" t="s">
         <v>344</v>
       </c>
@@ -10810,8 +11678,11 @@
       <c r="I286" s="5" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="287" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J286" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="287" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A287" s="3" t="s">
         <v>345</v>
       </c>
@@ -10840,8 +11711,11 @@
       <c r="I287" s="5" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="288" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J287" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="288" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A288" s="3" t="s">
         <v>346</v>
       </c>
@@ -10870,8 +11744,11 @@
       <c r="I288" s="5" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="289" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J288" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="289" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A289" s="3" t="s">
         <v>347</v>
       </c>
@@ -10900,8 +11777,11 @@
       <c r="I289" s="5" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="290" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J289" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="290" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A290" s="3" t="s">
         <v>348</v>
       </c>
@@ -10930,8 +11810,11 @@
       <c r="I290" s="5" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="291" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J290" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="291" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A291" s="3" t="s">
         <v>349</v>
       </c>
@@ -10960,8 +11843,11 @@
       <c r="I291" s="5" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="292" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J291" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="292" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A292" s="3" t="s">
         <v>350</v>
       </c>
@@ -10990,8 +11876,11 @@
       <c r="I292" s="5" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="293" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J292" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="293" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A293" s="3" t="s">
         <v>351</v>
       </c>
@@ -11020,8 +11909,11 @@
       <c r="I293" s="5" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="294" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J293" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="294" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A294" s="3" t="s">
         <v>352</v>
       </c>
@@ -11050,8 +11942,11 @@
       <c r="I294" s="5" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="295" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J294" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="295" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A295" s="3" t="s">
         <v>353</v>
       </c>
@@ -11080,8 +11975,11 @@
       <c r="I295" s="5" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="296" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J295" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="296" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A296" s="3" t="s">
         <v>354</v>
       </c>
@@ -11110,8 +12008,11 @@
       <c r="I296" s="5" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="297" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J296" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="297" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A297" s="3" t="s">
         <v>355</v>
       </c>
@@ -11140,8 +12041,11 @@
       <c r="I297" s="5" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="298" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J297" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="298" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A298" s="3" t="s">
         <v>356</v>
       </c>
@@ -11170,8 +12074,11 @@
       <c r="I298" s="5" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="299" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J298" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="299" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A299" s="3" t="s">
         <v>357</v>
       </c>
@@ -11200,8 +12107,11 @@
       <c r="I299" s="5" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="300" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J299" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="300" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A300" s="3" t="s">
         <v>358</v>
       </c>
@@ -11230,8 +12140,11 @@
       <c r="I300" s="5" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="301" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J300" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="301" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A301" s="3" t="s">
         <v>359</v>
       </c>
@@ -11260,8 +12173,11 @@
       <c r="I301" s="5" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="302" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J301" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="302" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A302" s="3" t="s">
         <v>360</v>
       </c>
@@ -11290,8 +12206,11 @@
       <c r="I302" s="5" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="303" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J302" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="303" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A303" s="3" t="s">
         <v>361</v>
       </c>
@@ -11320,8 +12239,11 @@
       <c r="I303" s="5" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="304" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J303" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="304" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A304" s="3" t="s">
         <v>362</v>
       </c>
@@ -11350,8 +12272,11 @@
       <c r="I304" s="5" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="305" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J304" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="305" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A305" s="3" t="s">
         <v>363</v>
       </c>
@@ -11380,8 +12305,11 @@
       <c r="I305" s="5" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="306" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J305" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="306" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A306" s="3" t="s">
         <v>364</v>
       </c>
@@ -11410,8 +12338,11 @@
       <c r="I306" s="5" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="307" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J306" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="307" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A307" s="3" t="s">
         <v>365</v>
       </c>
@@ -11440,8 +12371,11 @@
       <c r="I307" s="5" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="308" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J307" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="308" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A308" s="3" t="s">
         <v>366</v>
       </c>
@@ -11470,8 +12404,11 @@
       <c r="I308" s="5" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="309" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J308" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="309" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A309" s="3" t="s">
         <v>367</v>
       </c>
@@ -11500,8 +12437,11 @@
       <c r="I309" s="5" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="310" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J309" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="310" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A310" s="3" t="s">
         <v>368</v>
       </c>
@@ -11530,8 +12470,11 @@
       <c r="I310" s="5" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="311" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J310" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="311" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A311" s="3" t="s">
         <v>369</v>
       </c>
@@ -11560,8 +12503,11 @@
       <c r="I311" s="5" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="312" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J311" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="312" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A312" s="3" t="s">
         <v>370</v>
       </c>
@@ -11590,8 +12536,11 @@
       <c r="I312" s="5" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="313" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J312" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="313" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A313" s="3" t="s">
         <v>371</v>
       </c>
@@ -11620,8 +12569,11 @@
       <c r="I313" s="5" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="314" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J313" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="314" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A314" s="3" t="s">
         <v>372</v>
       </c>
@@ -11650,8 +12602,11 @@
       <c r="I314" s="5" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="315" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J314" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="315" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A315" s="3" t="s">
         <v>373</v>
       </c>
@@ -11680,8 +12635,11 @@
       <c r="I315" s="5" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="316" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J315" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="316" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A316" s="3" t="s">
         <v>374</v>
       </c>
@@ -11710,8 +12668,11 @@
       <c r="I316" s="5" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="317" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J316" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="317" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A317" s="3" t="s">
         <v>375</v>
       </c>
@@ -11739,6 +12700,9 @@
       </c>
       <c r="I317" s="5" t="s">
         <v>20</v>
+      </c>
+      <c r="J317" t="s">
+        <v>421</v>
       </c>
     </row>
   </sheetData>

--- a/Booyco HMI Utility/Resources/Documents/CommanderParametersFile.xlsx
+++ b/Booyco HMI Utility/Resources/Documents/CommanderParametersFile.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Neil\Dropbox (Mernok Elektronik)\Software\Booyco HMI Utility\Booyco HMI Utility\Resources\Documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A4D01648-B82F-42EE-B595-35C035904350}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D78EB5FA-B952-42E1-8D65-DF3999718224}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{4442C273-631E-40E6-88D2-7449766A5078}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{4442C273-631E-40E6-88D2-7449766A5078}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1357" uniqueCount="422">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1357" uniqueCount="436">
   <si>
     <t>Name</t>
   </si>
@@ -48,9 +48,6 @@
     <t>DefaultValue</t>
   </si>
   <si>
-    <t>VID</t>
-  </si>
-  <si>
     <t>TagCount</t>
   </si>
   <si>
@@ -222,18 +219,6 @@
     <t>Enum defines</t>
   </si>
   <si>
-    <t>VehicleType</t>
-  </si>
-  <si>
-    <t>BKL</t>
-  </si>
-  <si>
-    <t>LastRF</t>
-  </si>
-  <si>
-    <t>LastLF</t>
-  </si>
-  <si>
     <t>DispWidth</t>
   </si>
   <si>
@@ -243,12 +228,6 @@
     <t>MotorGear2</t>
   </si>
   <si>
-    <t>FW Rev</t>
-  </si>
-  <si>
-    <t>FW SubRev</t>
-  </si>
-  <si>
     <t>Name 01</t>
   </si>
   <si>
@@ -321,9 +300,6 @@
     <t>LF Active</t>
   </si>
   <si>
-    <t>RF Timeout</t>
-  </si>
-  <si>
     <t>CAN Timeout</t>
   </si>
   <si>
@@ -348,27 +324,6 @@
     <t>Threshold Critical</t>
   </si>
   <si>
-    <t>Threshold LF</t>
-  </si>
-  <si>
-    <t>Threshold RF</t>
-  </si>
-  <si>
-    <t>License Client</t>
-  </si>
-  <si>
-    <t>License Product</t>
-  </si>
-  <si>
-    <t>License Level</t>
-  </si>
-  <si>
-    <t>License Shaft</t>
-  </si>
-  <si>
-    <t>License Vehicle</t>
-  </si>
-  <si>
     <t>Pulse300 Act Always On</t>
   </si>
   <si>
@@ -639,78 +594,24 @@
     <t>Pulse500 Act Reserved 11</t>
   </si>
   <si>
-    <t>Global Tags ack intv</t>
-  </si>
-  <si>
-    <t>Global Tags ack time</t>
-  </si>
-  <si>
-    <t>Global Tags can baud</t>
-  </si>
-  <si>
-    <t>Global Tags lf hertz</t>
-  </si>
-  <si>
-    <t>Global Tags lf period</t>
-  </si>
-  <si>
-    <t>Global Tags rf power</t>
-  </si>
-  <si>
-    <t>Global Tags interval</t>
-  </si>
-  <si>
-    <t>Global Tags uart baud</t>
-  </si>
-  <si>
-    <t>Tag Lfpower Front</t>
-  </si>
-  <si>
-    <t>Tag Lfpower Rear</t>
-  </si>
-  <si>
-    <t>Tag Lfpower Left</t>
-  </si>
-  <si>
-    <t>Tag Lfpower Right</t>
-  </si>
-  <si>
-    <t>Tag Lfpower PulseRF</t>
-  </si>
-  <si>
     <t>LF Smoothing</t>
   </si>
   <si>
     <t>Commander101 Application</t>
   </si>
   <si>
-    <t>HW Revision</t>
-  </si>
-  <si>
     <t>RF MasterSlave</t>
   </si>
   <si>
     <t>RF RSSI Zone</t>
   </si>
   <si>
-    <t>RF Remote</t>
-  </si>
-  <si>
     <t>Buzzer Volume</t>
   </si>
   <si>
     <t>Antenna Sense</t>
   </si>
   <si>
-    <t>BKL Thresh Max</t>
-  </si>
-  <si>
-    <t>BKL Thresh Min</t>
-  </si>
-  <si>
-    <t>BKL Sensitivity</t>
-  </si>
-  <si>
     <t>Pulse400 Enable</t>
   </si>
   <si>
@@ -1275,15 +1176,9 @@
     <t>Primary</t>
   </si>
   <si>
-    <t>LF</t>
-  </si>
-  <si>
     <t>Pre-OP</t>
   </si>
   <si>
-    <t>Detection</t>
-  </si>
-  <si>
     <t>Periferals</t>
   </si>
   <si>
@@ -1297,6 +1192,153 @@
   </si>
   <si>
     <t>No Info</t>
+  </si>
+  <si>
+    <t>Firmware Revision</t>
+  </si>
+  <si>
+    <t>Firmware Sub-revision</t>
+  </si>
+  <si>
+    <t>Vehicle ID</t>
+  </si>
+  <si>
+    <t>Vehicle Type</t>
+  </si>
+  <si>
+    <t>Backlight brightness</t>
+  </si>
+  <si>
+    <t>Last RF</t>
+  </si>
+  <si>
+    <t>Last LF</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LF Threshold </t>
+  </si>
+  <si>
+    <t xml:space="preserve">RF Threshold </t>
+  </si>
+  <si>
+    <t>Global Tags ack Interval</t>
+  </si>
+  <si>
+    <t>Global Tags ack Time</t>
+  </si>
+  <si>
+    <t>Global Tags CAN baudrate</t>
+  </si>
+  <si>
+    <t>Global Tags LF Transmission Frequency</t>
+  </si>
+  <si>
+    <t>Global Tags LF Transmission Interval</t>
+  </si>
+  <si>
+    <t>Global Tags RF Output Power</t>
+  </si>
+  <si>
+    <t>Global Tags Broadcast Interval</t>
+  </si>
+  <si>
+    <t>Global Tags UART Baudrate</t>
+  </si>
+  <si>
+    <t>Front Tag LF Power</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Rear Tag LF Power </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Left Tag LF Power  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Right Tag LF Power </t>
+  </si>
+  <si>
+    <t xml:space="preserve">PulseRF Tag Lfpower </t>
+  </si>
+  <si>
+    <t>Hardware  Revision</t>
+  </si>
+  <si>
+    <t>RF Remote Enable</t>
+  </si>
+  <si>
+    <t>Vehicle Detail</t>
+  </si>
+  <si>
+    <t>Licence Detail</t>
+  </si>
+  <si>
+    <t>Vehicle number</t>
+  </si>
+  <si>
+    <t>Level number</t>
+  </si>
+  <si>
+    <t>Shaft number</t>
+  </si>
+  <si>
+    <t>Product code</t>
+  </si>
+  <si>
+    <t>Client code</t>
+  </si>
+  <si>
+    <t>Pre-Operation</t>
+  </si>
+  <si>
+    <t>Vehicle Proximity</t>
+  </si>
+  <si>
+    <t>Proximity</t>
+  </si>
+  <si>
+    <t>RF Proximity</t>
+  </si>
+  <si>
+    <t>RF Forget</t>
+  </si>
+  <si>
+    <t>LF Proximity</t>
+  </si>
+  <si>
+    <t>GPS Proximity</t>
+  </si>
+  <si>
+    <t>Overview</t>
+  </si>
+  <si>
+    <t>Internal LF</t>
+  </si>
+  <si>
+    <t>Test Parameters</t>
+  </si>
+  <si>
+    <t>Speedo Parameters</t>
+  </si>
+  <si>
+    <t>Backlight</t>
+  </si>
+  <si>
+    <t>Backlight Threshold Maximum</t>
+  </si>
+  <si>
+    <t>Backlight Threshold Minimum</t>
+  </si>
+  <si>
+    <t>Backlight Sensitivity</t>
+  </si>
+  <si>
+    <t>Buzzer</t>
+  </si>
+  <si>
+    <t>CAS Display</t>
+  </si>
+  <si>
+    <t>Tag Monitoring</t>
   </si>
 </sst>
 </file>
@@ -1413,7 +1455,7 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="3"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="2" applyBorder="1"/>
@@ -1421,6 +1463,7 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="2" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="2"/>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="Calculation" xfId="3" builtinId="22"/>
@@ -1742,7 +1785,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="N1" sqref="N1"/>
+      <selection pane="bottomLeft" activeCell="I156" sqref="I156"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1751,6 +1794,7 @@
     <col min="3" max="3" width="9.5703125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="9.28515625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="13.85546875" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="17.5703125" customWidth="1"/>
     <col min="10" max="10" width="89" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="12.140625" bestFit="1" customWidth="1"/>
@@ -1776,40 +1820,39 @@
         <v>4</v>
       </c>
       <c r="F1" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="G1" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="G1" s="3" t="s">
-        <v>9</v>
-      </c>
       <c r="H1" s="6" t="s">
-        <v>403</v>
+        <v>370</v>
       </c>
       <c r="I1" s="6" t="s">
-        <v>412</v>
+        <v>379</v>
       </c>
       <c r="J1" s="6" t="s">
-        <v>418</v>
+        <v>383</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="O1" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="P1" s="2" t="s">
-        <v>378</v>
+        <v>345</v>
       </c>
     </row>
     <row r="2" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
-        <v>70</v>
+        <v>387</v>
       </c>
       <c r="B2" s="3">
-        <f>E2</f>
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="C2" s="3">
         <v>255</v>
@@ -1818,7 +1861,7 @@
         <v>0</v>
       </c>
       <c r="E2" s="3">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="F2" s="3">
         <v>0</v>
@@ -1826,35 +1869,34 @@
       <c r="G2" s="3">
         <v>0</v>
       </c>
-      <c r="H2" s="5" t="s">
-        <v>404</v>
-      </c>
-      <c r="I2" t="s">
-        <v>413</v>
+      <c r="H2" s="7" t="s">
+        <v>425</v>
+      </c>
+      <c r="I2" s="5" t="s">
+        <v>371</v>
       </c>
       <c r="J2" t="s">
-        <v>420</v>
+        <v>385</v>
       </c>
       <c r="M2" s="1">
         <v>1</v>
       </c>
       <c r="N2" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="O2" s="2">
         <v>0</v>
       </c>
       <c r="P2" s="2" t="s">
-        <v>376</v>
+        <v>343</v>
       </c>
     </row>
     <row r="3" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
-        <v>71</v>
+        <v>388</v>
       </c>
       <c r="B3" s="3">
-        <f t="shared" ref="B3:B66" si="0">E3</f>
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C3" s="3">
         <v>255</v>
@@ -1863,7 +1905,7 @@
         <v>0</v>
       </c>
       <c r="E3" s="3">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F3" s="3">
         <v>0</v>
@@ -1871,34 +1913,34 @@
       <c r="G3" s="3">
         <v>0</v>
       </c>
-      <c r="H3" s="5" t="s">
-        <v>404</v>
-      </c>
-      <c r="I3" t="s">
-        <v>413</v>
+      <c r="H3" s="7" t="s">
+        <v>425</v>
+      </c>
+      <c r="I3" s="5" t="s">
+        <v>371</v>
       </c>
       <c r="J3" t="s">
-        <v>419</v>
+        <v>384</v>
       </c>
       <c r="M3" s="1">
         <v>1</v>
       </c>
       <c r="N3" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="O3" s="2">
         <v>1</v>
       </c>
       <c r="P3" s="2" t="s">
-        <v>377</v>
+        <v>344</v>
       </c>
     </row>
     <row r="4" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
-        <v>5</v>
+        <v>389</v>
       </c>
       <c r="B4" s="3">
-        <f t="shared" si="0"/>
+        <f t="shared" ref="B4:B66" si="0">E4</f>
         <v>1</v>
       </c>
       <c r="C4" s="3">
@@ -1917,30 +1959,30 @@
         <v>0</v>
       </c>
       <c r="H4" s="5" t="s">
-        <v>404</v>
+        <v>371</v>
       </c>
       <c r="I4" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
       <c r="J4" t="s">
-        <v>421</v>
+        <v>386</v>
       </c>
       <c r="M4" s="1">
         <v>1</v>
       </c>
       <c r="N4" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="O4" s="2">
         <v>2</v>
       </c>
       <c r="P4" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="5" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B5" s="3">
         <f t="shared" si="0"/>
@@ -1962,30 +2004,30 @@
         <v>1</v>
       </c>
       <c r="H5" s="5" t="s">
-        <v>404</v>
+        <v>371</v>
       </c>
       <c r="I5" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
       <c r="J5" t="s">
-        <v>421</v>
+        <v>386</v>
       </c>
       <c r="M5" s="1">
         <v>1</v>
       </c>
       <c r="N5" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="O5" s="4">
         <v>4</v>
       </c>
       <c r="P5" s="4" t="s">
-        <v>379</v>
+        <v>346</v>
       </c>
     </row>
     <row r="6" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B6" s="3">
         <f t="shared" si="0"/>
@@ -2007,24 +2049,24 @@
         <v>2</v>
       </c>
       <c r="H6" s="5" t="s">
-        <v>404</v>
+        <v>371</v>
       </c>
       <c r="I6" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
       <c r="J6" t="s">
-        <v>421</v>
+        <v>386</v>
       </c>
       <c r="M6" s="1">
         <v>2</v>
       </c>
       <c r="N6" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="7" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
-        <v>63</v>
+        <v>390</v>
       </c>
       <c r="B7" s="3">
         <f t="shared" si="0"/>
@@ -2046,24 +2088,24 @@
         <v>3</v>
       </c>
       <c r="H7" s="5" t="s">
-        <v>404</v>
+        <v>371</v>
       </c>
       <c r="I7" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
       <c r="J7" t="s">
-        <v>421</v>
+        <v>386</v>
       </c>
       <c r="M7" s="1">
         <v>2</v>
       </c>
       <c r="N7" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="8" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
-        <v>72</v>
+        <v>65</v>
       </c>
       <c r="B8" s="3">
         <f t="shared" si="0"/>
@@ -2085,24 +2127,24 @@
         <v>0</v>
       </c>
       <c r="H8" s="5" t="s">
-        <v>404</v>
+        <v>371</v>
       </c>
       <c r="I8" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
       <c r="J8" t="s">
-        <v>421</v>
+        <v>386</v>
       </c>
       <c r="M8" s="1">
         <v>3</v>
       </c>
       <c r="N8" s="1" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="9" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
-        <v>73</v>
+        <v>66</v>
       </c>
       <c r="B9" s="3">
         <f t="shared" si="0"/>
@@ -2124,24 +2166,24 @@
         <v>0</v>
       </c>
       <c r="H9" s="5" t="s">
-        <v>404</v>
+        <v>371</v>
       </c>
       <c r="I9" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
       <c r="J9" t="s">
-        <v>421</v>
+        <v>386</v>
       </c>
       <c r="M9" s="1">
         <v>4</v>
       </c>
       <c r="N9" s="1" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="10" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
-        <v>74</v>
+        <v>67</v>
       </c>
       <c r="B10" s="3">
         <f t="shared" si="0"/>
@@ -2163,24 +2205,24 @@
         <v>0</v>
       </c>
       <c r="H10" s="5" t="s">
-        <v>404</v>
+        <v>371</v>
       </c>
       <c r="I10" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
       <c r="J10" t="s">
-        <v>421</v>
+        <v>386</v>
       </c>
       <c r="M10" s="1">
         <v>4</v>
       </c>
       <c r="N10" s="1" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="11" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A11" s="3" t="s">
-        <v>75</v>
+        <v>68</v>
       </c>
       <c r="B11" s="3">
         <f t="shared" si="0"/>
@@ -2202,24 +2244,24 @@
         <v>0</v>
       </c>
       <c r="H11" s="5" t="s">
-        <v>404</v>
+        <v>371</v>
       </c>
       <c r="I11" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
       <c r="J11" t="s">
-        <v>421</v>
+        <v>386</v>
       </c>
       <c r="M11" s="1">
         <v>4</v>
       </c>
       <c r="N11" s="1" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.25">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="12" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A12" s="3" t="s">
-        <v>76</v>
+        <v>69</v>
       </c>
       <c r="B12" s="3">
         <f t="shared" si="0"/>
@@ -2241,24 +2283,24 @@
         <v>0</v>
       </c>
       <c r="H12" s="5" t="s">
-        <v>404</v>
+        <v>371</v>
       </c>
       <c r="I12" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
       <c r="J12" t="s">
-        <v>421</v>
+        <v>386</v>
       </c>
       <c r="M12" s="1">
         <v>4</v>
       </c>
       <c r="N12" s="1" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.25">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="13" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A13" s="3" t="s">
-        <v>77</v>
+        <v>70</v>
       </c>
       <c r="B13" s="3">
         <f t="shared" si="0"/>
@@ -2280,24 +2322,24 @@
         <v>0</v>
       </c>
       <c r="H13" s="5" t="s">
-        <v>404</v>
+        <v>371</v>
       </c>
       <c r="I13" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
       <c r="J13" t="s">
-        <v>421</v>
+        <v>386</v>
       </c>
       <c r="M13" s="1">
         <v>4</v>
       </c>
       <c r="N13" s="1" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.25">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="14" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A14" s="3" t="s">
-        <v>78</v>
+        <v>71</v>
       </c>
       <c r="B14" s="3">
         <f t="shared" si="0"/>
@@ -2319,24 +2361,24 @@
         <v>0</v>
       </c>
       <c r="H14" s="5" t="s">
-        <v>404</v>
+        <v>371</v>
       </c>
       <c r="I14" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
       <c r="J14" t="s">
-        <v>421</v>
+        <v>386</v>
       </c>
       <c r="M14" s="1">
         <v>5</v>
       </c>
       <c r="N14" s="1" t="s">
-        <v>389</v>
-      </c>
-    </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.25">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="15" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A15" s="3" t="s">
-        <v>79</v>
+        <v>72</v>
       </c>
       <c r="B15" s="3">
         <f t="shared" si="0"/>
@@ -2358,24 +2400,24 @@
         <v>0</v>
       </c>
       <c r="H15" s="5" t="s">
-        <v>404</v>
+        <v>371</v>
       </c>
       <c r="I15" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
       <c r="J15" t="s">
-        <v>421</v>
+        <v>386</v>
       </c>
       <c r="M15" s="1">
         <v>5</v>
       </c>
       <c r="N15" s="1" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.25">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="16" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A16" s="3" t="s">
-        <v>80</v>
+        <v>73</v>
       </c>
       <c r="B16" s="3">
         <f t="shared" si="0"/>
@@ -2397,24 +2439,24 @@
         <v>0</v>
       </c>
       <c r="H16" s="5" t="s">
-        <v>404</v>
+        <v>371</v>
       </c>
       <c r="I16" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
       <c r="J16" t="s">
-        <v>421</v>
+        <v>386</v>
       </c>
       <c r="M16" s="1">
         <v>5</v>
       </c>
       <c r="N16" s="1" t="s">
-        <v>390</v>
-      </c>
-    </row>
-    <row r="17" spans="1:14" x14ac:dyDescent="0.25">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="17" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A17" s="3" t="s">
-        <v>81</v>
+        <v>74</v>
       </c>
       <c r="B17" s="3">
         <f t="shared" si="0"/>
@@ -2436,24 +2478,24 @@
         <v>0</v>
       </c>
       <c r="H17" s="5" t="s">
-        <v>404</v>
+        <v>371</v>
       </c>
       <c r="I17" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
       <c r="J17" t="s">
-        <v>421</v>
+        <v>386</v>
       </c>
       <c r="M17" s="1">
         <v>5</v>
       </c>
       <c r="N17" s="1" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="18" spans="1:14" x14ac:dyDescent="0.25">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="18" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A18" s="3" t="s">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="B18" s="3">
         <f t="shared" si="0"/>
@@ -2475,24 +2517,24 @@
         <v>0</v>
       </c>
       <c r="H18" s="5" t="s">
-        <v>404</v>
+        <v>371</v>
       </c>
       <c r="I18" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
       <c r="J18" t="s">
-        <v>421</v>
+        <v>386</v>
       </c>
       <c r="M18" s="1">
         <v>5</v>
       </c>
       <c r="N18" s="1" t="s">
-        <v>391</v>
-      </c>
-    </row>
-    <row r="19" spans="1:14" x14ac:dyDescent="0.25">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="19" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A19" s="3" t="s">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="B19" s="3">
         <f t="shared" si="0"/>
@@ -2514,24 +2556,24 @@
         <v>0</v>
       </c>
       <c r="H19" s="5" t="s">
-        <v>404</v>
+        <v>371</v>
       </c>
       <c r="I19" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
       <c r="J19" t="s">
-        <v>421</v>
+        <v>386</v>
       </c>
       <c r="M19" s="1">
         <v>6</v>
       </c>
       <c r="N19" s="1" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="20" spans="1:14" x14ac:dyDescent="0.25">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="20" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A20" s="3" t="s">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="B20" s="3">
         <f t="shared" si="0"/>
@@ -2553,24 +2595,24 @@
         <v>0</v>
       </c>
       <c r="H20" s="5" t="s">
-        <v>404</v>
+        <v>371</v>
       </c>
       <c r="I20" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
       <c r="J20" t="s">
-        <v>421</v>
+        <v>386</v>
       </c>
       <c r="M20" s="1">
         <v>6</v>
       </c>
       <c r="N20" s="1" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="21" spans="1:14" x14ac:dyDescent="0.25">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="21" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A21" s="3" t="s">
-        <v>85</v>
+        <v>78</v>
       </c>
       <c r="B21" s="3">
         <f t="shared" si="0"/>
@@ -2592,24 +2634,24 @@
         <v>0</v>
       </c>
       <c r="H21" s="5" t="s">
-        <v>404</v>
+        <v>371</v>
       </c>
       <c r="I21" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
       <c r="J21" t="s">
-        <v>421</v>
+        <v>386</v>
       </c>
       <c r="M21" s="1">
         <v>6</v>
       </c>
       <c r="N21" s="1" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="22" spans="1:14" x14ac:dyDescent="0.25">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="22" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A22" s="3" t="s">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="B22" s="3">
         <f t="shared" si="0"/>
@@ -2631,24 +2673,24 @@
         <v>0</v>
       </c>
       <c r="H22" s="5" t="s">
-        <v>404</v>
+        <v>371</v>
       </c>
       <c r="I22" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
       <c r="J22" t="s">
-        <v>421</v>
+        <v>386</v>
       </c>
       <c r="M22" s="1">
         <v>6</v>
       </c>
       <c r="N22" s="1" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="23" spans="1:14" x14ac:dyDescent="0.25">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="23" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A23" s="3" t="s">
-        <v>87</v>
+        <v>80</v>
       </c>
       <c r="B23" s="3">
         <f t="shared" si="0"/>
@@ -2670,24 +2712,24 @@
         <v>0</v>
       </c>
       <c r="H23" s="5" t="s">
-        <v>404</v>
+        <v>371</v>
       </c>
       <c r="I23" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
       <c r="J23" t="s">
-        <v>421</v>
+        <v>386</v>
       </c>
       <c r="M23" s="1">
         <v>6</v>
       </c>
       <c r="N23" s="1" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="24" spans="1:14" x14ac:dyDescent="0.25">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="24" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A24" s="3" t="s">
-        <v>88</v>
+        <v>81</v>
       </c>
       <c r="B24" s="3">
         <f t="shared" si="0"/>
@@ -2709,24 +2751,24 @@
         <v>0</v>
       </c>
       <c r="H24" s="5" t="s">
-        <v>404</v>
+        <v>371</v>
       </c>
       <c r="I24" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
       <c r="J24" t="s">
-        <v>421</v>
+        <v>386</v>
       </c>
       <c r="M24" s="1">
         <v>6</v>
       </c>
       <c r="N24" s="1" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="25" spans="1:14" x14ac:dyDescent="0.25">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="25" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A25" s="3" t="s">
-        <v>89</v>
+        <v>82</v>
       </c>
       <c r="B25" s="3">
         <f t="shared" si="0"/>
@@ -2748,24 +2790,24 @@
         <v>0</v>
       </c>
       <c r="H25" s="5" t="s">
-        <v>404</v>
+        <v>371</v>
       </c>
       <c r="I25" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
       <c r="J25" t="s">
-        <v>421</v>
+        <v>386</v>
       </c>
       <c r="M25" s="1">
         <v>6</v>
       </c>
       <c r="N25" s="1" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="26" spans="1:14" x14ac:dyDescent="0.25">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="26" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A26" s="3" t="s">
-        <v>90</v>
+        <v>83</v>
       </c>
       <c r="B26" s="3">
         <f t="shared" si="0"/>
@@ -2787,24 +2829,24 @@
         <v>0</v>
       </c>
       <c r="H26" s="5" t="s">
-        <v>404</v>
+        <v>371</v>
       </c>
       <c r="I26" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
       <c r="J26" t="s">
-        <v>421</v>
+        <v>386</v>
       </c>
       <c r="M26" s="1">
         <v>6</v>
       </c>
       <c r="N26" s="1" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="27" spans="1:14" x14ac:dyDescent="0.25">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="27" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A27" s="3" t="s">
-        <v>91</v>
+        <v>84</v>
       </c>
       <c r="B27" s="3">
         <f t="shared" si="0"/>
@@ -2826,24 +2868,24 @@
         <v>0</v>
       </c>
       <c r="H27" s="5" t="s">
-        <v>404</v>
+        <v>371</v>
       </c>
       <c r="I27" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
       <c r="J27" t="s">
-        <v>421</v>
+        <v>386</v>
       </c>
       <c r="M27" s="1">
         <v>6</v>
       </c>
       <c r="N27" s="1" t="s">
-        <v>401</v>
+        <v>368</v>
       </c>
     </row>
     <row r="28" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A28" s="3" t="s">
-        <v>92</v>
+        <v>85</v>
       </c>
       <c r="B28" s="3">
         <f t="shared" si="0"/>
@@ -2865,24 +2907,24 @@
         <v>0</v>
       </c>
       <c r="H28" s="5" t="s">
-        <v>404</v>
+        <v>371</v>
       </c>
       <c r="I28" t="s">
-        <v>414</v>
+        <v>426</v>
       </c>
       <c r="J28" t="s">
-        <v>421</v>
+        <v>386</v>
       </c>
       <c r="M28" s="1">
         <v>6</v>
       </c>
       <c r="N28" s="1" t="s">
-        <v>402</v>
+        <v>369</v>
       </c>
     </row>
     <row r="29" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A29" s="3" t="s">
-        <v>93</v>
+        <v>86</v>
       </c>
       <c r="B29" s="3">
         <f t="shared" si="0"/>
@@ -2904,24 +2946,24 @@
         <v>0</v>
       </c>
       <c r="H29" s="5" t="s">
-        <v>404</v>
+        <v>371</v>
       </c>
       <c r="I29" t="s">
-        <v>414</v>
+        <v>426</v>
       </c>
       <c r="J29" t="s">
-        <v>421</v>
+        <v>386</v>
       </c>
       <c r="M29" s="1">
         <v>7</v>
       </c>
       <c r="N29" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="30" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A30" s="3" t="s">
-        <v>94</v>
+        <v>87</v>
       </c>
       <c r="B30" s="3">
         <f t="shared" si="0"/>
@@ -2943,24 +2985,24 @@
         <v>0</v>
       </c>
       <c r="H30" s="5" t="s">
-        <v>404</v>
+        <v>371</v>
       </c>
       <c r="I30" t="s">
-        <v>414</v>
+        <v>426</v>
       </c>
       <c r="J30" t="s">
-        <v>421</v>
+        <v>386</v>
       </c>
       <c r="M30" s="1">
         <v>7</v>
       </c>
       <c r="N30" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="31" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A31" s="3" t="s">
-        <v>95</v>
+        <v>88</v>
       </c>
       <c r="B31" s="3">
         <f t="shared" si="0"/>
@@ -2982,24 +3024,24 @@
         <v>0</v>
       </c>
       <c r="H31" s="5" t="s">
-        <v>404</v>
+        <v>371</v>
       </c>
       <c r="I31" t="s">
-        <v>414</v>
+        <v>426</v>
       </c>
       <c r="J31" t="s">
-        <v>421</v>
+        <v>386</v>
       </c>
       <c r="M31" s="1">
         <v>7</v>
       </c>
       <c r="N31" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="32" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A32" s="3" t="s">
-        <v>64</v>
+        <v>391</v>
       </c>
       <c r="B32" s="3">
         <f t="shared" si="0"/>
@@ -3021,24 +3063,24 @@
         <v>0</v>
       </c>
       <c r="H32" s="5" t="s">
-        <v>404</v>
+        <v>371</v>
       </c>
       <c r="I32" t="s">
-        <v>413</v>
+        <v>429</v>
       </c>
       <c r="J32" t="s">
-        <v>421</v>
+        <v>386</v>
       </c>
       <c r="M32" s="1">
         <v>7</v>
       </c>
       <c r="N32" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="33" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A33" s="3" t="s">
-        <v>65</v>
+        <v>392</v>
       </c>
       <c r="B33" s="3">
         <f t="shared" si="0"/>
@@ -3060,24 +3102,24 @@
         <v>0</v>
       </c>
       <c r="H33" s="5" t="s">
-        <v>404</v>
+        <v>371</v>
       </c>
       <c r="I33" t="s">
-        <v>413</v>
+        <v>380</v>
       </c>
       <c r="J33" t="s">
-        <v>421</v>
+        <v>386</v>
       </c>
       <c r="M33" s="1">
         <v>7</v>
       </c>
       <c r="N33" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="34" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A34" s="3" t="s">
-        <v>66</v>
+        <v>393</v>
       </c>
       <c r="B34" s="3">
         <f t="shared" si="0"/>
@@ -3099,24 +3141,24 @@
         <v>0</v>
       </c>
       <c r="H34" s="5" t="s">
-        <v>404</v>
+        <v>371</v>
       </c>
       <c r="I34" t="s">
-        <v>413</v>
+        <v>380</v>
       </c>
       <c r="J34" t="s">
-        <v>421</v>
+        <v>386</v>
       </c>
       <c r="M34" s="1">
         <v>7</v>
       </c>
       <c r="N34" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="35" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A35" s="3" t="s">
-        <v>96</v>
+        <v>422</v>
       </c>
       <c r="B35" s="3">
         <f t="shared" si="0"/>
@@ -3138,24 +3180,24 @@
         <v>0</v>
       </c>
       <c r="H35" s="5" t="s">
-        <v>404</v>
+        <v>420</v>
       </c>
       <c r="I35" t="s">
-        <v>413</v>
+        <v>421</v>
       </c>
       <c r="J35" t="s">
-        <v>421</v>
+        <v>386</v>
       </c>
       <c r="M35" s="1">
         <v>7</v>
       </c>
       <c r="N35" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="36" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A36" s="3" t="s">
-        <v>97</v>
+        <v>89</v>
       </c>
       <c r="B36" s="3">
         <f t="shared" si="0"/>
@@ -3177,24 +3219,24 @@
         <v>0</v>
       </c>
       <c r="H36" s="5" t="s">
-        <v>404</v>
+        <v>371</v>
       </c>
       <c r="I36" t="s">
-        <v>413</v>
+        <v>380</v>
       </c>
       <c r="J36" t="s">
-        <v>421</v>
+        <v>386</v>
       </c>
       <c r="M36" s="1">
         <v>7</v>
       </c>
       <c r="N36" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="37" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A37" s="3" t="s">
-        <v>98</v>
+        <v>90</v>
       </c>
       <c r="B37" s="3">
         <f t="shared" si="0"/>
@@ -3216,24 +3258,24 @@
         <v>0</v>
       </c>
       <c r="H37" s="5" t="s">
-        <v>404</v>
+        <v>371</v>
       </c>
       <c r="I37" t="s">
-        <v>415</v>
+        <v>381</v>
       </c>
       <c r="J37" t="s">
-        <v>421</v>
+        <v>386</v>
       </c>
       <c r="M37" s="1">
         <v>7</v>
       </c>
       <c r="N37" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="38" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A38" s="3" t="s">
-        <v>99</v>
+        <v>91</v>
       </c>
       <c r="B38" s="3">
         <f t="shared" si="0"/>
@@ -3255,24 +3297,24 @@
         <v>0</v>
       </c>
       <c r="H38" s="5" t="s">
-        <v>404</v>
+        <v>371</v>
       </c>
       <c r="I38" t="s">
-        <v>415</v>
+        <v>381</v>
       </c>
       <c r="J38" t="s">
-        <v>421</v>
+        <v>386</v>
       </c>
       <c r="M38" s="1">
         <v>7</v>
       </c>
       <c r="N38" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="39" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A39" s="3" t="s">
-        <v>100</v>
+        <v>92</v>
       </c>
       <c r="B39" s="3">
         <f t="shared" si="0"/>
@@ -3294,24 +3336,24 @@
         <v>0</v>
       </c>
       <c r="H39" s="5" t="s">
-        <v>404</v>
+        <v>371</v>
       </c>
       <c r="I39" t="s">
-        <v>415</v>
+        <v>418</v>
       </c>
       <c r="J39" t="s">
-        <v>421</v>
+        <v>386</v>
       </c>
       <c r="M39" s="1">
         <v>7</v>
       </c>
       <c r="N39" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="40" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A40" s="3" t="s">
-        <v>101</v>
+        <v>93</v>
       </c>
       <c r="B40" s="3">
         <f t="shared" si="0"/>
@@ -3333,24 +3375,24 @@
         <v>0</v>
       </c>
       <c r="H40" s="5" t="s">
-        <v>404</v>
+        <v>371</v>
       </c>
       <c r="I40" t="s">
-        <v>415</v>
+        <v>418</v>
       </c>
       <c r="J40" t="s">
-        <v>421</v>
+        <v>386</v>
       </c>
       <c r="M40" s="1">
         <v>7</v>
       </c>
       <c r="N40" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="41" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A41" s="3" t="s">
-        <v>102</v>
+        <v>94</v>
       </c>
       <c r="B41" s="3">
         <f t="shared" si="0"/>
@@ -3372,24 +3414,24 @@
         <v>0</v>
       </c>
       <c r="H41" s="5" t="s">
-        <v>404</v>
+        <v>420</v>
       </c>
       <c r="I41" t="s">
-        <v>416</v>
+        <v>423</v>
       </c>
       <c r="J41" t="s">
-        <v>421</v>
+        <v>386</v>
       </c>
       <c r="M41" s="1">
         <v>8</v>
       </c>
       <c r="N41" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="42" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A42" s="3" t="s">
-        <v>103</v>
+        <v>95</v>
       </c>
       <c r="B42" s="3">
         <f t="shared" si="0"/>
@@ -3411,24 +3453,24 @@
         <v>0</v>
       </c>
       <c r="H42" s="5" t="s">
-        <v>404</v>
+        <v>420</v>
       </c>
       <c r="I42" t="s">
-        <v>416</v>
+        <v>423</v>
       </c>
       <c r="J42" t="s">
-        <v>421</v>
+        <v>386</v>
       </c>
       <c r="M42" s="1">
         <v>8</v>
       </c>
       <c r="N42" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="43" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A43" s="3" t="s">
-        <v>104</v>
+        <v>96</v>
       </c>
       <c r="B43" s="3">
         <f t="shared" si="0"/>
@@ -3450,24 +3492,24 @@
         <v>0</v>
       </c>
       <c r="H43" s="5" t="s">
-        <v>404</v>
+        <v>420</v>
       </c>
       <c r="I43" t="s">
-        <v>416</v>
+        <v>423</v>
       </c>
       <c r="J43" t="s">
-        <v>421</v>
+        <v>386</v>
       </c>
       <c r="M43" s="1">
         <v>8</v>
       </c>
       <c r="N43" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="44" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A44" s="3" t="s">
-        <v>105</v>
+        <v>394</v>
       </c>
       <c r="B44" s="3">
         <f t="shared" si="0"/>
@@ -3489,24 +3531,24 @@
         <v>0</v>
       </c>
       <c r="H44" s="5" t="s">
-        <v>404</v>
+        <v>420</v>
       </c>
       <c r="I44" t="s">
-        <v>416</v>
+        <v>423</v>
       </c>
       <c r="J44" t="s">
-        <v>421</v>
+        <v>386</v>
       </c>
       <c r="M44" s="1">
         <v>8</v>
       </c>
       <c r="N44" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="45" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A45" s="3" t="s">
-        <v>106</v>
+        <v>395</v>
       </c>
       <c r="B45" s="3">
         <f t="shared" si="0"/>
@@ -3528,24 +3570,24 @@
         <v>0</v>
       </c>
       <c r="H45" s="5" t="s">
-        <v>404</v>
+        <v>420</v>
       </c>
       <c r="I45" t="s">
-        <v>416</v>
+        <v>421</v>
       </c>
       <c r="J45" t="s">
-        <v>421</v>
+        <v>386</v>
       </c>
       <c r="M45" s="1">
         <v>8</v>
       </c>
       <c r="N45" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="46" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A46" s="3" t="s">
-        <v>107</v>
+        <v>417</v>
       </c>
       <c r="B46" s="3">
         <f t="shared" si="0"/>
@@ -3567,24 +3609,24 @@
         <v>4</v>
       </c>
       <c r="H46" s="5" t="s">
-        <v>405</v>
+        <v>412</v>
       </c>
       <c r="I46" s="5" t="s">
-        <v>405</v>
+        <v>372</v>
       </c>
       <c r="J46" t="s">
-        <v>421</v>
+        <v>386</v>
       </c>
       <c r="M46" s="1">
         <v>8</v>
       </c>
       <c r="N46" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="47" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A47" s="3" t="s">
-        <v>108</v>
+        <v>416</v>
       </c>
       <c r="B47" s="3">
         <f t="shared" si="0"/>
@@ -3606,24 +3648,24 @@
         <v>5</v>
       </c>
       <c r="H47" s="5" t="s">
-        <v>405</v>
+        <v>412</v>
       </c>
       <c r="I47" s="5" t="s">
-        <v>405</v>
+        <v>372</v>
       </c>
       <c r="J47" t="s">
-        <v>421</v>
+        <v>386</v>
       </c>
       <c r="M47" s="1">
         <v>8</v>
       </c>
       <c r="N47" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="48" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A48" s="3" t="s">
-        <v>109</v>
+        <v>414</v>
       </c>
       <c r="B48" s="3">
         <f t="shared" si="0"/>
@@ -3645,24 +3687,24 @@
         <v>0</v>
       </c>
       <c r="H48" s="5" t="s">
-        <v>405</v>
+        <v>412</v>
       </c>
       <c r="I48" s="5" t="s">
-        <v>405</v>
+        <v>372</v>
       </c>
       <c r="J48" t="s">
-        <v>421</v>
+        <v>386</v>
       </c>
       <c r="M48" s="1">
         <v>8</v>
       </c>
       <c r="N48" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="49" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A49" s="3" t="s">
-        <v>110</v>
+        <v>415</v>
       </c>
       <c r="B49" s="3">
         <f t="shared" si="0"/>
@@ -3684,24 +3726,24 @@
         <v>0</v>
       </c>
       <c r="H49" s="5" t="s">
-        <v>405</v>
+        <v>412</v>
       </c>
       <c r="I49" s="5" t="s">
-        <v>405</v>
+        <v>372</v>
       </c>
       <c r="J49" t="s">
-        <v>421</v>
+        <v>386</v>
       </c>
       <c r="M49" s="1">
         <v>8</v>
       </c>
       <c r="N49" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="50" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A50" s="3" t="s">
-        <v>111</v>
+        <v>413</v>
       </c>
       <c r="B50" s="3">
         <f t="shared" si="0"/>
@@ -3723,24 +3765,24 @@
         <v>0</v>
       </c>
       <c r="H50" s="5" t="s">
-        <v>405</v>
+        <v>412</v>
       </c>
       <c r="I50" s="5" t="s">
-        <v>405</v>
+        <v>372</v>
       </c>
       <c r="J50" t="s">
-        <v>421</v>
+        <v>386</v>
       </c>
       <c r="M50" s="1">
         <v>8</v>
       </c>
       <c r="N50" s="1" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="51" spans="1:14" x14ac:dyDescent="0.25">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="51" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A51" s="3" t="s">
-        <v>112</v>
+        <v>97</v>
       </c>
       <c r="B51" s="3">
         <f t="shared" si="0"/>
@@ -3762,24 +3804,24 @@
         <v>0</v>
       </c>
       <c r="H51" s="5" t="s">
-        <v>417</v>
+        <v>382</v>
       </c>
       <c r="I51" s="5" t="s">
-        <v>406</v>
+        <v>373</v>
       </c>
       <c r="J51" t="s">
-        <v>421</v>
+        <v>386</v>
       </c>
       <c r="M51" s="1">
         <v>8</v>
       </c>
       <c r="N51" s="1" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="52" spans="1:14" x14ac:dyDescent="0.25">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="52" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A52" s="3" t="s">
-        <v>113</v>
+        <v>98</v>
       </c>
       <c r="B52" s="3">
         <f t="shared" si="0"/>
@@ -3801,24 +3843,24 @@
         <v>0</v>
       </c>
       <c r="H52" s="5" t="s">
-        <v>417</v>
+        <v>382</v>
       </c>
       <c r="I52" s="5" t="s">
-        <v>406</v>
+        <v>373</v>
       </c>
       <c r="J52" t="s">
-        <v>421</v>
+        <v>386</v>
       </c>
       <c r="M52" s="1">
         <v>8</v>
       </c>
       <c r="N52" s="1" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="53" spans="1:14" x14ac:dyDescent="0.25">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="53" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A53" s="3" t="s">
-        <v>114</v>
+        <v>99</v>
       </c>
       <c r="B53" s="3">
         <f t="shared" si="0"/>
@@ -3840,24 +3882,24 @@
         <v>0</v>
       </c>
       <c r="H53" s="5" t="s">
-        <v>417</v>
+        <v>382</v>
       </c>
       <c r="I53" s="5" t="s">
-        <v>406</v>
+        <v>373</v>
       </c>
       <c r="J53" t="s">
-        <v>421</v>
+        <v>386</v>
       </c>
       <c r="M53" s="1">
         <v>8</v>
       </c>
       <c r="N53" s="1" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="54" spans="1:14" x14ac:dyDescent="0.25">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="54" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A54" s="3" t="s">
-        <v>115</v>
+        <v>100</v>
       </c>
       <c r="B54" s="3">
         <f t="shared" si="0"/>
@@ -3879,24 +3921,24 @@
         <v>0</v>
       </c>
       <c r="H54" s="5" t="s">
-        <v>417</v>
+        <v>382</v>
       </c>
       <c r="I54" s="5" t="s">
-        <v>406</v>
+        <v>373</v>
       </c>
       <c r="J54" t="s">
-        <v>421</v>
+        <v>386</v>
       </c>
       <c r="M54" s="1">
         <v>8</v>
       </c>
       <c r="N54" s="1" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="55" spans="1:14" x14ac:dyDescent="0.25">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="55" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A55" s="3" t="s">
-        <v>116</v>
+        <v>101</v>
       </c>
       <c r="B55" s="3">
         <f t="shared" si="0"/>
@@ -3918,24 +3960,24 @@
         <v>0</v>
       </c>
       <c r="H55" s="5" t="s">
-        <v>417</v>
+        <v>382</v>
       </c>
       <c r="I55" s="5" t="s">
-        <v>406</v>
+        <v>373</v>
       </c>
       <c r="J55" t="s">
-        <v>421</v>
+        <v>386</v>
       </c>
       <c r="M55" s="1">
         <v>8</v>
       </c>
       <c r="N55" s="1" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="56" spans="1:14" x14ac:dyDescent="0.25">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="56" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A56" s="3" t="s">
-        <v>117</v>
+        <v>102</v>
       </c>
       <c r="B56" s="3">
         <f t="shared" si="0"/>
@@ -3957,24 +3999,24 @@
         <v>0</v>
       </c>
       <c r="H56" s="5" t="s">
-        <v>417</v>
+        <v>382</v>
       </c>
       <c r="I56" s="5" t="s">
-        <v>406</v>
+        <v>373</v>
       </c>
       <c r="J56" t="s">
-        <v>421</v>
+        <v>386</v>
       </c>
       <c r="M56" s="1">
         <v>8</v>
       </c>
       <c r="N56" s="1" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="57" spans="1:14" x14ac:dyDescent="0.25">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="57" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A57" s="3" t="s">
-        <v>118</v>
+        <v>103</v>
       </c>
       <c r="B57" s="3">
         <f t="shared" si="0"/>
@@ -3996,24 +4038,24 @@
         <v>0</v>
       </c>
       <c r="H57" s="5" t="s">
-        <v>417</v>
+        <v>382</v>
       </c>
       <c r="I57" s="5" t="s">
-        <v>406</v>
+        <v>373</v>
       </c>
       <c r="J57" t="s">
-        <v>421</v>
+        <v>386</v>
       </c>
       <c r="M57" s="1">
         <v>9</v>
       </c>
       <c r="N57" s="1" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="58" spans="1:14" x14ac:dyDescent="0.25">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="58" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A58" s="3" t="s">
-        <v>119</v>
+        <v>104</v>
       </c>
       <c r="B58" s="3">
         <f t="shared" si="0"/>
@@ -4035,24 +4077,24 @@
         <v>0</v>
       </c>
       <c r="H58" s="5" t="s">
-        <v>417</v>
+        <v>382</v>
       </c>
       <c r="I58" s="5" t="s">
-        <v>406</v>
+        <v>373</v>
       </c>
       <c r="J58" t="s">
-        <v>421</v>
+        <v>386</v>
       </c>
       <c r="M58" s="1">
         <v>9</v>
       </c>
       <c r="N58" s="1" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="59" spans="1:14" x14ac:dyDescent="0.25">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="59" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A59" s="3" t="s">
-        <v>120</v>
+        <v>105</v>
       </c>
       <c r="B59" s="3">
         <f t="shared" si="0"/>
@@ -4074,24 +4116,24 @@
         <v>0</v>
       </c>
       <c r="H59" s="5" t="s">
-        <v>417</v>
+        <v>382</v>
       </c>
       <c r="I59" s="5" t="s">
-        <v>406</v>
+        <v>373</v>
       </c>
       <c r="J59" t="s">
-        <v>421</v>
+        <v>386</v>
       </c>
       <c r="M59" s="1">
         <v>10</v>
       </c>
       <c r="N59" s="1" t="s">
-        <v>380</v>
-      </c>
-    </row>
-    <row r="60" spans="1:14" x14ac:dyDescent="0.25">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="60" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A60" s="3" t="s">
-        <v>121</v>
+        <v>106</v>
       </c>
       <c r="B60" s="3">
         <f t="shared" si="0"/>
@@ -4113,24 +4155,24 @@
         <v>0</v>
       </c>
       <c r="H60" s="5" t="s">
-        <v>417</v>
+        <v>382</v>
       </c>
       <c r="I60" s="5" t="s">
-        <v>406</v>
+        <v>373</v>
       </c>
       <c r="J60" t="s">
-        <v>421</v>
+        <v>386</v>
       </c>
       <c r="M60" s="1">
         <v>10</v>
       </c>
       <c r="N60" s="1" t="s">
-        <v>381</v>
-      </c>
-    </row>
-    <row r="61" spans="1:14" x14ac:dyDescent="0.25">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="61" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A61" s="3" t="s">
-        <v>122</v>
+        <v>107</v>
       </c>
       <c r="B61" s="3">
         <f t="shared" si="0"/>
@@ -4152,24 +4194,24 @@
         <v>0</v>
       </c>
       <c r="H61" s="5" t="s">
-        <v>417</v>
+        <v>382</v>
       </c>
       <c r="I61" s="5" t="s">
-        <v>406</v>
+        <v>373</v>
       </c>
       <c r="J61" t="s">
-        <v>421</v>
+        <v>386</v>
       </c>
       <c r="M61" s="1">
         <v>10</v>
       </c>
       <c r="N61" s="1" t="s">
-        <v>382</v>
-      </c>
-    </row>
-    <row r="62" spans="1:14" x14ac:dyDescent="0.25">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="62" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A62" s="3" t="s">
-        <v>123</v>
+        <v>108</v>
       </c>
       <c r="B62" s="3">
         <f t="shared" si="0"/>
@@ -4191,24 +4233,24 @@
         <v>0</v>
       </c>
       <c r="H62" s="5" t="s">
-        <v>417</v>
+        <v>382</v>
       </c>
       <c r="I62" s="5" t="s">
-        <v>406</v>
+        <v>373</v>
       </c>
       <c r="J62" t="s">
-        <v>421</v>
+        <v>386</v>
       </c>
       <c r="M62" s="1">
         <v>10</v>
       </c>
       <c r="N62" s="1" t="s">
-        <v>383</v>
-      </c>
-    </row>
-    <row r="63" spans="1:14" x14ac:dyDescent="0.25">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="63" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A63" s="3" t="s">
-        <v>124</v>
+        <v>109</v>
       </c>
       <c r="B63" s="3">
         <f t="shared" si="0"/>
@@ -4230,24 +4272,24 @@
         <v>0</v>
       </c>
       <c r="H63" s="5" t="s">
-        <v>417</v>
+        <v>382</v>
       </c>
       <c r="I63" s="5" t="s">
-        <v>406</v>
+        <v>373</v>
       </c>
       <c r="J63" t="s">
-        <v>421</v>
+        <v>386</v>
       </c>
       <c r="M63" s="1">
         <v>11</v>
       </c>
       <c r="N63" s="1" t="s">
-        <v>384</v>
-      </c>
-    </row>
-    <row r="64" spans="1:14" x14ac:dyDescent="0.25">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="64" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A64" s="3" t="s">
-        <v>125</v>
+        <v>110</v>
       </c>
       <c r="B64" s="3">
         <f t="shared" si="0"/>
@@ -4269,24 +4311,24 @@
         <v>0</v>
       </c>
       <c r="H64" s="5" t="s">
-        <v>417</v>
+        <v>382</v>
       </c>
       <c r="I64" s="5" t="s">
-        <v>406</v>
+        <v>373</v>
       </c>
       <c r="J64" t="s">
-        <v>421</v>
+        <v>386</v>
       </c>
       <c r="M64" s="1">
         <v>11</v>
       </c>
       <c r="N64" s="1" t="s">
-        <v>385</v>
-      </c>
-    </row>
-    <row r="65" spans="1:14" x14ac:dyDescent="0.25">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="65" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A65" s="3" t="s">
-        <v>126</v>
+        <v>111</v>
       </c>
       <c r="B65" s="3">
         <f t="shared" si="0"/>
@@ -4308,24 +4350,24 @@
         <v>0</v>
       </c>
       <c r="H65" s="5" t="s">
-        <v>417</v>
+        <v>382</v>
       </c>
       <c r="I65" s="5" t="s">
-        <v>406</v>
+        <v>373</v>
       </c>
       <c r="J65" t="s">
-        <v>421</v>
+        <v>386</v>
       </c>
       <c r="M65" s="1">
         <v>11</v>
       </c>
       <c r="N65" s="1" t="s">
-        <v>388</v>
-      </c>
-    </row>
-    <row r="66" spans="1:14" x14ac:dyDescent="0.25">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="66" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A66" s="3" t="s">
-        <v>127</v>
+        <v>112</v>
       </c>
       <c r="B66" s="3">
         <f t="shared" si="0"/>
@@ -4347,24 +4389,24 @@
         <v>0</v>
       </c>
       <c r="H66" s="5" t="s">
-        <v>417</v>
+        <v>382</v>
       </c>
       <c r="I66" s="5" t="s">
-        <v>406</v>
+        <v>373</v>
       </c>
       <c r="J66" t="s">
-        <v>421</v>
+        <v>386</v>
       </c>
       <c r="M66" s="1">
         <v>11</v>
       </c>
       <c r="N66" s="1" t="s">
-        <v>387</v>
-      </c>
-    </row>
-    <row r="67" spans="1:14" x14ac:dyDescent="0.25">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="67" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A67" s="3" t="s">
-        <v>128</v>
+        <v>113</v>
       </c>
       <c r="B67" s="3">
         <f t="shared" ref="B67:B130" si="1">E67</f>
@@ -4386,24 +4428,24 @@
         <v>0</v>
       </c>
       <c r="H67" s="5" t="s">
-        <v>417</v>
+        <v>382</v>
       </c>
       <c r="I67" s="5" t="s">
-        <v>406</v>
+        <v>373</v>
       </c>
       <c r="J67" t="s">
-        <v>421</v>
+        <v>386</v>
       </c>
       <c r="M67" s="1">
         <v>11</v>
       </c>
       <c r="N67" s="1" t="s">
-        <v>386</v>
-      </c>
-    </row>
-    <row r="68" spans="1:14" x14ac:dyDescent="0.25">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="68" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A68" s="3" t="s">
-        <v>129</v>
+        <v>114</v>
       </c>
       <c r="B68" s="3">
         <f t="shared" si="1"/>
@@ -4425,24 +4467,24 @@
         <v>0</v>
       </c>
       <c r="H68" s="5" t="s">
-        <v>417</v>
+        <v>382</v>
       </c>
       <c r="I68" s="5" t="s">
-        <v>406</v>
+        <v>373</v>
       </c>
       <c r="J68" t="s">
-        <v>421</v>
+        <v>386</v>
       </c>
       <c r="M68" s="1">
         <v>11</v>
       </c>
       <c r="N68" s="1" t="s">
-        <v>392</v>
-      </c>
-    </row>
-    <row r="69" spans="1:14" x14ac:dyDescent="0.25">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="69" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A69" s="3" t="s">
-        <v>130</v>
+        <v>115</v>
       </c>
       <c r="B69" s="3">
         <f t="shared" si="1"/>
@@ -4464,24 +4506,24 @@
         <v>0</v>
       </c>
       <c r="H69" s="5" t="s">
-        <v>417</v>
+        <v>382</v>
       </c>
       <c r="I69" s="5" t="s">
-        <v>406</v>
+        <v>373</v>
       </c>
       <c r="J69" t="s">
-        <v>421</v>
+        <v>386</v>
       </c>
       <c r="M69" s="1">
         <v>11</v>
       </c>
       <c r="N69" s="1" t="s">
-        <v>393</v>
-      </c>
-    </row>
-    <row r="70" spans="1:14" x14ac:dyDescent="0.25">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="70" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A70" s="3" t="s">
-        <v>131</v>
+        <v>116</v>
       </c>
       <c r="B70" s="3">
         <f t="shared" si="1"/>
@@ -4503,24 +4545,24 @@
         <v>0</v>
       </c>
       <c r="H70" s="5" t="s">
-        <v>417</v>
+        <v>382</v>
       </c>
       <c r="I70" s="5" t="s">
-        <v>406</v>
+        <v>373</v>
       </c>
       <c r="J70" t="s">
-        <v>421</v>
+        <v>386</v>
       </c>
       <c r="M70" s="1">
         <v>11</v>
       </c>
       <c r="N70" s="1" t="s">
-        <v>394</v>
-      </c>
-    </row>
-    <row r="71" spans="1:14" x14ac:dyDescent="0.25">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="71" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A71" s="3" t="s">
-        <v>132</v>
+        <v>117</v>
       </c>
       <c r="B71" s="3">
         <f t="shared" si="1"/>
@@ -4542,24 +4584,24 @@
         <v>0</v>
       </c>
       <c r="H71" s="5" t="s">
-        <v>417</v>
+        <v>382</v>
       </c>
       <c r="I71" s="5" t="s">
-        <v>406</v>
+        <v>373</v>
       </c>
       <c r="J71" t="s">
-        <v>421</v>
+        <v>386</v>
       </c>
       <c r="M71" s="1">
         <v>11</v>
       </c>
       <c r="N71" s="1" t="s">
-        <v>395</v>
-      </c>
-    </row>
-    <row r="72" spans="1:14" x14ac:dyDescent="0.25">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="72" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A72" s="3" t="s">
-        <v>133</v>
+        <v>118</v>
       </c>
       <c r="B72" s="3">
         <f t="shared" si="1"/>
@@ -4581,24 +4623,24 @@
         <v>0</v>
       </c>
       <c r="H72" s="5" t="s">
-        <v>417</v>
+        <v>382</v>
       </c>
       <c r="I72" s="5" t="s">
-        <v>406</v>
+        <v>373</v>
       </c>
       <c r="J72" t="s">
-        <v>421</v>
+        <v>386</v>
       </c>
       <c r="M72" s="1">
         <v>11</v>
       </c>
       <c r="N72" s="1" t="s">
-        <v>396</v>
-      </c>
-    </row>
-    <row r="73" spans="1:14" x14ac:dyDescent="0.25">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="73" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A73" s="3" t="s">
-        <v>134</v>
+        <v>119</v>
       </c>
       <c r="B73" s="3">
         <f t="shared" si="1"/>
@@ -4620,24 +4662,24 @@
         <v>0</v>
       </c>
       <c r="H73" s="5" t="s">
-        <v>417</v>
+        <v>382</v>
       </c>
       <c r="I73" s="5" t="s">
-        <v>406</v>
+        <v>373</v>
       </c>
       <c r="J73" t="s">
-        <v>421</v>
+        <v>386</v>
       </c>
       <c r="M73" s="1">
         <v>11</v>
       </c>
       <c r="N73" s="1" t="s">
-        <v>397</v>
-      </c>
-    </row>
-    <row r="74" spans="1:14" x14ac:dyDescent="0.25">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="74" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A74" s="3" t="s">
-        <v>135</v>
+        <v>120</v>
       </c>
       <c r="B74" s="3">
         <f t="shared" si="1"/>
@@ -4659,24 +4701,24 @@
         <v>0</v>
       </c>
       <c r="H74" s="5" t="s">
-        <v>417</v>
+        <v>382</v>
       </c>
       <c r="I74" s="5" t="s">
-        <v>406</v>
+        <v>373</v>
       </c>
       <c r="J74" t="s">
-        <v>421</v>
+        <v>386</v>
       </c>
       <c r="M74" s="1">
         <v>11</v>
       </c>
       <c r="N74" s="1" t="s">
-        <v>398</v>
-      </c>
-    </row>
-    <row r="75" spans="1:14" x14ac:dyDescent="0.25">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="75" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A75" s="3" t="s">
-        <v>136</v>
+        <v>121</v>
       </c>
       <c r="B75" s="3">
         <f t="shared" si="1"/>
@@ -4698,24 +4740,24 @@
         <v>0</v>
       </c>
       <c r="H75" s="5" t="s">
-        <v>417</v>
+        <v>382</v>
       </c>
       <c r="I75" s="5" t="s">
-        <v>406</v>
+        <v>373</v>
       </c>
       <c r="J75" t="s">
-        <v>421</v>
+        <v>386</v>
       </c>
       <c r="M75" s="1">
         <v>11</v>
       </c>
       <c r="N75" s="1" t="s">
-        <v>399</v>
-      </c>
-    </row>
-    <row r="76" spans="1:14" x14ac:dyDescent="0.25">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="76" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A76" s="3" t="s">
-        <v>137</v>
+        <v>122</v>
       </c>
       <c r="B76" s="3">
         <f t="shared" si="1"/>
@@ -4737,24 +4779,24 @@
         <v>0</v>
       </c>
       <c r="H76" s="5" t="s">
-        <v>417</v>
+        <v>382</v>
       </c>
       <c r="I76" s="5" t="s">
-        <v>406</v>
+        <v>373</v>
       </c>
       <c r="J76" t="s">
-        <v>421</v>
+        <v>386</v>
       </c>
       <c r="M76" s="1">
         <v>11</v>
       </c>
       <c r="N76" s="1" t="s">
-        <v>400</v>
-      </c>
-    </row>
-    <row r="77" spans="1:14" x14ac:dyDescent="0.25">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="77" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A77" s="3" t="s">
-        <v>138</v>
+        <v>123</v>
       </c>
       <c r="B77" s="3">
         <f t="shared" si="1"/>
@@ -4776,18 +4818,18 @@
         <v>0</v>
       </c>
       <c r="H77" s="5" t="s">
-        <v>417</v>
+        <v>382</v>
       </c>
       <c r="I77" s="5" t="s">
-        <v>406</v>
+        <v>373</v>
       </c>
       <c r="J77" t="s">
-        <v>421</v>
-      </c>
-    </row>
-    <row r="78" spans="1:14" x14ac:dyDescent="0.25">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="78" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A78" s="3" t="s">
-        <v>139</v>
+        <v>124</v>
       </c>
       <c r="B78" s="3">
         <f t="shared" si="1"/>
@@ -4809,18 +4851,18 @@
         <v>0</v>
       </c>
       <c r="H78" s="5" t="s">
-        <v>417</v>
+        <v>382</v>
       </c>
       <c r="I78" s="5" t="s">
-        <v>406</v>
+        <v>373</v>
       </c>
       <c r="J78" t="s">
-        <v>421</v>
-      </c>
-    </row>
-    <row r="79" spans="1:14" x14ac:dyDescent="0.25">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="79" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A79" s="3" t="s">
-        <v>140</v>
+        <v>125</v>
       </c>
       <c r="B79" s="3">
         <f t="shared" si="1"/>
@@ -4842,18 +4884,18 @@
         <v>0</v>
       </c>
       <c r="H79" s="5" t="s">
-        <v>417</v>
+        <v>382</v>
       </c>
       <c r="I79" s="5" t="s">
-        <v>406</v>
+        <v>373</v>
       </c>
       <c r="J79" t="s">
-        <v>421</v>
-      </c>
-    </row>
-    <row r="80" spans="1:14" x14ac:dyDescent="0.25">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="80" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A80" s="3" t="s">
-        <v>141</v>
+        <v>126</v>
       </c>
       <c r="B80" s="3">
         <f t="shared" si="1"/>
@@ -4875,18 +4917,18 @@
         <v>0</v>
       </c>
       <c r="H80" s="5" t="s">
-        <v>417</v>
+        <v>382</v>
       </c>
       <c r="I80" s="5" t="s">
-        <v>406</v>
+        <v>373</v>
       </c>
       <c r="J80" t="s">
-        <v>421</v>
-      </c>
-    </row>
-    <row r="81" spans="1:10" x14ac:dyDescent="0.25">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="81" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A81" s="3" t="s">
-        <v>142</v>
+        <v>127</v>
       </c>
       <c r="B81" s="3">
         <f t="shared" si="1"/>
@@ -4908,18 +4950,18 @@
         <v>0</v>
       </c>
       <c r="H81" s="5" t="s">
-        <v>417</v>
+        <v>382</v>
       </c>
       <c r="I81" s="5" t="s">
-        <v>407</v>
+        <v>374</v>
       </c>
       <c r="J81" t="s">
-        <v>421</v>
-      </c>
-    </row>
-    <row r="82" spans="1:10" x14ac:dyDescent="0.25">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="82" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A82" s="3" t="s">
-        <v>143</v>
+        <v>128</v>
       </c>
       <c r="B82" s="3">
         <f t="shared" si="1"/>
@@ -4941,18 +4983,18 @@
         <v>0</v>
       </c>
       <c r="H82" s="5" t="s">
-        <v>417</v>
+        <v>382</v>
       </c>
       <c r="I82" s="5" t="s">
-        <v>407</v>
+        <v>374</v>
       </c>
       <c r="J82" t="s">
-        <v>421</v>
-      </c>
-    </row>
-    <row r="83" spans="1:10" x14ac:dyDescent="0.25">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="83" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A83" s="3" t="s">
-        <v>144</v>
+        <v>129</v>
       </c>
       <c r="B83" s="3">
         <f t="shared" si="1"/>
@@ -4974,18 +5016,18 @@
         <v>0</v>
       </c>
       <c r="H83" s="5" t="s">
-        <v>417</v>
+        <v>382</v>
       </c>
       <c r="I83" s="5" t="s">
-        <v>407</v>
+        <v>374</v>
       </c>
       <c r="J83" t="s">
-        <v>421</v>
-      </c>
-    </row>
-    <row r="84" spans="1:10" x14ac:dyDescent="0.25">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="84" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A84" s="3" t="s">
-        <v>145</v>
+        <v>130</v>
       </c>
       <c r="B84" s="3">
         <f t="shared" si="1"/>
@@ -5007,18 +5049,18 @@
         <v>0</v>
       </c>
       <c r="H84" s="5" t="s">
-        <v>417</v>
+        <v>382</v>
       </c>
       <c r="I84" s="5" t="s">
-        <v>407</v>
+        <v>374</v>
       </c>
       <c r="J84" t="s">
-        <v>421</v>
-      </c>
-    </row>
-    <row r="85" spans="1:10" x14ac:dyDescent="0.25">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="85" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A85" s="3" t="s">
-        <v>146</v>
+        <v>131</v>
       </c>
       <c r="B85" s="3">
         <f t="shared" si="1"/>
@@ -5040,18 +5082,18 @@
         <v>0</v>
       </c>
       <c r="H85" s="5" t="s">
-        <v>417</v>
+        <v>382</v>
       </c>
       <c r="I85" s="5" t="s">
-        <v>407</v>
+        <v>374</v>
       </c>
       <c r="J85" t="s">
-        <v>421</v>
-      </c>
-    </row>
-    <row r="86" spans="1:10" x14ac:dyDescent="0.25">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="86" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A86" s="3" t="s">
-        <v>147</v>
+        <v>132</v>
       </c>
       <c r="B86" s="3">
         <f t="shared" si="1"/>
@@ -5073,18 +5115,18 @@
         <v>0</v>
       </c>
       <c r="H86" s="5" t="s">
-        <v>417</v>
+        <v>382</v>
       </c>
       <c r="I86" s="5" t="s">
-        <v>407</v>
+        <v>374</v>
       </c>
       <c r="J86" t="s">
-        <v>421</v>
-      </c>
-    </row>
-    <row r="87" spans="1:10" x14ac:dyDescent="0.25">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="87" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A87" s="3" t="s">
-        <v>148</v>
+        <v>133</v>
       </c>
       <c r="B87" s="3">
         <f t="shared" si="1"/>
@@ -5106,18 +5148,18 @@
         <v>0</v>
       </c>
       <c r="H87" s="5" t="s">
-        <v>417</v>
+        <v>382</v>
       </c>
       <c r="I87" s="5" t="s">
-        <v>407</v>
+        <v>374</v>
       </c>
       <c r="J87" t="s">
-        <v>421</v>
-      </c>
-    </row>
-    <row r="88" spans="1:10" x14ac:dyDescent="0.25">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="88" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A88" s="3" t="s">
-        <v>149</v>
+        <v>134</v>
       </c>
       <c r="B88" s="3">
         <f t="shared" si="1"/>
@@ -5139,18 +5181,18 @@
         <v>0</v>
       </c>
       <c r="H88" s="5" t="s">
-        <v>417</v>
+        <v>382</v>
       </c>
       <c r="I88" s="5" t="s">
-        <v>407</v>
+        <v>374</v>
       </c>
       <c r="J88" t="s">
-        <v>421</v>
-      </c>
-    </row>
-    <row r="89" spans="1:10" x14ac:dyDescent="0.25">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="89" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A89" s="3" t="s">
-        <v>150</v>
+        <v>135</v>
       </c>
       <c r="B89" s="3">
         <f t="shared" si="1"/>
@@ -5172,18 +5214,18 @@
         <v>0</v>
       </c>
       <c r="H89" s="5" t="s">
-        <v>417</v>
+        <v>382</v>
       </c>
       <c r="I89" s="5" t="s">
-        <v>407</v>
+        <v>374</v>
       </c>
       <c r="J89" t="s">
-        <v>421</v>
-      </c>
-    </row>
-    <row r="90" spans="1:10" x14ac:dyDescent="0.25">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="90" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A90" s="3" t="s">
-        <v>151</v>
+        <v>136</v>
       </c>
       <c r="B90" s="3">
         <f t="shared" si="1"/>
@@ -5205,18 +5247,18 @@
         <v>0</v>
       </c>
       <c r="H90" s="5" t="s">
-        <v>417</v>
+        <v>382</v>
       </c>
       <c r="I90" s="5" t="s">
-        <v>407</v>
+        <v>374</v>
       </c>
       <c r="J90" t="s">
-        <v>421</v>
-      </c>
-    </row>
-    <row r="91" spans="1:10" x14ac:dyDescent="0.25">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="91" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A91" s="3" t="s">
-        <v>152</v>
+        <v>137</v>
       </c>
       <c r="B91" s="3">
         <f t="shared" si="1"/>
@@ -5238,18 +5280,18 @@
         <v>0</v>
       </c>
       <c r="H91" s="5" t="s">
-        <v>417</v>
+        <v>382</v>
       </c>
       <c r="I91" s="5" t="s">
-        <v>407</v>
+        <v>374</v>
       </c>
       <c r="J91" t="s">
-        <v>421</v>
-      </c>
-    </row>
-    <row r="92" spans="1:10" x14ac:dyDescent="0.25">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="92" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A92" s="3" t="s">
-        <v>153</v>
+        <v>138</v>
       </c>
       <c r="B92" s="3">
         <f t="shared" si="1"/>
@@ -5271,18 +5313,18 @@
         <v>0</v>
       </c>
       <c r="H92" s="5" t="s">
-        <v>417</v>
+        <v>382</v>
       </c>
       <c r="I92" s="5" t="s">
-        <v>407</v>
+        <v>374</v>
       </c>
       <c r="J92" t="s">
-        <v>421</v>
-      </c>
-    </row>
-    <row r="93" spans="1:10" x14ac:dyDescent="0.25">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="93" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A93" s="3" t="s">
-        <v>154</v>
+        <v>139</v>
       </c>
       <c r="B93" s="3">
         <f t="shared" si="1"/>
@@ -5304,18 +5346,18 @@
         <v>0</v>
       </c>
       <c r="H93" s="5" t="s">
-        <v>417</v>
+        <v>382</v>
       </c>
       <c r="I93" s="5" t="s">
-        <v>407</v>
+        <v>374</v>
       </c>
       <c r="J93" t="s">
-        <v>421</v>
-      </c>
-    </row>
-    <row r="94" spans="1:10" x14ac:dyDescent="0.25">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="94" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A94" s="3" t="s">
-        <v>155</v>
+        <v>140</v>
       </c>
       <c r="B94" s="3">
         <f t="shared" si="1"/>
@@ -5337,18 +5379,18 @@
         <v>0</v>
       </c>
       <c r="H94" s="5" t="s">
-        <v>417</v>
+        <v>382</v>
       </c>
       <c r="I94" s="5" t="s">
-        <v>407</v>
+        <v>374</v>
       </c>
       <c r="J94" t="s">
-        <v>421</v>
-      </c>
-    </row>
-    <row r="95" spans="1:10" x14ac:dyDescent="0.25">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="95" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A95" s="3" t="s">
-        <v>156</v>
+        <v>141</v>
       </c>
       <c r="B95" s="3">
         <f t="shared" si="1"/>
@@ -5370,18 +5412,18 @@
         <v>0</v>
       </c>
       <c r="H95" s="5" t="s">
-        <v>417</v>
+        <v>382</v>
       </c>
       <c r="I95" s="5" t="s">
-        <v>407</v>
+        <v>374</v>
       </c>
       <c r="J95" t="s">
-        <v>421</v>
-      </c>
-    </row>
-    <row r="96" spans="1:10" x14ac:dyDescent="0.25">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="96" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A96" s="3" t="s">
-        <v>157</v>
+        <v>142</v>
       </c>
       <c r="B96" s="3">
         <f t="shared" si="1"/>
@@ -5403,18 +5445,18 @@
         <v>0</v>
       </c>
       <c r="H96" s="5" t="s">
-        <v>417</v>
+        <v>382</v>
       </c>
       <c r="I96" s="5" t="s">
-        <v>407</v>
+        <v>374</v>
       </c>
       <c r="J96" t="s">
-        <v>421</v>
-      </c>
-    </row>
-    <row r="97" spans="1:10" x14ac:dyDescent="0.25">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="97" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A97" s="3" t="s">
-        <v>158</v>
+        <v>143</v>
       </c>
       <c r="B97" s="3">
         <f t="shared" si="1"/>
@@ -5436,18 +5478,18 @@
         <v>0</v>
       </c>
       <c r="H97" s="5" t="s">
-        <v>417</v>
+        <v>382</v>
       </c>
       <c r="I97" s="5" t="s">
-        <v>407</v>
+        <v>374</v>
       </c>
       <c r="J97" t="s">
-        <v>421</v>
-      </c>
-    </row>
-    <row r="98" spans="1:10" x14ac:dyDescent="0.25">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="98" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A98" s="3" t="s">
-        <v>159</v>
+        <v>144</v>
       </c>
       <c r="B98" s="3">
         <f t="shared" si="1"/>
@@ -5469,18 +5511,18 @@
         <v>0</v>
       </c>
       <c r="H98" s="5" t="s">
-        <v>417</v>
+        <v>382</v>
       </c>
       <c r="I98" s="5" t="s">
-        <v>407</v>
+        <v>374</v>
       </c>
       <c r="J98" t="s">
-        <v>421</v>
-      </c>
-    </row>
-    <row r="99" spans="1:10" x14ac:dyDescent="0.25">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="99" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A99" s="3" t="s">
-        <v>160</v>
+        <v>145</v>
       </c>
       <c r="B99" s="3">
         <f t="shared" si="1"/>
@@ -5502,18 +5544,18 @@
         <v>0</v>
       </c>
       <c r="H99" s="5" t="s">
-        <v>417</v>
+        <v>382</v>
       </c>
       <c r="I99" s="5" t="s">
-        <v>407</v>
+        <v>374</v>
       </c>
       <c r="J99" t="s">
-        <v>421</v>
-      </c>
-    </row>
-    <row r="100" spans="1:10" x14ac:dyDescent="0.25">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="100" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A100" s="3" t="s">
-        <v>161</v>
+        <v>146</v>
       </c>
       <c r="B100" s="3">
         <f t="shared" si="1"/>
@@ -5535,18 +5577,18 @@
         <v>0</v>
       </c>
       <c r="H100" s="5" t="s">
-        <v>417</v>
+        <v>382</v>
       </c>
       <c r="I100" s="5" t="s">
-        <v>407</v>
+        <v>374</v>
       </c>
       <c r="J100" t="s">
-        <v>421</v>
-      </c>
-    </row>
-    <row r="101" spans="1:10" x14ac:dyDescent="0.25">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="101" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A101" s="3" t="s">
-        <v>162</v>
+        <v>147</v>
       </c>
       <c r="B101" s="3">
         <f t="shared" si="1"/>
@@ -5568,18 +5610,18 @@
         <v>0</v>
       </c>
       <c r="H101" s="5" t="s">
-        <v>417</v>
+        <v>382</v>
       </c>
       <c r="I101" s="5" t="s">
-        <v>407</v>
+        <v>374</v>
       </c>
       <c r="J101" t="s">
-        <v>421</v>
-      </c>
-    </row>
-    <row r="102" spans="1:10" x14ac:dyDescent="0.25">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="102" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A102" s="3" t="s">
-        <v>163</v>
+        <v>148</v>
       </c>
       <c r="B102" s="3">
         <f t="shared" si="1"/>
@@ -5601,18 +5643,18 @@
         <v>0</v>
       </c>
       <c r="H102" s="5" t="s">
-        <v>417</v>
+        <v>382</v>
       </c>
       <c r="I102" s="5" t="s">
-        <v>407</v>
+        <v>374</v>
       </c>
       <c r="J102" t="s">
-        <v>421</v>
-      </c>
-    </row>
-    <row r="103" spans="1:10" x14ac:dyDescent="0.25">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="103" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A103" s="3" t="s">
-        <v>164</v>
+        <v>149</v>
       </c>
       <c r="B103" s="3">
         <f t="shared" si="1"/>
@@ -5634,18 +5676,18 @@
         <v>0</v>
       </c>
       <c r="H103" s="5" t="s">
-        <v>417</v>
+        <v>382</v>
       </c>
       <c r="I103" s="5" t="s">
-        <v>407</v>
+        <v>374</v>
       </c>
       <c r="J103" t="s">
-        <v>421</v>
-      </c>
-    </row>
-    <row r="104" spans="1:10" x14ac:dyDescent="0.25">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="104" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A104" s="3" t="s">
-        <v>165</v>
+        <v>150</v>
       </c>
       <c r="B104" s="3">
         <f t="shared" si="1"/>
@@ -5667,18 +5709,18 @@
         <v>0</v>
       </c>
       <c r="H104" s="5" t="s">
-        <v>417</v>
+        <v>382</v>
       </c>
       <c r="I104" s="5" t="s">
-        <v>407</v>
+        <v>374</v>
       </c>
       <c r="J104" t="s">
-        <v>421</v>
-      </c>
-    </row>
-    <row r="105" spans="1:10" x14ac:dyDescent="0.25">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="105" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A105" s="3" t="s">
-        <v>166</v>
+        <v>151</v>
       </c>
       <c r="B105" s="3">
         <f t="shared" si="1"/>
@@ -5700,18 +5742,18 @@
         <v>0</v>
       </c>
       <c r="H105" s="5" t="s">
-        <v>417</v>
+        <v>382</v>
       </c>
       <c r="I105" s="5" t="s">
-        <v>407</v>
+        <v>374</v>
       </c>
       <c r="J105" t="s">
-        <v>421</v>
-      </c>
-    </row>
-    <row r="106" spans="1:10" x14ac:dyDescent="0.25">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="106" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A106" s="3" t="s">
-        <v>167</v>
+        <v>152</v>
       </c>
       <c r="B106" s="3">
         <f t="shared" si="1"/>
@@ -5733,18 +5775,18 @@
         <v>0</v>
       </c>
       <c r="H106" s="5" t="s">
-        <v>417</v>
+        <v>382</v>
       </c>
       <c r="I106" s="5" t="s">
-        <v>407</v>
+        <v>374</v>
       </c>
       <c r="J106" t="s">
-        <v>421</v>
-      </c>
-    </row>
-    <row r="107" spans="1:10" x14ac:dyDescent="0.25">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="107" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A107" s="3" t="s">
-        <v>168</v>
+        <v>153</v>
       </c>
       <c r="B107" s="3">
         <f t="shared" si="1"/>
@@ -5766,18 +5808,18 @@
         <v>0</v>
       </c>
       <c r="H107" s="5" t="s">
-        <v>417</v>
+        <v>382</v>
       </c>
       <c r="I107" s="5" t="s">
-        <v>407</v>
+        <v>374</v>
       </c>
       <c r="J107" t="s">
-        <v>421</v>
-      </c>
-    </row>
-    <row r="108" spans="1:10" x14ac:dyDescent="0.25">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="108" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A108" s="3" t="s">
-        <v>169</v>
+        <v>154</v>
       </c>
       <c r="B108" s="3">
         <f t="shared" si="1"/>
@@ -5799,18 +5841,18 @@
         <v>0</v>
       </c>
       <c r="H108" s="5" t="s">
-        <v>417</v>
+        <v>382</v>
       </c>
       <c r="I108" s="5" t="s">
-        <v>407</v>
+        <v>374</v>
       </c>
       <c r="J108" t="s">
-        <v>421</v>
-      </c>
-    </row>
-    <row r="109" spans="1:10" x14ac:dyDescent="0.25">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="109" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A109" s="3" t="s">
-        <v>170</v>
+        <v>155</v>
       </c>
       <c r="B109" s="3">
         <f t="shared" si="1"/>
@@ -5832,18 +5874,18 @@
         <v>0</v>
       </c>
       <c r="H109" s="5" t="s">
-        <v>417</v>
+        <v>382</v>
       </c>
       <c r="I109" s="5" t="s">
-        <v>407</v>
+        <v>374</v>
       </c>
       <c r="J109" t="s">
-        <v>421</v>
-      </c>
-    </row>
-    <row r="110" spans="1:10" x14ac:dyDescent="0.25">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="110" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A110" s="3" t="s">
-        <v>171</v>
+        <v>156</v>
       </c>
       <c r="B110" s="3">
         <f t="shared" si="1"/>
@@ -5865,18 +5907,18 @@
         <v>0</v>
       </c>
       <c r="H110" s="5" t="s">
-        <v>417</v>
+        <v>382</v>
       </c>
       <c r="I110" s="5" t="s">
-        <v>407</v>
+        <v>374</v>
       </c>
       <c r="J110" t="s">
-        <v>421</v>
-      </c>
-    </row>
-    <row r="111" spans="1:10" x14ac:dyDescent="0.25">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="111" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A111" s="3" t="s">
-        <v>172</v>
+        <v>157</v>
       </c>
       <c r="B111" s="3">
         <f t="shared" si="1"/>
@@ -5898,18 +5940,18 @@
         <v>0</v>
       </c>
       <c r="H111" s="5" t="s">
-        <v>417</v>
+        <v>382</v>
       </c>
       <c r="I111" s="5" t="s">
-        <v>408</v>
+        <v>375</v>
       </c>
       <c r="J111" t="s">
-        <v>421</v>
-      </c>
-    </row>
-    <row r="112" spans="1:10" x14ac:dyDescent="0.25">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="112" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A112" s="3" t="s">
-        <v>173</v>
+        <v>158</v>
       </c>
       <c r="B112" s="3">
         <f t="shared" si="1"/>
@@ -5931,18 +5973,18 @@
         <v>0</v>
       </c>
       <c r="H112" s="5" t="s">
-        <v>417</v>
+        <v>382</v>
       </c>
       <c r="I112" s="5" t="s">
-        <v>408</v>
+        <v>375</v>
       </c>
       <c r="J112" t="s">
-        <v>421</v>
-      </c>
-    </row>
-    <row r="113" spans="1:10" x14ac:dyDescent="0.25">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="113" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A113" s="3" t="s">
-        <v>174</v>
+        <v>159</v>
       </c>
       <c r="B113" s="3">
         <f t="shared" si="1"/>
@@ -5964,18 +6006,18 @@
         <v>0</v>
       </c>
       <c r="H113" s="5" t="s">
-        <v>417</v>
+        <v>382</v>
       </c>
       <c r="I113" s="5" t="s">
-        <v>408</v>
+        <v>375</v>
       </c>
       <c r="J113" t="s">
-        <v>421</v>
-      </c>
-    </row>
-    <row r="114" spans="1:10" x14ac:dyDescent="0.25">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="114" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A114" s="3" t="s">
-        <v>175</v>
+        <v>160</v>
       </c>
       <c r="B114" s="3">
         <f t="shared" si="1"/>
@@ -5997,18 +6039,18 @@
         <v>0</v>
       </c>
       <c r="H114" s="5" t="s">
-        <v>417</v>
+        <v>382</v>
       </c>
       <c r="I114" s="5" t="s">
-        <v>408</v>
+        <v>375</v>
       </c>
       <c r="J114" t="s">
-        <v>421</v>
-      </c>
-    </row>
-    <row r="115" spans="1:10" x14ac:dyDescent="0.25">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="115" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A115" s="3" t="s">
-        <v>176</v>
+        <v>161</v>
       </c>
       <c r="B115" s="3">
         <f t="shared" si="1"/>
@@ -6030,18 +6072,18 @@
         <v>0</v>
       </c>
       <c r="H115" s="5" t="s">
-        <v>417</v>
+        <v>382</v>
       </c>
       <c r="I115" s="5" t="s">
-        <v>408</v>
+        <v>375</v>
       </c>
       <c r="J115" t="s">
-        <v>421</v>
-      </c>
-    </row>
-    <row r="116" spans="1:10" x14ac:dyDescent="0.25">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="116" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A116" s="3" t="s">
-        <v>177</v>
+        <v>162</v>
       </c>
       <c r="B116" s="3">
         <f t="shared" si="1"/>
@@ -6063,18 +6105,18 @@
         <v>0</v>
       </c>
       <c r="H116" s="5" t="s">
-        <v>417</v>
+        <v>382</v>
       </c>
       <c r="I116" s="5" t="s">
-        <v>408</v>
+        <v>375</v>
       </c>
       <c r="J116" t="s">
-        <v>421</v>
-      </c>
-    </row>
-    <row r="117" spans="1:10" x14ac:dyDescent="0.25">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="117" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A117" s="3" t="s">
-        <v>178</v>
+        <v>163</v>
       </c>
       <c r="B117" s="3">
         <f t="shared" si="1"/>
@@ -6096,18 +6138,18 @@
         <v>0</v>
       </c>
       <c r="H117" s="5" t="s">
-        <v>417</v>
+        <v>382</v>
       </c>
       <c r="I117" s="5" t="s">
-        <v>408</v>
+        <v>375</v>
       </c>
       <c r="J117" t="s">
-        <v>421</v>
-      </c>
-    </row>
-    <row r="118" spans="1:10" x14ac:dyDescent="0.25">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="118" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A118" s="3" t="s">
-        <v>179</v>
+        <v>164</v>
       </c>
       <c r="B118" s="3">
         <f t="shared" si="1"/>
@@ -6129,18 +6171,18 @@
         <v>0</v>
       </c>
       <c r="H118" s="5" t="s">
-        <v>417</v>
+        <v>382</v>
       </c>
       <c r="I118" s="5" t="s">
-        <v>408</v>
+        <v>375</v>
       </c>
       <c r="J118" t="s">
-        <v>421</v>
-      </c>
-    </row>
-    <row r="119" spans="1:10" x14ac:dyDescent="0.25">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="119" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A119" s="3" t="s">
-        <v>180</v>
+        <v>165</v>
       </c>
       <c r="B119" s="3">
         <f t="shared" si="1"/>
@@ -6162,18 +6204,18 @@
         <v>0</v>
       </c>
       <c r="H119" s="5" t="s">
-        <v>417</v>
+        <v>382</v>
       </c>
       <c r="I119" s="5" t="s">
-        <v>408</v>
+        <v>375</v>
       </c>
       <c r="J119" t="s">
-        <v>421</v>
-      </c>
-    </row>
-    <row r="120" spans="1:10" x14ac:dyDescent="0.25">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="120" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A120" s="3" t="s">
-        <v>181</v>
+        <v>166</v>
       </c>
       <c r="B120" s="3">
         <f t="shared" si="1"/>
@@ -6195,18 +6237,18 @@
         <v>0</v>
       </c>
       <c r="H120" s="5" t="s">
-        <v>417</v>
+        <v>382</v>
       </c>
       <c r="I120" s="5" t="s">
-        <v>408</v>
+        <v>375</v>
       </c>
       <c r="J120" t="s">
-        <v>421</v>
-      </c>
-    </row>
-    <row r="121" spans="1:10" x14ac:dyDescent="0.25">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="121" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A121" s="3" t="s">
-        <v>182</v>
+        <v>167</v>
       </c>
       <c r="B121" s="3">
         <f t="shared" si="1"/>
@@ -6228,18 +6270,18 @@
         <v>0</v>
       </c>
       <c r="H121" s="5" t="s">
-        <v>417</v>
+        <v>382</v>
       </c>
       <c r="I121" s="5" t="s">
-        <v>408</v>
+        <v>375</v>
       </c>
       <c r="J121" t="s">
-        <v>421</v>
-      </c>
-    </row>
-    <row r="122" spans="1:10" x14ac:dyDescent="0.25">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="122" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A122" s="3" t="s">
-        <v>183</v>
+        <v>168</v>
       </c>
       <c r="B122" s="3">
         <f t="shared" si="1"/>
@@ -6261,18 +6303,18 @@
         <v>0</v>
       </c>
       <c r="H122" s="5" t="s">
-        <v>417</v>
+        <v>382</v>
       </c>
       <c r="I122" s="5" t="s">
-        <v>408</v>
+        <v>375</v>
       </c>
       <c r="J122" t="s">
-        <v>421</v>
-      </c>
-    </row>
-    <row r="123" spans="1:10" x14ac:dyDescent="0.25">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="123" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A123" s="3" t="s">
-        <v>184</v>
+        <v>169</v>
       </c>
       <c r="B123" s="3">
         <f t="shared" si="1"/>
@@ -6294,18 +6336,18 @@
         <v>0</v>
       </c>
       <c r="H123" s="5" t="s">
-        <v>417</v>
+        <v>382</v>
       </c>
       <c r="I123" s="5" t="s">
-        <v>408</v>
+        <v>375</v>
       </c>
       <c r="J123" t="s">
-        <v>421</v>
-      </c>
-    </row>
-    <row r="124" spans="1:10" x14ac:dyDescent="0.25">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="124" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A124" s="3" t="s">
-        <v>185</v>
+        <v>170</v>
       </c>
       <c r="B124" s="3">
         <f t="shared" si="1"/>
@@ -6327,18 +6369,18 @@
         <v>0</v>
       </c>
       <c r="H124" s="5" t="s">
-        <v>417</v>
+        <v>382</v>
       </c>
       <c r="I124" s="5" t="s">
-        <v>408</v>
+        <v>375</v>
       </c>
       <c r="J124" t="s">
-        <v>421</v>
-      </c>
-    </row>
-    <row r="125" spans="1:10" x14ac:dyDescent="0.25">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="125" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A125" s="3" t="s">
-        <v>186</v>
+        <v>171</v>
       </c>
       <c r="B125" s="3">
         <f t="shared" si="1"/>
@@ -6360,18 +6402,18 @@
         <v>0</v>
       </c>
       <c r="H125" s="5" t="s">
-        <v>417</v>
+        <v>382</v>
       </c>
       <c r="I125" s="5" t="s">
-        <v>408</v>
+        <v>375</v>
       </c>
       <c r="J125" t="s">
-        <v>421</v>
-      </c>
-    </row>
-    <row r="126" spans="1:10" x14ac:dyDescent="0.25">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="126" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A126" s="3" t="s">
-        <v>187</v>
+        <v>172</v>
       </c>
       <c r="B126" s="3">
         <f t="shared" si="1"/>
@@ -6393,18 +6435,18 @@
         <v>0</v>
       </c>
       <c r="H126" s="5" t="s">
-        <v>417</v>
+        <v>382</v>
       </c>
       <c r="I126" s="5" t="s">
-        <v>408</v>
+        <v>375</v>
       </c>
       <c r="J126" t="s">
-        <v>421</v>
-      </c>
-    </row>
-    <row r="127" spans="1:10" x14ac:dyDescent="0.25">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="127" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A127" s="3" t="s">
-        <v>188</v>
+        <v>173</v>
       </c>
       <c r="B127" s="3">
         <f t="shared" si="1"/>
@@ -6426,18 +6468,18 @@
         <v>0</v>
       </c>
       <c r="H127" s="5" t="s">
-        <v>417</v>
+        <v>382</v>
       </c>
       <c r="I127" s="5" t="s">
-        <v>408</v>
+        <v>375</v>
       </c>
       <c r="J127" t="s">
-        <v>421</v>
-      </c>
-    </row>
-    <row r="128" spans="1:10" x14ac:dyDescent="0.25">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="128" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A128" s="3" t="s">
-        <v>189</v>
+        <v>174</v>
       </c>
       <c r="B128" s="3">
         <f t="shared" si="1"/>
@@ -6459,18 +6501,18 @@
         <v>0</v>
       </c>
       <c r="H128" s="5" t="s">
-        <v>417</v>
+        <v>382</v>
       </c>
       <c r="I128" s="5" t="s">
-        <v>408</v>
+        <v>375</v>
       </c>
       <c r="J128" t="s">
-        <v>421</v>
-      </c>
-    </row>
-    <row r="129" spans="1:10" x14ac:dyDescent="0.25">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="129" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A129" s="3" t="s">
-        <v>190</v>
+        <v>175</v>
       </c>
       <c r="B129" s="3">
         <f t="shared" si="1"/>
@@ -6492,18 +6534,18 @@
         <v>0</v>
       </c>
       <c r="H129" s="5" t="s">
-        <v>417</v>
+        <v>382</v>
       </c>
       <c r="I129" s="5" t="s">
-        <v>408</v>
+        <v>375</v>
       </c>
       <c r="J129" t="s">
-        <v>421</v>
-      </c>
-    </row>
-    <row r="130" spans="1:10" x14ac:dyDescent="0.25">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="130" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A130" s="3" t="s">
-        <v>191</v>
+        <v>176</v>
       </c>
       <c r="B130" s="3">
         <f t="shared" si="1"/>
@@ -6525,18 +6567,18 @@
         <v>0</v>
       </c>
       <c r="H130" s="5" t="s">
-        <v>417</v>
+        <v>382</v>
       </c>
       <c r="I130" s="5" t="s">
-        <v>408</v>
+        <v>375</v>
       </c>
       <c r="J130" t="s">
-        <v>421</v>
-      </c>
-    </row>
-    <row r="131" spans="1:10" x14ac:dyDescent="0.25">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="131" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A131" s="3" t="s">
-        <v>192</v>
+        <v>177</v>
       </c>
       <c r="B131" s="3">
         <f t="shared" ref="B131:B194" si="2">E131</f>
@@ -6558,18 +6600,18 @@
         <v>0</v>
       </c>
       <c r="H131" s="5" t="s">
-        <v>417</v>
+        <v>382</v>
       </c>
       <c r="I131" s="5" t="s">
-        <v>408</v>
+        <v>375</v>
       </c>
       <c r="J131" t="s">
-        <v>421</v>
-      </c>
-    </row>
-    <row r="132" spans="1:10" x14ac:dyDescent="0.25">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="132" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A132" s="3" t="s">
-        <v>193</v>
+        <v>178</v>
       </c>
       <c r="B132" s="3">
         <f t="shared" si="2"/>
@@ -6591,18 +6633,18 @@
         <v>0</v>
       </c>
       <c r="H132" s="5" t="s">
-        <v>417</v>
+        <v>382</v>
       </c>
       <c r="I132" s="5" t="s">
-        <v>408</v>
+        <v>375</v>
       </c>
       <c r="J132" t="s">
-        <v>421</v>
-      </c>
-    </row>
-    <row r="133" spans="1:10" x14ac:dyDescent="0.25">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="133" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A133" s="3" t="s">
-        <v>194</v>
+        <v>179</v>
       </c>
       <c r="B133" s="3">
         <f t="shared" si="2"/>
@@ -6624,18 +6666,18 @@
         <v>0</v>
       </c>
       <c r="H133" s="5" t="s">
-        <v>417</v>
+        <v>382</v>
       </c>
       <c r="I133" s="5" t="s">
-        <v>408</v>
+        <v>375</v>
       </c>
       <c r="J133" t="s">
-        <v>421</v>
-      </c>
-    </row>
-    <row r="134" spans="1:10" x14ac:dyDescent="0.25">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="134" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A134" s="3" t="s">
-        <v>195</v>
+        <v>180</v>
       </c>
       <c r="B134" s="3">
         <f t="shared" si="2"/>
@@ -6657,18 +6699,18 @@
         <v>0</v>
       </c>
       <c r="H134" s="5" t="s">
-        <v>417</v>
+        <v>382</v>
       </c>
       <c r="I134" s="5" t="s">
-        <v>408</v>
+        <v>375</v>
       </c>
       <c r="J134" t="s">
-        <v>421</v>
-      </c>
-    </row>
-    <row r="135" spans="1:10" x14ac:dyDescent="0.25">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="135" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A135" s="3" t="s">
-        <v>196</v>
+        <v>181</v>
       </c>
       <c r="B135" s="3">
         <f t="shared" si="2"/>
@@ -6690,18 +6732,18 @@
         <v>0</v>
       </c>
       <c r="H135" s="5" t="s">
-        <v>417</v>
+        <v>382</v>
       </c>
       <c r="I135" s="5" t="s">
-        <v>408</v>
+        <v>375</v>
       </c>
       <c r="J135" t="s">
-        <v>421</v>
-      </c>
-    </row>
-    <row r="136" spans="1:10" x14ac:dyDescent="0.25">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="136" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A136" s="3" t="s">
-        <v>197</v>
+        <v>182</v>
       </c>
       <c r="B136" s="3">
         <f t="shared" si="2"/>
@@ -6723,18 +6765,18 @@
         <v>0</v>
       </c>
       <c r="H136" s="5" t="s">
-        <v>417</v>
+        <v>382</v>
       </c>
       <c r="I136" s="5" t="s">
-        <v>408</v>
+        <v>375</v>
       </c>
       <c r="J136" t="s">
-        <v>421</v>
-      </c>
-    </row>
-    <row r="137" spans="1:10" x14ac:dyDescent="0.25">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="137" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A137" s="3" t="s">
-        <v>198</v>
+        <v>183</v>
       </c>
       <c r="B137" s="3">
         <f t="shared" si="2"/>
@@ -6756,18 +6798,18 @@
         <v>0</v>
       </c>
       <c r="H137" s="5" t="s">
-        <v>417</v>
+        <v>382</v>
       </c>
       <c r="I137" s="5" t="s">
-        <v>408</v>
+        <v>375</v>
       </c>
       <c r="J137" t="s">
-        <v>421</v>
-      </c>
-    </row>
-    <row r="138" spans="1:10" x14ac:dyDescent="0.25">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="138" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A138" s="3" t="s">
-        <v>199</v>
+        <v>184</v>
       </c>
       <c r="B138" s="3">
         <f t="shared" si="2"/>
@@ -6789,18 +6831,18 @@
         <v>0</v>
       </c>
       <c r="H138" s="5" t="s">
-        <v>417</v>
+        <v>382</v>
       </c>
       <c r="I138" s="5" t="s">
-        <v>408</v>
+        <v>375</v>
       </c>
       <c r="J138" t="s">
-        <v>421</v>
-      </c>
-    </row>
-    <row r="139" spans="1:10" x14ac:dyDescent="0.25">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="139" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A139" s="3" t="s">
-        <v>200</v>
+        <v>185</v>
       </c>
       <c r="B139" s="3">
         <f t="shared" si="2"/>
@@ -6822,18 +6864,18 @@
         <v>0</v>
       </c>
       <c r="H139" s="5" t="s">
-        <v>417</v>
+        <v>382</v>
       </c>
       <c r="I139" s="5" t="s">
-        <v>408</v>
+        <v>375</v>
       </c>
       <c r="J139" t="s">
-        <v>421</v>
+        <v>386</v>
       </c>
     </row>
     <row r="140" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A140" s="3" t="s">
-        <v>201</v>
+        <v>186</v>
       </c>
       <c r="B140" s="3">
         <f t="shared" si="2"/>
@@ -6855,18 +6897,18 @@
         <v>0</v>
       </c>
       <c r="H140" s="5" t="s">
-        <v>417</v>
+        <v>382</v>
       </c>
       <c r="I140" s="5" t="s">
-        <v>408</v>
+        <v>375</v>
       </c>
       <c r="J140" t="s">
-        <v>421</v>
+        <v>386</v>
       </c>
     </row>
     <row r="141" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A141" s="3" t="s">
-        <v>202</v>
+        <v>396</v>
       </c>
       <c r="B141" s="3">
         <f t="shared" si="2"/>
@@ -6888,18 +6930,18 @@
         <v>0</v>
       </c>
       <c r="H141" s="5" t="s">
-        <v>409</v>
+        <v>371</v>
       </c>
       <c r="I141" s="5" t="s">
-        <v>409</v>
+        <v>376</v>
       </c>
       <c r="J141" t="s">
-        <v>421</v>
+        <v>386</v>
       </c>
     </row>
     <row r="142" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A142" s="3" t="s">
-        <v>203</v>
+        <v>397</v>
       </c>
       <c r="B142" s="3">
         <f t="shared" si="2"/>
@@ -6921,18 +6963,18 @@
         <v>0</v>
       </c>
       <c r="H142" s="5" t="s">
-        <v>409</v>
+        <v>371</v>
       </c>
       <c r="I142" s="5" t="s">
-        <v>409</v>
+        <v>376</v>
       </c>
       <c r="J142" t="s">
-        <v>421</v>
+        <v>386</v>
       </c>
     </row>
     <row r="143" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A143" s="3" t="s">
-        <v>204</v>
+        <v>398</v>
       </c>
       <c r="B143" s="3">
         <f t="shared" si="2"/>
@@ -6954,18 +6996,18 @@
         <v>0</v>
       </c>
       <c r="H143" s="5" t="s">
-        <v>409</v>
+        <v>371</v>
       </c>
       <c r="I143" s="5" t="s">
-        <v>409</v>
+        <v>376</v>
       </c>
       <c r="J143" t="s">
-        <v>421</v>
+        <v>386</v>
       </c>
     </row>
     <row r="144" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A144" s="3" t="s">
-        <v>205</v>
+        <v>399</v>
       </c>
       <c r="B144" s="3">
         <f t="shared" si="2"/>
@@ -6987,18 +7029,18 @@
         <v>0</v>
       </c>
       <c r="H144" s="5" t="s">
-        <v>409</v>
+        <v>371</v>
       </c>
       <c r="I144" s="5" t="s">
-        <v>409</v>
+        <v>376</v>
       </c>
       <c r="J144" t="s">
-        <v>421</v>
+        <v>386</v>
       </c>
     </row>
     <row r="145" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A145" s="3" t="s">
-        <v>206</v>
+        <v>400</v>
       </c>
       <c r="B145" s="3">
         <f t="shared" si="2"/>
@@ -7020,18 +7062,18 @@
         <v>0</v>
       </c>
       <c r="H145" s="5" t="s">
-        <v>409</v>
+        <v>371</v>
       </c>
       <c r="I145" s="5" t="s">
-        <v>409</v>
+        <v>376</v>
       </c>
       <c r="J145" t="s">
-        <v>421</v>
+        <v>386</v>
       </c>
     </row>
     <row r="146" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A146" s="3" t="s">
-        <v>207</v>
+        <v>401</v>
       </c>
       <c r="B146" s="3">
         <f t="shared" si="2"/>
@@ -7053,18 +7095,18 @@
         <v>0</v>
       </c>
       <c r="H146" s="5" t="s">
-        <v>409</v>
+        <v>371</v>
       </c>
       <c r="I146" s="5" t="s">
-        <v>409</v>
+        <v>376</v>
       </c>
       <c r="J146" t="s">
-        <v>421</v>
+        <v>386</v>
       </c>
     </row>
     <row r="147" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A147" s="3" t="s">
-        <v>208</v>
+        <v>402</v>
       </c>
       <c r="B147" s="3">
         <f t="shared" si="2"/>
@@ -7086,18 +7128,18 @@
         <v>0</v>
       </c>
       <c r="H147" s="5" t="s">
-        <v>409</v>
+        <v>371</v>
       </c>
       <c r="I147" s="5" t="s">
-        <v>409</v>
+        <v>376</v>
       </c>
       <c r="J147" t="s">
-        <v>421</v>
+        <v>386</v>
       </c>
     </row>
     <row r="148" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A148" s="3" t="s">
-        <v>209</v>
+        <v>403</v>
       </c>
       <c r="B148" s="3">
         <f t="shared" si="2"/>
@@ -7119,18 +7161,18 @@
         <v>0</v>
       </c>
       <c r="H148" s="5" t="s">
-        <v>409</v>
+        <v>371</v>
       </c>
       <c r="I148" s="5" t="s">
-        <v>409</v>
+        <v>376</v>
       </c>
       <c r="J148" t="s">
-        <v>421</v>
+        <v>386</v>
       </c>
     </row>
     <row r="149" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A149" s="3" t="s">
-        <v>210</v>
+        <v>404</v>
       </c>
       <c r="B149" s="3">
         <f t="shared" si="2"/>
@@ -7152,18 +7194,18 @@
         <v>0</v>
       </c>
       <c r="H149" s="5" t="s">
-        <v>410</v>
+        <v>377</v>
       </c>
       <c r="I149" s="5" t="s">
-        <v>410</v>
+        <v>377</v>
       </c>
       <c r="J149" t="s">
-        <v>421</v>
+        <v>386</v>
       </c>
     </row>
     <row r="150" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A150" s="3" t="s">
-        <v>211</v>
+        <v>405</v>
       </c>
       <c r="B150" s="3">
         <f t="shared" si="2"/>
@@ -7185,18 +7227,18 @@
         <v>0</v>
       </c>
       <c r="H150" s="5" t="s">
-        <v>410</v>
+        <v>377</v>
       </c>
       <c r="I150" s="5" t="s">
-        <v>410</v>
+        <v>377</v>
       </c>
       <c r="J150" t="s">
-        <v>421</v>
+        <v>386</v>
       </c>
     </row>
     <row r="151" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A151" s="3" t="s">
-        <v>212</v>
+        <v>406</v>
       </c>
       <c r="B151" s="3">
         <f t="shared" si="2"/>
@@ -7218,18 +7260,18 @@
         <v>0</v>
       </c>
       <c r="H151" s="5" t="s">
-        <v>410</v>
+        <v>377</v>
       </c>
       <c r="I151" s="5" t="s">
-        <v>410</v>
+        <v>377</v>
       </c>
       <c r="J151" t="s">
-        <v>421</v>
+        <v>386</v>
       </c>
     </row>
     <row r="152" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A152" s="3" t="s">
-        <v>213</v>
+        <v>407</v>
       </c>
       <c r="B152" s="3">
         <f t="shared" si="2"/>
@@ -7251,18 +7293,18 @@
         <v>0</v>
       </c>
       <c r="H152" s="5" t="s">
-        <v>410</v>
+        <v>377</v>
       </c>
       <c r="I152" s="5" t="s">
-        <v>410</v>
+        <v>377</v>
       </c>
       <c r="J152" t="s">
-        <v>421</v>
+        <v>386</v>
       </c>
     </row>
     <row r="153" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A153" s="3" t="s">
-        <v>214</v>
+        <v>408</v>
       </c>
       <c r="B153" s="3">
         <f t="shared" si="2"/>
@@ -7284,18 +7326,18 @@
         <v>0</v>
       </c>
       <c r="H153" s="5" t="s">
-        <v>410</v>
+        <v>377</v>
       </c>
       <c r="I153" s="5" t="s">
-        <v>410</v>
+        <v>377</v>
       </c>
       <c r="J153" t="s">
-        <v>421</v>
+        <v>386</v>
       </c>
     </row>
     <row r="154" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A154" s="3" t="s">
-        <v>215</v>
+        <v>187</v>
       </c>
       <c r="B154" s="3">
         <f t="shared" si="2"/>
@@ -7317,18 +7359,18 @@
         <v>0</v>
       </c>
       <c r="H154" s="5" t="s">
-        <v>404</v>
+        <v>420</v>
       </c>
       <c r="I154" t="s">
-        <v>413</v>
+        <v>423</v>
       </c>
       <c r="J154" t="s">
-        <v>421</v>
+        <v>386</v>
       </c>
     </row>
     <row r="155" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A155" s="3" t="s">
-        <v>216</v>
+        <v>188</v>
       </c>
       <c r="B155" s="3">
         <f t="shared" si="2"/>
@@ -7350,18 +7392,18 @@
         <v>4</v>
       </c>
       <c r="H155" s="5" t="s">
-        <v>404</v>
+        <v>371</v>
       </c>
       <c r="I155" t="s">
-        <v>413</v>
+        <v>380</v>
       </c>
       <c r="J155" t="s">
-        <v>421</v>
+        <v>386</v>
       </c>
     </row>
     <row r="156" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A156" s="3" t="s">
-        <v>217</v>
+        <v>409</v>
       </c>
       <c r="B156" s="3">
         <f t="shared" si="2"/>
@@ -7382,19 +7424,19 @@
       <c r="G156" s="3">
         <v>0</v>
       </c>
-      <c r="H156" s="5" t="s">
-        <v>404</v>
-      </c>
-      <c r="I156" t="s">
-        <v>413</v>
+      <c r="H156" s="7" t="s">
+        <v>425</v>
+      </c>
+      <c r="I156" s="5" t="s">
+        <v>371</v>
       </c>
       <c r="J156" t="s">
-        <v>421</v>
+        <v>386</v>
       </c>
     </row>
     <row r="157" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A157" s="3" t="s">
-        <v>218</v>
+        <v>189</v>
       </c>
       <c r="B157" s="3">
         <f t="shared" si="2"/>
@@ -7416,18 +7458,18 @@
         <v>0</v>
       </c>
       <c r="H157" s="5" t="s">
-        <v>404</v>
+        <v>371</v>
       </c>
       <c r="I157" t="s">
-        <v>413</v>
+        <v>380</v>
       </c>
       <c r="J157" t="s">
-        <v>421</v>
+        <v>386</v>
       </c>
     </row>
     <row r="158" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A158" s="3" t="s">
-        <v>219</v>
+        <v>190</v>
       </c>
       <c r="B158" s="3">
         <f t="shared" si="2"/>
@@ -7449,18 +7491,18 @@
         <v>0</v>
       </c>
       <c r="H158" s="5" t="s">
-        <v>404</v>
+        <v>420</v>
       </c>
       <c r="I158" t="s">
-        <v>413</v>
+        <v>421</v>
       </c>
       <c r="J158" t="s">
-        <v>421</v>
+        <v>386</v>
       </c>
     </row>
     <row r="159" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A159" s="3" t="s">
-        <v>220</v>
+        <v>410</v>
       </c>
       <c r="B159" s="3">
         <f t="shared" si="2"/>
@@ -7482,18 +7524,18 @@
         <v>0</v>
       </c>
       <c r="H159" s="5" t="s">
-        <v>404</v>
+        <v>371</v>
       </c>
       <c r="I159" t="s">
-        <v>413</v>
+        <v>380</v>
       </c>
       <c r="J159" t="s">
-        <v>421</v>
+        <v>386</v>
       </c>
     </row>
     <row r="160" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A160" s="3" t="s">
-        <v>221</v>
+        <v>191</v>
       </c>
       <c r="B160" s="3">
         <f t="shared" si="2"/>
@@ -7515,18 +7557,18 @@
         <v>5</v>
       </c>
       <c r="H160" s="5" t="s">
-        <v>404</v>
+        <v>371</v>
       </c>
       <c r="I160" t="s">
-        <v>413</v>
+        <v>433</v>
       </c>
       <c r="J160" t="s">
-        <v>421</v>
+        <v>386</v>
       </c>
     </row>
     <row r="161" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A161" s="3" t="s">
-        <v>222</v>
+        <v>192</v>
       </c>
       <c r="B161" s="3">
         <f t="shared" si="2"/>
@@ -7548,18 +7590,18 @@
         <v>0</v>
       </c>
       <c r="H161" s="5" t="s">
-        <v>404</v>
+        <v>371</v>
       </c>
       <c r="I161" t="s">
-        <v>413</v>
+        <v>380</v>
       </c>
       <c r="J161" t="s">
-        <v>421</v>
+        <v>386</v>
       </c>
     </row>
     <row r="162" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A162" s="3" t="s">
-        <v>223</v>
+        <v>430</v>
       </c>
       <c r="B162" s="3">
         <f t="shared" si="2"/>
@@ -7581,18 +7623,18 @@
         <v>0</v>
       </c>
       <c r="H162" s="5" t="s">
-        <v>404</v>
+        <v>371</v>
       </c>
       <c r="I162" t="s">
-        <v>413</v>
+        <v>429</v>
       </c>
       <c r="J162" t="s">
-        <v>421</v>
+        <v>386</v>
       </c>
     </row>
     <row r="163" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A163" s="3" t="s">
-        <v>224</v>
+        <v>431</v>
       </c>
       <c r="B163" s="3">
         <f t="shared" si="2"/>
@@ -7614,18 +7656,18 @@
         <v>0</v>
       </c>
       <c r="H163" s="5" t="s">
-        <v>404</v>
+        <v>371</v>
       </c>
       <c r="I163" t="s">
-        <v>413</v>
+        <v>429</v>
       </c>
       <c r="J163" t="s">
-        <v>421</v>
+        <v>386</v>
       </c>
     </row>
     <row r="164" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A164" s="3" t="s">
-        <v>225</v>
+        <v>432</v>
       </c>
       <c r="B164" s="3">
         <f t="shared" si="2"/>
@@ -7647,18 +7689,18 @@
         <v>0</v>
       </c>
       <c r="H164" s="5" t="s">
-        <v>404</v>
+        <v>371</v>
       </c>
       <c r="I164" t="s">
-        <v>413</v>
+        <v>429</v>
       </c>
       <c r="J164" t="s">
-        <v>421</v>
+        <v>386</v>
       </c>
     </row>
     <row r="165" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A165" s="3" t="s">
-        <v>226</v>
+        <v>193</v>
       </c>
       <c r="B165" s="3">
         <f t="shared" si="2"/>
@@ -7680,18 +7722,18 @@
         <v>0</v>
       </c>
       <c r="H165" s="5" t="s">
-        <v>404</v>
+        <v>371</v>
       </c>
       <c r="I165" t="s">
-        <v>413</v>
+        <v>435</v>
       </c>
       <c r="J165" t="s">
-        <v>421</v>
+        <v>386</v>
       </c>
     </row>
     <row r="166" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A166" s="3" t="s">
-        <v>227</v>
+        <v>194</v>
       </c>
       <c r="B166" s="3">
         <f t="shared" si="2"/>
@@ -7713,18 +7755,18 @@
         <v>0</v>
       </c>
       <c r="H166" s="5" t="s">
-        <v>404</v>
+        <v>371</v>
       </c>
       <c r="I166" t="s">
-        <v>413</v>
+        <v>435</v>
       </c>
       <c r="J166" t="s">
-        <v>421</v>
-      </c>
-    </row>
-    <row r="167" spans="1:10" x14ac:dyDescent="0.25">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="167" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A167" s="3" t="s">
-        <v>228</v>
+        <v>195</v>
       </c>
       <c r="B167" s="3">
         <f t="shared" si="2"/>
@@ -7746,18 +7788,18 @@
         <v>0</v>
       </c>
       <c r="H167" s="5" t="s">
-        <v>417</v>
+        <v>382</v>
       </c>
       <c r="I167" s="5" t="s">
-        <v>411</v>
+        <v>378</v>
       </c>
       <c r="J167" t="s">
-        <v>421</v>
-      </c>
-    </row>
-    <row r="168" spans="1:10" x14ac:dyDescent="0.25">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="168" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A168" s="3" t="s">
-        <v>229</v>
+        <v>196</v>
       </c>
       <c r="B168" s="3">
         <f t="shared" si="2"/>
@@ -7779,18 +7821,18 @@
         <v>0</v>
       </c>
       <c r="H168" s="5" t="s">
-        <v>417</v>
+        <v>382</v>
       </c>
       <c r="I168" s="5" t="s">
-        <v>411</v>
+        <v>378</v>
       </c>
       <c r="J168" t="s">
-        <v>421</v>
-      </c>
-    </row>
-    <row r="169" spans="1:10" x14ac:dyDescent="0.25">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="169" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A169" s="3" t="s">
-        <v>230</v>
+        <v>197</v>
       </c>
       <c r="B169" s="3">
         <f t="shared" si="2"/>
@@ -7812,18 +7854,18 @@
         <v>0</v>
       </c>
       <c r="H169" s="5" t="s">
-        <v>417</v>
+        <v>382</v>
       </c>
       <c r="I169" s="5" t="s">
-        <v>411</v>
+        <v>378</v>
       </c>
       <c r="J169" t="s">
-        <v>421</v>
-      </c>
-    </row>
-    <row r="170" spans="1:10" x14ac:dyDescent="0.25">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="170" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A170" s="3" t="s">
-        <v>231</v>
+        <v>198</v>
       </c>
       <c r="B170" s="3">
         <f t="shared" si="2"/>
@@ -7845,18 +7887,18 @@
         <v>0</v>
       </c>
       <c r="H170" s="5" t="s">
-        <v>417</v>
+        <v>382</v>
       </c>
       <c r="I170" s="5" t="s">
-        <v>411</v>
+        <v>378</v>
       </c>
       <c r="J170" t="s">
-        <v>421</v>
-      </c>
-    </row>
-    <row r="171" spans="1:10" x14ac:dyDescent="0.25">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="171" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A171" s="3" t="s">
-        <v>232</v>
+        <v>199</v>
       </c>
       <c r="B171" s="3">
         <f t="shared" si="2"/>
@@ -7878,18 +7920,18 @@
         <v>0</v>
       </c>
       <c r="H171" s="5" t="s">
-        <v>417</v>
+        <v>382</v>
       </c>
       <c r="I171" s="5" t="s">
-        <v>411</v>
+        <v>378</v>
       </c>
       <c r="J171" t="s">
-        <v>421</v>
-      </c>
-    </row>
-    <row r="172" spans="1:10" x14ac:dyDescent="0.25">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="172" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A172" s="3" t="s">
-        <v>233</v>
+        <v>200</v>
       </c>
       <c r="B172" s="3">
         <f t="shared" si="2"/>
@@ -7911,18 +7953,18 @@
         <v>0</v>
       </c>
       <c r="H172" s="5" t="s">
-        <v>417</v>
+        <v>382</v>
       </c>
       <c r="I172" s="5" t="s">
-        <v>411</v>
+        <v>378</v>
       </c>
       <c r="J172" t="s">
-        <v>421</v>
-      </c>
-    </row>
-    <row r="173" spans="1:10" x14ac:dyDescent="0.25">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="173" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A173" s="3" t="s">
-        <v>234</v>
+        <v>201</v>
       </c>
       <c r="B173" s="3">
         <f t="shared" si="2"/>
@@ -7944,18 +7986,18 @@
         <v>0</v>
       </c>
       <c r="H173" s="5" t="s">
-        <v>417</v>
+        <v>382</v>
       </c>
       <c r="I173" s="5" t="s">
-        <v>411</v>
+        <v>378</v>
       </c>
       <c r="J173" t="s">
-        <v>421</v>
-      </c>
-    </row>
-    <row r="174" spans="1:10" x14ac:dyDescent="0.25">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="174" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A174" s="3" t="s">
-        <v>235</v>
+        <v>202</v>
       </c>
       <c r="B174" s="3">
         <f t="shared" si="2"/>
@@ -7977,18 +8019,18 @@
         <v>0</v>
       </c>
       <c r="H174" s="5" t="s">
-        <v>417</v>
+        <v>382</v>
       </c>
       <c r="I174" s="5" t="s">
-        <v>411</v>
+        <v>378</v>
       </c>
       <c r="J174" t="s">
-        <v>421</v>
-      </c>
-    </row>
-    <row r="175" spans="1:10" x14ac:dyDescent="0.25">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="175" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A175" s="3" t="s">
-        <v>236</v>
+        <v>203</v>
       </c>
       <c r="B175" s="3">
         <f t="shared" si="2"/>
@@ -8010,18 +8052,18 @@
         <v>0</v>
       </c>
       <c r="H175" s="5" t="s">
-        <v>417</v>
+        <v>382</v>
       </c>
       <c r="I175" s="5" t="s">
-        <v>411</v>
+        <v>378</v>
       </c>
       <c r="J175" t="s">
-        <v>421</v>
-      </c>
-    </row>
-    <row r="176" spans="1:10" x14ac:dyDescent="0.25">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="176" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A176" s="3" t="s">
-        <v>237</v>
+        <v>204</v>
       </c>
       <c r="B176" s="3">
         <f t="shared" si="2"/>
@@ -8043,18 +8085,18 @@
         <v>0</v>
       </c>
       <c r="H176" s="5" t="s">
-        <v>417</v>
+        <v>382</v>
       </c>
       <c r="I176" s="5" t="s">
-        <v>411</v>
+        <v>378</v>
       </c>
       <c r="J176" t="s">
-        <v>421</v>
-      </c>
-    </row>
-    <row r="177" spans="1:10" x14ac:dyDescent="0.25">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="177" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A177" s="3" t="s">
-        <v>238</v>
+        <v>205</v>
       </c>
       <c r="B177" s="3">
         <f t="shared" si="2"/>
@@ -8076,18 +8118,18 @@
         <v>0</v>
       </c>
       <c r="H177" s="5" t="s">
-        <v>417</v>
+        <v>382</v>
       </c>
       <c r="I177" s="5" t="s">
-        <v>411</v>
+        <v>378</v>
       </c>
       <c r="J177" t="s">
-        <v>421</v>
-      </c>
-    </row>
-    <row r="178" spans="1:10" x14ac:dyDescent="0.25">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="178" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A178" s="3" t="s">
-        <v>239</v>
+        <v>206</v>
       </c>
       <c r="B178" s="3">
         <f t="shared" si="2"/>
@@ -8109,18 +8151,18 @@
         <v>0</v>
       </c>
       <c r="H178" s="5" t="s">
-        <v>417</v>
+        <v>382</v>
       </c>
       <c r="I178" s="5" t="s">
-        <v>411</v>
+        <v>378</v>
       </c>
       <c r="J178" t="s">
-        <v>421</v>
-      </c>
-    </row>
-    <row r="179" spans="1:10" x14ac:dyDescent="0.25">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="179" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A179" s="3" t="s">
-        <v>240</v>
+        <v>207</v>
       </c>
       <c r="B179" s="3">
         <f t="shared" si="2"/>
@@ -8142,18 +8184,18 @@
         <v>0</v>
       </c>
       <c r="H179" s="5" t="s">
-        <v>417</v>
+        <v>382</v>
       </c>
       <c r="I179" s="5" t="s">
-        <v>411</v>
+        <v>378</v>
       </c>
       <c r="J179" t="s">
-        <v>421</v>
-      </c>
-    </row>
-    <row r="180" spans="1:10" x14ac:dyDescent="0.25">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="180" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A180" s="3" t="s">
-        <v>241</v>
+        <v>208</v>
       </c>
       <c r="B180" s="3">
         <f t="shared" si="2"/>
@@ -8175,18 +8217,18 @@
         <v>0</v>
       </c>
       <c r="H180" s="5" t="s">
-        <v>417</v>
+        <v>382</v>
       </c>
       <c r="I180" s="5" t="s">
-        <v>411</v>
+        <v>378</v>
       </c>
       <c r="J180" t="s">
-        <v>421</v>
-      </c>
-    </row>
-    <row r="181" spans="1:10" x14ac:dyDescent="0.25">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="181" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A181" s="3" t="s">
-        <v>242</v>
+        <v>209</v>
       </c>
       <c r="B181" s="3">
         <f t="shared" si="2"/>
@@ -8208,18 +8250,18 @@
         <v>0</v>
       </c>
       <c r="H181" s="5" t="s">
-        <v>417</v>
+        <v>382</v>
       </c>
       <c r="I181" s="5" t="s">
-        <v>411</v>
+        <v>378</v>
       </c>
       <c r="J181" t="s">
-        <v>421</v>
-      </c>
-    </row>
-    <row r="182" spans="1:10" x14ac:dyDescent="0.25">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="182" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A182" s="3" t="s">
-        <v>243</v>
+        <v>210</v>
       </c>
       <c r="B182" s="3">
         <f t="shared" si="2"/>
@@ -8241,18 +8283,18 @@
         <v>0</v>
       </c>
       <c r="H182" s="5" t="s">
-        <v>417</v>
+        <v>382</v>
       </c>
       <c r="I182" s="5" t="s">
-        <v>411</v>
+        <v>378</v>
       </c>
       <c r="J182" t="s">
-        <v>421</v>
-      </c>
-    </row>
-    <row r="183" spans="1:10" x14ac:dyDescent="0.25">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="183" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A183" s="3" t="s">
-        <v>244</v>
+        <v>211</v>
       </c>
       <c r="B183" s="3">
         <f t="shared" si="2"/>
@@ -8274,18 +8316,18 @@
         <v>0</v>
       </c>
       <c r="H183" s="5" t="s">
-        <v>417</v>
+        <v>382</v>
       </c>
       <c r="I183" s="5" t="s">
-        <v>411</v>
+        <v>378</v>
       </c>
       <c r="J183" t="s">
-        <v>421</v>
-      </c>
-    </row>
-    <row r="184" spans="1:10" x14ac:dyDescent="0.25">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="184" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A184" s="3" t="s">
-        <v>245</v>
+        <v>212</v>
       </c>
       <c r="B184" s="3">
         <f t="shared" si="2"/>
@@ -8307,18 +8349,18 @@
         <v>0</v>
       </c>
       <c r="H184" s="5" t="s">
-        <v>417</v>
+        <v>382</v>
       </c>
       <c r="I184" s="5" t="s">
-        <v>411</v>
+        <v>378</v>
       </c>
       <c r="J184" t="s">
-        <v>421</v>
-      </c>
-    </row>
-    <row r="185" spans="1:10" x14ac:dyDescent="0.25">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="185" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A185" s="3" t="s">
-        <v>246</v>
+        <v>213</v>
       </c>
       <c r="B185" s="3">
         <f t="shared" si="2"/>
@@ -8340,18 +8382,18 @@
         <v>0</v>
       </c>
       <c r="H185" s="5" t="s">
-        <v>417</v>
+        <v>382</v>
       </c>
       <c r="I185" s="5" t="s">
-        <v>411</v>
+        <v>378</v>
       </c>
       <c r="J185" t="s">
-        <v>421</v>
-      </c>
-    </row>
-    <row r="186" spans="1:10" x14ac:dyDescent="0.25">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="186" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A186" s="3" t="s">
-        <v>247</v>
+        <v>214</v>
       </c>
       <c r="B186" s="3">
         <f t="shared" si="2"/>
@@ -8373,18 +8415,18 @@
         <v>0</v>
       </c>
       <c r="H186" s="5" t="s">
-        <v>417</v>
+        <v>382</v>
       </c>
       <c r="I186" s="5" t="s">
-        <v>411</v>
+        <v>378</v>
       </c>
       <c r="J186" t="s">
-        <v>421</v>
-      </c>
-    </row>
-    <row r="187" spans="1:10" x14ac:dyDescent="0.25">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="187" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A187" s="3" t="s">
-        <v>248</v>
+        <v>215</v>
       </c>
       <c r="B187" s="3">
         <f t="shared" si="2"/>
@@ -8406,18 +8448,18 @@
         <v>0</v>
       </c>
       <c r="H187" s="5" t="s">
-        <v>417</v>
+        <v>382</v>
       </c>
       <c r="I187" s="5" t="s">
-        <v>411</v>
+        <v>378</v>
       </c>
       <c r="J187" t="s">
-        <v>421</v>
-      </c>
-    </row>
-    <row r="188" spans="1:10" x14ac:dyDescent="0.25">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="188" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A188" s="3" t="s">
-        <v>249</v>
+        <v>216</v>
       </c>
       <c r="B188" s="3">
         <f t="shared" si="2"/>
@@ -8439,18 +8481,18 @@
         <v>0</v>
       </c>
       <c r="H188" s="5" t="s">
-        <v>417</v>
+        <v>382</v>
       </c>
       <c r="I188" s="5" t="s">
-        <v>411</v>
+        <v>378</v>
       </c>
       <c r="J188" t="s">
-        <v>421</v>
-      </c>
-    </row>
-    <row r="189" spans="1:10" x14ac:dyDescent="0.25">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="189" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A189" s="3" t="s">
-        <v>250</v>
+        <v>217</v>
       </c>
       <c r="B189" s="3">
         <f t="shared" si="2"/>
@@ -8472,18 +8514,18 @@
         <v>0</v>
       </c>
       <c r="H189" s="5" t="s">
-        <v>417</v>
+        <v>382</v>
       </c>
       <c r="I189" s="5" t="s">
-        <v>411</v>
+        <v>378</v>
       </c>
       <c r="J189" t="s">
-        <v>421</v>
-      </c>
-    </row>
-    <row r="190" spans="1:10" x14ac:dyDescent="0.25">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="190" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A190" s="3" t="s">
-        <v>251</v>
+        <v>218</v>
       </c>
       <c r="B190" s="3">
         <f t="shared" si="2"/>
@@ -8505,18 +8547,18 @@
         <v>0</v>
       </c>
       <c r="H190" s="5" t="s">
-        <v>417</v>
+        <v>382</v>
       </c>
       <c r="I190" s="5" t="s">
-        <v>411</v>
+        <v>378</v>
       </c>
       <c r="J190" t="s">
-        <v>421</v>
-      </c>
-    </row>
-    <row r="191" spans="1:10" x14ac:dyDescent="0.25">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="191" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A191" s="3" t="s">
-        <v>252</v>
+        <v>219</v>
       </c>
       <c r="B191" s="3">
         <f t="shared" si="2"/>
@@ -8538,18 +8580,18 @@
         <v>0</v>
       </c>
       <c r="H191" s="5" t="s">
-        <v>417</v>
+        <v>382</v>
       </c>
       <c r="I191" s="5" t="s">
-        <v>411</v>
+        <v>378</v>
       </c>
       <c r="J191" t="s">
-        <v>421</v>
-      </c>
-    </row>
-    <row r="192" spans="1:10" x14ac:dyDescent="0.25">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="192" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A192" s="3" t="s">
-        <v>253</v>
+        <v>220</v>
       </c>
       <c r="B192" s="3">
         <f t="shared" si="2"/>
@@ -8571,18 +8613,18 @@
         <v>0</v>
       </c>
       <c r="H192" s="5" t="s">
-        <v>417</v>
+        <v>382</v>
       </c>
       <c r="I192" s="5" t="s">
-        <v>411</v>
+        <v>378</v>
       </c>
       <c r="J192" t="s">
-        <v>421</v>
-      </c>
-    </row>
-    <row r="193" spans="1:10" x14ac:dyDescent="0.25">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="193" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A193" s="3" t="s">
-        <v>254</v>
+        <v>221</v>
       </c>
       <c r="B193" s="3">
         <f t="shared" si="2"/>
@@ -8604,18 +8646,18 @@
         <v>0</v>
       </c>
       <c r="H193" s="5" t="s">
-        <v>417</v>
+        <v>382</v>
       </c>
       <c r="I193" s="5" t="s">
-        <v>411</v>
+        <v>378</v>
       </c>
       <c r="J193" t="s">
-        <v>421</v>
-      </c>
-    </row>
-    <row r="194" spans="1:10" x14ac:dyDescent="0.25">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="194" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A194" s="3" t="s">
-        <v>255</v>
+        <v>222</v>
       </c>
       <c r="B194" s="3">
         <f t="shared" si="2"/>
@@ -8637,18 +8679,18 @@
         <v>0</v>
       </c>
       <c r="H194" s="5" t="s">
-        <v>417</v>
+        <v>382</v>
       </c>
       <c r="I194" s="5" t="s">
-        <v>411</v>
+        <v>378</v>
       </c>
       <c r="J194" t="s">
-        <v>421</v>
-      </c>
-    </row>
-    <row r="195" spans="1:10" x14ac:dyDescent="0.25">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="195" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A195" s="3" t="s">
-        <v>256</v>
+        <v>223</v>
       </c>
       <c r="B195" s="3">
         <f t="shared" ref="B195:B258" si="3">E195</f>
@@ -8670,18 +8712,18 @@
         <v>0</v>
       </c>
       <c r="H195" s="5" t="s">
-        <v>417</v>
+        <v>382</v>
       </c>
       <c r="I195" s="5" t="s">
-        <v>411</v>
+        <v>378</v>
       </c>
       <c r="J195" t="s">
-        <v>421</v>
-      </c>
-    </row>
-    <row r="196" spans="1:10" x14ac:dyDescent="0.25">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="196" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A196" s="3" t="s">
-        <v>257</v>
+        <v>224</v>
       </c>
       <c r="B196" s="3">
         <f t="shared" si="3"/>
@@ -8703,18 +8745,18 @@
         <v>0</v>
       </c>
       <c r="H196" s="5" t="s">
-        <v>417</v>
+        <v>382</v>
       </c>
       <c r="I196" s="5" t="s">
-        <v>411</v>
+        <v>378</v>
       </c>
       <c r="J196" t="s">
-        <v>421</v>
+        <v>386</v>
       </c>
     </row>
     <row r="197" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A197" s="3" t="s">
-        <v>258</v>
+        <v>225</v>
       </c>
       <c r="B197" s="3">
         <f t="shared" si="3"/>
@@ -8736,18 +8778,18 @@
         <v>0</v>
       </c>
       <c r="H197" s="5" t="s">
-        <v>404</v>
+        <v>420</v>
       </c>
       <c r="I197" s="5" t="s">
-        <v>411</v>
+        <v>424</v>
       </c>
       <c r="J197" t="s">
-        <v>421</v>
+        <v>386</v>
       </c>
     </row>
     <row r="198" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A198" s="3" t="s">
-        <v>259</v>
+        <v>226</v>
       </c>
       <c r="B198" s="3">
         <f t="shared" si="3"/>
@@ -8769,18 +8811,18 @@
         <v>0</v>
       </c>
       <c r="H198" s="5" t="s">
-        <v>404</v>
+        <v>420</v>
       </c>
       <c r="I198" s="5" t="s">
-        <v>411</v>
+        <v>424</v>
       </c>
       <c r="J198" t="s">
-        <v>421</v>
+        <v>386</v>
       </c>
     </row>
     <row r="199" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A199" s="3" t="s">
-        <v>260</v>
+        <v>227</v>
       </c>
       <c r="B199" s="3">
         <f t="shared" si="3"/>
@@ -8802,18 +8844,18 @@
         <v>0</v>
       </c>
       <c r="H199" s="5" t="s">
-        <v>404</v>
+        <v>420</v>
       </c>
       <c r="I199" s="5" t="s">
-        <v>411</v>
+        <v>424</v>
       </c>
       <c r="J199" t="s">
-        <v>421</v>
+        <v>386</v>
       </c>
     </row>
     <row r="200" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A200" s="3" t="s">
-        <v>261</v>
+        <v>228</v>
       </c>
       <c r="B200" s="3">
         <f t="shared" si="3"/>
@@ -8835,18 +8877,18 @@
         <v>0</v>
       </c>
       <c r="H200" s="5" t="s">
-        <v>404</v>
+        <v>420</v>
       </c>
       <c r="I200" s="5" t="s">
-        <v>411</v>
+        <v>424</v>
       </c>
       <c r="J200" t="s">
-        <v>421</v>
+        <v>386</v>
       </c>
     </row>
     <row r="201" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A201" s="3" t="s">
-        <v>262</v>
+        <v>229</v>
       </c>
       <c r="B201" s="3">
         <f t="shared" si="3"/>
@@ -8868,18 +8910,18 @@
         <v>0</v>
       </c>
       <c r="H201" s="5" t="s">
-        <v>404</v>
+        <v>420</v>
       </c>
       <c r="I201" s="5" t="s">
-        <v>411</v>
+        <v>424</v>
       </c>
       <c r="J201" t="s">
-        <v>421</v>
+        <v>386</v>
       </c>
     </row>
     <row r="202" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A202" s="3" t="s">
-        <v>263</v>
+        <v>230</v>
       </c>
       <c r="B202" s="3">
         <f t="shared" si="3"/>
@@ -8901,18 +8943,18 @@
         <v>0</v>
       </c>
       <c r="H202" s="5" t="s">
-        <v>404</v>
+        <v>371</v>
       </c>
       <c r="I202" s="5" t="s">
-        <v>416</v>
+        <v>434</v>
       </c>
       <c r="J202" t="s">
-        <v>421</v>
+        <v>386</v>
       </c>
     </row>
     <row r="203" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A203" s="3" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="B203" s="3">
         <f t="shared" si="3"/>
@@ -8934,18 +8976,18 @@
         <v>0</v>
       </c>
       <c r="H203" s="5" t="s">
-        <v>404</v>
+        <v>371</v>
       </c>
       <c r="I203" s="5" t="s">
-        <v>416</v>
+        <v>434</v>
       </c>
       <c r="J203" t="s">
-        <v>421</v>
+        <v>386</v>
       </c>
     </row>
     <row r="204" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A204" s="3" t="s">
-        <v>264</v>
+        <v>231</v>
       </c>
       <c r="B204" s="3">
         <f t="shared" si="3"/>
@@ -8967,18 +9009,18 @@
         <v>0</v>
       </c>
       <c r="H204" s="5" t="s">
-        <v>404</v>
+        <v>371</v>
       </c>
       <c r="I204" s="5" t="s">
-        <v>416</v>
+        <v>434</v>
       </c>
       <c r="J204" t="s">
-        <v>421</v>
+        <v>386</v>
       </c>
     </row>
     <row r="205" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A205" s="3" t="s">
-        <v>265</v>
+        <v>232</v>
       </c>
       <c r="B205" s="3">
         <f t="shared" si="3"/>
@@ -9000,18 +9042,18 @@
         <v>0</v>
       </c>
       <c r="H205" s="5" t="s">
-        <v>404</v>
-      </c>
-      <c r="I205" s="5" t="s">
-        <v>416</v>
+        <v>371</v>
+      </c>
+      <c r="I205" t="s">
+        <v>380</v>
       </c>
       <c r="J205" t="s">
-        <v>421</v>
+        <v>386</v>
       </c>
     </row>
     <row r="206" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A206" s="3" t="s">
-        <v>266</v>
+        <v>233</v>
       </c>
       <c r="B206" s="3">
         <f t="shared" si="3"/>
@@ -9033,18 +9075,18 @@
         <v>0</v>
       </c>
       <c r="H206" s="5" t="s">
-        <v>404</v>
+        <v>371</v>
       </c>
       <c r="I206" s="5" t="s">
-        <v>20</v>
+        <v>427</v>
       </c>
       <c r="J206" t="s">
-        <v>421</v>
+        <v>386</v>
       </c>
     </row>
     <row r="207" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A207" s="3" t="s">
-        <v>267</v>
+        <v>234</v>
       </c>
       <c r="B207" s="3">
         <f t="shared" si="3"/>
@@ -9066,18 +9108,18 @@
         <v>0</v>
       </c>
       <c r="H207" s="5" t="s">
-        <v>404</v>
+        <v>371</v>
       </c>
       <c r="I207" s="5" t="s">
-        <v>20</v>
+        <v>427</v>
       </c>
       <c r="J207" t="s">
-        <v>421</v>
+        <v>386</v>
       </c>
     </row>
     <row r="208" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A208" s="3" t="s">
-        <v>268</v>
+        <v>235</v>
       </c>
       <c r="B208" s="3">
         <f t="shared" si="3"/>
@@ -9099,18 +9141,18 @@
         <v>0</v>
       </c>
       <c r="H208" s="5" t="s">
-        <v>404</v>
+        <v>371</v>
       </c>
       <c r="I208" s="5" t="s">
-        <v>20</v>
+        <v>427</v>
       </c>
       <c r="J208" t="s">
-        <v>421</v>
+        <v>386</v>
       </c>
     </row>
     <row r="209" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A209" s="3" t="s">
-        <v>269</v>
+        <v>236</v>
       </c>
       <c r="B209" s="3">
         <f t="shared" si="3"/>
@@ -9132,18 +9174,18 @@
         <v>6</v>
       </c>
       <c r="H209" s="5" t="s">
-        <v>404</v>
+        <v>420</v>
       </c>
       <c r="I209" s="5" t="s">
-        <v>20</v>
+        <v>424</v>
       </c>
       <c r="J209" t="s">
-        <v>421</v>
+        <v>386</v>
       </c>
     </row>
     <row r="210" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A210" s="3" t="s">
-        <v>270</v>
+        <v>237</v>
       </c>
       <c r="B210" s="3">
         <f t="shared" si="3"/>
@@ -9165,18 +9207,18 @@
         <v>0</v>
       </c>
       <c r="H210" s="5" t="s">
-        <v>404</v>
+        <v>371</v>
       </c>
       <c r="I210" s="5" t="s">
-        <v>20</v>
+        <v>427</v>
       </c>
       <c r="J210" t="s">
-        <v>421</v>
+        <v>386</v>
       </c>
     </row>
     <row r="211" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A211" s="3" t="s">
-        <v>271</v>
+        <v>238</v>
       </c>
       <c r="B211" s="3">
         <f t="shared" si="3"/>
@@ -9198,18 +9240,18 @@
         <v>6</v>
       </c>
       <c r="H211" s="5" t="s">
-        <v>404</v>
+        <v>371</v>
       </c>
       <c r="I211" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="J211" t="s">
-        <v>421</v>
+        <v>386</v>
       </c>
     </row>
     <row r="212" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A212" s="3" t="s">
-        <v>272</v>
+        <v>239</v>
       </c>
       <c r="B212" s="3">
         <f t="shared" si="3"/>
@@ -9231,18 +9273,18 @@
         <v>0</v>
       </c>
       <c r="H212" s="5" t="s">
-        <v>404</v>
+        <v>371</v>
       </c>
       <c r="I212" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="J212" t="s">
-        <v>421</v>
+        <v>386</v>
       </c>
     </row>
     <row r="213" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A213" s="3" t="s">
-        <v>273</v>
+        <v>240</v>
       </c>
       <c r="B213" s="3">
         <f t="shared" si="3"/>
@@ -9264,18 +9306,18 @@
         <v>0</v>
       </c>
       <c r="H213" s="5" t="s">
-        <v>404</v>
+        <v>371</v>
       </c>
       <c r="I213" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="J213" t="s">
-        <v>421</v>
+        <v>386</v>
       </c>
     </row>
     <row r="214" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A214" s="3" t="s">
-        <v>274</v>
+        <v>241</v>
       </c>
       <c r="B214" s="3">
         <f t="shared" si="3"/>
@@ -9297,18 +9339,18 @@
         <v>0</v>
       </c>
       <c r="H214" s="5" t="s">
-        <v>404</v>
+        <v>418</v>
       </c>
       <c r="I214" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="J214" t="s">
-        <v>421</v>
+        <v>386</v>
       </c>
     </row>
     <row r="215" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A215" s="3" t="s">
-        <v>275</v>
+        <v>242</v>
       </c>
       <c r="B215" s="3">
         <f t="shared" si="3"/>
@@ -9330,18 +9372,18 @@
         <v>0</v>
       </c>
       <c r="H215" s="5" t="s">
-        <v>404</v>
+        <v>418</v>
       </c>
       <c r="I215" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="J215" t="s">
-        <v>421</v>
+        <v>386</v>
       </c>
     </row>
     <row r="216" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A216" s="3" t="s">
-        <v>276</v>
+        <v>243</v>
       </c>
       <c r="B216" s="3">
         <f t="shared" si="3"/>
@@ -9363,18 +9405,18 @@
         <v>0</v>
       </c>
       <c r="H216" s="5" t="s">
-        <v>404</v>
+        <v>418</v>
       </c>
       <c r="I216" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="J216" t="s">
-        <v>421</v>
+        <v>386</v>
       </c>
     </row>
     <row r="217" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A217" s="3" t="s">
-        <v>277</v>
+        <v>244</v>
       </c>
       <c r="B217" s="3">
         <f t="shared" si="3"/>
@@ -9396,18 +9438,18 @@
         <v>0</v>
       </c>
       <c r="H217" s="5" t="s">
-        <v>404</v>
+        <v>418</v>
       </c>
       <c r="I217" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="J217" t="s">
-        <v>421</v>
+        <v>386</v>
       </c>
     </row>
     <row r="218" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A218" s="3" t="s">
-        <v>278</v>
+        <v>245</v>
       </c>
       <c r="B218" s="3">
         <f t="shared" si="3"/>
@@ -9429,18 +9471,18 @@
         <v>0</v>
       </c>
       <c r="H218" s="5" t="s">
-        <v>404</v>
+        <v>420</v>
       </c>
       <c r="I218" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="J218" t="s">
-        <v>421</v>
+        <v>386</v>
       </c>
     </row>
     <row r="219" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A219" s="3" t="s">
-        <v>279</v>
+        <v>246</v>
       </c>
       <c r="B219" s="3">
         <f t="shared" si="3"/>
@@ -9462,18 +9504,18 @@
         <v>0</v>
       </c>
       <c r="H219" s="5" t="s">
-        <v>404</v>
+        <v>411</v>
       </c>
       <c r="I219" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="J219" t="s">
-        <v>421</v>
+        <v>386</v>
       </c>
     </row>
     <row r="220" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A220" s="3" t="s">
-        <v>280</v>
+        <v>247</v>
       </c>
       <c r="B220" s="3">
         <f t="shared" si="3"/>
@@ -9495,18 +9537,18 @@
         <v>0</v>
       </c>
       <c r="H220" s="5" t="s">
-        <v>404</v>
+        <v>411</v>
       </c>
       <c r="I220" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="J220" t="s">
-        <v>421</v>
+        <v>386</v>
       </c>
     </row>
     <row r="221" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A221" s="3" t="s">
-        <v>281</v>
+        <v>248</v>
       </c>
       <c r="B221" s="3">
         <f t="shared" si="3"/>
@@ -9528,18 +9570,18 @@
         <v>0</v>
       </c>
       <c r="H221" s="5" t="s">
-        <v>404</v>
+        <v>420</v>
       </c>
       <c r="I221" s="5" t="s">
-        <v>20</v>
+        <v>424</v>
       </c>
       <c r="J221" t="s">
-        <v>421</v>
+        <v>386</v>
       </c>
     </row>
     <row r="222" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A222" s="3" t="s">
-        <v>282</v>
+        <v>249</v>
       </c>
       <c r="B222" s="3">
         <f t="shared" si="3"/>
@@ -9561,18 +9603,18 @@
         <v>0</v>
       </c>
       <c r="H222" s="5" t="s">
-        <v>404</v>
+        <v>371</v>
       </c>
       <c r="I222" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="J222" t="s">
-        <v>421</v>
+        <v>386</v>
       </c>
     </row>
     <row r="223" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A223" s="3" t="s">
-        <v>283</v>
+        <v>250</v>
       </c>
       <c r="B223" s="3">
         <f t="shared" si="3"/>
@@ -9594,18 +9636,18 @@
         <v>7</v>
       </c>
       <c r="H223" s="5" t="s">
-        <v>404</v>
+        <v>371</v>
       </c>
       <c r="I223" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="J223" t="s">
-        <v>421</v>
+        <v>386</v>
       </c>
     </row>
     <row r="224" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A224" s="3" t="s">
-        <v>284</v>
+        <v>251</v>
       </c>
       <c r="B224" s="3">
         <f t="shared" si="3"/>
@@ -9627,18 +9669,18 @@
         <v>8</v>
       </c>
       <c r="H224" s="5" t="s">
-        <v>404</v>
+        <v>371</v>
       </c>
       <c r="I224" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="J224" t="s">
-        <v>421</v>
+        <v>386</v>
       </c>
     </row>
     <row r="225" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A225" s="3" t="s">
-        <v>285</v>
+        <v>252</v>
       </c>
       <c r="B225" s="3">
         <f t="shared" si="3"/>
@@ -9660,18 +9702,18 @@
         <v>0</v>
       </c>
       <c r="H225" s="5" t="s">
-        <v>404</v>
+        <v>371</v>
       </c>
       <c r="I225" s="5" t="s">
-        <v>20</v>
+        <v>428</v>
       </c>
       <c r="J225" t="s">
-        <v>421</v>
+        <v>386</v>
       </c>
     </row>
     <row r="226" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A226" s="3" t="s">
-        <v>286</v>
+        <v>253</v>
       </c>
       <c r="B226" s="3">
         <f t="shared" si="3"/>
@@ -9693,18 +9735,18 @@
         <v>0</v>
       </c>
       <c r="H226" s="5" t="s">
-        <v>404</v>
+        <v>371</v>
       </c>
       <c r="I226" s="5" t="s">
-        <v>20</v>
+        <v>428</v>
       </c>
       <c r="J226" t="s">
-        <v>421</v>
+        <v>386</v>
       </c>
     </row>
     <row r="227" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A227" s="3" t="s">
-        <v>287</v>
+        <v>254</v>
       </c>
       <c r="B227" s="3">
         <f t="shared" si="3"/>
@@ -9726,18 +9768,18 @@
         <v>0</v>
       </c>
       <c r="H227" s="5" t="s">
-        <v>404</v>
+        <v>371</v>
       </c>
       <c r="I227" s="5" t="s">
-        <v>20</v>
+        <v>428</v>
       </c>
       <c r="J227" t="s">
-        <v>421</v>
+        <v>386</v>
       </c>
     </row>
     <row r="228" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A228" s="3" t="s">
-        <v>288</v>
+        <v>255</v>
       </c>
       <c r="B228" s="3">
         <f t="shared" si="3"/>
@@ -9759,18 +9801,18 @@
         <v>0</v>
       </c>
       <c r="H228" s="5" t="s">
-        <v>404</v>
+        <v>371</v>
       </c>
       <c r="I228" s="5" t="s">
-        <v>20</v>
+        <v>428</v>
       </c>
       <c r="J228" t="s">
-        <v>421</v>
+        <v>386</v>
       </c>
     </row>
     <row r="229" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A229" s="3" t="s">
-        <v>289</v>
+        <v>256</v>
       </c>
       <c r="B229" s="3">
         <f t="shared" si="3"/>
@@ -9792,18 +9834,18 @@
         <v>0</v>
       </c>
       <c r="H229" s="5" t="s">
-        <v>404</v>
+        <v>371</v>
       </c>
       <c r="I229" s="5" t="s">
-        <v>20</v>
+        <v>428</v>
       </c>
       <c r="J229" t="s">
-        <v>421</v>
+        <v>386</v>
       </c>
     </row>
     <row r="230" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A230" s="3" t="s">
-        <v>290</v>
+        <v>257</v>
       </c>
       <c r="B230" s="3">
         <f t="shared" si="3"/>
@@ -9825,18 +9867,18 @@
         <v>0</v>
       </c>
       <c r="H230" s="5" t="s">
-        <v>404</v>
+        <v>371</v>
       </c>
       <c r="I230" s="5" t="s">
-        <v>20</v>
+        <v>428</v>
       </c>
       <c r="J230" t="s">
-        <v>421</v>
+        <v>386</v>
       </c>
     </row>
     <row r="231" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A231" s="3" t="s">
-        <v>291</v>
+        <v>258</v>
       </c>
       <c r="B231" s="3">
         <f t="shared" si="3"/>
@@ -9858,18 +9900,18 @@
         <v>0</v>
       </c>
       <c r="H231" s="5" t="s">
-        <v>404</v>
+        <v>371</v>
       </c>
       <c r="I231" s="5" t="s">
-        <v>20</v>
+        <v>428</v>
       </c>
       <c r="J231" t="s">
-        <v>421</v>
+        <v>386</v>
       </c>
     </row>
     <row r="232" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A232" s="3" t="s">
-        <v>292</v>
+        <v>259</v>
       </c>
       <c r="B232" s="3">
         <f t="shared" si="3"/>
@@ -9891,18 +9933,18 @@
         <v>10</v>
       </c>
       <c r="H232" s="5" t="s">
-        <v>404</v>
+        <v>371</v>
       </c>
       <c r="I232" s="5" t="s">
-        <v>20</v>
+        <v>428</v>
       </c>
       <c r="J232" t="s">
-        <v>421</v>
+        <v>386</v>
       </c>
     </row>
     <row r="233" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A233" s="3" t="s">
-        <v>293</v>
+        <v>260</v>
       </c>
       <c r="B233" s="3">
         <f t="shared" si="3"/>
@@ -9924,18 +9966,18 @@
         <v>0</v>
       </c>
       <c r="H233" s="5" t="s">
-        <v>404</v>
+        <v>371</v>
       </c>
       <c r="I233" s="5" t="s">
-        <v>20</v>
+        <v>428</v>
       </c>
       <c r="J233" t="s">
-        <v>421</v>
+        <v>386</v>
       </c>
     </row>
     <row r="234" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A234" s="3" t="s">
-        <v>294</v>
+        <v>261</v>
       </c>
       <c r="B234" s="3">
         <f t="shared" si="3"/>
@@ -9957,18 +9999,18 @@
         <v>0</v>
       </c>
       <c r="H234" s="5" t="s">
-        <v>404</v>
+        <v>371</v>
       </c>
       <c r="I234" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="J234" t="s">
-        <v>421</v>
+        <v>386</v>
       </c>
     </row>
     <row r="235" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A235" s="3" t="s">
-        <v>295</v>
+        <v>262</v>
       </c>
       <c r="B235" s="3">
         <f t="shared" si="3"/>
@@ -9990,18 +10032,18 @@
         <v>0</v>
       </c>
       <c r="H235" s="5" t="s">
-        <v>404</v>
+        <v>411</v>
       </c>
       <c r="I235" s="5" t="s">
-        <v>20</v>
+        <v>419</v>
       </c>
       <c r="J235" t="s">
-        <v>421</v>
+        <v>386</v>
       </c>
     </row>
     <row r="236" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A236" s="3" t="s">
-        <v>296</v>
+        <v>263</v>
       </c>
       <c r="B236" s="3">
         <f t="shared" si="3"/>
@@ -10023,18 +10065,18 @@
         <v>0</v>
       </c>
       <c r="H236" s="5" t="s">
-        <v>404</v>
+        <v>411</v>
       </c>
       <c r="I236" s="5" t="s">
-        <v>20</v>
+        <v>419</v>
       </c>
       <c r="J236" t="s">
-        <v>421</v>
+        <v>386</v>
       </c>
     </row>
     <row r="237" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A237" s="3" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
       <c r="B237" s="3">
         <f t="shared" si="3"/>
@@ -10056,18 +10098,18 @@
         <v>0</v>
       </c>
       <c r="H237" s="5" t="s">
-        <v>404</v>
+        <v>411</v>
       </c>
       <c r="I237" s="5" t="s">
-        <v>20</v>
+        <v>419</v>
       </c>
       <c r="J237" t="s">
-        <v>421</v>
+        <v>386</v>
       </c>
     </row>
     <row r="238" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A238" s="3" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="B238" s="3">
         <f t="shared" si="3"/>
@@ -10089,18 +10131,18 @@
         <v>0</v>
       </c>
       <c r="H238" s="5" t="s">
-        <v>404</v>
+        <v>411</v>
       </c>
       <c r="I238" s="5" t="s">
-        <v>20</v>
+        <v>419</v>
       </c>
       <c r="J238" t="s">
-        <v>421</v>
+        <v>386</v>
       </c>
     </row>
     <row r="239" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A239" s="3" t="s">
-        <v>297</v>
+        <v>264</v>
       </c>
       <c r="B239" s="3">
         <f t="shared" si="3"/>
@@ -10122,18 +10164,18 @@
         <v>0</v>
       </c>
       <c r="H239" s="5" t="s">
-        <v>404</v>
+        <v>371</v>
       </c>
       <c r="I239" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="J239" t="s">
-        <v>421</v>
+        <v>386</v>
       </c>
     </row>
     <row r="240" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A240" s="3" t="s">
-        <v>298</v>
+        <v>265</v>
       </c>
       <c r="B240" s="3">
         <f t="shared" si="3"/>
@@ -10155,18 +10197,18 @@
         <v>0</v>
       </c>
       <c r="H240" s="5" t="s">
-        <v>404</v>
+        <v>371</v>
       </c>
       <c r="I240" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="J240" t="s">
-        <v>421</v>
+        <v>386</v>
       </c>
     </row>
     <row r="241" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A241" s="3" t="s">
-        <v>299</v>
+        <v>266</v>
       </c>
       <c r="B241" s="3">
         <f t="shared" si="3"/>
@@ -10188,18 +10230,18 @@
         <v>0</v>
       </c>
       <c r="H241" s="5" t="s">
-        <v>404</v>
+        <v>371</v>
       </c>
       <c r="I241" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="J241" t="s">
-        <v>421</v>
+        <v>386</v>
       </c>
     </row>
     <row r="242" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A242" s="3" t="s">
-        <v>300</v>
+        <v>267</v>
       </c>
       <c r="B242" s="3">
         <f t="shared" si="3"/>
@@ -10221,18 +10263,18 @@
         <v>0</v>
       </c>
       <c r="H242" s="5" t="s">
-        <v>404</v>
+        <v>371</v>
       </c>
       <c r="I242" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="J242" t="s">
-        <v>421</v>
+        <v>386</v>
       </c>
     </row>
     <row r="243" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A243" s="3" t="s">
-        <v>301</v>
+        <v>268</v>
       </c>
       <c r="B243" s="3">
         <f t="shared" si="3"/>
@@ -10254,18 +10296,18 @@
         <v>0</v>
       </c>
       <c r="H243" s="5" t="s">
-        <v>404</v>
+        <v>371</v>
       </c>
       <c r="I243" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="J243" t="s">
-        <v>421</v>
+        <v>386</v>
       </c>
     </row>
     <row r="244" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A244" s="3" t="s">
-        <v>302</v>
+        <v>269</v>
       </c>
       <c r="B244" s="3">
         <f t="shared" si="3"/>
@@ -10287,18 +10329,18 @@
         <v>0</v>
       </c>
       <c r="H244" s="5" t="s">
-        <v>404</v>
+        <v>371</v>
       </c>
       <c r="I244" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="J244" t="s">
-        <v>421</v>
+        <v>386</v>
       </c>
     </row>
     <row r="245" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A245" s="3" t="s">
-        <v>303</v>
+        <v>270</v>
       </c>
       <c r="B245" s="3">
         <f t="shared" si="3"/>
@@ -10320,18 +10362,18 @@
         <v>0</v>
       </c>
       <c r="H245" s="5" t="s">
-        <v>404</v>
+        <v>371</v>
       </c>
       <c r="I245" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="J245" t="s">
-        <v>421</v>
+        <v>386</v>
       </c>
     </row>
     <row r="246" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A246" s="3" t="s">
-        <v>304</v>
+        <v>271</v>
       </c>
       <c r="B246" s="3">
         <f t="shared" si="3"/>
@@ -10353,18 +10395,18 @@
         <v>0</v>
       </c>
       <c r="H246" s="5" t="s">
-        <v>404</v>
+        <v>371</v>
       </c>
       <c r="I246" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="J246" t="s">
-        <v>421</v>
+        <v>386</v>
       </c>
     </row>
     <row r="247" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A247" s="3" t="s">
-        <v>305</v>
+        <v>272</v>
       </c>
       <c r="B247" s="3">
         <f t="shared" si="3"/>
@@ -10386,18 +10428,18 @@
         <v>9</v>
       </c>
       <c r="H247" s="5" t="s">
-        <v>404</v>
+        <v>371</v>
       </c>
       <c r="I247" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="J247" t="s">
-        <v>421</v>
+        <v>386</v>
       </c>
     </row>
     <row r="248" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A248" s="3" t="s">
-        <v>306</v>
+        <v>273</v>
       </c>
       <c r="B248" s="3">
         <f t="shared" si="3"/>
@@ -10419,18 +10461,18 @@
         <v>0</v>
       </c>
       <c r="H248" s="5" t="s">
-        <v>404</v>
+        <v>371</v>
       </c>
       <c r="I248" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="J248" t="s">
-        <v>421</v>
+        <v>386</v>
       </c>
     </row>
     <row r="249" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A249" s="3" t="s">
-        <v>307</v>
+        <v>274</v>
       </c>
       <c r="B249" s="3">
         <f t="shared" si="3"/>
@@ -10452,18 +10494,18 @@
         <v>0</v>
       </c>
       <c r="H249" s="5" t="s">
-        <v>404</v>
+        <v>371</v>
       </c>
       <c r="I249" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="J249" t="s">
-        <v>421</v>
+        <v>386</v>
       </c>
     </row>
     <row r="250" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A250" s="3" t="s">
-        <v>308</v>
+        <v>275</v>
       </c>
       <c r="B250" s="3">
         <f t="shared" si="3"/>
@@ -10485,18 +10527,18 @@
         <v>0</v>
       </c>
       <c r="H250" s="5" t="s">
-        <v>404</v>
+        <v>371</v>
       </c>
       <c r="I250" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="J250" t="s">
-        <v>421</v>
+        <v>386</v>
       </c>
     </row>
     <row r="251" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A251" s="3" t="s">
-        <v>309</v>
+        <v>276</v>
       </c>
       <c r="B251" s="3">
         <f t="shared" si="3"/>
@@ -10518,18 +10560,18 @@
         <v>0</v>
       </c>
       <c r="H251" s="5" t="s">
-        <v>404</v>
+        <v>371</v>
       </c>
       <c r="I251" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="J251" t="s">
-        <v>421</v>
+        <v>386</v>
       </c>
     </row>
     <row r="252" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A252" s="3" t="s">
-        <v>310</v>
+        <v>277</v>
       </c>
       <c r="B252" s="3">
         <f t="shared" si="3"/>
@@ -10551,18 +10593,18 @@
         <v>0</v>
       </c>
       <c r="H252" s="5" t="s">
-        <v>404</v>
+        <v>371</v>
       </c>
       <c r="I252" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="J252" t="s">
-        <v>421</v>
+        <v>386</v>
       </c>
     </row>
     <row r="253" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A253" s="3" t="s">
-        <v>311</v>
+        <v>278</v>
       </c>
       <c r="B253" s="3">
         <f t="shared" si="3"/>
@@ -10584,18 +10626,18 @@
         <v>0</v>
       </c>
       <c r="H253" s="5" t="s">
-        <v>404</v>
+        <v>371</v>
       </c>
       <c r="I253" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="J253" t="s">
-        <v>421</v>
+        <v>386</v>
       </c>
     </row>
     <row r="254" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A254" s="3" t="s">
-        <v>312</v>
+        <v>279</v>
       </c>
       <c r="B254" s="3">
         <f t="shared" si="3"/>
@@ -10617,18 +10659,18 @@
         <v>0</v>
       </c>
       <c r="H254" s="5" t="s">
-        <v>404</v>
+        <v>371</v>
       </c>
       <c r="I254" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="J254" t="s">
-        <v>421</v>
+        <v>386</v>
       </c>
     </row>
     <row r="255" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A255" s="3" t="s">
-        <v>313</v>
+        <v>280</v>
       </c>
       <c r="B255" s="3">
         <f t="shared" si="3"/>
@@ -10650,18 +10692,18 @@
         <v>0</v>
       </c>
       <c r="H255" s="5" t="s">
-        <v>404</v>
+        <v>371</v>
       </c>
       <c r="I255" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="J255" t="s">
-        <v>421</v>
+        <v>386</v>
       </c>
     </row>
     <row r="256" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A256" s="3" t="s">
-        <v>314</v>
+        <v>281</v>
       </c>
       <c r="B256" s="3">
         <f t="shared" si="3"/>
@@ -10683,18 +10725,18 @@
         <v>0</v>
       </c>
       <c r="H256" s="5" t="s">
-        <v>404</v>
+        <v>371</v>
       </c>
       <c r="I256" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="J256" t="s">
-        <v>421</v>
+        <v>386</v>
       </c>
     </row>
     <row r="257" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A257" s="3" t="s">
-        <v>315</v>
+        <v>282</v>
       </c>
       <c r="B257" s="3">
         <f t="shared" si="3"/>
@@ -10716,18 +10758,18 @@
         <v>0</v>
       </c>
       <c r="H257" s="5" t="s">
-        <v>404</v>
+        <v>371</v>
       </c>
       <c r="I257" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="J257" t="s">
-        <v>421</v>
+        <v>386</v>
       </c>
     </row>
     <row r="258" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A258" s="3" t="s">
-        <v>316</v>
+        <v>283</v>
       </c>
       <c r="B258" s="3">
         <f t="shared" si="3"/>
@@ -10749,18 +10791,18 @@
         <v>0</v>
       </c>
       <c r="H258" s="5" t="s">
-        <v>404</v>
+        <v>371</v>
       </c>
       <c r="I258" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="J258" t="s">
-        <v>421</v>
+        <v>386</v>
       </c>
     </row>
     <row r="259" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A259" s="3" t="s">
-        <v>317</v>
+        <v>284</v>
       </c>
       <c r="B259" s="3">
         <f t="shared" ref="B259:B317" si="4">E259</f>
@@ -10782,18 +10824,18 @@
         <v>0</v>
       </c>
       <c r="H259" s="5" t="s">
-        <v>404</v>
+        <v>371</v>
       </c>
       <c r="I259" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="J259" t="s">
-        <v>421</v>
+        <v>386</v>
       </c>
     </row>
     <row r="260" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A260" s="3" t="s">
-        <v>318</v>
+        <v>285</v>
       </c>
       <c r="B260" s="3">
         <f t="shared" si="4"/>
@@ -10815,18 +10857,18 @@
         <v>0</v>
       </c>
       <c r="H260" s="5" t="s">
-        <v>404</v>
+        <v>371</v>
       </c>
       <c r="I260" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="J260" t="s">
-        <v>421</v>
+        <v>386</v>
       </c>
     </row>
     <row r="261" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A261" s="3" t="s">
-        <v>319</v>
+        <v>286</v>
       </c>
       <c r="B261" s="3">
         <f t="shared" si="4"/>
@@ -10848,18 +10890,18 @@
         <v>0</v>
       </c>
       <c r="H261" s="5" t="s">
-        <v>404</v>
+        <v>371</v>
       </c>
       <c r="I261" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="J261" t="s">
-        <v>421</v>
+        <v>386</v>
       </c>
     </row>
     <row r="262" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A262" s="3" t="s">
-        <v>320</v>
+        <v>287</v>
       </c>
       <c r="B262" s="3">
         <f t="shared" si="4"/>
@@ -10881,18 +10923,18 @@
         <v>0</v>
       </c>
       <c r="H262" s="5" t="s">
-        <v>404</v>
+        <v>371</v>
       </c>
       <c r="I262" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="J262" t="s">
-        <v>421</v>
+        <v>386</v>
       </c>
     </row>
     <row r="263" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A263" s="3" t="s">
-        <v>321</v>
+        <v>288</v>
       </c>
       <c r="B263" s="3">
         <f t="shared" si="4"/>
@@ -10914,18 +10956,18 @@
         <v>0</v>
       </c>
       <c r="H263" s="5" t="s">
-        <v>404</v>
+        <v>371</v>
       </c>
       <c r="I263" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="J263" t="s">
-        <v>421</v>
+        <v>386</v>
       </c>
     </row>
     <row r="264" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A264" s="3" t="s">
-        <v>322</v>
+        <v>289</v>
       </c>
       <c r="B264" s="3">
         <f t="shared" si="4"/>
@@ -10947,18 +10989,18 @@
         <v>0</v>
       </c>
       <c r="H264" s="5" t="s">
-        <v>404</v>
+        <v>371</v>
       </c>
       <c r="I264" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="J264" t="s">
-        <v>421</v>
+        <v>386</v>
       </c>
     </row>
     <row r="265" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A265" s="3" t="s">
-        <v>323</v>
+        <v>290</v>
       </c>
       <c r="B265" s="3">
         <f t="shared" si="4"/>
@@ -10980,18 +11022,18 @@
         <v>0</v>
       </c>
       <c r="H265" s="5" t="s">
-        <v>404</v>
+        <v>371</v>
       </c>
       <c r="I265" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="J265" t="s">
-        <v>421</v>
+        <v>386</v>
       </c>
     </row>
     <row r="266" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A266" s="3" t="s">
-        <v>324</v>
+        <v>291</v>
       </c>
       <c r="B266" s="3">
         <f t="shared" si="4"/>
@@ -11013,18 +11055,18 @@
         <v>0</v>
       </c>
       <c r="H266" s="5" t="s">
-        <v>404</v>
+        <v>371</v>
       </c>
       <c r="I266" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="J266" t="s">
-        <v>421</v>
+        <v>386</v>
       </c>
     </row>
     <row r="267" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A267" s="3" t="s">
-        <v>325</v>
+        <v>292</v>
       </c>
       <c r="B267" s="3">
         <f t="shared" si="4"/>
@@ -11046,18 +11088,18 @@
         <v>0</v>
       </c>
       <c r="H267" s="5" t="s">
-        <v>404</v>
+        <v>371</v>
       </c>
       <c r="I267" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="J267" t="s">
-        <v>421</v>
+        <v>386</v>
       </c>
     </row>
     <row r="268" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A268" s="3" t="s">
-        <v>326</v>
+        <v>293</v>
       </c>
       <c r="B268" s="3">
         <f t="shared" si="4"/>
@@ -11079,18 +11121,18 @@
         <v>0</v>
       </c>
       <c r="H268" s="5" t="s">
-        <v>404</v>
+        <v>371</v>
       </c>
       <c r="I268" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="J268" t="s">
-        <v>421</v>
+        <v>386</v>
       </c>
     </row>
     <row r="269" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A269" s="3" t="s">
-        <v>327</v>
+        <v>294</v>
       </c>
       <c r="B269" s="3">
         <f t="shared" si="4"/>
@@ -11112,18 +11154,18 @@
         <v>0</v>
       </c>
       <c r="H269" s="5" t="s">
-        <v>404</v>
+        <v>371</v>
       </c>
       <c r="I269" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="J269" t="s">
-        <v>421</v>
+        <v>386</v>
       </c>
     </row>
     <row r="270" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A270" s="3" t="s">
-        <v>328</v>
+        <v>295</v>
       </c>
       <c r="B270" s="3">
         <f t="shared" si="4"/>
@@ -11145,18 +11187,18 @@
         <v>0</v>
       </c>
       <c r="H270" s="5" t="s">
-        <v>404</v>
+        <v>371</v>
       </c>
       <c r="I270" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="J270" t="s">
-        <v>421</v>
+        <v>386</v>
       </c>
     </row>
     <row r="271" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A271" s="3" t="s">
-        <v>329</v>
+        <v>296</v>
       </c>
       <c r="B271" s="3">
         <f t="shared" si="4"/>
@@ -11178,18 +11220,18 @@
         <v>0</v>
       </c>
       <c r="H271" s="5" t="s">
-        <v>404</v>
+        <v>371</v>
       </c>
       <c r="I271" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="J271" t="s">
-        <v>421</v>
+        <v>386</v>
       </c>
     </row>
     <row r="272" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A272" s="3" t="s">
-        <v>330</v>
+        <v>297</v>
       </c>
       <c r="B272" s="3">
         <f t="shared" si="4"/>
@@ -11211,18 +11253,18 @@
         <v>0</v>
       </c>
       <c r="H272" s="5" t="s">
-        <v>404</v>
+        <v>371</v>
       </c>
       <c r="I272" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="J272" t="s">
-        <v>421</v>
+        <v>386</v>
       </c>
     </row>
     <row r="273" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A273" s="3" t="s">
-        <v>331</v>
+        <v>298</v>
       </c>
       <c r="B273" s="3">
         <f t="shared" si="4"/>
@@ -11244,18 +11286,18 @@
         <v>0</v>
       </c>
       <c r="H273" s="5" t="s">
-        <v>404</v>
+        <v>371</v>
       </c>
       <c r="I273" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="J273" t="s">
-        <v>421</v>
+        <v>386</v>
       </c>
     </row>
     <row r="274" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A274" s="3" t="s">
-        <v>332</v>
+        <v>299</v>
       </c>
       <c r="B274" s="3">
         <f t="shared" si="4"/>
@@ -11277,18 +11319,18 @@
         <v>0</v>
       </c>
       <c r="H274" s="5" t="s">
-        <v>404</v>
+        <v>371</v>
       </c>
       <c r="I274" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="J274" t="s">
-        <v>421</v>
+        <v>386</v>
       </c>
     </row>
     <row r="275" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A275" s="3" t="s">
-        <v>333</v>
+        <v>300</v>
       </c>
       <c r="B275" s="3">
         <f t="shared" si="4"/>
@@ -11310,18 +11352,18 @@
         <v>0</v>
       </c>
       <c r="H275" s="5" t="s">
-        <v>404</v>
+        <v>371</v>
       </c>
       <c r="I275" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="J275" t="s">
-        <v>421</v>
+        <v>386</v>
       </c>
     </row>
     <row r="276" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A276" s="3" t="s">
-        <v>334</v>
+        <v>301</v>
       </c>
       <c r="B276" s="3">
         <f t="shared" si="4"/>
@@ -11343,18 +11385,18 @@
         <v>0</v>
       </c>
       <c r="H276" s="5" t="s">
-        <v>404</v>
+        <v>371</v>
       </c>
       <c r="I276" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="J276" t="s">
-        <v>421</v>
+        <v>386</v>
       </c>
     </row>
     <row r="277" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A277" s="3" t="s">
-        <v>335</v>
+        <v>302</v>
       </c>
       <c r="B277" s="3">
         <f t="shared" si="4"/>
@@ -11376,18 +11418,18 @@
         <v>0</v>
       </c>
       <c r="H277" s="5" t="s">
-        <v>404</v>
+        <v>371</v>
       </c>
       <c r="I277" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="J277" t="s">
-        <v>421</v>
+        <v>386</v>
       </c>
     </row>
     <row r="278" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A278" s="3" t="s">
-        <v>336</v>
+        <v>303</v>
       </c>
       <c r="B278" s="3">
         <f t="shared" si="4"/>
@@ -11409,18 +11451,18 @@
         <v>0</v>
       </c>
       <c r="H278" s="5" t="s">
-        <v>404</v>
+        <v>371</v>
       </c>
       <c r="I278" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="J278" t="s">
-        <v>421</v>
+        <v>386</v>
       </c>
     </row>
     <row r="279" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A279" s="3" t="s">
-        <v>337</v>
+        <v>304</v>
       </c>
       <c r="B279" s="3">
         <f t="shared" si="4"/>
@@ -11442,18 +11484,18 @@
         <v>0</v>
       </c>
       <c r="H279" s="5" t="s">
-        <v>404</v>
+        <v>371</v>
       </c>
       <c r="I279" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="J279" t="s">
-        <v>421</v>
+        <v>386</v>
       </c>
     </row>
     <row r="280" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A280" s="3" t="s">
-        <v>338</v>
+        <v>305</v>
       </c>
       <c r="B280" s="3">
         <f t="shared" si="4"/>
@@ -11475,18 +11517,18 @@
         <v>0</v>
       </c>
       <c r="H280" s="5" t="s">
-        <v>404</v>
+        <v>371</v>
       </c>
       <c r="I280" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="J280" t="s">
-        <v>421</v>
+        <v>386</v>
       </c>
     </row>
     <row r="281" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A281" s="3" t="s">
-        <v>339</v>
+        <v>306</v>
       </c>
       <c r="B281" s="3">
         <f t="shared" si="4"/>
@@ -11508,18 +11550,18 @@
         <v>0</v>
       </c>
       <c r="H281" s="5" t="s">
-        <v>404</v>
+        <v>371</v>
       </c>
       <c r="I281" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="J281" t="s">
-        <v>421</v>
+        <v>386</v>
       </c>
     </row>
     <row r="282" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A282" s="3" t="s">
-        <v>340</v>
+        <v>307</v>
       </c>
       <c r="B282" s="3">
         <f t="shared" si="4"/>
@@ -11541,18 +11583,18 @@
         <v>0</v>
       </c>
       <c r="H282" s="5" t="s">
-        <v>404</v>
+        <v>371</v>
       </c>
       <c r="I282" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="J282" t="s">
-        <v>421</v>
+        <v>386</v>
       </c>
     </row>
     <row r="283" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A283" s="3" t="s">
-        <v>341</v>
+        <v>308</v>
       </c>
       <c r="B283" s="3">
         <f t="shared" si="4"/>
@@ -11574,18 +11616,18 @@
         <v>0</v>
       </c>
       <c r="H283" s="5" t="s">
-        <v>404</v>
+        <v>371</v>
       </c>
       <c r="I283" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="J283" t="s">
-        <v>421</v>
+        <v>386</v>
       </c>
     </row>
     <row r="284" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A284" s="3" t="s">
-        <v>342</v>
+        <v>309</v>
       </c>
       <c r="B284" s="3">
         <f t="shared" si="4"/>
@@ -11607,18 +11649,18 @@
         <v>0</v>
       </c>
       <c r="H284" s="5" t="s">
-        <v>404</v>
+        <v>371</v>
       </c>
       <c r="I284" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="J284" t="s">
-        <v>421</v>
+        <v>386</v>
       </c>
     </row>
     <row r="285" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A285" s="3" t="s">
-        <v>343</v>
+        <v>310</v>
       </c>
       <c r="B285" s="3">
         <f t="shared" si="4"/>
@@ -11640,18 +11682,18 @@
         <v>0</v>
       </c>
       <c r="H285" s="5" t="s">
-        <v>404</v>
+        <v>371</v>
       </c>
       <c r="I285" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="J285" t="s">
-        <v>421</v>
+        <v>386</v>
       </c>
     </row>
     <row r="286" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A286" s="3" t="s">
-        <v>344</v>
+        <v>311</v>
       </c>
       <c r="B286" s="3">
         <f t="shared" si="4"/>
@@ -11673,18 +11715,18 @@
         <v>0</v>
       </c>
       <c r="H286" s="5" t="s">
-        <v>404</v>
+        <v>371</v>
       </c>
       <c r="I286" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="J286" t="s">
-        <v>421</v>
+        <v>386</v>
       </c>
     </row>
     <row r="287" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A287" s="3" t="s">
-        <v>345</v>
+        <v>312</v>
       </c>
       <c r="B287" s="3">
         <f t="shared" si="4"/>
@@ -11706,18 +11748,18 @@
         <v>0</v>
       </c>
       <c r="H287" s="5" t="s">
-        <v>404</v>
+        <v>371</v>
       </c>
       <c r="I287" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="J287" t="s">
-        <v>421</v>
+        <v>386</v>
       </c>
     </row>
     <row r="288" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A288" s="3" t="s">
-        <v>346</v>
+        <v>313</v>
       </c>
       <c r="B288" s="3">
         <f t="shared" si="4"/>
@@ -11739,18 +11781,18 @@
         <v>0</v>
       </c>
       <c r="H288" s="5" t="s">
-        <v>404</v>
+        <v>371</v>
       </c>
       <c r="I288" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="J288" t="s">
-        <v>421</v>
+        <v>386</v>
       </c>
     </row>
     <row r="289" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A289" s="3" t="s">
-        <v>347</v>
+        <v>314</v>
       </c>
       <c r="B289" s="3">
         <f t="shared" si="4"/>
@@ -11772,18 +11814,18 @@
         <v>11</v>
       </c>
       <c r="H289" s="5" t="s">
-        <v>404</v>
+        <v>371</v>
       </c>
       <c r="I289" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="J289" t="s">
-        <v>421</v>
+        <v>386</v>
       </c>
     </row>
     <row r="290" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A290" s="3" t="s">
-        <v>348</v>
+        <v>315</v>
       </c>
       <c r="B290" s="3">
         <f t="shared" si="4"/>
@@ -11805,18 +11847,18 @@
         <v>11</v>
       </c>
       <c r="H290" s="5" t="s">
-        <v>404</v>
+        <v>371</v>
       </c>
       <c r="I290" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="J290" t="s">
-        <v>421</v>
+        <v>386</v>
       </c>
     </row>
     <row r="291" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A291" s="3" t="s">
-        <v>349</v>
+        <v>316</v>
       </c>
       <c r="B291" s="3">
         <f t="shared" si="4"/>
@@ -11838,18 +11880,18 @@
         <v>11</v>
       </c>
       <c r="H291" s="5" t="s">
-        <v>404</v>
+        <v>371</v>
       </c>
       <c r="I291" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="J291" t="s">
-        <v>421</v>
+        <v>386</v>
       </c>
     </row>
     <row r="292" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A292" s="3" t="s">
-        <v>350</v>
+        <v>317</v>
       </c>
       <c r="B292" s="3">
         <f t="shared" si="4"/>
@@ -11871,18 +11913,18 @@
         <v>0</v>
       </c>
       <c r="H292" s="5" t="s">
-        <v>404</v>
+        <v>371</v>
       </c>
       <c r="I292" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="J292" t="s">
-        <v>421</v>
+        <v>386</v>
       </c>
     </row>
     <row r="293" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A293" s="3" t="s">
-        <v>351</v>
+        <v>318</v>
       </c>
       <c r="B293" s="3">
         <f t="shared" si="4"/>
@@ -11904,18 +11946,18 @@
         <v>0</v>
       </c>
       <c r="H293" s="5" t="s">
-        <v>404</v>
+        <v>371</v>
       </c>
       <c r="I293" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="J293" t="s">
-        <v>421</v>
+        <v>386</v>
       </c>
     </row>
     <row r="294" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A294" s="3" t="s">
-        <v>352</v>
+        <v>319</v>
       </c>
       <c r="B294" s="3">
         <f t="shared" si="4"/>
@@ -11937,18 +11979,18 @@
         <v>11</v>
       </c>
       <c r="H294" s="5" t="s">
-        <v>404</v>
+        <v>371</v>
       </c>
       <c r="I294" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="J294" t="s">
-        <v>421</v>
+        <v>386</v>
       </c>
     </row>
     <row r="295" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A295" s="3" t="s">
-        <v>353</v>
+        <v>320</v>
       </c>
       <c r="B295" s="3">
         <f t="shared" si="4"/>
@@ -11970,18 +12012,18 @@
         <v>11</v>
       </c>
       <c r="H295" s="5" t="s">
-        <v>404</v>
+        <v>371</v>
       </c>
       <c r="I295" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="J295" t="s">
-        <v>421</v>
+        <v>386</v>
       </c>
     </row>
     <row r="296" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A296" s="3" t="s">
-        <v>354</v>
+        <v>321</v>
       </c>
       <c r="B296" s="3">
         <f t="shared" si="4"/>
@@ -12003,18 +12045,18 @@
         <v>11</v>
       </c>
       <c r="H296" s="5" t="s">
-        <v>404</v>
+        <v>371</v>
       </c>
       <c r="I296" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="J296" t="s">
-        <v>421</v>
+        <v>386</v>
       </c>
     </row>
     <row r="297" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A297" s="3" t="s">
-        <v>355</v>
+        <v>322</v>
       </c>
       <c r="B297" s="3">
         <f t="shared" si="4"/>
@@ -12036,18 +12078,18 @@
         <v>11</v>
       </c>
       <c r="H297" s="5" t="s">
-        <v>404</v>
+        <v>371</v>
       </c>
       <c r="I297" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="J297" t="s">
-        <v>421</v>
+        <v>386</v>
       </c>
     </row>
     <row r="298" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A298" s="3" t="s">
-        <v>356</v>
+        <v>323</v>
       </c>
       <c r="B298" s="3">
         <f t="shared" si="4"/>
@@ -12069,18 +12111,18 @@
         <v>11</v>
       </c>
       <c r="H298" s="5" t="s">
-        <v>404</v>
+        <v>371</v>
       </c>
       <c r="I298" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="J298" t="s">
-        <v>421</v>
+        <v>386</v>
       </c>
     </row>
     <row r="299" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A299" s="3" t="s">
-        <v>357</v>
+        <v>324</v>
       </c>
       <c r="B299" s="3">
         <f t="shared" si="4"/>
@@ -12102,18 +12144,18 @@
         <v>11</v>
       </c>
       <c r="H299" s="5" t="s">
-        <v>404</v>
+        <v>371</v>
       </c>
       <c r="I299" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="J299" t="s">
-        <v>421</v>
+        <v>386</v>
       </c>
     </row>
     <row r="300" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A300" s="3" t="s">
-        <v>358</v>
+        <v>325</v>
       </c>
       <c r="B300" s="3">
         <f t="shared" si="4"/>
@@ -12135,18 +12177,18 @@
         <v>11</v>
       </c>
       <c r="H300" s="5" t="s">
-        <v>404</v>
+        <v>371</v>
       </c>
       <c r="I300" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="J300" t="s">
-        <v>421</v>
+        <v>386</v>
       </c>
     </row>
     <row r="301" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A301" s="3" t="s">
-        <v>359</v>
+        <v>326</v>
       </c>
       <c r="B301" s="3">
         <f t="shared" si="4"/>
@@ -12168,18 +12210,18 @@
         <v>11</v>
       </c>
       <c r="H301" s="5" t="s">
-        <v>404</v>
+        <v>371</v>
       </c>
       <c r="I301" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="J301" t="s">
-        <v>421</v>
+        <v>386</v>
       </c>
     </row>
     <row r="302" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A302" s="3" t="s">
-        <v>360</v>
+        <v>327</v>
       </c>
       <c r="B302" s="3">
         <f t="shared" si="4"/>
@@ -12201,18 +12243,18 @@
         <v>11</v>
       </c>
       <c r="H302" s="5" t="s">
-        <v>404</v>
+        <v>371</v>
       </c>
       <c r="I302" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="J302" t="s">
-        <v>421</v>
+        <v>386</v>
       </c>
     </row>
     <row r="303" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A303" s="3" t="s">
-        <v>361</v>
+        <v>328</v>
       </c>
       <c r="B303" s="3">
         <f t="shared" si="4"/>
@@ -12234,18 +12276,18 @@
         <v>11</v>
       </c>
       <c r="H303" s="5" t="s">
-        <v>404</v>
+        <v>371</v>
       </c>
       <c r="I303" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="J303" t="s">
-        <v>421</v>
+        <v>386</v>
       </c>
     </row>
     <row r="304" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A304" s="3" t="s">
-        <v>362</v>
+        <v>329</v>
       </c>
       <c r="B304" s="3">
         <f t="shared" si="4"/>
@@ -12267,18 +12309,18 @@
         <v>11</v>
       </c>
       <c r="H304" s="5" t="s">
-        <v>404</v>
+        <v>371</v>
       </c>
       <c r="I304" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="J304" t="s">
-        <v>421</v>
+        <v>386</v>
       </c>
     </row>
     <row r="305" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A305" s="3" t="s">
-        <v>363</v>
+        <v>330</v>
       </c>
       <c r="B305" s="3">
         <f t="shared" si="4"/>
@@ -12300,18 +12342,18 @@
         <v>11</v>
       </c>
       <c r="H305" s="5" t="s">
-        <v>404</v>
+        <v>371</v>
       </c>
       <c r="I305" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="J305" t="s">
-        <v>421</v>
+        <v>386</v>
       </c>
     </row>
     <row r="306" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A306" s="3" t="s">
-        <v>364</v>
+        <v>331</v>
       </c>
       <c r="B306" s="3">
         <f t="shared" si="4"/>
@@ -12333,18 +12375,18 @@
         <v>11</v>
       </c>
       <c r="H306" s="5" t="s">
-        <v>404</v>
+        <v>371</v>
       </c>
       <c r="I306" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="J306" t="s">
-        <v>421</v>
+        <v>386</v>
       </c>
     </row>
     <row r="307" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A307" s="3" t="s">
-        <v>365</v>
+        <v>332</v>
       </c>
       <c r="B307" s="3">
         <f t="shared" si="4"/>
@@ -12366,18 +12408,18 @@
         <v>11</v>
       </c>
       <c r="H307" s="5" t="s">
-        <v>404</v>
+        <v>371</v>
       </c>
       <c r="I307" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="J307" t="s">
-        <v>421</v>
+        <v>386</v>
       </c>
     </row>
     <row r="308" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A308" s="3" t="s">
-        <v>366</v>
+        <v>333</v>
       </c>
       <c r="B308" s="3">
         <f t="shared" si="4"/>
@@ -12399,18 +12441,18 @@
         <v>11</v>
       </c>
       <c r="H308" s="5" t="s">
-        <v>404</v>
+        <v>371</v>
       </c>
       <c r="I308" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="J308" t="s">
-        <v>421</v>
+        <v>386</v>
       </c>
     </row>
     <row r="309" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A309" s="3" t="s">
-        <v>367</v>
+        <v>334</v>
       </c>
       <c r="B309" s="3">
         <f t="shared" si="4"/>
@@ -12432,18 +12474,18 @@
         <v>11</v>
       </c>
       <c r="H309" s="5" t="s">
-        <v>404</v>
+        <v>371</v>
       </c>
       <c r="I309" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="J309" t="s">
-        <v>421</v>
+        <v>386</v>
       </c>
     </row>
     <row r="310" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A310" s="3" t="s">
-        <v>368</v>
+        <v>335</v>
       </c>
       <c r="B310" s="3">
         <f t="shared" si="4"/>
@@ -12465,18 +12507,18 @@
         <v>11</v>
       </c>
       <c r="H310" s="5" t="s">
-        <v>404</v>
+        <v>371</v>
       </c>
       <c r="I310" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="J310" t="s">
-        <v>421</v>
+        <v>386</v>
       </c>
     </row>
     <row r="311" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A311" s="3" t="s">
-        <v>369</v>
+        <v>336</v>
       </c>
       <c r="B311" s="3">
         <f t="shared" si="4"/>
@@ -12498,18 +12540,18 @@
         <v>11</v>
       </c>
       <c r="H311" s="5" t="s">
-        <v>404</v>
+        <v>371</v>
       </c>
       <c r="I311" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="J311" t="s">
-        <v>421</v>
+        <v>386</v>
       </c>
     </row>
     <row r="312" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A312" s="3" t="s">
-        <v>370</v>
+        <v>337</v>
       </c>
       <c r="B312" s="3">
         <f t="shared" si="4"/>
@@ -12531,18 +12573,18 @@
         <v>11</v>
       </c>
       <c r="H312" s="5" t="s">
-        <v>404</v>
+        <v>371</v>
       </c>
       <c r="I312" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="J312" t="s">
-        <v>421</v>
+        <v>386</v>
       </c>
     </row>
     <row r="313" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A313" s="3" t="s">
-        <v>371</v>
+        <v>338</v>
       </c>
       <c r="B313" s="3">
         <f t="shared" si="4"/>
@@ -12564,18 +12606,18 @@
         <v>11</v>
       </c>
       <c r="H313" s="5" t="s">
-        <v>404</v>
+        <v>371</v>
       </c>
       <c r="I313" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="J313" t="s">
-        <v>421</v>
+        <v>386</v>
       </c>
     </row>
     <row r="314" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A314" s="3" t="s">
-        <v>372</v>
+        <v>339</v>
       </c>
       <c r="B314" s="3">
         <f t="shared" si="4"/>
@@ -12597,18 +12639,18 @@
         <v>11</v>
       </c>
       <c r="H314" s="5" t="s">
-        <v>404</v>
+        <v>371</v>
       </c>
       <c r="I314" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="J314" t="s">
-        <v>421</v>
+        <v>386</v>
       </c>
     </row>
     <row r="315" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A315" s="3" t="s">
-        <v>373</v>
+        <v>340</v>
       </c>
       <c r="B315" s="3">
         <f t="shared" si="4"/>
@@ -12630,18 +12672,18 @@
         <v>11</v>
       </c>
       <c r="H315" s="5" t="s">
-        <v>404</v>
+        <v>371</v>
       </c>
       <c r="I315" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="J315" t="s">
-        <v>421</v>
+        <v>386</v>
       </c>
     </row>
     <row r="316" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A316" s="3" t="s">
-        <v>374</v>
+        <v>341</v>
       </c>
       <c r="B316" s="3">
         <f t="shared" si="4"/>
@@ -12663,18 +12705,18 @@
         <v>11</v>
       </c>
       <c r="H316" s="5" t="s">
-        <v>404</v>
+        <v>371</v>
       </c>
       <c r="I316" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="J316" t="s">
-        <v>421</v>
+        <v>386</v>
       </c>
     </row>
     <row r="317" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A317" s="3" t="s">
-        <v>375</v>
+        <v>342</v>
       </c>
       <c r="B317" s="3">
         <f t="shared" si="4"/>
@@ -12696,13 +12738,13 @@
         <v>11</v>
       </c>
       <c r="H317" s="5" t="s">
-        <v>404</v>
+        <v>371</v>
       </c>
       <c r="I317" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="J317" t="s">
-        <v>421</v>
+        <v>386</v>
       </c>
     </row>
   </sheetData>

--- a/Booyco HMI Utility/Resources/Documents/CommanderParametersFile.xlsx
+++ b/Booyco HMI Utility/Resources/Documents/CommanderParametersFile.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21328"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Neil\Dropbox (Mernok Elektronik)\Software\Booyco HMI Utility\Booyco HMI Utility\Resources\Documents\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Dropbox (Mernok Elektronik)\Mernok\Active\Git\SW\Booyco-HMI-Utility\Booyco HMI Utility\Resources\Documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D78EB5FA-B952-42E1-8D65-DF3999718224}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{425D9B42-96D6-4F0B-9F5D-DDAF232FD9DC}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{4442C273-631E-40E6-88D2-7449766A5078}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1357" uniqueCount="436">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1481" uniqueCount="526">
   <si>
     <t>Name</t>
   </si>
@@ -1339,6 +1339,276 @@
   </si>
   <si>
     <t>Tag Monitoring</t>
+  </si>
+  <si>
+    <t>ThreatWarning Action1</t>
+  </si>
+  <si>
+    <t>ThreatWarning Action2</t>
+  </si>
+  <si>
+    <t>ThreatWarning Action3</t>
+  </si>
+  <si>
+    <t>ThreatPresence Action1</t>
+  </si>
+  <si>
+    <t>ThreatPresence Action2</t>
+  </si>
+  <si>
+    <t>ThreatPresence Action3</t>
+  </si>
+  <si>
+    <t>ThreatWarning Action1 2 Time</t>
+  </si>
+  <si>
+    <t>ThreatWarning Action2 3 Time</t>
+  </si>
+  <si>
+    <t>ThreatPresence Action1 2 Time</t>
+  </si>
+  <si>
+    <t>ThreatPresence Action2 3 Time</t>
+  </si>
+  <si>
+    <t>ProhibitedZone Factor</t>
+  </si>
+  <si>
+    <t>Geofence1 LAT</t>
+  </si>
+  <si>
+    <t>Geofence1 LON</t>
+  </si>
+  <si>
+    <t>Geofence1 Raduis</t>
+  </si>
+  <si>
+    <t>Geofence1 Type</t>
+  </si>
+  <si>
+    <t>Geofence2 LAT</t>
+  </si>
+  <si>
+    <t>Geofence2 LON</t>
+  </si>
+  <si>
+    <t>Geofence2 Raduis</t>
+  </si>
+  <si>
+    <t>Geofence2 Type</t>
+  </si>
+  <si>
+    <t>Geofence3 LAT</t>
+  </si>
+  <si>
+    <t>Geofence3 LON</t>
+  </si>
+  <si>
+    <t>Geofence3 Raduis</t>
+  </si>
+  <si>
+    <t>Geofence3 Type</t>
+  </si>
+  <si>
+    <t>Geofence4 LAT</t>
+  </si>
+  <si>
+    <t>Geofence4 LON</t>
+  </si>
+  <si>
+    <t>Geofence4 Raduis</t>
+  </si>
+  <si>
+    <t>Geofence4 Type</t>
+  </si>
+  <si>
+    <t>Geofence5 LAT</t>
+  </si>
+  <si>
+    <t>Geofence5 LON</t>
+  </si>
+  <si>
+    <t>Geofence5 Raduis</t>
+  </si>
+  <si>
+    <t>Geofence5 Type</t>
+  </si>
+  <si>
+    <t>LowSpeed</t>
+  </si>
+  <si>
+    <t>highSpeed</t>
+  </si>
+  <si>
+    <t>MedSpeed</t>
+  </si>
+  <si>
+    <t>Loco</t>
+  </si>
+  <si>
+    <t>Battery</t>
+  </si>
+  <si>
+    <t>NoGo</t>
+  </si>
+  <si>
+    <t>Person</t>
+  </si>
+  <si>
+    <t>Explosives</t>
+  </si>
+  <si>
+    <t>VentDoor</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MenAtWork </t>
+  </si>
+  <si>
+    <t>HaulTruckRigid</t>
+  </si>
+  <si>
+    <t>HaulTruckADT</t>
+  </si>
+  <si>
+    <t>WaterBowserRigid</t>
+  </si>
+  <si>
+    <t>WaterBowserADT</t>
+  </si>
+  <si>
+    <t>ExcavatorStandard</t>
+  </si>
+  <si>
+    <t>ExcavatorFaceShovel</t>
+  </si>
+  <si>
+    <t>ExcavatorRopeShovel</t>
+  </si>
+  <si>
+    <t>Dragline</t>
+  </si>
+  <si>
+    <t>FrontEndLoader</t>
+  </si>
+  <si>
+    <t>DozerWheel</t>
+  </si>
+  <si>
+    <t>DozerTrack</t>
+  </si>
+  <si>
+    <t>LightDutyVehicle</t>
+  </si>
+  <si>
+    <t>DrillRig</t>
+  </si>
+  <si>
+    <t>Grader</t>
+  </si>
+  <si>
+    <t>TractorLoaderBackhoe</t>
+  </si>
+  <si>
+    <t>Portable_unit</t>
+  </si>
+  <si>
+    <t>Side_tipper</t>
+  </si>
+  <si>
+    <t>Tractor</t>
+  </si>
+  <si>
+    <t>Bucket_wheel_excavator</t>
+  </si>
+  <si>
+    <t>Skid_loader</t>
+  </si>
+  <si>
+    <t>Fork_lift</t>
+  </si>
+  <si>
+    <t>Compact_roller</t>
+  </si>
+  <si>
+    <t>Sweeper</t>
+  </si>
+  <si>
+    <t>Locomotive_guard_car</t>
+  </si>
+  <si>
+    <t>Monorail_locomotive</t>
+  </si>
+  <si>
+    <t>Roof_bolter</t>
+  </si>
+  <si>
+    <t>Pipe_carrier</t>
+  </si>
+  <si>
+    <t>Reclaimer</t>
+  </si>
+  <si>
+    <t>Traffic_system_healthy</t>
+  </si>
+  <si>
+    <t>Traffic_system_faulty</t>
+  </si>
+  <si>
+    <t>Face_drill</t>
+  </si>
+  <si>
+    <t>Hammer_breaker</t>
+  </si>
+  <si>
+    <t>Cherry_picker</t>
+  </si>
+  <si>
+    <t>Winch_controller</t>
+  </si>
+  <si>
+    <t>Loading_Box</t>
+  </si>
+  <si>
+    <t>Battery_Bay</t>
+  </si>
+  <si>
+    <t>Workshop</t>
+  </si>
+  <si>
+    <t>Tips</t>
+  </si>
+  <si>
+    <t>Bend</t>
+  </si>
+  <si>
+    <t>Waiting_Point</t>
+  </si>
+  <si>
+    <t>Winch_scraper</t>
+  </si>
+  <si>
+    <t>Rail_bound_best_station</t>
+  </si>
+  <si>
+    <t>Trackless_test_station</t>
+  </si>
+  <si>
+    <t>Pedestrian_test_station</t>
+  </si>
+  <si>
+    <t>Rail_bound_test_point</t>
+  </si>
+  <si>
+    <t>Trackless_test_point</t>
+  </si>
+  <si>
+    <t>Pedestrian_test_point</t>
+  </si>
+  <si>
+    <t>Wetcreter</t>
+  </si>
+  <si>
+    <t>Water_Cannon</t>
   </si>
 </sst>
 </file>
@@ -1455,15 +1725,14 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="3"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="2" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="2" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="2"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="Calculation" xfId="3" builtinId="22"/>
@@ -1781,18 +2050,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E4E73DD7-587F-4C4F-B32B-7B78C2644041}">
-  <dimension ref="A1:P317"/>
+  <dimension ref="A1:P348"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I156" sqref="I156"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A113" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B1" sqref="B1:B1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="40" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.5703125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.7109375" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="12.7109375" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="13.85546875" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="17.5703125" customWidth="1"/>
@@ -1825,13 +2094,13 @@
       <c r="G1" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="H1" s="6" t="s">
+      <c r="H1" s="5" t="s">
         <v>370</v>
       </c>
-      <c r="I1" s="6" t="s">
+      <c r="I1" s="5" t="s">
         <v>379</v>
       </c>
-      <c r="J1" s="6" t="s">
+      <c r="J1" s="5" t="s">
         <v>383</v>
       </c>
       <c r="M1" s="1" t="s">
@@ -1869,10 +2138,10 @@
       <c r="G2" s="3">
         <v>0</v>
       </c>
-      <c r="H2" s="7" t="s">
+      <c r="H2" s="2" t="s">
         <v>425</v>
       </c>
-      <c r="I2" s="5" t="s">
+      <c r="I2" s="3" t="s">
         <v>371</v>
       </c>
       <c r="J2" t="s">
@@ -1913,10 +2182,10 @@
       <c r="G3" s="3">
         <v>0</v>
       </c>
-      <c r="H3" s="7" t="s">
+      <c r="H3" s="2" t="s">
         <v>425</v>
       </c>
-      <c r="I3" s="5" t="s">
+      <c r="I3" s="3" t="s">
         <v>371</v>
       </c>
       <c r="J3" t="s">
@@ -1958,10 +2227,10 @@
       <c r="G4" s="3">
         <v>0</v>
       </c>
-      <c r="H4" s="5" t="s">
+      <c r="H4" s="3" t="s">
         <v>371</v>
       </c>
-      <c r="I4" t="s">
+      <c r="I4" s="6" t="s">
         <v>411</v>
       </c>
       <c r="J4" t="s">
@@ -2003,10 +2272,10 @@
       <c r="G5" s="3">
         <v>1</v>
       </c>
-      <c r="H5" s="5" t="s">
+      <c r="H5" s="3" t="s">
         <v>371</v>
       </c>
-      <c r="I5" t="s">
+      <c r="I5" s="6" t="s">
         <v>411</v>
       </c>
       <c r="J5" t="s">
@@ -2048,10 +2317,10 @@
       <c r="G6" s="3">
         <v>2</v>
       </c>
-      <c r="H6" s="5" t="s">
+      <c r="H6" s="3" t="s">
         <v>371</v>
       </c>
-      <c r="I6" t="s">
+      <c r="I6" s="6" t="s">
         <v>411</v>
       </c>
       <c r="J6" t="s">
@@ -2087,10 +2356,10 @@
       <c r="G7" s="3">
         <v>3</v>
       </c>
-      <c r="H7" s="5" t="s">
+      <c r="H7" s="3" t="s">
         <v>371</v>
       </c>
-      <c r="I7" t="s">
+      <c r="I7" s="6" t="s">
         <v>411</v>
       </c>
       <c r="J7" t="s">
@@ -2126,10 +2395,10 @@
       <c r="G8" s="3">
         <v>0</v>
       </c>
-      <c r="H8" s="5" t="s">
+      <c r="H8" s="3" t="s">
         <v>371</v>
       </c>
-      <c r="I8" t="s">
+      <c r="I8" s="6" t="s">
         <v>411</v>
       </c>
       <c r="J8" t="s">
@@ -2142,7 +2411,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="9" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
         <v>66</v>
       </c>
@@ -2165,10 +2434,10 @@
       <c r="G9" s="3">
         <v>0</v>
       </c>
-      <c r="H9" s="5" t="s">
+      <c r="H9" s="3" t="s">
         <v>371</v>
       </c>
-      <c r="I9" t="s">
+      <c r="I9" s="6" t="s">
         <v>411</v>
       </c>
       <c r="J9" t="s">
@@ -2181,7 +2450,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="10" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
         <v>67</v>
       </c>
@@ -2204,10 +2473,10 @@
       <c r="G10" s="3">
         <v>0</v>
       </c>
-      <c r="H10" s="5" t="s">
+      <c r="H10" s="3" t="s">
         <v>371</v>
       </c>
-      <c r="I10" t="s">
+      <c r="I10" s="6" t="s">
         <v>411</v>
       </c>
       <c r="J10" t="s">
@@ -2220,7 +2489,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="11" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A11" s="3" t="s">
         <v>68</v>
       </c>
@@ -2243,10 +2512,10 @@
       <c r="G11" s="3">
         <v>0</v>
       </c>
-      <c r="H11" s="5" t="s">
+      <c r="H11" s="3" t="s">
         <v>371</v>
       </c>
-      <c r="I11" t="s">
+      <c r="I11" s="6" t="s">
         <v>411</v>
       </c>
       <c r="J11" t="s">
@@ -2259,7 +2528,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="12" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A12" s="3" t="s">
         <v>69</v>
       </c>
@@ -2282,10 +2551,10 @@
       <c r="G12" s="3">
         <v>0</v>
       </c>
-      <c r="H12" s="5" t="s">
+      <c r="H12" s="3" t="s">
         <v>371</v>
       </c>
-      <c r="I12" t="s">
+      <c r="I12" s="6" t="s">
         <v>411</v>
       </c>
       <c r="J12" t="s">
@@ -2298,7 +2567,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="13" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A13" s="3" t="s">
         <v>70</v>
       </c>
@@ -2321,10 +2590,10 @@
       <c r="G13" s="3">
         <v>0</v>
       </c>
-      <c r="H13" s="5" t="s">
+      <c r="H13" s="3" t="s">
         <v>371</v>
       </c>
-      <c r="I13" t="s">
+      <c r="I13" s="6" t="s">
         <v>411</v>
       </c>
       <c r="J13" t="s">
@@ -2337,7 +2606,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="14" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A14" s="3" t="s">
         <v>71</v>
       </c>
@@ -2360,10 +2629,10 @@
       <c r="G14" s="3">
         <v>0</v>
       </c>
-      <c r="H14" s="5" t="s">
+      <c r="H14" s="3" t="s">
         <v>371</v>
       </c>
-      <c r="I14" t="s">
+      <c r="I14" s="6" t="s">
         <v>411</v>
       </c>
       <c r="J14" t="s">
@@ -2376,7 +2645,7 @@
         <v>356</v>
       </c>
     </row>
-    <row r="15" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A15" s="3" t="s">
         <v>72</v>
       </c>
@@ -2399,10 +2668,10 @@
       <c r="G15" s="3">
         <v>0</v>
       </c>
-      <c r="H15" s="5" t="s">
+      <c r="H15" s="3" t="s">
         <v>371</v>
       </c>
-      <c r="I15" t="s">
+      <c r="I15" s="6" t="s">
         <v>411</v>
       </c>
       <c r="J15" t="s">
@@ -2415,7 +2684,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="16" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A16" s="3" t="s">
         <v>73</v>
       </c>
@@ -2438,10 +2707,10 @@
       <c r="G16" s="3">
         <v>0</v>
       </c>
-      <c r="H16" s="5" t="s">
+      <c r="H16" s="3" t="s">
         <v>371</v>
       </c>
-      <c r="I16" t="s">
+      <c r="I16" s="6" t="s">
         <v>411</v>
       </c>
       <c r="J16" t="s">
@@ -2454,7 +2723,7 @@
         <v>357</v>
       </c>
     </row>
-    <row r="17" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A17" s="3" t="s">
         <v>74</v>
       </c>
@@ -2477,10 +2746,10 @@
       <c r="G17" s="3">
         <v>0</v>
       </c>
-      <c r="H17" s="5" t="s">
+      <c r="H17" s="3" t="s">
         <v>371</v>
       </c>
-      <c r="I17" t="s">
+      <c r="I17" s="6" t="s">
         <v>411</v>
       </c>
       <c r="J17" t="s">
@@ -2493,7 +2762,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="18" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A18" s="3" t="s">
         <v>75</v>
       </c>
@@ -2516,10 +2785,10 @@
       <c r="G18" s="3">
         <v>0</v>
       </c>
-      <c r="H18" s="5" t="s">
+      <c r="H18" s="3" t="s">
         <v>371</v>
       </c>
-      <c r="I18" t="s">
+      <c r="I18" s="6" t="s">
         <v>411</v>
       </c>
       <c r="J18" t="s">
@@ -2532,7 +2801,7 @@
         <v>358</v>
       </c>
     </row>
-    <row r="19" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A19" s="3" t="s">
         <v>76</v>
       </c>
@@ -2555,10 +2824,10 @@
       <c r="G19" s="3">
         <v>0</v>
       </c>
-      <c r="H19" s="5" t="s">
+      <c r="H19" s="3" t="s">
         <v>371</v>
       </c>
-      <c r="I19" t="s">
+      <c r="I19" s="6" t="s">
         <v>411</v>
       </c>
       <c r="J19" t="s">
@@ -2571,7 +2840,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="20" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A20" s="3" t="s">
         <v>77</v>
       </c>
@@ -2594,10 +2863,10 @@
       <c r="G20" s="3">
         <v>0</v>
       </c>
-      <c r="H20" s="5" t="s">
+      <c r="H20" s="3" t="s">
         <v>371</v>
       </c>
-      <c r="I20" t="s">
+      <c r="I20" s="6" t="s">
         <v>411</v>
       </c>
       <c r="J20" t="s">
@@ -2610,7 +2879,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="21" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A21" s="3" t="s">
         <v>78</v>
       </c>
@@ -2633,10 +2902,10 @@
       <c r="G21" s="3">
         <v>0</v>
       </c>
-      <c r="H21" s="5" t="s">
+      <c r="H21" s="3" t="s">
         <v>371</v>
       </c>
-      <c r="I21" t="s">
+      <c r="I21" s="6" t="s">
         <v>411</v>
       </c>
       <c r="J21" t="s">
@@ -2649,7 +2918,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="22" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A22" s="3" t="s">
         <v>79</v>
       </c>
@@ -2672,10 +2941,10 @@
       <c r="G22" s="3">
         <v>0</v>
       </c>
-      <c r="H22" s="5" t="s">
+      <c r="H22" s="3" t="s">
         <v>371</v>
       </c>
-      <c r="I22" t="s">
+      <c r="I22" s="6" t="s">
         <v>411</v>
       </c>
       <c r="J22" t="s">
@@ -2688,7 +2957,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="23" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A23" s="3" t="s">
         <v>80</v>
       </c>
@@ -2711,10 +2980,10 @@
       <c r="G23" s="3">
         <v>0</v>
       </c>
-      <c r="H23" s="5" t="s">
+      <c r="H23" s="3" t="s">
         <v>371</v>
       </c>
-      <c r="I23" t="s">
+      <c r="I23" s="6" t="s">
         <v>411</v>
       </c>
       <c r="J23" t="s">
@@ -2727,7 +2996,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="24" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A24" s="3" t="s">
         <v>81</v>
       </c>
@@ -2750,10 +3019,10 @@
       <c r="G24" s="3">
         <v>0</v>
       </c>
-      <c r="H24" s="5" t="s">
+      <c r="H24" s="3" t="s">
         <v>371</v>
       </c>
-      <c r="I24" t="s">
+      <c r="I24" s="6" t="s">
         <v>411</v>
       </c>
       <c r="J24" t="s">
@@ -2766,7 +3035,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="25" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A25" s="3" t="s">
         <v>82</v>
       </c>
@@ -2789,10 +3058,10 @@
       <c r="G25" s="3">
         <v>0</v>
       </c>
-      <c r="H25" s="5" t="s">
+      <c r="H25" s="3" t="s">
         <v>371</v>
       </c>
-      <c r="I25" t="s">
+      <c r="I25" s="6" t="s">
         <v>411</v>
       </c>
       <c r="J25" t="s">
@@ -2805,7 +3074,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="26" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A26" s="3" t="s">
         <v>83</v>
       </c>
@@ -2828,10 +3097,10 @@
       <c r="G26" s="3">
         <v>0</v>
       </c>
-      <c r="H26" s="5" t="s">
+      <c r="H26" s="3" t="s">
         <v>371</v>
       </c>
-      <c r="I26" t="s">
+      <c r="I26" s="6" t="s">
         <v>411</v>
       </c>
       <c r="J26" t="s">
@@ -2844,7 +3113,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="27" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A27" s="3" t="s">
         <v>84</v>
       </c>
@@ -2867,10 +3136,10 @@
       <c r="G27" s="3">
         <v>0</v>
       </c>
-      <c r="H27" s="5" t="s">
+      <c r="H27" s="3" t="s">
         <v>371</v>
       </c>
-      <c r="I27" t="s">
+      <c r="I27" s="6" t="s">
         <v>411</v>
       </c>
       <c r="J27" t="s">
@@ -2906,10 +3175,10 @@
       <c r="G28" s="3">
         <v>0</v>
       </c>
-      <c r="H28" s="5" t="s">
+      <c r="H28" s="3" t="s">
         <v>371</v>
       </c>
-      <c r="I28" t="s">
+      <c r="I28" s="6" t="s">
         <v>426</v>
       </c>
       <c r="J28" t="s">
@@ -2945,10 +3214,10 @@
       <c r="G29" s="3">
         <v>0</v>
       </c>
-      <c r="H29" s="5" t="s">
+      <c r="H29" s="3" t="s">
         <v>371</v>
       </c>
-      <c r="I29" t="s">
+      <c r="I29" s="6" t="s">
         <v>426</v>
       </c>
       <c r="J29" t="s">
@@ -2984,10 +3253,10 @@
       <c r="G30" s="3">
         <v>0</v>
       </c>
-      <c r="H30" s="5" t="s">
+      <c r="H30" s="3" t="s">
         <v>371</v>
       </c>
-      <c r="I30" t="s">
+      <c r="I30" s="6" t="s">
         <v>426</v>
       </c>
       <c r="J30" t="s">
@@ -3023,10 +3292,10 @@
       <c r="G31" s="3">
         <v>0</v>
       </c>
-      <c r="H31" s="5" t="s">
+      <c r="H31" s="3" t="s">
         <v>371</v>
       </c>
-      <c r="I31" t="s">
+      <c r="I31" s="6" t="s">
         <v>426</v>
       </c>
       <c r="J31" t="s">
@@ -3062,10 +3331,10 @@
       <c r="G32" s="3">
         <v>0</v>
       </c>
-      <c r="H32" s="5" t="s">
+      <c r="H32" s="3" t="s">
         <v>371</v>
       </c>
-      <c r="I32" t="s">
+      <c r="I32" s="6" t="s">
         <v>429</v>
       </c>
       <c r="J32" t="s">
@@ -3101,10 +3370,10 @@
       <c r="G33" s="3">
         <v>0</v>
       </c>
-      <c r="H33" s="5" t="s">
+      <c r="H33" s="3" t="s">
         <v>371</v>
       </c>
-      <c r="I33" t="s">
+      <c r="I33" s="6" t="s">
         <v>380</v>
       </c>
       <c r="J33" t="s">
@@ -3140,10 +3409,10 @@
       <c r="G34" s="3">
         <v>0</v>
       </c>
-      <c r="H34" s="5" t="s">
+      <c r="H34" s="3" t="s">
         <v>371</v>
       </c>
-      <c r="I34" t="s">
+      <c r="I34" s="6" t="s">
         <v>380</v>
       </c>
       <c r="J34" t="s">
@@ -3179,10 +3448,10 @@
       <c r="G35" s="3">
         <v>0</v>
       </c>
-      <c r="H35" s="5" t="s">
+      <c r="H35" s="3" t="s">
         <v>420</v>
       </c>
-      <c r="I35" t="s">
+      <c r="I35" s="6" t="s">
         <v>421</v>
       </c>
       <c r="J35" t="s">
@@ -3218,10 +3487,10 @@
       <c r="G36" s="3">
         <v>0</v>
       </c>
-      <c r="H36" s="5" t="s">
+      <c r="H36" s="3" t="s">
         <v>371</v>
       </c>
-      <c r="I36" t="s">
+      <c r="I36" s="6" t="s">
         <v>380</v>
       </c>
       <c r="J36" t="s">
@@ -3257,10 +3526,10 @@
       <c r="G37" s="3">
         <v>0</v>
       </c>
-      <c r="H37" s="5" t="s">
+      <c r="H37" s="3" t="s">
         <v>371</v>
       </c>
-      <c r="I37" t="s">
+      <c r="I37" s="6" t="s">
         <v>381</v>
       </c>
       <c r="J37" t="s">
@@ -3296,10 +3565,10 @@
       <c r="G38" s="3">
         <v>0</v>
       </c>
-      <c r="H38" s="5" t="s">
+      <c r="H38" s="3" t="s">
         <v>371</v>
       </c>
-      <c r="I38" t="s">
+      <c r="I38" s="6" t="s">
         <v>381</v>
       </c>
       <c r="J38" t="s">
@@ -3335,10 +3604,10 @@
       <c r="G39" s="3">
         <v>0</v>
       </c>
-      <c r="H39" s="5" t="s">
+      <c r="H39" s="3" t="s">
         <v>371</v>
       </c>
-      <c r="I39" t="s">
+      <c r="I39" s="6" t="s">
         <v>418</v>
       </c>
       <c r="J39" t="s">
@@ -3374,10 +3643,10 @@
       <c r="G40" s="3">
         <v>0</v>
       </c>
-      <c r="H40" s="5" t="s">
+      <c r="H40" s="3" t="s">
         <v>371</v>
       </c>
-      <c r="I40" t="s">
+      <c r="I40" s="6" t="s">
         <v>418</v>
       </c>
       <c r="J40" t="s">
@@ -3413,10 +3682,10 @@
       <c r="G41" s="3">
         <v>0</v>
       </c>
-      <c r="H41" s="5" t="s">
+      <c r="H41" s="3" t="s">
         <v>420</v>
       </c>
-      <c r="I41" t="s">
+      <c r="I41" s="6" t="s">
         <v>423</v>
       </c>
       <c r="J41" t="s">
@@ -3452,10 +3721,10 @@
       <c r="G42" s="3">
         <v>0</v>
       </c>
-      <c r="H42" s="5" t="s">
+      <c r="H42" s="3" t="s">
         <v>420</v>
       </c>
-      <c r="I42" t="s">
+      <c r="I42" s="6" t="s">
         <v>423</v>
       </c>
       <c r="J42" t="s">
@@ -3491,10 +3760,10 @@
       <c r="G43" s="3">
         <v>0</v>
       </c>
-      <c r="H43" s="5" t="s">
+      <c r="H43" s="3" t="s">
         <v>420</v>
       </c>
-      <c r="I43" t="s">
+      <c r="I43" s="6" t="s">
         <v>423</v>
       </c>
       <c r="J43" t="s">
@@ -3530,10 +3799,10 @@
       <c r="G44" s="3">
         <v>0</v>
       </c>
-      <c r="H44" s="5" t="s">
+      <c r="H44" s="3" t="s">
         <v>420</v>
       </c>
-      <c r="I44" t="s">
+      <c r="I44" s="6" t="s">
         <v>423</v>
       </c>
       <c r="J44" t="s">
@@ -3569,10 +3838,10 @@
       <c r="G45" s="3">
         <v>0</v>
       </c>
-      <c r="H45" s="5" t="s">
+      <c r="H45" s="3" t="s">
         <v>420</v>
       </c>
-      <c r="I45" t="s">
+      <c r="I45" s="6" t="s">
         <v>421</v>
       </c>
       <c r="J45" t="s">
@@ -3608,10 +3877,10 @@
       <c r="G46" s="3">
         <v>4</v>
       </c>
-      <c r="H46" s="5" t="s">
+      <c r="H46" s="3" t="s">
         <v>412</v>
       </c>
-      <c r="I46" s="5" t="s">
+      <c r="I46" s="3" t="s">
         <v>372</v>
       </c>
       <c r="J46" t="s">
@@ -3647,10 +3916,10 @@
       <c r="G47" s="3">
         <v>5</v>
       </c>
-      <c r="H47" s="5" t="s">
+      <c r="H47" s="3" t="s">
         <v>412</v>
       </c>
-      <c r="I47" s="5" t="s">
+      <c r="I47" s="3" t="s">
         <v>372</v>
       </c>
       <c r="J47" t="s">
@@ -3686,10 +3955,10 @@
       <c r="G48" s="3">
         <v>0</v>
       </c>
-      <c r="H48" s="5" t="s">
+      <c r="H48" s="3" t="s">
         <v>412</v>
       </c>
-      <c r="I48" s="5" t="s">
+      <c r="I48" s="3" t="s">
         <v>372</v>
       </c>
       <c r="J48" t="s">
@@ -3725,10 +3994,10 @@
       <c r="G49" s="3">
         <v>0</v>
       </c>
-      <c r="H49" s="5" t="s">
+      <c r="H49" s="3" t="s">
         <v>412</v>
       </c>
-      <c r="I49" s="5" t="s">
+      <c r="I49" s="3" t="s">
         <v>372</v>
       </c>
       <c r="J49" t="s">
@@ -3764,10 +4033,10 @@
       <c r="G50" s="3">
         <v>0</v>
       </c>
-      <c r="H50" s="5" t="s">
+      <c r="H50" s="3" t="s">
         <v>412</v>
       </c>
-      <c r="I50" s="5" t="s">
+      <c r="I50" s="3" t="s">
         <v>372</v>
       </c>
       <c r="J50" t="s">
@@ -3780,7 +4049,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="51" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A51" s="3" t="s">
         <v>97</v>
       </c>
@@ -3803,10 +4072,10 @@
       <c r="G51" s="3">
         <v>0</v>
       </c>
-      <c r="H51" s="5" t="s">
+      <c r="H51" s="3" t="s">
         <v>382</v>
       </c>
-      <c r="I51" s="5" t="s">
+      <c r="I51" s="3" t="s">
         <v>373</v>
       </c>
       <c r="J51" t="s">
@@ -3819,7 +4088,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="52" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A52" s="3" t="s">
         <v>98</v>
       </c>
@@ -3842,10 +4111,10 @@
       <c r="G52" s="3">
         <v>0</v>
       </c>
-      <c r="H52" s="5" t="s">
+      <c r="H52" s="3" t="s">
         <v>382</v>
       </c>
-      <c r="I52" s="5" t="s">
+      <c r="I52" s="3" t="s">
         <v>373</v>
       </c>
       <c r="J52" t="s">
@@ -3858,7 +4127,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="53" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A53" s="3" t="s">
         <v>99</v>
       </c>
@@ -3881,10 +4150,10 @@
       <c r="G53" s="3">
         <v>0</v>
       </c>
-      <c r="H53" s="5" t="s">
+      <c r="H53" s="3" t="s">
         <v>382</v>
       </c>
-      <c r="I53" s="5" t="s">
+      <c r="I53" s="3" t="s">
         <v>373</v>
       </c>
       <c r="J53" t="s">
@@ -3897,7 +4166,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="54" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A54" s="3" t="s">
         <v>100</v>
       </c>
@@ -3920,10 +4189,10 @@
       <c r="G54" s="3">
         <v>0</v>
       </c>
-      <c r="H54" s="5" t="s">
+      <c r="H54" s="3" t="s">
         <v>382</v>
       </c>
-      <c r="I54" s="5" t="s">
+      <c r="I54" s="3" t="s">
         <v>373</v>
       </c>
       <c r="J54" t="s">
@@ -3936,7 +4205,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="55" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A55" s="3" t="s">
         <v>101</v>
       </c>
@@ -3959,10 +4228,10 @@
       <c r="G55" s="3">
         <v>0</v>
       </c>
-      <c r="H55" s="5" t="s">
+      <c r="H55" s="3" t="s">
         <v>382</v>
       </c>
-      <c r="I55" s="5" t="s">
+      <c r="I55" s="3" t="s">
         <v>373</v>
       </c>
       <c r="J55" t="s">
@@ -3975,7 +4244,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="56" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A56" s="3" t="s">
         <v>102</v>
       </c>
@@ -3998,10 +4267,10 @@
       <c r="G56" s="3">
         <v>0</v>
       </c>
-      <c r="H56" s="5" t="s">
+      <c r="H56" s="3" t="s">
         <v>382</v>
       </c>
-      <c r="I56" s="5" t="s">
+      <c r="I56" s="3" t="s">
         <v>373</v>
       </c>
       <c r="J56" t="s">
@@ -4014,7 +4283,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="57" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A57" s="3" t="s">
         <v>103</v>
       </c>
@@ -4037,10 +4306,10 @@
       <c r="G57" s="3">
         <v>0</v>
       </c>
-      <c r="H57" s="5" t="s">
+      <c r="H57" s="3" t="s">
         <v>382</v>
       </c>
-      <c r="I57" s="5" t="s">
+      <c r="I57" s="3" t="s">
         <v>373</v>
       </c>
       <c r="J57" t="s">
@@ -4053,7 +4322,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="58" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A58" s="3" t="s">
         <v>104</v>
       </c>
@@ -4076,10 +4345,10 @@
       <c r="G58" s="3">
         <v>0</v>
       </c>
-      <c r="H58" s="5" t="s">
+      <c r="H58" s="3" t="s">
         <v>382</v>
       </c>
-      <c r="I58" s="5" t="s">
+      <c r="I58" s="3" t="s">
         <v>373</v>
       </c>
       <c r="J58" t="s">
@@ -4092,7 +4361,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="59" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A59" s="3" t="s">
         <v>105</v>
       </c>
@@ -4115,10 +4384,10 @@
       <c r="G59" s="3">
         <v>0</v>
       </c>
-      <c r="H59" s="5" t="s">
+      <c r="H59" s="3" t="s">
         <v>382</v>
       </c>
-      <c r="I59" s="5" t="s">
+      <c r="I59" s="3" t="s">
         <v>373</v>
       </c>
       <c r="J59" t="s">
@@ -4131,7 +4400,7 @@
         <v>347</v>
       </c>
     </row>
-    <row r="60" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A60" s="3" t="s">
         <v>106</v>
       </c>
@@ -4154,10 +4423,10 @@
       <c r="G60" s="3">
         <v>0</v>
       </c>
-      <c r="H60" s="5" t="s">
+      <c r="H60" s="3" t="s">
         <v>382</v>
       </c>
-      <c r="I60" s="5" t="s">
+      <c r="I60" s="3" t="s">
         <v>373</v>
       </c>
       <c r="J60" t="s">
@@ -4170,7 +4439,7 @@
         <v>348</v>
       </c>
     </row>
-    <row r="61" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A61" s="3" t="s">
         <v>107</v>
       </c>
@@ -4193,10 +4462,10 @@
       <c r="G61" s="3">
         <v>0</v>
       </c>
-      <c r="H61" s="5" t="s">
+      <c r="H61" s="3" t="s">
         <v>382</v>
       </c>
-      <c r="I61" s="5" t="s">
+      <c r="I61" s="3" t="s">
         <v>373</v>
       </c>
       <c r="J61" t="s">
@@ -4209,7 +4478,7 @@
         <v>349</v>
       </c>
     </row>
-    <row r="62" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A62" s="3" t="s">
         <v>108</v>
       </c>
@@ -4232,10 +4501,10 @@
       <c r="G62" s="3">
         <v>0</v>
       </c>
-      <c r="H62" s="5" t="s">
+      <c r="H62" s="3" t="s">
         <v>382</v>
       </c>
-      <c r="I62" s="5" t="s">
+      <c r="I62" s="3" t="s">
         <v>373</v>
       </c>
       <c r="J62" t="s">
@@ -4248,7 +4517,7 @@
         <v>350</v>
       </c>
     </row>
-    <row r="63" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A63" s="3" t="s">
         <v>109</v>
       </c>
@@ -4271,10 +4540,10 @@
       <c r="G63" s="3">
         <v>0</v>
       </c>
-      <c r="H63" s="5" t="s">
+      <c r="H63" s="3" t="s">
         <v>382</v>
       </c>
-      <c r="I63" s="5" t="s">
+      <c r="I63" s="3" t="s">
         <v>373</v>
       </c>
       <c r="J63" t="s">
@@ -4287,7 +4556,7 @@
         <v>351</v>
       </c>
     </row>
-    <row r="64" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A64" s="3" t="s">
         <v>110</v>
       </c>
@@ -4310,10 +4579,10 @@
       <c r="G64" s="3">
         <v>0</v>
       </c>
-      <c r="H64" s="5" t="s">
+      <c r="H64" s="3" t="s">
         <v>382</v>
       </c>
-      <c r="I64" s="5" t="s">
+      <c r="I64" s="3" t="s">
         <v>373</v>
       </c>
       <c r="J64" t="s">
@@ -4326,7 +4595,7 @@
         <v>352</v>
       </c>
     </row>
-    <row r="65" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A65" s="3" t="s">
         <v>111</v>
       </c>
@@ -4349,10 +4618,10 @@
       <c r="G65" s="3">
         <v>0</v>
       </c>
-      <c r="H65" s="5" t="s">
+      <c r="H65" s="3" t="s">
         <v>382</v>
       </c>
-      <c r="I65" s="5" t="s">
+      <c r="I65" s="3" t="s">
         <v>373</v>
       </c>
       <c r="J65" t="s">
@@ -4365,7 +4634,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="66" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A66" s="3" t="s">
         <v>112</v>
       </c>
@@ -4388,10 +4657,10 @@
       <c r="G66" s="3">
         <v>0</v>
       </c>
-      <c r="H66" s="5" t="s">
+      <c r="H66" s="3" t="s">
         <v>382</v>
       </c>
-      <c r="I66" s="5" t="s">
+      <c r="I66" s="3" t="s">
         <v>373</v>
       </c>
       <c r="J66" t="s">
@@ -4404,7 +4673,7 @@
         <v>354</v>
       </c>
     </row>
-    <row r="67" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A67" s="3" t="s">
         <v>113</v>
       </c>
@@ -4427,10 +4696,10 @@
       <c r="G67" s="3">
         <v>0</v>
       </c>
-      <c r="H67" s="5" t="s">
+      <c r="H67" s="3" t="s">
         <v>382</v>
       </c>
-      <c r="I67" s="5" t="s">
+      <c r="I67" s="3" t="s">
         <v>373</v>
       </c>
       <c r="J67" t="s">
@@ -4443,7 +4712,7 @@
         <v>353</v>
       </c>
     </row>
-    <row r="68" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A68" s="3" t="s">
         <v>114</v>
       </c>
@@ -4466,10 +4735,10 @@
       <c r="G68" s="3">
         <v>0</v>
       </c>
-      <c r="H68" s="5" t="s">
+      <c r="H68" s="3" t="s">
         <v>382</v>
       </c>
-      <c r="I68" s="5" t="s">
+      <c r="I68" s="3" t="s">
         <v>373</v>
       </c>
       <c r="J68" t="s">
@@ -4482,7 +4751,7 @@
         <v>359</v>
       </c>
     </row>
-    <row r="69" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A69" s="3" t="s">
         <v>115</v>
       </c>
@@ -4505,10 +4774,10 @@
       <c r="G69" s="3">
         <v>0</v>
       </c>
-      <c r="H69" s="5" t="s">
+      <c r="H69" s="3" t="s">
         <v>382</v>
       </c>
-      <c r="I69" s="5" t="s">
+      <c r="I69" s="3" t="s">
         <v>373</v>
       </c>
       <c r="J69" t="s">
@@ -4521,7 +4790,7 @@
         <v>360</v>
       </c>
     </row>
-    <row r="70" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A70" s="3" t="s">
         <v>116</v>
       </c>
@@ -4544,10 +4813,10 @@
       <c r="G70" s="3">
         <v>0</v>
       </c>
-      <c r="H70" s="5" t="s">
+      <c r="H70" s="3" t="s">
         <v>382</v>
       </c>
-      <c r="I70" s="5" t="s">
+      <c r="I70" s="3" t="s">
         <v>373</v>
       </c>
       <c r="J70" t="s">
@@ -4560,7 +4829,7 @@
         <v>361</v>
       </c>
     </row>
-    <row r="71" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A71" s="3" t="s">
         <v>117</v>
       </c>
@@ -4583,10 +4852,10 @@
       <c r="G71" s="3">
         <v>0</v>
       </c>
-      <c r="H71" s="5" t="s">
+      <c r="H71" s="3" t="s">
         <v>382</v>
       </c>
-      <c r="I71" s="5" t="s">
+      <c r="I71" s="3" t="s">
         <v>373</v>
       </c>
       <c r="J71" t="s">
@@ -4599,7 +4868,7 @@
         <v>362</v>
       </c>
     </row>
-    <row r="72" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A72" s="3" t="s">
         <v>118</v>
       </c>
@@ -4622,10 +4891,10 @@
       <c r="G72" s="3">
         <v>0</v>
       </c>
-      <c r="H72" s="5" t="s">
+      <c r="H72" s="3" t="s">
         <v>382</v>
       </c>
-      <c r="I72" s="5" t="s">
+      <c r="I72" s="3" t="s">
         <v>373</v>
       </c>
       <c r="J72" t="s">
@@ -4638,7 +4907,7 @@
         <v>363</v>
       </c>
     </row>
-    <row r="73" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A73" s="3" t="s">
         <v>119</v>
       </c>
@@ -4661,10 +4930,10 @@
       <c r="G73" s="3">
         <v>0</v>
       </c>
-      <c r="H73" s="5" t="s">
+      <c r="H73" s="3" t="s">
         <v>382</v>
       </c>
-      <c r="I73" s="5" t="s">
+      <c r="I73" s="3" t="s">
         <v>373</v>
       </c>
       <c r="J73" t="s">
@@ -4677,7 +4946,7 @@
         <v>364</v>
       </c>
     </row>
-    <row r="74" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A74" s="3" t="s">
         <v>120</v>
       </c>
@@ -4700,10 +4969,10 @@
       <c r="G74" s="3">
         <v>0</v>
       </c>
-      <c r="H74" s="5" t="s">
+      <c r="H74" s="3" t="s">
         <v>382</v>
       </c>
-      <c r="I74" s="5" t="s">
+      <c r="I74" s="3" t="s">
         <v>373</v>
       </c>
       <c r="J74" t="s">
@@ -4716,7 +4985,7 @@
         <v>365</v>
       </c>
     </row>
-    <row r="75" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A75" s="3" t="s">
         <v>121</v>
       </c>
@@ -4739,10 +5008,10 @@
       <c r="G75" s="3">
         <v>0</v>
       </c>
-      <c r="H75" s="5" t="s">
+      <c r="H75" s="3" t="s">
         <v>382</v>
       </c>
-      <c r="I75" s="5" t="s">
+      <c r="I75" s="3" t="s">
         <v>373</v>
       </c>
       <c r="J75" t="s">
@@ -4755,7 +5024,7 @@
         <v>366</v>
       </c>
     </row>
-    <row r="76" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A76" s="3" t="s">
         <v>122</v>
       </c>
@@ -4778,10 +5047,10 @@
       <c r="G76" s="3">
         <v>0</v>
       </c>
-      <c r="H76" s="5" t="s">
+      <c r="H76" s="3" t="s">
         <v>382</v>
       </c>
-      <c r="I76" s="5" t="s">
+      <c r="I76" s="3" t="s">
         <v>373</v>
       </c>
       <c r="J76" t="s">
@@ -4794,7 +5063,7 @@
         <v>367</v>
       </c>
     </row>
-    <row r="77" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A77" s="3" t="s">
         <v>123</v>
       </c>
@@ -4817,17 +5086,23 @@
       <c r="G77" s="3">
         <v>0</v>
       </c>
-      <c r="H77" s="5" t="s">
+      <c r="H77" s="3" t="s">
         <v>382</v>
       </c>
-      <c r="I77" s="5" t="s">
+      <c r="I77" s="3" t="s">
         <v>373</v>
       </c>
       <c r="J77" t="s">
         <v>386</v>
       </c>
-    </row>
-    <row r="78" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+      <c r="M77" s="1">
+        <v>12</v>
+      </c>
+      <c r="N77" s="1" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="78" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A78" s="3" t="s">
         <v>124</v>
       </c>
@@ -4850,17 +5125,23 @@
       <c r="G78" s="3">
         <v>0</v>
       </c>
-      <c r="H78" s="5" t="s">
+      <c r="H78" s="3" t="s">
         <v>382</v>
       </c>
-      <c r="I78" s="5" t="s">
+      <c r="I78" s="3" t="s">
         <v>373</v>
       </c>
       <c r="J78" t="s">
         <v>386</v>
       </c>
-    </row>
-    <row r="79" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+      <c r="M78" s="1">
+        <v>12</v>
+      </c>
+      <c r="N78" s="1" t="s">
+        <v>467</v>
+      </c>
+    </row>
+    <row r="79" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A79" s="3" t="s">
         <v>125</v>
       </c>
@@ -4883,17 +5164,23 @@
       <c r="G79" s="3">
         <v>0</v>
       </c>
-      <c r="H79" s="5" t="s">
+      <c r="H79" s="3" t="s">
         <v>382</v>
       </c>
-      <c r="I79" s="5" t="s">
+      <c r="I79" s="3" t="s">
         <v>373</v>
       </c>
       <c r="J79" t="s">
         <v>386</v>
       </c>
-    </row>
-    <row r="80" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+      <c r="M79" s="1">
+        <v>12</v>
+      </c>
+      <c r="N79" s="1" t="s">
+        <v>468</v>
+      </c>
+    </row>
+    <row r="80" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A80" s="3" t="s">
         <v>126</v>
       </c>
@@ -4916,17 +5203,23 @@
       <c r="G80" s="3">
         <v>0</v>
       </c>
-      <c r="H80" s="5" t="s">
+      <c r="H80" s="3" t="s">
         <v>382</v>
       </c>
-      <c r="I80" s="5" t="s">
+      <c r="I80" s="3" t="s">
         <v>373</v>
       </c>
       <c r="J80" t="s">
         <v>386</v>
       </c>
-    </row>
-    <row r="81" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+      <c r="M80" s="1">
+        <v>12</v>
+      </c>
+      <c r="N80" s="1" t="s">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="81" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A81" s="3" t="s">
         <v>127</v>
       </c>
@@ -4949,17 +5242,23 @@
       <c r="G81" s="3">
         <v>0</v>
       </c>
-      <c r="H81" s="5" t="s">
+      <c r="H81" s="3" t="s">
         <v>382</v>
       </c>
-      <c r="I81" s="5" t="s">
+      <c r="I81" s="3" t="s">
         <v>374</v>
       </c>
       <c r="J81" t="s">
         <v>386</v>
       </c>
-    </row>
-    <row r="82" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+      <c r="M81" s="1">
+        <v>12</v>
+      </c>
+      <c r="N81" s="1" t="s">
+        <v>470</v>
+      </c>
+    </row>
+    <row r="82" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A82" s="3" t="s">
         <v>128</v>
       </c>
@@ -4982,17 +5281,23 @@
       <c r="G82" s="3">
         <v>0</v>
       </c>
-      <c r="H82" s="5" t="s">
+      <c r="H82" s="3" t="s">
         <v>382</v>
       </c>
-      <c r="I82" s="5" t="s">
+      <c r="I82" s="3" t="s">
         <v>374</v>
       </c>
       <c r="J82" t="s">
         <v>386</v>
       </c>
-    </row>
-    <row r="83" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+      <c r="M82" s="1">
+        <v>12</v>
+      </c>
+      <c r="N82" s="1" t="s">
+        <v>471</v>
+      </c>
+    </row>
+    <row r="83" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A83" s="3" t="s">
         <v>129</v>
       </c>
@@ -5015,17 +5320,23 @@
       <c r="G83" s="3">
         <v>0</v>
       </c>
-      <c r="H83" s="5" t="s">
+      <c r="H83" s="3" t="s">
         <v>382</v>
       </c>
-      <c r="I83" s="5" t="s">
+      <c r="I83" s="3" t="s">
         <v>374</v>
       </c>
       <c r="J83" t="s">
         <v>386</v>
       </c>
-    </row>
-    <row r="84" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+      <c r="M83" s="1">
+        <v>12</v>
+      </c>
+      <c r="N83" s="1" t="s">
+        <v>472</v>
+      </c>
+    </row>
+    <row r="84" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A84" s="3" t="s">
         <v>130</v>
       </c>
@@ -5048,17 +5359,23 @@
       <c r="G84" s="3">
         <v>0</v>
       </c>
-      <c r="H84" s="5" t="s">
+      <c r="H84" s="3" t="s">
         <v>382</v>
       </c>
-      <c r="I84" s="5" t="s">
+      <c r="I84" s="3" t="s">
         <v>374</v>
       </c>
       <c r="J84" t="s">
         <v>386</v>
       </c>
-    </row>
-    <row r="85" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+      <c r="M84" s="1">
+        <v>12</v>
+      </c>
+      <c r="N84" s="1" t="s">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="85" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A85" s="3" t="s">
         <v>131</v>
       </c>
@@ -5081,17 +5398,23 @@
       <c r="G85" s="3">
         <v>0</v>
       </c>
-      <c r="H85" s="5" t="s">
+      <c r="H85" s="3" t="s">
         <v>382</v>
       </c>
-      <c r="I85" s="5" t="s">
+      <c r="I85" s="3" t="s">
         <v>374</v>
       </c>
       <c r="J85" t="s">
         <v>386</v>
       </c>
-    </row>
-    <row r="86" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+      <c r="M85" s="1">
+        <v>12</v>
+      </c>
+      <c r="N85" s="1" t="s">
+        <v>474</v>
+      </c>
+    </row>
+    <row r="86" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A86" s="3" t="s">
         <v>132</v>
       </c>
@@ -5114,17 +5437,23 @@
       <c r="G86" s="3">
         <v>0</v>
       </c>
-      <c r="H86" s="5" t="s">
+      <c r="H86" s="3" t="s">
         <v>382</v>
       </c>
-      <c r="I86" s="5" t="s">
+      <c r="I86" s="3" t="s">
         <v>374</v>
       </c>
       <c r="J86" t="s">
         <v>386</v>
       </c>
-    </row>
-    <row r="87" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+      <c r="M86" s="1">
+        <v>12</v>
+      </c>
+      <c r="N86" s="1" t="s">
+        <v>475</v>
+      </c>
+    </row>
+    <row r="87" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A87" s="3" t="s">
         <v>133</v>
       </c>
@@ -5147,17 +5476,23 @@
       <c r="G87" s="3">
         <v>0</v>
       </c>
-      <c r="H87" s="5" t="s">
+      <c r="H87" s="3" t="s">
         <v>382</v>
       </c>
-      <c r="I87" s="5" t="s">
+      <c r="I87" s="3" t="s">
         <v>374</v>
       </c>
       <c r="J87" t="s">
         <v>386</v>
       </c>
-    </row>
-    <row r="88" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+      <c r="M87" s="1">
+        <v>12</v>
+      </c>
+      <c r="N87" s="1" t="s">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="88" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A88" s="3" t="s">
         <v>134</v>
       </c>
@@ -5180,17 +5515,23 @@
       <c r="G88" s="3">
         <v>0</v>
       </c>
-      <c r="H88" s="5" t="s">
+      <c r="H88" s="3" t="s">
         <v>382</v>
       </c>
-      <c r="I88" s="5" t="s">
+      <c r="I88" s="3" t="s">
         <v>374</v>
       </c>
       <c r="J88" t="s">
         <v>386</v>
       </c>
-    </row>
-    <row r="89" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+      <c r="M88" s="1">
+        <v>12</v>
+      </c>
+      <c r="N88" s="1" t="s">
+        <v>477</v>
+      </c>
+    </row>
+    <row r="89" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A89" s="3" t="s">
         <v>135</v>
       </c>
@@ -5213,17 +5554,23 @@
       <c r="G89" s="3">
         <v>0</v>
       </c>
-      <c r="H89" s="5" t="s">
+      <c r="H89" s="3" t="s">
         <v>382</v>
       </c>
-      <c r="I89" s="5" t="s">
+      <c r="I89" s="3" t="s">
         <v>374</v>
       </c>
       <c r="J89" t="s">
         <v>386</v>
       </c>
-    </row>
-    <row r="90" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+      <c r="M89" s="1">
+        <v>12</v>
+      </c>
+      <c r="N89" s="1" t="s">
+        <v>478</v>
+      </c>
+    </row>
+    <row r="90" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A90" s="3" t="s">
         <v>136</v>
       </c>
@@ -5246,17 +5593,23 @@
       <c r="G90" s="3">
         <v>0</v>
       </c>
-      <c r="H90" s="5" t="s">
+      <c r="H90" s="3" t="s">
         <v>382</v>
       </c>
-      <c r="I90" s="5" t="s">
+      <c r="I90" s="3" t="s">
         <v>374</v>
       </c>
       <c r="J90" t="s">
         <v>386</v>
       </c>
-    </row>
-    <row r="91" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+      <c r="M90" s="1">
+        <v>12</v>
+      </c>
+      <c r="N90" s="1" t="s">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="91" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A91" s="3" t="s">
         <v>137</v>
       </c>
@@ -5279,17 +5632,23 @@
       <c r="G91" s="3">
         <v>0</v>
       </c>
-      <c r="H91" s="5" t="s">
+      <c r="H91" s="3" t="s">
         <v>382</v>
       </c>
-      <c r="I91" s="5" t="s">
+      <c r="I91" s="3" t="s">
         <v>374</v>
       </c>
       <c r="J91" t="s">
         <v>386</v>
       </c>
-    </row>
-    <row r="92" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+      <c r="M91" s="1">
+        <v>12</v>
+      </c>
+      <c r="N91" s="1" t="s">
+        <v>480</v>
+      </c>
+    </row>
+    <row r="92" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A92" s="3" t="s">
         <v>138</v>
       </c>
@@ -5312,17 +5671,23 @@
       <c r="G92" s="3">
         <v>0</v>
       </c>
-      <c r="H92" s="5" t="s">
+      <c r="H92" s="3" t="s">
         <v>382</v>
       </c>
-      <c r="I92" s="5" t="s">
+      <c r="I92" s="3" t="s">
         <v>374</v>
       </c>
       <c r="J92" t="s">
         <v>386</v>
       </c>
-    </row>
-    <row r="93" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+      <c r="M92" s="1">
+        <v>12</v>
+      </c>
+      <c r="N92" s="1" t="s">
+        <v>481</v>
+      </c>
+    </row>
+    <row r="93" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A93" s="3" t="s">
         <v>139</v>
       </c>
@@ -5345,17 +5710,23 @@
       <c r="G93" s="3">
         <v>0</v>
       </c>
-      <c r="H93" s="5" t="s">
+      <c r="H93" s="3" t="s">
         <v>382</v>
       </c>
-      <c r="I93" s="5" t="s">
+      <c r="I93" s="3" t="s">
         <v>374</v>
       </c>
       <c r="J93" t="s">
         <v>386</v>
       </c>
-    </row>
-    <row r="94" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+      <c r="M93" s="1">
+        <v>12</v>
+      </c>
+      <c r="N93" s="1" t="s">
+        <v>482</v>
+      </c>
+    </row>
+    <row r="94" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A94" s="3" t="s">
         <v>140</v>
       </c>
@@ -5378,17 +5749,23 @@
       <c r="G94" s="3">
         <v>0</v>
       </c>
-      <c r="H94" s="5" t="s">
+      <c r="H94" s="3" t="s">
         <v>382</v>
       </c>
-      <c r="I94" s="5" t="s">
+      <c r="I94" s="3" t="s">
         <v>374</v>
       </c>
       <c r="J94" t="s">
         <v>386</v>
       </c>
-    </row>
-    <row r="95" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+      <c r="M94" s="1">
+        <v>12</v>
+      </c>
+      <c r="N94" s="1" t="s">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="95" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A95" s="3" t="s">
         <v>141</v>
       </c>
@@ -5411,17 +5788,23 @@
       <c r="G95" s="3">
         <v>0</v>
       </c>
-      <c r="H95" s="5" t="s">
+      <c r="H95" s="3" t="s">
         <v>382</v>
       </c>
-      <c r="I95" s="5" t="s">
+      <c r="I95" s="3" t="s">
         <v>374</v>
       </c>
       <c r="J95" t="s">
         <v>386</v>
       </c>
-    </row>
-    <row r="96" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+      <c r="M95" s="1">
+        <v>12</v>
+      </c>
+      <c r="N95" s="1" t="s">
+        <v>484</v>
+      </c>
+    </row>
+    <row r="96" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A96" s="3" t="s">
         <v>142</v>
       </c>
@@ -5444,17 +5827,23 @@
       <c r="G96" s="3">
         <v>0</v>
       </c>
-      <c r="H96" s="5" t="s">
+      <c r="H96" s="3" t="s">
         <v>382</v>
       </c>
-      <c r="I96" s="5" t="s">
+      <c r="I96" s="3" t="s">
         <v>374</v>
       </c>
       <c r="J96" t="s">
         <v>386</v>
       </c>
-    </row>
-    <row r="97" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+      <c r="M96" s="1">
+        <v>12</v>
+      </c>
+      <c r="N96" s="1" t="s">
+        <v>485</v>
+      </c>
+    </row>
+    <row r="97" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A97" s="3" t="s">
         <v>143</v>
       </c>
@@ -5477,17 +5866,23 @@
       <c r="G97" s="3">
         <v>0</v>
       </c>
-      <c r="H97" s="5" t="s">
+      <c r="H97" s="3" t="s">
         <v>382</v>
       </c>
-      <c r="I97" s="5" t="s">
+      <c r="I97" s="3" t="s">
         <v>374</v>
       </c>
       <c r="J97" t="s">
         <v>386</v>
       </c>
-    </row>
-    <row r="98" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+      <c r="M97" s="1">
+        <v>12</v>
+      </c>
+      <c r="N97" s="1" t="s">
+        <v>486</v>
+      </c>
+    </row>
+    <row r="98" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A98" s="3" t="s">
         <v>144</v>
       </c>
@@ -5510,17 +5905,23 @@
       <c r="G98" s="3">
         <v>0</v>
       </c>
-      <c r="H98" s="5" t="s">
+      <c r="H98" s="3" t="s">
         <v>382</v>
       </c>
-      <c r="I98" s="5" t="s">
+      <c r="I98" s="3" t="s">
         <v>374</v>
       </c>
       <c r="J98" t="s">
         <v>386</v>
       </c>
-    </row>
-    <row r="99" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+      <c r="M98" s="1">
+        <v>12</v>
+      </c>
+      <c r="N98" s="1" t="s">
+        <v>487</v>
+      </c>
+    </row>
+    <row r="99" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A99" s="3" t="s">
         <v>145</v>
       </c>
@@ -5543,17 +5944,23 @@
       <c r="G99" s="3">
         <v>0</v>
       </c>
-      <c r="H99" s="5" t="s">
+      <c r="H99" s="3" t="s">
         <v>382</v>
       </c>
-      <c r="I99" s="5" t="s">
+      <c r="I99" s="3" t="s">
         <v>374</v>
       </c>
       <c r="J99" t="s">
         <v>386</v>
       </c>
-    </row>
-    <row r="100" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+      <c r="M99" s="1">
+        <v>12</v>
+      </c>
+      <c r="N99" s="1" t="s">
+        <v>488</v>
+      </c>
+    </row>
+    <row r="100" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A100" s="3" t="s">
         <v>146</v>
       </c>
@@ -5576,17 +5983,23 @@
       <c r="G100" s="3">
         <v>0</v>
       </c>
-      <c r="H100" s="5" t="s">
+      <c r="H100" s="3" t="s">
         <v>382</v>
       </c>
-      <c r="I100" s="5" t="s">
+      <c r="I100" s="3" t="s">
         <v>374</v>
       </c>
       <c r="J100" t="s">
         <v>386</v>
       </c>
-    </row>
-    <row r="101" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+      <c r="M100" s="1">
+        <v>12</v>
+      </c>
+      <c r="N100" s="1" t="s">
+        <v>489</v>
+      </c>
+    </row>
+    <row r="101" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A101" s="3" t="s">
         <v>147</v>
       </c>
@@ -5609,17 +6022,23 @@
       <c r="G101" s="3">
         <v>0</v>
       </c>
-      <c r="H101" s="5" t="s">
+      <c r="H101" s="3" t="s">
         <v>382</v>
       </c>
-      <c r="I101" s="5" t="s">
+      <c r="I101" s="3" t="s">
         <v>374</v>
       </c>
       <c r="J101" t="s">
         <v>386</v>
       </c>
-    </row>
-    <row r="102" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+      <c r="M101" s="1">
+        <v>12</v>
+      </c>
+      <c r="N101" s="1" t="s">
+        <v>490</v>
+      </c>
+    </row>
+    <row r="102" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A102" s="3" t="s">
         <v>148</v>
       </c>
@@ -5642,17 +6061,23 @@
       <c r="G102" s="3">
         <v>0</v>
       </c>
-      <c r="H102" s="5" t="s">
+      <c r="H102" s="3" t="s">
         <v>382</v>
       </c>
-      <c r="I102" s="5" t="s">
+      <c r="I102" s="3" t="s">
         <v>374</v>
       </c>
       <c r="J102" t="s">
         <v>386</v>
       </c>
-    </row>
-    <row r="103" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+      <c r="M102" s="1">
+        <v>12</v>
+      </c>
+      <c r="N102" s="1" t="s">
+        <v>491</v>
+      </c>
+    </row>
+    <row r="103" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A103" s="3" t="s">
         <v>149</v>
       </c>
@@ -5675,17 +6100,23 @@
       <c r="G103" s="3">
         <v>0</v>
       </c>
-      <c r="H103" s="5" t="s">
+      <c r="H103" s="3" t="s">
         <v>382</v>
       </c>
-      <c r="I103" s="5" t="s">
+      <c r="I103" s="3" t="s">
         <v>374</v>
       </c>
       <c r="J103" t="s">
         <v>386</v>
       </c>
-    </row>
-    <row r="104" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+      <c r="M103" s="1">
+        <v>12</v>
+      </c>
+      <c r="N103" s="1" t="s">
+        <v>492</v>
+      </c>
+    </row>
+    <row r="104" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A104" s="3" t="s">
         <v>150</v>
       </c>
@@ -5708,17 +6139,23 @@
       <c r="G104" s="3">
         <v>0</v>
       </c>
-      <c r="H104" s="5" t="s">
+      <c r="H104" s="3" t="s">
         <v>382</v>
       </c>
-      <c r="I104" s="5" t="s">
+      <c r="I104" s="3" t="s">
         <v>374</v>
       </c>
       <c r="J104" t="s">
         <v>386</v>
       </c>
-    </row>
-    <row r="105" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+      <c r="M104" s="1">
+        <v>12</v>
+      </c>
+      <c r="N104" s="1" t="s">
+        <v>493</v>
+      </c>
+    </row>
+    <row r="105" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A105" s="3" t="s">
         <v>151</v>
       </c>
@@ -5741,17 +6178,23 @@
       <c r="G105" s="3">
         <v>0</v>
       </c>
-      <c r="H105" s="5" t="s">
+      <c r="H105" s="3" t="s">
         <v>382</v>
       </c>
-      <c r="I105" s="5" t="s">
+      <c r="I105" s="3" t="s">
         <v>374</v>
       </c>
       <c r="J105" t="s">
         <v>386</v>
       </c>
-    </row>
-    <row r="106" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+      <c r="M105" s="1">
+        <v>12</v>
+      </c>
+      <c r="N105" s="1" t="s">
+        <v>494</v>
+      </c>
+    </row>
+    <row r="106" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A106" s="3" t="s">
         <v>152</v>
       </c>
@@ -5774,17 +6217,23 @@
       <c r="G106" s="3">
         <v>0</v>
       </c>
-      <c r="H106" s="5" t="s">
+      <c r="H106" s="3" t="s">
         <v>382</v>
       </c>
-      <c r="I106" s="5" t="s">
+      <c r="I106" s="3" t="s">
         <v>374</v>
       </c>
       <c r="J106" t="s">
         <v>386</v>
       </c>
-    </row>
-    <row r="107" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+      <c r="M106" s="1">
+        <v>12</v>
+      </c>
+      <c r="N106" s="1" t="s">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="107" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A107" s="3" t="s">
         <v>153</v>
       </c>
@@ -5807,17 +6256,23 @@
       <c r="G107" s="3">
         <v>0</v>
       </c>
-      <c r="H107" s="5" t="s">
+      <c r="H107" s="3" t="s">
         <v>382</v>
       </c>
-      <c r="I107" s="5" t="s">
+      <c r="I107" s="3" t="s">
         <v>374</v>
       </c>
       <c r="J107" t="s">
         <v>386</v>
       </c>
-    </row>
-    <row r="108" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+      <c r="M107" s="1">
+        <v>12</v>
+      </c>
+      <c r="N107" s="1" t="s">
+        <v>496</v>
+      </c>
+    </row>
+    <row r="108" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A108" s="3" t="s">
         <v>154</v>
       </c>
@@ -5840,17 +6295,23 @@
       <c r="G108" s="3">
         <v>0</v>
       </c>
-      <c r="H108" s="5" t="s">
+      <c r="H108" s="3" t="s">
         <v>382</v>
       </c>
-      <c r="I108" s="5" t="s">
+      <c r="I108" s="3" t="s">
         <v>374</v>
       </c>
       <c r="J108" t="s">
         <v>386</v>
       </c>
-    </row>
-    <row r="109" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+      <c r="M108" s="1">
+        <v>12</v>
+      </c>
+      <c r="N108" s="1" t="s">
+        <v>497</v>
+      </c>
+    </row>
+    <row r="109" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A109" s="3" t="s">
         <v>155</v>
       </c>
@@ -5873,17 +6334,23 @@
       <c r="G109" s="3">
         <v>0</v>
       </c>
-      <c r="H109" s="5" t="s">
+      <c r="H109" s="3" t="s">
         <v>382</v>
       </c>
-      <c r="I109" s="5" t="s">
+      <c r="I109" s="3" t="s">
         <v>374</v>
       </c>
       <c r="J109" t="s">
         <v>386</v>
       </c>
-    </row>
-    <row r="110" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+      <c r="M109" s="1">
+        <v>12</v>
+      </c>
+      <c r="N109" s="1" t="s">
+        <v>498</v>
+      </c>
+    </row>
+    <row r="110" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A110" s="3" t="s">
         <v>156</v>
       </c>
@@ -5906,17 +6373,23 @@
       <c r="G110" s="3">
         <v>0</v>
       </c>
-      <c r="H110" s="5" t="s">
+      <c r="H110" s="3" t="s">
         <v>382</v>
       </c>
-      <c r="I110" s="5" t="s">
+      <c r="I110" s="3" t="s">
         <v>374</v>
       </c>
       <c r="J110" t="s">
         <v>386</v>
       </c>
-    </row>
-    <row r="111" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+      <c r="M110" s="1">
+        <v>12</v>
+      </c>
+      <c r="N110" s="1" t="s">
+        <v>499</v>
+      </c>
+    </row>
+    <row r="111" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A111" s="3" t="s">
         <v>157</v>
       </c>
@@ -5939,17 +6412,23 @@
       <c r="G111" s="3">
         <v>0</v>
       </c>
-      <c r="H111" s="5" t="s">
+      <c r="H111" s="3" t="s">
         <v>382</v>
       </c>
-      <c r="I111" s="5" t="s">
+      <c r="I111" s="3" t="s">
         <v>375</v>
       </c>
       <c r="J111" t="s">
         <v>386</v>
       </c>
-    </row>
-    <row r="112" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+      <c r="M111" s="1">
+        <v>12</v>
+      </c>
+      <c r="N111" s="1" t="s">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="112" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A112" s="3" t="s">
         <v>158</v>
       </c>
@@ -5972,17 +6451,23 @@
       <c r="G112" s="3">
         <v>0</v>
       </c>
-      <c r="H112" s="5" t="s">
+      <c r="H112" s="3" t="s">
         <v>382</v>
       </c>
-      <c r="I112" s="5" t="s">
+      <c r="I112" s="3" t="s">
         <v>375</v>
       </c>
       <c r="J112" t="s">
         <v>386</v>
       </c>
-    </row>
-    <row r="113" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+      <c r="M112" s="1">
+        <v>12</v>
+      </c>
+      <c r="N112" s="1" t="s">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="113" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A113" s="3" t="s">
         <v>159</v>
       </c>
@@ -6005,17 +6490,23 @@
       <c r="G113" s="3">
         <v>0</v>
       </c>
-      <c r="H113" s="5" t="s">
+      <c r="H113" s="3" t="s">
         <v>382</v>
       </c>
-      <c r="I113" s="5" t="s">
+      <c r="I113" s="3" t="s">
         <v>375</v>
       </c>
       <c r="J113" t="s">
         <v>386</v>
       </c>
-    </row>
-    <row r="114" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+      <c r="M113" s="1">
+        <v>12</v>
+      </c>
+      <c r="N113" s="1" t="s">
+        <v>502</v>
+      </c>
+    </row>
+    <row r="114" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A114" s="3" t="s">
         <v>160</v>
       </c>
@@ -6038,17 +6529,23 @@
       <c r="G114" s="3">
         <v>0</v>
       </c>
-      <c r="H114" s="5" t="s">
+      <c r="H114" s="3" t="s">
         <v>382</v>
       </c>
-      <c r="I114" s="5" t="s">
+      <c r="I114" s="3" t="s">
         <v>375</v>
       </c>
       <c r="J114" t="s">
         <v>386</v>
       </c>
-    </row>
-    <row r="115" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+      <c r="M114" s="1">
+        <v>12</v>
+      </c>
+      <c r="N114" s="1" t="s">
+        <v>503</v>
+      </c>
+    </row>
+    <row r="115" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A115" s="3" t="s">
         <v>161</v>
       </c>
@@ -6071,17 +6568,23 @@
       <c r="G115" s="3">
         <v>0</v>
       </c>
-      <c r="H115" s="5" t="s">
+      <c r="H115" s="3" t="s">
         <v>382</v>
       </c>
-      <c r="I115" s="5" t="s">
+      <c r="I115" s="3" t="s">
         <v>375</v>
       </c>
       <c r="J115" t="s">
         <v>386</v>
       </c>
-    </row>
-    <row r="116" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+      <c r="M115" s="1">
+        <v>12</v>
+      </c>
+      <c r="N115" s="1" t="s">
+        <v>504</v>
+      </c>
+    </row>
+    <row r="116" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A116" s="3" t="s">
         <v>162</v>
       </c>
@@ -6104,17 +6607,23 @@
       <c r="G116" s="3">
         <v>0</v>
       </c>
-      <c r="H116" s="5" t="s">
+      <c r="H116" s="3" t="s">
         <v>382</v>
       </c>
-      <c r="I116" s="5" t="s">
+      <c r="I116" s="3" t="s">
         <v>375</v>
       </c>
       <c r="J116" t="s">
         <v>386</v>
       </c>
-    </row>
-    <row r="117" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+      <c r="M116" s="1">
+        <v>12</v>
+      </c>
+      <c r="N116" s="1" t="s">
+        <v>505</v>
+      </c>
+    </row>
+    <row r="117" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A117" s="3" t="s">
         <v>163</v>
       </c>
@@ -6137,17 +6646,23 @@
       <c r="G117" s="3">
         <v>0</v>
       </c>
-      <c r="H117" s="5" t="s">
+      <c r="H117" s="3" t="s">
         <v>382</v>
       </c>
-      <c r="I117" s="5" t="s">
+      <c r="I117" s="3" t="s">
         <v>375</v>
       </c>
       <c r="J117" t="s">
         <v>386</v>
       </c>
-    </row>
-    <row r="118" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+      <c r="M117" s="1">
+        <v>12</v>
+      </c>
+      <c r="N117" s="1" t="s">
+        <v>506</v>
+      </c>
+    </row>
+    <row r="118" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A118" s="3" t="s">
         <v>164</v>
       </c>
@@ -6170,17 +6685,23 @@
       <c r="G118" s="3">
         <v>0</v>
       </c>
-      <c r="H118" s="5" t="s">
+      <c r="H118" s="3" t="s">
         <v>382</v>
       </c>
-      <c r="I118" s="5" t="s">
+      <c r="I118" s="3" t="s">
         <v>375</v>
       </c>
       <c r="J118" t="s">
         <v>386</v>
       </c>
-    </row>
-    <row r="119" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+      <c r="M118" s="1">
+        <v>12</v>
+      </c>
+      <c r="N118" s="1" t="s">
+        <v>507</v>
+      </c>
+    </row>
+    <row r="119" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A119" s="3" t="s">
         <v>165</v>
       </c>
@@ -6203,17 +6724,23 @@
       <c r="G119" s="3">
         <v>0</v>
       </c>
-      <c r="H119" s="5" t="s">
+      <c r="H119" s="3" t="s">
         <v>382</v>
       </c>
-      <c r="I119" s="5" t="s">
+      <c r="I119" s="3" t="s">
         <v>375</v>
       </c>
       <c r="J119" t="s">
         <v>386</v>
       </c>
-    </row>
-    <row r="120" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+      <c r="M119" s="1">
+        <v>12</v>
+      </c>
+      <c r="N119" s="1" t="s">
+        <v>508</v>
+      </c>
+    </row>
+    <row r="120" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A120" s="3" t="s">
         <v>166</v>
       </c>
@@ -6236,17 +6763,23 @@
       <c r="G120" s="3">
         <v>0</v>
       </c>
-      <c r="H120" s="5" t="s">
+      <c r="H120" s="3" t="s">
         <v>382</v>
       </c>
-      <c r="I120" s="5" t="s">
+      <c r="I120" s="3" t="s">
         <v>375</v>
       </c>
       <c r="J120" t="s">
         <v>386</v>
       </c>
-    </row>
-    <row r="121" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+      <c r="M120" s="1">
+        <v>12</v>
+      </c>
+      <c r="N120" s="1" t="s">
+        <v>509</v>
+      </c>
+    </row>
+    <row r="121" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A121" s="3" t="s">
         <v>167</v>
       </c>
@@ -6269,17 +6802,23 @@
       <c r="G121" s="3">
         <v>0</v>
       </c>
-      <c r="H121" s="5" t="s">
+      <c r="H121" s="3" t="s">
         <v>382</v>
       </c>
-      <c r="I121" s="5" t="s">
+      <c r="I121" s="3" t="s">
         <v>375</v>
       </c>
       <c r="J121" t="s">
         <v>386</v>
       </c>
-    </row>
-    <row r="122" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+      <c r="M121" s="1">
+        <v>12</v>
+      </c>
+      <c r="N121" s="1" t="s">
+        <v>510</v>
+      </c>
+    </row>
+    <row r="122" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A122" s="3" t="s">
         <v>168</v>
       </c>
@@ -6302,17 +6841,23 @@
       <c r="G122" s="3">
         <v>0</v>
       </c>
-      <c r="H122" s="5" t="s">
+      <c r="H122" s="3" t="s">
         <v>382</v>
       </c>
-      <c r="I122" s="5" t="s">
+      <c r="I122" s="3" t="s">
         <v>375</v>
       </c>
       <c r="J122" t="s">
         <v>386</v>
       </c>
-    </row>
-    <row r="123" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+      <c r="M122" s="1">
+        <v>12</v>
+      </c>
+      <c r="N122" s="1" t="s">
+        <v>511</v>
+      </c>
+    </row>
+    <row r="123" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A123" s="3" t="s">
         <v>169</v>
       </c>
@@ -6335,17 +6880,23 @@
       <c r="G123" s="3">
         <v>0</v>
       </c>
-      <c r="H123" s="5" t="s">
+      <c r="H123" s="3" t="s">
         <v>382</v>
       </c>
-      <c r="I123" s="5" t="s">
+      <c r="I123" s="3" t="s">
         <v>375</v>
       </c>
       <c r="J123" t="s">
         <v>386</v>
       </c>
-    </row>
-    <row r="124" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+      <c r="M123" s="1">
+        <v>12</v>
+      </c>
+      <c r="N123" s="1" t="s">
+        <v>512</v>
+      </c>
+    </row>
+    <row r="124" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A124" s="3" t="s">
         <v>170</v>
       </c>
@@ -6368,17 +6919,23 @@
       <c r="G124" s="3">
         <v>0</v>
       </c>
-      <c r="H124" s="5" t="s">
+      <c r="H124" s="3" t="s">
         <v>382</v>
       </c>
-      <c r="I124" s="5" t="s">
+      <c r="I124" s="3" t="s">
         <v>375</v>
       </c>
       <c r="J124" t="s">
         <v>386</v>
       </c>
-    </row>
-    <row r="125" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+      <c r="M124" s="1">
+        <v>12</v>
+      </c>
+      <c r="N124" s="1" t="s">
+        <v>513</v>
+      </c>
+    </row>
+    <row r="125" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A125" s="3" t="s">
         <v>171</v>
       </c>
@@ -6401,17 +6958,23 @@
       <c r="G125" s="3">
         <v>0</v>
       </c>
-      <c r="H125" s="5" t="s">
+      <c r="H125" s="3" t="s">
         <v>382</v>
       </c>
-      <c r="I125" s="5" t="s">
+      <c r="I125" s="3" t="s">
         <v>375</v>
       </c>
       <c r="J125" t="s">
         <v>386</v>
       </c>
-    </row>
-    <row r="126" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+      <c r="M125" s="1">
+        <v>12</v>
+      </c>
+      <c r="N125" s="1" t="s">
+        <v>514</v>
+      </c>
+    </row>
+    <row r="126" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A126" s="3" t="s">
         <v>172</v>
       </c>
@@ -6434,17 +6997,23 @@
       <c r="G126" s="3">
         <v>0</v>
       </c>
-      <c r="H126" s="5" t="s">
+      <c r="H126" s="3" t="s">
         <v>382</v>
       </c>
-      <c r="I126" s="5" t="s">
+      <c r="I126" s="3" t="s">
         <v>375</v>
       </c>
       <c r="J126" t="s">
         <v>386</v>
       </c>
-    </row>
-    <row r="127" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+      <c r="M126" s="1">
+        <v>12</v>
+      </c>
+      <c r="N126" s="1" t="s">
+        <v>515</v>
+      </c>
+    </row>
+    <row r="127" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A127" s="3" t="s">
         <v>173</v>
       </c>
@@ -6467,17 +7036,23 @@
       <c r="G127" s="3">
         <v>0</v>
       </c>
-      <c r="H127" s="5" t="s">
+      <c r="H127" s="3" t="s">
         <v>382</v>
       </c>
-      <c r="I127" s="5" t="s">
+      <c r="I127" s="3" t="s">
         <v>375</v>
       </c>
       <c r="J127" t="s">
         <v>386</v>
       </c>
-    </row>
-    <row r="128" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+      <c r="M127" s="1">
+        <v>12</v>
+      </c>
+      <c r="N127" s="1" t="s">
+        <v>516</v>
+      </c>
+    </row>
+    <row r="128" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A128" s="3" t="s">
         <v>174</v>
       </c>
@@ -6500,17 +7075,23 @@
       <c r="G128" s="3">
         <v>0</v>
       </c>
-      <c r="H128" s="5" t="s">
+      <c r="H128" s="3" t="s">
         <v>382</v>
       </c>
-      <c r="I128" s="5" t="s">
+      <c r="I128" s="3" t="s">
         <v>375</v>
       </c>
       <c r="J128" t="s">
         <v>386</v>
       </c>
-    </row>
-    <row r="129" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+      <c r="M128" s="1">
+        <v>12</v>
+      </c>
+      <c r="N128" s="1" t="s">
+        <v>517</v>
+      </c>
+    </row>
+    <row r="129" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A129" s="3" t="s">
         <v>175</v>
       </c>
@@ -6533,17 +7114,23 @@
       <c r="G129" s="3">
         <v>0</v>
       </c>
-      <c r="H129" s="5" t="s">
+      <c r="H129" s="3" t="s">
         <v>382</v>
       </c>
-      <c r="I129" s="5" t="s">
+      <c r="I129" s="3" t="s">
         <v>375</v>
       </c>
       <c r="J129" t="s">
         <v>386</v>
       </c>
-    </row>
-    <row r="130" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+      <c r="M129" s="1">
+        <v>12</v>
+      </c>
+      <c r="N129" s="1" t="s">
+        <v>518</v>
+      </c>
+    </row>
+    <row r="130" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A130" s="3" t="s">
         <v>176</v>
       </c>
@@ -6566,17 +7153,23 @@
       <c r="G130" s="3">
         <v>0</v>
       </c>
-      <c r="H130" s="5" t="s">
+      <c r="H130" s="3" t="s">
         <v>382</v>
       </c>
-      <c r="I130" s="5" t="s">
+      <c r="I130" s="3" t="s">
         <v>375</v>
       </c>
       <c r="J130" t="s">
         <v>386</v>
       </c>
-    </row>
-    <row r="131" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+      <c r="M130" s="1">
+        <v>12</v>
+      </c>
+      <c r="N130" s="1" t="s">
+        <v>519</v>
+      </c>
+    </row>
+    <row r="131" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A131" s="3" t="s">
         <v>177</v>
       </c>
@@ -6599,17 +7192,23 @@
       <c r="G131" s="3">
         <v>0</v>
       </c>
-      <c r="H131" s="5" t="s">
+      <c r="H131" s="3" t="s">
         <v>382</v>
       </c>
-      <c r="I131" s="5" t="s">
+      <c r="I131" s="3" t="s">
         <v>375</v>
       </c>
       <c r="J131" t="s">
         <v>386</v>
       </c>
-    </row>
-    <row r="132" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+      <c r="M131" s="1">
+        <v>12</v>
+      </c>
+      <c r="N131" s="1" t="s">
+        <v>520</v>
+      </c>
+    </row>
+    <row r="132" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A132" s="3" t="s">
         <v>178</v>
       </c>
@@ -6632,17 +7231,23 @@
       <c r="G132" s="3">
         <v>0</v>
       </c>
-      <c r="H132" s="5" t="s">
+      <c r="H132" s="3" t="s">
         <v>382</v>
       </c>
-      <c r="I132" s="5" t="s">
+      <c r="I132" s="3" t="s">
         <v>375</v>
       </c>
       <c r="J132" t="s">
         <v>386</v>
       </c>
-    </row>
-    <row r="133" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+      <c r="M132" s="1">
+        <v>12</v>
+      </c>
+      <c r="N132" s="1" t="s">
+        <v>521</v>
+      </c>
+    </row>
+    <row r="133" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A133" s="3" t="s">
         <v>179</v>
       </c>
@@ -6665,17 +7270,23 @@
       <c r="G133" s="3">
         <v>0</v>
       </c>
-      <c r="H133" s="5" t="s">
+      <c r="H133" s="3" t="s">
         <v>382</v>
       </c>
-      <c r="I133" s="5" t="s">
+      <c r="I133" s="3" t="s">
         <v>375</v>
       </c>
       <c r="J133" t="s">
         <v>386</v>
       </c>
-    </row>
-    <row r="134" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+      <c r="M133" s="1">
+        <v>12</v>
+      </c>
+      <c r="N133" s="1" t="s">
+        <v>522</v>
+      </c>
+    </row>
+    <row r="134" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A134" s="3" t="s">
         <v>180</v>
       </c>
@@ -6698,17 +7309,23 @@
       <c r="G134" s="3">
         <v>0</v>
       </c>
-      <c r="H134" s="5" t="s">
+      <c r="H134" s="3" t="s">
         <v>382</v>
       </c>
-      <c r="I134" s="5" t="s">
+      <c r="I134" s="3" t="s">
         <v>375</v>
       </c>
       <c r="J134" t="s">
         <v>386</v>
       </c>
-    </row>
-    <row r="135" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+      <c r="M134" s="1">
+        <v>12</v>
+      </c>
+      <c r="N134" s="1" t="s">
+        <v>523</v>
+      </c>
+    </row>
+    <row r="135" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A135" s="3" t="s">
         <v>181</v>
       </c>
@@ -6731,17 +7348,23 @@
       <c r="G135" s="3">
         <v>0</v>
       </c>
-      <c r="H135" s="5" t="s">
+      <c r="H135" s="3" t="s">
         <v>382</v>
       </c>
-      <c r="I135" s="5" t="s">
+      <c r="I135" s="3" t="s">
         <v>375</v>
       </c>
       <c r="J135" t="s">
         <v>386</v>
       </c>
-    </row>
-    <row r="136" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+      <c r="M135" s="1">
+        <v>12</v>
+      </c>
+      <c r="N135" s="1" t="s">
+        <v>524</v>
+      </c>
+    </row>
+    <row r="136" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A136" s="3" t="s">
         <v>182</v>
       </c>
@@ -6764,17 +7387,23 @@
       <c r="G136" s="3">
         <v>0</v>
       </c>
-      <c r="H136" s="5" t="s">
+      <c r="H136" s="3" t="s">
         <v>382</v>
       </c>
-      <c r="I136" s="5" t="s">
+      <c r="I136" s="3" t="s">
         <v>375</v>
       </c>
       <c r="J136" t="s">
         <v>386</v>
       </c>
-    </row>
-    <row r="137" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+      <c r="M136" s="1">
+        <v>12</v>
+      </c>
+      <c r="N136" s="1" t="s">
+        <v>525</v>
+      </c>
+    </row>
+    <row r="137" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A137" s="3" t="s">
         <v>183</v>
       </c>
@@ -6797,17 +7426,17 @@
       <c r="G137" s="3">
         <v>0</v>
       </c>
-      <c r="H137" s="5" t="s">
+      <c r="H137" s="3" t="s">
         <v>382</v>
       </c>
-      <c r="I137" s="5" t="s">
+      <c r="I137" s="3" t="s">
         <v>375</v>
       </c>
       <c r="J137" t="s">
         <v>386</v>
       </c>
     </row>
-    <row r="138" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A138" s="3" t="s">
         <v>184</v>
       </c>
@@ -6830,17 +7459,17 @@
       <c r="G138" s="3">
         <v>0</v>
       </c>
-      <c r="H138" s="5" t="s">
+      <c r="H138" s="3" t="s">
         <v>382</v>
       </c>
-      <c r="I138" s="5" t="s">
+      <c r="I138" s="3" t="s">
         <v>375</v>
       </c>
       <c r="J138" t="s">
         <v>386</v>
       </c>
     </row>
-    <row r="139" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A139" s="3" t="s">
         <v>185</v>
       </c>
@@ -6863,17 +7492,17 @@
       <c r="G139" s="3">
         <v>0</v>
       </c>
-      <c r="H139" s="5" t="s">
+      <c r="H139" s="3" t="s">
         <v>382</v>
       </c>
-      <c r="I139" s="5" t="s">
+      <c r="I139" s="3" t="s">
         <v>375</v>
       </c>
       <c r="J139" t="s">
         <v>386</v>
       </c>
     </row>
-    <row r="140" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A140" s="3" t="s">
         <v>186</v>
       </c>
@@ -6896,17 +7525,17 @@
       <c r="G140" s="3">
         <v>0</v>
       </c>
-      <c r="H140" s="5" t="s">
+      <c r="H140" s="3" t="s">
         <v>382</v>
       </c>
-      <c r="I140" s="5" t="s">
+      <c r="I140" s="3" t="s">
         <v>375</v>
       </c>
       <c r="J140" t="s">
         <v>386</v>
       </c>
     </row>
-    <row r="141" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A141" s="3" t="s">
         <v>396</v>
       </c>
@@ -6929,17 +7558,17 @@
       <c r="G141" s="3">
         <v>0</v>
       </c>
-      <c r="H141" s="5" t="s">
+      <c r="H141" s="3" t="s">
         <v>371</v>
       </c>
-      <c r="I141" s="5" t="s">
+      <c r="I141" s="3" t="s">
         <v>376</v>
       </c>
       <c r="J141" t="s">
         <v>386</v>
       </c>
     </row>
-    <row r="142" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A142" s="3" t="s">
         <v>397</v>
       </c>
@@ -6962,17 +7591,17 @@
       <c r="G142" s="3">
         <v>0</v>
       </c>
-      <c r="H142" s="5" t="s">
+      <c r="H142" s="3" t="s">
         <v>371</v>
       </c>
-      <c r="I142" s="5" t="s">
+      <c r="I142" s="3" t="s">
         <v>376</v>
       </c>
       <c r="J142" t="s">
         <v>386</v>
       </c>
     </row>
-    <row r="143" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A143" s="3" t="s">
         <v>398</v>
       </c>
@@ -6995,17 +7624,17 @@
       <c r="G143" s="3">
         <v>0</v>
       </c>
-      <c r="H143" s="5" t="s">
+      <c r="H143" s="3" t="s">
         <v>371</v>
       </c>
-      <c r="I143" s="5" t="s">
+      <c r="I143" s="3" t="s">
         <v>376</v>
       </c>
       <c r="J143" t="s">
         <v>386</v>
       </c>
     </row>
-    <row r="144" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A144" s="3" t="s">
         <v>399</v>
       </c>
@@ -7028,10 +7657,10 @@
       <c r="G144" s="3">
         <v>0</v>
       </c>
-      <c r="H144" s="5" t="s">
+      <c r="H144" s="3" t="s">
         <v>371</v>
       </c>
-      <c r="I144" s="5" t="s">
+      <c r="I144" s="3" t="s">
         <v>376</v>
       </c>
       <c r="J144" t="s">
@@ -7061,10 +7690,10 @@
       <c r="G145" s="3">
         <v>0</v>
       </c>
-      <c r="H145" s="5" t="s">
+      <c r="H145" s="3" t="s">
         <v>371</v>
       </c>
-      <c r="I145" s="5" t="s">
+      <c r="I145" s="3" t="s">
         <v>376</v>
       </c>
       <c r="J145" t="s">
@@ -7094,10 +7723,10 @@
       <c r="G146" s="3">
         <v>0</v>
       </c>
-      <c r="H146" s="5" t="s">
+      <c r="H146" s="3" t="s">
         <v>371</v>
       </c>
-      <c r="I146" s="5" t="s">
+      <c r="I146" s="3" t="s">
         <v>376</v>
       </c>
       <c r="J146" t="s">
@@ -7127,10 +7756,10 @@
       <c r="G147" s="3">
         <v>0</v>
       </c>
-      <c r="H147" s="5" t="s">
+      <c r="H147" s="3" t="s">
         <v>371</v>
       </c>
-      <c r="I147" s="5" t="s">
+      <c r="I147" s="3" t="s">
         <v>376</v>
       </c>
       <c r="J147" t="s">
@@ -7160,10 +7789,10 @@
       <c r="G148" s="3">
         <v>0</v>
       </c>
-      <c r="H148" s="5" t="s">
+      <c r="H148" s="3" t="s">
         <v>371</v>
       </c>
-      <c r="I148" s="5" t="s">
+      <c r="I148" s="3" t="s">
         <v>376</v>
       </c>
       <c r="J148" t="s">
@@ -7193,10 +7822,10 @@
       <c r="G149" s="3">
         <v>0</v>
       </c>
-      <c r="H149" s="5" t="s">
+      <c r="H149" s="3" t="s">
         <v>377</v>
       </c>
-      <c r="I149" s="5" t="s">
+      <c r="I149" s="3" t="s">
         <v>377</v>
       </c>
       <c r="J149" t="s">
@@ -7226,10 +7855,10 @@
       <c r="G150" s="3">
         <v>0</v>
       </c>
-      <c r="H150" s="5" t="s">
+      <c r="H150" s="3" t="s">
         <v>377</v>
       </c>
-      <c r="I150" s="5" t="s">
+      <c r="I150" s="3" t="s">
         <v>377</v>
       </c>
       <c r="J150" t="s">
@@ -7259,10 +7888,10 @@
       <c r="G151" s="3">
         <v>0</v>
       </c>
-      <c r="H151" s="5" t="s">
+      <c r="H151" s="3" t="s">
         <v>377</v>
       </c>
-      <c r="I151" s="5" t="s">
+      <c r="I151" s="3" t="s">
         <v>377</v>
       </c>
       <c r="J151" t="s">
@@ -7292,10 +7921,10 @@
       <c r="G152" s="3">
         <v>0</v>
       </c>
-      <c r="H152" s="5" t="s">
+      <c r="H152" s="3" t="s">
         <v>377</v>
       </c>
-      <c r="I152" s="5" t="s">
+      <c r="I152" s="3" t="s">
         <v>377</v>
       </c>
       <c r="J152" t="s">
@@ -7325,10 +7954,10 @@
       <c r="G153" s="3">
         <v>0</v>
       </c>
-      <c r="H153" s="5" t="s">
+      <c r="H153" s="3" t="s">
         <v>377</v>
       </c>
-      <c r="I153" s="5" t="s">
+      <c r="I153" s="3" t="s">
         <v>377</v>
       </c>
       <c r="J153" t="s">
@@ -7358,10 +7987,10 @@
       <c r="G154" s="3">
         <v>0</v>
       </c>
-      <c r="H154" s="5" t="s">
+      <c r="H154" s="3" t="s">
         <v>420</v>
       </c>
-      <c r="I154" t="s">
+      <c r="I154" s="6" t="s">
         <v>423</v>
       </c>
       <c r="J154" t="s">
@@ -7391,10 +8020,10 @@
       <c r="G155" s="3">
         <v>4</v>
       </c>
-      <c r="H155" s="5" t="s">
+      <c r="H155" s="3" t="s">
         <v>371</v>
       </c>
-      <c r="I155" t="s">
+      <c r="I155" s="6" t="s">
         <v>380</v>
       </c>
       <c r="J155" t="s">
@@ -7424,10 +8053,10 @@
       <c r="G156" s="3">
         <v>0</v>
       </c>
-      <c r="H156" s="7" t="s">
+      <c r="H156" s="2" t="s">
         <v>425</v>
       </c>
-      <c r="I156" s="5" t="s">
+      <c r="I156" s="3" t="s">
         <v>371</v>
       </c>
       <c r="J156" t="s">
@@ -7457,10 +8086,10 @@
       <c r="G157" s="3">
         <v>0</v>
       </c>
-      <c r="H157" s="5" t="s">
+      <c r="H157" s="3" t="s">
         <v>371</v>
       </c>
-      <c r="I157" t="s">
+      <c r="I157" s="6" t="s">
         <v>380</v>
       </c>
       <c r="J157" t="s">
@@ -7490,10 +8119,10 @@
       <c r="G158" s="3">
         <v>0</v>
       </c>
-      <c r="H158" s="5" t="s">
+      <c r="H158" s="3" t="s">
         <v>420</v>
       </c>
-      <c r="I158" t="s">
+      <c r="I158" s="6" t="s">
         <v>421</v>
       </c>
       <c r="J158" t="s">
@@ -7523,10 +8152,10 @@
       <c r="G159" s="3">
         <v>0</v>
       </c>
-      <c r="H159" s="5" t="s">
+      <c r="H159" s="3" t="s">
         <v>371</v>
       </c>
-      <c r="I159" t="s">
+      <c r="I159" s="6" t="s">
         <v>380</v>
       </c>
       <c r="J159" t="s">
@@ -7556,10 +8185,10 @@
       <c r="G160" s="3">
         <v>5</v>
       </c>
-      <c r="H160" s="5" t="s">
+      <c r="H160" s="3" t="s">
         <v>371</v>
       </c>
-      <c r="I160" t="s">
+      <c r="I160" s="6" t="s">
         <v>433</v>
       </c>
       <c r="J160" t="s">
@@ -7589,10 +8218,10 @@
       <c r="G161" s="3">
         <v>0</v>
       </c>
-      <c r="H161" s="5" t="s">
+      <c r="H161" s="3" t="s">
         <v>371</v>
       </c>
-      <c r="I161" t="s">
+      <c r="I161" s="6" t="s">
         <v>380</v>
       </c>
       <c r="J161" t="s">
@@ -7622,10 +8251,10 @@
       <c r="G162" s="3">
         <v>0</v>
       </c>
-      <c r="H162" s="5" t="s">
+      <c r="H162" s="3" t="s">
         <v>371</v>
       </c>
-      <c r="I162" t="s">
+      <c r="I162" s="6" t="s">
         <v>429</v>
       </c>
       <c r="J162" t="s">
@@ -7655,10 +8284,10 @@
       <c r="G163" s="3">
         <v>0</v>
       </c>
-      <c r="H163" s="5" t="s">
+      <c r="H163" s="3" t="s">
         <v>371</v>
       </c>
-      <c r="I163" t="s">
+      <c r="I163" s="6" t="s">
         <v>429</v>
       </c>
       <c r="J163" t="s">
@@ -7688,10 +8317,10 @@
       <c r="G164" s="3">
         <v>0</v>
       </c>
-      <c r="H164" s="5" t="s">
+      <c r="H164" s="3" t="s">
         <v>371</v>
       </c>
-      <c r="I164" t="s">
+      <c r="I164" s="6" t="s">
         <v>429</v>
       </c>
       <c r="J164" t="s">
@@ -7721,10 +8350,10 @@
       <c r="G165" s="3">
         <v>0</v>
       </c>
-      <c r="H165" s="5" t="s">
+      <c r="H165" s="3" t="s">
         <v>371</v>
       </c>
-      <c r="I165" t="s">
+      <c r="I165" s="6" t="s">
         <v>435</v>
       </c>
       <c r="J165" t="s">
@@ -7754,17 +8383,17 @@
       <c r="G166" s="3">
         <v>0</v>
       </c>
-      <c r="H166" s="5" t="s">
+      <c r="H166" s="3" t="s">
         <v>371</v>
       </c>
-      <c r="I166" t="s">
+      <c r="I166" s="6" t="s">
         <v>435</v>
       </c>
       <c r="J166" t="s">
         <v>386</v>
       </c>
     </row>
-    <row r="167" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A167" s="3" t="s">
         <v>195</v>
       </c>
@@ -7787,17 +8416,17 @@
       <c r="G167" s="3">
         <v>0</v>
       </c>
-      <c r="H167" s="5" t="s">
+      <c r="H167" s="3" t="s">
         <v>382</v>
       </c>
-      <c r="I167" s="5" t="s">
+      <c r="I167" s="3" t="s">
         <v>378</v>
       </c>
       <c r="J167" t="s">
         <v>386</v>
       </c>
     </row>
-    <row r="168" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A168" s="3" t="s">
         <v>196</v>
       </c>
@@ -7820,17 +8449,17 @@
       <c r="G168" s="3">
         <v>0</v>
       </c>
-      <c r="H168" s="5" t="s">
+      <c r="H168" s="3" t="s">
         <v>382</v>
       </c>
-      <c r="I168" s="5" t="s">
+      <c r="I168" s="3" t="s">
         <v>378</v>
       </c>
       <c r="J168" t="s">
         <v>386</v>
       </c>
     </row>
-    <row r="169" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A169" s="3" t="s">
         <v>197</v>
       </c>
@@ -7853,17 +8482,17 @@
       <c r="G169" s="3">
         <v>0</v>
       </c>
-      <c r="H169" s="5" t="s">
+      <c r="H169" s="3" t="s">
         <v>382</v>
       </c>
-      <c r="I169" s="5" t="s">
+      <c r="I169" s="3" t="s">
         <v>378</v>
       </c>
       <c r="J169" t="s">
         <v>386</v>
       </c>
     </row>
-    <row r="170" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A170" s="3" t="s">
         <v>198</v>
       </c>
@@ -7886,17 +8515,17 @@
       <c r="G170" s="3">
         <v>0</v>
       </c>
-      <c r="H170" s="5" t="s">
+      <c r="H170" s="3" t="s">
         <v>382</v>
       </c>
-      <c r="I170" s="5" t="s">
+      <c r="I170" s="3" t="s">
         <v>378</v>
       </c>
       <c r="J170" t="s">
         <v>386</v>
       </c>
     </row>
-    <row r="171" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A171" s="3" t="s">
         <v>199</v>
       </c>
@@ -7919,17 +8548,17 @@
       <c r="G171" s="3">
         <v>0</v>
       </c>
-      <c r="H171" s="5" t="s">
+      <c r="H171" s="3" t="s">
         <v>382</v>
       </c>
-      <c r="I171" s="5" t="s">
+      <c r="I171" s="3" t="s">
         <v>378</v>
       </c>
       <c r="J171" t="s">
         <v>386</v>
       </c>
     </row>
-    <row r="172" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A172" s="3" t="s">
         <v>200</v>
       </c>
@@ -7952,17 +8581,17 @@
       <c r="G172" s="3">
         <v>0</v>
       </c>
-      <c r="H172" s="5" t="s">
+      <c r="H172" s="3" t="s">
         <v>382</v>
       </c>
-      <c r="I172" s="5" t="s">
+      <c r="I172" s="3" t="s">
         <v>378</v>
       </c>
       <c r="J172" t="s">
         <v>386</v>
       </c>
     </row>
-    <row r="173" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A173" s="3" t="s">
         <v>201</v>
       </c>
@@ -7985,17 +8614,17 @@
       <c r="G173" s="3">
         <v>0</v>
       </c>
-      <c r="H173" s="5" t="s">
+      <c r="H173" s="3" t="s">
         <v>382</v>
       </c>
-      <c r="I173" s="5" t="s">
+      <c r="I173" s="3" t="s">
         <v>378</v>
       </c>
       <c r="J173" t="s">
         <v>386</v>
       </c>
     </row>
-    <row r="174" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A174" s="3" t="s">
         <v>202</v>
       </c>
@@ -8018,17 +8647,17 @@
       <c r="G174" s="3">
         <v>0</v>
       </c>
-      <c r="H174" s="5" t="s">
+      <c r="H174" s="3" t="s">
         <v>382</v>
       </c>
-      <c r="I174" s="5" t="s">
+      <c r="I174" s="3" t="s">
         <v>378</v>
       </c>
       <c r="J174" t="s">
         <v>386</v>
       </c>
     </row>
-    <row r="175" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A175" s="3" t="s">
         <v>203</v>
       </c>
@@ -8051,17 +8680,17 @@
       <c r="G175" s="3">
         <v>0</v>
       </c>
-      <c r="H175" s="5" t="s">
+      <c r="H175" s="3" t="s">
         <v>382</v>
       </c>
-      <c r="I175" s="5" t="s">
+      <c r="I175" s="3" t="s">
         <v>378</v>
       </c>
       <c r="J175" t="s">
         <v>386</v>
       </c>
     </row>
-    <row r="176" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A176" s="3" t="s">
         <v>204</v>
       </c>
@@ -8084,17 +8713,17 @@
       <c r="G176" s="3">
         <v>0</v>
       </c>
-      <c r="H176" s="5" t="s">
+      <c r="H176" s="3" t="s">
         <v>382</v>
       </c>
-      <c r="I176" s="5" t="s">
+      <c r="I176" s="3" t="s">
         <v>378</v>
       </c>
       <c r="J176" t="s">
         <v>386</v>
       </c>
     </row>
-    <row r="177" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A177" s="3" t="s">
         <v>205</v>
       </c>
@@ -8117,17 +8746,17 @@
       <c r="G177" s="3">
         <v>0</v>
       </c>
-      <c r="H177" s="5" t="s">
+      <c r="H177" s="3" t="s">
         <v>382</v>
       </c>
-      <c r="I177" s="5" t="s">
+      <c r="I177" s="3" t="s">
         <v>378</v>
       </c>
       <c r="J177" t="s">
         <v>386</v>
       </c>
     </row>
-    <row r="178" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A178" s="3" t="s">
         <v>206</v>
       </c>
@@ -8150,17 +8779,17 @@
       <c r="G178" s="3">
         <v>0</v>
       </c>
-      <c r="H178" s="5" t="s">
+      <c r="H178" s="3" t="s">
         <v>382</v>
       </c>
-      <c r="I178" s="5" t="s">
+      <c r="I178" s="3" t="s">
         <v>378</v>
       </c>
       <c r="J178" t="s">
         <v>386</v>
       </c>
     </row>
-    <row r="179" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A179" s="3" t="s">
         <v>207</v>
       </c>
@@ -8183,17 +8812,17 @@
       <c r="G179" s="3">
         <v>0</v>
       </c>
-      <c r="H179" s="5" t="s">
+      <c r="H179" s="3" t="s">
         <v>382</v>
       </c>
-      <c r="I179" s="5" t="s">
+      <c r="I179" s="3" t="s">
         <v>378</v>
       </c>
       <c r="J179" t="s">
         <v>386</v>
       </c>
     </row>
-    <row r="180" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A180" s="3" t="s">
         <v>208</v>
       </c>
@@ -8216,17 +8845,17 @@
       <c r="G180" s="3">
         <v>0</v>
       </c>
-      <c r="H180" s="5" t="s">
+      <c r="H180" s="3" t="s">
         <v>382</v>
       </c>
-      <c r="I180" s="5" t="s">
+      <c r="I180" s="3" t="s">
         <v>378</v>
       </c>
       <c r="J180" t="s">
         <v>386</v>
       </c>
     </row>
-    <row r="181" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A181" s="3" t="s">
         <v>209</v>
       </c>
@@ -8249,17 +8878,17 @@
       <c r="G181" s="3">
         <v>0</v>
       </c>
-      <c r="H181" s="5" t="s">
+      <c r="H181" s="3" t="s">
         <v>382</v>
       </c>
-      <c r="I181" s="5" t="s">
+      <c r="I181" s="3" t="s">
         <v>378</v>
       </c>
       <c r="J181" t="s">
         <v>386</v>
       </c>
     </row>
-    <row r="182" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A182" s="3" t="s">
         <v>210</v>
       </c>
@@ -8282,17 +8911,17 @@
       <c r="G182" s="3">
         <v>0</v>
       </c>
-      <c r="H182" s="5" t="s">
+      <c r="H182" s="3" t="s">
         <v>382</v>
       </c>
-      <c r="I182" s="5" t="s">
+      <c r="I182" s="3" t="s">
         <v>378</v>
       </c>
       <c r="J182" t="s">
         <v>386</v>
       </c>
     </row>
-    <row r="183" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A183" s="3" t="s">
         <v>211</v>
       </c>
@@ -8315,17 +8944,17 @@
       <c r="G183" s="3">
         <v>0</v>
       </c>
-      <c r="H183" s="5" t="s">
+      <c r="H183" s="3" t="s">
         <v>382</v>
       </c>
-      <c r="I183" s="5" t="s">
+      <c r="I183" s="3" t="s">
         <v>378</v>
       </c>
       <c r="J183" t="s">
         <v>386</v>
       </c>
     </row>
-    <row r="184" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A184" s="3" t="s">
         <v>212</v>
       </c>
@@ -8348,17 +8977,17 @@
       <c r="G184" s="3">
         <v>0</v>
       </c>
-      <c r="H184" s="5" t="s">
+      <c r="H184" s="3" t="s">
         <v>382</v>
       </c>
-      <c r="I184" s="5" t="s">
+      <c r="I184" s="3" t="s">
         <v>378</v>
       </c>
       <c r="J184" t="s">
         <v>386</v>
       </c>
     </row>
-    <row r="185" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A185" s="3" t="s">
         <v>213</v>
       </c>
@@ -8381,17 +9010,17 @@
       <c r="G185" s="3">
         <v>0</v>
       </c>
-      <c r="H185" s="5" t="s">
+      <c r="H185" s="3" t="s">
         <v>382</v>
       </c>
-      <c r="I185" s="5" t="s">
+      <c r="I185" s="3" t="s">
         <v>378</v>
       </c>
       <c r="J185" t="s">
         <v>386</v>
       </c>
     </row>
-    <row r="186" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A186" s="3" t="s">
         <v>214</v>
       </c>
@@ -8414,17 +9043,17 @@
       <c r="G186" s="3">
         <v>0</v>
       </c>
-      <c r="H186" s="5" t="s">
+      <c r="H186" s="3" t="s">
         <v>382</v>
       </c>
-      <c r="I186" s="5" t="s">
+      <c r="I186" s="3" t="s">
         <v>378</v>
       </c>
       <c r="J186" t="s">
         <v>386</v>
       </c>
     </row>
-    <row r="187" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A187" s="3" t="s">
         <v>215</v>
       </c>
@@ -8447,17 +9076,17 @@
       <c r="G187" s="3">
         <v>0</v>
       </c>
-      <c r="H187" s="5" t="s">
+      <c r="H187" s="3" t="s">
         <v>382</v>
       </c>
-      <c r="I187" s="5" t="s">
+      <c r="I187" s="3" t="s">
         <v>378</v>
       </c>
       <c r="J187" t="s">
         <v>386</v>
       </c>
     </row>
-    <row r="188" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A188" s="3" t="s">
         <v>216</v>
       </c>
@@ -8480,17 +9109,17 @@
       <c r="G188" s="3">
         <v>0</v>
       </c>
-      <c r="H188" s="5" t="s">
+      <c r="H188" s="3" t="s">
         <v>382</v>
       </c>
-      <c r="I188" s="5" t="s">
+      <c r="I188" s="3" t="s">
         <v>378</v>
       </c>
       <c r="J188" t="s">
         <v>386</v>
       </c>
     </row>
-    <row r="189" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A189" s="3" t="s">
         <v>217</v>
       </c>
@@ -8513,17 +9142,17 @@
       <c r="G189" s="3">
         <v>0</v>
       </c>
-      <c r="H189" s="5" t="s">
+      <c r="H189" s="3" t="s">
         <v>382</v>
       </c>
-      <c r="I189" s="5" t="s">
+      <c r="I189" s="3" t="s">
         <v>378</v>
       </c>
       <c r="J189" t="s">
         <v>386</v>
       </c>
     </row>
-    <row r="190" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A190" s="3" t="s">
         <v>218</v>
       </c>
@@ -8546,17 +9175,17 @@
       <c r="G190" s="3">
         <v>0</v>
       </c>
-      <c r="H190" s="5" t="s">
+      <c r="H190" s="3" t="s">
         <v>382</v>
       </c>
-      <c r="I190" s="5" t="s">
+      <c r="I190" s="3" t="s">
         <v>378</v>
       </c>
       <c r="J190" t="s">
         <v>386</v>
       </c>
     </row>
-    <row r="191" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A191" s="3" t="s">
         <v>219</v>
       </c>
@@ -8579,17 +9208,17 @@
       <c r="G191" s="3">
         <v>0</v>
       </c>
-      <c r="H191" s="5" t="s">
+      <c r="H191" s="3" t="s">
         <v>382</v>
       </c>
-      <c r="I191" s="5" t="s">
+      <c r="I191" s="3" t="s">
         <v>378</v>
       </c>
       <c r="J191" t="s">
         <v>386</v>
       </c>
     </row>
-    <row r="192" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A192" s="3" t="s">
         <v>220</v>
       </c>
@@ -8612,17 +9241,17 @@
       <c r="G192" s="3">
         <v>0</v>
       </c>
-      <c r="H192" s="5" t="s">
+      <c r="H192" s="3" t="s">
         <v>382</v>
       </c>
-      <c r="I192" s="5" t="s">
+      <c r="I192" s="3" t="s">
         <v>378</v>
       </c>
       <c r="J192" t="s">
         <v>386</v>
       </c>
     </row>
-    <row r="193" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A193" s="3" t="s">
         <v>221</v>
       </c>
@@ -8645,17 +9274,17 @@
       <c r="G193" s="3">
         <v>0</v>
       </c>
-      <c r="H193" s="5" t="s">
+      <c r="H193" s="3" t="s">
         <v>382</v>
       </c>
-      <c r="I193" s="5" t="s">
+      <c r="I193" s="3" t="s">
         <v>378</v>
       </c>
       <c r="J193" t="s">
         <v>386</v>
       </c>
     </row>
-    <row r="194" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A194" s="3" t="s">
         <v>222</v>
       </c>
@@ -8678,17 +9307,17 @@
       <c r="G194" s="3">
         <v>0</v>
       </c>
-      <c r="H194" s="5" t="s">
+      <c r="H194" s="3" t="s">
         <v>382</v>
       </c>
-      <c r="I194" s="5" t="s">
+      <c r="I194" s="3" t="s">
         <v>378</v>
       </c>
       <c r="J194" t="s">
         <v>386</v>
       </c>
     </row>
-    <row r="195" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A195" s="3" t="s">
         <v>223</v>
       </c>
@@ -8711,17 +9340,17 @@
       <c r="G195" s="3">
         <v>0</v>
       </c>
-      <c r="H195" s="5" t="s">
+      <c r="H195" s="3" t="s">
         <v>382</v>
       </c>
-      <c r="I195" s="5" t="s">
+      <c r="I195" s="3" t="s">
         <v>378</v>
       </c>
       <c r="J195" t="s">
         <v>386</v>
       </c>
     </row>
-    <row r="196" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A196" s="3" t="s">
         <v>224</v>
       </c>
@@ -8744,10 +9373,10 @@
       <c r="G196" s="3">
         <v>0</v>
       </c>
-      <c r="H196" s="5" t="s">
+      <c r="H196" s="3" t="s">
         <v>382</v>
       </c>
-      <c r="I196" s="5" t="s">
+      <c r="I196" s="3" t="s">
         <v>378</v>
       </c>
       <c r="J196" t="s">
@@ -8777,10 +9406,10 @@
       <c r="G197" s="3">
         <v>0</v>
       </c>
-      <c r="H197" s="5" t="s">
+      <c r="H197" s="3" t="s">
         <v>420</v>
       </c>
-      <c r="I197" s="5" t="s">
+      <c r="I197" s="3" t="s">
         <v>424</v>
       </c>
       <c r="J197" t="s">
@@ -8810,10 +9439,10 @@
       <c r="G198" s="3">
         <v>0</v>
       </c>
-      <c r="H198" s="5" t="s">
+      <c r="H198" s="3" t="s">
         <v>420</v>
       </c>
-      <c r="I198" s="5" t="s">
+      <c r="I198" s="3" t="s">
         <v>424</v>
       </c>
       <c r="J198" t="s">
@@ -8843,10 +9472,10 @@
       <c r="G199" s="3">
         <v>0</v>
       </c>
-      <c r="H199" s="5" t="s">
+      <c r="H199" s="3" t="s">
         <v>420</v>
       </c>
-      <c r="I199" s="5" t="s">
+      <c r="I199" s="3" t="s">
         <v>424</v>
       </c>
       <c r="J199" t="s">
@@ -8876,10 +9505,10 @@
       <c r="G200" s="3">
         <v>0</v>
       </c>
-      <c r="H200" s="5" t="s">
+      <c r="H200" s="3" t="s">
         <v>420</v>
       </c>
-      <c r="I200" s="5" t="s">
+      <c r="I200" s="3" t="s">
         <v>424</v>
       </c>
       <c r="J200" t="s">
@@ -8909,10 +9538,10 @@
       <c r="G201" s="3">
         <v>0</v>
       </c>
-      <c r="H201" s="5" t="s">
+      <c r="H201" s="3" t="s">
         <v>420</v>
       </c>
-      <c r="I201" s="5" t="s">
+      <c r="I201" s="3" t="s">
         <v>424</v>
       </c>
       <c r="J201" t="s">
@@ -8942,10 +9571,10 @@
       <c r="G202" s="3">
         <v>0</v>
       </c>
-      <c r="H202" s="5" t="s">
+      <c r="H202" s="3" t="s">
         <v>371</v>
       </c>
-      <c r="I202" s="5" t="s">
+      <c r="I202" s="3" t="s">
         <v>434</v>
       </c>
       <c r="J202" t="s">
@@ -8975,10 +9604,10 @@
       <c r="G203" s="3">
         <v>0</v>
       </c>
-      <c r="H203" s="5" t="s">
+      <c r="H203" s="3" t="s">
         <v>371</v>
       </c>
-      <c r="I203" s="5" t="s">
+      <c r="I203" s="3" t="s">
         <v>434</v>
       </c>
       <c r="J203" t="s">
@@ -9008,10 +9637,10 @@
       <c r="G204" s="3">
         <v>0</v>
       </c>
-      <c r="H204" s="5" t="s">
+      <c r="H204" s="3" t="s">
         <v>371</v>
       </c>
-      <c r="I204" s="5" t="s">
+      <c r="I204" s="3" t="s">
         <v>434</v>
       </c>
       <c r="J204" t="s">
@@ -9041,10 +9670,10 @@
       <c r="G205" s="3">
         <v>0</v>
       </c>
-      <c r="H205" s="5" t="s">
+      <c r="H205" s="3" t="s">
         <v>371</v>
       </c>
-      <c r="I205" t="s">
+      <c r="I205" s="6" t="s">
         <v>380</v>
       </c>
       <c r="J205" t="s">
@@ -9074,10 +9703,10 @@
       <c r="G206" s="3">
         <v>0</v>
       </c>
-      <c r="H206" s="5" t="s">
+      <c r="H206" s="3" t="s">
         <v>371</v>
       </c>
-      <c r="I206" s="5" t="s">
+      <c r="I206" s="3" t="s">
         <v>427</v>
       </c>
       <c r="J206" t="s">
@@ -9107,10 +9736,10 @@
       <c r="G207" s="3">
         <v>0</v>
       </c>
-      <c r="H207" s="5" t="s">
+      <c r="H207" s="3" t="s">
         <v>371</v>
       </c>
-      <c r="I207" s="5" t="s">
+      <c r="I207" s="3" t="s">
         <v>427</v>
       </c>
       <c r="J207" t="s">
@@ -9140,10 +9769,10 @@
       <c r="G208" s="3">
         <v>0</v>
       </c>
-      <c r="H208" s="5" t="s">
+      <c r="H208" s="3" t="s">
         <v>371</v>
       </c>
-      <c r="I208" s="5" t="s">
+      <c r="I208" s="3" t="s">
         <v>427</v>
       </c>
       <c r="J208" t="s">
@@ -9173,10 +9802,10 @@
       <c r="G209" s="3">
         <v>6</v>
       </c>
-      <c r="H209" s="5" t="s">
+      <c r="H209" s="3" t="s">
         <v>420</v>
       </c>
-      <c r="I209" s="5" t="s">
+      <c r="I209" s="3" t="s">
         <v>424</v>
       </c>
       <c r="J209" t="s">
@@ -9206,10 +9835,10 @@
       <c r="G210" s="3">
         <v>0</v>
       </c>
-      <c r="H210" s="5" t="s">
+      <c r="H210" s="3" t="s">
         <v>371</v>
       </c>
-      <c r="I210" s="5" t="s">
+      <c r="I210" s="3" t="s">
         <v>427</v>
       </c>
       <c r="J210" t="s">
@@ -9239,10 +9868,10 @@
       <c r="G211" s="3">
         <v>6</v>
       </c>
-      <c r="H211" s="5" t="s">
+      <c r="H211" s="3" t="s">
         <v>371</v>
       </c>
-      <c r="I211" s="5" t="s">
+      <c r="I211" s="3" t="s">
         <v>19</v>
       </c>
       <c r="J211" t="s">
@@ -9272,10 +9901,10 @@
       <c r="G212" s="3">
         <v>0</v>
       </c>
-      <c r="H212" s="5" t="s">
+      <c r="H212" s="3" t="s">
         <v>371</v>
       </c>
-      <c r="I212" s="5" t="s">
+      <c r="I212" s="3" t="s">
         <v>19</v>
       </c>
       <c r="J212" t="s">
@@ -9305,10 +9934,10 @@
       <c r="G213" s="3">
         <v>0</v>
       </c>
-      <c r="H213" s="5" t="s">
+      <c r="H213" s="3" t="s">
         <v>371</v>
       </c>
-      <c r="I213" s="5" t="s">
+      <c r="I213" s="3" t="s">
         <v>19</v>
       </c>
       <c r="J213" t="s">
@@ -9338,10 +9967,10 @@
       <c r="G214" s="3">
         <v>0</v>
       </c>
-      <c r="H214" s="5" t="s">
+      <c r="H214" s="3" t="s">
         <v>418</v>
       </c>
-      <c r="I214" s="5" t="s">
+      <c r="I214" s="3" t="s">
         <v>19</v>
       </c>
       <c r="J214" t="s">
@@ -9371,10 +10000,10 @@
       <c r="G215" s="3">
         <v>0</v>
       </c>
-      <c r="H215" s="5" t="s">
+      <c r="H215" s="3" t="s">
         <v>418</v>
       </c>
-      <c r="I215" s="5" t="s">
+      <c r="I215" s="3" t="s">
         <v>19</v>
       </c>
       <c r="J215" t="s">
@@ -9404,10 +10033,10 @@
       <c r="G216" s="3">
         <v>0</v>
       </c>
-      <c r="H216" s="5" t="s">
+      <c r="H216" s="3" t="s">
         <v>418</v>
       </c>
-      <c r="I216" s="5" t="s">
+      <c r="I216" s="3" t="s">
         <v>19</v>
       </c>
       <c r="J216" t="s">
@@ -9437,10 +10066,10 @@
       <c r="G217" s="3">
         <v>0</v>
       </c>
-      <c r="H217" s="5" t="s">
+      <c r="H217" s="3" t="s">
         <v>418</v>
       </c>
-      <c r="I217" s="5" t="s">
+      <c r="I217" s="3" t="s">
         <v>19</v>
       </c>
       <c r="J217" t="s">
@@ -9470,10 +10099,10 @@
       <c r="G218" s="3">
         <v>0</v>
       </c>
-      <c r="H218" s="5" t="s">
+      <c r="H218" s="3" t="s">
         <v>420</v>
       </c>
-      <c r="I218" s="5" t="s">
+      <c r="I218" s="3" t="s">
         <v>19</v>
       </c>
       <c r="J218" t="s">
@@ -9503,10 +10132,10 @@
       <c r="G219" s="3">
         <v>0</v>
       </c>
-      <c r="H219" s="5" t="s">
+      <c r="H219" s="3" t="s">
         <v>411</v>
       </c>
-      <c r="I219" s="5" t="s">
+      <c r="I219" s="3" t="s">
         <v>19</v>
       </c>
       <c r="J219" t="s">
@@ -9536,10 +10165,10 @@
       <c r="G220" s="3">
         <v>0</v>
       </c>
-      <c r="H220" s="5" t="s">
+      <c r="H220" s="3" t="s">
         <v>411</v>
       </c>
-      <c r="I220" s="5" t="s">
+      <c r="I220" s="3" t="s">
         <v>19</v>
       </c>
       <c r="J220" t="s">
@@ -9569,10 +10198,10 @@
       <c r="G221" s="3">
         <v>0</v>
       </c>
-      <c r="H221" s="5" t="s">
+      <c r="H221" s="3" t="s">
         <v>420</v>
       </c>
-      <c r="I221" s="5" t="s">
+      <c r="I221" s="3" t="s">
         <v>424</v>
       </c>
       <c r="J221" t="s">
@@ -9602,10 +10231,10 @@
       <c r="G222" s="3">
         <v>0</v>
       </c>
-      <c r="H222" s="5" t="s">
+      <c r="H222" s="3" t="s">
         <v>371</v>
       </c>
-      <c r="I222" s="5" t="s">
+      <c r="I222" s="3" t="s">
         <v>19</v>
       </c>
       <c r="J222" t="s">
@@ -9635,10 +10264,10 @@
       <c r="G223" s="3">
         <v>7</v>
       </c>
-      <c r="H223" s="5" t="s">
+      <c r="H223" s="3" t="s">
         <v>371</v>
       </c>
-      <c r="I223" s="5" t="s">
+      <c r="I223" s="3" t="s">
         <v>19</v>
       </c>
       <c r="J223" t="s">
@@ -9668,10 +10297,10 @@
       <c r="G224" s="3">
         <v>8</v>
       </c>
-      <c r="H224" s="5" t="s">
+      <c r="H224" s="3" t="s">
         <v>371</v>
       </c>
-      <c r="I224" s="5" t="s">
+      <c r="I224" s="3" t="s">
         <v>19</v>
       </c>
       <c r="J224" t="s">
@@ -9701,10 +10330,10 @@
       <c r="G225" s="3">
         <v>0</v>
       </c>
-      <c r="H225" s="5" t="s">
+      <c r="H225" s="3" t="s">
         <v>371</v>
       </c>
-      <c r="I225" s="5" t="s">
+      <c r="I225" s="3" t="s">
         <v>428</v>
       </c>
       <c r="J225" t="s">
@@ -9734,10 +10363,10 @@
       <c r="G226" s="3">
         <v>0</v>
       </c>
-      <c r="H226" s="5" t="s">
+      <c r="H226" s="3" t="s">
         <v>371</v>
       </c>
-      <c r="I226" s="5" t="s">
+      <c r="I226" s="3" t="s">
         <v>428</v>
       </c>
       <c r="J226" t="s">
@@ -9767,10 +10396,10 @@
       <c r="G227" s="3">
         <v>0</v>
       </c>
-      <c r="H227" s="5" t="s">
+      <c r="H227" s="3" t="s">
         <v>371</v>
       </c>
-      <c r="I227" s="5" t="s">
+      <c r="I227" s="3" t="s">
         <v>428</v>
       </c>
       <c r="J227" t="s">
@@ -9800,10 +10429,10 @@
       <c r="G228" s="3">
         <v>0</v>
       </c>
-      <c r="H228" s="5" t="s">
+      <c r="H228" s="3" t="s">
         <v>371</v>
       </c>
-      <c r="I228" s="5" t="s">
+      <c r="I228" s="3" t="s">
         <v>428</v>
       </c>
       <c r="J228" t="s">
@@ -9833,10 +10462,10 @@
       <c r="G229" s="3">
         <v>0</v>
       </c>
-      <c r="H229" s="5" t="s">
+      <c r="H229" s="3" t="s">
         <v>371</v>
       </c>
-      <c r="I229" s="5" t="s">
+      <c r="I229" s="3" t="s">
         <v>428</v>
       </c>
       <c r="J229" t="s">
@@ -9866,10 +10495,10 @@
       <c r="G230" s="3">
         <v>0</v>
       </c>
-      <c r="H230" s="5" t="s">
+      <c r="H230" s="3" t="s">
         <v>371</v>
       </c>
-      <c r="I230" s="5" t="s">
+      <c r="I230" s="3" t="s">
         <v>428</v>
       </c>
       <c r="J230" t="s">
@@ -9899,10 +10528,10 @@
       <c r="G231" s="3">
         <v>0</v>
       </c>
-      <c r="H231" s="5" t="s">
+      <c r="H231" s="3" t="s">
         <v>371</v>
       </c>
-      <c r="I231" s="5" t="s">
+      <c r="I231" s="3" t="s">
         <v>428</v>
       </c>
       <c r="J231" t="s">
@@ -9932,10 +10561,10 @@
       <c r="G232" s="3">
         <v>10</v>
       </c>
-      <c r="H232" s="5" t="s">
+      <c r="H232" s="3" t="s">
         <v>371</v>
       </c>
-      <c r="I232" s="5" t="s">
+      <c r="I232" s="3" t="s">
         <v>428</v>
       </c>
       <c r="J232" t="s">
@@ -9965,10 +10594,10 @@
       <c r="G233" s="3">
         <v>0</v>
       </c>
-      <c r="H233" s="5" t="s">
+      <c r="H233" s="3" t="s">
         <v>371</v>
       </c>
-      <c r="I233" s="5" t="s">
+      <c r="I233" s="3" t="s">
         <v>428</v>
       </c>
       <c r="J233" t="s">
@@ -9998,10 +10627,10 @@
       <c r="G234" s="3">
         <v>0</v>
       </c>
-      <c r="H234" s="5" t="s">
+      <c r="H234" s="3" t="s">
         <v>371</v>
       </c>
-      <c r="I234" s="5" t="s">
+      <c r="I234" s="3" t="s">
         <v>19</v>
       </c>
       <c r="J234" t="s">
@@ -10031,10 +10660,10 @@
       <c r="G235" s="3">
         <v>0</v>
       </c>
-      <c r="H235" s="5" t="s">
+      <c r="H235" s="3" t="s">
         <v>411</v>
       </c>
-      <c r="I235" s="5" t="s">
+      <c r="I235" s="3" t="s">
         <v>419</v>
       </c>
       <c r="J235" t="s">
@@ -10064,10 +10693,10 @@
       <c r="G236" s="3">
         <v>0</v>
       </c>
-      <c r="H236" s="5" t="s">
+      <c r="H236" s="3" t="s">
         <v>411</v>
       </c>
-      <c r="I236" s="5" t="s">
+      <c r="I236" s="3" t="s">
         <v>419</v>
       </c>
       <c r="J236" t="s">
@@ -10097,10 +10726,10 @@
       <c r="G237" s="3">
         <v>0</v>
       </c>
-      <c r="H237" s="5" t="s">
+      <c r="H237" s="3" t="s">
         <v>411</v>
       </c>
-      <c r="I237" s="5" t="s">
+      <c r="I237" s="3" t="s">
         <v>419</v>
       </c>
       <c r="J237" t="s">
@@ -10130,10 +10759,10 @@
       <c r="G238" s="3">
         <v>0</v>
       </c>
-      <c r="H238" s="5" t="s">
+      <c r="H238" s="3" t="s">
         <v>411</v>
       </c>
-      <c r="I238" s="5" t="s">
+      <c r="I238" s="3" t="s">
         <v>419</v>
       </c>
       <c r="J238" t="s">
@@ -10163,10 +10792,10 @@
       <c r="G239" s="3">
         <v>0</v>
       </c>
-      <c r="H239" s="5" t="s">
+      <c r="H239" s="3" t="s">
         <v>371</v>
       </c>
-      <c r="I239" s="5" t="s">
+      <c r="I239" s="3" t="s">
         <v>19</v>
       </c>
       <c r="J239" t="s">
@@ -10196,10 +10825,10 @@
       <c r="G240" s="3">
         <v>0</v>
       </c>
-      <c r="H240" s="5" t="s">
+      <c r="H240" s="3" t="s">
         <v>371</v>
       </c>
-      <c r="I240" s="5" t="s">
+      <c r="I240" s="3" t="s">
         <v>19</v>
       </c>
       <c r="J240" t="s">
@@ -10229,10 +10858,10 @@
       <c r="G241" s="3">
         <v>0</v>
       </c>
-      <c r="H241" s="5" t="s">
+      <c r="H241" s="3" t="s">
         <v>371</v>
       </c>
-      <c r="I241" s="5" t="s">
+      <c r="I241" s="3" t="s">
         <v>19</v>
       </c>
       <c r="J241" t="s">
@@ -10262,10 +10891,10 @@
       <c r="G242" s="3">
         <v>0</v>
       </c>
-      <c r="H242" s="5" t="s">
+      <c r="H242" s="3" t="s">
         <v>371</v>
       </c>
-      <c r="I242" s="5" t="s">
+      <c r="I242" s="3" t="s">
         <v>19</v>
       </c>
       <c r="J242" t="s">
@@ -10295,10 +10924,10 @@
       <c r="G243" s="3">
         <v>0</v>
       </c>
-      <c r="H243" s="5" t="s">
+      <c r="H243" s="3" t="s">
         <v>371</v>
       </c>
-      <c r="I243" s="5" t="s">
+      <c r="I243" s="3" t="s">
         <v>19</v>
       </c>
       <c r="J243" t="s">
@@ -10328,10 +10957,10 @@
       <c r="G244" s="3">
         <v>0</v>
       </c>
-      <c r="H244" s="5" t="s">
+      <c r="H244" s="3" t="s">
         <v>371</v>
       </c>
-      <c r="I244" s="5" t="s">
+      <c r="I244" s="3" t="s">
         <v>19</v>
       </c>
       <c r="J244" t="s">
@@ -10361,10 +10990,10 @@
       <c r="G245" s="3">
         <v>0</v>
       </c>
-      <c r="H245" s="5" t="s">
+      <c r="H245" s="3" t="s">
         <v>371</v>
       </c>
-      <c r="I245" s="5" t="s">
+      <c r="I245" s="3" t="s">
         <v>19</v>
       </c>
       <c r="J245" t="s">
@@ -10394,10 +11023,10 @@
       <c r="G246" s="3">
         <v>0</v>
       </c>
-      <c r="H246" s="5" t="s">
+      <c r="H246" s="3" t="s">
         <v>371</v>
       </c>
-      <c r="I246" s="5" t="s">
+      <c r="I246" s="3" t="s">
         <v>19</v>
       </c>
       <c r="J246" t="s">
@@ -10427,10 +11056,10 @@
       <c r="G247" s="3">
         <v>9</v>
       </c>
-      <c r="H247" s="5" t="s">
+      <c r="H247" s="3" t="s">
         <v>371</v>
       </c>
-      <c r="I247" s="5" t="s">
+      <c r="I247" s="3" t="s">
         <v>19</v>
       </c>
       <c r="J247" t="s">
@@ -10460,10 +11089,10 @@
       <c r="G248" s="3">
         <v>0</v>
       </c>
-      <c r="H248" s="5" t="s">
+      <c r="H248" s="3" t="s">
         <v>371</v>
       </c>
-      <c r="I248" s="5" t="s">
+      <c r="I248" s="3" t="s">
         <v>19</v>
       </c>
       <c r="J248" t="s">
@@ -10493,10 +11122,10 @@
       <c r="G249" s="3">
         <v>0</v>
       </c>
-      <c r="H249" s="5" t="s">
+      <c r="H249" s="3" t="s">
         <v>371</v>
       </c>
-      <c r="I249" s="5" t="s">
+      <c r="I249" s="3" t="s">
         <v>19</v>
       </c>
       <c r="J249" t="s">
@@ -10526,10 +11155,10 @@
       <c r="G250" s="3">
         <v>0</v>
       </c>
-      <c r="H250" s="5" t="s">
+      <c r="H250" s="3" t="s">
         <v>371</v>
       </c>
-      <c r="I250" s="5" t="s">
+      <c r="I250" s="3" t="s">
         <v>19</v>
       </c>
       <c r="J250" t="s">
@@ -10559,10 +11188,10 @@
       <c r="G251" s="3">
         <v>0</v>
       </c>
-      <c r="H251" s="5" t="s">
+      <c r="H251" s="3" t="s">
         <v>371</v>
       </c>
-      <c r="I251" s="5" t="s">
+      <c r="I251" s="3" t="s">
         <v>19</v>
       </c>
       <c r="J251" t="s">
@@ -10592,10 +11221,10 @@
       <c r="G252" s="3">
         <v>0</v>
       </c>
-      <c r="H252" s="5" t="s">
+      <c r="H252" s="3" t="s">
         <v>371</v>
       </c>
-      <c r="I252" s="5" t="s">
+      <c r="I252" s="3" t="s">
         <v>19</v>
       </c>
       <c r="J252" t="s">
@@ -10625,10 +11254,10 @@
       <c r="G253" s="3">
         <v>0</v>
       </c>
-      <c r="H253" s="5" t="s">
+      <c r="H253" s="3" t="s">
         <v>371</v>
       </c>
-      <c r="I253" s="5" t="s">
+      <c r="I253" s="3" t="s">
         <v>19</v>
       </c>
       <c r="J253" t="s">
@@ -10658,10 +11287,10 @@
       <c r="G254" s="3">
         <v>0</v>
       </c>
-      <c r="H254" s="5" t="s">
+      <c r="H254" s="3" t="s">
         <v>371</v>
       </c>
-      <c r="I254" s="5" t="s">
+      <c r="I254" s="3" t="s">
         <v>19</v>
       </c>
       <c r="J254" t="s">
@@ -10691,10 +11320,10 @@
       <c r="G255" s="3">
         <v>0</v>
       </c>
-      <c r="H255" s="5" t="s">
+      <c r="H255" s="3" t="s">
         <v>371</v>
       </c>
-      <c r="I255" s="5" t="s">
+      <c r="I255" s="3" t="s">
         <v>19</v>
       </c>
       <c r="J255" t="s">
@@ -10724,10 +11353,10 @@
       <c r="G256" s="3">
         <v>0</v>
       </c>
-      <c r="H256" s="5" t="s">
+      <c r="H256" s="3" t="s">
         <v>371</v>
       </c>
-      <c r="I256" s="5" t="s">
+      <c r="I256" s="3" t="s">
         <v>19</v>
       </c>
       <c r="J256" t="s">
@@ -10757,10 +11386,10 @@
       <c r="G257" s="3">
         <v>0</v>
       </c>
-      <c r="H257" s="5" t="s">
+      <c r="H257" s="3" t="s">
         <v>371</v>
       </c>
-      <c r="I257" s="5" t="s">
+      <c r="I257" s="3" t="s">
         <v>19</v>
       </c>
       <c r="J257" t="s">
@@ -10790,10 +11419,10 @@
       <c r="G258" s="3">
         <v>0</v>
       </c>
-      <c r="H258" s="5" t="s">
+      <c r="H258" s="3" t="s">
         <v>371</v>
       </c>
-      <c r="I258" s="5" t="s">
+      <c r="I258" s="3" t="s">
         <v>19</v>
       </c>
       <c r="J258" t="s">
@@ -10805,7 +11434,7 @@
         <v>284</v>
       </c>
       <c r="B259" s="3">
-        <f t="shared" ref="B259:B317" si="4">E259</f>
+        <f t="shared" ref="B259:B289" si="4">E259</f>
         <v>0</v>
       </c>
       <c r="C259" s="3">
@@ -10823,10 +11452,10 @@
       <c r="G259" s="3">
         <v>0</v>
       </c>
-      <c r="H259" s="5" t="s">
+      <c r="H259" s="3" t="s">
         <v>371</v>
       </c>
-      <c r="I259" s="5" t="s">
+      <c r="I259" s="3" t="s">
         <v>19</v>
       </c>
       <c r="J259" t="s">
@@ -10856,10 +11485,10 @@
       <c r="G260" s="3">
         <v>0</v>
       </c>
-      <c r="H260" s="5" t="s">
+      <c r="H260" s="3" t="s">
         <v>371</v>
       </c>
-      <c r="I260" s="5" t="s">
+      <c r="I260" s="3" t="s">
         <v>19</v>
       </c>
       <c r="J260" t="s">
@@ -10889,10 +11518,10 @@
       <c r="G261" s="3">
         <v>0</v>
       </c>
-      <c r="H261" s="5" t="s">
+      <c r="H261" s="3" t="s">
         <v>371</v>
       </c>
-      <c r="I261" s="5" t="s">
+      <c r="I261" s="3" t="s">
         <v>19</v>
       </c>
       <c r="J261" t="s">
@@ -10922,10 +11551,10 @@
       <c r="G262" s="3">
         <v>0</v>
       </c>
-      <c r="H262" s="5" t="s">
+      <c r="H262" s="3" t="s">
         <v>371</v>
       </c>
-      <c r="I262" s="5" t="s">
+      <c r="I262" s="3" t="s">
         <v>19</v>
       </c>
       <c r="J262" t="s">
@@ -10955,10 +11584,10 @@
       <c r="G263" s="3">
         <v>0</v>
       </c>
-      <c r="H263" s="5" t="s">
+      <c r="H263" s="3" t="s">
         <v>371</v>
       </c>
-      <c r="I263" s="5" t="s">
+      <c r="I263" s="3" t="s">
         <v>19</v>
       </c>
       <c r="J263" t="s">
@@ -10988,10 +11617,10 @@
       <c r="G264" s="3">
         <v>0</v>
       </c>
-      <c r="H264" s="5" t="s">
+      <c r="H264" s="3" t="s">
         <v>371</v>
       </c>
-      <c r="I264" s="5" t="s">
+      <c r="I264" s="3" t="s">
         <v>19</v>
       </c>
       <c r="J264" t="s">
@@ -11021,10 +11650,10 @@
       <c r="G265" s="3">
         <v>0</v>
       </c>
-      <c r="H265" s="5" t="s">
+      <c r="H265" s="3" t="s">
         <v>371</v>
       </c>
-      <c r="I265" s="5" t="s">
+      <c r="I265" s="3" t="s">
         <v>19</v>
       </c>
       <c r="J265" t="s">
@@ -11054,10 +11683,10 @@
       <c r="G266" s="3">
         <v>0</v>
       </c>
-      <c r="H266" s="5" t="s">
+      <c r="H266" s="3" t="s">
         <v>371</v>
       </c>
-      <c r="I266" s="5" t="s">
+      <c r="I266" s="3" t="s">
         <v>19</v>
       </c>
       <c r="J266" t="s">
@@ -11087,10 +11716,10 @@
       <c r="G267" s="3">
         <v>0</v>
       </c>
-      <c r="H267" s="5" t="s">
+      <c r="H267" s="3" t="s">
         <v>371</v>
       </c>
-      <c r="I267" s="5" t="s">
+      <c r="I267" s="3" t="s">
         <v>19</v>
       </c>
       <c r="J267" t="s">
@@ -11120,10 +11749,10 @@
       <c r="G268" s="3">
         <v>0</v>
       </c>
-      <c r="H268" s="5" t="s">
+      <c r="H268" s="3" t="s">
         <v>371</v>
       </c>
-      <c r="I268" s="5" t="s">
+      <c r="I268" s="3" t="s">
         <v>19</v>
       </c>
       <c r="J268" t="s">
@@ -11153,10 +11782,10 @@
       <c r="G269" s="3">
         <v>0</v>
       </c>
-      <c r="H269" s="5" t="s">
+      <c r="H269" s="3" t="s">
         <v>371</v>
       </c>
-      <c r="I269" s="5" t="s">
+      <c r="I269" s="3" t="s">
         <v>19</v>
       </c>
       <c r="J269" t="s">
@@ -11186,10 +11815,10 @@
       <c r="G270" s="3">
         <v>0</v>
       </c>
-      <c r="H270" s="5" t="s">
+      <c r="H270" s="3" t="s">
         <v>371</v>
       </c>
-      <c r="I270" s="5" t="s">
+      <c r="I270" s="3" t="s">
         <v>19</v>
       </c>
       <c r="J270" t="s">
@@ -11219,10 +11848,10 @@
       <c r="G271" s="3">
         <v>0</v>
       </c>
-      <c r="H271" s="5" t="s">
+      <c r="H271" s="3" t="s">
         <v>371</v>
       </c>
-      <c r="I271" s="5" t="s">
+      <c r="I271" s="3" t="s">
         <v>19</v>
       </c>
       <c r="J271" t="s">
@@ -11252,10 +11881,10 @@
       <c r="G272" s="3">
         <v>0</v>
       </c>
-      <c r="H272" s="5" t="s">
+      <c r="H272" s="3" t="s">
         <v>371</v>
       </c>
-      <c r="I272" s="5" t="s">
+      <c r="I272" s="3" t="s">
         <v>19</v>
       </c>
       <c r="J272" t="s">
@@ -11285,10 +11914,10 @@
       <c r="G273" s="3">
         <v>0</v>
       </c>
-      <c r="H273" s="5" t="s">
+      <c r="H273" s="3" t="s">
         <v>371</v>
       </c>
-      <c r="I273" s="5" t="s">
+      <c r="I273" s="3" t="s">
         <v>19</v>
       </c>
       <c r="J273" t="s">
@@ -11318,10 +11947,10 @@
       <c r="G274" s="3">
         <v>0</v>
       </c>
-      <c r="H274" s="5" t="s">
+      <c r="H274" s="3" t="s">
         <v>371</v>
       </c>
-      <c r="I274" s="5" t="s">
+      <c r="I274" s="3" t="s">
         <v>19</v>
       </c>
       <c r="J274" t="s">
@@ -11351,10 +11980,10 @@
       <c r="G275" s="3">
         <v>0</v>
       </c>
-      <c r="H275" s="5" t="s">
+      <c r="H275" s="3" t="s">
         <v>371</v>
       </c>
-      <c r="I275" s="5" t="s">
+      <c r="I275" s="3" t="s">
         <v>19</v>
       </c>
       <c r="J275" t="s">
@@ -11384,10 +12013,10 @@
       <c r="G276" s="3">
         <v>0</v>
       </c>
-      <c r="H276" s="5" t="s">
+      <c r="H276" s="3" t="s">
         <v>371</v>
       </c>
-      <c r="I276" s="5" t="s">
+      <c r="I276" s="3" t="s">
         <v>19</v>
       </c>
       <c r="J276" t="s">
@@ -11417,10 +12046,10 @@
       <c r="G277" s="3">
         <v>0</v>
       </c>
-      <c r="H277" s="5" t="s">
+      <c r="H277" s="3" t="s">
         <v>371</v>
       </c>
-      <c r="I277" s="5" t="s">
+      <c r="I277" s="3" t="s">
         <v>19</v>
       </c>
       <c r="J277" t="s">
@@ -11450,10 +12079,10 @@
       <c r="G278" s="3">
         <v>0</v>
       </c>
-      <c r="H278" s="5" t="s">
+      <c r="H278" s="3" t="s">
         <v>371</v>
       </c>
-      <c r="I278" s="5" t="s">
+      <c r="I278" s="3" t="s">
         <v>19</v>
       </c>
       <c r="J278" t="s">
@@ -11483,10 +12112,10 @@
       <c r="G279" s="3">
         <v>0</v>
       </c>
-      <c r="H279" s="5" t="s">
+      <c r="H279" s="3" t="s">
         <v>371</v>
       </c>
-      <c r="I279" s="5" t="s">
+      <c r="I279" s="3" t="s">
         <v>19</v>
       </c>
       <c r="J279" t="s">
@@ -11516,10 +12145,10 @@
       <c r="G280" s="3">
         <v>0</v>
       </c>
-      <c r="H280" s="5" t="s">
+      <c r="H280" s="3" t="s">
         <v>371</v>
       </c>
-      <c r="I280" s="5" t="s">
+      <c r="I280" s="3" t="s">
         <v>19</v>
       </c>
       <c r="J280" t="s">
@@ -11549,10 +12178,10 @@
       <c r="G281" s="3">
         <v>0</v>
       </c>
-      <c r="H281" s="5" t="s">
+      <c r="H281" s="3" t="s">
         <v>371</v>
       </c>
-      <c r="I281" s="5" t="s">
+      <c r="I281" s="3" t="s">
         <v>19</v>
       </c>
       <c r="J281" t="s">
@@ -11582,10 +12211,10 @@
       <c r="G282" s="3">
         <v>0</v>
       </c>
-      <c r="H282" s="5" t="s">
+      <c r="H282" s="3" t="s">
         <v>371</v>
       </c>
-      <c r="I282" s="5" t="s">
+      <c r="I282" s="3" t="s">
         <v>19</v>
       </c>
       <c r="J282" t="s">
@@ -11615,10 +12244,10 @@
       <c r="G283" s="3">
         <v>0</v>
       </c>
-      <c r="H283" s="5" t="s">
+      <c r="H283" s="3" t="s">
         <v>371</v>
       </c>
-      <c r="I283" s="5" t="s">
+      <c r="I283" s="3" t="s">
         <v>19</v>
       </c>
       <c r="J283" t="s">
@@ -11648,10 +12277,10 @@
       <c r="G284" s="3">
         <v>0</v>
       </c>
-      <c r="H284" s="5" t="s">
+      <c r="H284" s="3" t="s">
         <v>371</v>
       </c>
-      <c r="I284" s="5" t="s">
+      <c r="I284" s="3" t="s">
         <v>19</v>
       </c>
       <c r="J284" t="s">
@@ -11681,10 +12310,10 @@
       <c r="G285" s="3">
         <v>0</v>
       </c>
-      <c r="H285" s="5" t="s">
+      <c r="H285" s="3" t="s">
         <v>371</v>
       </c>
-      <c r="I285" s="5" t="s">
+      <c r="I285" s="3" t="s">
         <v>19</v>
       </c>
       <c r="J285" t="s">
@@ -11714,10 +12343,10 @@
       <c r="G286" s="3">
         <v>0</v>
       </c>
-      <c r="H286" s="5" t="s">
+      <c r="H286" s="3" t="s">
         <v>371</v>
       </c>
-      <c r="I286" s="5" t="s">
+      <c r="I286" s="3" t="s">
         <v>19</v>
       </c>
       <c r="J286" t="s">
@@ -11747,10 +12376,10 @@
       <c r="G287" s="3">
         <v>0</v>
       </c>
-      <c r="H287" s="5" t="s">
+      <c r="H287" s="3" t="s">
         <v>371</v>
       </c>
-      <c r="I287" s="5" t="s">
+      <c r="I287" s="3" t="s">
         <v>19</v>
       </c>
       <c r="J287" t="s">
@@ -11780,32 +12409,32 @@
       <c r="G288" s="3">
         <v>0</v>
       </c>
-      <c r="H288" s="5" t="s">
+      <c r="H288" s="3" t="s">
         <v>371</v>
       </c>
-      <c r="I288" s="5" t="s">
+      <c r="I288" s="3" t="s">
         <v>19</v>
       </c>
       <c r="J288" t="s">
         <v>386</v>
       </c>
     </row>
-    <row r="289" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="289" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A289" s="3" t="s">
         <v>314</v>
       </c>
       <c r="B289" s="3">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="C289" s="3">
-        <v>8</v>
+        <v>20</v>
       </c>
       <c r="D289" s="3">
         <v>0</v>
       </c>
       <c r="E289" s="3">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="F289" s="3">
         <v>2</v>
@@ -11813,32 +12442,29 @@
       <c r="G289" s="3">
         <v>11</v>
       </c>
-      <c r="H289" s="5" t="s">
-        <v>371</v>
-      </c>
-      <c r="I289" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="J289" t="s">
-        <v>386</v>
-      </c>
-    </row>
-    <row r="290" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="H289" s="3" t="s">
+        <v>420</v>
+      </c>
+      <c r="I289" s="3" t="s">
+        <v>419</v>
+      </c>
+    </row>
+    <row r="290" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A290" s="3" t="s">
         <v>315</v>
       </c>
       <c r="B290" s="3">
-        <f t="shared" si="4"/>
-        <v>0</v>
+        <f t="shared" ref="B290:B348" si="5">E290</f>
+        <v>10</v>
       </c>
       <c r="C290" s="3">
-        <v>8</v>
+        <v>20</v>
       </c>
       <c r="D290" s="3">
         <v>0</v>
       </c>
       <c r="E290" s="3">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="F290" s="3">
         <v>2</v>
@@ -11846,32 +12472,29 @@
       <c r="G290" s="3">
         <v>11</v>
       </c>
-      <c r="H290" s="5" t="s">
-        <v>371</v>
-      </c>
-      <c r="I290" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="J290" t="s">
-        <v>386</v>
-      </c>
-    </row>
-    <row r="291" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="H290" s="3" t="s">
+        <v>420</v>
+      </c>
+      <c r="I290" s="3" t="s">
+        <v>419</v>
+      </c>
+    </row>
+    <row r="291" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A291" s="3" t="s">
         <v>316</v>
       </c>
       <c r="B291" s="3">
-        <f t="shared" si="4"/>
-        <v>3</v>
+        <f t="shared" si="5"/>
+        <v>10</v>
       </c>
       <c r="C291" s="3">
-        <v>8</v>
+        <v>20</v>
       </c>
       <c r="D291" s="3">
         <v>0</v>
       </c>
       <c r="E291" s="3">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="F291" s="3">
         <v>2</v>
@@ -11879,98 +12502,89 @@
       <c r="G291" s="3">
         <v>11</v>
       </c>
-      <c r="H291" s="5" t="s">
-        <v>371</v>
-      </c>
-      <c r="I291" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="J291" t="s">
-        <v>386</v>
-      </c>
-    </row>
-    <row r="292" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="H291" s="3" t="s">
+        <v>420</v>
+      </c>
+      <c r="I291" s="3" t="s">
+        <v>419</v>
+      </c>
+    </row>
+    <row r="292" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A292" s="3" t="s">
-        <v>317</v>
+        <v>436</v>
       </c>
       <c r="B292" s="3">
-        <f t="shared" si="4"/>
-        <v>2000</v>
+        <f t="shared" si="5"/>
+        <v>10</v>
       </c>
       <c r="C292" s="3">
-        <v>10000</v>
+        <v>20</v>
       </c>
       <c r="D292" s="3">
         <v>0</v>
       </c>
       <c r="E292" s="3">
-        <v>2000</v>
+        <v>10</v>
       </c>
       <c r="F292" s="3">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G292" s="3">
-        <v>0</v>
-      </c>
-      <c r="H292" s="5" t="s">
-        <v>371</v>
-      </c>
-      <c r="I292" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="J292" t="s">
-        <v>386</v>
-      </c>
-    </row>
-    <row r="293" spans="1:10" x14ac:dyDescent="0.25">
+        <v>11</v>
+      </c>
+      <c r="H292" s="3" t="s">
+        <v>420</v>
+      </c>
+      <c r="I292" s="3" t="s">
+        <v>419</v>
+      </c>
+    </row>
+    <row r="293" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A293" s="3" t="s">
-        <v>318</v>
+        <v>437</v>
       </c>
       <c r="B293" s="3">
-        <f t="shared" si="4"/>
-        <v>5000</v>
+        <f t="shared" si="5"/>
+        <v>10</v>
       </c>
       <c r="C293" s="3">
-        <v>10000</v>
+        <v>20</v>
       </c>
       <c r="D293" s="3">
         <v>0</v>
       </c>
       <c r="E293" s="3">
-        <v>5000</v>
+        <v>10</v>
       </c>
       <c r="F293" s="3">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G293" s="3">
-        <v>0</v>
-      </c>
-      <c r="H293" s="5" t="s">
-        <v>371</v>
-      </c>
-      <c r="I293" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="J293" t="s">
-        <v>386</v>
-      </c>
-    </row>
-    <row r="294" spans="1:10" x14ac:dyDescent="0.25">
+        <v>11</v>
+      </c>
+      <c r="H293" s="3" t="s">
+        <v>420</v>
+      </c>
+      <c r="I293" s="3" t="s">
+        <v>419</v>
+      </c>
+    </row>
+    <row r="294" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A294" s="3" t="s">
-        <v>319</v>
+        <v>438</v>
       </c>
       <c r="B294" s="3">
-        <f t="shared" si="4"/>
-        <v>0</v>
+        <f t="shared" si="5"/>
+        <v>10</v>
       </c>
       <c r="C294" s="3">
-        <v>8</v>
+        <v>20</v>
       </c>
       <c r="D294" s="3">
         <v>0</v>
       </c>
       <c r="E294" s="3">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="F294" s="3">
         <v>2</v>
@@ -11978,32 +12592,29 @@
       <c r="G294" s="3">
         <v>11</v>
       </c>
-      <c r="H294" s="5" t="s">
-        <v>371</v>
-      </c>
-      <c r="I294" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="J294" t="s">
-        <v>386</v>
-      </c>
-    </row>
-    <row r="295" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="H294" s="3" t="s">
+        <v>420</v>
+      </c>
+      <c r="I294" s="3" t="s">
+        <v>419</v>
+      </c>
+    </row>
+    <row r="295" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A295" s="3" t="s">
-        <v>320</v>
+        <v>439</v>
       </c>
       <c r="B295" s="3">
-        <f t="shared" si="4"/>
-        <v>0</v>
+        <f t="shared" si="5"/>
+        <v>10</v>
       </c>
       <c r="C295" s="3">
-        <v>8</v>
+        <v>20</v>
       </c>
       <c r="D295" s="3">
         <v>0</v>
       </c>
       <c r="E295" s="3">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="F295" s="3">
         <v>2</v>
@@ -12011,32 +12622,29 @@
       <c r="G295" s="3">
         <v>11</v>
       </c>
-      <c r="H295" s="5" t="s">
-        <v>371</v>
-      </c>
-      <c r="I295" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="J295" t="s">
-        <v>386</v>
-      </c>
-    </row>
-    <row r="296" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="H295" s="3" t="s">
+        <v>420</v>
+      </c>
+      <c r="I295" s="3" t="s">
+        <v>419</v>
+      </c>
+    </row>
+    <row r="296" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A296" s="3" t="s">
-        <v>321</v>
+        <v>440</v>
       </c>
       <c r="B296" s="3">
-        <f t="shared" si="4"/>
-        <v>0</v>
+        <f t="shared" si="5"/>
+        <v>10</v>
       </c>
       <c r="C296" s="3">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="D296" s="3">
         <v>0</v>
       </c>
       <c r="E296" s="3">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="F296" s="3">
         <v>2</v>
@@ -12044,32 +12652,29 @@
       <c r="G296" s="3">
         <v>11</v>
       </c>
-      <c r="H296" s="5" t="s">
-        <v>371</v>
-      </c>
-      <c r="I296" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="J296" t="s">
-        <v>386</v>
-      </c>
-    </row>
-    <row r="297" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="H296" s="3" t="s">
+        <v>420</v>
+      </c>
+      <c r="I296" s="3" t="s">
+        <v>419</v>
+      </c>
+    </row>
+    <row r="297" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A297" s="3" t="s">
-        <v>322</v>
+        <v>441</v>
       </c>
       <c r="B297" s="3">
-        <f t="shared" si="4"/>
-        <v>0</v>
+        <f t="shared" si="5"/>
+        <v>10</v>
       </c>
       <c r="C297" s="3">
-        <v>8</v>
+        <v>20</v>
       </c>
       <c r="D297" s="3">
         <v>0</v>
       </c>
       <c r="E297" s="3">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="F297" s="3">
         <v>2</v>
@@ -12077,230 +12682,209 @@
       <c r="G297" s="3">
         <v>11</v>
       </c>
-      <c r="H297" s="5" t="s">
-        <v>371</v>
-      </c>
-      <c r="I297" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="J297" t="s">
-        <v>386</v>
-      </c>
-    </row>
-    <row r="298" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="H297" s="3" t="s">
+        <v>420</v>
+      </c>
+      <c r="I297" s="3" t="s">
+        <v>419</v>
+      </c>
+    </row>
+    <row r="298" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A298" s="3" t="s">
-        <v>323</v>
+        <v>317</v>
       </c>
       <c r="B298" s="3">
-        <f t="shared" si="4"/>
-        <v>0</v>
+        <f t="shared" si="5"/>
+        <v>1500</v>
       </c>
       <c r="C298" s="3">
-        <v>8</v>
+        <v>7000</v>
       </c>
       <c r="D298" s="3">
         <v>0</v>
       </c>
       <c r="E298" s="3">
-        <v>0</v>
+        <v>1500</v>
       </c>
       <c r="F298" s="3">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G298" s="3">
-        <v>11</v>
-      </c>
-      <c r="H298" s="5" t="s">
-        <v>371</v>
-      </c>
-      <c r="I298" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="J298" t="s">
-        <v>386</v>
-      </c>
-    </row>
-    <row r="299" spans="1:10" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+      <c r="H298" s="3" t="s">
+        <v>420</v>
+      </c>
+      <c r="I298" s="3" t="s">
+        <v>419</v>
+      </c>
+    </row>
+    <row r="299" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A299" s="3" t="s">
-        <v>324</v>
+        <v>318</v>
       </c>
       <c r="B299" s="3">
-        <f t="shared" si="4"/>
-        <v>0</v>
+        <f t="shared" si="5"/>
+        <v>1500</v>
       </c>
       <c r="C299" s="3">
-        <v>0</v>
+        <v>7000</v>
       </c>
       <c r="D299" s="3">
         <v>0</v>
       </c>
       <c r="E299" s="3">
-        <v>0</v>
+        <v>1500</v>
       </c>
       <c r="F299" s="3">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G299" s="3">
-        <v>11</v>
-      </c>
-      <c r="H299" s="5" t="s">
-        <v>371</v>
-      </c>
-      <c r="I299" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="J299" t="s">
-        <v>386</v>
-      </c>
-    </row>
-    <row r="300" spans="1:10" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+      <c r="H299" s="3" t="s">
+        <v>420</v>
+      </c>
+      <c r="I299" s="3" t="s">
+        <v>419</v>
+      </c>
+    </row>
+    <row r="300" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A300" s="3" t="s">
-        <v>325</v>
+        <v>442</v>
       </c>
       <c r="B300" s="3">
-        <f t="shared" si="4"/>
-        <v>0</v>
+        <f t="shared" si="5"/>
+        <v>1500</v>
       </c>
       <c r="C300" s="3">
-        <v>8</v>
+        <v>7000</v>
       </c>
       <c r="D300" s="3">
         <v>0</v>
       </c>
       <c r="E300" s="3">
-        <v>0</v>
+        <v>1500</v>
       </c>
       <c r="F300" s="3">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G300" s="3">
-        <v>11</v>
-      </c>
-      <c r="H300" s="5" t="s">
-        <v>371</v>
-      </c>
-      <c r="I300" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="J300" t="s">
-        <v>386</v>
-      </c>
-    </row>
-    <row r="301" spans="1:10" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+      <c r="H300" s="3" t="s">
+        <v>420</v>
+      </c>
+      <c r="I300" s="3" t="s">
+        <v>419</v>
+      </c>
+    </row>
+    <row r="301" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A301" s="3" t="s">
-        <v>326</v>
+        <v>443</v>
       </c>
       <c r="B301" s="3">
-        <f t="shared" si="4"/>
-        <v>0</v>
+        <f t="shared" si="5"/>
+        <v>1500</v>
       </c>
       <c r="C301" s="3">
-        <v>8</v>
+        <v>7000</v>
       </c>
       <c r="D301" s="3">
         <v>0</v>
       </c>
       <c r="E301" s="3">
-        <v>0</v>
+        <v>1500</v>
       </c>
       <c r="F301" s="3">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G301" s="3">
-        <v>11</v>
-      </c>
-      <c r="H301" s="5" t="s">
-        <v>371</v>
-      </c>
-      <c r="I301" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="J301" t="s">
-        <v>386</v>
-      </c>
-    </row>
-    <row r="302" spans="1:10" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+      <c r="H301" s="3" t="s">
+        <v>420</v>
+      </c>
+      <c r="I301" s="3" t="s">
+        <v>419</v>
+      </c>
+    </row>
+    <row r="302" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A302" s="3" t="s">
-        <v>327</v>
+        <v>444</v>
       </c>
       <c r="B302" s="3">
-        <f t="shared" si="4"/>
-        <v>0</v>
+        <f t="shared" si="5"/>
+        <v>1500</v>
       </c>
       <c r="C302" s="3">
-        <v>8</v>
+        <v>7000</v>
       </c>
       <c r="D302" s="3">
         <v>0</v>
       </c>
       <c r="E302" s="3">
-        <v>0</v>
+        <v>1500</v>
       </c>
       <c r="F302" s="3">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G302" s="3">
-        <v>11</v>
-      </c>
-      <c r="H302" s="5" t="s">
-        <v>371</v>
-      </c>
-      <c r="I302" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="J302" t="s">
-        <v>386</v>
-      </c>
-    </row>
-    <row r="303" spans="1:10" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+      <c r="H302" s="3" t="s">
+        <v>420</v>
+      </c>
+      <c r="I302" s="3" t="s">
+        <v>419</v>
+      </c>
+    </row>
+    <row r="303" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A303" s="3" t="s">
-        <v>328</v>
+        <v>445</v>
       </c>
       <c r="B303" s="3">
-        <f t="shared" si="4"/>
-        <v>0</v>
+        <f t="shared" si="5"/>
+        <v>1500</v>
       </c>
       <c r="C303" s="3">
-        <v>8</v>
+        <v>7000</v>
       </c>
       <c r="D303" s="3">
         <v>0</v>
       </c>
       <c r="E303" s="3">
-        <v>0</v>
+        <v>1500</v>
       </c>
       <c r="F303" s="3">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G303" s="3">
-        <v>11</v>
-      </c>
-      <c r="H303" s="5" t="s">
-        <v>371</v>
-      </c>
-      <c r="I303" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="J303" t="s">
-        <v>386</v>
-      </c>
-    </row>
-    <row r="304" spans="1:10" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+      <c r="H303" s="3" t="s">
+        <v>420</v>
+      </c>
+      <c r="I303" s="3" t="s">
+        <v>419</v>
+      </c>
+    </row>
+    <row r="304" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A304" s="3" t="s">
-        <v>329</v>
+        <v>319</v>
       </c>
       <c r="B304" s="3">
-        <f t="shared" si="4"/>
-        <v>0</v>
+        <f t="shared" si="5"/>
+        <v>10</v>
       </c>
       <c r="C304" s="3">
-        <v>8</v>
+        <v>20</v>
       </c>
       <c r="D304" s="3">
         <v>0</v>
       </c>
       <c r="E304" s="3">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="F304" s="3">
         <v>2</v>
@@ -12308,32 +12892,29 @@
       <c r="G304" s="3">
         <v>11</v>
       </c>
-      <c r="H304" s="5" t="s">
-        <v>371</v>
-      </c>
-      <c r="I304" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="J304" t="s">
-        <v>386</v>
-      </c>
-    </row>
-    <row r="305" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="H304" s="3" t="s">
+        <v>420</v>
+      </c>
+      <c r="I304" s="3" t="s">
+        <v>419</v>
+      </c>
+    </row>
+    <row r="305" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A305" s="3" t="s">
-        <v>330</v>
+        <v>320</v>
       </c>
       <c r="B305" s="3">
-        <f t="shared" si="4"/>
-        <v>0</v>
+        <f t="shared" si="5"/>
+        <v>10</v>
       </c>
       <c r="C305" s="3">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="D305" s="3">
         <v>0</v>
       </c>
       <c r="E305" s="3">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="F305" s="3">
         <v>2</v>
@@ -12341,32 +12922,29 @@
       <c r="G305" s="3">
         <v>11</v>
       </c>
-      <c r="H305" s="5" t="s">
-        <v>371</v>
-      </c>
-      <c r="I305" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="J305" t="s">
-        <v>386</v>
-      </c>
-    </row>
-    <row r="306" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="H305" s="3" t="s">
+        <v>420</v>
+      </c>
+      <c r="I305" s="3" t="s">
+        <v>419</v>
+      </c>
+    </row>
+    <row r="306" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A306" s="3" t="s">
-        <v>331</v>
+        <v>321</v>
       </c>
       <c r="B306" s="3">
-        <f t="shared" si="4"/>
-        <v>0</v>
+        <f t="shared" si="5"/>
+        <v>10</v>
       </c>
       <c r="C306" s="3">
-        <v>8</v>
+        <v>20</v>
       </c>
       <c r="D306" s="3">
         <v>0</v>
       </c>
       <c r="E306" s="3">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="F306" s="3">
         <v>2</v>
@@ -12374,32 +12952,29 @@
       <c r="G306" s="3">
         <v>11</v>
       </c>
-      <c r="H306" s="5" t="s">
-        <v>371</v>
-      </c>
-      <c r="I306" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="J306" t="s">
-        <v>386</v>
-      </c>
-    </row>
-    <row r="307" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="H306" s="3" t="s">
+        <v>420</v>
+      </c>
+      <c r="I306" s="3" t="s">
+        <v>419</v>
+      </c>
+    </row>
+    <row r="307" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A307" s="3" t="s">
-        <v>332</v>
+        <v>322</v>
       </c>
       <c r="B307" s="3">
-        <f t="shared" si="4"/>
-        <v>0</v>
+        <f t="shared" si="5"/>
+        <v>10</v>
       </c>
       <c r="C307" s="3">
-        <v>8</v>
+        <v>20</v>
       </c>
       <c r="D307" s="3">
         <v>0</v>
       </c>
       <c r="E307" s="3">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="F307" s="3">
         <v>2</v>
@@ -12407,32 +12982,29 @@
       <c r="G307" s="3">
         <v>11</v>
       </c>
-      <c r="H307" s="5" t="s">
-        <v>371</v>
-      </c>
-      <c r="I307" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="J307" t="s">
-        <v>386</v>
-      </c>
-    </row>
-    <row r="308" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="H307" s="3" t="s">
+        <v>420</v>
+      </c>
+      <c r="I307" s="3" t="s">
+        <v>419</v>
+      </c>
+    </row>
+    <row r="308" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A308" s="3" t="s">
-        <v>333</v>
+        <v>323</v>
       </c>
       <c r="B308" s="3">
-        <f t="shared" si="4"/>
-        <v>0</v>
+        <f t="shared" si="5"/>
+        <v>10</v>
       </c>
       <c r="C308" s="3">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="D308" s="3">
         <v>0</v>
       </c>
       <c r="E308" s="3">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="F308" s="3">
         <v>2</v>
@@ -12440,32 +13012,29 @@
       <c r="G308" s="3">
         <v>11</v>
       </c>
-      <c r="H308" s="5" t="s">
-        <v>371</v>
-      </c>
-      <c r="I308" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="J308" t="s">
-        <v>386</v>
-      </c>
-    </row>
-    <row r="309" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="H308" s="3" t="s">
+        <v>420</v>
+      </c>
+      <c r="I308" s="3" t="s">
+        <v>419</v>
+      </c>
+    </row>
+    <row r="309" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A309" s="3" t="s">
-        <v>334</v>
+        <v>324</v>
       </c>
       <c r="B309" s="3">
-        <f t="shared" si="4"/>
-        <v>0</v>
+        <f t="shared" si="5"/>
+        <v>10</v>
       </c>
       <c r="C309" s="3">
-        <v>8</v>
+        <v>20</v>
       </c>
       <c r="D309" s="3">
         <v>0</v>
       </c>
       <c r="E309" s="3">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="F309" s="3">
         <v>2</v>
@@ -12473,32 +13042,29 @@
       <c r="G309" s="3">
         <v>11</v>
       </c>
-      <c r="H309" s="5" t="s">
-        <v>371</v>
-      </c>
-      <c r="I309" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="J309" t="s">
-        <v>386</v>
-      </c>
-    </row>
-    <row r="310" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="H309" s="3" t="s">
+        <v>420</v>
+      </c>
+      <c r="I309" s="3" t="s">
+        <v>419</v>
+      </c>
+    </row>
+    <row r="310" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A310" s="3" t="s">
-        <v>335</v>
+        <v>325</v>
       </c>
       <c r="B310" s="3">
-        <f t="shared" si="4"/>
-        <v>0</v>
+        <f t="shared" si="5"/>
+        <v>10</v>
       </c>
       <c r="C310" s="3">
-        <v>8</v>
+        <v>20</v>
       </c>
       <c r="D310" s="3">
         <v>0</v>
       </c>
       <c r="E310" s="3">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="F310" s="3">
         <v>2</v>
@@ -12506,32 +13072,29 @@
       <c r="G310" s="3">
         <v>11</v>
       </c>
-      <c r="H310" s="5" t="s">
-        <v>371</v>
-      </c>
-      <c r="I310" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="J310" t="s">
-        <v>386</v>
-      </c>
-    </row>
-    <row r="311" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="H310" s="3" t="s">
+        <v>420</v>
+      </c>
+      <c r="I310" s="3" t="s">
+        <v>419</v>
+      </c>
+    </row>
+    <row r="311" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A311" s="3" t="s">
-        <v>336</v>
+        <v>326</v>
       </c>
       <c r="B311" s="3">
-        <f t="shared" si="4"/>
-        <v>0</v>
+        <f t="shared" si="5"/>
+        <v>10</v>
       </c>
       <c r="C311" s="3">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="D311" s="3">
         <v>0</v>
       </c>
       <c r="E311" s="3">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="F311" s="3">
         <v>2</v>
@@ -12539,32 +13102,29 @@
       <c r="G311" s="3">
         <v>11</v>
       </c>
-      <c r="H311" s="5" t="s">
-        <v>371</v>
-      </c>
-      <c r="I311" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="J311" t="s">
-        <v>386</v>
-      </c>
-    </row>
-    <row r="312" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="H311" s="3" t="s">
+        <v>420</v>
+      </c>
+      <c r="I311" s="3" t="s">
+        <v>419</v>
+      </c>
+    </row>
+    <row r="312" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A312" s="3" t="s">
-        <v>337</v>
+        <v>327</v>
       </c>
       <c r="B312" s="3">
-        <f t="shared" si="4"/>
-        <v>0</v>
+        <f t="shared" si="5"/>
+        <v>10</v>
       </c>
       <c r="C312" s="3">
-        <v>8</v>
+        <v>20</v>
       </c>
       <c r="D312" s="3">
         <v>0</v>
       </c>
       <c r="E312" s="3">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="F312" s="3">
         <v>2</v>
@@ -12572,32 +13132,29 @@
       <c r="G312" s="3">
         <v>11</v>
       </c>
-      <c r="H312" s="5" t="s">
-        <v>371</v>
-      </c>
-      <c r="I312" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="J312" t="s">
-        <v>386</v>
-      </c>
-    </row>
-    <row r="313" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="H312" s="3" t="s">
+        <v>420</v>
+      </c>
+      <c r="I312" s="3" t="s">
+        <v>419</v>
+      </c>
+    </row>
+    <row r="313" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A313" s="3" t="s">
-        <v>338</v>
+        <v>328</v>
       </c>
       <c r="B313" s="3">
-        <f t="shared" si="4"/>
-        <v>0</v>
+        <f t="shared" si="5"/>
+        <v>10</v>
       </c>
       <c r="C313" s="3">
-        <v>8</v>
+        <v>20</v>
       </c>
       <c r="D313" s="3">
         <v>0</v>
       </c>
       <c r="E313" s="3">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="F313" s="3">
         <v>2</v>
@@ -12605,32 +13162,29 @@
       <c r="G313" s="3">
         <v>11</v>
       </c>
-      <c r="H313" s="5" t="s">
-        <v>371</v>
-      </c>
-      <c r="I313" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="J313" t="s">
-        <v>386</v>
-      </c>
-    </row>
-    <row r="314" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="H313" s="3" t="s">
+        <v>420</v>
+      </c>
+      <c r="I313" s="3" t="s">
+        <v>419</v>
+      </c>
+    </row>
+    <row r="314" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A314" s="3" t="s">
-        <v>339</v>
+        <v>329</v>
       </c>
       <c r="B314" s="3">
-        <f t="shared" si="4"/>
-        <v>0</v>
+        <f t="shared" si="5"/>
+        <v>10</v>
       </c>
       <c r="C314" s="3">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="D314" s="3">
         <v>0</v>
       </c>
       <c r="E314" s="3">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="F314" s="3">
         <v>2</v>
@@ -12638,32 +13192,29 @@
       <c r="G314" s="3">
         <v>11</v>
       </c>
-      <c r="H314" s="5" t="s">
-        <v>371</v>
-      </c>
-      <c r="I314" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="J314" t="s">
-        <v>386</v>
-      </c>
-    </row>
-    <row r="315" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="H314" s="3" t="s">
+        <v>420</v>
+      </c>
+      <c r="I314" s="3" t="s">
+        <v>419</v>
+      </c>
+    </row>
+    <row r="315" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A315" s="3" t="s">
-        <v>340</v>
+        <v>330</v>
       </c>
       <c r="B315" s="3">
-        <f t="shared" si="4"/>
-        <v>0</v>
+        <f t="shared" si="5"/>
+        <v>10</v>
       </c>
       <c r="C315" s="3">
-        <v>8</v>
+        <v>20</v>
       </c>
       <c r="D315" s="3">
         <v>0</v>
       </c>
       <c r="E315" s="3">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="F315" s="3">
         <v>2</v>
@@ -12671,32 +13222,29 @@
       <c r="G315" s="3">
         <v>11</v>
       </c>
-      <c r="H315" s="5" t="s">
-        <v>371</v>
-      </c>
-      <c r="I315" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="J315" t="s">
-        <v>386</v>
-      </c>
-    </row>
-    <row r="316" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="H315" s="3" t="s">
+        <v>420</v>
+      </c>
+      <c r="I315" s="3" t="s">
+        <v>419</v>
+      </c>
+    </row>
+    <row r="316" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A316" s="3" t="s">
-        <v>341</v>
+        <v>331</v>
       </c>
       <c r="B316" s="3">
-        <f t="shared" si="4"/>
-        <v>0</v>
+        <f t="shared" si="5"/>
+        <v>10</v>
       </c>
       <c r="C316" s="3">
-        <v>8</v>
+        <v>20</v>
       </c>
       <c r="D316" s="3">
         <v>0</v>
       </c>
       <c r="E316" s="3">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="F316" s="3">
         <v>2</v>
@@ -12704,32 +13252,29 @@
       <c r="G316" s="3">
         <v>11</v>
       </c>
-      <c r="H316" s="5" t="s">
-        <v>371</v>
-      </c>
-      <c r="I316" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="J316" t="s">
-        <v>386</v>
-      </c>
-    </row>
-    <row r="317" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="H316" s="3" t="s">
+        <v>420</v>
+      </c>
+      <c r="I316" s="3" t="s">
+        <v>419</v>
+      </c>
+    </row>
+    <row r="317" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A317" s="3" t="s">
-        <v>342</v>
+        <v>332</v>
       </c>
       <c r="B317" s="3">
-        <f t="shared" si="4"/>
-        <v>0</v>
+        <f t="shared" si="5"/>
+        <v>10</v>
       </c>
       <c r="C317" s="3">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="D317" s="3">
         <v>0</v>
       </c>
       <c r="E317" s="3">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="F317" s="3">
         <v>2</v>
@@ -12737,17 +13282,945 @@
       <c r="G317" s="3">
         <v>11</v>
       </c>
-      <c r="H317" s="5" t="s">
-        <v>371</v>
-      </c>
-      <c r="I317" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="J317" t="s">
-        <v>386</v>
+      <c r="H317" s="3" t="s">
+        <v>420</v>
+      </c>
+      <c r="I317" s="3" t="s">
+        <v>419</v>
+      </c>
+    </row>
+    <row r="318" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A318" s="3" t="s">
+        <v>333</v>
+      </c>
+      <c r="B318" s="3">
+        <f t="shared" si="5"/>
+        <v>10</v>
+      </c>
+      <c r="C318" s="3">
+        <v>20</v>
+      </c>
+      <c r="D318" s="3">
+        <v>0</v>
+      </c>
+      <c r="E318" s="3">
+        <v>10</v>
+      </c>
+      <c r="F318" s="3">
+        <v>2</v>
+      </c>
+      <c r="G318" s="3">
+        <v>11</v>
+      </c>
+      <c r="H318" s="3" t="s">
+        <v>420</v>
+      </c>
+      <c r="I318" s="3" t="s">
+        <v>419</v>
+      </c>
+    </row>
+    <row r="319" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A319" s="3" t="s">
+        <v>334</v>
+      </c>
+      <c r="B319" s="3">
+        <f t="shared" si="5"/>
+        <v>10</v>
+      </c>
+      <c r="C319" s="3">
+        <v>20</v>
+      </c>
+      <c r="D319" s="3">
+        <v>0</v>
+      </c>
+      <c r="E319" s="3">
+        <v>10</v>
+      </c>
+      <c r="F319" s="3">
+        <v>2</v>
+      </c>
+      <c r="G319" s="3">
+        <v>11</v>
+      </c>
+      <c r="H319" s="3" t="s">
+        <v>420</v>
+      </c>
+      <c r="I319" s="3" t="s">
+        <v>419</v>
+      </c>
+    </row>
+    <row r="320" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A320" s="3" t="s">
+        <v>335</v>
+      </c>
+      <c r="B320" s="3">
+        <f t="shared" si="5"/>
+        <v>10</v>
+      </c>
+      <c r="C320" s="3">
+        <v>20</v>
+      </c>
+      <c r="D320" s="3">
+        <v>0</v>
+      </c>
+      <c r="E320" s="3">
+        <v>10</v>
+      </c>
+      <c r="F320" s="3">
+        <v>2</v>
+      </c>
+      <c r="G320" s="3">
+        <v>11</v>
+      </c>
+      <c r="H320" s="3" t="s">
+        <v>420</v>
+      </c>
+      <c r="I320" s="3" t="s">
+        <v>419</v>
+      </c>
+    </row>
+    <row r="321" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A321" s="3" t="s">
+        <v>336</v>
+      </c>
+      <c r="B321" s="3">
+        <f t="shared" si="5"/>
+        <v>10</v>
+      </c>
+      <c r="C321" s="3">
+        <v>20</v>
+      </c>
+      <c r="D321" s="3">
+        <v>0</v>
+      </c>
+      <c r="E321" s="3">
+        <v>10</v>
+      </c>
+      <c r="F321" s="3">
+        <v>2</v>
+      </c>
+      <c r="G321" s="3">
+        <v>11</v>
+      </c>
+      <c r="H321" s="3" t="s">
+        <v>420</v>
+      </c>
+      <c r="I321" s="3" t="s">
+        <v>419</v>
+      </c>
+    </row>
+    <row r="322" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A322" s="3" t="s">
+        <v>337</v>
+      </c>
+      <c r="B322" s="3">
+        <f t="shared" si="5"/>
+        <v>10</v>
+      </c>
+      <c r="C322" s="3">
+        <v>20</v>
+      </c>
+      <c r="D322" s="3">
+        <v>0</v>
+      </c>
+      <c r="E322" s="3">
+        <v>10</v>
+      </c>
+      <c r="F322" s="3">
+        <v>2</v>
+      </c>
+      <c r="G322" s="3">
+        <v>11</v>
+      </c>
+      <c r="H322" s="3" t="s">
+        <v>420</v>
+      </c>
+      <c r="I322" s="3" t="s">
+        <v>419</v>
+      </c>
+    </row>
+    <row r="323" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A323" s="3" t="s">
+        <v>338</v>
+      </c>
+      <c r="B323" s="3">
+        <f t="shared" si="5"/>
+        <v>10</v>
+      </c>
+      <c r="C323" s="3">
+        <v>20</v>
+      </c>
+      <c r="D323" s="3">
+        <v>0</v>
+      </c>
+      <c r="E323" s="3">
+        <v>10</v>
+      </c>
+      <c r="F323" s="3">
+        <v>2</v>
+      </c>
+      <c r="G323" s="3">
+        <v>11</v>
+      </c>
+      <c r="H323" s="3" t="s">
+        <v>420</v>
+      </c>
+      <c r="I323" s="3" t="s">
+        <v>419</v>
+      </c>
+    </row>
+    <row r="324" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A324" s="3" t="s">
+        <v>339</v>
+      </c>
+      <c r="B324" s="3">
+        <f t="shared" si="5"/>
+        <v>10</v>
+      </c>
+      <c r="C324" s="3">
+        <v>20</v>
+      </c>
+      <c r="D324" s="3">
+        <v>0</v>
+      </c>
+      <c r="E324" s="3">
+        <v>10</v>
+      </c>
+      <c r="F324" s="3">
+        <v>2</v>
+      </c>
+      <c r="G324" s="3">
+        <v>11</v>
+      </c>
+      <c r="H324" s="3" t="s">
+        <v>420</v>
+      </c>
+      <c r="I324" s="3" t="s">
+        <v>419</v>
+      </c>
+    </row>
+    <row r="325" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A325" s="3" t="s">
+        <v>340</v>
+      </c>
+      <c r="B325" s="3">
+        <f t="shared" si="5"/>
+        <v>10</v>
+      </c>
+      <c r="C325" s="3">
+        <v>20</v>
+      </c>
+      <c r="D325" s="3">
+        <v>0</v>
+      </c>
+      <c r="E325" s="3">
+        <v>10</v>
+      </c>
+      <c r="F325" s="3">
+        <v>2</v>
+      </c>
+      <c r="G325" s="3">
+        <v>11</v>
+      </c>
+      <c r="H325" s="3" t="s">
+        <v>420</v>
+      </c>
+      <c r="I325" s="3" t="s">
+        <v>419</v>
+      </c>
+    </row>
+    <row r="326" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A326" s="3" t="s">
+        <v>341</v>
+      </c>
+      <c r="B326" s="3">
+        <f t="shared" si="5"/>
+        <v>10</v>
+      </c>
+      <c r="C326" s="3">
+        <v>20</v>
+      </c>
+      <c r="D326" s="3">
+        <v>0</v>
+      </c>
+      <c r="E326" s="3">
+        <v>10</v>
+      </c>
+      <c r="F326" s="3">
+        <v>2</v>
+      </c>
+      <c r="G326" s="3">
+        <v>11</v>
+      </c>
+      <c r="H326" s="3" t="s">
+        <v>420</v>
+      </c>
+      <c r="I326" s="3" t="s">
+        <v>419</v>
+      </c>
+    </row>
+    <row r="327" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A327" s="3" t="s">
+        <v>342</v>
+      </c>
+      <c r="B327" s="3">
+        <f t="shared" si="5"/>
+        <v>10</v>
+      </c>
+      <c r="C327" s="3">
+        <v>20</v>
+      </c>
+      <c r="D327" s="3">
+        <v>0</v>
+      </c>
+      <c r="E327" s="3">
+        <v>10</v>
+      </c>
+      <c r="F327" s="3">
+        <v>2</v>
+      </c>
+      <c r="G327" s="3">
+        <v>11</v>
+      </c>
+      <c r="H327" s="3" t="s">
+        <v>420</v>
+      </c>
+      <c r="I327" s="3" t="s">
+        <v>419</v>
+      </c>
+    </row>
+    <row r="328" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A328" s="3" t="s">
+        <v>446</v>
+      </c>
+      <c r="B328" s="3">
+        <f t="shared" si="5"/>
+        <v>5</v>
+      </c>
+      <c r="C328" s="3">
+        <v>10</v>
+      </c>
+      <c r="D328" s="3">
+        <v>0</v>
+      </c>
+      <c r="E328" s="3">
+        <v>5</v>
+      </c>
+      <c r="F328" s="3">
+        <v>0</v>
+      </c>
+      <c r="G328" s="3">
+        <v>0</v>
+      </c>
+      <c r="H328" s="3" t="s">
+        <v>420</v>
+      </c>
+      <c r="I328" s="3" t="s">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="329" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A329" s="3" t="s">
+        <v>447</v>
+      </c>
+      <c r="B329" s="3">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="C329" s="3">
+        <v>2147483647</v>
+      </c>
+      <c r="D329" s="3">
+        <v>-2147483648</v>
+      </c>
+      <c r="E329" s="3">
+        <v>0</v>
+      </c>
+      <c r="F329" s="3">
+        <v>0</v>
+      </c>
+      <c r="G329" s="3">
+        <v>0</v>
+      </c>
+      <c r="H329" s="3" t="s">
+        <v>420</v>
+      </c>
+      <c r="I329" s="3" t="s">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="330" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A330" s="3" t="s">
+        <v>448</v>
+      </c>
+      <c r="B330" s="3">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="C330" s="3">
+        <v>2147483647</v>
+      </c>
+      <c r="D330" s="3">
+        <v>-2147483648</v>
+      </c>
+      <c r="E330" s="3">
+        <v>0</v>
+      </c>
+      <c r="F330" s="3">
+        <v>0</v>
+      </c>
+      <c r="G330" s="3">
+        <v>0</v>
+      </c>
+      <c r="H330" s="3" t="s">
+        <v>420</v>
+      </c>
+      <c r="I330" s="3" t="s">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="331" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A331" s="3" t="s">
+        <v>449</v>
+      </c>
+      <c r="B331" s="3">
+        <f t="shared" si="5"/>
+        <v>10</v>
+      </c>
+      <c r="C331" s="3">
+        <v>100</v>
+      </c>
+      <c r="D331" s="3">
+        <v>5</v>
+      </c>
+      <c r="E331" s="3">
+        <v>10</v>
+      </c>
+      <c r="F331" s="3">
+        <v>0</v>
+      </c>
+      <c r="G331" s="3">
+        <v>0</v>
+      </c>
+      <c r="H331" s="3" t="s">
+        <v>420</v>
+      </c>
+      <c r="I331" s="3" t="s">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="332" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A332" s="3" t="s">
+        <v>450</v>
+      </c>
+      <c r="B332" s="3">
+        <f t="shared" si="5"/>
+        <v>6</v>
+      </c>
+      <c r="C332" s="3">
+        <v>255</v>
+      </c>
+      <c r="D332" s="3">
+        <v>1</v>
+      </c>
+      <c r="E332" s="3">
+        <v>6</v>
+      </c>
+      <c r="F332" s="3">
+        <v>2</v>
+      </c>
+      <c r="G332" s="3">
+        <v>12</v>
+      </c>
+      <c r="H332" s="3" t="s">
+        <v>420</v>
+      </c>
+      <c r="I332" s="3" t="s">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="333" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A333" s="3" t="s">
+        <v>451</v>
+      </c>
+      <c r="B333" s="3">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="C333" s="3">
+        <v>2147483647</v>
+      </c>
+      <c r="D333" s="3">
+        <v>-2147483648</v>
+      </c>
+      <c r="E333" s="3">
+        <v>0</v>
+      </c>
+      <c r="F333" s="3">
+        <v>0</v>
+      </c>
+      <c r="G333" s="3">
+        <v>0</v>
+      </c>
+      <c r="H333" s="3" t="s">
+        <v>420</v>
+      </c>
+      <c r="I333" s="3" t="s">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="334" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A334" s="3" t="s">
+        <v>452</v>
+      </c>
+      <c r="B334" s="3">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="C334" s="3">
+        <v>2147483647</v>
+      </c>
+      <c r="D334" s="3">
+        <v>-2147483648</v>
+      </c>
+      <c r="E334" s="3">
+        <v>0</v>
+      </c>
+      <c r="F334" s="3">
+        <v>0</v>
+      </c>
+      <c r="G334" s="3">
+        <v>0</v>
+      </c>
+      <c r="H334" s="3" t="s">
+        <v>420</v>
+      </c>
+      <c r="I334" s="3" t="s">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="335" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A335" s="3" t="s">
+        <v>453</v>
+      </c>
+      <c r="B335" s="3">
+        <f t="shared" si="5"/>
+        <v>10</v>
+      </c>
+      <c r="C335" s="3">
+        <v>100</v>
+      </c>
+      <c r="D335" s="3">
+        <v>5</v>
+      </c>
+      <c r="E335" s="3">
+        <v>10</v>
+      </c>
+      <c r="F335" s="3">
+        <v>0</v>
+      </c>
+      <c r="G335" s="3">
+        <v>0</v>
+      </c>
+      <c r="H335" s="3" t="s">
+        <v>420</v>
+      </c>
+      <c r="I335" s="3" t="s">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="336" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A336" s="3" t="s">
+        <v>454</v>
+      </c>
+      <c r="B336" s="3">
+        <f t="shared" si="5"/>
+        <v>6</v>
+      </c>
+      <c r="C336" s="3">
+        <v>255</v>
+      </c>
+      <c r="D336" s="3">
+        <v>1</v>
+      </c>
+      <c r="E336" s="3">
+        <v>6</v>
+      </c>
+      <c r="F336" s="3">
+        <v>2</v>
+      </c>
+      <c r="G336" s="3">
+        <v>12</v>
+      </c>
+      <c r="H336" s="3" t="s">
+        <v>420</v>
+      </c>
+      <c r="I336" s="3" t="s">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="337" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A337" s="3" t="s">
+        <v>455</v>
+      </c>
+      <c r="B337" s="3">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="C337" s="3">
+        <v>2147483647</v>
+      </c>
+      <c r="D337" s="3">
+        <v>-2147483648</v>
+      </c>
+      <c r="E337" s="3">
+        <v>0</v>
+      </c>
+      <c r="F337" s="3">
+        <v>0</v>
+      </c>
+      <c r="G337" s="3">
+        <v>0</v>
+      </c>
+      <c r="H337" s="3" t="s">
+        <v>420</v>
+      </c>
+      <c r="I337" s="3" t="s">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="338" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A338" s="3" t="s">
+        <v>456</v>
+      </c>
+      <c r="B338" s="3">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="C338" s="3">
+        <v>2147483647</v>
+      </c>
+      <c r="D338" s="3">
+        <v>-2147483648</v>
+      </c>
+      <c r="E338" s="3">
+        <v>0</v>
+      </c>
+      <c r="F338" s="3">
+        <v>0</v>
+      </c>
+      <c r="G338" s="3">
+        <v>0</v>
+      </c>
+      <c r="H338" s="3" t="s">
+        <v>420</v>
+      </c>
+      <c r="I338" s="3" t="s">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="339" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A339" s="3" t="s">
+        <v>457</v>
+      </c>
+      <c r="B339" s="3">
+        <f t="shared" si="5"/>
+        <v>10</v>
+      </c>
+      <c r="C339" s="3">
+        <v>100</v>
+      </c>
+      <c r="D339" s="3">
+        <v>5</v>
+      </c>
+      <c r="E339" s="3">
+        <v>10</v>
+      </c>
+      <c r="F339" s="3">
+        <v>0</v>
+      </c>
+      <c r="G339" s="3">
+        <v>0</v>
+      </c>
+      <c r="H339" s="3" t="s">
+        <v>420</v>
+      </c>
+      <c r="I339" s="3" t="s">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="340" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A340" s="3" t="s">
+        <v>458</v>
+      </c>
+      <c r="B340" s="3">
+        <f t="shared" si="5"/>
+        <v>6</v>
+      </c>
+      <c r="C340" s="3">
+        <v>255</v>
+      </c>
+      <c r="D340" s="3">
+        <v>1</v>
+      </c>
+      <c r="E340" s="3">
+        <v>6</v>
+      </c>
+      <c r="F340" s="3">
+        <v>2</v>
+      </c>
+      <c r="G340" s="3">
+        <v>12</v>
+      </c>
+      <c r="H340" s="3" t="s">
+        <v>420</v>
+      </c>
+      <c r="I340" s="3" t="s">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="341" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A341" s="3" t="s">
+        <v>459</v>
+      </c>
+      <c r="B341" s="3">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="C341" s="3">
+        <v>2147483647</v>
+      </c>
+      <c r="D341" s="3">
+        <v>-2147483648</v>
+      </c>
+      <c r="E341" s="3">
+        <v>0</v>
+      </c>
+      <c r="F341" s="3">
+        <v>0</v>
+      </c>
+      <c r="G341" s="3">
+        <v>0</v>
+      </c>
+      <c r="H341" s="3" t="s">
+        <v>420</v>
+      </c>
+      <c r="I341" s="3" t="s">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="342" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A342" s="3" t="s">
+        <v>460</v>
+      </c>
+      <c r="B342" s="3">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="C342" s="3">
+        <v>2147483647</v>
+      </c>
+      <c r="D342" s="3">
+        <v>-2147483648</v>
+      </c>
+      <c r="E342" s="3">
+        <v>0</v>
+      </c>
+      <c r="F342" s="3">
+        <v>0</v>
+      </c>
+      <c r="G342" s="3">
+        <v>0</v>
+      </c>
+      <c r="H342" s="3" t="s">
+        <v>420</v>
+      </c>
+      <c r="I342" s="3" t="s">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="343" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A343" s="3" t="s">
+        <v>461</v>
+      </c>
+      <c r="B343" s="3">
+        <f t="shared" si="5"/>
+        <v>10</v>
+      </c>
+      <c r="C343" s="3">
+        <v>100</v>
+      </c>
+      <c r="D343" s="3">
+        <v>5</v>
+      </c>
+      <c r="E343" s="3">
+        <v>10</v>
+      </c>
+      <c r="F343" s="3">
+        <v>0</v>
+      </c>
+      <c r="G343" s="3">
+        <v>0</v>
+      </c>
+      <c r="H343" s="3" t="s">
+        <v>420</v>
+      </c>
+      <c r="I343" s="3" t="s">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="344" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A344" s="3" t="s">
+        <v>462</v>
+      </c>
+      <c r="B344" s="3">
+        <f t="shared" si="5"/>
+        <v>6</v>
+      </c>
+      <c r="C344" s="3">
+        <v>255</v>
+      </c>
+      <c r="D344" s="3">
+        <v>1</v>
+      </c>
+      <c r="E344" s="3">
+        <v>6</v>
+      </c>
+      <c r="F344" s="3">
+        <v>2</v>
+      </c>
+      <c r="G344" s="3">
+        <v>12</v>
+      </c>
+      <c r="H344" s="3" t="s">
+        <v>420</v>
+      </c>
+      <c r="I344" s="3" t="s">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="345" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A345" s="3" t="s">
+        <v>463</v>
+      </c>
+      <c r="B345" s="3">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="C345" s="3">
+        <v>2147483647</v>
+      </c>
+      <c r="D345" s="3">
+        <v>-2147483648</v>
+      </c>
+      <c r="E345" s="3">
+        <v>0</v>
+      </c>
+      <c r="F345" s="3">
+        <v>0</v>
+      </c>
+      <c r="G345" s="3">
+        <v>0</v>
+      </c>
+      <c r="H345" s="3" t="s">
+        <v>420</v>
+      </c>
+      <c r="I345" s="3" t="s">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="346" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A346" s="3" t="s">
+        <v>464</v>
+      </c>
+      <c r="B346" s="3">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="C346" s="3">
+        <v>2147483647</v>
+      </c>
+      <c r="D346" s="3">
+        <v>-2147483648</v>
+      </c>
+      <c r="E346" s="3">
+        <v>0</v>
+      </c>
+      <c r="F346" s="3">
+        <v>0</v>
+      </c>
+      <c r="G346" s="3">
+        <v>0</v>
+      </c>
+      <c r="H346" s="3" t="s">
+        <v>420</v>
+      </c>
+      <c r="I346" s="3" t="s">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="347" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A347" s="3" t="s">
+        <v>465</v>
+      </c>
+      <c r="B347" s="3">
+        <f t="shared" si="5"/>
+        <v>10</v>
+      </c>
+      <c r="C347" s="3">
+        <v>100</v>
+      </c>
+      <c r="D347" s="3">
+        <v>5</v>
+      </c>
+      <c r="E347" s="3">
+        <v>10</v>
+      </c>
+      <c r="F347" s="3">
+        <v>0</v>
+      </c>
+      <c r="G347" s="3">
+        <v>0</v>
+      </c>
+      <c r="H347" s="3" t="s">
+        <v>420</v>
+      </c>
+      <c r="I347" s="3" t="s">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="348" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A348" s="3" t="s">
+        <v>466</v>
+      </c>
+      <c r="B348" s="3">
+        <f t="shared" si="5"/>
+        <v>6</v>
+      </c>
+      <c r="C348" s="3">
+        <v>255</v>
+      </c>
+      <c r="D348" s="3">
+        <v>1</v>
+      </c>
+      <c r="E348" s="3">
+        <v>6</v>
+      </c>
+      <c r="F348" s="3">
+        <v>2</v>
+      </c>
+      <c r="G348" s="3">
+        <v>12</v>
+      </c>
+      <c r="H348" s="3" t="s">
+        <v>420</v>
+      </c>
+      <c r="I348" s="3" t="s">
+        <v>424</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/Booyco HMI Utility/Resources/Documents/CommanderParametersFile.xlsx
+++ b/Booyco HMI Utility/Resources/Documents/CommanderParametersFile.xlsx
@@ -5,16 +5,21 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Dropbox (Mernok Elektronik)\Mernok\Active\Git\SW\Booyco-HMI-Utility\Booyco HMI Utility\Resources\Documents\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\FrancoisHattingh\Desktop\Debug_WiFiParams_20190310\Debug\Resources\Documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{425D9B42-96D6-4F0B-9F5D-DDAF232FD9DC}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AA4D03B9-6557-43B3-80E9-0A4FB4A5DDE1}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{4442C273-631E-40E6-88D2-7449766A5078}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{4442C273-631E-40E6-88D2-7449766A5078}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
+  <definedNames>
+    <definedName name="Groups">Sheet2!$A$2:$A$9</definedName>
+    <definedName name="SubGroups">Sheet2!$B$2:$B$36</definedName>
+  </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -31,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1481" uniqueCount="526">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1552" uniqueCount="553">
   <si>
     <t>Name</t>
   </si>
@@ -48,9 +53,6 @@
     <t>DefaultValue</t>
   </si>
   <si>
-    <t>TagCount</t>
-  </si>
-  <si>
     <t>Topology</t>
   </si>
   <si>
@@ -597,9 +599,6 @@
     <t>LF Smoothing</t>
   </si>
   <si>
-    <t>Commander101 Application</t>
-  </si>
-  <si>
     <t>RF MasterSlave</t>
   </si>
   <si>
@@ -1146,42 +1145,9 @@
     <t>Group</t>
   </si>
   <si>
-    <t>System</t>
-  </si>
-  <si>
-    <t>License</t>
-  </si>
-  <si>
-    <t>Pulse300</t>
-  </si>
-  <si>
-    <t>Pulse400</t>
-  </si>
-  <si>
-    <t>Pulse500</t>
-  </si>
-  <si>
-    <t>Global</t>
-  </si>
-  <si>
-    <t>Tags</t>
-  </si>
-  <si>
-    <t>GPS</t>
-  </si>
-  <si>
     <t>SubGroup</t>
   </si>
   <si>
-    <t>Primary</t>
-  </si>
-  <si>
-    <t>Pre-OP</t>
-  </si>
-  <si>
-    <t>Periferals</t>
-  </si>
-  <si>
     <t>Description</t>
   </si>
   <si>
@@ -1257,9 +1223,6 @@
     <t xml:space="preserve">Right Tag LF Power </t>
   </si>
   <si>
-    <t xml:space="preserve">PulseRF Tag Lfpower </t>
-  </si>
-  <si>
     <t>Hardware  Revision</t>
   </si>
   <si>
@@ -1269,9 +1232,6 @@
     <t>Vehicle Detail</t>
   </si>
   <si>
-    <t>Licence Detail</t>
-  </si>
-  <si>
     <t>Vehicle number</t>
   </si>
   <si>
@@ -1290,39 +1250,12 @@
     <t>Pre-Operation</t>
   </si>
   <si>
-    <t>Vehicle Proximity</t>
-  </si>
-  <si>
-    <t>Proximity</t>
-  </si>
-  <si>
-    <t>RF Proximity</t>
-  </si>
-  <si>
     <t>RF Forget</t>
   </si>
   <si>
     <t>LF Proximity</t>
   </si>
   <si>
-    <t>GPS Proximity</t>
-  </si>
-  <si>
-    <t>Overview</t>
-  </si>
-  <si>
-    <t>Internal LF</t>
-  </si>
-  <si>
-    <t>Test Parameters</t>
-  </si>
-  <si>
-    <t>Speedo Parameters</t>
-  </si>
-  <si>
-    <t>Backlight</t>
-  </si>
-  <si>
     <t>Backlight Threshold Maximum</t>
   </si>
   <si>
@@ -1332,15 +1265,6 @@
     <t>Backlight Sensitivity</t>
   </si>
   <si>
-    <t>Buzzer</t>
-  </si>
-  <si>
-    <t>CAS Display</t>
-  </si>
-  <si>
-    <t>Tag Monitoring</t>
-  </si>
-  <si>
     <t>ThreatWarning Action1</t>
   </si>
   <si>
@@ -1609,6 +1533,168 @@
   </si>
   <si>
     <t>Water_Cannon</t>
+  </si>
+  <si>
+    <t>ISO21815 Communication</t>
+  </si>
+  <si>
+    <t>Radar Enable</t>
+  </si>
+  <si>
+    <t>Radar Threat Zone</t>
+  </si>
+  <si>
+    <t>Radar Speed Activate</t>
+  </si>
+  <si>
+    <t>Radar Max Distance Side</t>
+  </si>
+  <si>
+    <t>Radar Max Distance Forward</t>
+  </si>
+  <si>
+    <t>GPS Time Update</t>
+  </si>
+  <si>
+    <t>Interface</t>
+  </si>
+  <si>
+    <t>No Zone</t>
+  </si>
+  <si>
+    <t>Presence</t>
+  </si>
+  <si>
+    <t>Warning</t>
+  </si>
+  <si>
+    <t>Critical</t>
+  </si>
+  <si>
+    <t>Radar Proximity</t>
+  </si>
+  <si>
+    <t xml:space="preserve">System </t>
+  </si>
+  <si>
+    <t>Unit Information</t>
+  </si>
+  <si>
+    <t>Internal Low Frequency</t>
+  </si>
+  <si>
+    <t>Radio Frequency</t>
+  </si>
+  <si>
+    <t>User Interaction</t>
+  </si>
+  <si>
+    <t>Self-Test</t>
+  </si>
+  <si>
+    <t>Display</t>
+  </si>
+  <si>
+    <t>Speed Management</t>
+  </si>
+  <si>
+    <t>PDS Management</t>
+  </si>
+  <si>
+    <t>Brightness</t>
+  </si>
+  <si>
+    <t>Test Station</t>
+  </si>
+  <si>
+    <t>Test Station Parameters</t>
+  </si>
+  <si>
+    <t>Peripherals</t>
+  </si>
+  <si>
+    <t>Module Settings</t>
+  </si>
+  <si>
+    <t>RF Module Settings</t>
+  </si>
+  <si>
+    <t>GPS Module Settings</t>
+  </si>
+  <si>
+    <t>Module Monitoring</t>
+  </si>
+  <si>
+    <t>Beacon Unit Settings</t>
+  </si>
+  <si>
+    <t>GNSS Unit Settings</t>
+  </si>
+  <si>
+    <t>GNSS Unit Monitoring</t>
+  </si>
+  <si>
+    <t>Low Frequency Unit Settings</t>
+  </si>
+  <si>
+    <t>Low Frequency Unit Monitoring</t>
+  </si>
+  <si>
+    <t>IO Extender</t>
+  </si>
+  <si>
+    <t>LightBar Settings</t>
+  </si>
+  <si>
+    <t>Proximity Detection</t>
+  </si>
+  <si>
+    <t>GNSS Proximity</t>
+  </si>
+  <si>
+    <t>Geofence Proximity</t>
+  </si>
+  <si>
+    <t>Work Zone</t>
+  </si>
+  <si>
+    <t>Fifth Wheel</t>
+  </si>
+  <si>
+    <t>J1939</t>
+  </si>
+  <si>
+    <t>ISO21815</t>
+  </si>
+  <si>
+    <t>Sub group</t>
+  </si>
+  <si>
+    <t>License Detail</t>
+  </si>
+  <si>
+    <t>Proximity Settings</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pulse RF Tag power </t>
+  </si>
+  <si>
+    <t>Unit Application</t>
+  </si>
+  <si>
+    <t>I/O</t>
+  </si>
+  <si>
+    <t>Rail-Bound</t>
+  </si>
+  <si>
+    <t>Rail-Bound Parameters</t>
+  </si>
+  <si>
+    <t>System Type</t>
+  </si>
+  <si>
+    <t>GMT</t>
   </si>
 </sst>
 </file>
@@ -2050,11 +2136,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E4E73DD7-587F-4C4F-B32B-7B78C2644041}">
-  <dimension ref="A1:P348"/>
+  <dimension ref="A1:P356"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A113" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B1" sqref="B1:B1048576"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A335" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C359" sqref="C359"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2063,8 +2149,8 @@
     <col min="3" max="3" width="11" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="11.7109375" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="12.7109375" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="13.85546875" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="17.5703125" customWidth="1"/>
+    <col min="8" max="8" width="26" customWidth="1"/>
+    <col min="9" max="9" width="26.5703125" customWidth="1"/>
     <col min="10" max="10" width="89" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="12.140625" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="6.140625" bestFit="1" customWidth="1"/>
@@ -2089,36 +2175,36 @@
         <v>4</v>
       </c>
       <c r="F1" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="G1" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="G1" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="H1" s="5" t="s">
+        <v>368</v>
+      </c>
+      <c r="I1" s="5" t="s">
+        <v>369</v>
+      </c>
+      <c r="J1" s="5" t="s">
         <v>370</v>
       </c>
-      <c r="I1" s="5" t="s">
-        <v>379</v>
-      </c>
-      <c r="J1" s="5" t="s">
-        <v>383</v>
-      </c>
       <c r="M1" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="O1" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="P1" s="2" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
     </row>
     <row r="2" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
-        <v>387</v>
+        <v>374</v>
       </c>
       <c r="B2" s="3">
         <v>1</v>
@@ -2138,31 +2224,31 @@
       <c r="G2" s="3">
         <v>0</v>
       </c>
-      <c r="H2" s="2" t="s">
-        <v>425</v>
+      <c r="H2" s="3" t="s">
+        <v>512</v>
       </c>
       <c r="I2" s="3" t="s">
-        <v>371</v>
+        <v>513</v>
       </c>
       <c r="J2" t="s">
-        <v>385</v>
+        <v>372</v>
       </c>
       <c r="M2" s="1">
         <v>1</v>
       </c>
       <c r="N2" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="O2" s="2">
         <v>0</v>
       </c>
       <c r="P2" s="2" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
     </row>
     <row r="3" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
-        <v>388</v>
+        <v>375</v>
       </c>
       <c r="B3" s="3">
         <v>0</v>
@@ -2182,31 +2268,31 @@
       <c r="G3" s="3">
         <v>0</v>
       </c>
-      <c r="H3" s="2" t="s">
-        <v>425</v>
+      <c r="H3" s="3" t="s">
+        <v>512</v>
       </c>
       <c r="I3" s="3" t="s">
+        <v>513</v>
+      </c>
+      <c r="J3" t="s">
         <v>371</v>
       </c>
-      <c r="J3" t="s">
-        <v>384</v>
-      </c>
       <c r="M3" s="1">
         <v>1</v>
       </c>
       <c r="N3" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="O3" s="2">
         <v>1</v>
       </c>
       <c r="P3" s="2" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
     </row>
     <row r="4" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
-        <v>389</v>
+        <v>376</v>
       </c>
       <c r="B4" s="3">
         <f t="shared" ref="B4:B66" si="0">E4</f>
@@ -2228,30 +2314,30 @@
         <v>0</v>
       </c>
       <c r="H4" s="3" t="s">
-        <v>371</v>
-      </c>
-      <c r="I4" s="6" t="s">
-        <v>411</v>
+        <v>512</v>
+      </c>
+      <c r="I4" s="3" t="s">
+        <v>513</v>
       </c>
       <c r="J4" t="s">
-        <v>386</v>
+        <v>373</v>
       </c>
       <c r="M4" s="1">
         <v>1</v>
       </c>
       <c r="N4" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="O4" s="2">
         <v>2</v>
       </c>
       <c r="P4" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="5" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
-        <v>5</v>
+        <v>551</v>
       </c>
       <c r="B5" s="3">
         <f t="shared" si="0"/>
@@ -2273,30 +2359,30 @@
         <v>1</v>
       </c>
       <c r="H5" s="3" t="s">
-        <v>371</v>
-      </c>
-      <c r="I5" s="6" t="s">
-        <v>411</v>
+        <v>536</v>
+      </c>
+      <c r="I5" s="3" t="s">
+        <v>405</v>
       </c>
       <c r="J5" t="s">
-        <v>386</v>
+        <v>373</v>
       </c>
       <c r="M5" s="1">
         <v>1</v>
       </c>
       <c r="N5" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="O5" s="4">
         <v>4</v>
       </c>
       <c r="P5" s="4" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
     </row>
     <row r="6" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B6" s="3">
         <f t="shared" si="0"/>
@@ -2318,24 +2404,24 @@
         <v>2</v>
       </c>
       <c r="H6" s="3" t="s">
-        <v>371</v>
-      </c>
-      <c r="I6" s="6" t="s">
-        <v>411</v>
+        <v>536</v>
+      </c>
+      <c r="I6" s="3" t="s">
+        <v>405</v>
       </c>
       <c r="J6" t="s">
-        <v>386</v>
+        <v>373</v>
       </c>
       <c r="M6" s="1">
         <v>2</v>
       </c>
       <c r="N6" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="7" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
-        <v>390</v>
+        <v>377</v>
       </c>
       <c r="B7" s="3">
         <f t="shared" si="0"/>
@@ -2357,24 +2443,24 @@
         <v>3</v>
       </c>
       <c r="H7" s="3" t="s">
-        <v>371</v>
-      </c>
-      <c r="I7" s="6" t="s">
-        <v>411</v>
+        <v>512</v>
+      </c>
+      <c r="I7" s="3" t="s">
+        <v>397</v>
       </c>
       <c r="J7" t="s">
-        <v>386</v>
+        <v>373</v>
       </c>
       <c r="M7" s="1">
         <v>2</v>
       </c>
       <c r="N7" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="8" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B8" s="3">
         <f t="shared" si="0"/>
@@ -2396,24 +2482,24 @@
         <v>0</v>
       </c>
       <c r="H8" s="3" t="s">
-        <v>371</v>
-      </c>
-      <c r="I8" s="6" t="s">
-        <v>411</v>
+        <v>512</v>
+      </c>
+      <c r="I8" s="3" t="s">
+        <v>397</v>
       </c>
       <c r="J8" t="s">
-        <v>386</v>
+        <v>373</v>
       </c>
       <c r="M8" s="1">
         <v>3</v>
       </c>
       <c r="N8" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="9" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B9" s="3">
         <f t="shared" si="0"/>
@@ -2435,24 +2521,24 @@
         <v>0</v>
       </c>
       <c r="H9" s="3" t="s">
-        <v>371</v>
-      </c>
-      <c r="I9" s="6" t="s">
-        <v>411</v>
+        <v>512</v>
+      </c>
+      <c r="I9" s="3" t="s">
+        <v>397</v>
       </c>
       <c r="J9" t="s">
-        <v>386</v>
+        <v>373</v>
       </c>
       <c r="M9" s="1">
         <v>4</v>
       </c>
       <c r="N9" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="10" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B10" s="3">
         <f t="shared" si="0"/>
@@ -2474,24 +2560,24 @@
         <v>0</v>
       </c>
       <c r="H10" s="3" t="s">
-        <v>371</v>
-      </c>
-      <c r="I10" s="6" t="s">
-        <v>411</v>
+        <v>512</v>
+      </c>
+      <c r="I10" s="3" t="s">
+        <v>397</v>
       </c>
       <c r="J10" t="s">
-        <v>386</v>
+        <v>373</v>
       </c>
       <c r="M10" s="1">
         <v>4</v>
       </c>
       <c r="N10" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="11" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A11" s="3" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B11" s="3">
         <f t="shared" si="0"/>
@@ -2513,24 +2599,24 @@
         <v>0</v>
       </c>
       <c r="H11" s="3" t="s">
-        <v>371</v>
-      </c>
-      <c r="I11" s="6" t="s">
-        <v>411</v>
+        <v>512</v>
+      </c>
+      <c r="I11" s="3" t="s">
+        <v>397</v>
       </c>
       <c r="J11" t="s">
-        <v>386</v>
+        <v>373</v>
       </c>
       <c r="M11" s="1">
         <v>4</v>
       </c>
       <c r="N11" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="12" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A12" s="3" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B12" s="3">
         <f t="shared" si="0"/>
@@ -2552,24 +2638,24 @@
         <v>0</v>
       </c>
       <c r="H12" s="3" t="s">
-        <v>371</v>
-      </c>
-      <c r="I12" s="6" t="s">
-        <v>411</v>
+        <v>512</v>
+      </c>
+      <c r="I12" s="3" t="s">
+        <v>397</v>
       </c>
       <c r="J12" t="s">
-        <v>386</v>
+        <v>373</v>
       </c>
       <c r="M12" s="1">
         <v>4</v>
       </c>
       <c r="N12" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="13" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A13" s="3" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B13" s="3">
         <f t="shared" si="0"/>
@@ -2591,24 +2677,24 @@
         <v>0</v>
       </c>
       <c r="H13" s="3" t="s">
-        <v>371</v>
-      </c>
-      <c r="I13" s="6" t="s">
-        <v>411</v>
+        <v>512</v>
+      </c>
+      <c r="I13" s="3" t="s">
+        <v>397</v>
       </c>
       <c r="J13" t="s">
-        <v>386</v>
+        <v>373</v>
       </c>
       <c r="M13" s="1">
         <v>4</v>
       </c>
       <c r="N13" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="14" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A14" s="3" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B14" s="3">
         <f t="shared" si="0"/>
@@ -2630,24 +2716,24 @@
         <v>0</v>
       </c>
       <c r="H14" s="3" t="s">
-        <v>371</v>
-      </c>
-      <c r="I14" s="6" t="s">
-        <v>411</v>
+        <v>512</v>
+      </c>
+      <c r="I14" s="3" t="s">
+        <v>397</v>
       </c>
       <c r="J14" t="s">
-        <v>386</v>
+        <v>373</v>
       </c>
       <c r="M14" s="1">
         <v>5</v>
       </c>
       <c r="N14" s="1" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
     </row>
     <row r="15" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A15" s="3" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B15" s="3">
         <f t="shared" si="0"/>
@@ -2669,24 +2755,24 @@
         <v>0</v>
       </c>
       <c r="H15" s="3" t="s">
-        <v>371</v>
-      </c>
-      <c r="I15" s="6" t="s">
-        <v>411</v>
+        <v>512</v>
+      </c>
+      <c r="I15" s="3" t="s">
+        <v>397</v>
       </c>
       <c r="J15" t="s">
-        <v>386</v>
+        <v>373</v>
       </c>
       <c r="M15" s="1">
         <v>5</v>
       </c>
       <c r="N15" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="16" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A16" s="3" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B16" s="3">
         <f t="shared" si="0"/>
@@ -2708,24 +2794,24 @@
         <v>0</v>
       </c>
       <c r="H16" s="3" t="s">
-        <v>371</v>
-      </c>
-      <c r="I16" s="6" t="s">
-        <v>411</v>
+        <v>512</v>
+      </c>
+      <c r="I16" s="3" t="s">
+        <v>397</v>
       </c>
       <c r="J16" t="s">
-        <v>386</v>
+        <v>373</v>
       </c>
       <c r="M16" s="1">
         <v>5</v>
       </c>
       <c r="N16" s="1" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
     </row>
     <row r="17" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A17" s="3" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B17" s="3">
         <f t="shared" si="0"/>
@@ -2747,24 +2833,24 @@
         <v>0</v>
       </c>
       <c r="H17" s="3" t="s">
-        <v>371</v>
-      </c>
-      <c r="I17" s="6" t="s">
-        <v>411</v>
+        <v>512</v>
+      </c>
+      <c r="I17" s="3" t="s">
+        <v>397</v>
       </c>
       <c r="J17" t="s">
-        <v>386</v>
+        <v>373</v>
       </c>
       <c r="M17" s="1">
         <v>5</v>
       </c>
       <c r="N17" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="18" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A18" s="3" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B18" s="3">
         <f t="shared" si="0"/>
@@ -2786,24 +2872,24 @@
         <v>0</v>
       </c>
       <c r="H18" s="3" t="s">
-        <v>371</v>
-      </c>
-      <c r="I18" s="6" t="s">
-        <v>411</v>
+        <v>512</v>
+      </c>
+      <c r="I18" s="3" t="s">
+        <v>397</v>
       </c>
       <c r="J18" t="s">
-        <v>386</v>
+        <v>373</v>
       </c>
       <c r="M18" s="1">
         <v>5</v>
       </c>
       <c r="N18" s="1" t="s">
-        <v>358</v>
+        <v>356</v>
       </c>
     </row>
     <row r="19" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A19" s="3" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B19" s="3">
         <f t="shared" si="0"/>
@@ -2825,24 +2911,24 @@
         <v>0</v>
       </c>
       <c r="H19" s="3" t="s">
-        <v>371</v>
-      </c>
-      <c r="I19" s="6" t="s">
-        <v>411</v>
+        <v>512</v>
+      </c>
+      <c r="I19" s="3" t="s">
+        <v>397</v>
       </c>
       <c r="J19" t="s">
-        <v>386</v>
+        <v>373</v>
       </c>
       <c r="M19" s="1">
         <v>6</v>
       </c>
       <c r="N19" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="20" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A20" s="3" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B20" s="3">
         <f t="shared" si="0"/>
@@ -2864,24 +2950,24 @@
         <v>0</v>
       </c>
       <c r="H20" s="3" t="s">
-        <v>371</v>
-      </c>
-      <c r="I20" s="6" t="s">
-        <v>411</v>
+        <v>512</v>
+      </c>
+      <c r="I20" s="3" t="s">
+        <v>397</v>
       </c>
       <c r="J20" t="s">
-        <v>386</v>
+        <v>373</v>
       </c>
       <c r="M20" s="1">
         <v>6</v>
       </c>
       <c r="N20" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="21" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A21" s="3" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B21" s="3">
         <f t="shared" si="0"/>
@@ -2903,24 +2989,24 @@
         <v>0</v>
       </c>
       <c r="H21" s="3" t="s">
-        <v>371</v>
-      </c>
-      <c r="I21" s="6" t="s">
-        <v>411</v>
+        <v>512</v>
+      </c>
+      <c r="I21" s="3" t="s">
+        <v>397</v>
       </c>
       <c r="J21" t="s">
-        <v>386</v>
+        <v>373</v>
       </c>
       <c r="M21" s="1">
         <v>6</v>
       </c>
       <c r="N21" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="22" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A22" s="3" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B22" s="3">
         <f t="shared" si="0"/>
@@ -2942,24 +3028,24 @@
         <v>0</v>
       </c>
       <c r="H22" s="3" t="s">
-        <v>371</v>
-      </c>
-      <c r="I22" s="6" t="s">
-        <v>411</v>
+        <v>512</v>
+      </c>
+      <c r="I22" s="3" t="s">
+        <v>397</v>
       </c>
       <c r="J22" t="s">
-        <v>386</v>
+        <v>373</v>
       </c>
       <c r="M22" s="1">
         <v>6</v>
       </c>
       <c r="N22" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="23" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A23" s="3" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B23" s="3">
         <f t="shared" si="0"/>
@@ -2981,24 +3067,24 @@
         <v>0</v>
       </c>
       <c r="H23" s="3" t="s">
-        <v>371</v>
-      </c>
-      <c r="I23" s="6" t="s">
-        <v>411</v>
+        <v>512</v>
+      </c>
+      <c r="I23" s="3" t="s">
+        <v>397</v>
       </c>
       <c r="J23" t="s">
-        <v>386</v>
+        <v>373</v>
       </c>
       <c r="M23" s="1">
         <v>6</v>
       </c>
       <c r="N23" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="24" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A24" s="3" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B24" s="3">
         <f t="shared" si="0"/>
@@ -3020,24 +3106,24 @@
         <v>0</v>
       </c>
       <c r="H24" s="3" t="s">
-        <v>371</v>
-      </c>
-      <c r="I24" s="6" t="s">
-        <v>411</v>
+        <v>512</v>
+      </c>
+      <c r="I24" s="3" t="s">
+        <v>397</v>
       </c>
       <c r="J24" t="s">
-        <v>386</v>
+        <v>373</v>
       </c>
       <c r="M24" s="1">
         <v>6</v>
       </c>
       <c r="N24" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="25" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A25" s="3" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B25" s="3">
         <f t="shared" si="0"/>
@@ -3059,24 +3145,24 @@
         <v>0</v>
       </c>
       <c r="H25" s="3" t="s">
-        <v>371</v>
-      </c>
-      <c r="I25" s="6" t="s">
-        <v>411</v>
+        <v>512</v>
+      </c>
+      <c r="I25" s="3" t="s">
+        <v>397</v>
       </c>
       <c r="J25" t="s">
-        <v>386</v>
+        <v>373</v>
       </c>
       <c r="M25" s="1">
         <v>6</v>
       </c>
       <c r="N25" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="26" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A26" s="3" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B26" s="3">
         <f t="shared" si="0"/>
@@ -3098,24 +3184,24 @@
         <v>0</v>
       </c>
       <c r="H26" s="3" t="s">
-        <v>371</v>
-      </c>
-      <c r="I26" s="6" t="s">
-        <v>411</v>
+        <v>512</v>
+      </c>
+      <c r="I26" s="3" t="s">
+        <v>397</v>
       </c>
       <c r="J26" t="s">
-        <v>386</v>
+        <v>373</v>
       </c>
       <c r="M26" s="1">
         <v>6</v>
       </c>
       <c r="N26" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="27" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A27" s="3" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B27" s="3">
         <f t="shared" si="0"/>
@@ -3137,24 +3223,24 @@
         <v>0</v>
       </c>
       <c r="H27" s="3" t="s">
-        <v>371</v>
-      </c>
-      <c r="I27" s="6" t="s">
-        <v>411</v>
+        <v>512</v>
+      </c>
+      <c r="I27" s="3" t="s">
+        <v>397</v>
       </c>
       <c r="J27" t="s">
-        <v>386</v>
+        <v>373</v>
       </c>
       <c r="M27" s="1">
         <v>6</v>
       </c>
       <c r="N27" s="1" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
     </row>
     <row r="28" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A28" s="3" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B28" s="3">
         <f t="shared" si="0"/>
@@ -3176,24 +3262,24 @@
         <v>0</v>
       </c>
       <c r="H28" s="3" t="s">
-        <v>371</v>
-      </c>
-      <c r="I28" s="6" t="s">
-        <v>426</v>
+        <v>512</v>
+      </c>
+      <c r="I28" s="3" t="s">
+        <v>514</v>
       </c>
       <c r="J28" t="s">
-        <v>386</v>
+        <v>373</v>
       </c>
       <c r="M28" s="1">
         <v>6</v>
       </c>
       <c r="N28" s="1" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
     </row>
     <row r="29" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A29" s="3" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B29" s="3">
         <f t="shared" si="0"/>
@@ -3215,24 +3301,24 @@
         <v>0</v>
       </c>
       <c r="H29" s="3" t="s">
-        <v>371</v>
-      </c>
-      <c r="I29" s="6" t="s">
-        <v>426</v>
+        <v>512</v>
+      </c>
+      <c r="I29" s="3" t="s">
+        <v>514</v>
       </c>
       <c r="J29" t="s">
-        <v>386</v>
+        <v>373</v>
       </c>
       <c r="M29" s="1">
         <v>7</v>
       </c>
       <c r="N29" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="30" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A30" s="3" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B30" s="3">
         <f t="shared" si="0"/>
@@ -3254,24 +3340,24 @@
         <v>0</v>
       </c>
       <c r="H30" s="3" t="s">
-        <v>371</v>
-      </c>
-      <c r="I30" s="6" t="s">
-        <v>426</v>
+        <v>512</v>
+      </c>
+      <c r="I30" s="3" t="s">
+        <v>514</v>
       </c>
       <c r="J30" t="s">
-        <v>386</v>
+        <v>373</v>
       </c>
       <c r="M30" s="1">
         <v>7</v>
       </c>
       <c r="N30" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="31" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A31" s="3" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B31" s="3">
         <f t="shared" si="0"/>
@@ -3293,24 +3379,24 @@
         <v>0</v>
       </c>
       <c r="H31" s="3" t="s">
-        <v>371</v>
-      </c>
-      <c r="I31" s="6" t="s">
-        <v>426</v>
+        <v>512</v>
+      </c>
+      <c r="I31" s="3" t="s">
+        <v>514</v>
       </c>
       <c r="J31" t="s">
-        <v>386</v>
+        <v>373</v>
       </c>
       <c r="M31" s="1">
         <v>7</v>
       </c>
       <c r="N31" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="32" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A32" s="3" t="s">
-        <v>391</v>
+        <v>378</v>
       </c>
       <c r="B32" s="3">
         <f t="shared" si="0"/>
@@ -3332,24 +3418,24 @@
         <v>0</v>
       </c>
       <c r="H32" s="3" t="s">
-        <v>371</v>
-      </c>
-      <c r="I32" s="6" t="s">
-        <v>429</v>
+        <v>518</v>
+      </c>
+      <c r="I32" s="3" t="s">
+        <v>521</v>
       </c>
       <c r="J32" t="s">
-        <v>386</v>
+        <v>373</v>
       </c>
       <c r="M32" s="1">
         <v>7</v>
       </c>
       <c r="N32" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="33" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A33" s="3" t="s">
-        <v>392</v>
+        <v>379</v>
       </c>
       <c r="B33" s="3">
         <f t="shared" si="0"/>
@@ -3371,24 +3457,24 @@
         <v>0</v>
       </c>
       <c r="H33" s="3" t="s">
-        <v>371</v>
-      </c>
-      <c r="I33" s="6" t="s">
-        <v>380</v>
+        <v>536</v>
+      </c>
+      <c r="I33" s="3" t="s">
+        <v>545</v>
       </c>
       <c r="J33" t="s">
-        <v>386</v>
+        <v>373</v>
       </c>
       <c r="M33" s="1">
         <v>7</v>
       </c>
       <c r="N33" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="34" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A34" s="3" t="s">
-        <v>393</v>
+        <v>380</v>
       </c>
       <c r="B34" s="3">
         <f t="shared" si="0"/>
@@ -3410,24 +3496,24 @@
         <v>0</v>
       </c>
       <c r="H34" s="3" t="s">
-        <v>371</v>
-      </c>
-      <c r="I34" s="6" t="s">
-        <v>380</v>
+        <v>536</v>
+      </c>
+      <c r="I34" s="3" t="s">
+        <v>545</v>
       </c>
       <c r="J34" t="s">
-        <v>386</v>
+        <v>373</v>
       </c>
       <c r="M34" s="1">
         <v>7</v>
       </c>
       <c r="N34" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="35" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A35" s="3" t="s">
-        <v>422</v>
+        <v>404</v>
       </c>
       <c r="B35" s="3">
         <f t="shared" si="0"/>
@@ -3449,24 +3535,24 @@
         <v>0</v>
       </c>
       <c r="H35" s="3" t="s">
-        <v>420</v>
-      </c>
-      <c r="I35" s="6" t="s">
-        <v>421</v>
+        <v>536</v>
+      </c>
+      <c r="I35" s="3" t="s">
+        <v>545</v>
       </c>
       <c r="J35" t="s">
-        <v>386</v>
+        <v>373</v>
       </c>
       <c r="M35" s="1">
         <v>7</v>
       </c>
       <c r="N35" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="36" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A36" s="3" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B36" s="3">
         <f t="shared" si="0"/>
@@ -3488,24 +3574,24 @@
         <v>0</v>
       </c>
       <c r="H36" s="3" t="s">
-        <v>371</v>
-      </c>
-      <c r="I36" s="6" t="s">
-        <v>380</v>
+        <v>524</v>
+      </c>
+      <c r="I36" s="3" t="s">
+        <v>529</v>
       </c>
       <c r="J36" t="s">
-        <v>386</v>
+        <v>373</v>
       </c>
       <c r="M36" s="1">
         <v>7</v>
       </c>
       <c r="N36" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="37" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A37" s="3" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B37" s="3">
         <f t="shared" si="0"/>
@@ -3527,24 +3613,24 @@
         <v>0</v>
       </c>
       <c r="H37" s="3" t="s">
-        <v>371</v>
-      </c>
-      <c r="I37" s="6" t="s">
-        <v>381</v>
+        <v>524</v>
+      </c>
+      <c r="I37" s="3" t="s">
+        <v>529</v>
       </c>
       <c r="J37" t="s">
-        <v>386</v>
+        <v>373</v>
       </c>
       <c r="M37" s="1">
         <v>7</v>
       </c>
       <c r="N37" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="38" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A38" s="3" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B38" s="3">
         <f t="shared" si="0"/>
@@ -3566,24 +3652,24 @@
         <v>0</v>
       </c>
       <c r="H38" s="3" t="s">
-        <v>371</v>
-      </c>
-      <c r="I38" s="6" t="s">
-        <v>381</v>
+        <v>524</v>
+      </c>
+      <c r="I38" s="3" t="s">
+        <v>529</v>
       </c>
       <c r="J38" t="s">
-        <v>386</v>
+        <v>373</v>
       </c>
       <c r="M38" s="1">
         <v>7</v>
       </c>
       <c r="N38" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="39" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A39" s="3" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B39" s="3">
         <f t="shared" si="0"/>
@@ -3605,24 +3691,24 @@
         <v>0</v>
       </c>
       <c r="H39" s="3" t="s">
-        <v>371</v>
-      </c>
-      <c r="I39" s="6" t="s">
-        <v>418</v>
+        <v>512</v>
+      </c>
+      <c r="I39" s="3" t="s">
+        <v>516</v>
       </c>
       <c r="J39" t="s">
-        <v>386</v>
+        <v>373</v>
       </c>
       <c r="M39" s="1">
         <v>7</v>
       </c>
       <c r="N39" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="40" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A40" s="3" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B40" s="3">
         <f t="shared" si="0"/>
@@ -3644,24 +3730,24 @@
         <v>0</v>
       </c>
       <c r="H40" s="3" t="s">
-        <v>371</v>
-      </c>
-      <c r="I40" s="6" t="s">
-        <v>418</v>
+        <v>512</v>
+      </c>
+      <c r="I40" s="3" t="s">
+        <v>516</v>
       </c>
       <c r="J40" t="s">
-        <v>386</v>
+        <v>373</v>
       </c>
       <c r="M40" s="1">
         <v>7</v>
       </c>
       <c r="N40" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="41" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A41" s="3" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B41" s="3">
         <f t="shared" si="0"/>
@@ -3683,24 +3769,24 @@
         <v>0</v>
       </c>
       <c r="H41" s="3" t="s">
-        <v>420</v>
-      </c>
-      <c r="I41" s="6" t="s">
-        <v>423</v>
+        <v>536</v>
+      </c>
+      <c r="I41" s="3" t="s">
+        <v>405</v>
       </c>
       <c r="J41" t="s">
-        <v>386</v>
+        <v>373</v>
       </c>
       <c r="M41" s="1">
         <v>8</v>
       </c>
       <c r="N41" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="42" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A42" s="3" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B42" s="3">
         <f t="shared" si="0"/>
@@ -3722,24 +3808,24 @@
         <v>0</v>
       </c>
       <c r="H42" s="3" t="s">
-        <v>420</v>
-      </c>
-      <c r="I42" s="6" t="s">
-        <v>423</v>
+        <v>536</v>
+      </c>
+      <c r="I42" s="3" t="s">
+        <v>405</v>
       </c>
       <c r="J42" t="s">
-        <v>386</v>
+        <v>373</v>
       </c>
       <c r="M42" s="1">
         <v>8</v>
       </c>
       <c r="N42" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="43" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A43" s="3" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B43" s="3">
         <f t="shared" si="0"/>
@@ -3761,24 +3847,24 @@
         <v>0</v>
       </c>
       <c r="H43" s="3" t="s">
-        <v>420</v>
-      </c>
-      <c r="I43" s="6" t="s">
-        <v>423</v>
+        <v>536</v>
+      </c>
+      <c r="I43" s="3" t="s">
+        <v>405</v>
       </c>
       <c r="J43" t="s">
-        <v>386</v>
+        <v>373</v>
       </c>
       <c r="M43" s="1">
         <v>8</v>
       </c>
       <c r="N43" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="44" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A44" s="3" t="s">
-        <v>394</v>
+        <v>381</v>
       </c>
       <c r="B44" s="3">
         <f t="shared" si="0"/>
@@ -3800,24 +3886,24 @@
         <v>0</v>
       </c>
       <c r="H44" s="3" t="s">
-        <v>420</v>
-      </c>
-      <c r="I44" s="6" t="s">
-        <v>423</v>
+        <v>536</v>
+      </c>
+      <c r="I44" s="3" t="s">
+        <v>405</v>
       </c>
       <c r="J44" t="s">
-        <v>386</v>
+        <v>373</v>
       </c>
       <c r="M44" s="1">
         <v>8</v>
       </c>
       <c r="N44" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="45" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A45" s="3" t="s">
-        <v>395</v>
+        <v>382</v>
       </c>
       <c r="B45" s="3">
         <f t="shared" si="0"/>
@@ -3839,24 +3925,24 @@
         <v>0</v>
       </c>
       <c r="H45" s="3" t="s">
-        <v>420</v>
-      </c>
-      <c r="I45" s="6" t="s">
-        <v>421</v>
+        <v>536</v>
+      </c>
+      <c r="I45" s="3" t="s">
+        <v>405</v>
       </c>
       <c r="J45" t="s">
-        <v>386</v>
+        <v>373</v>
       </c>
       <c r="M45" s="1">
         <v>8</v>
       </c>
       <c r="N45" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="46" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A46" s="3" t="s">
-        <v>417</v>
+        <v>402</v>
       </c>
       <c r="B46" s="3">
         <f t="shared" si="0"/>
@@ -3878,24 +3964,24 @@
         <v>4</v>
       </c>
       <c r="H46" s="3" t="s">
-        <v>412</v>
+        <v>512</v>
       </c>
       <c r="I46" s="3" t="s">
-        <v>372</v>
+        <v>544</v>
       </c>
       <c r="J46" t="s">
-        <v>386</v>
+        <v>373</v>
       </c>
       <c r="M46" s="1">
         <v>8</v>
       </c>
       <c r="N46" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="47" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A47" s="3" t="s">
-        <v>416</v>
+        <v>401</v>
       </c>
       <c r="B47" s="3">
         <f t="shared" si="0"/>
@@ -3917,24 +4003,24 @@
         <v>5</v>
       </c>
       <c r="H47" s="3" t="s">
-        <v>412</v>
+        <v>512</v>
       </c>
       <c r="I47" s="3" t="s">
-        <v>372</v>
+        <v>544</v>
       </c>
       <c r="J47" t="s">
-        <v>386</v>
+        <v>373</v>
       </c>
       <c r="M47" s="1">
         <v>8</v>
       </c>
       <c r="N47" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="48" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A48" s="3" t="s">
-        <v>414</v>
+        <v>399</v>
       </c>
       <c r="B48" s="3">
         <f t="shared" si="0"/>
@@ -3956,24 +4042,24 @@
         <v>0</v>
       </c>
       <c r="H48" s="3" t="s">
-        <v>412</v>
+        <v>512</v>
       </c>
       <c r="I48" s="3" t="s">
-        <v>372</v>
+        <v>544</v>
       </c>
       <c r="J48" t="s">
-        <v>386</v>
+        <v>373</v>
       </c>
       <c r="M48" s="1">
         <v>8</v>
       </c>
       <c r="N48" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="49" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A49" s="3" t="s">
-        <v>415</v>
+        <v>400</v>
       </c>
       <c r="B49" s="3">
         <f t="shared" si="0"/>
@@ -3995,24 +4081,24 @@
         <v>0</v>
       </c>
       <c r="H49" s="3" t="s">
-        <v>412</v>
+        <v>512</v>
       </c>
       <c r="I49" s="3" t="s">
-        <v>372</v>
+        <v>544</v>
       </c>
       <c r="J49" t="s">
-        <v>386</v>
+        <v>373</v>
       </c>
       <c r="M49" s="1">
         <v>8</v>
       </c>
       <c r="N49" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="50" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A50" s="3" t="s">
-        <v>413</v>
+        <v>398</v>
       </c>
       <c r="B50" s="3">
         <f t="shared" si="0"/>
@@ -4034,24 +4120,24 @@
         <v>0</v>
       </c>
       <c r="H50" s="3" t="s">
-        <v>412</v>
+        <v>512</v>
       </c>
       <c r="I50" s="3" t="s">
-        <v>372</v>
+        <v>544</v>
       </c>
       <c r="J50" t="s">
-        <v>386</v>
+        <v>373</v>
       </c>
       <c r="M50" s="1">
         <v>8</v>
       </c>
       <c r="N50" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="51" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A51" s="3" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B51" s="3">
         <f t="shared" si="0"/>
@@ -4073,24 +4159,24 @@
         <v>0</v>
       </c>
       <c r="H51" s="3" t="s">
-        <v>382</v>
+        <v>524</v>
       </c>
       <c r="I51" s="3" t="s">
-        <v>373</v>
+        <v>530</v>
       </c>
       <c r="J51" t="s">
-        <v>386</v>
+        <v>373</v>
       </c>
       <c r="M51" s="1">
         <v>8</v>
       </c>
       <c r="N51" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="52" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A52" s="3" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B52" s="3">
         <f t="shared" si="0"/>
@@ -4112,24 +4198,24 @@
         <v>0</v>
       </c>
       <c r="H52" s="3" t="s">
-        <v>382</v>
+        <v>524</v>
       </c>
       <c r="I52" s="3" t="s">
-        <v>373</v>
+        <v>530</v>
       </c>
       <c r="J52" t="s">
-        <v>386</v>
+        <v>373</v>
       </c>
       <c r="M52" s="1">
         <v>8</v>
       </c>
       <c r="N52" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="53" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A53" s="3" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B53" s="3">
         <f t="shared" si="0"/>
@@ -4151,24 +4237,24 @@
         <v>0</v>
       </c>
       <c r="H53" s="3" t="s">
-        <v>382</v>
+        <v>524</v>
       </c>
       <c r="I53" s="3" t="s">
-        <v>373</v>
+        <v>530</v>
       </c>
       <c r="J53" t="s">
-        <v>386</v>
+        <v>373</v>
       </c>
       <c r="M53" s="1">
         <v>8</v>
       </c>
       <c r="N53" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="54" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A54" s="3" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B54" s="3">
         <f t="shared" si="0"/>
@@ -4190,24 +4276,24 @@
         <v>0</v>
       </c>
       <c r="H54" s="3" t="s">
-        <v>382</v>
+        <v>524</v>
       </c>
       <c r="I54" s="3" t="s">
-        <v>373</v>
+        <v>530</v>
       </c>
       <c r="J54" t="s">
-        <v>386</v>
+        <v>373</v>
       </c>
       <c r="M54" s="1">
         <v>8</v>
       </c>
       <c r="N54" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="55" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A55" s="3" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B55" s="3">
         <f t="shared" si="0"/>
@@ -4229,24 +4315,24 @@
         <v>0</v>
       </c>
       <c r="H55" s="3" t="s">
-        <v>382</v>
+        <v>524</v>
       </c>
       <c r="I55" s="3" t="s">
-        <v>373</v>
+        <v>530</v>
       </c>
       <c r="J55" t="s">
-        <v>386</v>
+        <v>373</v>
       </c>
       <c r="M55" s="1">
         <v>8</v>
       </c>
       <c r="N55" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="56" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A56" s="3" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B56" s="3">
         <f t="shared" si="0"/>
@@ -4268,24 +4354,24 @@
         <v>0</v>
       </c>
       <c r="H56" s="3" t="s">
-        <v>382</v>
+        <v>524</v>
       </c>
       <c r="I56" s="3" t="s">
-        <v>373</v>
+        <v>530</v>
       </c>
       <c r="J56" t="s">
-        <v>386</v>
+        <v>373</v>
       </c>
       <c r="M56" s="1">
         <v>8</v>
       </c>
       <c r="N56" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="57" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A57" s="3" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B57" s="3">
         <f t="shared" si="0"/>
@@ -4307,24 +4393,24 @@
         <v>0</v>
       </c>
       <c r="H57" s="3" t="s">
-        <v>382</v>
+        <v>524</v>
       </c>
       <c r="I57" s="3" t="s">
-        <v>373</v>
+        <v>530</v>
       </c>
       <c r="J57" t="s">
-        <v>386</v>
+        <v>373</v>
       </c>
       <c r="M57" s="1">
         <v>9</v>
       </c>
       <c r="N57" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="58" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A58" s="3" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B58" s="3">
         <f t="shared" si="0"/>
@@ -4346,24 +4432,24 @@
         <v>0</v>
       </c>
       <c r="H58" s="3" t="s">
-        <v>382</v>
+        <v>524</v>
       </c>
       <c r="I58" s="3" t="s">
-        <v>373</v>
+        <v>530</v>
       </c>
       <c r="J58" t="s">
-        <v>386</v>
+        <v>373</v>
       </c>
       <c r="M58" s="1">
         <v>9</v>
       </c>
       <c r="N58" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="59" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A59" s="3" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B59" s="3">
         <f t="shared" si="0"/>
@@ -4385,24 +4471,24 @@
         <v>0</v>
       </c>
       <c r="H59" s="3" t="s">
-        <v>382</v>
+        <v>524</v>
       </c>
       <c r="I59" s="3" t="s">
-        <v>373</v>
+        <v>530</v>
       </c>
       <c r="J59" t="s">
-        <v>386</v>
+        <v>373</v>
       </c>
       <c r="M59" s="1">
         <v>10</v>
       </c>
       <c r="N59" s="1" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
     </row>
     <row r="60" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A60" s="3" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B60" s="3">
         <f t="shared" si="0"/>
@@ -4424,24 +4510,24 @@
         <v>0</v>
       </c>
       <c r="H60" s="3" t="s">
-        <v>382</v>
+        <v>524</v>
       </c>
       <c r="I60" s="3" t="s">
-        <v>373</v>
+        <v>530</v>
       </c>
       <c r="J60" t="s">
-        <v>386</v>
+        <v>373</v>
       </c>
       <c r="M60" s="1">
         <v>10</v>
       </c>
       <c r="N60" s="1" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
     </row>
     <row r="61" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A61" s="3" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B61" s="3">
         <f t="shared" si="0"/>
@@ -4463,24 +4549,24 @@
         <v>0</v>
       </c>
       <c r="H61" s="3" t="s">
-        <v>382</v>
+        <v>524</v>
       </c>
       <c r="I61" s="3" t="s">
-        <v>373</v>
+        <v>530</v>
       </c>
       <c r="J61" t="s">
-        <v>386</v>
+        <v>373</v>
       </c>
       <c r="M61" s="1">
         <v>10</v>
       </c>
       <c r="N61" s="1" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
     </row>
     <row r="62" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A62" s="3" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B62" s="3">
         <f t="shared" si="0"/>
@@ -4502,24 +4588,24 @@
         <v>0</v>
       </c>
       <c r="H62" s="3" t="s">
-        <v>382</v>
+        <v>524</v>
       </c>
       <c r="I62" s="3" t="s">
-        <v>373</v>
+        <v>530</v>
       </c>
       <c r="J62" t="s">
-        <v>386</v>
+        <v>373</v>
       </c>
       <c r="M62" s="1">
         <v>10</v>
       </c>
       <c r="N62" s="1" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
     </row>
     <row r="63" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A63" s="3" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B63" s="3">
         <f t="shared" si="0"/>
@@ -4541,24 +4627,24 @@
         <v>0</v>
       </c>
       <c r="H63" s="3" t="s">
-        <v>382</v>
+        <v>524</v>
       </c>
       <c r="I63" s="3" t="s">
-        <v>373</v>
+        <v>530</v>
       </c>
       <c r="J63" t="s">
-        <v>386</v>
+        <v>373</v>
       </c>
       <c r="M63" s="1">
         <v>11</v>
       </c>
       <c r="N63" s="1" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
     </row>
     <row r="64" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A64" s="3" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B64" s="3">
         <f t="shared" si="0"/>
@@ -4580,24 +4666,24 @@
         <v>0</v>
       </c>
       <c r="H64" s="3" t="s">
-        <v>382</v>
+        <v>524</v>
       </c>
       <c r="I64" s="3" t="s">
-        <v>373</v>
+        <v>530</v>
       </c>
       <c r="J64" t="s">
-        <v>386</v>
+        <v>373</v>
       </c>
       <c r="M64" s="1">
         <v>11</v>
       </c>
       <c r="N64" s="1" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
     </row>
     <row r="65" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A65" s="3" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B65" s="3">
         <f t="shared" si="0"/>
@@ -4619,24 +4705,24 @@
         <v>0</v>
       </c>
       <c r="H65" s="3" t="s">
-        <v>382</v>
+        <v>524</v>
       </c>
       <c r="I65" s="3" t="s">
-        <v>373</v>
+        <v>530</v>
       </c>
       <c r="J65" t="s">
-        <v>386</v>
+        <v>373</v>
       </c>
       <c r="M65" s="1">
         <v>11</v>
       </c>
       <c r="N65" s="1" t="s">
-        <v>355</v>
+        <v>353</v>
       </c>
     </row>
     <row r="66" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A66" s="3" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B66" s="3">
         <f t="shared" si="0"/>
@@ -4658,24 +4744,24 @@
         <v>0</v>
       </c>
       <c r="H66" s="3" t="s">
-        <v>382</v>
+        <v>524</v>
       </c>
       <c r="I66" s="3" t="s">
-        <v>373</v>
+        <v>530</v>
       </c>
       <c r="J66" t="s">
-        <v>386</v>
+        <v>373</v>
       </c>
       <c r="M66" s="1">
         <v>11</v>
       </c>
       <c r="N66" s="1" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
     </row>
     <row r="67" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A67" s="3" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B67" s="3">
         <f t="shared" ref="B67:B130" si="1">E67</f>
@@ -4697,24 +4783,24 @@
         <v>0</v>
       </c>
       <c r="H67" s="3" t="s">
-        <v>382</v>
+        <v>524</v>
       </c>
       <c r="I67" s="3" t="s">
-        <v>373</v>
+        <v>530</v>
       </c>
       <c r="J67" t="s">
-        <v>386</v>
+        <v>373</v>
       </c>
       <c r="M67" s="1">
         <v>11</v>
       </c>
       <c r="N67" s="1" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
     </row>
     <row r="68" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A68" s="3" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B68" s="3">
         <f t="shared" si="1"/>
@@ -4736,24 +4822,24 @@
         <v>0</v>
       </c>
       <c r="H68" s="3" t="s">
-        <v>382</v>
+        <v>524</v>
       </c>
       <c r="I68" s="3" t="s">
-        <v>373</v>
+        <v>530</v>
       </c>
       <c r="J68" t="s">
-        <v>386</v>
+        <v>373</v>
       </c>
       <c r="M68" s="1">
         <v>11</v>
       </c>
       <c r="N68" s="1" t="s">
-        <v>359</v>
+        <v>357</v>
       </c>
     </row>
     <row r="69" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A69" s="3" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B69" s="3">
         <f t="shared" si="1"/>
@@ -4775,24 +4861,24 @@
         <v>0</v>
       </c>
       <c r="H69" s="3" t="s">
-        <v>382</v>
+        <v>524</v>
       </c>
       <c r="I69" s="3" t="s">
-        <v>373</v>
+        <v>530</v>
       </c>
       <c r="J69" t="s">
-        <v>386</v>
+        <v>373</v>
       </c>
       <c r="M69" s="1">
         <v>11</v>
       </c>
       <c r="N69" s="1" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
     </row>
     <row r="70" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A70" s="3" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B70" s="3">
         <f t="shared" si="1"/>
@@ -4814,24 +4900,24 @@
         <v>0</v>
       </c>
       <c r="H70" s="3" t="s">
-        <v>382</v>
+        <v>524</v>
       </c>
       <c r="I70" s="3" t="s">
-        <v>373</v>
+        <v>530</v>
       </c>
       <c r="J70" t="s">
-        <v>386</v>
+        <v>373</v>
       </c>
       <c r="M70" s="1">
         <v>11</v>
       </c>
       <c r="N70" s="1" t="s">
-        <v>361</v>
+        <v>359</v>
       </c>
     </row>
     <row r="71" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A71" s="3" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B71" s="3">
         <f t="shared" si="1"/>
@@ -4853,24 +4939,24 @@
         <v>0</v>
       </c>
       <c r="H71" s="3" t="s">
-        <v>382</v>
+        <v>524</v>
       </c>
       <c r="I71" s="3" t="s">
-        <v>373</v>
+        <v>530</v>
       </c>
       <c r="J71" t="s">
-        <v>386</v>
+        <v>373</v>
       </c>
       <c r="M71" s="1">
         <v>11</v>
       </c>
       <c r="N71" s="1" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
     </row>
     <row r="72" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A72" s="3" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B72" s="3">
         <f t="shared" si="1"/>
@@ -4892,24 +4978,24 @@
         <v>0</v>
       </c>
       <c r="H72" s="3" t="s">
-        <v>382</v>
+        <v>524</v>
       </c>
       <c r="I72" s="3" t="s">
-        <v>373</v>
+        <v>530</v>
       </c>
       <c r="J72" t="s">
-        <v>386</v>
+        <v>373</v>
       </c>
       <c r="M72" s="1">
         <v>11</v>
       </c>
       <c r="N72" s="1" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
     </row>
     <row r="73" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A73" s="3" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="B73" s="3">
         <f t="shared" si="1"/>
@@ -4931,24 +5017,24 @@
         <v>0</v>
       </c>
       <c r="H73" s="3" t="s">
-        <v>382</v>
+        <v>524</v>
       </c>
       <c r="I73" s="3" t="s">
-        <v>373</v>
+        <v>530</v>
       </c>
       <c r="J73" t="s">
-        <v>386</v>
+        <v>373</v>
       </c>
       <c r="M73" s="1">
         <v>11</v>
       </c>
       <c r="N73" s="1" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
     </row>
     <row r="74" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A74" s="3" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B74" s="3">
         <f t="shared" si="1"/>
@@ -4970,24 +5056,24 @@
         <v>0</v>
       </c>
       <c r="H74" s="3" t="s">
-        <v>382</v>
+        <v>524</v>
       </c>
       <c r="I74" s="3" t="s">
-        <v>373</v>
+        <v>530</v>
       </c>
       <c r="J74" t="s">
-        <v>386</v>
+        <v>373</v>
       </c>
       <c r="M74" s="1">
         <v>11</v>
       </c>
       <c r="N74" s="1" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
     </row>
     <row r="75" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A75" s="3" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B75" s="3">
         <f t="shared" si="1"/>
@@ -5009,24 +5095,24 @@
         <v>0</v>
       </c>
       <c r="H75" s="3" t="s">
-        <v>382</v>
+        <v>524</v>
       </c>
       <c r="I75" s="3" t="s">
-        <v>373</v>
+        <v>530</v>
       </c>
       <c r="J75" t="s">
-        <v>386</v>
+        <v>373</v>
       </c>
       <c r="M75" s="1">
         <v>11</v>
       </c>
       <c r="N75" s="1" t="s">
-        <v>366</v>
+        <v>364</v>
       </c>
     </row>
     <row r="76" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A76" s="3" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B76" s="3">
         <f t="shared" si="1"/>
@@ -5048,24 +5134,24 @@
         <v>0</v>
       </c>
       <c r="H76" s="3" t="s">
-        <v>382</v>
+        <v>524</v>
       </c>
       <c r="I76" s="3" t="s">
-        <v>373</v>
+        <v>530</v>
       </c>
       <c r="J76" t="s">
-        <v>386</v>
+        <v>373</v>
       </c>
       <c r="M76" s="1">
         <v>11</v>
       </c>
       <c r="N76" s="1" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
     </row>
     <row r="77" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A77" s="3" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B77" s="3">
         <f t="shared" si="1"/>
@@ -5087,24 +5173,24 @@
         <v>0</v>
       </c>
       <c r="H77" s="3" t="s">
-        <v>382</v>
+        <v>524</v>
       </c>
       <c r="I77" s="3" t="s">
-        <v>373</v>
+        <v>530</v>
       </c>
       <c r="J77" t="s">
-        <v>386</v>
+        <v>373</v>
       </c>
       <c r="M77" s="1">
         <v>12</v>
       </c>
       <c r="N77" s="1" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
     </row>
     <row r="78" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A78" s="3" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B78" s="3">
         <f t="shared" si="1"/>
@@ -5126,24 +5212,24 @@
         <v>0</v>
       </c>
       <c r="H78" s="3" t="s">
-        <v>382</v>
+        <v>524</v>
       </c>
       <c r="I78" s="3" t="s">
-        <v>373</v>
+        <v>530</v>
       </c>
       <c r="J78" t="s">
-        <v>386</v>
+        <v>373</v>
       </c>
       <c r="M78" s="1">
         <v>12</v>
       </c>
       <c r="N78" s="1" t="s">
-        <v>467</v>
+        <v>440</v>
       </c>
     </row>
     <row r="79" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A79" s="3" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B79" s="3">
         <f t="shared" si="1"/>
@@ -5165,24 +5251,24 @@
         <v>0</v>
       </c>
       <c r="H79" s="3" t="s">
-        <v>382</v>
+        <v>524</v>
       </c>
       <c r="I79" s="3" t="s">
-        <v>373</v>
+        <v>530</v>
       </c>
       <c r="J79" t="s">
-        <v>386</v>
+        <v>373</v>
       </c>
       <c r="M79" s="1">
         <v>12</v>
       </c>
       <c r="N79" s="1" t="s">
-        <v>468</v>
+        <v>441</v>
       </c>
     </row>
     <row r="80" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A80" s="3" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B80" s="3">
         <f t="shared" si="1"/>
@@ -5204,24 +5290,24 @@
         <v>0</v>
       </c>
       <c r="H80" s="3" t="s">
-        <v>382</v>
+        <v>524</v>
       </c>
       <c r="I80" s="3" t="s">
-        <v>373</v>
+        <v>530</v>
       </c>
       <c r="J80" t="s">
-        <v>386</v>
+        <v>373</v>
       </c>
       <c r="M80" s="1">
         <v>12</v>
       </c>
       <c r="N80" s="1" t="s">
-        <v>469</v>
+        <v>442</v>
       </c>
     </row>
     <row r="81" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A81" s="3" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B81" s="3">
         <f t="shared" si="1"/>
@@ -5243,24 +5329,24 @@
         <v>0</v>
       </c>
       <c r="H81" s="3" t="s">
-        <v>382</v>
+        <v>524</v>
       </c>
       <c r="I81" s="3" t="s">
-        <v>374</v>
+        <v>526</v>
       </c>
       <c r="J81" t="s">
-        <v>386</v>
+        <v>373</v>
       </c>
       <c r="M81" s="1">
         <v>12</v>
       </c>
       <c r="N81" s="1" t="s">
-        <v>470</v>
+        <v>443</v>
       </c>
     </row>
     <row r="82" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A82" s="3" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B82" s="3">
         <f t="shared" si="1"/>
@@ -5282,24 +5368,24 @@
         <v>0</v>
       </c>
       <c r="H82" s="3" t="s">
-        <v>382</v>
+        <v>524</v>
       </c>
       <c r="I82" s="3" t="s">
-        <v>374</v>
+        <v>526</v>
       </c>
       <c r="J82" t="s">
-        <v>386</v>
+        <v>373</v>
       </c>
       <c r="M82" s="1">
         <v>12</v>
       </c>
       <c r="N82" s="1" t="s">
-        <v>471</v>
+        <v>444</v>
       </c>
     </row>
     <row r="83" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A83" s="3" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="B83" s="3">
         <f t="shared" si="1"/>
@@ -5321,24 +5407,24 @@
         <v>0</v>
       </c>
       <c r="H83" s="3" t="s">
-        <v>382</v>
+        <v>524</v>
       </c>
       <c r="I83" s="3" t="s">
-        <v>374</v>
+        <v>526</v>
       </c>
       <c r="J83" t="s">
-        <v>386</v>
+        <v>373</v>
       </c>
       <c r="M83" s="1">
         <v>12</v>
       </c>
       <c r="N83" s="1" t="s">
-        <v>472</v>
+        <v>445</v>
       </c>
     </row>
     <row r="84" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A84" s="3" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B84" s="3">
         <f t="shared" si="1"/>
@@ -5360,24 +5446,24 @@
         <v>0</v>
       </c>
       <c r="H84" s="3" t="s">
-        <v>382</v>
+        <v>524</v>
       </c>
       <c r="I84" s="3" t="s">
-        <v>374</v>
+        <v>526</v>
       </c>
       <c r="J84" t="s">
-        <v>386</v>
+        <v>373</v>
       </c>
       <c r="M84" s="1">
         <v>12</v>
       </c>
       <c r="N84" s="1" t="s">
-        <v>473</v>
+        <v>446</v>
       </c>
     </row>
     <row r="85" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A85" s="3" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B85" s="3">
         <f t="shared" si="1"/>
@@ -5399,24 +5485,24 @@
         <v>0</v>
       </c>
       <c r="H85" s="3" t="s">
-        <v>382</v>
+        <v>524</v>
       </c>
       <c r="I85" s="3" t="s">
-        <v>374</v>
+        <v>526</v>
       </c>
       <c r="J85" t="s">
-        <v>386</v>
+        <v>373</v>
       </c>
       <c r="M85" s="1">
         <v>12</v>
       </c>
       <c r="N85" s="1" t="s">
-        <v>474</v>
+        <v>447</v>
       </c>
     </row>
     <row r="86" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A86" s="3" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="B86" s="3">
         <f t="shared" si="1"/>
@@ -5438,24 +5524,24 @@
         <v>0</v>
       </c>
       <c r="H86" s="3" t="s">
-        <v>382</v>
+        <v>524</v>
       </c>
       <c r="I86" s="3" t="s">
-        <v>374</v>
+        <v>526</v>
       </c>
       <c r="J86" t="s">
-        <v>386</v>
+        <v>373</v>
       </c>
       <c r="M86" s="1">
         <v>12</v>
       </c>
       <c r="N86" s="1" t="s">
-        <v>475</v>
+        <v>448</v>
       </c>
     </row>
     <row r="87" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A87" s="3" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B87" s="3">
         <f t="shared" si="1"/>
@@ -5477,24 +5563,24 @@
         <v>0</v>
       </c>
       <c r="H87" s="3" t="s">
-        <v>382</v>
+        <v>524</v>
       </c>
       <c r="I87" s="3" t="s">
-        <v>374</v>
+        <v>526</v>
       </c>
       <c r="J87" t="s">
-        <v>386</v>
+        <v>373</v>
       </c>
       <c r="M87" s="1">
         <v>12</v>
       </c>
       <c r="N87" s="1" t="s">
-        <v>476</v>
+        <v>449</v>
       </c>
     </row>
     <row r="88" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A88" s="3" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="B88" s="3">
         <f t="shared" si="1"/>
@@ -5516,24 +5602,24 @@
         <v>0</v>
       </c>
       <c r="H88" s="3" t="s">
-        <v>382</v>
+        <v>524</v>
       </c>
       <c r="I88" s="3" t="s">
-        <v>374</v>
+        <v>526</v>
       </c>
       <c r="J88" t="s">
-        <v>386</v>
+        <v>373</v>
       </c>
       <c r="M88" s="1">
         <v>12</v>
       </c>
       <c r="N88" s="1" t="s">
-        <v>477</v>
+        <v>450</v>
       </c>
     </row>
     <row r="89" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A89" s="3" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="B89" s="3">
         <f t="shared" si="1"/>
@@ -5555,24 +5641,24 @@
         <v>0</v>
       </c>
       <c r="H89" s="3" t="s">
-        <v>382</v>
+        <v>524</v>
       </c>
       <c r="I89" s="3" t="s">
-        <v>374</v>
+        <v>526</v>
       </c>
       <c r="J89" t="s">
-        <v>386</v>
+        <v>373</v>
       </c>
       <c r="M89" s="1">
         <v>12</v>
       </c>
       <c r="N89" s="1" t="s">
-        <v>478</v>
+        <v>451</v>
       </c>
     </row>
     <row r="90" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A90" s="3" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B90" s="3">
         <f t="shared" si="1"/>
@@ -5594,24 +5680,24 @@
         <v>0</v>
       </c>
       <c r="H90" s="3" t="s">
-        <v>382</v>
+        <v>524</v>
       </c>
       <c r="I90" s="3" t="s">
-        <v>374</v>
+        <v>526</v>
       </c>
       <c r="J90" t="s">
-        <v>386</v>
+        <v>373</v>
       </c>
       <c r="M90" s="1">
         <v>12</v>
       </c>
       <c r="N90" s="1" t="s">
-        <v>479</v>
+        <v>452</v>
       </c>
     </row>
     <row r="91" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A91" s="3" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="B91" s="3">
         <f t="shared" si="1"/>
@@ -5633,24 +5719,24 @@
         <v>0</v>
       </c>
       <c r="H91" s="3" t="s">
-        <v>382</v>
+        <v>524</v>
       </c>
       <c r="I91" s="3" t="s">
-        <v>374</v>
+        <v>526</v>
       </c>
       <c r="J91" t="s">
-        <v>386</v>
+        <v>373</v>
       </c>
       <c r="M91" s="1">
         <v>12</v>
       </c>
       <c r="N91" s="1" t="s">
-        <v>480</v>
+        <v>453</v>
       </c>
     </row>
     <row r="92" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A92" s="3" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B92" s="3">
         <f t="shared" si="1"/>
@@ -5672,24 +5758,24 @@
         <v>0</v>
       </c>
       <c r="H92" s="3" t="s">
-        <v>382</v>
+        <v>524</v>
       </c>
       <c r="I92" s="3" t="s">
-        <v>374</v>
+        <v>526</v>
       </c>
       <c r="J92" t="s">
-        <v>386</v>
+        <v>373</v>
       </c>
       <c r="M92" s="1">
         <v>12</v>
       </c>
       <c r="N92" s="1" t="s">
-        <v>481</v>
+        <v>454</v>
       </c>
     </row>
     <row r="93" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A93" s="3" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B93" s="3">
         <f t="shared" si="1"/>
@@ -5711,24 +5797,24 @@
         <v>0</v>
       </c>
       <c r="H93" s="3" t="s">
-        <v>382</v>
+        <v>524</v>
       </c>
       <c r="I93" s="3" t="s">
-        <v>374</v>
+        <v>526</v>
       </c>
       <c r="J93" t="s">
-        <v>386</v>
+        <v>373</v>
       </c>
       <c r="M93" s="1">
         <v>12</v>
       </c>
       <c r="N93" s="1" t="s">
-        <v>482</v>
+        <v>455</v>
       </c>
     </row>
     <row r="94" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A94" s="3" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="B94" s="3">
         <f t="shared" si="1"/>
@@ -5750,24 +5836,24 @@
         <v>0</v>
       </c>
       <c r="H94" s="3" t="s">
-        <v>382</v>
+        <v>524</v>
       </c>
       <c r="I94" s="3" t="s">
-        <v>374</v>
+        <v>526</v>
       </c>
       <c r="J94" t="s">
-        <v>386</v>
+        <v>373</v>
       </c>
       <c r="M94" s="1">
         <v>12</v>
       </c>
       <c r="N94" s="1" t="s">
-        <v>483</v>
+        <v>456</v>
       </c>
     </row>
     <row r="95" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A95" s="3" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B95" s="3">
         <f t="shared" si="1"/>
@@ -5789,24 +5875,24 @@
         <v>0</v>
       </c>
       <c r="H95" s="3" t="s">
-        <v>382</v>
+        <v>524</v>
       </c>
       <c r="I95" s="3" t="s">
-        <v>374</v>
+        <v>526</v>
       </c>
       <c r="J95" t="s">
-        <v>386</v>
+        <v>373</v>
       </c>
       <c r="M95" s="1">
         <v>12</v>
       </c>
       <c r="N95" s="1" t="s">
-        <v>484</v>
+        <v>457</v>
       </c>
     </row>
     <row r="96" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A96" s="3" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="B96" s="3">
         <f t="shared" si="1"/>
@@ -5828,24 +5914,24 @@
         <v>0</v>
       </c>
       <c r="H96" s="3" t="s">
-        <v>382</v>
+        <v>524</v>
       </c>
       <c r="I96" s="3" t="s">
-        <v>374</v>
+        <v>526</v>
       </c>
       <c r="J96" t="s">
-        <v>386</v>
+        <v>373</v>
       </c>
       <c r="M96" s="1">
         <v>12</v>
       </c>
       <c r="N96" s="1" t="s">
-        <v>485</v>
+        <v>458</v>
       </c>
     </row>
     <row r="97" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A97" s="3" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="B97" s="3">
         <f t="shared" si="1"/>
@@ -5867,24 +5953,24 @@
         <v>0</v>
       </c>
       <c r="H97" s="3" t="s">
-        <v>382</v>
+        <v>524</v>
       </c>
       <c r="I97" s="3" t="s">
-        <v>374</v>
+        <v>526</v>
       </c>
       <c r="J97" t="s">
-        <v>386</v>
+        <v>373</v>
       </c>
       <c r="M97" s="1">
         <v>12</v>
       </c>
       <c r="N97" s="1" t="s">
-        <v>486</v>
+        <v>459</v>
       </c>
     </row>
     <row r="98" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A98" s="3" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="B98" s="3">
         <f t="shared" si="1"/>
@@ -5906,24 +5992,24 @@
         <v>0</v>
       </c>
       <c r="H98" s="3" t="s">
-        <v>382</v>
+        <v>524</v>
       </c>
       <c r="I98" s="3" t="s">
-        <v>374</v>
+        <v>526</v>
       </c>
       <c r="J98" t="s">
-        <v>386</v>
+        <v>373</v>
       </c>
       <c r="M98" s="1">
         <v>12</v>
       </c>
       <c r="N98" s="1" t="s">
-        <v>487</v>
+        <v>460</v>
       </c>
     </row>
     <row r="99" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A99" s="3" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="B99" s="3">
         <f t="shared" si="1"/>
@@ -5945,24 +6031,24 @@
         <v>0</v>
       </c>
       <c r="H99" s="3" t="s">
-        <v>382</v>
+        <v>524</v>
       </c>
       <c r="I99" s="3" t="s">
-        <v>374</v>
+        <v>526</v>
       </c>
       <c r="J99" t="s">
-        <v>386</v>
+        <v>373</v>
       </c>
       <c r="M99" s="1">
         <v>12</v>
       </c>
       <c r="N99" s="1" t="s">
-        <v>488</v>
+        <v>461</v>
       </c>
     </row>
     <row r="100" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A100" s="3" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="B100" s="3">
         <f t="shared" si="1"/>
@@ -5984,24 +6070,24 @@
         <v>0</v>
       </c>
       <c r="H100" s="3" t="s">
-        <v>382</v>
+        <v>524</v>
       </c>
       <c r="I100" s="3" t="s">
-        <v>374</v>
+        <v>526</v>
       </c>
       <c r="J100" t="s">
-        <v>386</v>
+        <v>373</v>
       </c>
       <c r="M100" s="1">
         <v>12</v>
       </c>
       <c r="N100" s="1" t="s">
-        <v>489</v>
+        <v>462</v>
       </c>
     </row>
     <row r="101" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A101" s="3" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="B101" s="3">
         <f t="shared" si="1"/>
@@ -6023,24 +6109,24 @@
         <v>0</v>
       </c>
       <c r="H101" s="3" t="s">
-        <v>382</v>
+        <v>524</v>
       </c>
       <c r="I101" s="3" t="s">
-        <v>374</v>
+        <v>526</v>
       </c>
       <c r="J101" t="s">
-        <v>386</v>
+        <v>373</v>
       </c>
       <c r="M101" s="1">
         <v>12</v>
       </c>
       <c r="N101" s="1" t="s">
-        <v>490</v>
+        <v>463</v>
       </c>
     </row>
     <row r="102" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A102" s="3" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="B102" s="3">
         <f t="shared" si="1"/>
@@ -6062,24 +6148,24 @@
         <v>0</v>
       </c>
       <c r="H102" s="3" t="s">
-        <v>382</v>
+        <v>524</v>
       </c>
       <c r="I102" s="3" t="s">
-        <v>374</v>
+        <v>526</v>
       </c>
       <c r="J102" t="s">
-        <v>386</v>
+        <v>373</v>
       </c>
       <c r="M102" s="1">
         <v>12</v>
       </c>
       <c r="N102" s="1" t="s">
-        <v>491</v>
+        <v>464</v>
       </c>
     </row>
     <row r="103" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A103" s="3" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="B103" s="3">
         <f t="shared" si="1"/>
@@ -6101,24 +6187,24 @@
         <v>0</v>
       </c>
       <c r="H103" s="3" t="s">
-        <v>382</v>
+        <v>524</v>
       </c>
       <c r="I103" s="3" t="s">
-        <v>374</v>
+        <v>526</v>
       </c>
       <c r="J103" t="s">
-        <v>386</v>
+        <v>373</v>
       </c>
       <c r="M103" s="1">
         <v>12</v>
       </c>
       <c r="N103" s="1" t="s">
-        <v>492</v>
+        <v>465</v>
       </c>
     </row>
     <row r="104" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A104" s="3" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="B104" s="3">
         <f t="shared" si="1"/>
@@ -6140,24 +6226,24 @@
         <v>0</v>
       </c>
       <c r="H104" s="3" t="s">
-        <v>382</v>
+        <v>524</v>
       </c>
       <c r="I104" s="3" t="s">
-        <v>374</v>
+        <v>526</v>
       </c>
       <c r="J104" t="s">
-        <v>386</v>
+        <v>373</v>
       </c>
       <c r="M104" s="1">
         <v>12</v>
       </c>
       <c r="N104" s="1" t="s">
-        <v>493</v>
+        <v>466</v>
       </c>
     </row>
     <row r="105" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A105" s="3" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="B105" s="3">
         <f t="shared" si="1"/>
@@ -6179,24 +6265,24 @@
         <v>0</v>
       </c>
       <c r="H105" s="3" t="s">
-        <v>382</v>
+        <v>524</v>
       </c>
       <c r="I105" s="3" t="s">
-        <v>374</v>
+        <v>526</v>
       </c>
       <c r="J105" t="s">
-        <v>386</v>
+        <v>373</v>
       </c>
       <c r="M105" s="1">
         <v>12</v>
       </c>
       <c r="N105" s="1" t="s">
-        <v>494</v>
+        <v>467</v>
       </c>
     </row>
     <row r="106" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A106" s="3" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="B106" s="3">
         <f t="shared" si="1"/>
@@ -6218,24 +6304,24 @@
         <v>0</v>
       </c>
       <c r="H106" s="3" t="s">
-        <v>382</v>
+        <v>524</v>
       </c>
       <c r="I106" s="3" t="s">
-        <v>374</v>
+        <v>526</v>
       </c>
       <c r="J106" t="s">
-        <v>386</v>
+        <v>373</v>
       </c>
       <c r="M106" s="1">
         <v>12</v>
       </c>
       <c r="N106" s="1" t="s">
-        <v>495</v>
+        <v>468</v>
       </c>
     </row>
     <row r="107" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A107" s="3" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="B107" s="3">
         <f t="shared" si="1"/>
@@ -6257,24 +6343,24 @@
         <v>0</v>
       </c>
       <c r="H107" s="3" t="s">
-        <v>382</v>
+        <v>524</v>
       </c>
       <c r="I107" s="3" t="s">
-        <v>374</v>
+        <v>526</v>
       </c>
       <c r="J107" t="s">
-        <v>386</v>
+        <v>373</v>
       </c>
       <c r="M107" s="1">
         <v>12</v>
       </c>
       <c r="N107" s="1" t="s">
-        <v>496</v>
+        <v>469</v>
       </c>
     </row>
     <row r="108" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A108" s="3" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="B108" s="3">
         <f t="shared" si="1"/>
@@ -6296,24 +6382,24 @@
         <v>0</v>
       </c>
       <c r="H108" s="3" t="s">
-        <v>382</v>
+        <v>524</v>
       </c>
       <c r="I108" s="3" t="s">
-        <v>374</v>
+        <v>526</v>
       </c>
       <c r="J108" t="s">
-        <v>386</v>
+        <v>373</v>
       </c>
       <c r="M108" s="1">
         <v>12</v>
       </c>
       <c r="N108" s="1" t="s">
-        <v>497</v>
+        <v>470</v>
       </c>
     </row>
     <row r="109" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A109" s="3" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="B109" s="3">
         <f t="shared" si="1"/>
@@ -6335,24 +6421,24 @@
         <v>0</v>
       </c>
       <c r="H109" s="3" t="s">
-        <v>382</v>
+        <v>524</v>
       </c>
       <c r="I109" s="3" t="s">
-        <v>374</v>
+        <v>526</v>
       </c>
       <c r="J109" t="s">
-        <v>386</v>
+        <v>373</v>
       </c>
       <c r="M109" s="1">
         <v>12</v>
       </c>
       <c r="N109" s="1" t="s">
-        <v>498</v>
+        <v>471</v>
       </c>
     </row>
     <row r="110" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A110" s="3" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="B110" s="3">
         <f t="shared" si="1"/>
@@ -6374,24 +6460,24 @@
         <v>0</v>
       </c>
       <c r="H110" s="3" t="s">
-        <v>382</v>
+        <v>524</v>
       </c>
       <c r="I110" s="3" t="s">
-        <v>374</v>
+        <v>526</v>
       </c>
       <c r="J110" t="s">
-        <v>386</v>
+        <v>373</v>
       </c>
       <c r="M110" s="1">
         <v>12</v>
       </c>
       <c r="N110" s="1" t="s">
-        <v>499</v>
+        <v>472</v>
       </c>
     </row>
     <row r="111" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A111" s="3" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="B111" s="3">
         <f t="shared" si="1"/>
@@ -6413,24 +6499,24 @@
         <v>0</v>
       </c>
       <c r="H111" s="3" t="s">
-        <v>382</v>
+        <v>524</v>
       </c>
       <c r="I111" s="3" t="s">
-        <v>375</v>
+        <v>532</v>
       </c>
       <c r="J111" t="s">
-        <v>386</v>
+        <v>373</v>
       </c>
       <c r="M111" s="1">
         <v>12</v>
       </c>
       <c r="N111" s="1" t="s">
-        <v>500</v>
+        <v>473</v>
       </c>
     </row>
     <row r="112" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A112" s="3" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="B112" s="3">
         <f t="shared" si="1"/>
@@ -6452,24 +6538,24 @@
         <v>0</v>
       </c>
       <c r="H112" s="3" t="s">
-        <v>382</v>
+        <v>524</v>
       </c>
       <c r="I112" s="3" t="s">
-        <v>375</v>
+        <v>532</v>
       </c>
       <c r="J112" t="s">
-        <v>386</v>
+        <v>373</v>
       </c>
       <c r="M112" s="1">
         <v>12</v>
       </c>
       <c r="N112" s="1" t="s">
-        <v>501</v>
+        <v>474</v>
       </c>
     </row>
     <row r="113" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A113" s="3" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="B113" s="3">
         <f t="shared" si="1"/>
@@ -6491,24 +6577,24 @@
         <v>0</v>
       </c>
       <c r="H113" s="3" t="s">
-        <v>382</v>
+        <v>524</v>
       </c>
       <c r="I113" s="3" t="s">
-        <v>375</v>
+        <v>532</v>
       </c>
       <c r="J113" t="s">
-        <v>386</v>
+        <v>373</v>
       </c>
       <c r="M113" s="1">
         <v>12</v>
       </c>
       <c r="N113" s="1" t="s">
-        <v>502</v>
+        <v>475</v>
       </c>
     </row>
     <row r="114" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A114" s="3" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="B114" s="3">
         <f t="shared" si="1"/>
@@ -6530,24 +6616,24 @@
         <v>0</v>
       </c>
       <c r="H114" s="3" t="s">
-        <v>382</v>
+        <v>524</v>
       </c>
       <c r="I114" s="3" t="s">
-        <v>375</v>
+        <v>532</v>
       </c>
       <c r="J114" t="s">
-        <v>386</v>
+        <v>373</v>
       </c>
       <c r="M114" s="1">
         <v>12</v>
       </c>
       <c r="N114" s="1" t="s">
-        <v>503</v>
+        <v>476</v>
       </c>
     </row>
     <row r="115" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A115" s="3" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="B115" s="3">
         <f t="shared" si="1"/>
@@ -6569,24 +6655,24 @@
         <v>0</v>
       </c>
       <c r="H115" s="3" t="s">
-        <v>382</v>
+        <v>524</v>
       </c>
       <c r="I115" s="3" t="s">
-        <v>375</v>
+        <v>532</v>
       </c>
       <c r="J115" t="s">
-        <v>386</v>
+        <v>373</v>
       </c>
       <c r="M115" s="1">
         <v>12</v>
       </c>
       <c r="N115" s="1" t="s">
-        <v>504</v>
+        <v>477</v>
       </c>
     </row>
     <row r="116" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A116" s="3" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="B116" s="3">
         <f t="shared" si="1"/>
@@ -6608,24 +6694,24 @@
         <v>0</v>
       </c>
       <c r="H116" s="3" t="s">
-        <v>382</v>
+        <v>524</v>
       </c>
       <c r="I116" s="3" t="s">
-        <v>375</v>
+        <v>532</v>
       </c>
       <c r="J116" t="s">
-        <v>386</v>
+        <v>373</v>
       </c>
       <c r="M116" s="1">
         <v>12</v>
       </c>
       <c r="N116" s="1" t="s">
-        <v>505</v>
+        <v>478</v>
       </c>
     </row>
     <row r="117" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A117" s="3" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="B117" s="3">
         <f t="shared" si="1"/>
@@ -6647,24 +6733,24 @@
         <v>0</v>
       </c>
       <c r="H117" s="3" t="s">
-        <v>382</v>
+        <v>524</v>
       </c>
       <c r="I117" s="3" t="s">
-        <v>375</v>
+        <v>532</v>
       </c>
       <c r="J117" t="s">
-        <v>386</v>
+        <v>373</v>
       </c>
       <c r="M117" s="1">
         <v>12</v>
       </c>
       <c r="N117" s="1" t="s">
-        <v>506</v>
+        <v>479</v>
       </c>
     </row>
     <row r="118" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A118" s="3" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="B118" s="3">
         <f t="shared" si="1"/>
@@ -6686,24 +6772,24 @@
         <v>0</v>
       </c>
       <c r="H118" s="3" t="s">
-        <v>382</v>
+        <v>524</v>
       </c>
       <c r="I118" s="3" t="s">
-        <v>375</v>
+        <v>532</v>
       </c>
       <c r="J118" t="s">
-        <v>386</v>
+        <v>373</v>
       </c>
       <c r="M118" s="1">
         <v>12</v>
       </c>
       <c r="N118" s="1" t="s">
-        <v>507</v>
+        <v>480</v>
       </c>
     </row>
     <row r="119" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A119" s="3" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="B119" s="3">
         <f t="shared" si="1"/>
@@ -6725,24 +6811,24 @@
         <v>0</v>
       </c>
       <c r="H119" s="3" t="s">
-        <v>382</v>
+        <v>524</v>
       </c>
       <c r="I119" s="3" t="s">
-        <v>375</v>
+        <v>532</v>
       </c>
       <c r="J119" t="s">
-        <v>386</v>
+        <v>373</v>
       </c>
       <c r="M119" s="1">
         <v>12</v>
       </c>
       <c r="N119" s="1" t="s">
-        <v>508</v>
+        <v>481</v>
       </c>
     </row>
     <row r="120" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A120" s="3" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="B120" s="3">
         <f t="shared" si="1"/>
@@ -6764,24 +6850,24 @@
         <v>0</v>
       </c>
       <c r="H120" s="3" t="s">
-        <v>382</v>
+        <v>524</v>
       </c>
       <c r="I120" s="3" t="s">
-        <v>375</v>
+        <v>532</v>
       </c>
       <c r="J120" t="s">
-        <v>386</v>
+        <v>373</v>
       </c>
       <c r="M120" s="1">
         <v>12</v>
       </c>
       <c r="N120" s="1" t="s">
-        <v>509</v>
+        <v>482</v>
       </c>
     </row>
     <row r="121" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A121" s="3" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="B121" s="3">
         <f t="shared" si="1"/>
@@ -6803,24 +6889,24 @@
         <v>0</v>
       </c>
       <c r="H121" s="3" t="s">
-        <v>382</v>
+        <v>524</v>
       </c>
       <c r="I121" s="3" t="s">
-        <v>375</v>
+        <v>532</v>
       </c>
       <c r="J121" t="s">
-        <v>386</v>
+        <v>373</v>
       </c>
       <c r="M121" s="1">
         <v>12</v>
       </c>
       <c r="N121" s="1" t="s">
-        <v>510</v>
+        <v>483</v>
       </c>
     </row>
     <row r="122" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A122" s="3" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="B122" s="3">
         <f t="shared" si="1"/>
@@ -6842,24 +6928,24 @@
         <v>0</v>
       </c>
       <c r="H122" s="3" t="s">
-        <v>382</v>
+        <v>524</v>
       </c>
       <c r="I122" s="3" t="s">
-        <v>375</v>
+        <v>532</v>
       </c>
       <c r="J122" t="s">
-        <v>386</v>
+        <v>373</v>
       </c>
       <c r="M122" s="1">
         <v>12</v>
       </c>
       <c r="N122" s="1" t="s">
-        <v>511</v>
+        <v>484</v>
       </c>
     </row>
     <row r="123" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A123" s="3" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="B123" s="3">
         <f t="shared" si="1"/>
@@ -6881,24 +6967,24 @@
         <v>0</v>
       </c>
       <c r="H123" s="3" t="s">
-        <v>382</v>
+        <v>524</v>
       </c>
       <c r="I123" s="3" t="s">
-        <v>375</v>
+        <v>532</v>
       </c>
       <c r="J123" t="s">
-        <v>386</v>
+        <v>373</v>
       </c>
       <c r="M123" s="1">
         <v>12</v>
       </c>
       <c r="N123" s="1" t="s">
-        <v>512</v>
+        <v>485</v>
       </c>
     </row>
     <row r="124" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A124" s="3" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="B124" s="3">
         <f t="shared" si="1"/>
@@ -6920,24 +7006,24 @@
         <v>0</v>
       </c>
       <c r="H124" s="3" t="s">
-        <v>382</v>
+        <v>524</v>
       </c>
       <c r="I124" s="3" t="s">
-        <v>375</v>
+        <v>532</v>
       </c>
       <c r="J124" t="s">
-        <v>386</v>
+        <v>373</v>
       </c>
       <c r="M124" s="1">
         <v>12</v>
       </c>
       <c r="N124" s="1" t="s">
-        <v>513</v>
+        <v>486</v>
       </c>
     </row>
     <row r="125" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A125" s="3" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="B125" s="3">
         <f t="shared" si="1"/>
@@ -6959,24 +7045,24 @@
         <v>0</v>
       </c>
       <c r="H125" s="3" t="s">
-        <v>382</v>
+        <v>524</v>
       </c>
       <c r="I125" s="3" t="s">
-        <v>375</v>
+        <v>532</v>
       </c>
       <c r="J125" t="s">
-        <v>386</v>
+        <v>373</v>
       </c>
       <c r="M125" s="1">
         <v>12</v>
       </c>
       <c r="N125" s="1" t="s">
-        <v>514</v>
+        <v>487</v>
       </c>
     </row>
     <row r="126" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A126" s="3" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="B126" s="3">
         <f t="shared" si="1"/>
@@ -6998,24 +7084,24 @@
         <v>0</v>
       </c>
       <c r="H126" s="3" t="s">
-        <v>382</v>
+        <v>524</v>
       </c>
       <c r="I126" s="3" t="s">
-        <v>375</v>
+        <v>532</v>
       </c>
       <c r="J126" t="s">
-        <v>386</v>
+        <v>373</v>
       </c>
       <c r="M126" s="1">
         <v>12</v>
       </c>
       <c r="N126" s="1" t="s">
-        <v>515</v>
+        <v>488</v>
       </c>
     </row>
     <row r="127" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A127" s="3" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="B127" s="3">
         <f t="shared" si="1"/>
@@ -7037,24 +7123,24 @@
         <v>0</v>
       </c>
       <c r="H127" s="3" t="s">
-        <v>382</v>
+        <v>524</v>
       </c>
       <c r="I127" s="3" t="s">
-        <v>375</v>
+        <v>532</v>
       </c>
       <c r="J127" t="s">
-        <v>386</v>
+        <v>373</v>
       </c>
       <c r="M127" s="1">
         <v>12</v>
       </c>
       <c r="N127" s="1" t="s">
-        <v>516</v>
+        <v>489</v>
       </c>
     </row>
     <row r="128" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A128" s="3" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="B128" s="3">
         <f t="shared" si="1"/>
@@ -7076,24 +7162,24 @@
         <v>0</v>
       </c>
       <c r="H128" s="3" t="s">
-        <v>382</v>
+        <v>524</v>
       </c>
       <c r="I128" s="3" t="s">
-        <v>375</v>
+        <v>532</v>
       </c>
       <c r="J128" t="s">
-        <v>386</v>
+        <v>373</v>
       </c>
       <c r="M128" s="1">
         <v>12</v>
       </c>
       <c r="N128" s="1" t="s">
-        <v>517</v>
+        <v>490</v>
       </c>
     </row>
     <row r="129" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A129" s="3" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="B129" s="3">
         <f t="shared" si="1"/>
@@ -7115,24 +7201,24 @@
         <v>0</v>
       </c>
       <c r="H129" s="3" t="s">
-        <v>382</v>
+        <v>524</v>
       </c>
       <c r="I129" s="3" t="s">
-        <v>375</v>
+        <v>532</v>
       </c>
       <c r="J129" t="s">
-        <v>386</v>
+        <v>373</v>
       </c>
       <c r="M129" s="1">
         <v>12</v>
       </c>
       <c r="N129" s="1" t="s">
-        <v>518</v>
+        <v>491</v>
       </c>
     </row>
     <row r="130" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A130" s="3" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="B130" s="3">
         <f t="shared" si="1"/>
@@ -7154,24 +7240,24 @@
         <v>0</v>
       </c>
       <c r="H130" s="3" t="s">
-        <v>382</v>
+        <v>524</v>
       </c>
       <c r="I130" s="3" t="s">
-        <v>375</v>
+        <v>532</v>
       </c>
       <c r="J130" t="s">
-        <v>386</v>
+        <v>373</v>
       </c>
       <c r="M130" s="1">
         <v>12</v>
       </c>
       <c r="N130" s="1" t="s">
-        <v>519</v>
+        <v>492</v>
       </c>
     </row>
     <row r="131" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A131" s="3" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="B131" s="3">
         <f t="shared" ref="B131:B194" si="2">E131</f>
@@ -7193,24 +7279,24 @@
         <v>0</v>
       </c>
       <c r="H131" s="3" t="s">
-        <v>382</v>
+        <v>524</v>
       </c>
       <c r="I131" s="3" t="s">
-        <v>375</v>
+        <v>532</v>
       </c>
       <c r="J131" t="s">
-        <v>386</v>
+        <v>373</v>
       </c>
       <c r="M131" s="1">
         <v>12</v>
       </c>
       <c r="N131" s="1" t="s">
-        <v>520</v>
+        <v>493</v>
       </c>
     </row>
     <row r="132" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A132" s="3" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="B132" s="3">
         <f t="shared" si="2"/>
@@ -7232,24 +7318,24 @@
         <v>0</v>
       </c>
       <c r="H132" s="3" t="s">
-        <v>382</v>
+        <v>524</v>
       </c>
       <c r="I132" s="3" t="s">
-        <v>375</v>
+        <v>532</v>
       </c>
       <c r="J132" t="s">
-        <v>386</v>
+        <v>373</v>
       </c>
       <c r="M132" s="1">
         <v>12</v>
       </c>
       <c r="N132" s="1" t="s">
-        <v>521</v>
+        <v>494</v>
       </c>
     </row>
     <row r="133" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A133" s="3" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="B133" s="3">
         <f t="shared" si="2"/>
@@ -7271,24 +7357,24 @@
         <v>0</v>
       </c>
       <c r="H133" s="3" t="s">
-        <v>382</v>
+        <v>524</v>
       </c>
       <c r="I133" s="3" t="s">
-        <v>375</v>
+        <v>532</v>
       </c>
       <c r="J133" t="s">
-        <v>386</v>
+        <v>373</v>
       </c>
       <c r="M133" s="1">
         <v>12</v>
       </c>
       <c r="N133" s="1" t="s">
-        <v>522</v>
+        <v>495</v>
       </c>
     </row>
     <row r="134" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A134" s="3" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="B134" s="3">
         <f t="shared" si="2"/>
@@ -7310,24 +7396,24 @@
         <v>0</v>
       </c>
       <c r="H134" s="3" t="s">
-        <v>382</v>
+        <v>524</v>
       </c>
       <c r="I134" s="3" t="s">
-        <v>375</v>
+        <v>532</v>
       </c>
       <c r="J134" t="s">
-        <v>386</v>
+        <v>373</v>
       </c>
       <c r="M134" s="1">
         <v>12</v>
       </c>
       <c r="N134" s="1" t="s">
-        <v>523</v>
+        <v>496</v>
       </c>
     </row>
     <row r="135" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A135" s="3" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="B135" s="3">
         <f t="shared" si="2"/>
@@ -7349,24 +7435,24 @@
         <v>0</v>
       </c>
       <c r="H135" s="3" t="s">
-        <v>382</v>
+        <v>524</v>
       </c>
       <c r="I135" s="3" t="s">
-        <v>375</v>
+        <v>532</v>
       </c>
       <c r="J135" t="s">
-        <v>386</v>
+        <v>373</v>
       </c>
       <c r="M135" s="1">
         <v>12</v>
       </c>
       <c r="N135" s="1" t="s">
-        <v>524</v>
+        <v>497</v>
       </c>
     </row>
     <row r="136" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A136" s="3" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="B136" s="3">
         <f t="shared" si="2"/>
@@ -7388,24 +7474,24 @@
         <v>0</v>
       </c>
       <c r="H136" s="3" t="s">
-        <v>382</v>
+        <v>524</v>
       </c>
       <c r="I136" s="3" t="s">
-        <v>375</v>
+        <v>532</v>
       </c>
       <c r="J136" t="s">
-        <v>386</v>
+        <v>373</v>
       </c>
       <c r="M136" s="1">
         <v>12</v>
       </c>
       <c r="N136" s="1" t="s">
-        <v>525</v>
+        <v>498</v>
       </c>
     </row>
     <row r="137" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A137" s="3" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="B137" s="3">
         <f t="shared" si="2"/>
@@ -7427,18 +7513,24 @@
         <v>0</v>
       </c>
       <c r="H137" s="3" t="s">
-        <v>382</v>
+        <v>524</v>
       </c>
       <c r="I137" s="3" t="s">
-        <v>375</v>
+        <v>532</v>
       </c>
       <c r="J137" t="s">
-        <v>386</v>
+        <v>373</v>
+      </c>
+      <c r="M137" s="1">
+        <v>13</v>
+      </c>
+      <c r="N137" s="1" t="s">
+        <v>507</v>
       </c>
     </row>
     <row r="138" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A138" s="3" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="B138" s="3">
         <f t="shared" si="2"/>
@@ -7460,18 +7552,24 @@
         <v>0</v>
       </c>
       <c r="H138" s="3" t="s">
-        <v>382</v>
+        <v>524</v>
       </c>
       <c r="I138" s="3" t="s">
-        <v>375</v>
+        <v>532</v>
       </c>
       <c r="J138" t="s">
-        <v>386</v>
+        <v>373</v>
+      </c>
+      <c r="M138" s="1">
+        <v>13</v>
+      </c>
+      <c r="N138" s="1" t="s">
+        <v>508</v>
       </c>
     </row>
     <row r="139" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A139" s="3" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="B139" s="3">
         <f t="shared" si="2"/>
@@ -7493,18 +7591,24 @@
         <v>0</v>
       </c>
       <c r="H139" s="3" t="s">
-        <v>382</v>
+        <v>524</v>
       </c>
       <c r="I139" s="3" t="s">
-        <v>375</v>
+        <v>532</v>
       </c>
       <c r="J139" t="s">
-        <v>386</v>
+        <v>373</v>
+      </c>
+      <c r="M139" s="1">
+        <v>13</v>
+      </c>
+      <c r="N139" s="1" t="s">
+        <v>509</v>
       </c>
     </row>
     <row r="140" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A140" s="3" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="B140" s="3">
         <f t="shared" si="2"/>
@@ -7526,18 +7630,24 @@
         <v>0</v>
       </c>
       <c r="H140" s="3" t="s">
-        <v>382</v>
+        <v>524</v>
       </c>
       <c r="I140" s="3" t="s">
-        <v>375</v>
+        <v>532</v>
       </c>
       <c r="J140" t="s">
-        <v>386</v>
+        <v>373</v>
+      </c>
+      <c r="M140" s="1">
+        <v>13</v>
+      </c>
+      <c r="N140" s="1" t="s">
+        <v>510</v>
       </c>
     </row>
     <row r="141" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A141" s="3" t="s">
-        <v>396</v>
+        <v>383</v>
       </c>
       <c r="B141" s="3">
         <f t="shared" si="2"/>
@@ -7559,18 +7669,18 @@
         <v>0</v>
       </c>
       <c r="H141" s="3" t="s">
-        <v>371</v>
+        <v>524</v>
       </c>
       <c r="I141" s="3" t="s">
-        <v>376</v>
+        <v>525</v>
       </c>
       <c r="J141" t="s">
-        <v>386</v>
+        <v>373</v>
       </c>
     </row>
     <row r="142" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A142" s="3" t="s">
-        <v>397</v>
+        <v>384</v>
       </c>
       <c r="B142" s="3">
         <f t="shared" si="2"/>
@@ -7592,18 +7702,18 @@
         <v>0</v>
       </c>
       <c r="H142" s="3" t="s">
-        <v>371</v>
+        <v>524</v>
       </c>
       <c r="I142" s="3" t="s">
-        <v>376</v>
+        <v>525</v>
       </c>
       <c r="J142" t="s">
-        <v>386</v>
+        <v>373</v>
       </c>
     </row>
     <row r="143" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A143" s="3" t="s">
-        <v>398</v>
+        <v>385</v>
       </c>
       <c r="B143" s="3">
         <f t="shared" si="2"/>
@@ -7625,18 +7735,18 @@
         <v>0</v>
       </c>
       <c r="H143" s="3" t="s">
-        <v>371</v>
+        <v>524</v>
       </c>
       <c r="I143" s="3" t="s">
-        <v>376</v>
+        <v>525</v>
       </c>
       <c r="J143" t="s">
-        <v>386</v>
+        <v>373</v>
       </c>
     </row>
     <row r="144" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A144" s="3" t="s">
-        <v>399</v>
+        <v>386</v>
       </c>
       <c r="B144" s="3">
         <f t="shared" si="2"/>
@@ -7658,18 +7768,18 @@
         <v>0</v>
       </c>
       <c r="H144" s="3" t="s">
-        <v>371</v>
+        <v>524</v>
       </c>
       <c r="I144" s="3" t="s">
-        <v>376</v>
+        <v>525</v>
       </c>
       <c r="J144" t="s">
-        <v>386</v>
+        <v>373</v>
       </c>
     </row>
     <row r="145" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A145" s="3" t="s">
-        <v>400</v>
+        <v>387</v>
       </c>
       <c r="B145" s="3">
         <f t="shared" si="2"/>
@@ -7691,18 +7801,18 @@
         <v>0</v>
       </c>
       <c r="H145" s="3" t="s">
-        <v>371</v>
+        <v>524</v>
       </c>
       <c r="I145" s="3" t="s">
-        <v>376</v>
+        <v>525</v>
       </c>
       <c r="J145" t="s">
-        <v>386</v>
+        <v>373</v>
       </c>
     </row>
     <row r="146" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A146" s="3" t="s">
-        <v>401</v>
+        <v>388</v>
       </c>
       <c r="B146" s="3">
         <f t="shared" si="2"/>
@@ -7724,18 +7834,18 @@
         <v>0</v>
       </c>
       <c r="H146" s="3" t="s">
-        <v>371</v>
+        <v>524</v>
       </c>
       <c r="I146" s="3" t="s">
-        <v>376</v>
+        <v>525</v>
       </c>
       <c r="J146" t="s">
-        <v>386</v>
+        <v>373</v>
       </c>
     </row>
     <row r="147" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A147" s="3" t="s">
-        <v>402</v>
+        <v>389</v>
       </c>
       <c r="B147" s="3">
         <f t="shared" si="2"/>
@@ -7757,18 +7867,18 @@
         <v>0</v>
       </c>
       <c r="H147" s="3" t="s">
-        <v>371</v>
+        <v>524</v>
       </c>
       <c r="I147" s="3" t="s">
-        <v>376</v>
+        <v>525</v>
       </c>
       <c r="J147" t="s">
-        <v>386</v>
+        <v>373</v>
       </c>
     </row>
     <row r="148" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A148" s="3" t="s">
-        <v>403</v>
+        <v>390</v>
       </c>
       <c r="B148" s="3">
         <f t="shared" si="2"/>
@@ -7790,18 +7900,18 @@
         <v>0</v>
       </c>
       <c r="H148" s="3" t="s">
-        <v>371</v>
+        <v>524</v>
       </c>
       <c r="I148" s="3" t="s">
-        <v>376</v>
+        <v>525</v>
       </c>
       <c r="J148" t="s">
-        <v>386</v>
+        <v>373</v>
       </c>
     </row>
     <row r="149" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A149" s="3" t="s">
-        <v>404</v>
+        <v>391</v>
       </c>
       <c r="B149" s="3">
         <f t="shared" si="2"/>
@@ -7823,18 +7933,18 @@
         <v>0</v>
       </c>
       <c r="H149" s="3" t="s">
-        <v>377</v>
+        <v>524</v>
       </c>
       <c r="I149" s="3" t="s">
-        <v>377</v>
+        <v>532</v>
       </c>
       <c r="J149" t="s">
-        <v>386</v>
+        <v>373</v>
       </c>
     </row>
     <row r="150" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A150" s="3" t="s">
-        <v>405</v>
+        <v>392</v>
       </c>
       <c r="B150" s="3">
         <f t="shared" si="2"/>
@@ -7856,18 +7966,18 @@
         <v>0</v>
       </c>
       <c r="H150" s="3" t="s">
-        <v>377</v>
+        <v>524</v>
       </c>
       <c r="I150" s="3" t="s">
-        <v>377</v>
+        <v>532</v>
       </c>
       <c r="J150" t="s">
-        <v>386</v>
+        <v>373</v>
       </c>
     </row>
     <row r="151" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A151" s="3" t="s">
-        <v>406</v>
+        <v>393</v>
       </c>
       <c r="B151" s="3">
         <f t="shared" si="2"/>
@@ -7889,18 +7999,18 @@
         <v>0</v>
       </c>
       <c r="H151" s="3" t="s">
-        <v>377</v>
+        <v>524</v>
       </c>
       <c r="I151" s="3" t="s">
-        <v>377</v>
+        <v>532</v>
       </c>
       <c r="J151" t="s">
-        <v>386</v>
+        <v>373</v>
       </c>
     </row>
     <row r="152" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A152" s="3" t="s">
-        <v>407</v>
+        <v>394</v>
       </c>
       <c r="B152" s="3">
         <f t="shared" si="2"/>
@@ -7922,18 +8032,18 @@
         <v>0</v>
       </c>
       <c r="H152" s="3" t="s">
-        <v>377</v>
+        <v>524</v>
       </c>
       <c r="I152" s="3" t="s">
-        <v>377</v>
+        <v>532</v>
       </c>
       <c r="J152" t="s">
-        <v>386</v>
+        <v>373</v>
       </c>
     </row>
     <row r="153" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A153" s="3" t="s">
-        <v>408</v>
+        <v>546</v>
       </c>
       <c r="B153" s="3">
         <f t="shared" si="2"/>
@@ -7955,18 +8065,18 @@
         <v>0</v>
       </c>
       <c r="H153" s="3" t="s">
-        <v>377</v>
+        <v>524</v>
       </c>
       <c r="I153" s="3" t="s">
-        <v>377</v>
+        <v>529</v>
       </c>
       <c r="J153" t="s">
-        <v>386</v>
+        <v>373</v>
       </c>
     </row>
     <row r="154" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A154" s="3" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="B154" s="3">
         <f t="shared" si="2"/>
@@ -7988,18 +8098,18 @@
         <v>0</v>
       </c>
       <c r="H154" s="3" t="s">
-        <v>420</v>
-      </c>
-      <c r="I154" s="6" t="s">
-        <v>423</v>
+        <v>524</v>
+      </c>
+      <c r="I154" s="3" t="s">
+        <v>532</v>
       </c>
       <c r="J154" t="s">
-        <v>386</v>
+        <v>373</v>
       </c>
     </row>
     <row r="155" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A155" s="3" t="s">
-        <v>188</v>
+        <v>547</v>
       </c>
       <c r="B155" s="3">
         <f t="shared" si="2"/>
@@ -8021,18 +8131,18 @@
         <v>4</v>
       </c>
       <c r="H155" s="3" t="s">
-        <v>371</v>
-      </c>
-      <c r="I155" s="6" t="s">
-        <v>380</v>
+        <v>512</v>
+      </c>
+      <c r="I155" s="3" t="s">
+        <v>397</v>
       </c>
       <c r="J155" t="s">
-        <v>386</v>
+        <v>373</v>
       </c>
     </row>
     <row r="156" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A156" s="3" t="s">
-        <v>409</v>
+        <v>395</v>
       </c>
       <c r="B156" s="3">
         <f t="shared" si="2"/>
@@ -8053,19 +8163,19 @@
       <c r="G156" s="3">
         <v>0</v>
       </c>
-      <c r="H156" s="2" t="s">
-        <v>425</v>
+      <c r="H156" s="3" t="s">
+        <v>512</v>
       </c>
       <c r="I156" s="3" t="s">
-        <v>371</v>
+        <v>513</v>
       </c>
       <c r="J156" t="s">
-        <v>386</v>
+        <v>373</v>
       </c>
     </row>
     <row r="157" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A157" s="3" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="B157" s="3">
         <f t="shared" si="2"/>
@@ -8087,18 +8197,18 @@
         <v>0</v>
       </c>
       <c r="H157" s="3" t="s">
-        <v>371</v>
-      </c>
-      <c r="I157" s="6" t="s">
-        <v>380</v>
+        <v>512</v>
+      </c>
+      <c r="I157" s="3" t="s">
+        <v>397</v>
       </c>
       <c r="J157" t="s">
-        <v>386</v>
+        <v>373</v>
       </c>
     </row>
     <row r="158" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A158" s="3" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="B158" s="3">
         <f t="shared" si="2"/>
@@ -8120,18 +8230,18 @@
         <v>0</v>
       </c>
       <c r="H158" s="3" t="s">
-        <v>420</v>
-      </c>
-      <c r="I158" s="6" t="s">
-        <v>421</v>
+        <v>536</v>
+      </c>
+      <c r="I158" s="3" t="s">
+        <v>545</v>
       </c>
       <c r="J158" t="s">
-        <v>386</v>
+        <v>373</v>
       </c>
     </row>
     <row r="159" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A159" s="3" t="s">
-        <v>410</v>
+        <v>396</v>
       </c>
       <c r="B159" s="3">
         <f t="shared" si="2"/>
@@ -8153,18 +8263,18 @@
         <v>0</v>
       </c>
       <c r="H159" s="3" t="s">
-        <v>371</v>
-      </c>
-      <c r="I159" s="6" t="s">
-        <v>380</v>
+        <v>512</v>
+      </c>
+      <c r="I159" s="3" t="s">
+        <v>397</v>
       </c>
       <c r="J159" t="s">
-        <v>386</v>
+        <v>373</v>
       </c>
     </row>
     <row r="160" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A160" s="3" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="B160" s="3">
         <f t="shared" si="2"/>
@@ -8186,18 +8296,18 @@
         <v>5</v>
       </c>
       <c r="H160" s="3" t="s">
-        <v>371</v>
-      </c>
-      <c r="I160" s="6" t="s">
-        <v>433</v>
+        <v>512</v>
+      </c>
+      <c r="I160" s="3" t="s">
+        <v>516</v>
       </c>
       <c r="J160" t="s">
-        <v>386</v>
+        <v>373</v>
       </c>
     </row>
     <row r="161" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A161" s="3" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="B161" s="3">
         <f t="shared" si="2"/>
@@ -8219,18 +8329,18 @@
         <v>0</v>
       </c>
       <c r="H161" s="3" t="s">
-        <v>371</v>
-      </c>
-      <c r="I161" s="6" t="s">
-        <v>380</v>
+        <v>524</v>
+      </c>
+      <c r="I161" s="3" t="s">
+        <v>528</v>
       </c>
       <c r="J161" t="s">
-        <v>386</v>
+        <v>373</v>
       </c>
     </row>
     <row r="162" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A162" s="3" t="s">
-        <v>430</v>
+        <v>406</v>
       </c>
       <c r="B162" s="3">
         <f t="shared" si="2"/>
@@ -8252,18 +8362,18 @@
         <v>0</v>
       </c>
       <c r="H162" s="3" t="s">
-        <v>371</v>
-      </c>
-      <c r="I162" s="6" t="s">
-        <v>429</v>
+        <v>518</v>
+      </c>
+      <c r="I162" s="3" t="s">
+        <v>521</v>
       </c>
       <c r="J162" t="s">
-        <v>386</v>
+        <v>373</v>
       </c>
     </row>
     <row r="163" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A163" s="3" t="s">
-        <v>431</v>
+        <v>407</v>
       </c>
       <c r="B163" s="3">
         <f t="shared" si="2"/>
@@ -8285,18 +8395,18 @@
         <v>0</v>
       </c>
       <c r="H163" s="3" t="s">
-        <v>371</v>
-      </c>
-      <c r="I163" s="6" t="s">
-        <v>429</v>
+        <v>518</v>
+      </c>
+      <c r="I163" s="3" t="s">
+        <v>521</v>
       </c>
       <c r="J163" t="s">
-        <v>386</v>
+        <v>373</v>
       </c>
     </row>
     <row r="164" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A164" s="3" t="s">
-        <v>432</v>
+        <v>408</v>
       </c>
       <c r="B164" s="3">
         <f t="shared" si="2"/>
@@ -8318,18 +8428,18 @@
         <v>0</v>
       </c>
       <c r="H164" s="3" t="s">
-        <v>371</v>
-      </c>
-      <c r="I164" s="6" t="s">
-        <v>429</v>
+        <v>518</v>
+      </c>
+      <c r="I164" s="3" t="s">
+        <v>521</v>
       </c>
       <c r="J164" t="s">
-        <v>386</v>
+        <v>373</v>
       </c>
     </row>
     <row r="165" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A165" s="3" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="B165" s="3">
         <f t="shared" si="2"/>
@@ -8351,18 +8461,18 @@
         <v>0</v>
       </c>
       <c r="H165" s="3" t="s">
-        <v>371</v>
-      </c>
-      <c r="I165" s="6" t="s">
-        <v>435</v>
+        <v>524</v>
+      </c>
+      <c r="I165" s="3" t="s">
+        <v>526</v>
       </c>
       <c r="J165" t="s">
-        <v>386</v>
+        <v>373</v>
       </c>
     </row>
     <row r="166" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A166" s="3" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="B166" s="3">
         <f t="shared" si="2"/>
@@ -8384,18 +8494,18 @@
         <v>0</v>
       </c>
       <c r="H166" s="3" t="s">
-        <v>371</v>
-      </c>
-      <c r="I166" s="6" t="s">
-        <v>435</v>
+        <v>524</v>
+      </c>
+      <c r="I166" s="3" t="s">
+        <v>527</v>
       </c>
       <c r="J166" t="s">
-        <v>386</v>
+        <v>373</v>
       </c>
     </row>
     <row r="167" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A167" s="3" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="B167" s="3">
         <f t="shared" si="2"/>
@@ -8417,18 +8527,18 @@
         <v>0</v>
       </c>
       <c r="H167" s="3" t="s">
-        <v>382</v>
+        <v>524</v>
       </c>
       <c r="I167" s="3" t="s">
-        <v>378</v>
+        <v>527</v>
       </c>
       <c r="J167" t="s">
-        <v>386</v>
+        <v>373</v>
       </c>
     </row>
     <row r="168" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A168" s="3" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="B168" s="3">
         <f t="shared" si="2"/>
@@ -8450,18 +8560,18 @@
         <v>0</v>
       </c>
       <c r="H168" s="3" t="s">
-        <v>382</v>
+        <v>524</v>
       </c>
       <c r="I168" s="3" t="s">
-        <v>378</v>
+        <v>527</v>
       </c>
       <c r="J168" t="s">
-        <v>386</v>
+        <v>373</v>
       </c>
     </row>
     <row r="169" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A169" s="3" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="B169" s="3">
         <f t="shared" si="2"/>
@@ -8483,18 +8593,18 @@
         <v>0</v>
       </c>
       <c r="H169" s="3" t="s">
-        <v>382</v>
+        <v>524</v>
       </c>
       <c r="I169" s="3" t="s">
-        <v>378</v>
+        <v>527</v>
       </c>
       <c r="J169" t="s">
-        <v>386</v>
+        <v>373</v>
       </c>
     </row>
     <row r="170" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A170" s="3" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="B170" s="3">
         <f t="shared" si="2"/>
@@ -8516,18 +8626,18 @@
         <v>0</v>
       </c>
       <c r="H170" s="3" t="s">
-        <v>382</v>
+        <v>524</v>
       </c>
       <c r="I170" s="3" t="s">
-        <v>378</v>
+        <v>527</v>
       </c>
       <c r="J170" t="s">
-        <v>386</v>
+        <v>373</v>
       </c>
     </row>
     <row r="171" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A171" s="3" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="B171" s="3">
         <f t="shared" si="2"/>
@@ -8549,18 +8659,18 @@
         <v>0</v>
       </c>
       <c r="H171" s="3" t="s">
-        <v>382</v>
+        <v>524</v>
       </c>
       <c r="I171" s="3" t="s">
-        <v>378</v>
+        <v>527</v>
       </c>
       <c r="J171" t="s">
-        <v>386</v>
+        <v>373</v>
       </c>
     </row>
     <row r="172" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A172" s="3" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="B172" s="3">
         <f t="shared" si="2"/>
@@ -8582,18 +8692,18 @@
         <v>0</v>
       </c>
       <c r="H172" s="3" t="s">
-        <v>382</v>
+        <v>524</v>
       </c>
       <c r="I172" s="3" t="s">
-        <v>378</v>
+        <v>527</v>
       </c>
       <c r="J172" t="s">
-        <v>386</v>
+        <v>373</v>
       </c>
     </row>
     <row r="173" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A173" s="3" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="B173" s="3">
         <f t="shared" si="2"/>
@@ -8615,18 +8725,18 @@
         <v>0</v>
       </c>
       <c r="H173" s="3" t="s">
-        <v>382</v>
+        <v>524</v>
       </c>
       <c r="I173" s="3" t="s">
-        <v>378</v>
+        <v>527</v>
       </c>
       <c r="J173" t="s">
-        <v>386</v>
+        <v>373</v>
       </c>
     </row>
     <row r="174" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A174" s="3" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="B174" s="3">
         <f t="shared" si="2"/>
@@ -8648,18 +8758,18 @@
         <v>0</v>
       </c>
       <c r="H174" s="3" t="s">
-        <v>382</v>
+        <v>524</v>
       </c>
       <c r="I174" s="3" t="s">
-        <v>378</v>
+        <v>527</v>
       </c>
       <c r="J174" t="s">
-        <v>386</v>
+        <v>373</v>
       </c>
     </row>
     <row r="175" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A175" s="3" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="B175" s="3">
         <f t="shared" si="2"/>
@@ -8681,18 +8791,18 @@
         <v>0</v>
       </c>
       <c r="H175" s="3" t="s">
-        <v>382</v>
+        <v>524</v>
       </c>
       <c r="I175" s="3" t="s">
-        <v>378</v>
+        <v>527</v>
       </c>
       <c r="J175" t="s">
-        <v>386</v>
+        <v>373</v>
       </c>
     </row>
     <row r="176" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A176" s="3" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="B176" s="3">
         <f t="shared" si="2"/>
@@ -8714,18 +8824,18 @@
         <v>0</v>
       </c>
       <c r="H176" s="3" t="s">
-        <v>382</v>
+        <v>524</v>
       </c>
       <c r="I176" s="3" t="s">
-        <v>378</v>
+        <v>527</v>
       </c>
       <c r="J176" t="s">
-        <v>386</v>
+        <v>373</v>
       </c>
     </row>
     <row r="177" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A177" s="3" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="B177" s="3">
         <f t="shared" si="2"/>
@@ -8747,18 +8857,18 @@
         <v>0</v>
       </c>
       <c r="H177" s="3" t="s">
-        <v>382</v>
+        <v>524</v>
       </c>
       <c r="I177" s="3" t="s">
-        <v>378</v>
+        <v>527</v>
       </c>
       <c r="J177" t="s">
-        <v>386</v>
+        <v>373</v>
       </c>
     </row>
     <row r="178" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A178" s="3" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="B178" s="3">
         <f t="shared" si="2"/>
@@ -8780,18 +8890,18 @@
         <v>0</v>
       </c>
       <c r="H178" s="3" t="s">
-        <v>382</v>
+        <v>524</v>
       </c>
       <c r="I178" s="3" t="s">
-        <v>378</v>
+        <v>527</v>
       </c>
       <c r="J178" t="s">
-        <v>386</v>
+        <v>373</v>
       </c>
     </row>
     <row r="179" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A179" s="3" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="B179" s="3">
         <f t="shared" si="2"/>
@@ -8813,18 +8923,18 @@
         <v>0</v>
       </c>
       <c r="H179" s="3" t="s">
-        <v>382</v>
+        <v>524</v>
       </c>
       <c r="I179" s="3" t="s">
-        <v>378</v>
+        <v>527</v>
       </c>
       <c r="J179" t="s">
-        <v>386</v>
+        <v>373</v>
       </c>
     </row>
     <row r="180" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A180" s="3" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="B180" s="3">
         <f t="shared" si="2"/>
@@ -8846,18 +8956,18 @@
         <v>0</v>
       </c>
       <c r="H180" s="3" t="s">
-        <v>382</v>
+        <v>524</v>
       </c>
       <c r="I180" s="3" t="s">
-        <v>378</v>
+        <v>527</v>
       </c>
       <c r="J180" t="s">
-        <v>386</v>
+        <v>373</v>
       </c>
     </row>
     <row r="181" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A181" s="3" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="B181" s="3">
         <f t="shared" si="2"/>
@@ -8879,18 +8989,18 @@
         <v>0</v>
       </c>
       <c r="H181" s="3" t="s">
-        <v>382</v>
+        <v>524</v>
       </c>
       <c r="I181" s="3" t="s">
-        <v>378</v>
+        <v>527</v>
       </c>
       <c r="J181" t="s">
-        <v>386</v>
+        <v>373</v>
       </c>
     </row>
     <row r="182" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A182" s="3" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="B182" s="3">
         <f t="shared" si="2"/>
@@ -8912,18 +9022,18 @@
         <v>0</v>
       </c>
       <c r="H182" s="3" t="s">
-        <v>382</v>
+        <v>524</v>
       </c>
       <c r="I182" s="3" t="s">
-        <v>378</v>
+        <v>527</v>
       </c>
       <c r="J182" t="s">
-        <v>386</v>
+        <v>373</v>
       </c>
     </row>
     <row r="183" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A183" s="3" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="B183" s="3">
         <f t="shared" si="2"/>
@@ -8945,18 +9055,18 @@
         <v>0</v>
       </c>
       <c r="H183" s="3" t="s">
-        <v>382</v>
+        <v>524</v>
       </c>
       <c r="I183" s="3" t="s">
-        <v>378</v>
+        <v>527</v>
       </c>
       <c r="J183" t="s">
-        <v>386</v>
+        <v>373</v>
       </c>
     </row>
     <row r="184" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A184" s="3" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="B184" s="3">
         <f t="shared" si="2"/>
@@ -8978,18 +9088,18 @@
         <v>0</v>
       </c>
       <c r="H184" s="3" t="s">
-        <v>382</v>
+        <v>524</v>
       </c>
       <c r="I184" s="3" t="s">
-        <v>378</v>
+        <v>527</v>
       </c>
       <c r="J184" t="s">
-        <v>386</v>
+        <v>373</v>
       </c>
     </row>
     <row r="185" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A185" s="3" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="B185" s="3">
         <f t="shared" si="2"/>
@@ -9011,18 +9121,18 @@
         <v>0</v>
       </c>
       <c r="H185" s="3" t="s">
-        <v>382</v>
+        <v>524</v>
       </c>
       <c r="I185" s="3" t="s">
-        <v>378</v>
+        <v>527</v>
       </c>
       <c r="J185" t="s">
-        <v>386</v>
+        <v>373</v>
       </c>
     </row>
     <row r="186" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A186" s="3" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="B186" s="3">
         <f t="shared" si="2"/>
@@ -9044,18 +9154,18 @@
         <v>0</v>
       </c>
       <c r="H186" s="3" t="s">
-        <v>382</v>
+        <v>524</v>
       </c>
       <c r="I186" s="3" t="s">
-        <v>378</v>
+        <v>527</v>
       </c>
       <c r="J186" t="s">
-        <v>386</v>
+        <v>373</v>
       </c>
     </row>
     <row r="187" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A187" s="3" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="B187" s="3">
         <f t="shared" si="2"/>
@@ -9077,18 +9187,18 @@
         <v>0</v>
       </c>
       <c r="H187" s="3" t="s">
-        <v>382</v>
+        <v>524</v>
       </c>
       <c r="I187" s="3" t="s">
-        <v>378</v>
+        <v>527</v>
       </c>
       <c r="J187" t="s">
-        <v>386</v>
+        <v>373</v>
       </c>
     </row>
     <row r="188" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A188" s="3" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="B188" s="3">
         <f t="shared" si="2"/>
@@ -9110,18 +9220,18 @@
         <v>0</v>
       </c>
       <c r="H188" s="3" t="s">
-        <v>382</v>
+        <v>524</v>
       </c>
       <c r="I188" s="3" t="s">
-        <v>378</v>
+        <v>527</v>
       </c>
       <c r="J188" t="s">
-        <v>386</v>
+        <v>373</v>
       </c>
     </row>
     <row r="189" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A189" s="3" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="B189" s="3">
         <f t="shared" si="2"/>
@@ -9143,18 +9253,18 @@
         <v>0</v>
       </c>
       <c r="H189" s="3" t="s">
-        <v>382</v>
+        <v>524</v>
       </c>
       <c r="I189" s="3" t="s">
-        <v>378</v>
+        <v>527</v>
       </c>
       <c r="J189" t="s">
-        <v>386</v>
+        <v>373</v>
       </c>
     </row>
     <row r="190" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A190" s="3" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="B190" s="3">
         <f t="shared" si="2"/>
@@ -9176,18 +9286,18 @@
         <v>0</v>
       </c>
       <c r="H190" s="3" t="s">
-        <v>382</v>
+        <v>524</v>
       </c>
       <c r="I190" s="3" t="s">
-        <v>378</v>
+        <v>527</v>
       </c>
       <c r="J190" t="s">
-        <v>386</v>
+        <v>373</v>
       </c>
     </row>
     <row r="191" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A191" s="3" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="B191" s="3">
         <f t="shared" si="2"/>
@@ -9209,18 +9319,18 @@
         <v>0</v>
       </c>
       <c r="H191" s="3" t="s">
-        <v>382</v>
+        <v>524</v>
       </c>
       <c r="I191" s="3" t="s">
-        <v>378</v>
+        <v>527</v>
       </c>
       <c r="J191" t="s">
-        <v>386</v>
+        <v>373</v>
       </c>
     </row>
     <row r="192" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A192" s="3" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="B192" s="3">
         <f t="shared" si="2"/>
@@ -9242,18 +9352,18 @@
         <v>0</v>
       </c>
       <c r="H192" s="3" t="s">
-        <v>382</v>
+        <v>524</v>
       </c>
       <c r="I192" s="3" t="s">
-        <v>378</v>
+        <v>527</v>
       </c>
       <c r="J192" t="s">
-        <v>386</v>
+        <v>373</v>
       </c>
     </row>
     <row r="193" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A193" s="3" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="B193" s="3">
         <f t="shared" si="2"/>
@@ -9275,18 +9385,18 @@
         <v>0</v>
       </c>
       <c r="H193" s="3" t="s">
-        <v>382</v>
+        <v>524</v>
       </c>
       <c r="I193" s="3" t="s">
-        <v>378</v>
+        <v>527</v>
       </c>
       <c r="J193" t="s">
-        <v>386</v>
+        <v>373</v>
       </c>
     </row>
     <row r="194" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A194" s="3" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="B194" s="3">
         <f t="shared" si="2"/>
@@ -9308,18 +9418,18 @@
         <v>0</v>
       </c>
       <c r="H194" s="3" t="s">
-        <v>382</v>
+        <v>524</v>
       </c>
       <c r="I194" s="3" t="s">
-        <v>378</v>
+        <v>527</v>
       </c>
       <c r="J194" t="s">
-        <v>386</v>
+        <v>373</v>
       </c>
     </row>
     <row r="195" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A195" s="3" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="B195" s="3">
         <f t="shared" ref="B195:B258" si="3">E195</f>
@@ -9341,18 +9451,18 @@
         <v>0</v>
       </c>
       <c r="H195" s="3" t="s">
-        <v>382</v>
+        <v>524</v>
       </c>
       <c r="I195" s="3" t="s">
-        <v>378</v>
+        <v>527</v>
       </c>
       <c r="J195" t="s">
-        <v>386</v>
+        <v>373</v>
       </c>
     </row>
     <row r="196" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A196" s="3" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="B196" s="3">
         <f t="shared" si="3"/>
@@ -9374,18 +9484,18 @@
         <v>0</v>
       </c>
       <c r="H196" s="3" t="s">
-        <v>382</v>
+        <v>524</v>
       </c>
       <c r="I196" s="3" t="s">
-        <v>378</v>
+        <v>527</v>
       </c>
       <c r="J196" t="s">
-        <v>386</v>
+        <v>373</v>
       </c>
     </row>
     <row r="197" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A197" s="3" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="B197" s="3">
         <f t="shared" si="3"/>
@@ -9407,18 +9517,18 @@
         <v>0</v>
       </c>
       <c r="H197" s="3" t="s">
-        <v>420</v>
+        <v>536</v>
       </c>
       <c r="I197" s="3" t="s">
-        <v>424</v>
+        <v>537</v>
       </c>
       <c r="J197" t="s">
-        <v>386</v>
+        <v>373</v>
       </c>
     </row>
     <row r="198" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A198" s="3" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="B198" s="3">
         <f t="shared" si="3"/>
@@ -9440,18 +9550,18 @@
         <v>0</v>
       </c>
       <c r="H198" s="3" t="s">
-        <v>420</v>
+        <v>536</v>
       </c>
       <c r="I198" s="3" t="s">
-        <v>424</v>
+        <v>537</v>
       </c>
       <c r="J198" t="s">
-        <v>386</v>
+        <v>373</v>
       </c>
     </row>
     <row r="199" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A199" s="3" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="B199" s="3">
         <f t="shared" si="3"/>
@@ -9473,18 +9583,18 @@
         <v>0</v>
       </c>
       <c r="H199" s="3" t="s">
-        <v>420</v>
+        <v>536</v>
       </c>
       <c r="I199" s="3" t="s">
-        <v>424</v>
+        <v>537</v>
       </c>
       <c r="J199" t="s">
-        <v>386</v>
+        <v>373</v>
       </c>
     </row>
     <row r="200" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A200" s="3" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="B200" s="3">
         <f t="shared" si="3"/>
@@ -9506,18 +9616,18 @@
         <v>0</v>
       </c>
       <c r="H200" s="3" t="s">
-        <v>420</v>
+        <v>536</v>
       </c>
       <c r="I200" s="3" t="s">
-        <v>424</v>
+        <v>537</v>
       </c>
       <c r="J200" t="s">
-        <v>386</v>
+        <v>373</v>
       </c>
     </row>
     <row r="201" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A201" s="3" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="B201" s="3">
         <f t="shared" si="3"/>
@@ -9539,18 +9649,18 @@
         <v>0</v>
       </c>
       <c r="H201" s="3" t="s">
-        <v>420</v>
+        <v>524</v>
       </c>
       <c r="I201" s="3" t="s">
-        <v>424</v>
+        <v>527</v>
       </c>
       <c r="J201" t="s">
-        <v>386</v>
+        <v>373</v>
       </c>
     </row>
     <row r="202" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A202" s="3" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="B202" s="3">
         <f t="shared" si="3"/>
@@ -9572,18 +9682,18 @@
         <v>0</v>
       </c>
       <c r="H202" s="3" t="s">
-        <v>371</v>
+        <v>518</v>
       </c>
       <c r="I202" s="3" t="s">
-        <v>434</v>
+        <v>520</v>
       </c>
       <c r="J202" t="s">
-        <v>386</v>
+        <v>373</v>
       </c>
     </row>
     <row r="203" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A203" s="3" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B203" s="3">
         <f t="shared" si="3"/>
@@ -9605,18 +9715,18 @@
         <v>0</v>
       </c>
       <c r="H203" s="3" t="s">
-        <v>371</v>
+        <v>518</v>
       </c>
       <c r="I203" s="3" t="s">
-        <v>434</v>
+        <v>520</v>
       </c>
       <c r="J203" t="s">
-        <v>386</v>
+        <v>373</v>
       </c>
     </row>
     <row r="204" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A204" s="3" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="B204" s="3">
         <f t="shared" si="3"/>
@@ -9638,18 +9748,18 @@
         <v>0</v>
       </c>
       <c r="H204" s="3" t="s">
-        <v>371</v>
+        <v>518</v>
       </c>
       <c r="I204" s="3" t="s">
-        <v>434</v>
+        <v>520</v>
       </c>
       <c r="J204" t="s">
-        <v>386</v>
+        <v>373</v>
       </c>
     </row>
     <row r="205" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A205" s="3" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="B205" s="3">
         <f t="shared" si="3"/>
@@ -9671,18 +9781,18 @@
         <v>0</v>
       </c>
       <c r="H205" s="3" t="s">
-        <v>371</v>
-      </c>
-      <c r="I205" s="6" t="s">
-        <v>380</v>
+        <v>536</v>
+      </c>
+      <c r="I205" s="3" t="s">
+        <v>537</v>
       </c>
       <c r="J205" t="s">
-        <v>386</v>
+        <v>373</v>
       </c>
     </row>
     <row r="206" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A206" s="3" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="B206" s="3">
         <f t="shared" si="3"/>
@@ -9704,18 +9814,18 @@
         <v>0</v>
       </c>
       <c r="H206" s="3" t="s">
-        <v>371</v>
+        <v>522</v>
       </c>
       <c r="I206" s="3" t="s">
-        <v>427</v>
+        <v>523</v>
       </c>
       <c r="J206" t="s">
-        <v>386</v>
+        <v>373</v>
       </c>
     </row>
     <row r="207" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A207" s="3" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="B207" s="3">
         <f t="shared" si="3"/>
@@ -9737,18 +9847,18 @@
         <v>0</v>
       </c>
       <c r="H207" s="3" t="s">
-        <v>371</v>
+        <v>522</v>
       </c>
       <c r="I207" s="3" t="s">
-        <v>427</v>
+        <v>523</v>
       </c>
       <c r="J207" t="s">
-        <v>386</v>
+        <v>373</v>
       </c>
     </row>
     <row r="208" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A208" s="3" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="B208" s="3">
         <f t="shared" si="3"/>
@@ -9770,18 +9880,18 @@
         <v>0</v>
       </c>
       <c r="H208" s="3" t="s">
-        <v>371</v>
+        <v>522</v>
       </c>
       <c r="I208" s="3" t="s">
-        <v>427</v>
+        <v>523</v>
       </c>
       <c r="J208" t="s">
-        <v>386</v>
+        <v>373</v>
       </c>
     </row>
     <row r="209" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A209" s="3" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="B209" s="3">
         <f t="shared" si="3"/>
@@ -9803,18 +9913,18 @@
         <v>6</v>
       </c>
       <c r="H209" s="3" t="s">
-        <v>420</v>
+        <v>506</v>
       </c>
       <c r="I209" s="3" t="s">
-        <v>424</v>
+        <v>548</v>
       </c>
       <c r="J209" t="s">
-        <v>386</v>
+        <v>373</v>
       </c>
     </row>
     <row r="210" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A210" s="3" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="B210" s="3">
         <f t="shared" si="3"/>
@@ -9836,18 +9946,18 @@
         <v>0</v>
       </c>
       <c r="H210" s="3" t="s">
-        <v>371</v>
+        <v>522</v>
       </c>
       <c r="I210" s="3" t="s">
-        <v>427</v>
+        <v>523</v>
       </c>
       <c r="J210" t="s">
-        <v>386</v>
+        <v>373</v>
       </c>
     </row>
     <row r="211" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A211" s="3" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="B211" s="3">
         <f t="shared" si="3"/>
@@ -9869,18 +9979,18 @@
         <v>6</v>
       </c>
       <c r="H211" s="3" t="s">
-        <v>371</v>
+        <v>506</v>
       </c>
       <c r="I211" s="3" t="s">
-        <v>19</v>
+        <v>548</v>
       </c>
       <c r="J211" t="s">
-        <v>386</v>
+        <v>373</v>
       </c>
     </row>
     <row r="212" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A212" s="3" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="B212" s="3">
         <f t="shared" si="3"/>
@@ -9902,18 +10012,18 @@
         <v>0</v>
       </c>
       <c r="H212" s="3" t="s">
-        <v>371</v>
+        <v>536</v>
       </c>
       <c r="I212" s="3" t="s">
-        <v>19</v>
+        <v>545</v>
       </c>
       <c r="J212" t="s">
-        <v>386</v>
+        <v>373</v>
       </c>
     </row>
     <row r="213" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A213" s="3" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="B213" s="3">
         <f t="shared" si="3"/>
@@ -9935,18 +10045,18 @@
         <v>0</v>
       </c>
       <c r="H213" s="3" t="s">
-        <v>371</v>
+        <v>536</v>
       </c>
       <c r="I213" s="3" t="s">
-        <v>19</v>
+        <v>545</v>
       </c>
       <c r="J213" t="s">
-        <v>386</v>
+        <v>373</v>
       </c>
     </row>
     <row r="214" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A214" s="3" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="B214" s="3">
         <f t="shared" si="3"/>
@@ -9968,18 +10078,18 @@
         <v>0</v>
       </c>
       <c r="H214" s="3" t="s">
-        <v>418</v>
+        <v>512</v>
       </c>
       <c r="I214" s="3" t="s">
-        <v>19</v>
+        <v>403</v>
       </c>
       <c r="J214" t="s">
-        <v>386</v>
+        <v>373</v>
       </c>
     </row>
     <row r="215" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A215" s="3" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="B215" s="3">
         <f t="shared" si="3"/>
@@ -10001,18 +10111,18 @@
         <v>0</v>
       </c>
       <c r="H215" s="3" t="s">
-        <v>418</v>
+        <v>512</v>
       </c>
       <c r="I215" s="3" t="s">
-        <v>19</v>
+        <v>403</v>
       </c>
       <c r="J215" t="s">
-        <v>386</v>
+        <v>373</v>
       </c>
     </row>
     <row r="216" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A216" s="3" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="B216" s="3">
         <f t="shared" si="3"/>
@@ -10034,18 +10144,18 @@
         <v>0</v>
       </c>
       <c r="H216" s="3" t="s">
-        <v>418</v>
+        <v>512</v>
       </c>
       <c r="I216" s="3" t="s">
-        <v>19</v>
+        <v>403</v>
       </c>
       <c r="J216" t="s">
-        <v>386</v>
+        <v>373</v>
       </c>
     </row>
     <row r="217" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A217" s="3" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="B217" s="3">
         <f t="shared" si="3"/>
@@ -10067,18 +10177,18 @@
         <v>0</v>
       </c>
       <c r="H217" s="3" t="s">
-        <v>418</v>
+        <v>512</v>
       </c>
       <c r="I217" s="3" t="s">
-        <v>19</v>
+        <v>403</v>
       </c>
       <c r="J217" t="s">
-        <v>386</v>
+        <v>373</v>
       </c>
     </row>
     <row r="218" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A218" s="3" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="B218" s="3">
         <f t="shared" si="3"/>
@@ -10100,18 +10210,18 @@
         <v>0</v>
       </c>
       <c r="H218" s="3" t="s">
-        <v>420</v>
+        <v>536</v>
       </c>
       <c r="I218" s="3" t="s">
-        <v>19</v>
+        <v>545</v>
       </c>
       <c r="J218" t="s">
-        <v>386</v>
+        <v>373</v>
       </c>
     </row>
     <row r="219" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A219" s="3" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="B219" s="3">
         <f t="shared" si="3"/>
@@ -10133,18 +10243,18 @@
         <v>0</v>
       </c>
       <c r="H219" s="3" t="s">
-        <v>411</v>
+        <v>536</v>
       </c>
       <c r="I219" s="3" t="s">
-        <v>19</v>
+        <v>545</v>
       </c>
       <c r="J219" t="s">
-        <v>386</v>
+        <v>373</v>
       </c>
     </row>
     <row r="220" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A220" s="3" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="B220" s="3">
         <f t="shared" si="3"/>
@@ -10166,18 +10276,18 @@
         <v>0</v>
       </c>
       <c r="H220" s="3" t="s">
-        <v>411</v>
+        <v>536</v>
       </c>
       <c r="I220" s="3" t="s">
-        <v>19</v>
+        <v>545</v>
       </c>
       <c r="J220" t="s">
-        <v>386</v>
+        <v>373</v>
       </c>
     </row>
     <row r="221" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A221" s="3" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="B221" s="3">
         <f t="shared" si="3"/>
@@ -10199,18 +10309,18 @@
         <v>0</v>
       </c>
       <c r="H221" s="3" t="s">
-        <v>420</v>
+        <v>524</v>
       </c>
       <c r="I221" s="3" t="s">
-        <v>424</v>
+        <v>527</v>
       </c>
       <c r="J221" t="s">
-        <v>386</v>
+        <v>373</v>
       </c>
     </row>
     <row r="222" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A222" s="3" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="B222" s="3">
         <f t="shared" si="3"/>
@@ -10232,18 +10342,18 @@
         <v>0</v>
       </c>
       <c r="H222" s="3" t="s">
-        <v>371</v>
+        <v>524</v>
       </c>
       <c r="I222" s="3" t="s">
-        <v>19</v>
+        <v>535</v>
       </c>
       <c r="J222" t="s">
-        <v>386</v>
+        <v>373</v>
       </c>
     </row>
     <row r="223" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A223" s="3" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="B223" s="3">
         <f t="shared" si="3"/>
@@ -10265,18 +10375,18 @@
         <v>7</v>
       </c>
       <c r="H223" s="3" t="s">
-        <v>371</v>
+        <v>524</v>
       </c>
       <c r="I223" s="3" t="s">
-        <v>19</v>
+        <v>535</v>
       </c>
       <c r="J223" t="s">
-        <v>386</v>
+        <v>373</v>
       </c>
     </row>
     <row r="224" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A224" s="3" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="B224" s="3">
         <f t="shared" si="3"/>
@@ -10298,18 +10408,18 @@
         <v>8</v>
       </c>
       <c r="H224" s="3" t="s">
-        <v>371</v>
+        <v>524</v>
       </c>
       <c r="I224" s="3" t="s">
-        <v>19</v>
+        <v>535</v>
       </c>
       <c r="J224" t="s">
-        <v>386</v>
+        <v>373</v>
       </c>
     </row>
     <row r="225" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A225" s="3" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="B225" s="3">
         <f t="shared" si="3"/>
@@ -10331,18 +10441,18 @@
         <v>0</v>
       </c>
       <c r="H225" s="3" t="s">
-        <v>371</v>
+        <v>549</v>
       </c>
       <c r="I225" s="3" t="s">
-        <v>428</v>
+        <v>550</v>
       </c>
       <c r="J225" t="s">
-        <v>386</v>
+        <v>373</v>
       </c>
     </row>
     <row r="226" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A226" s="3" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="B226" s="3">
         <f t="shared" si="3"/>
@@ -10364,18 +10474,18 @@
         <v>0</v>
       </c>
       <c r="H226" s="3" t="s">
-        <v>371</v>
+        <v>549</v>
       </c>
       <c r="I226" s="3" t="s">
-        <v>428</v>
+        <v>550</v>
       </c>
       <c r="J226" t="s">
-        <v>386</v>
+        <v>373</v>
       </c>
     </row>
     <row r="227" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A227" s="3" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="B227" s="3">
         <f t="shared" si="3"/>
@@ -10397,18 +10507,18 @@
         <v>0</v>
       </c>
       <c r="H227" s="3" t="s">
-        <v>371</v>
+        <v>549</v>
       </c>
       <c r="I227" s="3" t="s">
-        <v>428</v>
+        <v>550</v>
       </c>
       <c r="J227" t="s">
-        <v>386</v>
+        <v>373</v>
       </c>
     </row>
     <row r="228" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A228" s="3" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="B228" s="3">
         <f t="shared" si="3"/>
@@ -10430,18 +10540,18 @@
         <v>0</v>
       </c>
       <c r="H228" s="3" t="s">
-        <v>371</v>
+        <v>549</v>
       </c>
       <c r="I228" s="3" t="s">
-        <v>428</v>
+        <v>550</v>
       </c>
       <c r="J228" t="s">
-        <v>386</v>
+        <v>373</v>
       </c>
     </row>
     <row r="229" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A229" s="3" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="B229" s="3">
         <f t="shared" si="3"/>
@@ -10463,18 +10573,18 @@
         <v>0</v>
       </c>
       <c r="H229" s="3" t="s">
-        <v>371</v>
+        <v>549</v>
       </c>
       <c r="I229" s="3" t="s">
-        <v>428</v>
+        <v>550</v>
       </c>
       <c r="J229" t="s">
-        <v>386</v>
+        <v>373</v>
       </c>
     </row>
     <row r="230" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A230" s="3" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="B230" s="3">
         <f t="shared" si="3"/>
@@ -10496,18 +10606,18 @@
         <v>0</v>
       </c>
       <c r="H230" s="3" t="s">
-        <v>371</v>
+        <v>549</v>
       </c>
       <c r="I230" s="3" t="s">
-        <v>428</v>
+        <v>550</v>
       </c>
       <c r="J230" t="s">
-        <v>386</v>
+        <v>373</v>
       </c>
     </row>
     <row r="231" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A231" s="3" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="B231" s="3">
         <f t="shared" si="3"/>
@@ -10529,18 +10639,18 @@
         <v>0</v>
       </c>
       <c r="H231" s="3" t="s">
-        <v>371</v>
+        <v>549</v>
       </c>
       <c r="I231" s="3" t="s">
-        <v>428</v>
+        <v>550</v>
       </c>
       <c r="J231" t="s">
-        <v>386</v>
+        <v>373</v>
       </c>
     </row>
     <row r="232" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A232" s="3" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="B232" s="3">
         <f t="shared" si="3"/>
@@ -10562,18 +10672,18 @@
         <v>10</v>
       </c>
       <c r="H232" s="3" t="s">
-        <v>371</v>
+        <v>549</v>
       </c>
       <c r="I232" s="3" t="s">
-        <v>428</v>
+        <v>550</v>
       </c>
       <c r="J232" t="s">
-        <v>386</v>
+        <v>373</v>
       </c>
     </row>
     <row r="233" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A233" s="3" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="B233" s="3">
         <f t="shared" si="3"/>
@@ -10595,18 +10705,18 @@
         <v>0</v>
       </c>
       <c r="H233" s="3" t="s">
-        <v>371</v>
+        <v>549</v>
       </c>
       <c r="I233" s="3" t="s">
-        <v>428</v>
+        <v>550</v>
       </c>
       <c r="J233" t="s">
-        <v>386</v>
+        <v>373</v>
       </c>
     </row>
     <row r="234" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A234" s="3" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="B234" s="3">
         <f t="shared" si="3"/>
@@ -10628,18 +10738,18 @@
         <v>0</v>
       </c>
       <c r="H234" s="3" t="s">
-        <v>371</v>
+        <v>524</v>
       </c>
       <c r="I234" s="3" t="s">
-        <v>19</v>
+        <v>534</v>
       </c>
       <c r="J234" t="s">
-        <v>386</v>
+        <v>373</v>
       </c>
     </row>
     <row r="235" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A235" s="3" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="B235" s="3">
         <f t="shared" si="3"/>
@@ -10661,18 +10771,18 @@
         <v>0</v>
       </c>
       <c r="H235" s="3" t="s">
-        <v>411</v>
+        <v>506</v>
       </c>
       <c r="I235" s="3" t="s">
-        <v>419</v>
+        <v>540</v>
       </c>
       <c r="J235" t="s">
-        <v>386</v>
+        <v>373</v>
       </c>
     </row>
     <row r="236" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A236" s="3" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="B236" s="3">
         <f t="shared" si="3"/>
@@ -10694,18 +10804,18 @@
         <v>0</v>
       </c>
       <c r="H236" s="3" t="s">
-        <v>411</v>
+        <v>506</v>
       </c>
       <c r="I236" s="3" t="s">
-        <v>419</v>
+        <v>540</v>
       </c>
       <c r="J236" t="s">
-        <v>386</v>
+        <v>373</v>
       </c>
     </row>
     <row r="237" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A237" s="3" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B237" s="3">
         <f t="shared" si="3"/>
@@ -10727,18 +10837,18 @@
         <v>0</v>
       </c>
       <c r="H237" s="3" t="s">
-        <v>411</v>
+        <v>506</v>
       </c>
       <c r="I237" s="3" t="s">
-        <v>419</v>
+        <v>540</v>
       </c>
       <c r="J237" t="s">
-        <v>386</v>
+        <v>373</v>
       </c>
     </row>
     <row r="238" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A238" s="3" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B238" s="3">
         <f t="shared" si="3"/>
@@ -10760,18 +10870,18 @@
         <v>0</v>
       </c>
       <c r="H238" s="3" t="s">
-        <v>411</v>
+        <v>506</v>
       </c>
       <c r="I238" s="3" t="s">
-        <v>419</v>
+        <v>540</v>
       </c>
       <c r="J238" t="s">
-        <v>386</v>
+        <v>373</v>
       </c>
     </row>
     <row r="239" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A239" s="3" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="B239" s="3">
         <f t="shared" si="3"/>
@@ -10793,18 +10903,18 @@
         <v>0</v>
       </c>
       <c r="H239" s="3" t="s">
-        <v>371</v>
+        <v>518</v>
       </c>
       <c r="I239" s="3" t="s">
-        <v>19</v>
+        <v>519</v>
       </c>
       <c r="J239" t="s">
-        <v>386</v>
+        <v>373</v>
       </c>
     </row>
     <row r="240" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A240" s="3" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="B240" s="3">
         <f t="shared" si="3"/>
@@ -10826,18 +10936,18 @@
         <v>0</v>
       </c>
       <c r="H240" s="3" t="s">
-        <v>371</v>
+        <v>518</v>
       </c>
       <c r="I240" s="3" t="s">
-        <v>19</v>
+        <v>519</v>
       </c>
       <c r="J240" t="s">
-        <v>386</v>
+        <v>373</v>
       </c>
     </row>
     <row r="241" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A241" s="3" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="B241" s="3">
         <f t="shared" si="3"/>
@@ -10859,18 +10969,18 @@
         <v>0</v>
       </c>
       <c r="H241" s="3" t="s">
-        <v>371</v>
+        <v>518</v>
       </c>
       <c r="I241" s="3" t="s">
-        <v>19</v>
+        <v>519</v>
       </c>
       <c r="J241" t="s">
-        <v>386</v>
+        <v>373</v>
       </c>
     </row>
     <row r="242" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A242" s="3" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="B242" s="3">
         <f t="shared" si="3"/>
@@ -10892,18 +11002,18 @@
         <v>0</v>
       </c>
       <c r="H242" s="3" t="s">
-        <v>371</v>
+        <v>518</v>
       </c>
       <c r="I242" s="3" t="s">
-        <v>19</v>
+        <v>519</v>
       </c>
       <c r="J242" t="s">
-        <v>386</v>
+        <v>373</v>
       </c>
     </row>
     <row r="243" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A243" s="3" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="B243" s="3">
         <f t="shared" si="3"/>
@@ -10925,18 +11035,18 @@
         <v>0</v>
       </c>
       <c r="H243" s="3" t="s">
-        <v>371</v>
+        <v>518</v>
       </c>
       <c r="I243" s="3" t="s">
-        <v>19</v>
+        <v>519</v>
       </c>
       <c r="J243" t="s">
-        <v>386</v>
+        <v>373</v>
       </c>
     </row>
     <row r="244" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A244" s="3" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="B244" s="3">
         <f t="shared" si="3"/>
@@ -10958,18 +11068,18 @@
         <v>0</v>
       </c>
       <c r="H244" s="3" t="s">
-        <v>371</v>
+        <v>518</v>
       </c>
       <c r="I244" s="3" t="s">
-        <v>19</v>
+        <v>519</v>
       </c>
       <c r="J244" t="s">
-        <v>386</v>
+        <v>373</v>
       </c>
     </row>
     <row r="245" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A245" s="3" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="B245" s="3">
         <f t="shared" si="3"/>
@@ -10991,18 +11101,18 @@
         <v>0</v>
       </c>
       <c r="H245" s="3" t="s">
-        <v>371</v>
+        <v>518</v>
       </c>
       <c r="I245" s="3" t="s">
-        <v>19</v>
+        <v>519</v>
       </c>
       <c r="J245" t="s">
-        <v>386</v>
+        <v>373</v>
       </c>
     </row>
     <row r="246" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A246" s="3" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="B246" s="3">
         <f t="shared" si="3"/>
@@ -11024,18 +11134,18 @@
         <v>0</v>
       </c>
       <c r="H246" s="3" t="s">
-        <v>371</v>
+        <v>518</v>
       </c>
       <c r="I246" s="3" t="s">
-        <v>19</v>
+        <v>519</v>
       </c>
       <c r="J246" t="s">
-        <v>386</v>
+        <v>373</v>
       </c>
     </row>
     <row r="247" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A247" s="3" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="B247" s="3">
         <f t="shared" si="3"/>
@@ -11057,18 +11167,18 @@
         <v>9</v>
       </c>
       <c r="H247" s="3" t="s">
-        <v>371</v>
+        <v>518</v>
       </c>
       <c r="I247" s="3" t="s">
-        <v>19</v>
+        <v>519</v>
       </c>
       <c r="J247" t="s">
-        <v>386</v>
+        <v>373</v>
       </c>
     </row>
     <row r="248" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A248" s="3" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="B248" s="3">
         <f t="shared" si="3"/>
@@ -11090,18 +11200,18 @@
         <v>0</v>
       </c>
       <c r="H248" s="3" t="s">
-        <v>371</v>
+        <v>506</v>
       </c>
       <c r="I248" s="3" t="s">
-        <v>19</v>
+        <v>541</v>
       </c>
       <c r="J248" t="s">
-        <v>386</v>
+        <v>373</v>
       </c>
     </row>
     <row r="249" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A249" s="3" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="B249" s="3">
         <f t="shared" si="3"/>
@@ -11123,18 +11233,18 @@
         <v>0</v>
       </c>
       <c r="H249" s="3" t="s">
-        <v>371</v>
+        <v>506</v>
       </c>
       <c r="I249" s="3" t="s">
-        <v>19</v>
+        <v>541</v>
       </c>
       <c r="J249" t="s">
-        <v>386</v>
+        <v>373</v>
       </c>
     </row>
     <row r="250" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A250" s="3" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="B250" s="3">
         <f t="shared" si="3"/>
@@ -11156,18 +11266,18 @@
         <v>0</v>
       </c>
       <c r="H250" s="3" t="s">
-        <v>371</v>
+        <v>506</v>
       </c>
       <c r="I250" s="3" t="s">
-        <v>19</v>
+        <v>541</v>
       </c>
       <c r="J250" t="s">
-        <v>386</v>
+        <v>373</v>
       </c>
     </row>
     <row r="251" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A251" s="3" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="B251" s="3">
         <f t="shared" si="3"/>
@@ -11189,18 +11299,18 @@
         <v>0</v>
       </c>
       <c r="H251" s="3" t="s">
-        <v>371</v>
+        <v>506</v>
       </c>
       <c r="I251" s="3" t="s">
-        <v>19</v>
+        <v>541</v>
       </c>
       <c r="J251" t="s">
-        <v>386</v>
+        <v>373</v>
       </c>
     </row>
     <row r="252" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A252" s="3" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="B252" s="3">
         <f t="shared" si="3"/>
@@ -11222,18 +11332,18 @@
         <v>0</v>
       </c>
       <c r="H252" s="3" t="s">
-        <v>371</v>
+        <v>506</v>
       </c>
       <c r="I252" s="3" t="s">
-        <v>19</v>
+        <v>541</v>
       </c>
       <c r="J252" t="s">
-        <v>386</v>
+        <v>373</v>
       </c>
     </row>
     <row r="253" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A253" s="3" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="B253" s="3">
         <f t="shared" si="3"/>
@@ -11255,18 +11365,18 @@
         <v>0</v>
       </c>
       <c r="H253" s="3" t="s">
-        <v>371</v>
+        <v>506</v>
       </c>
       <c r="I253" s="3" t="s">
-        <v>19</v>
+        <v>541</v>
       </c>
       <c r="J253" t="s">
-        <v>386</v>
+        <v>373</v>
       </c>
     </row>
     <row r="254" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A254" s="3" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="B254" s="3">
         <f t="shared" si="3"/>
@@ -11288,18 +11398,18 @@
         <v>0</v>
       </c>
       <c r="H254" s="3" t="s">
-        <v>371</v>
+        <v>506</v>
       </c>
       <c r="I254" s="3" t="s">
-        <v>19</v>
+        <v>541</v>
       </c>
       <c r="J254" t="s">
-        <v>386</v>
+        <v>373</v>
       </c>
     </row>
     <row r="255" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A255" s="3" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="B255" s="3">
         <f t="shared" si="3"/>
@@ -11321,18 +11431,18 @@
         <v>0</v>
       </c>
       <c r="H255" s="3" t="s">
-        <v>371</v>
+        <v>506</v>
       </c>
       <c r="I255" s="3" t="s">
-        <v>19</v>
+        <v>541</v>
       </c>
       <c r="J255" t="s">
-        <v>386</v>
+        <v>373</v>
       </c>
     </row>
     <row r="256" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A256" s="3" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="B256" s="3">
         <f t="shared" si="3"/>
@@ -11354,18 +11464,18 @@
         <v>0</v>
       </c>
       <c r="H256" s="3" t="s">
-        <v>371</v>
+        <v>506</v>
       </c>
       <c r="I256" s="3" t="s">
-        <v>19</v>
+        <v>541</v>
       </c>
       <c r="J256" t="s">
-        <v>386</v>
+        <v>373</v>
       </c>
     </row>
     <row r="257" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A257" s="3" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="B257" s="3">
         <f t="shared" si="3"/>
@@ -11387,18 +11497,18 @@
         <v>0</v>
       </c>
       <c r="H257" s="3" t="s">
-        <v>371</v>
+        <v>506</v>
       </c>
       <c r="I257" s="3" t="s">
-        <v>19</v>
+        <v>541</v>
       </c>
       <c r="J257" t="s">
-        <v>386</v>
+        <v>373</v>
       </c>
     </row>
     <row r="258" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A258" s="3" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="B258" s="3">
         <f t="shared" si="3"/>
@@ -11420,18 +11530,18 @@
         <v>0</v>
       </c>
       <c r="H258" s="3" t="s">
-        <v>371</v>
+        <v>506</v>
       </c>
       <c r="I258" s="3" t="s">
-        <v>19</v>
+        <v>541</v>
       </c>
       <c r="J258" t="s">
-        <v>386</v>
+        <v>373</v>
       </c>
     </row>
     <row r="259" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A259" s="3" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="B259" s="3">
         <f t="shared" ref="B259:B289" si="4">E259</f>
@@ -11453,18 +11563,18 @@
         <v>0</v>
       </c>
       <c r="H259" s="3" t="s">
-        <v>371</v>
+        <v>506</v>
       </c>
       <c r="I259" s="3" t="s">
-        <v>19</v>
+        <v>541</v>
       </c>
       <c r="J259" t="s">
-        <v>386</v>
+        <v>373</v>
       </c>
     </row>
     <row r="260" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A260" s="3" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="B260" s="3">
         <f t="shared" si="4"/>
@@ -11486,18 +11596,18 @@
         <v>0</v>
       </c>
       <c r="H260" s="3" t="s">
-        <v>371</v>
+        <v>506</v>
       </c>
       <c r="I260" s="3" t="s">
-        <v>19</v>
+        <v>541</v>
       </c>
       <c r="J260" t="s">
-        <v>386</v>
+        <v>373</v>
       </c>
     </row>
     <row r="261" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A261" s="3" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="B261" s="3">
         <f t="shared" si="4"/>
@@ -11519,18 +11629,18 @@
         <v>0</v>
       </c>
       <c r="H261" s="3" t="s">
-        <v>371</v>
+        <v>506</v>
       </c>
       <c r="I261" s="3" t="s">
-        <v>19</v>
+        <v>541</v>
       </c>
       <c r="J261" t="s">
-        <v>386</v>
+        <v>373</v>
       </c>
     </row>
     <row r="262" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A262" s="3" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="B262" s="3">
         <f t="shared" si="4"/>
@@ -11552,18 +11662,18 @@
         <v>0</v>
       </c>
       <c r="H262" s="3" t="s">
-        <v>371</v>
+        <v>506</v>
       </c>
       <c r="I262" s="3" t="s">
-        <v>19</v>
+        <v>541</v>
       </c>
       <c r="J262" t="s">
-        <v>386</v>
+        <v>373</v>
       </c>
     </row>
     <row r="263" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A263" s="3" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="B263" s="3">
         <f t="shared" si="4"/>
@@ -11585,18 +11695,18 @@
         <v>0</v>
       </c>
       <c r="H263" s="3" t="s">
-        <v>371</v>
+        <v>506</v>
       </c>
       <c r="I263" s="3" t="s">
-        <v>19</v>
+        <v>541</v>
       </c>
       <c r="J263" t="s">
-        <v>386</v>
+        <v>373</v>
       </c>
     </row>
     <row r="264" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A264" s="3" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="B264" s="3">
         <f t="shared" si="4"/>
@@ -11618,18 +11728,18 @@
         <v>0</v>
       </c>
       <c r="H264" s="3" t="s">
-        <v>371</v>
+        <v>506</v>
       </c>
       <c r="I264" s="3" t="s">
-        <v>19</v>
+        <v>541</v>
       </c>
       <c r="J264" t="s">
-        <v>386</v>
+        <v>373</v>
       </c>
     </row>
     <row r="265" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A265" s="3" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="B265" s="3">
         <f t="shared" si="4"/>
@@ -11651,18 +11761,18 @@
         <v>0</v>
       </c>
       <c r="H265" s="3" t="s">
-        <v>371</v>
+        <v>506</v>
       </c>
       <c r="I265" s="3" t="s">
-        <v>19</v>
+        <v>541</v>
       </c>
       <c r="J265" t="s">
-        <v>386</v>
+        <v>373</v>
       </c>
     </row>
     <row r="266" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A266" s="3" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="B266" s="3">
         <f t="shared" si="4"/>
@@ -11684,18 +11794,18 @@
         <v>0</v>
       </c>
       <c r="H266" s="3" t="s">
-        <v>371</v>
+        <v>506</v>
       </c>
       <c r="I266" s="3" t="s">
-        <v>19</v>
+        <v>541</v>
       </c>
       <c r="J266" t="s">
-        <v>386</v>
+        <v>373</v>
       </c>
     </row>
     <row r="267" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A267" s="3" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="B267" s="3">
         <f t="shared" si="4"/>
@@ -11717,18 +11827,18 @@
         <v>0</v>
       </c>
       <c r="H267" s="3" t="s">
-        <v>371</v>
+        <v>506</v>
       </c>
       <c r="I267" s="3" t="s">
-        <v>19</v>
+        <v>541</v>
       </c>
       <c r="J267" t="s">
-        <v>386</v>
+        <v>373</v>
       </c>
     </row>
     <row r="268" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A268" s="3" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="B268" s="3">
         <f t="shared" si="4"/>
@@ -11750,18 +11860,18 @@
         <v>0</v>
       </c>
       <c r="H268" s="3" t="s">
-        <v>371</v>
+        <v>524</v>
       </c>
       <c r="I268" s="3" t="s">
-        <v>19</v>
+        <v>531</v>
       </c>
       <c r="J268" t="s">
-        <v>386</v>
+        <v>373</v>
       </c>
     </row>
     <row r="269" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A269" s="3" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="B269" s="3">
         <f t="shared" si="4"/>
@@ -11783,18 +11893,18 @@
         <v>0</v>
       </c>
       <c r="H269" s="3" t="s">
-        <v>371</v>
+        <v>524</v>
       </c>
       <c r="I269" s="3" t="s">
-        <v>19</v>
+        <v>533</v>
       </c>
       <c r="J269" t="s">
-        <v>386</v>
+        <v>373</v>
       </c>
     </row>
     <row r="270" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A270" s="3" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="B270" s="3">
         <f t="shared" si="4"/>
@@ -11816,18 +11926,18 @@
         <v>0</v>
       </c>
       <c r="H270" s="3" t="s">
-        <v>371</v>
+        <v>524</v>
       </c>
       <c r="I270" s="3" t="s">
-        <v>19</v>
+        <v>533</v>
       </c>
       <c r="J270" t="s">
-        <v>386</v>
+        <v>373</v>
       </c>
     </row>
     <row r="271" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A271" s="3" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="B271" s="3">
         <f t="shared" si="4"/>
@@ -11849,18 +11959,18 @@
         <v>0</v>
       </c>
       <c r="H271" s="3" t="s">
-        <v>371</v>
+        <v>524</v>
       </c>
       <c r="I271" s="3" t="s">
-        <v>19</v>
+        <v>533</v>
       </c>
       <c r="J271" t="s">
-        <v>386</v>
+        <v>373</v>
       </c>
     </row>
     <row r="272" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A272" s="3" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="B272" s="3">
         <f t="shared" si="4"/>
@@ -11882,18 +11992,18 @@
         <v>0</v>
       </c>
       <c r="H272" s="3" t="s">
-        <v>371</v>
+        <v>524</v>
       </c>
       <c r="I272" s="3" t="s">
-        <v>19</v>
+        <v>533</v>
       </c>
       <c r="J272" t="s">
-        <v>386</v>
+        <v>373</v>
       </c>
     </row>
     <row r="273" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A273" s="3" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="B273" s="3">
         <f t="shared" si="4"/>
@@ -11915,18 +12025,18 @@
         <v>0</v>
       </c>
       <c r="H273" s="3" t="s">
-        <v>371</v>
+        <v>524</v>
       </c>
       <c r="I273" s="3" t="s">
-        <v>19</v>
+        <v>531</v>
       </c>
       <c r="J273" t="s">
-        <v>386</v>
+        <v>373</v>
       </c>
     </row>
     <row r="274" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A274" s="3" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="B274" s="3">
         <f t="shared" si="4"/>
@@ -11948,18 +12058,18 @@
         <v>0</v>
       </c>
       <c r="H274" s="3" t="s">
-        <v>371</v>
+        <v>524</v>
       </c>
       <c r="I274" s="3" t="s">
-        <v>19</v>
+        <v>533</v>
       </c>
       <c r="J274" t="s">
-        <v>386</v>
+        <v>373</v>
       </c>
     </row>
     <row r="275" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A275" s="3" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="B275" s="3">
         <f t="shared" si="4"/>
@@ -11981,18 +12091,18 @@
         <v>0</v>
       </c>
       <c r="H275" s="3" t="s">
-        <v>371</v>
+        <v>524</v>
       </c>
       <c r="I275" s="3" t="s">
-        <v>19</v>
+        <v>533</v>
       </c>
       <c r="J275" t="s">
-        <v>386</v>
+        <v>373</v>
       </c>
     </row>
     <row r="276" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A276" s="3" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="B276" s="3">
         <f t="shared" si="4"/>
@@ -12014,18 +12124,18 @@
         <v>0</v>
       </c>
       <c r="H276" s="3" t="s">
-        <v>371</v>
+        <v>524</v>
       </c>
       <c r="I276" s="3" t="s">
-        <v>19</v>
+        <v>533</v>
       </c>
       <c r="J276" t="s">
-        <v>386</v>
+        <v>373</v>
       </c>
     </row>
     <row r="277" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A277" s="3" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="B277" s="3">
         <f t="shared" si="4"/>
@@ -12047,18 +12157,18 @@
         <v>0</v>
       </c>
       <c r="H277" s="3" t="s">
-        <v>371</v>
+        <v>524</v>
       </c>
       <c r="I277" s="3" t="s">
-        <v>19</v>
+        <v>533</v>
       </c>
       <c r="J277" t="s">
-        <v>386</v>
+        <v>373</v>
       </c>
     </row>
     <row r="278" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A278" s="3" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="B278" s="3">
         <f t="shared" si="4"/>
@@ -12080,18 +12190,18 @@
         <v>0</v>
       </c>
       <c r="H278" s="3" t="s">
-        <v>371</v>
+        <v>536</v>
       </c>
       <c r="I278" s="3" t="s">
-        <v>19</v>
+        <v>539</v>
       </c>
       <c r="J278" t="s">
-        <v>386</v>
+        <v>373</v>
       </c>
     </row>
     <row r="279" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A279" s="3" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="B279" s="3">
         <f t="shared" si="4"/>
@@ -12113,18 +12223,18 @@
         <v>0</v>
       </c>
       <c r="H279" s="3" t="s">
-        <v>371</v>
+        <v>536</v>
       </c>
       <c r="I279" s="3" t="s">
-        <v>19</v>
+        <v>539</v>
       </c>
       <c r="J279" t="s">
-        <v>386</v>
+        <v>373</v>
       </c>
     </row>
     <row r="280" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A280" s="3" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="B280" s="3">
         <f t="shared" si="4"/>
@@ -12146,18 +12256,18 @@
         <v>0</v>
       </c>
       <c r="H280" s="3" t="s">
-        <v>371</v>
+        <v>536</v>
       </c>
       <c r="I280" s="3" t="s">
-        <v>19</v>
+        <v>545</v>
       </c>
       <c r="J280" t="s">
-        <v>386</v>
+        <v>373</v>
       </c>
     </row>
     <row r="281" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A281" s="3" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="B281" s="3">
         <f t="shared" si="4"/>
@@ -12179,18 +12289,18 @@
         <v>0</v>
       </c>
       <c r="H281" s="3" t="s">
-        <v>371</v>
+        <v>536</v>
       </c>
       <c r="I281" s="3" t="s">
-        <v>19</v>
+        <v>545</v>
       </c>
       <c r="J281" t="s">
-        <v>386</v>
+        <v>373</v>
       </c>
     </row>
     <row r="282" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A282" s="3" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="B282" s="3">
         <f t="shared" si="4"/>
@@ -12212,18 +12322,18 @@
         <v>0</v>
       </c>
       <c r="H282" s="3" t="s">
-        <v>371</v>
+        <v>536</v>
       </c>
       <c r="I282" s="3" t="s">
-        <v>19</v>
+        <v>545</v>
       </c>
       <c r="J282" t="s">
-        <v>386</v>
+        <v>373</v>
       </c>
     </row>
     <row r="283" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A283" s="3" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="B283" s="3">
         <f t="shared" si="4"/>
@@ -12245,18 +12355,18 @@
         <v>0</v>
       </c>
       <c r="H283" s="3" t="s">
-        <v>371</v>
+        <v>536</v>
       </c>
       <c r="I283" s="3" t="s">
-        <v>19</v>
+        <v>545</v>
       </c>
       <c r="J283" t="s">
-        <v>386</v>
+        <v>373</v>
       </c>
     </row>
     <row r="284" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A284" s="3" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="B284" s="3">
         <f t="shared" si="4"/>
@@ -12278,18 +12388,18 @@
         <v>0</v>
       </c>
       <c r="H284" s="3" t="s">
-        <v>371</v>
+        <v>536</v>
       </c>
       <c r="I284" s="3" t="s">
-        <v>19</v>
+        <v>545</v>
       </c>
       <c r="J284" t="s">
-        <v>386</v>
+        <v>373</v>
       </c>
     </row>
     <row r="285" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A285" s="3" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="B285" s="3">
         <f t="shared" si="4"/>
@@ -12311,22 +12421,22 @@
         <v>0</v>
       </c>
       <c r="H285" s="3" t="s">
-        <v>371</v>
+        <v>512</v>
       </c>
       <c r="I285" s="3" t="s">
-        <v>19</v>
+        <v>397</v>
       </c>
       <c r="J285" t="s">
-        <v>386</v>
+        <v>373</v>
       </c>
     </row>
     <row r="286" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A286" s="3" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="B286" s="3">
         <f t="shared" si="4"/>
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C286" s="3">
         <v>20</v>
@@ -12335,7 +12445,7 @@
         <v>1</v>
       </c>
       <c r="E286" s="3">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F286" s="3">
         <v>0</v>
@@ -12344,31 +12454,31 @@
         <v>0</v>
       </c>
       <c r="H286" s="3" t="s">
-        <v>371</v>
+        <v>512</v>
       </c>
       <c r="I286" s="3" t="s">
-        <v>19</v>
+        <v>397</v>
       </c>
       <c r="J286" t="s">
-        <v>386</v>
+        <v>373</v>
       </c>
     </row>
     <row r="287" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A287" s="3" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="B287" s="3">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C287" s="3">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="D287" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E287" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F287" s="3">
         <v>0</v>
@@ -12377,31 +12487,31 @@
         <v>0</v>
       </c>
       <c r="H287" s="3" t="s">
-        <v>371</v>
+        <v>512</v>
       </c>
       <c r="I287" s="3" t="s">
-        <v>19</v>
+        <v>397</v>
       </c>
       <c r="J287" t="s">
-        <v>386</v>
+        <v>373</v>
       </c>
     </row>
     <row r="288" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A288" s="3" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="B288" s="3">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C288" s="3">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="D288" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E288" s="3">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F288" s="3">
         <v>0</v>
@@ -12410,18 +12520,18 @@
         <v>0</v>
       </c>
       <c r="H288" s="3" t="s">
-        <v>371</v>
+        <v>512</v>
       </c>
       <c r="I288" s="3" t="s">
-        <v>19</v>
+        <v>397</v>
       </c>
       <c r="J288" t="s">
-        <v>386</v>
+        <v>373</v>
       </c>
     </row>
     <row r="289" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A289" s="3" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="B289" s="3">
         <f t="shared" si="4"/>
@@ -12443,18 +12553,18 @@
         <v>11</v>
       </c>
       <c r="H289" s="3" t="s">
-        <v>420</v>
+        <v>536</v>
       </c>
       <c r="I289" s="3" t="s">
-        <v>419</v>
+        <v>545</v>
       </c>
     </row>
     <row r="290" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A290" s="3" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="B290" s="3">
-        <f t="shared" ref="B290:B348" si="5">E290</f>
+        <f t="shared" ref="B290:B353" si="5">E290</f>
         <v>10</v>
       </c>
       <c r="C290" s="3">
@@ -12473,15 +12583,15 @@
         <v>11</v>
       </c>
       <c r="H290" s="3" t="s">
-        <v>420</v>
+        <v>536</v>
       </c>
       <c r="I290" s="3" t="s">
-        <v>419</v>
+        <v>545</v>
       </c>
     </row>
     <row r="291" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A291" s="3" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="B291" s="3">
         <f t="shared" si="5"/>
@@ -12503,15 +12613,15 @@
         <v>11</v>
       </c>
       <c r="H291" s="3" t="s">
-        <v>420</v>
+        <v>536</v>
       </c>
       <c r="I291" s="3" t="s">
-        <v>419</v>
+        <v>545</v>
       </c>
     </row>
     <row r="292" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A292" s="3" t="s">
-        <v>436</v>
+        <v>409</v>
       </c>
       <c r="B292" s="3">
         <f t="shared" si="5"/>
@@ -12533,15 +12643,15 @@
         <v>11</v>
       </c>
       <c r="H292" s="3" t="s">
-        <v>420</v>
+        <v>536</v>
       </c>
       <c r="I292" s="3" t="s">
-        <v>419</v>
+        <v>545</v>
       </c>
     </row>
     <row r="293" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A293" s="3" t="s">
-        <v>437</v>
+        <v>410</v>
       </c>
       <c r="B293" s="3">
         <f t="shared" si="5"/>
@@ -12563,15 +12673,15 @@
         <v>11</v>
       </c>
       <c r="H293" s="3" t="s">
-        <v>420</v>
+        <v>536</v>
       </c>
       <c r="I293" s="3" t="s">
-        <v>419</v>
+        <v>545</v>
       </c>
     </row>
     <row r="294" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A294" s="3" t="s">
-        <v>438</v>
+        <v>411</v>
       </c>
       <c r="B294" s="3">
         <f t="shared" si="5"/>
@@ -12593,15 +12703,15 @@
         <v>11</v>
       </c>
       <c r="H294" s="3" t="s">
-        <v>420</v>
+        <v>536</v>
       </c>
       <c r="I294" s="3" t="s">
-        <v>419</v>
+        <v>545</v>
       </c>
     </row>
     <row r="295" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A295" s="3" t="s">
-        <v>439</v>
+        <v>412</v>
       </c>
       <c r="B295" s="3">
         <f t="shared" si="5"/>
@@ -12623,15 +12733,15 @@
         <v>11</v>
       </c>
       <c r="H295" s="3" t="s">
-        <v>420</v>
+        <v>536</v>
       </c>
       <c r="I295" s="3" t="s">
-        <v>419</v>
+        <v>545</v>
       </c>
     </row>
     <row r="296" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A296" s="3" t="s">
-        <v>440</v>
+        <v>413</v>
       </c>
       <c r="B296" s="3">
         <f t="shared" si="5"/>
@@ -12653,15 +12763,15 @@
         <v>11</v>
       </c>
       <c r="H296" s="3" t="s">
-        <v>420</v>
+        <v>536</v>
       </c>
       <c r="I296" s="3" t="s">
-        <v>419</v>
+        <v>545</v>
       </c>
     </row>
     <row r="297" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A297" s="3" t="s">
-        <v>441</v>
+        <v>414</v>
       </c>
       <c r="B297" s="3">
         <f t="shared" si="5"/>
@@ -12683,15 +12793,15 @@
         <v>11</v>
       </c>
       <c r="H297" s="3" t="s">
-        <v>420</v>
+        <v>536</v>
       </c>
       <c r="I297" s="3" t="s">
-        <v>419</v>
+        <v>545</v>
       </c>
     </row>
     <row r="298" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A298" s="3" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="B298" s="3">
         <f t="shared" si="5"/>
@@ -12713,15 +12823,15 @@
         <v>0</v>
       </c>
       <c r="H298" s="3" t="s">
-        <v>420</v>
+        <v>536</v>
       </c>
       <c r="I298" s="3" t="s">
-        <v>419</v>
+        <v>545</v>
       </c>
     </row>
     <row r="299" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A299" s="3" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="B299" s="3">
         <f t="shared" si="5"/>
@@ -12743,15 +12853,15 @@
         <v>0</v>
       </c>
       <c r="H299" s="3" t="s">
-        <v>420</v>
+        <v>536</v>
       </c>
       <c r="I299" s="3" t="s">
-        <v>419</v>
+        <v>545</v>
       </c>
     </row>
     <row r="300" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A300" s="3" t="s">
-        <v>442</v>
+        <v>415</v>
       </c>
       <c r="B300" s="3">
         <f t="shared" si="5"/>
@@ -12773,15 +12883,15 @@
         <v>0</v>
       </c>
       <c r="H300" s="3" t="s">
-        <v>420</v>
+        <v>536</v>
       </c>
       <c r="I300" s="3" t="s">
-        <v>419</v>
+        <v>545</v>
       </c>
     </row>
     <row r="301" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A301" s="3" t="s">
-        <v>443</v>
+        <v>416</v>
       </c>
       <c r="B301" s="3">
         <f t="shared" si="5"/>
@@ -12803,15 +12913,15 @@
         <v>0</v>
       </c>
       <c r="H301" s="3" t="s">
-        <v>420</v>
+        <v>536</v>
       </c>
       <c r="I301" s="3" t="s">
-        <v>419</v>
+        <v>545</v>
       </c>
     </row>
     <row r="302" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A302" s="3" t="s">
-        <v>444</v>
+        <v>417</v>
       </c>
       <c r="B302" s="3">
         <f t="shared" si="5"/>
@@ -12833,15 +12943,15 @@
         <v>0</v>
       </c>
       <c r="H302" s="3" t="s">
-        <v>420</v>
+        <v>536</v>
       </c>
       <c r="I302" s="3" t="s">
-        <v>419</v>
+        <v>545</v>
       </c>
     </row>
     <row r="303" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A303" s="3" t="s">
-        <v>445</v>
+        <v>418</v>
       </c>
       <c r="B303" s="3">
         <f t="shared" si="5"/>
@@ -12863,15 +12973,15 @@
         <v>0</v>
       </c>
       <c r="H303" s="3" t="s">
-        <v>420</v>
+        <v>536</v>
       </c>
       <c r="I303" s="3" t="s">
-        <v>419</v>
+        <v>545</v>
       </c>
     </row>
     <row r="304" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A304" s="3" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="B304" s="3">
         <f t="shared" si="5"/>
@@ -12893,15 +13003,15 @@
         <v>11</v>
       </c>
       <c r="H304" s="3" t="s">
-        <v>420</v>
+        <v>536</v>
       </c>
       <c r="I304" s="3" t="s">
-        <v>419</v>
+        <v>545</v>
       </c>
     </row>
     <row r="305" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A305" s="3" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="B305" s="3">
         <f t="shared" si="5"/>
@@ -12923,15 +13033,15 @@
         <v>11</v>
       </c>
       <c r="H305" s="3" t="s">
-        <v>420</v>
+        <v>536</v>
       </c>
       <c r="I305" s="3" t="s">
-        <v>419</v>
+        <v>545</v>
       </c>
     </row>
     <row r="306" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A306" s="3" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="B306" s="3">
         <f t="shared" si="5"/>
@@ -12953,15 +13063,15 @@
         <v>11</v>
       </c>
       <c r="H306" s="3" t="s">
-        <v>420</v>
+        <v>536</v>
       </c>
       <c r="I306" s="3" t="s">
-        <v>419</v>
+        <v>545</v>
       </c>
     </row>
     <row r="307" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A307" s="3" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="B307" s="3">
         <f t="shared" si="5"/>
@@ -12983,15 +13093,15 @@
         <v>11</v>
       </c>
       <c r="H307" s="3" t="s">
-        <v>420</v>
+        <v>536</v>
       </c>
       <c r="I307" s="3" t="s">
-        <v>419</v>
+        <v>545</v>
       </c>
     </row>
     <row r="308" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A308" s="3" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="B308" s="3">
         <f t="shared" si="5"/>
@@ -13013,15 +13123,15 @@
         <v>11</v>
       </c>
       <c r="H308" s="3" t="s">
-        <v>420</v>
+        <v>536</v>
       </c>
       <c r="I308" s="3" t="s">
-        <v>419</v>
+        <v>545</v>
       </c>
     </row>
     <row r="309" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A309" s="3" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="B309" s="3">
         <f t="shared" si="5"/>
@@ -13043,15 +13153,15 @@
         <v>11</v>
       </c>
       <c r="H309" s="3" t="s">
-        <v>420</v>
+        <v>536</v>
       </c>
       <c r="I309" s="3" t="s">
-        <v>419</v>
+        <v>545</v>
       </c>
     </row>
     <row r="310" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A310" s="3" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="B310" s="3">
         <f t="shared" si="5"/>
@@ -13073,15 +13183,15 @@
         <v>11</v>
       </c>
       <c r="H310" s="3" t="s">
-        <v>420</v>
+        <v>536</v>
       </c>
       <c r="I310" s="3" t="s">
-        <v>419</v>
+        <v>545</v>
       </c>
     </row>
     <row r="311" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A311" s="3" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="B311" s="3">
         <f t="shared" si="5"/>
@@ -13103,15 +13213,15 @@
         <v>11</v>
       </c>
       <c r="H311" s="3" t="s">
-        <v>420</v>
+        <v>536</v>
       </c>
       <c r="I311" s="3" t="s">
-        <v>419</v>
+        <v>545</v>
       </c>
     </row>
     <row r="312" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A312" s="3" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="B312" s="3">
         <f t="shared" si="5"/>
@@ -13133,15 +13243,15 @@
         <v>11</v>
       </c>
       <c r="H312" s="3" t="s">
-        <v>420</v>
+        <v>536</v>
       </c>
       <c r="I312" s="3" t="s">
-        <v>419</v>
+        <v>545</v>
       </c>
     </row>
     <row r="313" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A313" s="3" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="B313" s="3">
         <f t="shared" si="5"/>
@@ -13163,15 +13273,15 @@
         <v>11</v>
       </c>
       <c r="H313" s="3" t="s">
-        <v>420</v>
+        <v>536</v>
       </c>
       <c r="I313" s="3" t="s">
-        <v>419</v>
+        <v>545</v>
       </c>
     </row>
     <row r="314" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A314" s="3" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
       <c r="B314" s="3">
         <f t="shared" si="5"/>
@@ -13193,15 +13303,15 @@
         <v>11</v>
       </c>
       <c r="H314" s="3" t="s">
-        <v>420</v>
+        <v>536</v>
       </c>
       <c r="I314" s="3" t="s">
-        <v>419</v>
+        <v>545</v>
       </c>
     </row>
     <row r="315" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A315" s="3" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
       <c r="B315" s="3">
         <f t="shared" si="5"/>
@@ -13223,15 +13333,15 @@
         <v>11</v>
       </c>
       <c r="H315" s="3" t="s">
-        <v>420</v>
+        <v>536</v>
       </c>
       <c r="I315" s="3" t="s">
-        <v>419</v>
+        <v>545</v>
       </c>
     </row>
     <row r="316" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A316" s="3" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="B316" s="3">
         <f t="shared" si="5"/>
@@ -13253,15 +13363,15 @@
         <v>11</v>
       </c>
       <c r="H316" s="3" t="s">
-        <v>420</v>
+        <v>536</v>
       </c>
       <c r="I316" s="3" t="s">
-        <v>419</v>
+        <v>545</v>
       </c>
     </row>
     <row r="317" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A317" s="3" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
       <c r="B317" s="3">
         <f t="shared" si="5"/>
@@ -13283,15 +13393,15 @@
         <v>11</v>
       </c>
       <c r="H317" s="3" t="s">
-        <v>420</v>
+        <v>536</v>
       </c>
       <c r="I317" s="3" t="s">
-        <v>419</v>
+        <v>545</v>
       </c>
     </row>
     <row r="318" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A318" s="3" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="B318" s="3">
         <f t="shared" si="5"/>
@@ -13313,15 +13423,15 @@
         <v>11</v>
       </c>
       <c r="H318" s="3" t="s">
-        <v>420</v>
+        <v>536</v>
       </c>
       <c r="I318" s="3" t="s">
-        <v>419</v>
+        <v>545</v>
       </c>
     </row>
     <row r="319" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A319" s="3" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="B319" s="3">
         <f t="shared" si="5"/>
@@ -13343,15 +13453,15 @@
         <v>11</v>
       </c>
       <c r="H319" s="3" t="s">
-        <v>420</v>
+        <v>536</v>
       </c>
       <c r="I319" s="3" t="s">
-        <v>419</v>
+        <v>545</v>
       </c>
     </row>
     <row r="320" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A320" s="3" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="B320" s="3">
         <f t="shared" si="5"/>
@@ -13373,15 +13483,15 @@
         <v>11</v>
       </c>
       <c r="H320" s="3" t="s">
-        <v>420</v>
+        <v>536</v>
       </c>
       <c r="I320" s="3" t="s">
-        <v>419</v>
+        <v>545</v>
       </c>
     </row>
     <row r="321" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A321" s="3" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="B321" s="3">
         <f t="shared" si="5"/>
@@ -13403,15 +13513,15 @@
         <v>11</v>
       </c>
       <c r="H321" s="3" t="s">
-        <v>420</v>
+        <v>536</v>
       </c>
       <c r="I321" s="3" t="s">
-        <v>419</v>
+        <v>545</v>
       </c>
     </row>
     <row r="322" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A322" s="3" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
       <c r="B322" s="3">
         <f t="shared" si="5"/>
@@ -13433,15 +13543,15 @@
         <v>11</v>
       </c>
       <c r="H322" s="3" t="s">
-        <v>420</v>
+        <v>536</v>
       </c>
       <c r="I322" s="3" t="s">
-        <v>419</v>
+        <v>545</v>
       </c>
     </row>
     <row r="323" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A323" s="3" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
       <c r="B323" s="3">
         <f t="shared" si="5"/>
@@ -13463,15 +13573,15 @@
         <v>11</v>
       </c>
       <c r="H323" s="3" t="s">
-        <v>420</v>
+        <v>536</v>
       </c>
       <c r="I323" s="3" t="s">
-        <v>419</v>
+        <v>545</v>
       </c>
     </row>
     <row r="324" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A324" s="3" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="B324" s="3">
         <f t="shared" si="5"/>
@@ -13493,15 +13603,15 @@
         <v>11</v>
       </c>
       <c r="H324" s="3" t="s">
-        <v>420</v>
+        <v>536</v>
       </c>
       <c r="I324" s="3" t="s">
-        <v>419</v>
+        <v>545</v>
       </c>
     </row>
     <row r="325" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A325" s="3" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="B325" s="3">
         <f t="shared" si="5"/>
@@ -13523,15 +13633,15 @@
         <v>11</v>
       </c>
       <c r="H325" s="3" t="s">
-        <v>420</v>
+        <v>536</v>
       </c>
       <c r="I325" s="3" t="s">
-        <v>419</v>
+        <v>545</v>
       </c>
     </row>
     <row r="326" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A326" s="3" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="B326" s="3">
         <f t="shared" si="5"/>
@@ -13553,15 +13663,15 @@
         <v>11</v>
       </c>
       <c r="H326" s="3" t="s">
-        <v>420</v>
+        <v>536</v>
       </c>
       <c r="I326" s="3" t="s">
-        <v>419</v>
+        <v>545</v>
       </c>
     </row>
     <row r="327" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A327" s="3" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="B327" s="3">
         <f t="shared" si="5"/>
@@ -13583,15 +13693,15 @@
         <v>11</v>
       </c>
       <c r="H327" s="3" t="s">
-        <v>420</v>
+        <v>536</v>
       </c>
       <c r="I327" s="3" t="s">
-        <v>419</v>
+        <v>545</v>
       </c>
     </row>
     <row r="328" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A328" s="3" t="s">
-        <v>446</v>
+        <v>419</v>
       </c>
       <c r="B328" s="3">
         <f t="shared" si="5"/>
@@ -13613,15 +13723,15 @@
         <v>0</v>
       </c>
       <c r="H328" s="3" t="s">
-        <v>420</v>
+        <v>536</v>
       </c>
       <c r="I328" s="3" t="s">
-        <v>424</v>
+        <v>545</v>
       </c>
     </row>
     <row r="329" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A329" s="3" t="s">
-        <v>447</v>
+        <v>420</v>
       </c>
       <c r="B329" s="3">
         <f t="shared" si="5"/>
@@ -13643,15 +13753,15 @@
         <v>0</v>
       </c>
       <c r="H329" s="3" t="s">
-        <v>420</v>
+        <v>536</v>
       </c>
       <c r="I329" s="3" t="s">
-        <v>424</v>
+        <v>538</v>
       </c>
     </row>
     <row r="330" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A330" s="3" t="s">
-        <v>448</v>
+        <v>421</v>
       </c>
       <c r="B330" s="3">
         <f t="shared" si="5"/>
@@ -13673,15 +13783,15 @@
         <v>0</v>
       </c>
       <c r="H330" s="3" t="s">
-        <v>420</v>
+        <v>536</v>
       </c>
       <c r="I330" s="3" t="s">
-        <v>424</v>
+        <v>538</v>
       </c>
     </row>
     <row r="331" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A331" s="3" t="s">
-        <v>449</v>
+        <v>422</v>
       </c>
       <c r="B331" s="3">
         <f t="shared" si="5"/>
@@ -13703,15 +13813,15 @@
         <v>0</v>
       </c>
       <c r="H331" s="3" t="s">
-        <v>420</v>
+        <v>536</v>
       </c>
       <c r="I331" s="3" t="s">
-        <v>424</v>
+        <v>538</v>
       </c>
     </row>
     <row r="332" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A332" s="3" t="s">
-        <v>450</v>
+        <v>423</v>
       </c>
       <c r="B332" s="3">
         <f t="shared" si="5"/>
@@ -13733,15 +13843,15 @@
         <v>12</v>
       </c>
       <c r="H332" s="3" t="s">
-        <v>420</v>
+        <v>536</v>
       </c>
       <c r="I332" s="3" t="s">
-        <v>424</v>
+        <v>538</v>
       </c>
     </row>
     <row r="333" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A333" s="3" t="s">
-        <v>451</v>
+        <v>424</v>
       </c>
       <c r="B333" s="3">
         <f t="shared" si="5"/>
@@ -13763,15 +13873,15 @@
         <v>0</v>
       </c>
       <c r="H333" s="3" t="s">
-        <v>420</v>
+        <v>536</v>
       </c>
       <c r="I333" s="3" t="s">
-        <v>424</v>
+        <v>538</v>
       </c>
     </row>
     <row r="334" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A334" s="3" t="s">
-        <v>452</v>
+        <v>425</v>
       </c>
       <c r="B334" s="3">
         <f t="shared" si="5"/>
@@ -13793,15 +13903,15 @@
         <v>0</v>
       </c>
       <c r="H334" s="3" t="s">
-        <v>420</v>
+        <v>536</v>
       </c>
       <c r="I334" s="3" t="s">
-        <v>424</v>
+        <v>538</v>
       </c>
     </row>
     <row r="335" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A335" s="3" t="s">
-        <v>453</v>
+        <v>426</v>
       </c>
       <c r="B335" s="3">
         <f t="shared" si="5"/>
@@ -13823,15 +13933,15 @@
         <v>0</v>
       </c>
       <c r="H335" s="3" t="s">
-        <v>420</v>
+        <v>536</v>
       </c>
       <c r="I335" s="3" t="s">
-        <v>424</v>
+        <v>538</v>
       </c>
     </row>
     <row r="336" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A336" s="3" t="s">
-        <v>454</v>
+        <v>427</v>
       </c>
       <c r="B336" s="3">
         <f t="shared" si="5"/>
@@ -13853,15 +13963,15 @@
         <v>12</v>
       </c>
       <c r="H336" s="3" t="s">
-        <v>420</v>
+        <v>536</v>
       </c>
       <c r="I336" s="3" t="s">
-        <v>424</v>
+        <v>538</v>
       </c>
     </row>
     <row r="337" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A337" s="3" t="s">
-        <v>455</v>
+        <v>428</v>
       </c>
       <c r="B337" s="3">
         <f t="shared" si="5"/>
@@ -13883,15 +13993,15 @@
         <v>0</v>
       </c>
       <c r="H337" s="3" t="s">
-        <v>420</v>
+        <v>536</v>
       </c>
       <c r="I337" s="3" t="s">
-        <v>424</v>
+        <v>538</v>
       </c>
     </row>
     <row r="338" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A338" s="3" t="s">
-        <v>456</v>
+        <v>429</v>
       </c>
       <c r="B338" s="3">
         <f t="shared" si="5"/>
@@ -13913,15 +14023,15 @@
         <v>0</v>
       </c>
       <c r="H338" s="3" t="s">
-        <v>420</v>
+        <v>536</v>
       </c>
       <c r="I338" s="3" t="s">
-        <v>424</v>
+        <v>538</v>
       </c>
     </row>
     <row r="339" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A339" s="3" t="s">
-        <v>457</v>
+        <v>430</v>
       </c>
       <c r="B339" s="3">
         <f t="shared" si="5"/>
@@ -13943,15 +14053,15 @@
         <v>0</v>
       </c>
       <c r="H339" s="3" t="s">
-        <v>420</v>
+        <v>536</v>
       </c>
       <c r="I339" s="3" t="s">
-        <v>424</v>
+        <v>538</v>
       </c>
     </row>
     <row r="340" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A340" s="3" t="s">
-        <v>458</v>
+        <v>431</v>
       </c>
       <c r="B340" s="3">
         <f t="shared" si="5"/>
@@ -13973,15 +14083,15 @@
         <v>12</v>
       </c>
       <c r="H340" s="3" t="s">
-        <v>420</v>
+        <v>536</v>
       </c>
       <c r="I340" s="3" t="s">
-        <v>424</v>
+        <v>538</v>
       </c>
     </row>
     <row r="341" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A341" s="3" t="s">
-        <v>459</v>
+        <v>432</v>
       </c>
       <c r="B341" s="3">
         <f t="shared" si="5"/>
@@ -14003,15 +14113,15 @@
         <v>0</v>
       </c>
       <c r="H341" s="3" t="s">
-        <v>420</v>
+        <v>536</v>
       </c>
       <c r="I341" s="3" t="s">
-        <v>424</v>
+        <v>538</v>
       </c>
     </row>
     <row r="342" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A342" s="3" t="s">
-        <v>460</v>
+        <v>433</v>
       </c>
       <c r="B342" s="3">
         <f t="shared" si="5"/>
@@ -14033,15 +14143,15 @@
         <v>0</v>
       </c>
       <c r="H342" s="3" t="s">
-        <v>420</v>
+        <v>536</v>
       </c>
       <c r="I342" s="3" t="s">
-        <v>424</v>
+        <v>538</v>
       </c>
     </row>
     <row r="343" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A343" s="3" t="s">
-        <v>461</v>
+        <v>434</v>
       </c>
       <c r="B343" s="3">
         <f t="shared" si="5"/>
@@ -14063,15 +14173,15 @@
         <v>0</v>
       </c>
       <c r="H343" s="3" t="s">
-        <v>420</v>
+        <v>536</v>
       </c>
       <c r="I343" s="3" t="s">
-        <v>424</v>
+        <v>538</v>
       </c>
     </row>
     <row r="344" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A344" s="3" t="s">
-        <v>462</v>
+        <v>435</v>
       </c>
       <c r="B344" s="3">
         <f t="shared" si="5"/>
@@ -14093,15 +14203,15 @@
         <v>12</v>
       </c>
       <c r="H344" s="3" t="s">
-        <v>420</v>
+        <v>536</v>
       </c>
       <c r="I344" s="3" t="s">
-        <v>424</v>
+        <v>538</v>
       </c>
     </row>
     <row r="345" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A345" s="3" t="s">
-        <v>463</v>
+        <v>436</v>
       </c>
       <c r="B345" s="3">
         <f t="shared" si="5"/>
@@ -14123,15 +14233,15 @@
         <v>0</v>
       </c>
       <c r="H345" s="3" t="s">
-        <v>420</v>
+        <v>536</v>
       </c>
       <c r="I345" s="3" t="s">
-        <v>424</v>
+        <v>538</v>
       </c>
     </row>
     <row r="346" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A346" s="3" t="s">
-        <v>464</v>
+        <v>437</v>
       </c>
       <c r="B346" s="3">
         <f t="shared" si="5"/>
@@ -14153,15 +14263,15 @@
         <v>0</v>
       </c>
       <c r="H346" s="3" t="s">
-        <v>420</v>
+        <v>536</v>
       </c>
       <c r="I346" s="3" t="s">
-        <v>424</v>
+        <v>538</v>
       </c>
     </row>
     <row r="347" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A347" s="3" t="s">
-        <v>465</v>
+        <v>438</v>
       </c>
       <c r="B347" s="3">
         <f t="shared" si="5"/>
@@ -14183,15 +14293,15 @@
         <v>0</v>
       </c>
       <c r="H347" s="3" t="s">
-        <v>420</v>
+        <v>536</v>
       </c>
       <c r="I347" s="3" t="s">
-        <v>424</v>
+        <v>538</v>
       </c>
     </row>
     <row r="348" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A348" s="3" t="s">
-        <v>466</v>
+        <v>439</v>
       </c>
       <c r="B348" s="3">
         <f t="shared" si="5"/>
@@ -14213,14 +14323,480 @@
         <v>12</v>
       </c>
       <c r="H348" s="3" t="s">
-        <v>420</v>
+        <v>536</v>
       </c>
       <c r="I348" s="3" t="s">
-        <v>424</v>
+        <v>538</v>
+      </c>
+    </row>
+    <row r="349" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A349" s="3" t="s">
+        <v>499</v>
+      </c>
+      <c r="B349" s="3">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="C349" s="3">
+        <v>1</v>
+      </c>
+      <c r="D349" s="3">
+        <v>0</v>
+      </c>
+      <c r="E349" s="3">
+        <v>0</v>
+      </c>
+      <c r="F349" s="3">
+        <v>1</v>
+      </c>
+      <c r="G349" s="3">
+        <v>0</v>
+      </c>
+      <c r="H349" s="3" t="s">
+        <v>506</v>
+      </c>
+      <c r="I349" s="3" t="s">
+        <v>542</v>
+      </c>
+    </row>
+    <row r="350" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A350" s="3" t="s">
+        <v>505</v>
+      </c>
+      <c r="B350" s="3">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="C350" s="3">
+        <v>1</v>
+      </c>
+      <c r="D350" s="3">
+        <v>0</v>
+      </c>
+      <c r="E350" s="3">
+        <v>0</v>
+      </c>
+      <c r="F350" s="3">
+        <v>1</v>
+      </c>
+      <c r="G350" s="3">
+        <v>0</v>
+      </c>
+      <c r="H350" s="3" t="s">
+        <v>524</v>
+      </c>
+      <c r="I350" s="3" t="s">
+        <v>527</v>
+      </c>
+    </row>
+    <row r="351" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A351" s="3" t="s">
+        <v>552</v>
+      </c>
+      <c r="B351" s="3">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="C351" s="3">
+        <v>16</v>
+      </c>
+      <c r="D351" s="3">
+        <v>-16</v>
+      </c>
+      <c r="E351" s="3">
+        <v>0</v>
+      </c>
+      <c r="F351" s="3">
+        <v>0</v>
+      </c>
+      <c r="G351" s="3">
+        <v>0</v>
+      </c>
+      <c r="H351" s="3" t="s">
+        <v>524</v>
+      </c>
+      <c r="I351" s="3" t="s">
+        <v>527</v>
+      </c>
+    </row>
+    <row r="352" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A352" s="3" t="s">
+        <v>500</v>
+      </c>
+      <c r="B352" s="3">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="C352" s="3">
+        <v>1</v>
+      </c>
+      <c r="D352" s="3">
+        <v>0</v>
+      </c>
+      <c r="E352" s="3">
+        <v>0</v>
+      </c>
+      <c r="F352" s="3">
+        <v>1</v>
+      </c>
+      <c r="G352" s="3">
+        <v>0</v>
+      </c>
+      <c r="H352" s="3" t="s">
+        <v>536</v>
+      </c>
+      <c r="I352" s="3" t="s">
+        <v>511</v>
+      </c>
+    </row>
+    <row r="353" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A353" s="3" t="s">
+        <v>502</v>
+      </c>
+      <c r="B353" s="3">
+        <f t="shared" si="5"/>
+        <v>5</v>
+      </c>
+      <c r="C353" s="3">
+        <v>10</v>
+      </c>
+      <c r="D353" s="3">
+        <v>0</v>
+      </c>
+      <c r="E353" s="3">
+        <v>5</v>
+      </c>
+      <c r="F353" s="3">
+        <v>0</v>
+      </c>
+      <c r="G353" s="3">
+        <v>0</v>
+      </c>
+      <c r="H353" s="3" t="s">
+        <v>536</v>
+      </c>
+      <c r="I353" s="3" t="s">
+        <v>511</v>
+      </c>
+    </row>
+    <row r="354" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A354" s="3" t="s">
+        <v>504</v>
+      </c>
+      <c r="B354" s="3">
+        <f t="shared" ref="B354:B356" si="6">E354</f>
+        <v>10</v>
+      </c>
+      <c r="C354" s="3">
+        <v>50</v>
+      </c>
+      <c r="D354" s="3">
+        <v>1</v>
+      </c>
+      <c r="E354" s="3">
+        <v>10</v>
+      </c>
+      <c r="F354" s="3">
+        <v>0</v>
+      </c>
+      <c r="G354" s="3">
+        <v>0</v>
+      </c>
+      <c r="H354" s="3" t="s">
+        <v>536</v>
+      </c>
+      <c r="I354" s="3" t="s">
+        <v>511</v>
+      </c>
+    </row>
+    <row r="355" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A355" s="3" t="s">
+        <v>503</v>
+      </c>
+      <c r="B355" s="3">
+        <f t="shared" si="6"/>
+        <v>5</v>
+      </c>
+      <c r="C355" s="3">
+        <v>10</v>
+      </c>
+      <c r="D355" s="3">
+        <v>1</v>
+      </c>
+      <c r="E355" s="3">
+        <v>5</v>
+      </c>
+      <c r="F355" s="3">
+        <v>0</v>
+      </c>
+      <c r="G355" s="3">
+        <v>0</v>
+      </c>
+      <c r="H355" s="3" t="s">
+        <v>536</v>
+      </c>
+      <c r="I355" s="3" t="s">
+        <v>511</v>
+      </c>
+    </row>
+    <row r="356" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A356" s="3" t="s">
+        <v>501</v>
+      </c>
+      <c r="B356" s="3">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="C356" s="3">
+        <v>3</v>
+      </c>
+      <c r="D356" s="3">
+        <v>1</v>
+      </c>
+      <c r="E356" s="3">
+        <v>1</v>
+      </c>
+      <c r="F356" s="3">
+        <v>2</v>
+      </c>
+      <c r="G356" s="3">
+        <v>13</v>
+      </c>
+      <c r="H356" s="3" t="s">
+        <v>536</v>
+      </c>
+      <c r="I356" s="3" t="s">
+        <v>511</v>
       </c>
     </row>
   </sheetData>
+  <dataValidations count="2">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H2:H356" xr:uid="{EE42F429-08A4-4BE3-8F84-6536CE0CFC40}">
+      <formula1>Groups</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I2:I356" xr:uid="{7C24A3BA-34E6-47FE-B467-51CD70DB74D4}">
+      <formula1>SubGroups</formula1>
+    </dataValidation>
+  </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D1AE2012-64ED-47D5-92F2-F7C5A6120600}">
+  <dimension ref="A1:B35"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B35" sqref="B35"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="19" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="29.28515625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>368</v>
+      </c>
+      <c r="B1" t="s">
+        <v>543</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>512</v>
+      </c>
+      <c r="B2" t="s">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>518</v>
+      </c>
+      <c r="B3" t="s">
+        <v>513</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>522</v>
+      </c>
+      <c r="B4" s="6" t="s">
+        <v>514</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>524</v>
+      </c>
+      <c r="B5" t="s">
+        <v>515</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>536</v>
+      </c>
+      <c r="B6" t="s">
+        <v>516</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>506</v>
+      </c>
+      <c r="B7" t="s">
+        <v>517</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>549</v>
+      </c>
+      <c r="B8" t="s">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B9" t="s">
+        <v>544</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B10" t="s">
+        <v>519</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B11" t="s">
+        <v>520</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B12" t="s">
+        <v>521</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B13" t="s">
+        <v>523</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B14" t="s">
+        <v>525</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B15" t="s">
+        <v>526</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B16" t="s">
+        <v>527</v>
+      </c>
+    </row>
+    <row r="17" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B17" t="s">
+        <v>528</v>
+      </c>
+    </row>
+    <row r="18" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B18" t="s">
+        <v>529</v>
+      </c>
+    </row>
+    <row r="19" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B19" t="s">
+        <v>530</v>
+      </c>
+    </row>
+    <row r="20" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B20" t="s">
+        <v>531</v>
+      </c>
+    </row>
+    <row r="21" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B21" t="s">
+        <v>532</v>
+      </c>
+    </row>
+    <row r="22" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B22" t="s">
+        <v>533</v>
+      </c>
+    </row>
+    <row r="23" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B23" t="s">
+        <v>534</v>
+      </c>
+    </row>
+    <row r="24" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B24" t="s">
+        <v>535</v>
+      </c>
+    </row>
+    <row r="25" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B25" t="s">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="26" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B26" t="s">
+        <v>537</v>
+      </c>
+    </row>
+    <row r="27" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B27" t="s">
+        <v>511</v>
+      </c>
+    </row>
+    <row r="28" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B28" t="s">
+        <v>538</v>
+      </c>
+    </row>
+    <row r="29" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B29" t="s">
+        <v>545</v>
+      </c>
+    </row>
+    <row r="30" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B30" t="s">
+        <v>539</v>
+      </c>
+    </row>
+    <row r="31" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B31" t="s">
+        <v>540</v>
+      </c>
+    </row>
+    <row r="32" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B32" t="s">
+        <v>541</v>
+      </c>
+    </row>
+    <row r="33" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B33" t="s">
+        <v>542</v>
+      </c>
+    </row>
+    <row r="34" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B34" t="s">
+        <v>548</v>
+      </c>
+    </row>
+    <row r="35" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B35" t="s">
+        <v>550</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/Booyco HMI Utility/Resources/Documents/CommanderParametersFile.xlsx
+++ b/Booyco HMI Utility/Resources/Documents/CommanderParametersFile.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Dropbox (Mernok Elektronik)\Mernok\Active\Git\SW\Booyco-HMI-Utility\Booyco HMI Utility\Resources\Documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ADB21D49-1605-4907-8C63-1F16D6B9269C}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{28D523EF-A44F-45FF-9E53-4C9F91DB7191}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{4442C273-631E-40E6-88D2-7449766A5078}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{4442C273-631E-40E6-88D2-7449766A5078}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2355" uniqueCount="1099">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2368" uniqueCount="1099">
   <si>
     <t>Name</t>
   </si>
@@ -3792,8 +3792,8 @@
   <dimension ref="A1:P483"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A123" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F130" sqref="F130"/>
+      <pane ySplit="1" topLeftCell="A12" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" sqref="A1:A1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4831,7 +4831,7 @@
         <v>1</v>
       </c>
       <c r="F26" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G26" s="3">
         <v>0</v>
@@ -9943,7 +9943,7 @@
         <v>1</v>
       </c>
       <c r="F160" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G160" s="3">
         <v>0</v>
@@ -20033,10 +20033,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D1AE2012-64ED-47D5-92F2-F7C5A6120600}">
-  <dimension ref="A1:K523"/>
+  <dimension ref="A1:L523"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="K19" sqref="K19"/>
+      <selection activeCell="K17" sqref="K17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -20046,7 +20046,7 @@
     <col min="7" max="7" width="42.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>358</v>
       </c>
@@ -20060,7 +20060,7 @@
         <v>681</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>501</v>
       </c>
@@ -20073,11 +20073,14 @@
       <c r="G2" t="s">
         <v>682</v>
       </c>
-      <c r="K2" t="s">
-        <v>683</v>
-      </c>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="K2" s="1">
+        <v>0</v>
+      </c>
+      <c r="L2" s="1" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>507</v>
       </c>
@@ -20093,8 +20096,14 @@
       <c r="J3" t="s">
         <v>685</v>
       </c>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="K3" s="1">
+        <v>1</v>
+      </c>
+      <c r="L3" s="1" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>511</v>
       </c>
@@ -20107,8 +20116,14 @@
       <c r="G4" t="s">
         <v>686</v>
       </c>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="K4" s="1">
+        <v>2</v>
+      </c>
+      <c r="L4" s="1" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>513</v>
       </c>
@@ -20121,8 +20136,14 @@
       <c r="G5" t="s">
         <v>687</v>
       </c>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="K5" s="1">
+        <v>3</v>
+      </c>
+      <c r="L5" s="1" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>525</v>
       </c>
@@ -20135,8 +20156,14 @@
       <c r="G6" t="s">
         <v>688</v>
       </c>
-    </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="K6" s="1">
+        <v>4</v>
+      </c>
+      <c r="L6" s="1" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>495</v>
       </c>
@@ -20149,8 +20176,14 @@
       <c r="G7" t="s">
         <v>689</v>
       </c>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="K7" s="1">
+        <v>5</v>
+      </c>
+      <c r="L7" s="1" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>538</v>
       </c>
@@ -20163,8 +20196,14 @@
       <c r="G8" t="s">
         <v>690</v>
       </c>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="K8" s="1">
+        <v>6</v>
+      </c>
+      <c r="L8" s="1" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B9" t="s">
         <v>533</v>
       </c>
@@ -20174,8 +20213,14 @@
       <c r="G9" t="s">
         <v>691</v>
       </c>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="K9" s="1">
+        <v>7</v>
+      </c>
+      <c r="L9" s="1" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B10" t="s">
         <v>508</v>
       </c>
@@ -20185,8 +20230,14 @@
       <c r="G10" t="s">
         <v>692</v>
       </c>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="K10" s="1">
+        <v>8</v>
+      </c>
+      <c r="L10" s="1" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B11" t="s">
         <v>509</v>
       </c>
@@ -20196,8 +20247,14 @@
       <c r="G11" t="s">
         <v>693</v>
       </c>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="K11" s="1">
+        <v>9</v>
+      </c>
+      <c r="L11" s="1" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B12" t="s">
         <v>510</v>
       </c>
@@ -20207,8 +20264,14 @@
       <c r="G12" t="s">
         <v>694</v>
       </c>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="K12" s="1">
+        <v>10</v>
+      </c>
+      <c r="L12" s="1" t="s">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B13" t="s">
         <v>512</v>
       </c>
@@ -20218,8 +20281,14 @@
       <c r="G13" t="s">
         <v>695</v>
       </c>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="K13" s="1">
+        <v>11</v>
+      </c>
+      <c r="L13" s="1" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B14" t="s">
         <v>514</v>
       </c>
@@ -20229,8 +20298,14 @@
       <c r="G14" t="s">
         <v>696</v>
       </c>
-    </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="K14" s="1">
+        <v>12</v>
+      </c>
+      <c r="L14" s="1" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B15" t="s">
         <v>515</v>
       </c>
@@ -20240,8 +20315,14 @@
       <c r="G15" t="s">
         <v>697</v>
       </c>
-    </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="K15" s="1">
+        <v>13</v>
+      </c>
+      <c r="L15" s="1" t="s">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B16" t="s">
         <v>516</v>
       </c>

--- a/Booyco HMI Utility/Resources/Documents/CommanderParametersFile.xlsx
+++ b/Booyco HMI Utility/Resources/Documents/CommanderParametersFile.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Dropbox (Mernok Elektronik)\Mernok\Active\Git\SW\Booyco-HMI-Utility\Booyco HMI Utility\Resources\Documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{792E61DA-37A3-401A-AB8B-D70D01D585C5}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{654A88FD-3E4D-4B14-B664-DB8951F42DC8}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{4442C273-631E-40E6-88D2-7449766A5078}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{4442C273-631E-40E6-88D2-7449766A5078}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -3816,8 +3816,8 @@
   <dimension ref="A1:P483"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A341" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D352" sqref="D352"/>
+      <pane ySplit="1" topLeftCell="A464" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E481" sqref="E481"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -18343,7 +18343,7 @@
       </c>
       <c r="B426" s="3">
         <f t="shared" si="10"/>
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="C426" s="3">
         <v>57</v>
@@ -18352,7 +18352,7 @@
         <v>46</v>
       </c>
       <c r="E426" s="3">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="F426" s="3">
         <v>4</v>
@@ -18463,7 +18463,7 @@
       </c>
       <c r="B430" s="3">
         <f t="shared" si="10"/>
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="C430" s="3">
         <v>57</v>
@@ -18472,7 +18472,7 @@
         <v>46</v>
       </c>
       <c r="E430" s="3">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="F430" s="3">
         <v>4</v>
@@ -18583,7 +18583,7 @@
       </c>
       <c r="B434" s="3">
         <f t="shared" si="10"/>
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="C434" s="3">
         <v>57</v>
@@ -18592,7 +18592,7 @@
         <v>46</v>
       </c>
       <c r="E434" s="3">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="F434" s="3">
         <v>4</v>
@@ -18793,7 +18793,7 @@
       </c>
       <c r="B441" s="3">
         <f t="shared" si="10"/>
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="C441" s="3">
         <v>57</v>
@@ -18802,7 +18802,7 @@
         <v>46</v>
       </c>
       <c r="E441" s="3">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="F441" s="3">
         <v>4</v>
@@ -18913,7 +18913,7 @@
       </c>
       <c r="B445" s="3">
         <f t="shared" si="10"/>
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="C445" s="3">
         <v>57</v>
@@ -18922,7 +18922,7 @@
         <v>46</v>
       </c>
       <c r="E445" s="3">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="F445" s="3">
         <v>4</v>
@@ -19033,7 +19033,7 @@
       </c>
       <c r="B449" s="3">
         <f t="shared" si="10"/>
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="C449" s="3">
         <v>57</v>
@@ -19042,7 +19042,7 @@
         <v>46</v>
       </c>
       <c r="E449" s="3">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="F449" s="3">
         <v>4</v>
@@ -19243,7 +19243,7 @@
       </c>
       <c r="B456" s="3">
         <f t="shared" si="10"/>
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="C456" s="3">
         <v>57</v>
@@ -19252,7 +19252,7 @@
         <v>46</v>
       </c>
       <c r="E456" s="3">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="F456" s="3">
         <v>4</v>
@@ -19363,7 +19363,7 @@
       </c>
       <c r="B460" s="3">
         <f t="shared" si="10"/>
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="C460" s="3">
         <v>57</v>
@@ -19372,7 +19372,7 @@
         <v>46</v>
       </c>
       <c r="E460" s="3">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="F460" s="3">
         <v>4</v>
@@ -19483,7 +19483,7 @@
       </c>
       <c r="B464" s="3">
         <f t="shared" si="10"/>
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="C464" s="3">
         <v>57</v>
@@ -19492,7 +19492,7 @@
         <v>46</v>
       </c>
       <c r="E464" s="3">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="F464" s="3">
         <v>4</v>
@@ -19693,7 +19693,7 @@
       </c>
       <c r="B471" s="3">
         <f t="shared" si="10"/>
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="C471" s="3">
         <v>57</v>
@@ -19702,7 +19702,7 @@
         <v>46</v>
       </c>
       <c r="E471" s="3">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="F471" s="3">
         <v>4</v>
@@ -19813,7 +19813,7 @@
       </c>
       <c r="B475" s="3">
         <f t="shared" si="10"/>
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="C475" s="3">
         <v>57</v>
@@ -19822,7 +19822,7 @@
         <v>46</v>
       </c>
       <c r="E475" s="3">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="F475" s="3">
         <v>4</v>
@@ -19933,7 +19933,7 @@
       </c>
       <c r="B479" s="3">
         <f t="shared" si="10"/>
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="C479" s="3">
         <v>57</v>
@@ -19942,7 +19942,7 @@
         <v>46</v>
       </c>
       <c r="E479" s="3">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="F479" s="3">
         <v>4</v>

--- a/Booyco HMI Utility/Resources/Documents/CommanderParametersFile.xlsx
+++ b/Booyco HMI Utility/Resources/Documents/CommanderParametersFile.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Dropbox (Mernok Elektronik)\Mernok\Active\Git\SW\Booyco-HMI-Utility\Booyco HMI Utility\Resources\Documents\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Mernok\DEVPRJ-168 (Booyco HMI)\Software\Booyco-HMI-Utility\Booyco HMI Utility\Resources\Documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{654A88FD-3E4D-4B14-B664-DB8951F42DC8}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B582C685-9504-4FB6-9C08-E1D79776BF45}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{4442C273-631E-40E6-88D2-7449766A5078}"/>
+    <workbookView xWindow="32835" yWindow="0" windowWidth="21600" windowHeight="11385" xr2:uid="{4442C273-631E-40E6-88D2-7449766A5078}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -3816,8 +3816,8 @@
   <dimension ref="A1:P483"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A464" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E481" sqref="E481"/>
+      <pane ySplit="1" topLeftCell="A332" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E342" sqref="E342"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -15342,17 +15342,16 @@
         <v>409</v>
       </c>
       <c r="B326" s="3">
-        <f t="shared" si="5"/>
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="C326" s="3">
         <v>100</v>
       </c>
       <c r="D326" s="3">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="E326" s="3">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="F326" s="3">
         <v>0</v>
@@ -15462,17 +15461,16 @@
         <v>413</v>
       </c>
       <c r="B330" s="3">
-        <f t="shared" si="5"/>
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="C330" s="3">
         <v>100</v>
       </c>
       <c r="D330" s="3">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="E330" s="3">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="F330" s="3">
         <v>0</v>
@@ -15582,17 +15580,16 @@
         <v>417</v>
       </c>
       <c r="B334" s="3">
-        <f t="shared" si="5"/>
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="C334" s="3">
         <v>100</v>
       </c>
       <c r="D334" s="3">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="E334" s="3">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="F334" s="3">
         <v>0</v>
@@ -15702,17 +15699,16 @@
         <v>421</v>
       </c>
       <c r="B338" s="3">
-        <f t="shared" si="5"/>
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="C338" s="3">
         <v>100</v>
       </c>
       <c r="D338" s="3">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="E338" s="3">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="F338" s="3">
         <v>0</v>
@@ -15822,17 +15818,16 @@
         <v>425</v>
       </c>
       <c r="B342" s="3">
-        <f t="shared" si="5"/>
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="C342" s="3">
         <v>100</v>
       </c>
       <c r="D342" s="3">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="E342" s="3">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="F342" s="3">
         <v>0</v>

--- a/Booyco HMI Utility/Resources/Documents/CommanderParametersFile.xlsx
+++ b/Booyco HMI Utility/Resources/Documents/CommanderParametersFile.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21425"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Mernok\DEVPRJ-168 (Booyco HMI)\Software\Booyco-HMI-Utility\Booyco HMI Utility\Resources\Documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B582C685-9504-4FB6-9C08-E1D79776BF45}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5274E819-7DD3-40D9-8A5C-FE68D6E11CEA}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="32835" yWindow="0" windowWidth="21600" windowHeight="11385" xr2:uid="{4442C273-631E-40E6-88D2-7449766A5078}"/>
+    <workbookView minimized="1" xWindow="29115" yWindow="345" windowWidth="21600" windowHeight="11385" xr2:uid="{4442C273-631E-40E6-88D2-7449766A5078}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -3815,9 +3815,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E4E73DD7-587F-4C4F-B32B-7B78C2644041}">
   <dimension ref="A1:P483"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A332" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E342" sqref="E342"/>
+    <sheetView tabSelected="1" topLeftCell="I1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A119" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="N77" sqref="N77:N136"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -20091,7 +20091,7 @@
   <dimension ref="A1:L523"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="K17" sqref="K17"/>
+      <selection activeCell="G10" sqref="G10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/Booyco HMI Utility/Resources/Documents/CommanderParametersFile.xlsx
+++ b/Booyco HMI Utility/Resources/Documents/CommanderParametersFile.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Mernok\DEVPRJ-168 (Booyco HMI)\Software\Booyco-HMI-Utility\Booyco HMI Utility\Resources\Documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C43F23A8-A440-4D2A-9D84-650627459A63}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A7EC0EBD-71FB-483A-BD06-5D1209232E66}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{4442C273-631E-40E6-88D2-7449766A5078}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{4442C273-631E-40E6-88D2-7449766A5078}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -3816,8 +3816,8 @@
   <dimension ref="A1:P483"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A266" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D280" sqref="D280"/>
+      <pane ySplit="1" topLeftCell="A187" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E200" sqref="E200"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -11310,17 +11310,16 @@
         <v>221</v>
       </c>
       <c r="B200" s="3">
-        <f t="shared" si="3"/>
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="C200" s="3">
-        <v>255</v>
+        <v>10000</v>
       </c>
       <c r="D200" s="3">
         <v>0</v>
       </c>
       <c r="E200" s="3">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="F200" s="3">
         <v>0</v>

--- a/Booyco HMI Utility/Resources/Documents/CommanderParametersFile.xlsx
+++ b/Booyco HMI Utility/Resources/Documents/CommanderParametersFile.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Mernok\DEVPRJ-168 (Booyco HMI)\Software\Booyco-HMI-Utility\Booyco HMI Utility\Resources\Documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A7EC0EBD-71FB-483A-BD06-5D1209232E66}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7E99CDD9-C72D-4865-8514-FE5F65A1E343}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{4442C273-631E-40E6-88D2-7449766A5078}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{4442C273-631E-40E6-88D2-7449766A5078}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2374" uniqueCount="1107">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2375" uniqueCount="1108">
   <si>
     <t>Name</t>
   </si>
@@ -3357,6 +3357,9 @@
   </si>
   <si>
     <t>Workzone Radius</t>
+  </si>
+  <si>
+    <t>AccessLevel</t>
   </si>
 </sst>
 </file>
@@ -3815,9 +3818,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E4E73DD7-587F-4C4F-B32B-7B78C2644041}">
   <dimension ref="A1:P483"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A187" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E200" sqref="E200"/>
+    <sheetView tabSelected="1" topLeftCell="I1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="K5" sqref="K5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3829,6 +3832,7 @@
     <col min="8" max="8" width="26" customWidth="1"/>
     <col min="9" max="9" width="26.5703125" customWidth="1"/>
     <col min="10" max="10" width="89" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="11.5703125" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="12.140625" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="6.140625" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="21.42578125" bestFit="1" customWidth="1"/>
@@ -3866,6 +3870,9 @@
       <c r="J1" s="5" t="s">
         <v>357</v>
       </c>
+      <c r="K1" s="5" t="s">
+        <v>1107</v>
+      </c>
       <c r="M1" s="1" t="s">
         <v>7</v>
       </c>
@@ -3910,6 +3917,9 @@
       <c r="J2" t="s">
         <v>359</v>
       </c>
+      <c r="K2">
+        <v>1</v>
+      </c>
       <c r="M2" s="1">
         <v>1</v>
       </c>
@@ -3954,6 +3964,9 @@
       <c r="J3" t="s">
         <v>358</v>
       </c>
+      <c r="K3">
+        <v>1</v>
+      </c>
       <c r="M3" s="1">
         <v>1</v>
       </c>
@@ -3999,6 +4012,9 @@
       <c r="J4" t="s">
         <v>360</v>
       </c>
+      <c r="K4">
+        <v>2</v>
+      </c>
       <c r="M4" s="1">
         <v>1</v>
       </c>
@@ -4044,6 +4060,9 @@
       <c r="J5" t="s">
         <v>360</v>
       </c>
+      <c r="K5">
+        <v>1</v>
+      </c>
       <c r="M5" s="1">
         <v>1</v>
       </c>
@@ -4089,6 +4108,9 @@
       <c r="J6" t="s">
         <v>360</v>
       </c>
+      <c r="K6">
+        <v>1</v>
+      </c>
       <c r="M6" s="1">
         <v>2</v>
       </c>
@@ -4134,6 +4156,9 @@
       <c r="J7" t="s">
         <v>360</v>
       </c>
+      <c r="K7">
+        <v>1</v>
+      </c>
       <c r="M7" s="1">
         <v>2</v>
       </c>
@@ -4173,6 +4198,9 @@
       <c r="J8" t="s">
         <v>360</v>
       </c>
+      <c r="K8">
+        <v>1</v>
+      </c>
       <c r="M8" s="1">
         <v>3</v>
       </c>
@@ -4212,6 +4240,9 @@
       <c r="J9" t="s">
         <v>360</v>
       </c>
+      <c r="K9">
+        <v>1</v>
+      </c>
       <c r="M9" s="1">
         <v>4</v>
       </c>
@@ -4251,6 +4282,9 @@
       <c r="J10" t="s">
         <v>360</v>
       </c>
+      <c r="K10">
+        <v>1</v>
+      </c>
       <c r="M10" s="1">
         <v>4</v>
       </c>
@@ -4290,6 +4324,9 @@
       <c r="J11" t="s">
         <v>360</v>
       </c>
+      <c r="K11">
+        <v>1</v>
+      </c>
       <c r="M11" s="1">
         <v>4</v>
       </c>
@@ -4329,6 +4366,9 @@
       <c r="J12" t="s">
         <v>360</v>
       </c>
+      <c r="K12">
+        <v>1</v>
+      </c>
       <c r="M12" s="1">
         <v>4</v>
       </c>
@@ -4368,6 +4408,9 @@
       <c r="J13" t="s">
         <v>360</v>
       </c>
+      <c r="K13">
+        <v>1</v>
+      </c>
       <c r="M13" s="1">
         <v>4</v>
       </c>
@@ -4407,6 +4450,9 @@
       <c r="J14" t="s">
         <v>360</v>
       </c>
+      <c r="K14">
+        <v>1</v>
+      </c>
       <c r="M14" s="1">
         <v>5</v>
       </c>
@@ -4446,6 +4492,9 @@
       <c r="J15" t="s">
         <v>360</v>
       </c>
+      <c r="K15">
+        <v>1</v>
+      </c>
       <c r="M15" s="1">
         <v>5</v>
       </c>
@@ -4485,6 +4534,9 @@
       <c r="J16" t="s">
         <v>360</v>
       </c>
+      <c r="K16">
+        <v>1</v>
+      </c>
       <c r="M16" s="1">
         <v>5</v>
       </c>
@@ -4524,6 +4576,9 @@
       <c r="J17" t="s">
         <v>360</v>
       </c>
+      <c r="K17">
+        <v>1</v>
+      </c>
       <c r="M17" s="1">
         <v>5</v>
       </c>
@@ -4563,6 +4618,9 @@
       <c r="J18" t="s">
         <v>360</v>
       </c>
+      <c r="K18">
+        <v>1</v>
+      </c>
       <c r="M18" s="1">
         <v>5</v>
       </c>
@@ -4602,6 +4660,9 @@
       <c r="J19" t="s">
         <v>360</v>
       </c>
+      <c r="K19">
+        <v>1</v>
+      </c>
       <c r="M19" s="1">
         <v>6</v>
       </c>
@@ -4641,6 +4702,9 @@
       <c r="J20" t="s">
         <v>360</v>
       </c>
+      <c r="K20">
+        <v>1</v>
+      </c>
       <c r="M20" s="1">
         <v>6</v>
       </c>
@@ -4680,6 +4744,9 @@
       <c r="J21" t="s">
         <v>360</v>
       </c>
+      <c r="K21">
+        <v>1</v>
+      </c>
       <c r="M21" s="1">
         <v>6</v>
       </c>
@@ -4719,6 +4786,9 @@
       <c r="J22" t="s">
         <v>360</v>
       </c>
+      <c r="K22">
+        <v>1</v>
+      </c>
       <c r="M22" s="1">
         <v>6</v>
       </c>
@@ -4758,6 +4828,9 @@
       <c r="J23" t="s">
         <v>360</v>
       </c>
+      <c r="K23">
+        <v>1</v>
+      </c>
       <c r="M23" s="1">
         <v>6</v>
       </c>
@@ -4797,6 +4870,9 @@
       <c r="J24" t="s">
         <v>360</v>
       </c>
+      <c r="K24">
+        <v>1</v>
+      </c>
       <c r="M24" s="1">
         <v>6</v>
       </c>
@@ -4836,6 +4912,9 @@
       <c r="J25" t="s">
         <v>360</v>
       </c>
+      <c r="K25">
+        <v>1</v>
+      </c>
       <c r="M25" s="1">
         <v>6</v>
       </c>
@@ -4875,6 +4954,9 @@
       <c r="J26" t="s">
         <v>360</v>
       </c>
+      <c r="K26">
+        <v>1</v>
+      </c>
       <c r="M26" s="1">
         <v>6</v>
       </c>
@@ -4914,6 +4996,9 @@
       <c r="J27" t="s">
         <v>360</v>
       </c>
+      <c r="K27">
+        <v>1</v>
+      </c>
       <c r="M27" s="1">
         <v>7</v>
       </c>
@@ -4953,6 +5038,9 @@
       <c r="J28" t="s">
         <v>360</v>
       </c>
+      <c r="K28">
+        <v>1</v>
+      </c>
       <c r="M28" s="1">
         <v>7</v>
       </c>
@@ -4992,6 +5080,9 @@
       <c r="J29" t="s">
         <v>360</v>
       </c>
+      <c r="K29">
+        <v>1</v>
+      </c>
       <c r="M29" s="1">
         <v>7</v>
       </c>
@@ -5031,6 +5122,9 @@
       <c r="J30" t="s">
         <v>360</v>
       </c>
+      <c r="K30">
+        <v>1</v>
+      </c>
       <c r="M30" s="1">
         <v>7</v>
       </c>
@@ -5070,6 +5164,9 @@
       <c r="J31" t="s">
         <v>360</v>
       </c>
+      <c r="K31">
+        <v>1</v>
+      </c>
       <c r="M31" s="1">
         <v>7</v>
       </c>
@@ -5109,6 +5206,9 @@
       <c r="J32" t="s">
         <v>360</v>
       </c>
+      <c r="K32">
+        <v>1</v>
+      </c>
       <c r="M32" s="1">
         <v>7</v>
       </c>
@@ -5148,6 +5248,9 @@
       <c r="J33" t="s">
         <v>360</v>
       </c>
+      <c r="K33">
+        <v>1</v>
+      </c>
       <c r="M33" s="1">
         <v>7</v>
       </c>
@@ -5187,6 +5290,9 @@
       <c r="J34" t="s">
         <v>360</v>
       </c>
+      <c r="K34">
+        <v>1</v>
+      </c>
       <c r="M34" s="1">
         <v>7</v>
       </c>
@@ -5226,6 +5332,9 @@
       <c r="J35" t="s">
         <v>360</v>
       </c>
+      <c r="K35">
+        <v>1</v>
+      </c>
       <c r="M35" s="1">
         <v>7</v>
       </c>
@@ -5265,6 +5374,9 @@
       <c r="J36" t="s">
         <v>360</v>
       </c>
+      <c r="K36">
+        <v>1</v>
+      </c>
       <c r="M36" s="1">
         <v>7</v>
       </c>
@@ -5304,6 +5416,9 @@
       <c r="J37" t="s">
         <v>360</v>
       </c>
+      <c r="K37">
+        <v>1</v>
+      </c>
       <c r="M37" s="1">
         <v>7</v>
       </c>
@@ -5343,6 +5458,9 @@
       <c r="J38" t="s">
         <v>360</v>
       </c>
+      <c r="K38">
+        <v>1</v>
+      </c>
       <c r="M38" s="1">
         <v>7</v>
       </c>
@@ -5382,6 +5500,9 @@
       <c r="J39" t="s">
         <v>360</v>
       </c>
+      <c r="K39">
+        <v>1</v>
+      </c>
       <c r="M39" s="1">
         <v>8</v>
       </c>
@@ -5421,6 +5542,9 @@
       <c r="J40" t="s">
         <v>360</v>
       </c>
+      <c r="K40">
+        <v>1</v>
+      </c>
       <c r="M40" s="1">
         <v>8</v>
       </c>
@@ -5460,6 +5584,9 @@
       <c r="J41" t="s">
         <v>360</v>
       </c>
+      <c r="K41">
+        <v>1</v>
+      </c>
       <c r="M41" s="1">
         <v>8</v>
       </c>
@@ -5499,6 +5626,9 @@
       <c r="J42" t="s">
         <v>360</v>
       </c>
+      <c r="K42">
+        <v>1</v>
+      </c>
       <c r="M42" s="1">
         <v>8</v>
       </c>
@@ -5538,6 +5668,9 @@
       <c r="J43" t="s">
         <v>360</v>
       </c>
+      <c r="K43">
+        <v>1</v>
+      </c>
       <c r="M43" s="1">
         <v>8</v>
       </c>
@@ -5577,6 +5710,9 @@
       <c r="J44" t="s">
         <v>360</v>
       </c>
+      <c r="K44">
+        <v>1</v>
+      </c>
       <c r="M44" s="1">
         <v>8</v>
       </c>
@@ -5616,6 +5752,9 @@
       <c r="J45" t="s">
         <v>360</v>
       </c>
+      <c r="K45">
+        <v>1</v>
+      </c>
       <c r="M45" s="1">
         <v>8</v>
       </c>
@@ -5655,6 +5794,9 @@
       <c r="J46" t="s">
         <v>360</v>
       </c>
+      <c r="K46">
+        <v>1</v>
+      </c>
       <c r="M46" s="1">
         <v>8</v>
       </c>
@@ -5694,6 +5836,9 @@
       <c r="J47" t="s">
         <v>360</v>
       </c>
+      <c r="K47">
+        <v>1</v>
+      </c>
       <c r="M47" s="1">
         <v>8</v>
       </c>
@@ -5733,6 +5878,9 @@
       <c r="J48" t="s">
         <v>360</v>
       </c>
+      <c r="K48">
+        <v>1</v>
+      </c>
       <c r="M48" s="1">
         <v>8</v>
       </c>
@@ -5772,6 +5920,9 @@
       <c r="J49" t="s">
         <v>360</v>
       </c>
+      <c r="K49">
+        <v>1</v>
+      </c>
       <c r="M49" s="1">
         <v>8</v>
       </c>
@@ -5811,6 +5962,9 @@
       <c r="J50" t="s">
         <v>360</v>
       </c>
+      <c r="K50">
+        <v>1</v>
+      </c>
       <c r="M50" s="1">
         <v>8</v>
       </c>
@@ -5850,6 +6004,9 @@
       <c r="J51" t="s">
         <v>360</v>
       </c>
+      <c r="K51">
+        <v>1</v>
+      </c>
       <c r="M51" s="1">
         <v>8</v>
       </c>
@@ -5889,6 +6046,9 @@
       <c r="J52" t="s">
         <v>360</v>
       </c>
+      <c r="K52">
+        <v>1</v>
+      </c>
       <c r="M52" s="1">
         <v>8</v>
       </c>
@@ -5928,6 +6088,9 @@
       <c r="J53" t="s">
         <v>360</v>
       </c>
+      <c r="K53">
+        <v>1</v>
+      </c>
       <c r="M53" s="1">
         <v>8</v>
       </c>
@@ -5967,6 +6130,9 @@
       <c r="J54" t="s">
         <v>360</v>
       </c>
+      <c r="K54">
+        <v>1</v>
+      </c>
       <c r="M54" s="1">
         <v>8</v>
       </c>
@@ -6006,6 +6172,9 @@
       <c r="J55" t="s">
         <v>360</v>
       </c>
+      <c r="K55">
+        <v>1</v>
+      </c>
       <c r="M55" s="1">
         <v>9</v>
       </c>
@@ -6045,6 +6214,9 @@
       <c r="J56" t="s">
         <v>360</v>
       </c>
+      <c r="K56">
+        <v>1</v>
+      </c>
       <c r="M56" s="1">
         <v>9</v>
       </c>
@@ -6084,6 +6256,9 @@
       <c r="J57" t="s">
         <v>360</v>
       </c>
+      <c r="K57">
+        <v>1</v>
+      </c>
       <c r="M57" s="1">
         <v>10</v>
       </c>
@@ -6123,6 +6298,9 @@
       <c r="J58" t="s">
         <v>360</v>
       </c>
+      <c r="K58">
+        <v>1</v>
+      </c>
       <c r="M58" s="1">
         <v>10</v>
       </c>
@@ -6162,6 +6340,9 @@
       <c r="J59" t="s">
         <v>360</v>
       </c>
+      <c r="K59">
+        <v>1</v>
+      </c>
       <c r="M59" s="1">
         <v>10</v>
       </c>
@@ -6201,6 +6382,9 @@
       <c r="J60" t="s">
         <v>360</v>
       </c>
+      <c r="K60">
+        <v>1</v>
+      </c>
       <c r="M60" s="1">
         <v>10</v>
       </c>
@@ -6240,6 +6424,9 @@
       <c r="J61" t="s">
         <v>360</v>
       </c>
+      <c r="K61">
+        <v>1</v>
+      </c>
       <c r="M61" s="1">
         <v>11</v>
       </c>
@@ -6279,6 +6466,9 @@
       <c r="J62" t="s">
         <v>360</v>
       </c>
+      <c r="K62">
+        <v>1</v>
+      </c>
       <c r="M62" s="1">
         <v>11</v>
       </c>
@@ -6318,6 +6508,9 @@
       <c r="J63" t="s">
         <v>360</v>
       </c>
+      <c r="K63">
+        <v>1</v>
+      </c>
       <c r="M63" s="1">
         <v>11</v>
       </c>
@@ -6357,6 +6550,9 @@
       <c r="J64" t="s">
         <v>360</v>
       </c>
+      <c r="K64">
+        <v>1</v>
+      </c>
       <c r="M64" s="1">
         <v>11</v>
       </c>
@@ -6396,6 +6592,9 @@
       <c r="J65" t="s">
         <v>360</v>
       </c>
+      <c r="K65">
+        <v>1</v>
+      </c>
       <c r="M65" s="1">
         <v>11</v>
       </c>
@@ -6435,6 +6634,9 @@
       <c r="J66" t="s">
         <v>360</v>
       </c>
+      <c r="K66">
+        <v>1</v>
+      </c>
       <c r="M66" s="1">
         <v>11</v>
       </c>
@@ -6474,6 +6676,9 @@
       <c r="J67" t="s">
         <v>360</v>
       </c>
+      <c r="K67">
+        <v>1</v>
+      </c>
       <c r="M67" s="1">
         <v>11</v>
       </c>
@@ -6513,6 +6718,9 @@
       <c r="J68" t="s">
         <v>360</v>
       </c>
+      <c r="K68">
+        <v>1</v>
+      </c>
       <c r="M68" s="1">
         <v>11</v>
       </c>
@@ -6552,6 +6760,9 @@
       <c r="J69" t="s">
         <v>360</v>
       </c>
+      <c r="K69">
+        <v>1</v>
+      </c>
       <c r="M69" s="1">
         <v>11</v>
       </c>
@@ -6591,6 +6802,9 @@
       <c r="J70" t="s">
         <v>360</v>
       </c>
+      <c r="K70">
+        <v>1</v>
+      </c>
       <c r="M70" s="1">
         <v>11</v>
       </c>
@@ -6630,6 +6844,9 @@
       <c r="J71" t="s">
         <v>360</v>
       </c>
+      <c r="K71">
+        <v>1</v>
+      </c>
       <c r="M71" s="1">
         <v>11</v>
       </c>
@@ -6669,6 +6886,9 @@
       <c r="J72" t="s">
         <v>360</v>
       </c>
+      <c r="K72">
+        <v>1</v>
+      </c>
       <c r="M72" s="1">
         <v>11</v>
       </c>
@@ -6708,6 +6928,9 @@
       <c r="J73" t="s">
         <v>360</v>
       </c>
+      <c r="K73">
+        <v>1</v>
+      </c>
       <c r="M73" s="1">
         <v>11</v>
       </c>
@@ -6747,6 +6970,9 @@
       <c r="J74" t="s">
         <v>360</v>
       </c>
+      <c r="K74">
+        <v>1</v>
+      </c>
       <c r="M74" s="1">
         <v>11</v>
       </c>
@@ -6786,6 +7012,9 @@
       <c r="J75" t="s">
         <v>360</v>
       </c>
+      <c r="K75">
+        <v>1</v>
+      </c>
       <c r="M75" s="1">
         <v>11</v>
       </c>
@@ -6825,6 +7054,9 @@
       <c r="J76" t="s">
         <v>360</v>
       </c>
+      <c r="K76">
+        <v>1</v>
+      </c>
       <c r="M76" s="1">
         <v>11</v>
       </c>
@@ -6864,6 +7096,9 @@
       <c r="J77" t="s">
         <v>360</v>
       </c>
+      <c r="K77">
+        <v>1</v>
+      </c>
       <c r="M77" s="1">
         <v>12</v>
       </c>
@@ -6903,6 +7138,9 @@
       <c r="J78" t="s">
         <v>360</v>
       </c>
+      <c r="K78">
+        <v>1</v>
+      </c>
       <c r="M78" s="1">
         <v>12</v>
       </c>
@@ -6942,6 +7180,9 @@
       <c r="J79" t="s">
         <v>360</v>
       </c>
+      <c r="K79">
+        <v>1</v>
+      </c>
       <c r="M79" s="1">
         <v>12</v>
       </c>
@@ -6981,6 +7222,9 @@
       <c r="J80" t="s">
         <v>360</v>
       </c>
+      <c r="K80">
+        <v>1</v>
+      </c>
       <c r="M80" s="1">
         <v>12</v>
       </c>
@@ -7020,6 +7264,9 @@
       <c r="J81" t="s">
         <v>360</v>
       </c>
+      <c r="K81">
+        <v>1</v>
+      </c>
       <c r="M81" s="1">
         <v>12</v>
       </c>
@@ -7059,6 +7306,9 @@
       <c r="J82" t="s">
         <v>360</v>
       </c>
+      <c r="K82">
+        <v>1</v>
+      </c>
       <c r="M82" s="1">
         <v>12</v>
       </c>
@@ -7098,6 +7348,9 @@
       <c r="J83" t="s">
         <v>360</v>
       </c>
+      <c r="K83">
+        <v>1</v>
+      </c>
       <c r="M83" s="1">
         <v>12</v>
       </c>
@@ -7137,6 +7390,9 @@
       <c r="J84" t="s">
         <v>360</v>
       </c>
+      <c r="K84">
+        <v>1</v>
+      </c>
       <c r="M84" s="1">
         <v>12</v>
       </c>
@@ -7176,6 +7432,9 @@
       <c r="J85" t="s">
         <v>360</v>
       </c>
+      <c r="K85">
+        <v>1</v>
+      </c>
       <c r="M85" s="1">
         <v>12</v>
       </c>
@@ -7215,6 +7474,9 @@
       <c r="J86" t="s">
         <v>360</v>
       </c>
+      <c r="K86">
+        <v>1</v>
+      </c>
       <c r="M86" s="1">
         <v>12</v>
       </c>
@@ -7254,6 +7516,9 @@
       <c r="J87" t="s">
         <v>360</v>
       </c>
+      <c r="K87">
+        <v>1</v>
+      </c>
       <c r="M87" s="1">
         <v>12</v>
       </c>
@@ -7293,6 +7558,9 @@
       <c r="J88" t="s">
         <v>360</v>
       </c>
+      <c r="K88">
+        <v>1</v>
+      </c>
       <c r="M88" s="1">
         <v>12</v>
       </c>
@@ -7332,6 +7600,9 @@
       <c r="J89" t="s">
         <v>360</v>
       </c>
+      <c r="K89">
+        <v>1</v>
+      </c>
       <c r="M89" s="1">
         <v>12</v>
       </c>
@@ -7371,6 +7642,9 @@
       <c r="J90" t="s">
         <v>360</v>
       </c>
+      <c r="K90">
+        <v>1</v>
+      </c>
       <c r="M90" s="1">
         <v>12</v>
       </c>
@@ -7410,6 +7684,9 @@
       <c r="J91" t="s">
         <v>360</v>
       </c>
+      <c r="K91">
+        <v>1</v>
+      </c>
       <c r="M91" s="1">
         <v>12</v>
       </c>
@@ -7449,6 +7726,9 @@
       <c r="J92" t="s">
         <v>360</v>
       </c>
+      <c r="K92">
+        <v>1</v>
+      </c>
       <c r="M92" s="1">
         <v>12</v>
       </c>
@@ -7488,6 +7768,9 @@
       <c r="J93" t="s">
         <v>360</v>
       </c>
+      <c r="K93">
+        <v>1</v>
+      </c>
       <c r="M93" s="1">
         <v>12</v>
       </c>
@@ -7527,6 +7810,9 @@
       <c r="J94" t="s">
         <v>360</v>
       </c>
+      <c r="K94">
+        <v>1</v>
+      </c>
       <c r="M94" s="1">
         <v>12</v>
       </c>
@@ -7566,6 +7852,9 @@
       <c r="J95" t="s">
         <v>360</v>
       </c>
+      <c r="K95">
+        <v>1</v>
+      </c>
       <c r="M95" s="1">
         <v>12</v>
       </c>
@@ -7605,6 +7894,9 @@
       <c r="J96" t="s">
         <v>360</v>
       </c>
+      <c r="K96">
+        <v>1</v>
+      </c>
       <c r="M96" s="1">
         <v>12</v>
       </c>
@@ -7644,6 +7936,9 @@
       <c r="J97" t="s">
         <v>360</v>
       </c>
+      <c r="K97">
+        <v>1</v>
+      </c>
       <c r="M97" s="1">
         <v>12</v>
       </c>
@@ -7683,6 +7978,9 @@
       <c r="J98" t="s">
         <v>360</v>
       </c>
+      <c r="K98">
+        <v>1</v>
+      </c>
       <c r="M98" s="1">
         <v>12</v>
       </c>
@@ -7722,6 +8020,9 @@
       <c r="J99" t="s">
         <v>360</v>
       </c>
+      <c r="K99">
+        <v>1</v>
+      </c>
       <c r="M99" s="1">
         <v>12</v>
       </c>
@@ -7761,6 +8062,9 @@
       <c r="J100" t="s">
         <v>360</v>
       </c>
+      <c r="K100">
+        <v>1</v>
+      </c>
       <c r="M100" s="1">
         <v>12</v>
       </c>
@@ -7800,6 +8104,9 @@
       <c r="J101" t="s">
         <v>360</v>
       </c>
+      <c r="K101">
+        <v>1</v>
+      </c>
       <c r="M101" s="1">
         <v>12</v>
       </c>
@@ -7839,6 +8146,9 @@
       <c r="J102" t="s">
         <v>360</v>
       </c>
+      <c r="K102">
+        <v>1</v>
+      </c>
       <c r="M102" s="1">
         <v>12</v>
       </c>
@@ -7878,6 +8188,9 @@
       <c r="J103" t="s">
         <v>360</v>
       </c>
+      <c r="K103">
+        <v>1</v>
+      </c>
       <c r="M103" s="1">
         <v>12</v>
       </c>
@@ -7917,6 +8230,9 @@
       <c r="J104" t="s">
         <v>360</v>
       </c>
+      <c r="K104">
+        <v>1</v>
+      </c>
       <c r="M104" s="1">
         <v>12</v>
       </c>
@@ -7956,6 +8272,9 @@
       <c r="J105" t="s">
         <v>360</v>
       </c>
+      <c r="K105">
+        <v>1</v>
+      </c>
       <c r="M105" s="1">
         <v>12</v>
       </c>
@@ -7995,6 +8314,9 @@
       <c r="J106" t="s">
         <v>360</v>
       </c>
+      <c r="K106">
+        <v>1</v>
+      </c>
       <c r="M106" s="1">
         <v>12</v>
       </c>
@@ -8034,6 +8356,9 @@
       <c r="J107" t="s">
         <v>360</v>
       </c>
+      <c r="K107">
+        <v>1</v>
+      </c>
       <c r="M107" s="1">
         <v>12</v>
       </c>
@@ -8073,6 +8398,9 @@
       <c r="J108" t="s">
         <v>360</v>
       </c>
+      <c r="K108">
+        <v>1</v>
+      </c>
       <c r="M108" s="1">
         <v>12</v>
       </c>
@@ -8112,6 +8440,9 @@
       <c r="J109" t="s">
         <v>360</v>
       </c>
+      <c r="K109">
+        <v>1</v>
+      </c>
       <c r="M109" s="1">
         <v>12</v>
       </c>
@@ -8151,6 +8482,9 @@
       <c r="J110" t="s">
         <v>360</v>
       </c>
+      <c r="K110">
+        <v>1</v>
+      </c>
       <c r="M110" s="1">
         <v>12</v>
       </c>
@@ -8190,6 +8524,9 @@
       <c r="J111" t="s">
         <v>360</v>
       </c>
+      <c r="K111">
+        <v>1</v>
+      </c>
       <c r="M111" s="1">
         <v>12</v>
       </c>
@@ -8229,6 +8566,9 @@
       <c r="J112" t="s">
         <v>360</v>
       </c>
+      <c r="K112">
+        <v>1</v>
+      </c>
       <c r="M112" s="1">
         <v>12</v>
       </c>
@@ -8268,6 +8608,9 @@
       <c r="J113" t="s">
         <v>360</v>
       </c>
+      <c r="K113">
+        <v>1</v>
+      </c>
       <c r="M113" s="1">
         <v>12</v>
       </c>
@@ -8307,6 +8650,9 @@
       <c r="J114" t="s">
         <v>360</v>
       </c>
+      <c r="K114">
+        <v>1</v>
+      </c>
       <c r="M114" s="1">
         <v>12</v>
       </c>
@@ -8346,6 +8692,9 @@
       <c r="J115" t="s">
         <v>360</v>
       </c>
+      <c r="K115">
+        <v>1</v>
+      </c>
       <c r="M115" s="1">
         <v>12</v>
       </c>
@@ -8385,6 +8734,9 @@
       <c r="J116" t="s">
         <v>360</v>
       </c>
+      <c r="K116">
+        <v>1</v>
+      </c>
       <c r="M116" s="1">
         <v>12</v>
       </c>
@@ -8424,6 +8776,9 @@
       <c r="J117" t="s">
         <v>360</v>
       </c>
+      <c r="K117">
+        <v>1</v>
+      </c>
       <c r="M117" s="1">
         <v>12</v>
       </c>
@@ -8463,6 +8818,9 @@
       <c r="J118" t="s">
         <v>360</v>
       </c>
+      <c r="K118">
+        <v>1</v>
+      </c>
       <c r="M118" s="1">
         <v>12</v>
       </c>
@@ -8502,6 +8860,9 @@
       <c r="J119" t="s">
         <v>360</v>
       </c>
+      <c r="K119">
+        <v>1</v>
+      </c>
       <c r="M119" s="1">
         <v>12</v>
       </c>
@@ -8541,6 +8902,9 @@
       <c r="J120" t="s">
         <v>360</v>
       </c>
+      <c r="K120">
+        <v>1</v>
+      </c>
       <c r="M120" s="1">
         <v>12</v>
       </c>
@@ -8580,6 +8944,9 @@
       <c r="J121" t="s">
         <v>360</v>
       </c>
+      <c r="K121">
+        <v>1</v>
+      </c>
       <c r="M121" s="1">
         <v>12</v>
       </c>
@@ -8619,6 +8986,9 @@
       <c r="J122" t="s">
         <v>360</v>
       </c>
+      <c r="K122">
+        <v>1</v>
+      </c>
       <c r="M122" s="1">
         <v>12</v>
       </c>
@@ -8658,6 +9028,9 @@
       <c r="J123" t="s">
         <v>360</v>
       </c>
+      <c r="K123">
+        <v>1</v>
+      </c>
       <c r="M123" s="1">
         <v>12</v>
       </c>
@@ -8697,6 +9070,9 @@
       <c r="J124" t="s">
         <v>360</v>
       </c>
+      <c r="K124">
+        <v>1</v>
+      </c>
       <c r="M124" s="1">
         <v>12</v>
       </c>
@@ -8736,6 +9112,9 @@
       <c r="J125" t="s">
         <v>360</v>
       </c>
+      <c r="K125">
+        <v>1</v>
+      </c>
       <c r="M125" s="1">
         <v>12</v>
       </c>
@@ -8775,6 +9154,9 @@
       <c r="J126" t="s">
         <v>360</v>
       </c>
+      <c r="K126">
+        <v>1</v>
+      </c>
       <c r="M126" s="1">
         <v>12</v>
       </c>
@@ -8814,6 +9196,9 @@
       <c r="J127" t="s">
         <v>360</v>
       </c>
+      <c r="K127">
+        <v>1</v>
+      </c>
       <c r="M127" s="1">
         <v>12</v>
       </c>
@@ -8853,6 +9238,9 @@
       <c r="J128" t="s">
         <v>360</v>
       </c>
+      <c r="K128">
+        <v>1</v>
+      </c>
       <c r="M128" s="1">
         <v>12</v>
       </c>
@@ -8892,6 +9280,9 @@
       <c r="J129" t="s">
         <v>360</v>
       </c>
+      <c r="K129">
+        <v>1</v>
+      </c>
       <c r="M129" s="1">
         <v>12</v>
       </c>
@@ -8931,6 +9322,9 @@
       <c r="J130" t="s">
         <v>360</v>
       </c>
+      <c r="K130">
+        <v>1</v>
+      </c>
       <c r="M130" s="1">
         <v>12</v>
       </c>
@@ -8970,6 +9364,9 @@
       <c r="J131" t="s">
         <v>360</v>
       </c>
+      <c r="K131">
+        <v>1</v>
+      </c>
       <c r="M131" s="1">
         <v>12</v>
       </c>
@@ -9009,6 +9406,9 @@
       <c r="J132" t="s">
         <v>360</v>
       </c>
+      <c r="K132">
+        <v>1</v>
+      </c>
       <c r="M132" s="1">
         <v>12</v>
       </c>
@@ -9048,6 +9448,9 @@
       <c r="J133" t="s">
         <v>360</v>
       </c>
+      <c r="K133">
+        <v>1</v>
+      </c>
       <c r="M133" s="1">
         <v>12</v>
       </c>
@@ -9087,6 +9490,9 @@
       <c r="J134" t="s">
         <v>360</v>
       </c>
+      <c r="K134">
+        <v>1</v>
+      </c>
       <c r="M134" s="1">
         <v>12</v>
       </c>
@@ -9126,6 +9532,9 @@
       <c r="J135" t="s">
         <v>360</v>
       </c>
+      <c r="K135">
+        <v>1</v>
+      </c>
       <c r="M135" s="1">
         <v>12</v>
       </c>
@@ -9165,6 +9574,9 @@
       <c r="J136" t="s">
         <v>360</v>
       </c>
+      <c r="K136">
+        <v>1</v>
+      </c>
       <c r="M136" s="1">
         <v>12</v>
       </c>
@@ -9204,6 +9616,9 @@
       <c r="J137" t="s">
         <v>360</v>
       </c>
+      <c r="K137">
+        <v>1</v>
+      </c>
       <c r="M137" s="1">
         <v>13</v>
       </c>
@@ -9243,6 +9658,9 @@
       <c r="J138" t="s">
         <v>360</v>
       </c>
+      <c r="K138">
+        <v>1</v>
+      </c>
       <c r="M138" s="1">
         <v>13</v>
       </c>
@@ -9282,6 +9700,9 @@
       <c r="J139" t="s">
         <v>360</v>
       </c>
+      <c r="K139">
+        <v>1</v>
+      </c>
       <c r="M139" s="1">
         <v>13</v>
       </c>
@@ -9321,6 +9742,9 @@
       <c r="J140" t="s">
         <v>360</v>
       </c>
+      <c r="K140">
+        <v>1</v>
+      </c>
       <c r="M140" s="7">
         <v>13</v>
       </c>
@@ -9360,6 +9784,9 @@
       <c r="J141" t="s">
         <v>360</v>
       </c>
+      <c r="K141">
+        <v>1</v>
+      </c>
       <c r="M141" s="8">
         <v>14</v>
       </c>
@@ -9399,6 +9826,9 @@
       <c r="J142" t="s">
         <v>360</v>
       </c>
+      <c r="K142">
+        <v>1</v>
+      </c>
       <c r="M142" s="8">
         <v>14</v>
       </c>
@@ -9438,6 +9868,9 @@
       <c r="J143" t="s">
         <v>360</v>
       </c>
+      <c r="K143">
+        <v>1</v>
+      </c>
       <c r="M143" s="8">
         <v>14</v>
       </c>
@@ -9477,6 +9910,9 @@
       <c r="J144" t="s">
         <v>360</v>
       </c>
+      <c r="K144">
+        <v>1</v>
+      </c>
       <c r="M144" s="8">
         <v>14</v>
       </c>
@@ -9516,6 +9952,9 @@
       <c r="J145" t="s">
         <v>360</v>
       </c>
+      <c r="K145">
+        <v>1</v>
+      </c>
       <c r="M145" s="8">
         <v>14</v>
       </c>
@@ -9555,6 +9994,9 @@
       <c r="J146" t="s">
         <v>360</v>
       </c>
+      <c r="K146">
+        <v>1</v>
+      </c>
     </row>
     <row r="147" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A147" s="3" t="s">
@@ -9588,6 +10030,9 @@
       <c r="J147" t="s">
         <v>360</v>
       </c>
+      <c r="K147">
+        <v>1</v>
+      </c>
     </row>
     <row r="148" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A148" s="3" t="s">
@@ -9621,6 +10066,9 @@
       <c r="J148" t="s">
         <v>360</v>
       </c>
+      <c r="K148">
+        <v>1</v>
+      </c>
     </row>
     <row r="149" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A149" s="3" t="s">
@@ -9654,6 +10102,9 @@
       <c r="J149" t="s">
         <v>360</v>
       </c>
+      <c r="K149">
+        <v>1</v>
+      </c>
     </row>
     <row r="150" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A150" s="3" t="s">
@@ -9687,6 +10138,9 @@
       <c r="J150" t="s">
         <v>360</v>
       </c>
+      <c r="K150">
+        <v>1</v>
+      </c>
     </row>
     <row r="151" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A151" s="3" t="s">
@@ -9720,6 +10174,9 @@
       <c r="J151" t="s">
         <v>360</v>
       </c>
+      <c r="K151">
+        <v>1</v>
+      </c>
     </row>
     <row r="152" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A152" s="3" t="s">
@@ -9753,6 +10210,9 @@
       <c r="J152" t="s">
         <v>360</v>
       </c>
+      <c r="K152">
+        <v>1</v>
+      </c>
     </row>
     <row r="153" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A153" s="3" t="s">
@@ -9786,6 +10246,9 @@
       <c r="J153" t="s">
         <v>360</v>
       </c>
+      <c r="K153">
+        <v>1</v>
+      </c>
     </row>
     <row r="154" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A154" s="3" t="s">
@@ -9819,6 +10282,9 @@
       <c r="J154" t="s">
         <v>360</v>
       </c>
+      <c r="K154">
+        <v>1</v>
+      </c>
     </row>
     <row r="155" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A155" s="3" t="s">
@@ -9852,6 +10318,9 @@
       <c r="J155" t="s">
         <v>360</v>
       </c>
+      <c r="K155">
+        <v>1</v>
+      </c>
     </row>
     <row r="156" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A156" s="3" t="s">
@@ -9885,6 +10354,9 @@
       <c r="J156" t="s">
         <v>360</v>
       </c>
+      <c r="K156">
+        <v>1</v>
+      </c>
     </row>
     <row r="157" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A157" s="3" t="s">
@@ -9918,6 +10390,9 @@
       <c r="J157" t="s">
         <v>360</v>
       </c>
+      <c r="K157">
+        <v>1</v>
+      </c>
     </row>
     <row r="158" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A158" s="3" t="s">
@@ -9951,6 +10426,9 @@
       <c r="J158" t="s">
         <v>360</v>
       </c>
+      <c r="K158">
+        <v>1</v>
+      </c>
     </row>
     <row r="159" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A159" s="3" t="s">
@@ -9984,6 +10462,9 @@
       <c r="J159" t="s">
         <v>360</v>
       </c>
+      <c r="K159">
+        <v>1</v>
+      </c>
     </row>
     <row r="160" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A160" s="3" t="s">
@@ -10017,8 +10498,11 @@
       <c r="J160" t="s">
         <v>360</v>
       </c>
-    </row>
-    <row r="161" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K160">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="161" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A161" s="3" t="s">
         <v>183</v>
       </c>
@@ -10050,8 +10534,11 @@
       <c r="J161" t="s">
         <v>360</v>
       </c>
-    </row>
-    <row r="162" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K161">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="162" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A162" s="3" t="s">
         <v>184</v>
       </c>
@@ -10083,8 +10570,11 @@
       <c r="J162" t="s">
         <v>360</v>
       </c>
-    </row>
-    <row r="163" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K162">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="163" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A163" s="3" t="s">
         <v>185</v>
       </c>
@@ -10116,8 +10606,11 @@
       <c r="J163" t="s">
         <v>360</v>
       </c>
-    </row>
-    <row r="164" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K163">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="164" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A164" s="3" t="s">
         <v>186</v>
       </c>
@@ -10149,8 +10642,11 @@
       <c r="J164" t="s">
         <v>360</v>
       </c>
-    </row>
-    <row r="165" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K164">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="165" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A165" s="3" t="s">
         <v>187</v>
       </c>
@@ -10182,8 +10678,11 @@
       <c r="J165" t="s">
         <v>360</v>
       </c>
-    </row>
-    <row r="166" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K165">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="166" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A166" s="3" t="s">
         <v>188</v>
       </c>
@@ -10215,8 +10714,11 @@
       <c r="J166" t="s">
         <v>360</v>
       </c>
-    </row>
-    <row r="167" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K166">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="167" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A167" s="3" t="s">
         <v>189</v>
       </c>
@@ -10248,8 +10750,11 @@
       <c r="J167" t="s">
         <v>360</v>
       </c>
-    </row>
-    <row r="168" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K167">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="168" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A168" s="3" t="s">
         <v>190</v>
       </c>
@@ -10281,8 +10786,11 @@
       <c r="J168" t="s">
         <v>360</v>
       </c>
-    </row>
-    <row r="169" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K168">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="169" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A169" s="3" t="s">
         <v>191</v>
       </c>
@@ -10314,8 +10822,11 @@
       <c r="J169" t="s">
         <v>360</v>
       </c>
-    </row>
-    <row r="170" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K169">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="170" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A170" s="3" t="s">
         <v>192</v>
       </c>
@@ -10347,8 +10858,11 @@
       <c r="J170" t="s">
         <v>360</v>
       </c>
-    </row>
-    <row r="171" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K170">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="171" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A171" s="3" t="s">
         <v>193</v>
       </c>
@@ -10380,8 +10894,11 @@
       <c r="J171" t="s">
         <v>360</v>
       </c>
-    </row>
-    <row r="172" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K171">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="172" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A172" s="3" t="s">
         <v>194</v>
       </c>
@@ -10413,8 +10930,11 @@
       <c r="J172" t="s">
         <v>360</v>
       </c>
-    </row>
-    <row r="173" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K172">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="173" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A173" s="3" t="s">
         <v>195</v>
       </c>
@@ -10446,8 +10966,11 @@
       <c r="J173" t="s">
         <v>360</v>
       </c>
-    </row>
-    <row r="174" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K173">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="174" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A174" s="3" t="s">
         <v>196</v>
       </c>
@@ -10479,8 +11002,11 @@
       <c r="J174" t="s">
         <v>360</v>
       </c>
-    </row>
-    <row r="175" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K174">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="175" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A175" s="3" t="s">
         <v>197</v>
       </c>
@@ -10512,8 +11038,11 @@
       <c r="J175" t="s">
         <v>360</v>
       </c>
-    </row>
-    <row r="176" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K175">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="176" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A176" s="3" t="s">
         <v>198</v>
       </c>
@@ -10545,8 +11074,11 @@
       <c r="J176" t="s">
         <v>360</v>
       </c>
-    </row>
-    <row r="177" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K176">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="177" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A177" s="3" t="s">
         <v>199</v>
       </c>
@@ -10578,8 +11110,11 @@
       <c r="J177" t="s">
         <v>360</v>
       </c>
-    </row>
-    <row r="178" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K177">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="178" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A178" s="3" t="s">
         <v>200</v>
       </c>
@@ -10611,8 +11146,11 @@
       <c r="J178" t="s">
         <v>360</v>
       </c>
-    </row>
-    <row r="179" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K178">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="179" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A179" s="3" t="s">
         <v>201</v>
       </c>
@@ -10644,8 +11182,11 @@
       <c r="J179" t="s">
         <v>360</v>
       </c>
-    </row>
-    <row r="180" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K179">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="180" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A180" s="3" t="s">
         <v>202</v>
       </c>
@@ -10677,8 +11218,11 @@
       <c r="J180" t="s">
         <v>360</v>
       </c>
-    </row>
-    <row r="181" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K180">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="181" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A181" s="3" t="s">
         <v>203</v>
       </c>
@@ -10710,8 +11254,11 @@
       <c r="J181" t="s">
         <v>360</v>
       </c>
-    </row>
-    <row r="182" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K181">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="182" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A182" s="3" t="s">
         <v>204</v>
       </c>
@@ -10743,8 +11290,11 @@
       <c r="J182" t="s">
         <v>360</v>
       </c>
-    </row>
-    <row r="183" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K182">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="183" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A183" s="3" t="s">
         <v>205</v>
       </c>
@@ -10776,8 +11326,11 @@
       <c r="J183" t="s">
         <v>360</v>
       </c>
-    </row>
-    <row r="184" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K183">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="184" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A184" s="3" t="s">
         <v>206</v>
       </c>
@@ -10809,8 +11362,11 @@
       <c r="J184" t="s">
         <v>360</v>
       </c>
-    </row>
-    <row r="185" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K184">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="185" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A185" s="3" t="s">
         <v>207</v>
       </c>
@@ -10842,8 +11398,11 @@
       <c r="J185" t="s">
         <v>360</v>
       </c>
-    </row>
-    <row r="186" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K185">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="186" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A186" s="3" t="s">
         <v>208</v>
       </c>
@@ -10875,8 +11434,11 @@
       <c r="J186" t="s">
         <v>360</v>
       </c>
-    </row>
-    <row r="187" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K186">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="187" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A187" s="3" t="s">
         <v>209</v>
       </c>
@@ -10908,8 +11470,11 @@
       <c r="J187" t="s">
         <v>360</v>
       </c>
-    </row>
-    <row r="188" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K187">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="188" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A188" s="3" t="s">
         <v>210</v>
       </c>
@@ -10941,8 +11506,11 @@
       <c r="J188" t="s">
         <v>360</v>
       </c>
-    </row>
-    <row r="189" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K188">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="189" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A189" s="3" t="s">
         <v>211</v>
       </c>
@@ -10974,8 +11542,11 @@
       <c r="J189" t="s">
         <v>360</v>
       </c>
-    </row>
-    <row r="190" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K189">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="190" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A190" s="3" t="s">
         <v>212</v>
       </c>
@@ -11007,8 +11578,11 @@
       <c r="J190" t="s">
         <v>360</v>
       </c>
-    </row>
-    <row r="191" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K190">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="191" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A191" s="3" t="s">
         <v>213</v>
       </c>
@@ -11040,8 +11614,11 @@
       <c r="J191" t="s">
         <v>360</v>
       </c>
-    </row>
-    <row r="192" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K191">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="192" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A192" s="3" t="s">
         <v>214</v>
       </c>
@@ -11073,8 +11650,11 @@
       <c r="J192" t="s">
         <v>360</v>
       </c>
-    </row>
-    <row r="193" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K192">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="193" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A193" s="3" t="s">
         <v>215</v>
       </c>
@@ -11106,8 +11686,11 @@
       <c r="J193" t="s">
         <v>360</v>
       </c>
-    </row>
-    <row r="194" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K193">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="194" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A194" s="3" t="s">
         <v>216</v>
       </c>
@@ -11139,8 +11722,11 @@
       <c r="J194" t="s">
         <v>360</v>
       </c>
-    </row>
-    <row r="195" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K194">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="195" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A195" s="3" t="s">
         <v>217</v>
       </c>
@@ -11172,8 +11758,11 @@
       <c r="J195" t="s">
         <v>360</v>
       </c>
-    </row>
-    <row r="196" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K195">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="196" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A196" s="3" t="s">
         <v>218</v>
       </c>
@@ -11205,8 +11794,11 @@
       <c r="J196" t="s">
         <v>360</v>
       </c>
-    </row>
-    <row r="197" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K196">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="197" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A197" s="3" t="s">
         <v>219</v>
       </c>
@@ -11238,8 +11830,11 @@
       <c r="J197" t="s">
         <v>360</v>
       </c>
-    </row>
-    <row r="198" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K197">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="198" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A198" s="3" t="s">
         <v>57</v>
       </c>
@@ -11271,8 +11866,11 @@
       <c r="J198" t="s">
         <v>360</v>
       </c>
-    </row>
-    <row r="199" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K198">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="199" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A199" s="3" t="s">
         <v>220</v>
       </c>
@@ -11304,8 +11902,11 @@
       <c r="J199" t="s">
         <v>360</v>
       </c>
-    </row>
-    <row r="200" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K199">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="200" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A200" s="3" t="s">
         <v>221</v>
       </c>
@@ -11336,8 +11937,11 @@
       <c r="J200" t="s">
         <v>360</v>
       </c>
-    </row>
-    <row r="201" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K200">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="201" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A201" s="3" t="s">
         <v>222</v>
       </c>
@@ -11369,8 +11973,11 @@
       <c r="J201" t="s">
         <v>360</v>
       </c>
-    </row>
-    <row r="202" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K201">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="202" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A202" s="3" t="s">
         <v>223</v>
       </c>
@@ -11402,8 +12009,11 @@
       <c r="J202" t="s">
         <v>360</v>
       </c>
-    </row>
-    <row r="203" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K202">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="203" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A203" s="3" t="s">
         <v>224</v>
       </c>
@@ -11435,8 +12045,11 @@
       <c r="J203" t="s">
         <v>360</v>
       </c>
-    </row>
-    <row r="204" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K203">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="204" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A204" s="3" t="s">
         <v>225</v>
       </c>
@@ -11468,8 +12081,11 @@
       <c r="J204" t="s">
         <v>360</v>
       </c>
-    </row>
-    <row r="205" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K204">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="205" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A205" s="3" t="s">
         <v>226</v>
       </c>
@@ -11501,8 +12117,11 @@
       <c r="J205" t="s">
         <v>360</v>
       </c>
-    </row>
-    <row r="206" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K205">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="206" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A206" s="3" t="s">
         <v>227</v>
       </c>
@@ -11534,8 +12153,11 @@
       <c r="J206" t="s">
         <v>360</v>
       </c>
-    </row>
-    <row r="207" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K206">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="207" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A207" s="3" t="s">
         <v>228</v>
       </c>
@@ -11567,8 +12189,11 @@
       <c r="J207" t="s">
         <v>360</v>
       </c>
-    </row>
-    <row r="208" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K207">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="208" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A208" s="3" t="s">
         <v>229</v>
       </c>
@@ -11600,8 +12225,11 @@
       <c r="J208" t="s">
         <v>360</v>
       </c>
-    </row>
-    <row r="209" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K208">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="209" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A209" s="3" t="s">
         <v>230</v>
       </c>
@@ -11633,8 +12261,11 @@
       <c r="J209" t="s">
         <v>360</v>
       </c>
-    </row>
-    <row r="210" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K209">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="210" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A210" s="3" t="s">
         <v>231</v>
       </c>
@@ -11666,8 +12297,11 @@
       <c r="J210" t="s">
         <v>360</v>
       </c>
-    </row>
-    <row r="211" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K210">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="211" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A211" s="3" t="s">
         <v>232</v>
       </c>
@@ -11699,8 +12333,11 @@
       <c r="J211" t="s">
         <v>360</v>
       </c>
-    </row>
-    <row r="212" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K211">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="212" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A212" s="3" t="s">
         <v>233</v>
       </c>
@@ -11732,8 +12369,11 @@
       <c r="J212" t="s">
         <v>360</v>
       </c>
-    </row>
-    <row r="213" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K212">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="213" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A213" s="3" t="s">
         <v>234</v>
       </c>
@@ -11765,8 +12405,11 @@
       <c r="J213" t="s">
         <v>360</v>
       </c>
-    </row>
-    <row r="214" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K213">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="214" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A214" s="3" t="s">
         <v>235</v>
       </c>
@@ -11798,8 +12441,11 @@
       <c r="J214" t="s">
         <v>360</v>
       </c>
-    </row>
-    <row r="215" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K214">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="215" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A215" s="3" t="s">
         <v>236</v>
       </c>
@@ -11831,8 +12477,11 @@
       <c r="J215" t="s">
         <v>360</v>
       </c>
-    </row>
-    <row r="216" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K215">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="216" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A216" s="3" t="s">
         <v>237</v>
       </c>
@@ -11864,8 +12513,11 @@
       <c r="J216" t="s">
         <v>360</v>
       </c>
-    </row>
-    <row r="217" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K216">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="217" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A217" s="3" t="s">
         <v>238</v>
       </c>
@@ -11897,8 +12549,11 @@
       <c r="J217" t="s">
         <v>360</v>
       </c>
-    </row>
-    <row r="218" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K217">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="218" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A218" s="3" t="s">
         <v>239</v>
       </c>
@@ -11930,8 +12585,11 @@
       <c r="J218" t="s">
         <v>360</v>
       </c>
-    </row>
-    <row r="219" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K218">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="219" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A219" s="3" t="s">
         <v>240</v>
       </c>
@@ -11963,8 +12621,11 @@
       <c r="J219" t="s">
         <v>360</v>
       </c>
-    </row>
-    <row r="220" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K219">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="220" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A220" s="3" t="s">
         <v>241</v>
       </c>
@@ -11996,8 +12657,11 @@
       <c r="J220" t="s">
         <v>360</v>
       </c>
-    </row>
-    <row r="221" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K220">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="221" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A221" s="3" t="s">
         <v>242</v>
       </c>
@@ -12029,8 +12693,11 @@
       <c r="J221" t="s">
         <v>360</v>
       </c>
-    </row>
-    <row r="222" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K221">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="222" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A222" s="3" t="s">
         <v>243</v>
       </c>
@@ -12062,8 +12729,11 @@
       <c r="J222" t="s">
         <v>360</v>
       </c>
-    </row>
-    <row r="223" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K222">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="223" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A223" s="3" t="s">
         <v>244</v>
       </c>
@@ -12095,8 +12765,11 @@
       <c r="J223" t="s">
         <v>360</v>
       </c>
-    </row>
-    <row r="224" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K223">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="224" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A224" s="3" t="s">
         <v>245</v>
       </c>
@@ -12128,8 +12801,11 @@
       <c r="J224" t="s">
         <v>360</v>
       </c>
-    </row>
-    <row r="225" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K224">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="225" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A225" s="3" t="s">
         <v>246</v>
       </c>
@@ -12161,8 +12837,11 @@
       <c r="J225" t="s">
         <v>360</v>
       </c>
-    </row>
-    <row r="226" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K225">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="226" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A226" s="3" t="s">
         <v>247</v>
       </c>
@@ -12194,8 +12873,11 @@
       <c r="J226" t="s">
         <v>360</v>
       </c>
-    </row>
-    <row r="227" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K226">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="227" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A227" s="3" t="s">
         <v>248</v>
       </c>
@@ -12227,8 +12909,11 @@
       <c r="J227" t="s">
         <v>360</v>
       </c>
-    </row>
-    <row r="228" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K227">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="228" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A228" s="3" t="s">
         <v>249</v>
       </c>
@@ -12260,8 +12945,11 @@
       <c r="J228" t="s">
         <v>360</v>
       </c>
-    </row>
-    <row r="229" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K228">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="229" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A229" s="3" t="s">
         <v>250</v>
       </c>
@@ -12293,8 +12981,11 @@
       <c r="J229" t="s">
         <v>360</v>
       </c>
-    </row>
-    <row r="230" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K229">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="230" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A230" s="3" t="s">
         <v>251</v>
       </c>
@@ -12326,8 +13017,11 @@
       <c r="J230" t="s">
         <v>360</v>
       </c>
-    </row>
-    <row r="231" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K230">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="231" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A231" s="3" t="s">
         <v>252</v>
       </c>
@@ -12359,8 +13053,11 @@
       <c r="J231" t="s">
         <v>360</v>
       </c>
-    </row>
-    <row r="232" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K231">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="232" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A232" s="3" t="s">
         <v>58</v>
       </c>
@@ -12392,8 +13089,11 @@
       <c r="J232" t="s">
         <v>360</v>
       </c>
-    </row>
-    <row r="233" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K232">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="233" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A233" s="3" t="s">
         <v>59</v>
       </c>
@@ -12425,8 +13125,11 @@
       <c r="J233" t="s">
         <v>360</v>
       </c>
-    </row>
-    <row r="234" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K233">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="234" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A234" s="3" t="s">
         <v>253</v>
       </c>
@@ -12458,8 +13161,11 @@
       <c r="J234" t="s">
         <v>360</v>
       </c>
-    </row>
-    <row r="235" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K234">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="235" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A235" s="3" t="s">
         <v>254</v>
       </c>
@@ -12491,8 +13197,11 @@
       <c r="J235" t="s">
         <v>360</v>
       </c>
-    </row>
-    <row r="236" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K235">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="236" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A236" s="3" t="s">
         <v>255</v>
       </c>
@@ -12524,8 +13233,11 @@
       <c r="J236" t="s">
         <v>360</v>
       </c>
-    </row>
-    <row r="237" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K236">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="237" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A237" s="3" t="s">
         <v>256</v>
       </c>
@@ -12557,8 +13269,11 @@
       <c r="J237" t="s">
         <v>360</v>
       </c>
-    </row>
-    <row r="238" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K237">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="238" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A238" s="3" t="s">
         <v>257</v>
       </c>
@@ -12590,8 +13305,11 @@
       <c r="J238" t="s">
         <v>360</v>
       </c>
-    </row>
-    <row r="239" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K238">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="239" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A239" s="3" t="s">
         <v>258</v>
       </c>
@@ -12623,8 +13341,11 @@
       <c r="J239" t="s">
         <v>360</v>
       </c>
-    </row>
-    <row r="240" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K239">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="240" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A240" s="3" t="s">
         <v>259</v>
       </c>
@@ -12656,8 +13377,11 @@
       <c r="J240" t="s">
         <v>360</v>
       </c>
-    </row>
-    <row r="241" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K240">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="241" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A241" s="3" t="s">
         <v>260</v>
       </c>
@@ -12689,8 +13413,11 @@
       <c r="J241" t="s">
         <v>360</v>
       </c>
-    </row>
-    <row r="242" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K241">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="242" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A242" s="3" t="s">
         <v>261</v>
       </c>
@@ -12722,8 +13449,11 @@
       <c r="J242" t="s">
         <v>360</v>
       </c>
-    </row>
-    <row r="243" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K242">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="243" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A243" s="3" t="s">
         <v>262</v>
       </c>
@@ -12755,8 +13485,11 @@
       <c r="J243" t="s">
         <v>360</v>
       </c>
-    </row>
-    <row r="244" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K243">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="244" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A244" s="3" t="s">
         <v>263</v>
       </c>
@@ -12788,8 +13521,11 @@
       <c r="J244" t="s">
         <v>360</v>
       </c>
-    </row>
-    <row r="245" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K244">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="245" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A245" s="3" t="s">
         <v>264</v>
       </c>
@@ -12821,8 +13557,11 @@
       <c r="J245" t="s">
         <v>360</v>
       </c>
-    </row>
-    <row r="246" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K245">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="246" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A246" s="3" t="s">
         <v>265</v>
       </c>
@@ -12854,8 +13593,11 @@
       <c r="J246" t="s">
         <v>360</v>
       </c>
-    </row>
-    <row r="247" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K246">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="247" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A247" s="3" t="s">
         <v>266</v>
       </c>
@@ -12887,8 +13629,11 @@
       <c r="J247" t="s">
         <v>360</v>
       </c>
-    </row>
-    <row r="248" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K247">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="248" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A248" s="3" t="s">
         <v>267</v>
       </c>
@@ -12920,8 +13665,11 @@
       <c r="J248" t="s">
         <v>360</v>
       </c>
-    </row>
-    <row r="249" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K248">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="249" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A249" s="3" t="s">
         <v>268</v>
       </c>
@@ -12953,8 +13701,11 @@
       <c r="J249" t="s">
         <v>360</v>
       </c>
-    </row>
-    <row r="250" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K249">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="250" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A250" s="3" t="s">
         <v>269</v>
       </c>
@@ -12986,8 +13737,11 @@
       <c r="J250" t="s">
         <v>360</v>
       </c>
-    </row>
-    <row r="251" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K250">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="251" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A251" s="3" t="s">
         <v>270</v>
       </c>
@@ -13019,8 +13773,11 @@
       <c r="J251" t="s">
         <v>360</v>
       </c>
-    </row>
-    <row r="252" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K251">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="252" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A252" s="3" t="s">
         <v>271</v>
       </c>
@@ -13052,8 +13809,11 @@
       <c r="J252" t="s">
         <v>360</v>
       </c>
-    </row>
-    <row r="253" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K252">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="253" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A253" s="3" t="s">
         <v>272</v>
       </c>
@@ -13085,8 +13845,11 @@
       <c r="J253" t="s">
         <v>360</v>
       </c>
-    </row>
-    <row r="254" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K253">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="254" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A254" s="3" t="s">
         <v>273</v>
       </c>
@@ -13118,8 +13881,11 @@
       <c r="J254" t="s">
         <v>360</v>
       </c>
-    </row>
-    <row r="255" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K254">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="255" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A255" s="3" t="s">
         <v>274</v>
       </c>
@@ -13151,8 +13917,11 @@
       <c r="J255" t="s">
         <v>360</v>
       </c>
-    </row>
-    <row r="256" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K255">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="256" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A256" s="3" t="s">
         <v>275</v>
       </c>
@@ -13184,8 +13953,11 @@
       <c r="J256" t="s">
         <v>360</v>
       </c>
-    </row>
-    <row r="257" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K256">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="257" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A257" s="3" t="s">
         <v>276</v>
       </c>
@@ -13217,8 +13989,11 @@
       <c r="J257" t="s">
         <v>360</v>
       </c>
-    </row>
-    <row r="258" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K257">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="258" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A258" s="3" t="s">
         <v>277</v>
       </c>
@@ -13250,8 +14025,11 @@
       <c r="J258" t="s">
         <v>360</v>
       </c>
-    </row>
-    <row r="259" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K258">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="259" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A259" s="3" t="s">
         <v>278</v>
       </c>
@@ -13283,8 +14061,11 @@
       <c r="J259" t="s">
         <v>360</v>
       </c>
-    </row>
-    <row r="260" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K259">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="260" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A260" s="3" t="s">
         <v>279</v>
       </c>
@@ -13316,8 +14097,11 @@
       <c r="J260" t="s">
         <v>360</v>
       </c>
-    </row>
-    <row r="261" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K260">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="261" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A261" s="3" t="s">
         <v>280</v>
       </c>
@@ -13349,8 +14133,11 @@
       <c r="J261" t="s">
         <v>360</v>
       </c>
-    </row>
-    <row r="262" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K261">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="262" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A262" s="3" t="s">
         <v>281</v>
       </c>
@@ -13382,8 +14169,11 @@
       <c r="J262" t="s">
         <v>360</v>
       </c>
-    </row>
-    <row r="263" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K262">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="263" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A263" s="3" t="s">
         <v>282</v>
       </c>
@@ -13415,8 +14205,11 @@
       <c r="J263" t="s">
         <v>360</v>
       </c>
-    </row>
-    <row r="264" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K263">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="264" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A264" s="3" t="s">
         <v>283</v>
       </c>
@@ -13448,8 +14241,11 @@
       <c r="J264" t="s">
         <v>360</v>
       </c>
-    </row>
-    <row r="265" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K264">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="265" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A265" s="3" t="s">
         <v>284</v>
       </c>
@@ -13481,8 +14277,11 @@
       <c r="J265" t="s">
         <v>360</v>
       </c>
-    </row>
-    <row r="266" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K265">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="266" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A266" s="3" t="s">
         <v>285</v>
       </c>
@@ -13514,8 +14313,11 @@
       <c r="J266" t="s">
         <v>360</v>
       </c>
-    </row>
-    <row r="267" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K266">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="267" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A267" s="3" t="s">
         <v>286</v>
       </c>
@@ -13547,8 +14349,11 @@
       <c r="J267" t="s">
         <v>360</v>
       </c>
-    </row>
-    <row r="268" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K267">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="268" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A268" s="3" t="s">
         <v>287</v>
       </c>
@@ -13580,8 +14385,11 @@
       <c r="J268" t="s">
         <v>360</v>
       </c>
-    </row>
-    <row r="269" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K268">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="269" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A269" s="3" t="s">
         <v>288</v>
       </c>
@@ -13613,8 +14421,11 @@
       <c r="J269" t="s">
         <v>360</v>
       </c>
-    </row>
-    <row r="270" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K269">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="270" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A270" s="3" t="s">
         <v>289</v>
       </c>
@@ -13646,8 +14457,11 @@
       <c r="J270" t="s">
         <v>360</v>
       </c>
-    </row>
-    <row r="271" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K270">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="271" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A271" s="3" t="s">
         <v>290</v>
       </c>
@@ -13679,8 +14493,11 @@
       <c r="J271" t="s">
         <v>360</v>
       </c>
-    </row>
-    <row r="272" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K271">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="272" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A272" s="3" t="s">
         <v>291</v>
       </c>
@@ -13712,8 +14529,11 @@
       <c r="J272" t="s">
         <v>360</v>
       </c>
-    </row>
-    <row r="273" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K272">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="273" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A273" s="3" t="s">
         <v>292</v>
       </c>
@@ -13745,8 +14565,11 @@
       <c r="J273" t="s">
         <v>360</v>
       </c>
-    </row>
-    <row r="274" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K273">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="274" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A274" s="3" t="s">
         <v>1106</v>
       </c>
@@ -13778,8 +14601,11 @@
       <c r="J274" t="s">
         <v>360</v>
       </c>
-    </row>
-    <row r="275" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K274">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="275" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A275" s="3" t="s">
         <v>293</v>
       </c>
@@ -13811,8 +14637,11 @@
       <c r="J275" t="s">
         <v>360</v>
       </c>
-    </row>
-    <row r="276" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K275">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="276" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A276" s="3" t="s">
         <v>294</v>
       </c>
@@ -13844,8 +14673,11 @@
       <c r="J276" t="s">
         <v>360</v>
       </c>
-    </row>
-    <row r="277" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K276">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="277" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A277" s="3" t="s">
         <v>295</v>
       </c>
@@ -13877,8 +14709,11 @@
       <c r="J277" t="s">
         <v>360</v>
       </c>
-    </row>
-    <row r="278" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K277">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="278" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A278" s="3" t="s">
         <v>296</v>
       </c>
@@ -13910,8 +14745,11 @@
       <c r="J278" t="s">
         <v>360</v>
       </c>
-    </row>
-    <row r="279" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K278">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="279" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A279" s="3" t="s">
         <v>297</v>
       </c>
@@ -13943,8 +14781,11 @@
       <c r="J279" t="s">
         <v>360</v>
       </c>
-    </row>
-    <row r="280" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K279">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="280" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A280" s="3" t="s">
         <v>298</v>
       </c>
@@ -13976,8 +14817,11 @@
       <c r="J280" t="s">
         <v>360</v>
       </c>
-    </row>
-    <row r="281" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K280">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="281" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A281" s="3" t="s">
         <v>299</v>
       </c>
@@ -14009,8 +14853,11 @@
       <c r="J281" t="s">
         <v>360</v>
       </c>
-    </row>
-    <row r="282" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K281">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="282" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A282" s="3" t="s">
         <v>300</v>
       </c>
@@ -14042,8 +14889,11 @@
       <c r="J282" t="s">
         <v>360</v>
       </c>
-    </row>
-    <row r="283" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K282">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="283" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A283" s="3" t="s">
         <v>301</v>
       </c>
@@ -14075,8 +14925,11 @@
       <c r="J283" t="s">
         <v>360</v>
       </c>
-    </row>
-    <row r="284" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K283">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="284" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A284" s="3" t="s">
         <v>302</v>
       </c>
@@ -14105,8 +14958,11 @@
       <c r="I284" s="3" t="s">
         <v>531</v>
       </c>
-    </row>
-    <row r="285" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K284">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="285" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A285" s="3" t="s">
         <v>303</v>
       </c>
@@ -14135,8 +14991,11 @@
       <c r="I285" s="3" t="s">
         <v>531</v>
       </c>
-    </row>
-    <row r="286" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K285">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="286" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A286" s="3" t="s">
         <v>304</v>
       </c>
@@ -14165,8 +15024,11 @@
       <c r="I286" s="3" t="s">
         <v>531</v>
       </c>
-    </row>
-    <row r="287" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K286">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="287" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A287" s="3" t="s">
         <v>395</v>
       </c>
@@ -14195,8 +15057,11 @@
       <c r="I287" s="3" t="s">
         <v>531</v>
       </c>
-    </row>
-    <row r="288" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K287">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="288" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A288" s="3" t="s">
         <v>396</v>
       </c>
@@ -14225,8 +15090,11 @@
       <c r="I288" s="3" t="s">
         <v>531</v>
       </c>
-    </row>
-    <row r="289" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="K288">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="289" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A289" s="3" t="s">
         <v>397</v>
       </c>
@@ -14255,8 +15123,11 @@
       <c r="I289" s="3" t="s">
         <v>531</v>
       </c>
-    </row>
-    <row r="290" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="K289">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="290" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A290" s="3" t="s">
         <v>398</v>
       </c>
@@ -14285,8 +15156,11 @@
       <c r="I290" s="3" t="s">
         <v>531</v>
       </c>
-    </row>
-    <row r="291" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="K290">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="291" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A291" s="3" t="s">
         <v>399</v>
       </c>
@@ -14315,8 +15189,11 @@
       <c r="I291" s="3" t="s">
         <v>531</v>
       </c>
-    </row>
-    <row r="292" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="K291">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="292" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A292" s="3" t="s">
         <v>400</v>
       </c>
@@ -14345,8 +15222,11 @@
       <c r="I292" s="3" t="s">
         <v>531</v>
       </c>
-    </row>
-    <row r="293" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="K292">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="293" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A293" s="3" t="s">
         <v>305</v>
       </c>
@@ -14375,8 +15255,11 @@
       <c r="I293" s="3" t="s">
         <v>531</v>
       </c>
-    </row>
-    <row r="294" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="K293">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="294" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A294" s="3" t="s">
         <v>306</v>
       </c>
@@ -14405,8 +15288,11 @@
       <c r="I294" s="3" t="s">
         <v>531</v>
       </c>
-    </row>
-    <row r="295" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="K294">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="295" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A295" s="3" t="s">
         <v>401</v>
       </c>
@@ -14435,8 +15321,11 @@
       <c r="I295" s="3" t="s">
         <v>531</v>
       </c>
-    </row>
-    <row r="296" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="K295">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="296" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A296" s="3" t="s">
         <v>402</v>
       </c>
@@ -14465,8 +15354,11 @@
       <c r="I296" s="3" t="s">
         <v>531</v>
       </c>
-    </row>
-    <row r="297" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="K296">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="297" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A297" s="3" t="s">
         <v>403</v>
       </c>
@@ -14495,8 +15387,11 @@
       <c r="I297" s="3" t="s">
         <v>531</v>
       </c>
-    </row>
-    <row r="298" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="K297">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="298" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A298" s="3" t="s">
         <v>404</v>
       </c>
@@ -14525,8 +15420,11 @@
       <c r="I298" s="3" t="s">
         <v>531</v>
       </c>
-    </row>
-    <row r="299" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="K298">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="299" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A299" s="3" t="s">
         <v>307</v>
       </c>
@@ -14555,8 +15453,11 @@
       <c r="I299" s="3" t="s">
         <v>531</v>
       </c>
-    </row>
-    <row r="300" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="K299">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="300" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A300" s="3" t="s">
         <v>308</v>
       </c>
@@ -14585,8 +15486,11 @@
       <c r="I300" s="3" t="s">
         <v>531</v>
       </c>
-    </row>
-    <row r="301" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="K300">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="301" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A301" s="3" t="s">
         <v>309</v>
       </c>
@@ -14615,8 +15519,11 @@
       <c r="I301" s="3" t="s">
         <v>531</v>
       </c>
-    </row>
-    <row r="302" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="K301">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="302" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A302" s="3" t="s">
         <v>310</v>
       </c>
@@ -14645,8 +15552,11 @@
       <c r="I302" s="3" t="s">
         <v>531</v>
       </c>
-    </row>
-    <row r="303" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="K302">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="303" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A303" s="3" t="s">
         <v>311</v>
       </c>
@@ -14675,8 +15585,11 @@
       <c r="I303" s="3" t="s">
         <v>531</v>
       </c>
-    </row>
-    <row r="304" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="K303">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="304" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A304" s="3" t="s">
         <v>312</v>
       </c>
@@ -14705,8 +15618,11 @@
       <c r="I304" s="3" t="s">
         <v>531</v>
       </c>
-    </row>
-    <row r="305" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="K304">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="305" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A305" s="3" t="s">
         <v>313</v>
       </c>
@@ -14735,8 +15651,11 @@
       <c r="I305" s="3" t="s">
         <v>531</v>
       </c>
-    </row>
-    <row r="306" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="K305">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="306" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A306" s="3" t="s">
         <v>314</v>
       </c>
@@ -14765,8 +15684,11 @@
       <c r="I306" s="3" t="s">
         <v>531</v>
       </c>
-    </row>
-    <row r="307" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="K306">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="307" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A307" s="3" t="s">
         <v>315</v>
       </c>
@@ -14795,8 +15717,11 @@
       <c r="I307" s="3" t="s">
         <v>531</v>
       </c>
-    </row>
-    <row r="308" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="K307">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="308" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A308" s="3" t="s">
         <v>316</v>
       </c>
@@ -14825,8 +15750,11 @@
       <c r="I308" s="3" t="s">
         <v>531</v>
       </c>
-    </row>
-    <row r="309" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="K308">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="309" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A309" s="3" t="s">
         <v>317</v>
       </c>
@@ -14855,8 +15783,11 @@
       <c r="I309" s="3" t="s">
         <v>531</v>
       </c>
-    </row>
-    <row r="310" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="K309">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="310" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A310" s="3" t="s">
         <v>318</v>
       </c>
@@ -14885,8 +15816,11 @@
       <c r="I310" s="3" t="s">
         <v>531</v>
       </c>
-    </row>
-    <row r="311" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="K310">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="311" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A311" s="3" t="s">
         <v>319</v>
       </c>
@@ -14915,8 +15849,11 @@
       <c r="I311" s="3" t="s">
         <v>531</v>
       </c>
-    </row>
-    <row r="312" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="K311">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="312" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A312" s="3" t="s">
         <v>320</v>
       </c>
@@ -14945,8 +15882,11 @@
       <c r="I312" s="3" t="s">
         <v>531</v>
       </c>
-    </row>
-    <row r="313" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="K312">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="313" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A313" s="3" t="s">
         <v>321</v>
       </c>
@@ -14975,8 +15915,11 @@
       <c r="I313" s="3" t="s">
         <v>531</v>
       </c>
-    </row>
-    <row r="314" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="K313">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="314" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A314" s="3" t="s">
         <v>322</v>
       </c>
@@ -15005,8 +15948,11 @@
       <c r="I314" s="3" t="s">
         <v>531</v>
       </c>
-    </row>
-    <row r="315" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="K314">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="315" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A315" s="3" t="s">
         <v>323</v>
       </c>
@@ -15035,8 +15981,11 @@
       <c r="I315" s="3" t="s">
         <v>531</v>
       </c>
-    </row>
-    <row r="316" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="K315">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="316" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A316" s="3" t="s">
         <v>324</v>
       </c>
@@ -15065,8 +16014,11 @@
       <c r="I316" s="3" t="s">
         <v>531</v>
       </c>
-    </row>
-    <row r="317" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="K316">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="317" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A317" s="3" t="s">
         <v>325</v>
       </c>
@@ -15095,8 +16047,11 @@
       <c r="I317" s="3" t="s">
         <v>531</v>
       </c>
-    </row>
-    <row r="318" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="K317">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="318" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A318" s="3" t="s">
         <v>326</v>
       </c>
@@ -15125,8 +16080,11 @@
       <c r="I318" s="3" t="s">
         <v>531</v>
       </c>
-    </row>
-    <row r="319" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="K318">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="319" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A319" s="3" t="s">
         <v>327</v>
       </c>
@@ -15155,8 +16113,11 @@
       <c r="I319" s="3" t="s">
         <v>531</v>
       </c>
-    </row>
-    <row r="320" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="K319">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="320" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A320" s="3" t="s">
         <v>328</v>
       </c>
@@ -15185,8 +16146,11 @@
       <c r="I320" s="3" t="s">
         <v>531</v>
       </c>
-    </row>
-    <row r="321" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="K320">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="321" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A321" s="3" t="s">
         <v>329</v>
       </c>
@@ -15215,8 +16179,11 @@
       <c r="I321" s="3" t="s">
         <v>531</v>
       </c>
-    </row>
-    <row r="322" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="K321">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="322" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A322" s="3" t="s">
         <v>330</v>
       </c>
@@ -15245,8 +16212,11 @@
       <c r="I322" s="3" t="s">
         <v>531</v>
       </c>
-    </row>
-    <row r="323" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="K322">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="323" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A323" s="3" t="s">
         <v>405</v>
       </c>
@@ -15275,8 +16245,11 @@
       <c r="I323" s="3" t="s">
         <v>531</v>
       </c>
-    </row>
-    <row r="324" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="K323">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="324" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A324" s="3" t="s">
         <v>406</v>
       </c>
@@ -15305,8 +16278,11 @@
       <c r="I324" s="3" t="s">
         <v>524</v>
       </c>
-    </row>
-    <row r="325" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="K324">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="325" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A325" s="3" t="s">
         <v>407</v>
       </c>
@@ -15335,8 +16311,11 @@
       <c r="I325" s="3" t="s">
         <v>524</v>
       </c>
-    </row>
-    <row r="326" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="K325">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="326" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A326" s="3" t="s">
         <v>408</v>
       </c>
@@ -15364,8 +16343,11 @@
       <c r="I326" s="3" t="s">
         <v>524</v>
       </c>
-    </row>
-    <row r="327" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="K326">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="327" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A327" s="3" t="s">
         <v>409</v>
       </c>
@@ -15394,8 +16376,11 @@
       <c r="I327" s="3" t="s">
         <v>524</v>
       </c>
-    </row>
-    <row r="328" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="K327">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="328" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A328" s="3" t="s">
         <v>410</v>
       </c>
@@ -15424,8 +16409,11 @@
       <c r="I328" s="3" t="s">
         <v>524</v>
       </c>
-    </row>
-    <row r="329" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="K328">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="329" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A329" s="3" t="s">
         <v>411</v>
       </c>
@@ -15454,8 +16442,11 @@
       <c r="I329" s="3" t="s">
         <v>524</v>
       </c>
-    </row>
-    <row r="330" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="K329">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="330" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A330" s="3" t="s">
         <v>412</v>
       </c>
@@ -15483,8 +16474,11 @@
       <c r="I330" s="3" t="s">
         <v>524</v>
       </c>
-    </row>
-    <row r="331" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="K330">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="331" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A331" s="3" t="s">
         <v>413</v>
       </c>
@@ -15513,8 +16507,11 @@
       <c r="I331" s="3" t="s">
         <v>524</v>
       </c>
-    </row>
-    <row r="332" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="K331">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="332" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A332" s="3" t="s">
         <v>414</v>
       </c>
@@ -15543,8 +16540,11 @@
       <c r="I332" s="3" t="s">
         <v>524</v>
       </c>
-    </row>
-    <row r="333" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="K332">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="333" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A333" s="3" t="s">
         <v>415</v>
       </c>
@@ -15573,8 +16573,11 @@
       <c r="I333" s="3" t="s">
         <v>524</v>
       </c>
-    </row>
-    <row r="334" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="K333">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="334" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A334" s="3" t="s">
         <v>416</v>
       </c>
@@ -15602,8 +16605,11 @@
       <c r="I334" s="3" t="s">
         <v>524</v>
       </c>
-    </row>
-    <row r="335" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="K334">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="335" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A335" s="3" t="s">
         <v>417</v>
       </c>
@@ -15632,8 +16638,11 @@
       <c r="I335" s="3" t="s">
         <v>524</v>
       </c>
-    </row>
-    <row r="336" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="K335">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="336" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A336" s="3" t="s">
         <v>418</v>
       </c>
@@ -15662,8 +16671,11 @@
       <c r="I336" s="3" t="s">
         <v>524</v>
       </c>
-    </row>
-    <row r="337" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="K336">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="337" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A337" s="3" t="s">
         <v>419</v>
       </c>
@@ -15692,8 +16704,11 @@
       <c r="I337" s="3" t="s">
         <v>524</v>
       </c>
-    </row>
-    <row r="338" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="K337">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="338" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A338" s="3" t="s">
         <v>420</v>
       </c>
@@ -15721,8 +16736,11 @@
       <c r="I338" s="3" t="s">
         <v>524</v>
       </c>
-    </row>
-    <row r="339" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="K338">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="339" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A339" s="3" t="s">
         <v>421</v>
       </c>
@@ -15751,8 +16769,11 @@
       <c r="I339" s="3" t="s">
         <v>524</v>
       </c>
-    </row>
-    <row r="340" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="K339">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="340" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A340" s="3" t="s">
         <v>422</v>
       </c>
@@ -15781,8 +16802,11 @@
       <c r="I340" s="3" t="s">
         <v>524</v>
       </c>
-    </row>
-    <row r="341" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="K340">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="341" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A341" s="3" t="s">
         <v>423</v>
       </c>
@@ -15811,8 +16835,11 @@
       <c r="I341" s="3" t="s">
         <v>524</v>
       </c>
-    </row>
-    <row r="342" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="K341">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="342" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A342" s="3" t="s">
         <v>424</v>
       </c>
@@ -15840,8 +16867,11 @@
       <c r="I342" s="3" t="s">
         <v>524</v>
       </c>
-    </row>
-    <row r="343" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="K342">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="343" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A343" s="3" t="s">
         <v>425</v>
       </c>
@@ -15870,8 +16900,11 @@
       <c r="I343" s="3" t="s">
         <v>524</v>
       </c>
-    </row>
-    <row r="344" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="K343">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="344" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A344" s="3" t="s">
         <v>485</v>
       </c>
@@ -15900,8 +16933,11 @@
       <c r="I344" s="3" t="s">
         <v>528</v>
       </c>
-    </row>
-    <row r="345" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="K344">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="345" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A345" s="3" t="s">
         <v>491</v>
       </c>
@@ -15930,8 +16966,11 @@
       <c r="I345" s="3" t="s">
         <v>513</v>
       </c>
-    </row>
-    <row r="346" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="K345">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="346" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A346" s="3" t="s">
         <v>538</v>
       </c>
@@ -15960,8 +16999,11 @@
       <c r="I346" s="3" t="s">
         <v>513</v>
       </c>
-    </row>
-    <row r="347" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="K346">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="347" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A347" s="3" t="s">
         <v>486</v>
       </c>
@@ -15990,8 +17032,11 @@
       <c r="I347" s="3" t="s">
         <v>497</v>
       </c>
-    </row>
-    <row r="348" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="K347">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="348" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A348" s="3" t="s">
         <v>488</v>
       </c>
@@ -16020,8 +17065,11 @@
       <c r="I348" s="3" t="s">
         <v>497</v>
       </c>
-    </row>
-    <row r="349" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="K348">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="349" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A349" s="3" t="s">
         <v>490</v>
       </c>
@@ -16050,8 +17098,11 @@
       <c r="I349" s="3" t="s">
         <v>497</v>
       </c>
-    </row>
-    <row r="350" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="K349">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="350" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A350" s="3" t="s">
         <v>489</v>
       </c>
@@ -16080,8 +17131,11 @@
       <c r="I350" s="3" t="s">
         <v>497</v>
       </c>
-    </row>
-    <row r="351" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="K350">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="351" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A351" s="3" t="s">
         <v>487</v>
       </c>
@@ -16110,8 +17164,11 @@
       <c r="I351" s="3" t="s">
         <v>497</v>
       </c>
-    </row>
-    <row r="352" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="K351">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="352" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A352" s="3" t="s">
         <v>676</v>
       </c>
@@ -16140,8 +17197,11 @@
       <c r="I352" s="3" t="s">
         <v>499</v>
       </c>
-    </row>
-    <row r="353" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="K352">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="353" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A353" s="3" t="s">
         <v>540</v>
       </c>
@@ -16170,8 +17230,11 @@
       <c r="I353" s="3" t="s">
         <v>499</v>
       </c>
-    </row>
-    <row r="354" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="K353">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="354" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A354" s="3" t="s">
         <v>541</v>
       </c>
@@ -16200,8 +17263,11 @@
       <c r="I354" s="3" t="s">
         <v>499</v>
       </c>
-    </row>
-    <row r="355" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="K354">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="355" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A355" s="3" t="s">
         <v>542</v>
       </c>
@@ -16230,8 +17296,11 @@
       <c r="I355" s="3" t="s">
         <v>499</v>
       </c>
-    </row>
-    <row r="356" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="K355">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="356" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A356" s="3" t="s">
         <v>543</v>
       </c>
@@ -16260,8 +17329,11 @@
       <c r="I356" s="3" t="s">
         <v>544</v>
       </c>
-    </row>
-    <row r="357" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="K356">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="357" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A357" s="3" t="s">
         <v>545</v>
       </c>
@@ -16290,8 +17362,11 @@
       <c r="I357" s="3" t="s">
         <v>544</v>
       </c>
-    </row>
-    <row r="358" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="K357">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="358" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A358" s="3" t="s">
         <v>546</v>
       </c>
@@ -16320,8 +17395,11 @@
       <c r="I358" s="3" t="s">
         <v>544</v>
       </c>
-    </row>
-    <row r="359" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="K358">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="359" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A359" s="3" t="s">
         <v>547</v>
       </c>
@@ -16350,8 +17428,11 @@
       <c r="I359" s="3" t="s">
         <v>544</v>
       </c>
-    </row>
-    <row r="360" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="K359">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="360" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A360" s="3" t="s">
         <v>548</v>
       </c>
@@ -16380,8 +17461,11 @@
       <c r="I360" s="3" t="s">
         <v>544</v>
       </c>
-    </row>
-    <row r="361" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="K360">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="361" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A361" s="3" t="s">
         <v>549</v>
       </c>
@@ -16410,8 +17494,11 @@
       <c r="I361" s="3" t="s">
         <v>544</v>
       </c>
-    </row>
-    <row r="362" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="K361">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="362" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A362" s="3" t="s">
         <v>550</v>
       </c>
@@ -16440,8 +17527,11 @@
       <c r="I362" s="3" t="s">
         <v>544</v>
       </c>
-    </row>
-    <row r="363" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="K362">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="363" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A363" s="3" t="s">
         <v>551</v>
       </c>
@@ -16470,8 +17560,11 @@
       <c r="I363" s="3" t="s">
         <v>544</v>
       </c>
-    </row>
-    <row r="364" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="K363">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="364" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A364" s="3" t="s">
         <v>552</v>
       </c>
@@ -16500,8 +17593,11 @@
       <c r="I364" s="3" t="s">
         <v>544</v>
       </c>
-    </row>
-    <row r="365" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="K364">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="365" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A365" s="3" t="s">
         <v>553</v>
       </c>
@@ -16530,8 +17626,11 @@
       <c r="I365" s="3" t="s">
         <v>544</v>
       </c>
-    </row>
-    <row r="366" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="K365">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="366" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A366" s="3" t="s">
         <v>554</v>
       </c>
@@ -16560,8 +17659,11 @@
       <c r="I366" s="3" t="s">
         <v>544</v>
       </c>
-    </row>
-    <row r="367" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="K366">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="367" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A367" s="3" t="s">
         <v>555</v>
       </c>
@@ -16590,8 +17692,11 @@
       <c r="I367" s="3" t="s">
         <v>544</v>
       </c>
-    </row>
-    <row r="368" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="K367">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="368" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A368" s="3" t="s">
         <v>556</v>
       </c>
@@ -16620,8 +17725,11 @@
       <c r="I368" s="3" t="s">
         <v>544</v>
       </c>
-    </row>
-    <row r="369" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="K368">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="369" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A369" s="3" t="s">
         <v>557</v>
       </c>
@@ -16650,8 +17758,11 @@
       <c r="I369" s="3" t="s">
         <v>544</v>
       </c>
-    </row>
-    <row r="370" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="K369">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="370" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A370" s="3" t="s">
         <v>558</v>
       </c>
@@ -16680,8 +17791,11 @@
       <c r="I370" s="3" t="s">
         <v>544</v>
       </c>
-    </row>
-    <row r="371" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="K370">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="371" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A371" s="3" t="s">
         <v>559</v>
       </c>
@@ -16710,8 +17824,11 @@
       <c r="I371" s="3" t="s">
         <v>544</v>
       </c>
-    </row>
-    <row r="372" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="K371">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="372" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A372" s="3" t="s">
         <v>560</v>
       </c>
@@ -16740,8 +17857,11 @@
       <c r="I372" s="3" t="s">
         <v>544</v>
       </c>
-    </row>
-    <row r="373" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="K372">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="373" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A373" s="3" t="s">
         <v>561</v>
       </c>
@@ -16770,8 +17890,11 @@
       <c r="I373" s="3" t="s">
         <v>544</v>
       </c>
-    </row>
-    <row r="374" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="K373">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="374" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A374" s="3" t="s">
         <v>562</v>
       </c>
@@ -16800,8 +17923,11 @@
       <c r="I374" s="3" t="s">
         <v>544</v>
       </c>
-    </row>
-    <row r="375" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="K374">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="375" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A375" s="3" t="s">
         <v>563</v>
       </c>
@@ -16830,8 +17956,11 @@
       <c r="I375" s="3" t="s">
         <v>544</v>
       </c>
-    </row>
-    <row r="376" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="K375">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="376" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A376" s="3" t="s">
         <v>564</v>
       </c>
@@ -16860,8 +17989,11 @@
       <c r="I376" s="3" t="s">
         <v>544</v>
       </c>
-    </row>
-    <row r="377" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="K376">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="377" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A377" s="3" t="s">
         <v>565</v>
       </c>
@@ -16890,8 +18022,11 @@
       <c r="I377" s="3" t="s">
         <v>544</v>
       </c>
-    </row>
-    <row r="378" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="K377">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="378" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A378" s="3" t="s">
         <v>566</v>
       </c>
@@ -16920,8 +18055,11 @@
       <c r="I378" s="3" t="s">
         <v>544</v>
       </c>
-    </row>
-    <row r="379" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="K378">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="379" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A379" s="3" t="s">
         <v>567</v>
       </c>
@@ -16950,8 +18088,11 @@
       <c r="I379" s="3" t="s">
         <v>544</v>
       </c>
-    </row>
-    <row r="380" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="K379">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="380" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A380" s="3" t="s">
         <v>568</v>
       </c>
@@ -16980,8 +18121,11 @@
       <c r="I380" s="3" t="s">
         <v>544</v>
       </c>
-    </row>
-    <row r="381" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="K380">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="381" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A381" s="3" t="s">
         <v>569</v>
       </c>
@@ -17010,8 +18154,11 @@
       <c r="I381" s="3" t="s">
         <v>544</v>
       </c>
-    </row>
-    <row r="382" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="K381">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="382" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A382" s="3" t="s">
         <v>570</v>
       </c>
@@ -17040,8 +18187,11 @@
       <c r="I382" s="3" t="s">
         <v>544</v>
       </c>
-    </row>
-    <row r="383" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="K382">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="383" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A383" s="3" t="s">
         <v>571</v>
       </c>
@@ -17070,8 +18220,11 @@
       <c r="I383" s="3" t="s">
         <v>544</v>
       </c>
-    </row>
-    <row r="384" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="K383">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="384" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A384" s="3" t="s">
         <v>572</v>
       </c>
@@ -17100,8 +18253,11 @@
       <c r="I384" s="3" t="s">
         <v>544</v>
       </c>
-    </row>
-    <row r="385" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="K384">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="385" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A385" s="3" t="s">
         <v>573</v>
       </c>
@@ -17130,8 +18286,11 @@
       <c r="I385" s="3" t="s">
         <v>544</v>
       </c>
-    </row>
-    <row r="386" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="K385">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="386" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A386" s="3" t="s">
         <v>574</v>
       </c>
@@ -17160,8 +18319,11 @@
       <c r="I386" s="3" t="s">
         <v>544</v>
       </c>
-    </row>
-    <row r="387" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="K386">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="387" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A387" s="3" t="s">
         <v>575</v>
       </c>
@@ -17190,8 +18352,11 @@
       <c r="I387" s="3" t="s">
         <v>544</v>
       </c>
-    </row>
-    <row r="388" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="K387">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="388" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A388" s="3" t="s">
         <v>576</v>
       </c>
@@ -17220,8 +18385,11 @@
       <c r="I388" s="3" t="s">
         <v>544</v>
       </c>
-    </row>
-    <row r="389" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="K388">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="389" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A389" s="3" t="s">
         <v>577</v>
       </c>
@@ -17250,8 +18418,11 @@
       <c r="I389" s="3" t="s">
         <v>544</v>
       </c>
-    </row>
-    <row r="390" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="K389">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="390" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A390" s="3" t="s">
         <v>578</v>
       </c>
@@ -17280,8 +18451,11 @@
       <c r="I390" s="3" t="s">
         <v>544</v>
       </c>
-    </row>
-    <row r="391" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="K390">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="391" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A391" s="3" t="s">
         <v>579</v>
       </c>
@@ -17310,8 +18484,11 @@
       <c r="I391" s="3" t="s">
         <v>544</v>
       </c>
-    </row>
-    <row r="392" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="K391">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="392" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A392" s="3" t="s">
         <v>580</v>
       </c>
@@ -17340,8 +18517,11 @@
       <c r="I392" s="3" t="s">
         <v>544</v>
       </c>
-    </row>
-    <row r="393" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="K392">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="393" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A393" s="3" t="s">
         <v>581</v>
       </c>
@@ -17370,8 +18550,11 @@
       <c r="I393" s="3" t="s">
         <v>544</v>
       </c>
-    </row>
-    <row r="394" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="K393">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="394" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A394" s="3" t="s">
         <v>582</v>
       </c>
@@ -17400,8 +18583,11 @@
       <c r="I394" s="3" t="s">
         <v>544</v>
       </c>
-    </row>
-    <row r="395" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="K394">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="395" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A395" s="3" t="s">
         <v>583</v>
       </c>
@@ -17430,8 +18616,11 @@
       <c r="I395" s="3" t="s">
         <v>544</v>
       </c>
-    </row>
-    <row r="396" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="K395">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="396" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A396" s="3" t="s">
         <v>584</v>
       </c>
@@ -17460,8 +18649,11 @@
       <c r="I396" s="3" t="s">
         <v>544</v>
       </c>
-    </row>
-    <row r="397" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="K396">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="397" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A397" s="3" t="s">
         <v>585</v>
       </c>
@@ -17490,8 +18682,11 @@
       <c r="I397" s="3" t="s">
         <v>544</v>
       </c>
-    </row>
-    <row r="398" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="K397">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="398" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A398" s="3" t="s">
         <v>586</v>
       </c>
@@ -17520,8 +18715,11 @@
       <c r="I398" s="3" t="s">
         <v>544</v>
       </c>
-    </row>
-    <row r="399" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="K398">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="399" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A399" s="3" t="s">
         <v>587</v>
       </c>
@@ -17550,8 +18748,11 @@
       <c r="I399" s="3" t="s">
         <v>544</v>
       </c>
-    </row>
-    <row r="400" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="K399">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="400" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A400" s="3" t="s">
         <v>588</v>
       </c>
@@ -17580,8 +18781,11 @@
       <c r="I400" s="3" t="s">
         <v>544</v>
       </c>
-    </row>
-    <row r="401" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="K400">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="401" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A401" s="3" t="s">
         <v>589</v>
       </c>
@@ -17610,8 +18814,11 @@
       <c r="I401" s="3" t="s">
         <v>544</v>
       </c>
-    </row>
-    <row r="402" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="K401">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="402" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A402" s="3" t="s">
         <v>590</v>
       </c>
@@ -17640,8 +18847,11 @@
       <c r="I402" s="3" t="s">
         <v>544</v>
       </c>
-    </row>
-    <row r="403" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="K402">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="403" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A403" s="3" t="s">
         <v>591</v>
       </c>
@@ -17670,8 +18880,11 @@
       <c r="I403" s="3" t="s">
         <v>544</v>
       </c>
-    </row>
-    <row r="404" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="K403">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="404" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A404" s="3" t="s">
         <v>592</v>
       </c>
@@ -17700,8 +18913,11 @@
       <c r="I404" s="3" t="s">
         <v>544</v>
       </c>
-    </row>
-    <row r="405" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="K404">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="405" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A405" s="3" t="s">
         <v>593</v>
       </c>
@@ -17730,8 +18946,11 @@
       <c r="I405" s="3" t="s">
         <v>544</v>
       </c>
-    </row>
-    <row r="406" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="K405">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="406" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A406" s="3" t="s">
         <v>594</v>
       </c>
@@ -17760,8 +18979,11 @@
       <c r="I406" s="3" t="s">
         <v>544</v>
       </c>
-    </row>
-    <row r="407" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="K406">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="407" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A407" s="3" t="s">
         <v>595</v>
       </c>
@@ -17790,8 +19012,11 @@
       <c r="I407" s="3" t="s">
         <v>544</v>
       </c>
-    </row>
-    <row r="408" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="K407">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="408" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A408" s="3" t="s">
         <v>596</v>
       </c>
@@ -17820,8 +19045,11 @@
       <c r="I408" s="3" t="s">
         <v>544</v>
       </c>
-    </row>
-    <row r="409" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="K408">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="409" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A409" s="3" t="s">
         <v>597</v>
       </c>
@@ -17850,8 +19078,11 @@
       <c r="I409" s="3" t="s">
         <v>544</v>
       </c>
-    </row>
-    <row r="410" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="K409">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="410" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A410" s="3" t="s">
         <v>598</v>
       </c>
@@ -17880,8 +19111,11 @@
       <c r="I410" s="3" t="s">
         <v>544</v>
       </c>
-    </row>
-    <row r="411" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="K410">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="411" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A411" s="3" t="s">
         <v>599</v>
       </c>
@@ -17910,8 +19144,11 @@
       <c r="I411" s="3" t="s">
         <v>544</v>
       </c>
-    </row>
-    <row r="412" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="K411">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="412" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A412" s="3" t="s">
         <v>600</v>
       </c>
@@ -17940,8 +19177,11 @@
       <c r="I412" s="3" t="s">
         <v>544</v>
       </c>
-    </row>
-    <row r="413" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="K412">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="413" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A413" s="3" t="s">
         <v>601</v>
       </c>
@@ -17970,8 +19210,11 @@
       <c r="I413" s="3" t="s">
         <v>544</v>
       </c>
-    </row>
-    <row r="414" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="K413">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="414" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A414" s="3" t="s">
         <v>602</v>
       </c>
@@ -18000,8 +19243,11 @@
       <c r="I414" s="3" t="s">
         <v>544</v>
       </c>
-    </row>
-    <row r="415" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="K414">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="415" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A415" s="3" t="s">
         <v>603</v>
       </c>
@@ -18030,8 +19276,11 @@
       <c r="I415" s="3" t="s">
         <v>544</v>
       </c>
-    </row>
-    <row r="416" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="K415">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="416" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A416" s="3" t="s">
         <v>604</v>
       </c>
@@ -18060,8 +19309,11 @@
       <c r="I416" s="3" t="s">
         <v>544</v>
       </c>
-    </row>
-    <row r="417" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="K416">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="417" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A417" s="3" t="s">
         <v>605</v>
       </c>
@@ -18090,8 +19342,11 @@
       <c r="I417" s="3" t="s">
         <v>544</v>
       </c>
-    </row>
-    <row r="418" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="K417">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="418" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A418" s="3" t="s">
         <v>606</v>
       </c>
@@ -18120,8 +19375,11 @@
       <c r="I418" s="3" t="s">
         <v>544</v>
       </c>
-    </row>
-    <row r="419" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="K418">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="419" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A419" s="3" t="s">
         <v>607</v>
       </c>
@@ -18150,8 +19408,11 @@
       <c r="I419" s="3" t="s">
         <v>544</v>
       </c>
-    </row>
-    <row r="420" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="K419">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="420" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A420" s="3" t="s">
         <v>608</v>
       </c>
@@ -18180,8 +19441,11 @@
       <c r="I420" s="3" t="s">
         <v>544</v>
       </c>
-    </row>
-    <row r="421" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="K420">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="421" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A421" s="3" t="s">
         <v>609</v>
       </c>
@@ -18210,8 +19474,11 @@
       <c r="I421" s="3" t="s">
         <v>544</v>
       </c>
-    </row>
-    <row r="422" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="K421">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="422" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A422" s="3" t="s">
         <v>610</v>
       </c>
@@ -18240,8 +19507,11 @@
       <c r="I422" s="3" t="s">
         <v>544</v>
       </c>
-    </row>
-    <row r="423" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="K422">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="423" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A423" s="3" t="s">
         <v>611</v>
       </c>
@@ -18270,8 +19540,11 @@
       <c r="I423" s="3" t="s">
         <v>544</v>
       </c>
-    </row>
-    <row r="424" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="K423">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="424" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A424" s="3" t="s">
         <v>612</v>
       </c>
@@ -18300,8 +19573,11 @@
       <c r="I424" s="3" t="s">
         <v>544</v>
       </c>
-    </row>
-    <row r="425" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="K424">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="425" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A425" s="3" t="s">
         <v>613</v>
       </c>
@@ -18330,8 +19606,11 @@
       <c r="I425" s="3" t="s">
         <v>544</v>
       </c>
-    </row>
-    <row r="426" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="K425">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="426" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A426" s="3" t="s">
         <v>614</v>
       </c>
@@ -18360,8 +19639,11 @@
       <c r="I426" s="3" t="s">
         <v>544</v>
       </c>
-    </row>
-    <row r="427" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="K426">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="427" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A427" s="3" t="s">
         <v>615</v>
       </c>
@@ -18390,8 +19672,11 @@
       <c r="I427" s="3" t="s">
         <v>544</v>
       </c>
-    </row>
-    <row r="428" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="K427">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="428" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A428" s="3" t="s">
         <v>616</v>
       </c>
@@ -18420,8 +19705,11 @@
       <c r="I428" s="3" t="s">
         <v>544</v>
       </c>
-    </row>
-    <row r="429" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="K428">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="429" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A429" s="3" t="s">
         <v>617</v>
       </c>
@@ -18450,8 +19738,11 @@
       <c r="I429" s="3" t="s">
         <v>544</v>
       </c>
-    </row>
-    <row r="430" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="K429">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="430" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A430" s="3" t="s">
         <v>618</v>
       </c>
@@ -18480,8 +19771,11 @@
       <c r="I430" s="3" t="s">
         <v>544</v>
       </c>
-    </row>
-    <row r="431" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="K430">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="431" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A431" s="3" t="s">
         <v>619</v>
       </c>
@@ -18510,8 +19804,11 @@
       <c r="I431" s="3" t="s">
         <v>544</v>
       </c>
-    </row>
-    <row r="432" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="K431">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="432" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A432" s="3" t="s">
         <v>620</v>
       </c>
@@ -18540,8 +19837,11 @@
       <c r="I432" s="3" t="s">
         <v>544</v>
       </c>
-    </row>
-    <row r="433" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="K432">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="433" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A433" s="3" t="s">
         <v>621</v>
       </c>
@@ -18570,8 +19870,11 @@
       <c r="I433" s="3" t="s">
         <v>544</v>
       </c>
-    </row>
-    <row r="434" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="K433">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="434" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A434" s="3" t="s">
         <v>622</v>
       </c>
@@ -18600,8 +19903,11 @@
       <c r="I434" s="3" t="s">
         <v>544</v>
       </c>
-    </row>
-    <row r="435" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="K434">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="435" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A435" s="3" t="s">
         <v>623</v>
       </c>
@@ -18630,8 +19936,11 @@
       <c r="I435" s="3" t="s">
         <v>544</v>
       </c>
-    </row>
-    <row r="436" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="K435">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="436" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A436" s="3" t="s">
         <v>624</v>
       </c>
@@ -18660,8 +19969,11 @@
       <c r="I436" s="3" t="s">
         <v>544</v>
       </c>
-    </row>
-    <row r="437" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="K436">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="437" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A437" s="3" t="s">
         <v>625</v>
       </c>
@@ -18690,8 +20002,11 @@
       <c r="I437" s="3" t="s">
         <v>544</v>
       </c>
-    </row>
-    <row r="438" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="K437">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="438" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A438" s="3" t="s">
         <v>626</v>
       </c>
@@ -18720,8 +20035,11 @@
       <c r="I438" s="3" t="s">
         <v>544</v>
       </c>
-    </row>
-    <row r="439" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="K438">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="439" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A439" s="3" t="s">
         <v>627</v>
       </c>
@@ -18750,8 +20068,11 @@
       <c r="I439" s="3" t="s">
         <v>544</v>
       </c>
-    </row>
-    <row r="440" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="K439">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="440" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A440" s="3" t="s">
         <v>628</v>
       </c>
@@ -18780,8 +20101,11 @@
       <c r="I440" s="3" t="s">
         <v>544</v>
       </c>
-    </row>
-    <row r="441" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="K440">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="441" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A441" s="3" t="s">
         <v>629</v>
       </c>
@@ -18810,8 +20134,11 @@
       <c r="I441" s="3" t="s">
         <v>544</v>
       </c>
-    </row>
-    <row r="442" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="K441">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="442" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A442" s="3" t="s">
         <v>630</v>
       </c>
@@ -18840,8 +20167,11 @@
       <c r="I442" s="3" t="s">
         <v>544</v>
       </c>
-    </row>
-    <row r="443" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="K442">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="443" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A443" s="3" t="s">
         <v>631</v>
       </c>
@@ -18870,8 +20200,11 @@
       <c r="I443" s="3" t="s">
         <v>544</v>
       </c>
-    </row>
-    <row r="444" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="K443">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="444" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A444" s="3" t="s">
         <v>632</v>
       </c>
@@ -18900,8 +20233,11 @@
       <c r="I444" s="3" t="s">
         <v>544</v>
       </c>
-    </row>
-    <row r="445" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="K444">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="445" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A445" s="3" t="s">
         <v>633</v>
       </c>
@@ -18930,8 +20266,11 @@
       <c r="I445" s="3" t="s">
         <v>544</v>
       </c>
-    </row>
-    <row r="446" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="K445">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="446" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A446" s="3" t="s">
         <v>634</v>
       </c>
@@ -18960,8 +20299,11 @@
       <c r="I446" s="3" t="s">
         <v>544</v>
       </c>
-    </row>
-    <row r="447" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="K446">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="447" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A447" s="3" t="s">
         <v>635</v>
       </c>
@@ -18990,8 +20332,11 @@
       <c r="I447" s="3" t="s">
         <v>544</v>
       </c>
-    </row>
-    <row r="448" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="K447">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="448" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A448" s="3" t="s">
         <v>636</v>
       </c>
@@ -19020,8 +20365,11 @@
       <c r="I448" s="3" t="s">
         <v>544</v>
       </c>
-    </row>
-    <row r="449" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="K448">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="449" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A449" s="3" t="s">
         <v>637</v>
       </c>
@@ -19050,8 +20398,11 @@
       <c r="I449" s="3" t="s">
         <v>544</v>
       </c>
-    </row>
-    <row r="450" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="K449">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="450" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A450" s="3" t="s">
         <v>638</v>
       </c>
@@ -19080,8 +20431,11 @@
       <c r="I450" s="3" t="s">
         <v>544</v>
       </c>
-    </row>
-    <row r="451" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="K450">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="451" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A451" s="3" t="s">
         <v>639</v>
       </c>
@@ -19110,8 +20464,11 @@
       <c r="I451" s="3" t="s">
         <v>544</v>
       </c>
-    </row>
-    <row r="452" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="K451">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="452" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A452" s="3" t="s">
         <v>640</v>
       </c>
@@ -19140,8 +20497,11 @@
       <c r="I452" s="3" t="s">
         <v>544</v>
       </c>
-    </row>
-    <row r="453" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="K452">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="453" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A453" s="3" t="s">
         <v>641</v>
       </c>
@@ -19170,8 +20530,11 @@
       <c r="I453" s="3" t="s">
         <v>544</v>
       </c>
-    </row>
-    <row r="454" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="K453">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="454" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A454" s="3" t="s">
         <v>642</v>
       </c>
@@ -19200,8 +20563,11 @@
       <c r="I454" s="3" t="s">
         <v>544</v>
       </c>
-    </row>
-    <row r="455" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="K454">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="455" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A455" s="3" t="s">
         <v>643</v>
       </c>
@@ -19230,8 +20596,11 @@
       <c r="I455" s="3" t="s">
         <v>544</v>
       </c>
-    </row>
-    <row r="456" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="K455">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="456" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A456" s="3" t="s">
         <v>644</v>
       </c>
@@ -19260,8 +20629,11 @@
       <c r="I456" s="3" t="s">
         <v>544</v>
       </c>
-    </row>
-    <row r="457" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="K456">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="457" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A457" s="3" t="s">
         <v>645</v>
       </c>
@@ -19290,8 +20662,11 @@
       <c r="I457" s="3" t="s">
         <v>544</v>
       </c>
-    </row>
-    <row r="458" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="K457">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="458" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A458" s="3" t="s">
         <v>646</v>
       </c>
@@ -19320,8 +20695,11 @@
       <c r="I458" s="3" t="s">
         <v>544</v>
       </c>
-    </row>
-    <row r="459" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="K458">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="459" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A459" s="3" t="s">
         <v>647</v>
       </c>
@@ -19350,8 +20728,11 @@
       <c r="I459" s="3" t="s">
         <v>544</v>
       </c>
-    </row>
-    <row r="460" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="K459">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="460" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A460" s="3" t="s">
         <v>648</v>
       </c>
@@ -19380,8 +20761,11 @@
       <c r="I460" s="3" t="s">
         <v>544</v>
       </c>
-    </row>
-    <row r="461" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="K460">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="461" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A461" s="3" t="s">
         <v>649</v>
       </c>
@@ -19410,8 +20794,11 @@
       <c r="I461" s="3" t="s">
         <v>544</v>
       </c>
-    </row>
-    <row r="462" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="K461">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="462" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A462" s="3" t="s">
         <v>650</v>
       </c>
@@ -19440,8 +20827,11 @@
       <c r="I462" s="3" t="s">
         <v>544</v>
       </c>
-    </row>
-    <row r="463" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="K462">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="463" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A463" s="3" t="s">
         <v>651</v>
       </c>
@@ -19470,8 +20860,11 @@
       <c r="I463" s="3" t="s">
         <v>544</v>
       </c>
-    </row>
-    <row r="464" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="K463">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="464" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A464" s="3" t="s">
         <v>652</v>
       </c>
@@ -19500,8 +20893,11 @@
       <c r="I464" s="3" t="s">
         <v>544</v>
       </c>
-    </row>
-    <row r="465" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="K464">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="465" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A465" s="3" t="s">
         <v>653</v>
       </c>
@@ -19530,8 +20926,11 @@
       <c r="I465" s="3" t="s">
         <v>544</v>
       </c>
-    </row>
-    <row r="466" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="K465">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="466" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A466" s="3" t="s">
         <v>654</v>
       </c>
@@ -19560,8 +20959,11 @@
       <c r="I466" s="3" t="s">
         <v>544</v>
       </c>
-    </row>
-    <row r="467" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="K466">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="467" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A467" s="3" t="s">
         <v>655</v>
       </c>
@@ -19590,8 +20992,11 @@
       <c r="I467" s="3" t="s">
         <v>544</v>
       </c>
-    </row>
-    <row r="468" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="K467">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="468" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A468" s="3" t="s">
         <v>656</v>
       </c>
@@ -19620,8 +21025,11 @@
       <c r="I468" s="3" t="s">
         <v>544</v>
       </c>
-    </row>
-    <row r="469" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="K468">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="469" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A469" s="3" t="s">
         <v>657</v>
       </c>
@@ -19650,8 +21058,11 @@
       <c r="I469" s="3" t="s">
         <v>544</v>
       </c>
-    </row>
-    <row r="470" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="K469">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="470" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A470" s="3" t="s">
         <v>658</v>
       </c>
@@ -19680,8 +21091,11 @@
       <c r="I470" s="3" t="s">
         <v>544</v>
       </c>
-    </row>
-    <row r="471" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="K470">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="471" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A471" s="3" t="s">
         <v>659</v>
       </c>
@@ -19710,8 +21124,11 @@
       <c r="I471" s="3" t="s">
         <v>544</v>
       </c>
-    </row>
-    <row r="472" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="K471">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="472" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A472" s="3" t="s">
         <v>660</v>
       </c>
@@ -19740,8 +21157,11 @@
       <c r="I472" s="3" t="s">
         <v>544</v>
       </c>
-    </row>
-    <row r="473" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="K472">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="473" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A473" s="3" t="s">
         <v>661</v>
       </c>
@@ -19770,8 +21190,11 @@
       <c r="I473" s="3" t="s">
         <v>544</v>
       </c>
-    </row>
-    <row r="474" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="K473">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="474" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A474" s="3" t="s">
         <v>662</v>
       </c>
@@ -19800,8 +21223,11 @@
       <c r="I474" s="3" t="s">
         <v>544</v>
       </c>
-    </row>
-    <row r="475" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="K474">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="475" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A475" s="3" t="s">
         <v>663</v>
       </c>
@@ -19830,8 +21256,11 @@
       <c r="I475" s="3" t="s">
         <v>544</v>
       </c>
-    </row>
-    <row r="476" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="K475">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="476" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A476" s="3" t="s">
         <v>664</v>
       </c>
@@ -19860,8 +21289,11 @@
       <c r="I476" s="3" t="s">
         <v>544</v>
       </c>
-    </row>
-    <row r="477" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="K476">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="477" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A477" s="3" t="s">
         <v>665</v>
       </c>
@@ -19890,8 +21322,11 @@
       <c r="I477" s="3" t="s">
         <v>544</v>
       </c>
-    </row>
-    <row r="478" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="K477">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="478" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A478" s="3" t="s">
         <v>666</v>
       </c>
@@ -19920,8 +21355,11 @@
       <c r="I478" s="3" t="s">
         <v>544</v>
       </c>
-    </row>
-    <row r="479" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="K478">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="479" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A479" s="3" t="s">
         <v>667</v>
       </c>
@@ -19950,8 +21388,11 @@
       <c r="I479" s="3" t="s">
         <v>544</v>
       </c>
-    </row>
-    <row r="480" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="K479">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="480" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A480" s="3" t="s">
         <v>668</v>
       </c>
@@ -19980,8 +21421,11 @@
       <c r="I480" s="3" t="s">
         <v>544</v>
       </c>
-    </row>
-    <row r="481" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="K480">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="481" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A481" s="3" t="s">
         <v>669</v>
       </c>
@@ -20010,8 +21454,11 @@
       <c r="I481" s="3" t="s">
         <v>544</v>
       </c>
-    </row>
-    <row r="482" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="K481">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="482" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A482" s="3" t="s">
         <v>670</v>
       </c>
@@ -20040,8 +21487,11 @@
       <c r="I482" s="3" t="s">
         <v>544</v>
       </c>
-    </row>
-    <row r="483" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="K482">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="483" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A483" s="3" t="s">
         <v>677</v>
       </c>
@@ -20069,6 +21519,9 @@
       </c>
       <c r="I483" s="3" t="s">
         <v>544</v>
+      </c>
+      <c r="K483">
+        <v>1</v>
       </c>
     </row>
   </sheetData>

--- a/Booyco HMI Utility/Resources/Documents/CommanderParametersFile.xlsx
+++ b/Booyco HMI Utility/Resources/Documents/CommanderParametersFile.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21601"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Mernok\DEVPRJ-168 (Booyco HMI)\Software\Booyco-HMI-Utility\Booyco HMI Utility\Resources\Documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7E99CDD9-C72D-4865-8514-FE5F65A1E343}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{877D581D-F726-4D0E-A9D1-CD6217655497}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{4442C273-631E-40E6-88D2-7449766A5078}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{4442C273-631E-40E6-88D2-7449766A5078}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2375" uniqueCount="1108">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2391" uniqueCount="1119">
   <si>
     <t>Name</t>
   </si>
@@ -3360,6 +3360,39 @@
   </si>
   <si>
     <t>AccessLevel</t>
+  </si>
+  <si>
+    <t>Display Type</t>
+  </si>
+  <si>
+    <t>Radar System Type</t>
+  </si>
+  <si>
+    <t>Single Front</t>
+  </si>
+  <si>
+    <t>Dual Front</t>
+  </si>
+  <si>
+    <t>Single Rear</t>
+  </si>
+  <si>
+    <t>Dual Rear</t>
+  </si>
+  <si>
+    <t>Single Front Rear</t>
+  </si>
+  <si>
+    <t>7 Inch Display</t>
+  </si>
+  <si>
+    <t>5 Inch Display</t>
+  </si>
+  <si>
+    <t>LED Display</t>
+  </si>
+  <si>
+    <t>Hardware Variant</t>
   </si>
 </sst>
 </file>
@@ -3489,7 +3522,7 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="3"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="2" applyBorder="1"/>
@@ -3499,6 +3532,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="4" xfId="3" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="2" xfId="3" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="3" xfId="3" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="Calculation" xfId="3" builtinId="22"/>
@@ -3816,11 +3850,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E4E73DD7-587F-4C4F-B32B-7B78C2644041}">
-  <dimension ref="A1:P483"/>
+  <dimension ref="A1:P485"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="I1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="K5" sqref="K5"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A472" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="L158" sqref="L158"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9997,6 +10031,12 @@
       <c r="K146">
         <v>1</v>
       </c>
+      <c r="M146" s="9">
+        <v>15</v>
+      </c>
+      <c r="N146" s="9" t="s">
+        <v>1110</v>
+      </c>
     </row>
     <row r="147" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A147" s="3" t="s">
@@ -10033,6 +10073,12 @@
       <c r="K147">
         <v>1</v>
       </c>
+      <c r="M147" s="9">
+        <v>15</v>
+      </c>
+      <c r="N147" s="9" t="s">
+        <v>1111</v>
+      </c>
     </row>
     <row r="148" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A148" s="3" t="s">
@@ -10069,6 +10115,12 @@
       <c r="K148">
         <v>1</v>
       </c>
+      <c r="M148" s="9">
+        <v>15</v>
+      </c>
+      <c r="N148" s="9" t="s">
+        <v>1112</v>
+      </c>
     </row>
     <row r="149" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A149" s="3" t="s">
@@ -10105,6 +10157,12 @@
       <c r="K149">
         <v>1</v>
       </c>
+      <c r="M149" s="9">
+        <v>15</v>
+      </c>
+      <c r="N149" s="9" t="s">
+        <v>1113</v>
+      </c>
     </row>
     <row r="150" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A150" s="3" t="s">
@@ -10141,6 +10199,12 @@
       <c r="K150">
         <v>1</v>
       </c>
+      <c r="M150" s="9">
+        <v>15</v>
+      </c>
+      <c r="N150" s="9" t="s">
+        <v>1114</v>
+      </c>
     </row>
     <row r="151" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A151" s="3" t="s">
@@ -10177,6 +10241,12 @@
       <c r="K151">
         <v>1</v>
       </c>
+      <c r="M151" s="9">
+        <v>16</v>
+      </c>
+      <c r="N151" s="9" t="s">
+        <v>338</v>
+      </c>
     </row>
     <row r="152" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A152" s="3" t="s">
@@ -10213,6 +10283,12 @@
       <c r="K152">
         <v>1</v>
       </c>
+      <c r="M152" s="9">
+        <v>16</v>
+      </c>
+      <c r="N152" s="9" t="s">
+        <v>1118</v>
+      </c>
     </row>
     <row r="153" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A153" s="3" t="s">
@@ -10249,6 +10325,12 @@
       <c r="K153">
         <v>1</v>
       </c>
+      <c r="M153" s="9">
+        <v>16</v>
+      </c>
+      <c r="N153" s="9" t="s">
+        <v>1115</v>
+      </c>
     </row>
     <row r="154" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A154" s="3" t="s">
@@ -10285,6 +10367,12 @@
       <c r="K154">
         <v>1</v>
       </c>
+      <c r="M154" s="9">
+        <v>16</v>
+      </c>
+      <c r="N154" s="9" t="s">
+        <v>1116</v>
+      </c>
     </row>
     <row r="155" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A155" s="3" t="s">
@@ -10321,6 +10409,12 @@
       <c r="K155">
         <v>1</v>
       </c>
+      <c r="M155" s="9">
+        <v>16</v>
+      </c>
+      <c r="N155" s="9" t="s">
+        <v>1117</v>
+      </c>
     </row>
     <row r="156" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A156" s="3" t="s">
@@ -21524,12 +21618,76 @@
         <v>1</v>
       </c>
     </row>
+    <row r="484" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A484" s="5" t="s">
+        <v>1109</v>
+      </c>
+      <c r="B484">
+        <v>1</v>
+      </c>
+      <c r="C484" s="5">
+        <v>5</v>
+      </c>
+      <c r="D484" s="5">
+        <v>1</v>
+      </c>
+      <c r="E484" s="5">
+        <v>1</v>
+      </c>
+      <c r="F484" s="5">
+        <v>2</v>
+      </c>
+      <c r="G484" s="5">
+        <v>15</v>
+      </c>
+      <c r="H484" s="3" t="s">
+        <v>522</v>
+      </c>
+      <c r="I484" s="3" t="s">
+        <v>497</v>
+      </c>
+      <c r="K484">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="485" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A485" s="5" t="s">
+        <v>1108</v>
+      </c>
+      <c r="B485">
+        <v>1</v>
+      </c>
+      <c r="C485" s="5">
+        <v>4</v>
+      </c>
+      <c r="D485" s="5">
+        <v>1</v>
+      </c>
+      <c r="E485" s="5">
+        <v>1</v>
+      </c>
+      <c r="F485" s="5">
+        <v>2</v>
+      </c>
+      <c r="G485" s="5">
+        <v>16</v>
+      </c>
+      <c r="H485" s="5" t="s">
+        <v>504</v>
+      </c>
+      <c r="I485" s="5" t="s">
+        <v>492</v>
+      </c>
+      <c r="K485">
+        <v>1</v>
+      </c>
+    </row>
   </sheetData>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H2:H483" xr:uid="{EE42F429-08A4-4BE3-8F84-6536CE0CFC40}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H2:H484" xr:uid="{EE42F429-08A4-4BE3-8F84-6536CE0CFC40}">
       <formula1>Groups</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I2:I483" xr:uid="{7C24A3BA-34E6-47FE-B467-51CD70DB74D4}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I2:I484" xr:uid="{7C24A3BA-34E6-47FE-B467-51CD70DB74D4}">
       <formula1>SubGroups</formula1>
     </dataValidation>
   </dataValidations>

--- a/Booyco HMI Utility/Resources/Documents/CommanderParametersFile.xlsx
+++ b/Booyco HMI Utility/Resources/Documents/CommanderParametersFile.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Mernok\DEVPRJ-168 (Booyco HMI)\Software\Booyco-HMI-Utility\Booyco HMI Utility\Resources\Documents\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Cloud Storage\Dropbox (Mernok Elektronik)\Mernok\DEVPRJ-168 (Booyco HMI)\Software\Booyco-HMI-Utility\Booyco HMI Utility\Resources\Documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{877D581D-F726-4D0E-A9D1-CD6217655497}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9AC0623D-70D9-40DC-B863-9CE22F9234FB}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{4442C273-631E-40E6-88D2-7449766A5078}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{4442C273-631E-40E6-88D2-7449766A5078}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2391" uniqueCount="1119">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2413" uniqueCount="1130">
   <si>
     <t>Name</t>
   </si>
@@ -3362,9 +3362,6 @@
     <t>AccessLevel</t>
   </si>
   <si>
-    <t>Display Type</t>
-  </si>
-  <si>
     <t>Radar System Type</t>
   </si>
   <si>
@@ -3383,16 +3380,52 @@
     <t>Single Front Rear</t>
   </si>
   <si>
-    <t>7 Inch Display</t>
-  </si>
-  <si>
-    <t>5 Inch Display</t>
-  </si>
-  <si>
-    <t>LED Display</t>
-  </si>
-  <si>
-    <t>Hardware Variant</t>
+    <t>Audio Type</t>
+  </si>
+  <si>
+    <t>Buzzer</t>
+  </si>
+  <si>
+    <t>Speaker</t>
+  </si>
+  <si>
+    <t>Audio</t>
+  </si>
+  <si>
+    <t>Audio Volume</t>
+  </si>
+  <si>
+    <t>PDS Display Type</t>
+  </si>
+  <si>
+    <t>System Statemachine</t>
+  </si>
+  <si>
+    <t>PDS Orientation</t>
+  </si>
+  <si>
+    <t>Front</t>
+  </si>
+  <si>
+    <t>Right</t>
+  </si>
+  <si>
+    <t>Back</t>
+  </si>
+  <si>
+    <t>Left</t>
+  </si>
+  <si>
+    <t>PDS</t>
+  </si>
+  <si>
+    <t>Cartesian</t>
+  </si>
+  <si>
+    <t>Test</t>
+  </si>
+  <si>
+    <t>Dedicated Fullscreen</t>
   </si>
 </sst>
 </file>
@@ -3453,7 +3486,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="5">
+  <borders count="7">
     <border>
       <left/>
       <right/>
@@ -3515,6 +3548,24 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -3522,7 +3573,7 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="3"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="2" applyBorder="1"/>
@@ -3533,6 +3584,9 @@
     <xf numFmtId="0" fontId="3" fillId="4" borderId="4" xfId="3" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="2" xfId="3" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="3" xfId="3" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="6" xfId="3" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="Calculation" xfId="3" builtinId="22"/>
@@ -3850,11 +3904,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E4E73DD7-587F-4C4F-B32B-7B78C2644041}">
-  <dimension ref="A1:P485"/>
+  <dimension ref="A1:P489"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A472" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="L158" sqref="L158"/>
+    <sheetView tabSelected="1" topLeftCell="F1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A477" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="N159" sqref="N159"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -10035,7 +10089,7 @@
         <v>15</v>
       </c>
       <c r="N146" s="9" t="s">
-        <v>1110</v>
+        <v>1109</v>
       </c>
     </row>
     <row r="147" spans="1:14" x14ac:dyDescent="0.25">
@@ -10077,7 +10131,7 @@
         <v>15</v>
       </c>
       <c r="N147" s="9" t="s">
-        <v>1111</v>
+        <v>1110</v>
       </c>
     </row>
     <row r="148" spans="1:14" x14ac:dyDescent="0.25">
@@ -10119,7 +10173,7 @@
         <v>15</v>
       </c>
       <c r="N148" s="9" t="s">
-        <v>1112</v>
+        <v>1111</v>
       </c>
     </row>
     <row r="149" spans="1:14" x14ac:dyDescent="0.25">
@@ -10161,7 +10215,7 @@
         <v>15</v>
       </c>
       <c r="N149" s="9" t="s">
-        <v>1113</v>
+        <v>1112</v>
       </c>
     </row>
     <row r="150" spans="1:14" x14ac:dyDescent="0.25">
@@ -10203,7 +10257,7 @@
         <v>15</v>
       </c>
       <c r="N150" s="9" t="s">
-        <v>1114</v>
+        <v>1113</v>
       </c>
     </row>
     <row r="151" spans="1:14" x14ac:dyDescent="0.25">
@@ -10287,7 +10341,7 @@
         <v>16</v>
       </c>
       <c r="N152" s="9" t="s">
-        <v>1118</v>
+        <v>1115</v>
       </c>
     </row>
     <row r="153" spans="1:14" x14ac:dyDescent="0.25">
@@ -10329,7 +10383,7 @@
         <v>16</v>
       </c>
       <c r="N153" s="9" t="s">
-        <v>1115</v>
+        <v>1116</v>
       </c>
     </row>
     <row r="154" spans="1:14" x14ac:dyDescent="0.25">
@@ -10368,10 +10422,10 @@
         <v>1</v>
       </c>
       <c r="M154" s="9">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="N154" s="9" t="s">
-        <v>1116</v>
+        <v>338</v>
       </c>
     </row>
     <row r="155" spans="1:14" x14ac:dyDescent="0.25">
@@ -10410,10 +10464,10 @@
         <v>1</v>
       </c>
       <c r="M155" s="9">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="N155" s="9" t="s">
-        <v>1117</v>
+        <v>20</v>
       </c>
     </row>
     <row r="156" spans="1:14" x14ac:dyDescent="0.25">
@@ -10451,6 +10505,12 @@
       <c r="K156">
         <v>1</v>
       </c>
+      <c r="M156" s="9">
+        <v>17</v>
+      </c>
+      <c r="N156" s="9" t="s">
+        <v>344</v>
+      </c>
     </row>
     <row r="157" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A157" s="3" t="s">
@@ -10487,6 +10547,12 @@
       <c r="K157">
         <v>1</v>
       </c>
+      <c r="M157" s="9">
+        <v>17</v>
+      </c>
+      <c r="N157" s="9" t="s">
+        <v>21</v>
+      </c>
     </row>
     <row r="158" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A158" s="3" t="s">
@@ -10523,6 +10589,12 @@
       <c r="K158">
         <v>1</v>
       </c>
+      <c r="M158" s="9">
+        <v>18</v>
+      </c>
+      <c r="N158" s="9" t="s">
+        <v>1129</v>
+      </c>
     </row>
     <row r="159" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A159" s="3" t="s">
@@ -10559,6 +10631,12 @@
       <c r="K159">
         <v>1</v>
       </c>
+      <c r="M159" s="9">
+        <v>18</v>
+      </c>
+      <c r="N159" s="9" t="s">
+        <v>1127</v>
+      </c>
     </row>
     <row r="160" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A160" s="3" t="s">
@@ -10595,8 +10673,14 @@
       <c r="K160">
         <v>1</v>
       </c>
-    </row>
-    <row r="161" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="M160" s="9">
+        <v>19</v>
+      </c>
+      <c r="N160" s="12" t="s">
+        <v>1128</v>
+      </c>
+    </row>
+    <row r="161" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A161" s="3" t="s">
         <v>183</v>
       </c>
@@ -10631,8 +10715,14 @@
       <c r="K161">
         <v>1</v>
       </c>
-    </row>
-    <row r="162" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="M161" s="9">
+        <v>19</v>
+      </c>
+      <c r="N161" s="12" t="s">
+        <v>1126</v>
+      </c>
+    </row>
+    <row r="162" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A162" s="3" t="s">
         <v>184</v>
       </c>
@@ -10667,8 +10757,14 @@
       <c r="K162">
         <v>1</v>
       </c>
-    </row>
-    <row r="163" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="M162" s="9">
+        <v>20</v>
+      </c>
+      <c r="N162" t="s">
+        <v>1122</v>
+      </c>
+    </row>
+    <row r="163" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A163" s="3" t="s">
         <v>185</v>
       </c>
@@ -10703,8 +10799,14 @@
       <c r="K163">
         <v>1</v>
       </c>
-    </row>
-    <row r="164" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="M163" s="9">
+        <v>20</v>
+      </c>
+      <c r="N163" t="s">
+        <v>1123</v>
+      </c>
+    </row>
+    <row r="164" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A164" s="3" t="s">
         <v>186</v>
       </c>
@@ -10739,8 +10841,14 @@
       <c r="K164">
         <v>1</v>
       </c>
-    </row>
-    <row r="165" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="M164" s="9">
+        <v>20</v>
+      </c>
+      <c r="N164" t="s">
+        <v>1124</v>
+      </c>
+    </row>
+    <row r="165" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A165" s="3" t="s">
         <v>187</v>
       </c>
@@ -10775,8 +10883,14 @@
       <c r="K165">
         <v>1</v>
       </c>
-    </row>
-    <row r="166" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="M165" s="9">
+        <v>20</v>
+      </c>
+      <c r="N165" t="s">
+        <v>1125</v>
+      </c>
+    </row>
+    <row r="166" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A166" s="3" t="s">
         <v>188</v>
       </c>
@@ -10811,8 +10925,9 @@
       <c r="K166">
         <v>1</v>
       </c>
-    </row>
-    <row r="167" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="M166" s="9"/>
+    </row>
+    <row r="167" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A167" s="3" t="s">
         <v>189</v>
       </c>
@@ -10847,8 +10962,9 @@
       <c r="K167">
         <v>1</v>
       </c>
-    </row>
-    <row r="168" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="M167" s="9"/>
+    </row>
+    <row r="168" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A168" s="3" t="s">
         <v>190</v>
       </c>
@@ -10883,8 +10999,9 @@
       <c r="K168">
         <v>1</v>
       </c>
-    </row>
-    <row r="169" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="M168" s="9"/>
+    </row>
+    <row r="169" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A169" s="3" t="s">
         <v>191</v>
       </c>
@@ -10920,7 +11037,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="170" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A170" s="3" t="s">
         <v>192</v>
       </c>
@@ -10956,7 +11073,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="171" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A171" s="3" t="s">
         <v>193</v>
       </c>
@@ -10992,7 +11109,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="172" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A172" s="3" t="s">
         <v>194</v>
       </c>
@@ -11028,7 +11145,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="173" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A173" s="3" t="s">
         <v>195</v>
       </c>
@@ -11064,7 +11181,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="174" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A174" s="3" t="s">
         <v>196</v>
       </c>
@@ -11100,7 +11217,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="175" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A175" s="3" t="s">
         <v>197</v>
       </c>
@@ -11136,7 +11253,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="176" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A176" s="3" t="s">
         <v>198</v>
       </c>
@@ -21620,7 +21737,7 @@
     </row>
     <row r="484" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A484" s="5" t="s">
-        <v>1109</v>
+        <v>1108</v>
       </c>
       <c r="B484">
         <v>1</v>
@@ -21652,16 +21769,16 @@
     </row>
     <row r="485" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A485" s="5" t="s">
-        <v>1108</v>
+        <v>1114</v>
       </c>
       <c r="B485">
         <v>1</v>
       </c>
       <c r="C485" s="5">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D485" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E485" s="5">
         <v>1</v>
@@ -21673,12 +21790,140 @@
         <v>16</v>
       </c>
       <c r="H485" s="5" t="s">
+        <v>492</v>
+      </c>
+      <c r="I485" s="5" t="s">
+        <v>1117</v>
+      </c>
+      <c r="K485">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="486" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A486" s="5" t="s">
+        <v>1118</v>
+      </c>
+      <c r="B486">
+        <v>1</v>
+      </c>
+      <c r="C486" s="5">
+        <v>3</v>
+      </c>
+      <c r="D486" s="5">
+        <v>0</v>
+      </c>
+      <c r="E486" s="5">
+        <v>3</v>
+      </c>
+      <c r="F486" s="5">
+        <v>2</v>
+      </c>
+      <c r="G486" s="5">
+        <v>17</v>
+      </c>
+      <c r="H486" s="5" t="s">
+        <v>492</v>
+      </c>
+      <c r="I486" s="5" t="s">
+        <v>1117</v>
+      </c>
+      <c r="K486">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="487" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A487" s="5" t="s">
+        <v>1119</v>
+      </c>
+      <c r="B487">
+        <v>0</v>
+      </c>
+      <c r="C487" s="5">
+        <v>1</v>
+      </c>
+      <c r="D487" s="5">
+        <v>0</v>
+      </c>
+      <c r="E487" s="5">
+        <v>0</v>
+      </c>
+      <c r="F487" s="5">
+        <v>2</v>
+      </c>
+      <c r="G487" s="5">
+        <v>18</v>
+      </c>
+      <c r="H487" s="5" t="s">
         <v>504</v>
       </c>
-      <c r="I485" s="5" t="s">
-        <v>492</v>
-      </c>
-      <c r="K485">
+      <c r="I487" s="5" t="s">
+        <v>506</v>
+      </c>
+      <c r="K487">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="488" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A488" s="5" t="s">
+        <v>1120</v>
+      </c>
+      <c r="B488">
+        <v>0</v>
+      </c>
+      <c r="C488" s="5">
+        <v>1</v>
+      </c>
+      <c r="D488" s="5">
+        <v>0</v>
+      </c>
+      <c r="E488" s="5">
+        <v>0</v>
+      </c>
+      <c r="F488" s="5">
+        <v>2</v>
+      </c>
+      <c r="G488" s="5">
+        <v>19</v>
+      </c>
+      <c r="H488" s="5" t="s">
+        <v>504</v>
+      </c>
+      <c r="I488" s="5" t="s">
+        <v>506</v>
+      </c>
+      <c r="K488">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="489" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A489" s="5" t="s">
+        <v>1121</v>
+      </c>
+      <c r="B489">
+        <v>0</v>
+      </c>
+      <c r="C489" s="10">
+        <v>3</v>
+      </c>
+      <c r="D489" s="10">
+        <v>0</v>
+      </c>
+      <c r="E489" s="10">
+        <v>0</v>
+      </c>
+      <c r="F489" s="10">
+        <v>2</v>
+      </c>
+      <c r="G489" s="11">
+        <v>20</v>
+      </c>
+      <c r="H489" s="5" t="s">
+        <v>504</v>
+      </c>
+      <c r="I489" s="5" t="s">
+        <v>506</v>
+      </c>
+      <c r="K489">
         <v>1</v>
       </c>
     </row>

--- a/Booyco HMI Utility/Resources/Documents/CommanderParametersFile.xlsx
+++ b/Booyco HMI Utility/Resources/Documents/CommanderParametersFile.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Cloud Storage\Dropbox (Mernok Elektronik)\Mernok\DEVPRJ-168 (Booyco HMI)\Software\Booyco-HMI-Utility\Booyco HMI Utility\Resources\Documents\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Mernok\DEVPRJ-168 (Booyco HMI)\Software\Booyco-HMI-Utility\Booyco HMI Utility\Resources\Documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9AC0623D-70D9-40DC-B863-9CE22F9234FB}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{877D581D-F726-4D0E-A9D1-CD6217655497}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{4442C273-631E-40E6-88D2-7449766A5078}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{4442C273-631E-40E6-88D2-7449766A5078}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2413" uniqueCount="1130">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2391" uniqueCount="1119">
   <si>
     <t>Name</t>
   </si>
@@ -3362,6 +3362,9 @@
     <t>AccessLevel</t>
   </si>
   <si>
+    <t>Display Type</t>
+  </si>
+  <si>
     <t>Radar System Type</t>
   </si>
   <si>
@@ -3380,52 +3383,16 @@
     <t>Single Front Rear</t>
   </si>
   <si>
-    <t>Audio Type</t>
-  </si>
-  <si>
-    <t>Buzzer</t>
-  </si>
-  <si>
-    <t>Speaker</t>
-  </si>
-  <si>
-    <t>Audio</t>
-  </si>
-  <si>
-    <t>Audio Volume</t>
-  </si>
-  <si>
-    <t>PDS Display Type</t>
-  </si>
-  <si>
-    <t>System Statemachine</t>
-  </si>
-  <si>
-    <t>PDS Orientation</t>
-  </si>
-  <si>
-    <t>Front</t>
-  </si>
-  <si>
-    <t>Right</t>
-  </si>
-  <si>
-    <t>Back</t>
-  </si>
-  <si>
-    <t>Left</t>
-  </si>
-  <si>
-    <t>PDS</t>
-  </si>
-  <si>
-    <t>Cartesian</t>
-  </si>
-  <si>
-    <t>Test</t>
-  </si>
-  <si>
-    <t>Dedicated Fullscreen</t>
+    <t>7 Inch Display</t>
+  </si>
+  <si>
+    <t>5 Inch Display</t>
+  </si>
+  <si>
+    <t>LED Display</t>
+  </si>
+  <si>
+    <t>Hardware Variant</t>
   </si>
 </sst>
 </file>
@@ -3486,7 +3453,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="7">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -3548,24 +3515,6 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -3573,7 +3522,7 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="3"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="2" applyBorder="1"/>
@@ -3584,9 +3533,6 @@
     <xf numFmtId="0" fontId="3" fillId="4" borderId="4" xfId="3" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="2" xfId="3" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="3" xfId="3" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="6" xfId="3" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="Calculation" xfId="3" builtinId="22"/>
@@ -3904,11 +3850,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E4E73DD7-587F-4C4F-B32B-7B78C2644041}">
-  <dimension ref="A1:P489"/>
+  <dimension ref="A1:P485"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A477" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="N159" sqref="N159"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A472" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="L158" sqref="L158"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -10089,7 +10035,7 @@
         <v>15</v>
       </c>
       <c r="N146" s="9" t="s">
-        <v>1109</v>
+        <v>1110</v>
       </c>
     </row>
     <row r="147" spans="1:14" x14ac:dyDescent="0.25">
@@ -10131,7 +10077,7 @@
         <v>15</v>
       </c>
       <c r="N147" s="9" t="s">
-        <v>1110</v>
+        <v>1111</v>
       </c>
     </row>
     <row r="148" spans="1:14" x14ac:dyDescent="0.25">
@@ -10173,7 +10119,7 @@
         <v>15</v>
       </c>
       <c r="N148" s="9" t="s">
-        <v>1111</v>
+        <v>1112</v>
       </c>
     </row>
     <row r="149" spans="1:14" x14ac:dyDescent="0.25">
@@ -10215,7 +10161,7 @@
         <v>15</v>
       </c>
       <c r="N149" s="9" t="s">
-        <v>1112</v>
+        <v>1113</v>
       </c>
     </row>
     <row r="150" spans="1:14" x14ac:dyDescent="0.25">
@@ -10257,7 +10203,7 @@
         <v>15</v>
       </c>
       <c r="N150" s="9" t="s">
-        <v>1113</v>
+        <v>1114</v>
       </c>
     </row>
     <row r="151" spans="1:14" x14ac:dyDescent="0.25">
@@ -10341,7 +10287,7 @@
         <v>16</v>
       </c>
       <c r="N152" s="9" t="s">
-        <v>1115</v>
+        <v>1118</v>
       </c>
     </row>
     <row r="153" spans="1:14" x14ac:dyDescent="0.25">
@@ -10383,7 +10329,7 @@
         <v>16</v>
       </c>
       <c r="N153" s="9" t="s">
-        <v>1116</v>
+        <v>1115</v>
       </c>
     </row>
     <row r="154" spans="1:14" x14ac:dyDescent="0.25">
@@ -10422,10 +10368,10 @@
         <v>1</v>
       </c>
       <c r="M154" s="9">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="N154" s="9" t="s">
-        <v>338</v>
+        <v>1116</v>
       </c>
     </row>
     <row r="155" spans="1:14" x14ac:dyDescent="0.25">
@@ -10464,10 +10410,10 @@
         <v>1</v>
       </c>
       <c r="M155" s="9">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="N155" s="9" t="s">
-        <v>20</v>
+        <v>1117</v>
       </c>
     </row>
     <row r="156" spans="1:14" x14ac:dyDescent="0.25">
@@ -10505,12 +10451,6 @@
       <c r="K156">
         <v>1</v>
       </c>
-      <c r="M156" s="9">
-        <v>17</v>
-      </c>
-      <c r="N156" s="9" t="s">
-        <v>344</v>
-      </c>
     </row>
     <row r="157" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A157" s="3" t="s">
@@ -10547,12 +10487,6 @@
       <c r="K157">
         <v>1</v>
       </c>
-      <c r="M157" s="9">
-        <v>17</v>
-      </c>
-      <c r="N157" s="9" t="s">
-        <v>21</v>
-      </c>
     </row>
     <row r="158" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A158" s="3" t="s">
@@ -10589,12 +10523,6 @@
       <c r="K158">
         <v>1</v>
       </c>
-      <c r="M158" s="9">
-        <v>18</v>
-      </c>
-      <c r="N158" s="9" t="s">
-        <v>1129</v>
-      </c>
     </row>
     <row r="159" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A159" s="3" t="s">
@@ -10631,12 +10559,6 @@
       <c r="K159">
         <v>1</v>
       </c>
-      <c r="M159" s="9">
-        <v>18</v>
-      </c>
-      <c r="N159" s="9" t="s">
-        <v>1127</v>
-      </c>
     </row>
     <row r="160" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A160" s="3" t="s">
@@ -10673,14 +10595,8 @@
       <c r="K160">
         <v>1</v>
       </c>
-      <c r="M160" s="9">
-        <v>19</v>
-      </c>
-      <c r="N160" s="12" t="s">
-        <v>1128</v>
-      </c>
-    </row>
-    <row r="161" spans="1:14" x14ac:dyDescent="0.25">
+    </row>
+    <row r="161" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A161" s="3" t="s">
         <v>183</v>
       </c>
@@ -10715,14 +10631,8 @@
       <c r="K161">
         <v>1</v>
       </c>
-      <c r="M161" s="9">
-        <v>19</v>
-      </c>
-      <c r="N161" s="12" t="s">
-        <v>1126</v>
-      </c>
-    </row>
-    <row r="162" spans="1:14" x14ac:dyDescent="0.25">
+    </row>
+    <row r="162" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A162" s="3" t="s">
         <v>184</v>
       </c>
@@ -10757,14 +10667,8 @@
       <c r="K162">
         <v>1</v>
       </c>
-      <c r="M162" s="9">
-        <v>20</v>
-      </c>
-      <c r="N162" t="s">
-        <v>1122</v>
-      </c>
-    </row>
-    <row r="163" spans="1:14" x14ac:dyDescent="0.25">
+    </row>
+    <row r="163" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A163" s="3" t="s">
         <v>185</v>
       </c>
@@ -10799,14 +10703,8 @@
       <c r="K163">
         <v>1</v>
       </c>
-      <c r="M163" s="9">
-        <v>20</v>
-      </c>
-      <c r="N163" t="s">
-        <v>1123</v>
-      </c>
-    </row>
-    <row r="164" spans="1:14" x14ac:dyDescent="0.25">
+    </row>
+    <row r="164" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A164" s="3" t="s">
         <v>186</v>
       </c>
@@ -10841,14 +10739,8 @@
       <c r="K164">
         <v>1</v>
       </c>
-      <c r="M164" s="9">
-        <v>20</v>
-      </c>
-      <c r="N164" t="s">
-        <v>1124</v>
-      </c>
-    </row>
-    <row r="165" spans="1:14" x14ac:dyDescent="0.25">
+    </row>
+    <row r="165" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A165" s="3" t="s">
         <v>187</v>
       </c>
@@ -10883,14 +10775,8 @@
       <c r="K165">
         <v>1</v>
       </c>
-      <c r="M165" s="9">
-        <v>20</v>
-      </c>
-      <c r="N165" t="s">
-        <v>1125</v>
-      </c>
-    </row>
-    <row r="166" spans="1:14" x14ac:dyDescent="0.25">
+    </row>
+    <row r="166" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A166" s="3" t="s">
         <v>188</v>
       </c>
@@ -10925,9 +10811,8 @@
       <c r="K166">
         <v>1</v>
       </c>
-      <c r="M166" s="9"/>
-    </row>
-    <row r="167" spans="1:14" x14ac:dyDescent="0.25">
+    </row>
+    <row r="167" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A167" s="3" t="s">
         <v>189</v>
       </c>
@@ -10962,9 +10847,8 @@
       <c r="K167">
         <v>1</v>
       </c>
-      <c r="M167" s="9"/>
-    </row>
-    <row r="168" spans="1:14" x14ac:dyDescent="0.25">
+    </row>
+    <row r="168" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A168" s="3" t="s">
         <v>190</v>
       </c>
@@ -10999,9 +10883,8 @@
       <c r="K168">
         <v>1</v>
       </c>
-      <c r="M168" s="9"/>
-    </row>
-    <row r="169" spans="1:14" x14ac:dyDescent="0.25">
+    </row>
+    <row r="169" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A169" s="3" t="s">
         <v>191</v>
       </c>
@@ -11037,7 +10920,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="170" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A170" s="3" t="s">
         <v>192</v>
       </c>
@@ -11073,7 +10956,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="171" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A171" s="3" t="s">
         <v>193</v>
       </c>
@@ -11109,7 +10992,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="172" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A172" s="3" t="s">
         <v>194</v>
       </c>
@@ -11145,7 +11028,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="173" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A173" s="3" t="s">
         <v>195</v>
       </c>
@@ -11181,7 +11064,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="174" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A174" s="3" t="s">
         <v>196</v>
       </c>
@@ -11217,7 +11100,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="175" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A175" s="3" t="s">
         <v>197</v>
       </c>
@@ -11253,7 +11136,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="176" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A176" s="3" t="s">
         <v>198</v>
       </c>
@@ -21737,7 +21620,7 @@
     </row>
     <row r="484" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A484" s="5" t="s">
-        <v>1108</v>
+        <v>1109</v>
       </c>
       <c r="B484">
         <v>1</v>
@@ -21769,16 +21652,16 @@
     </row>
     <row r="485" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A485" s="5" t="s">
-        <v>1114</v>
+        <v>1108</v>
       </c>
       <c r="B485">
         <v>1</v>
       </c>
       <c r="C485" s="5">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D485" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E485" s="5">
         <v>1</v>
@@ -21790,140 +21673,12 @@
         <v>16</v>
       </c>
       <c r="H485" s="5" t="s">
+        <v>504</v>
+      </c>
+      <c r="I485" s="5" t="s">
         <v>492</v>
       </c>
-      <c r="I485" s="5" t="s">
-        <v>1117</v>
-      </c>
       <c r="K485">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="486" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A486" s="5" t="s">
-        <v>1118</v>
-      </c>
-      <c r="B486">
-        <v>1</v>
-      </c>
-      <c r="C486" s="5">
-        <v>3</v>
-      </c>
-      <c r="D486" s="5">
-        <v>0</v>
-      </c>
-      <c r="E486" s="5">
-        <v>3</v>
-      </c>
-      <c r="F486" s="5">
-        <v>2</v>
-      </c>
-      <c r="G486" s="5">
-        <v>17</v>
-      </c>
-      <c r="H486" s="5" t="s">
-        <v>492</v>
-      </c>
-      <c r="I486" s="5" t="s">
-        <v>1117</v>
-      </c>
-      <c r="K486">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="487" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A487" s="5" t="s">
-        <v>1119</v>
-      </c>
-      <c r="B487">
-        <v>0</v>
-      </c>
-      <c r="C487" s="5">
-        <v>1</v>
-      </c>
-      <c r="D487" s="5">
-        <v>0</v>
-      </c>
-      <c r="E487" s="5">
-        <v>0</v>
-      </c>
-      <c r="F487" s="5">
-        <v>2</v>
-      </c>
-      <c r="G487" s="5">
-        <v>18</v>
-      </c>
-      <c r="H487" s="5" t="s">
-        <v>504</v>
-      </c>
-      <c r="I487" s="5" t="s">
-        <v>506</v>
-      </c>
-      <c r="K487">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="488" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A488" s="5" t="s">
-        <v>1120</v>
-      </c>
-      <c r="B488">
-        <v>0</v>
-      </c>
-      <c r="C488" s="5">
-        <v>1</v>
-      </c>
-      <c r="D488" s="5">
-        <v>0</v>
-      </c>
-      <c r="E488" s="5">
-        <v>0</v>
-      </c>
-      <c r="F488" s="5">
-        <v>2</v>
-      </c>
-      <c r="G488" s="5">
-        <v>19</v>
-      </c>
-      <c r="H488" s="5" t="s">
-        <v>504</v>
-      </c>
-      <c r="I488" s="5" t="s">
-        <v>506</v>
-      </c>
-      <c r="K488">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="489" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A489" s="5" t="s">
-        <v>1121</v>
-      </c>
-      <c r="B489">
-        <v>0</v>
-      </c>
-      <c r="C489" s="10">
-        <v>3</v>
-      </c>
-      <c r="D489" s="10">
-        <v>0</v>
-      </c>
-      <c r="E489" s="10">
-        <v>0</v>
-      </c>
-      <c r="F489" s="10">
-        <v>2</v>
-      </c>
-      <c r="G489" s="11">
-        <v>20</v>
-      </c>
-      <c r="H489" s="5" t="s">
-        <v>504</v>
-      </c>
-      <c r="I489" s="5" t="s">
-        <v>506</v>
-      </c>
-      <c r="K489">
         <v>1</v>
       </c>
     </row>

--- a/Booyco HMI Utility/Resources/Documents/CommanderParametersFile.xlsx
+++ b/Booyco HMI Utility/Resources/Documents/CommanderParametersFile.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Mernok\DEVPRJ-168 (Booyco HMI)\Software\Booyco-HMI-Utility\Booyco HMI Utility\Resources\Documents\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Cloud Storage\Dropbox (Mernok Elektronik)\Mernok\DEVPRJ-168 (Booyco HMI)\Software\Booyco-HMI-Utility\Booyco HMI Utility\Resources\Documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{877D581D-F726-4D0E-A9D1-CD6217655497}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{21221014-7B20-4EC3-A20C-FC18F4CCC350}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{4442C273-631E-40E6-88D2-7449766A5078}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2391" uniqueCount="1119">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2412" uniqueCount="1129">
   <si>
     <t>Name</t>
   </si>
@@ -3362,9 +3362,6 @@
     <t>AccessLevel</t>
   </si>
   <si>
-    <t>Display Type</t>
-  </si>
-  <si>
     <t>Radar System Type</t>
   </si>
   <si>
@@ -3383,16 +3380,49 @@
     <t>Single Front Rear</t>
   </si>
   <si>
-    <t>7 Inch Display</t>
-  </si>
-  <si>
-    <t>5 Inch Display</t>
-  </si>
-  <si>
-    <t>LED Display</t>
-  </si>
-  <si>
-    <t>Hardware Variant</t>
+    <t>Audio Type</t>
+  </si>
+  <si>
+    <t>Buzzer</t>
+  </si>
+  <si>
+    <t>Speaker</t>
+  </si>
+  <si>
+    <t>Audio</t>
+  </si>
+  <si>
+    <t>Audio Volume</t>
+  </si>
+  <si>
+    <t>PDS Display Type</t>
+  </si>
+  <si>
+    <t>System Statemachine</t>
+  </si>
+  <si>
+    <t>PDS Orientation</t>
+  </si>
+  <si>
+    <t>PDS</t>
+  </si>
+  <si>
+    <t>Cartesian</t>
+  </si>
+  <si>
+    <t>Dedicated Fullscreen</t>
+  </si>
+  <si>
+    <t>0 Degrees</t>
+  </si>
+  <si>
+    <t>90 Degrees</t>
+  </si>
+  <si>
+    <t>180 Degrees</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Test </t>
   </si>
 </sst>
 </file>
@@ -3453,7 +3483,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="5">
+  <borders count="7">
     <border>
       <left/>
       <right/>
@@ -3515,6 +3545,24 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -3522,7 +3570,7 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="3"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="2" applyBorder="1"/>
@@ -3533,6 +3581,9 @@
     <xf numFmtId="0" fontId="3" fillId="4" borderId="4" xfId="3" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="2" xfId="3" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="3" xfId="3" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="6" xfId="3" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="Calculation" xfId="3" builtinId="22"/>
@@ -3850,11 +3901,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E4E73DD7-587F-4C4F-B32B-7B78C2644041}">
-  <dimension ref="A1:P485"/>
+  <dimension ref="A1:P489"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A472" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="L158" sqref="L158"/>
+    <sheetView tabSelected="1" topLeftCell="I1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A82" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C489" sqref="C489"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -10035,7 +10086,7 @@
         <v>15</v>
       </c>
       <c r="N146" s="9" t="s">
-        <v>1110</v>
+        <v>1109</v>
       </c>
     </row>
     <row r="147" spans="1:14" x14ac:dyDescent="0.25">
@@ -10077,7 +10128,7 @@
         <v>15</v>
       </c>
       <c r="N147" s="9" t="s">
-        <v>1111</v>
+        <v>1110</v>
       </c>
     </row>
     <row r="148" spans="1:14" x14ac:dyDescent="0.25">
@@ -10119,7 +10170,7 @@
         <v>15</v>
       </c>
       <c r="N148" s="9" t="s">
-        <v>1112</v>
+        <v>1111</v>
       </c>
     </row>
     <row r="149" spans="1:14" x14ac:dyDescent="0.25">
@@ -10161,7 +10212,7 @@
         <v>15</v>
       </c>
       <c r="N149" s="9" t="s">
-        <v>1113</v>
+        <v>1112</v>
       </c>
     </row>
     <row r="150" spans="1:14" x14ac:dyDescent="0.25">
@@ -10203,7 +10254,7 @@
         <v>15</v>
       </c>
       <c r="N150" s="9" t="s">
-        <v>1114</v>
+        <v>1113</v>
       </c>
     </row>
     <row r="151" spans="1:14" x14ac:dyDescent="0.25">
@@ -10287,7 +10338,7 @@
         <v>16</v>
       </c>
       <c r="N152" s="9" t="s">
-        <v>1118</v>
+        <v>1115</v>
       </c>
     </row>
     <row r="153" spans="1:14" x14ac:dyDescent="0.25">
@@ -10329,7 +10380,7 @@
         <v>16</v>
       </c>
       <c r="N153" s="9" t="s">
-        <v>1115</v>
+        <v>1116</v>
       </c>
     </row>
     <row r="154" spans="1:14" x14ac:dyDescent="0.25">
@@ -10368,10 +10419,10 @@
         <v>1</v>
       </c>
       <c r="M154" s="9">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="N154" s="9" t="s">
-        <v>1116</v>
+        <v>338</v>
       </c>
     </row>
     <row r="155" spans="1:14" x14ac:dyDescent="0.25">
@@ -10410,10 +10461,10 @@
         <v>1</v>
       </c>
       <c r="M155" s="9">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="N155" s="9" t="s">
-        <v>1117</v>
+        <v>20</v>
       </c>
     </row>
     <row r="156" spans="1:14" x14ac:dyDescent="0.25">
@@ -10451,6 +10502,12 @@
       <c r="K156">
         <v>1</v>
       </c>
+      <c r="M156" s="9">
+        <v>17</v>
+      </c>
+      <c r="N156" s="9" t="s">
+        <v>344</v>
+      </c>
     </row>
     <row r="157" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A157" s="3" t="s">
@@ -10487,6 +10544,12 @@
       <c r="K157">
         <v>1</v>
       </c>
+      <c r="M157" s="9">
+        <v>17</v>
+      </c>
+      <c r="N157" s="9" t="s">
+        <v>21</v>
+      </c>
     </row>
     <row r="158" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A158" s="3" t="s">
@@ -10523,6 +10586,12 @@
       <c r="K158">
         <v>1</v>
       </c>
+      <c r="M158" s="9">
+        <v>18</v>
+      </c>
+      <c r="N158" s="9" t="s">
+        <v>1124</v>
+      </c>
     </row>
     <row r="159" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A159" s="3" t="s">
@@ -10559,6 +10628,12 @@
       <c r="K159">
         <v>1</v>
       </c>
+      <c r="M159" s="9">
+        <v>18</v>
+      </c>
+      <c r="N159" s="9" t="s">
+        <v>1123</v>
+      </c>
     </row>
     <row r="160" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A160" s="3" t="s">
@@ -10595,8 +10670,14 @@
       <c r="K160">
         <v>1</v>
       </c>
-    </row>
-    <row r="161" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="M160" s="9">
+        <v>19</v>
+      </c>
+      <c r="N160" s="12" t="s">
+        <v>1128</v>
+      </c>
+    </row>
+    <row r="161" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A161" s="3" t="s">
         <v>183</v>
       </c>
@@ -10631,8 +10712,14 @@
       <c r="K161">
         <v>1</v>
       </c>
-    </row>
-    <row r="162" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="M161" s="9">
+        <v>19</v>
+      </c>
+      <c r="N161" s="12" t="s">
+        <v>1122</v>
+      </c>
+    </row>
+    <row r="162" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A162" s="3" t="s">
         <v>184</v>
       </c>
@@ -10667,8 +10754,14 @@
       <c r="K162">
         <v>1</v>
       </c>
-    </row>
-    <row r="163" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="M162" s="9">
+        <v>20</v>
+      </c>
+      <c r="N162" t="s">
+        <v>1125</v>
+      </c>
+    </row>
+    <row r="163" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A163" s="3" t="s">
         <v>185</v>
       </c>
@@ -10703,8 +10796,14 @@
       <c r="K163">
         <v>1</v>
       </c>
-    </row>
-    <row r="164" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="M163" s="9">
+        <v>20</v>
+      </c>
+      <c r="N163" t="s">
+        <v>1126</v>
+      </c>
+    </row>
+    <row r="164" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A164" s="3" t="s">
         <v>186</v>
       </c>
@@ -10739,8 +10838,14 @@
       <c r="K164">
         <v>1</v>
       </c>
-    </row>
-    <row r="165" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="M164" s="9">
+        <v>20</v>
+      </c>
+      <c r="N164" t="s">
+        <v>1127</v>
+      </c>
+    </row>
+    <row r="165" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A165" s="3" t="s">
         <v>187</v>
       </c>
@@ -10775,8 +10880,9 @@
       <c r="K165">
         <v>1</v>
       </c>
-    </row>
-    <row r="166" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="M165" s="9"/>
+    </row>
+    <row r="166" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A166" s="3" t="s">
         <v>188</v>
       </c>
@@ -10811,8 +10917,9 @@
       <c r="K166">
         <v>1</v>
       </c>
-    </row>
-    <row r="167" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="M166" s="9"/>
+    </row>
+    <row r="167" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A167" s="3" t="s">
         <v>189</v>
       </c>
@@ -10847,8 +10954,9 @@
       <c r="K167">
         <v>1</v>
       </c>
-    </row>
-    <row r="168" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="M167" s="9"/>
+    </row>
+    <row r="168" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A168" s="3" t="s">
         <v>190</v>
       </c>
@@ -10883,8 +10991,9 @@
       <c r="K168">
         <v>1</v>
       </c>
-    </row>
-    <row r="169" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="M168" s="9"/>
+    </row>
+    <row r="169" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A169" s="3" t="s">
         <v>191</v>
       </c>
@@ -10920,7 +11029,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="170" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A170" s="3" t="s">
         <v>192</v>
       </c>
@@ -10956,7 +11065,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="171" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A171" s="3" t="s">
         <v>193</v>
       </c>
@@ -10992,7 +11101,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="172" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A172" s="3" t="s">
         <v>194</v>
       </c>
@@ -11028,7 +11137,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="173" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A173" s="3" t="s">
         <v>195</v>
       </c>
@@ -11064,7 +11173,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="174" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A174" s="3" t="s">
         <v>196</v>
       </c>
@@ -11100,7 +11209,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="175" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A175" s="3" t="s">
         <v>197</v>
       </c>
@@ -11136,7 +11245,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="176" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A176" s="3" t="s">
         <v>198</v>
       </c>
@@ -21620,7 +21729,7 @@
     </row>
     <row r="484" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A484" s="5" t="s">
-        <v>1109</v>
+        <v>1108</v>
       </c>
       <c r="B484">
         <v>1</v>
@@ -21652,16 +21761,16 @@
     </row>
     <row r="485" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A485" s="5" t="s">
-        <v>1108</v>
+        <v>1114</v>
       </c>
       <c r="B485">
         <v>1</v>
       </c>
       <c r="C485" s="5">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D485" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E485" s="5">
         <v>1</v>
@@ -21673,12 +21782,140 @@
         <v>16</v>
       </c>
       <c r="H485" s="5" t="s">
+        <v>492</v>
+      </c>
+      <c r="I485" s="5" t="s">
+        <v>1117</v>
+      </c>
+      <c r="K485">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="486" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A486" s="5" t="s">
+        <v>1118</v>
+      </c>
+      <c r="B486">
+        <v>1</v>
+      </c>
+      <c r="C486" s="5">
+        <v>3</v>
+      </c>
+      <c r="D486" s="5">
+        <v>0</v>
+      </c>
+      <c r="E486" s="5">
+        <v>3</v>
+      </c>
+      <c r="F486" s="5">
+        <v>2</v>
+      </c>
+      <c r="G486" s="5">
+        <v>17</v>
+      </c>
+      <c r="H486" s="5" t="s">
+        <v>492</v>
+      </c>
+      <c r="I486" s="5" t="s">
+        <v>1117</v>
+      </c>
+      <c r="K486">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="487" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A487" s="5" t="s">
+        <v>1119</v>
+      </c>
+      <c r="B487">
+        <v>0</v>
+      </c>
+      <c r="C487" s="5">
+        <v>1</v>
+      </c>
+      <c r="D487" s="5">
+        <v>0</v>
+      </c>
+      <c r="E487" s="5">
+        <v>0</v>
+      </c>
+      <c r="F487" s="5">
+        <v>2</v>
+      </c>
+      <c r="G487" s="5">
+        <v>18</v>
+      </c>
+      <c r="H487" s="5" t="s">
         <v>504</v>
       </c>
-      <c r="I485" s="5" t="s">
-        <v>492</v>
-      </c>
-      <c r="K485">
+      <c r="I487" s="5" t="s">
+        <v>506</v>
+      </c>
+      <c r="K487">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="488" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A488" s="5" t="s">
+        <v>1120</v>
+      </c>
+      <c r="B488">
+        <v>0</v>
+      </c>
+      <c r="C488" s="5">
+        <v>1</v>
+      </c>
+      <c r="D488" s="5">
+        <v>0</v>
+      </c>
+      <c r="E488" s="5">
+        <v>0</v>
+      </c>
+      <c r="F488" s="5">
+        <v>2</v>
+      </c>
+      <c r="G488" s="5">
+        <v>19</v>
+      </c>
+      <c r="H488" s="5" t="s">
+        <v>504</v>
+      </c>
+      <c r="I488" s="5" t="s">
+        <v>506</v>
+      </c>
+      <c r="K488">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="489" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A489" s="5" t="s">
+        <v>1121</v>
+      </c>
+      <c r="B489">
+        <v>0</v>
+      </c>
+      <c r="C489" s="10">
+        <v>2</v>
+      </c>
+      <c r="D489" s="10">
+        <v>0</v>
+      </c>
+      <c r="E489" s="10">
+        <v>0</v>
+      </c>
+      <c r="F489" s="10">
+        <v>2</v>
+      </c>
+      <c r="G489" s="11">
+        <v>20</v>
+      </c>
+      <c r="H489" s="5" t="s">
+        <v>504</v>
+      </c>
+      <c r="I489" s="5" t="s">
+        <v>506</v>
+      </c>
+      <c r="K489">
         <v>1</v>
       </c>
     </row>

--- a/Booyco HMI Utility/Resources/Documents/CommanderParametersFile.xlsx
+++ b/Booyco HMI Utility/Resources/Documents/CommanderParametersFile.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Cloud Storage\Dropbox (Mernok Elektronik)\Mernok\DEVPRJ-168 (Booyco HMI)\Software\Github\Singlemachine\Booyco-HMI-Utility\Booyco HMI Utility\Resources\Documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{52B67504-950C-43D4-8D70-1B1BCBE5E05C}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CD2C065A-11DA-4BB0-8337-BBA8587EEE45}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{4442C273-631E-40E6-88D2-7449766A5078}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{4442C273-631E-40E6-88D2-7449766A5078}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -4031,8 +4031,8 @@
   <dimension ref="A1:P508"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A260" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A273" sqref="A273"/>
+      <pane ySplit="1" topLeftCell="A483" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="I512" sqref="I512"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -23279,10 +23279,10 @@
         <v>0</v>
       </c>
       <c r="H503" s="3" t="s">
-        <v>467</v>
+        <v>1122</v>
       </c>
       <c r="I503" s="3" t="s">
-        <v>472</v>
+        <v>1083</v>
       </c>
       <c r="J503" t="s">
         <v>317</v>
@@ -23468,10 +23468,10 @@
     </row>
   </sheetData>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H2:H4 H505:H508 H7:H35 H503 H41:H484" xr:uid="{EE42F429-08A4-4BE3-8F84-6536CE0CFC40}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H2:H4 H505:H508 H7:H35 H41:H484" xr:uid="{EE42F429-08A4-4BE3-8F84-6536CE0CFC40}">
       <formula1>Groups</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H36:H40 I491:I493 H494:I502 H490:H493 H5:H6 I506:I508 I503 I2:I484" xr:uid="{7C24A3BA-34E6-47FE-B467-51CD70DB74D4}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H36:H40 I491:I493 H494:I502 H490:H493 H5:H6 I506:I508 I2:I484" xr:uid="{7C24A3BA-34E6-47FE-B467-51CD70DB74D4}">
       <formula1>SubGroups</formula1>
     </dataValidation>
   </dataValidations>
